--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -58,8 +58,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -553,430 +552,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0198274</v>
+                  <v>0.019845</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0198243</v>
+                  <v>0.0198904</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0198059</v>
+                  <v>0.0199411</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0199393</v>
+                  <v>0.0199892</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0198465</v>
+                  <v>0.0201312</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0200695</v>
+                  <v>0.0202981</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0203167</v>
+                  <v>0.0205168</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0207984</v>
+                  <v>0.0208663</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.019398</v>
+                  <v>0.0194247</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0196474</v>
+                  <v>0.0196249</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0198002</v>
+                  <v>0.0198597</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0198351</v>
+                  <v>0.019879</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.020005</v>
+                  <v>0.0201309</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0201547</v>
+                  <v>0.0201944</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0202387</v>
+                  <v>0.0204396</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0202416</v>
+                  <v>0.0204292</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0205515</v>
+                  <v>0.0206016</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.020734</v>
+                  <v>0.0208694</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0208632</v>
+                  <v>0.0208716</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0212432</v>
+                  <v>0.021266</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0218651</v>
+                  <v>0.0221654</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0253637</v>
+                  <v>0.0254766</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0203899</v>
+                  <v>0.0204662</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0204771</v>
+                  <v>0.0205747</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0206748</v>
+                  <v>0.0207285</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0207843</v>
+                  <v>0.0208946</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0210829</v>
+                  <v>0.0211401</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0211716</v>
+                  <v>0.0213119</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0214289</v>
+                  <v>0.0214143</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0215001</v>
+                  <v>0.0217806</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0218002</v>
+                  <v>0.0218731</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0221683</v>
+                  <v>0.0220813</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0231472</v>
+                  <v>0.022994</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0257742</v>
+                  <v>0.0248609</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0289348</v>
+                  <v>0.0303561</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0322824</v>
+                  <v>0.0334795</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0214691</v>
+                  <v>0.0213853</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0217903</v>
+                  <v>0.0215081</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0219112</v>
+                  <v>0.0216916</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0219809</v>
+                  <v>0.0218279</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0221479</v>
+                  <v>0.0219942</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0224448</v>
+                  <v>0.0223725</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.02262</v>
+                  <v>0.0226982</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0231701</v>
+                  <v>0.0230858</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0235929</v>
+                  <v>0.0235639</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.024466</v>
+                  <v>0.0246222</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0257139</v>
+                  <v>0.0261523</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0282271</v>
+                  <v>0.028148</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0303257</v>
+                  <v>0.0310283</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0351291</v>
+                  <v>0.0349552</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0408898</v>
+                  <v>0.0411047</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0231879</v>
+                  <v>0.0235334</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0233257</v>
+                  <v>0.0233996</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0235135</v>
+                  <v>0.0240147</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0237414</v>
+                  <v>0.0237518</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0239179</v>
+                  <v>0.0243179</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0244805</v>
+                  <v>0.0246823</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0248999</v>
+                  <v>0.0250545</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0254771</v>
+                  <v>0.0256238</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0265139</v>
+                  <v>0.0266776</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0280363</v>
+                  <v>0.0281548</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0300505</v>
+                  <v>0.0303362</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0328613</v>
+                  <v>0.0330569</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.036562</v>
+                  <v>0.0370665</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0420912</v>
+                  <v>0.0420454</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0291857</v>
+                  <v>0.0292569</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0293683</v>
+                  <v>0.0293821</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0294951</v>
+                  <v>0.0294515</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.029813</v>
+                  <v>0.0297582</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0300128</v>
+                  <v>0.0298101</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0302796</v>
+                  <v>0.0302477</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.030801</v>
+                  <v>0.0307674</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.031446</v>
+                  <v>0.0314948</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0324341</v>
+                  <v>0.0322669</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0335695</v>
+                  <v>0.0336498</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0353551</v>
+                  <v>0.0353674</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0378182</v>
+                  <v>0.0379218</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0410501</v>
+                  <v>0.0413547</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0456478</v>
+                  <v>0.045947</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0552817</v>
+                  <v>0.0557759</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0555326</v>
+                  <v>0.0559223</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0556777</v>
+                  <v>0.0561782</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0557553</v>
+                  <v>0.0562248</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0559421</v>
+                  <v>0.0564335</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0562511</v>
+                  <v>0.0568433</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.056543</v>
+                  <v>0.0571164</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.056954</v>
+                  <v>0.0573685</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0573628</v>
+                  <v>0.0579423</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0581532</v>
+                  <v>0.0585424</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0593444</v>
+                  <v>0.0597217</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0607396</v>
+                  <v>0.0613516</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.06325</v>
+                  <v>0.0637716</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0670234</v>
+                  <v>0.0674956</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.086252</v>
+                  <v>0.0857108</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0863121</v>
+                  <v>0.085729</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.08631</v>
+                  <v>0.08582099999999999</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.08640920000000001</v>
+                  <v>0.085891</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0864456</v>
+                  <v>0.08591310000000001</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.08653959999999999</v>
+                  <v>0.0952533</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0867363</v>
+                  <v>0.0900392</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0870079</v>
+                  <v>0.0865544</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0874346</v>
+                  <v>0.08702120000000001</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0880908</v>
+                  <v>0.08758929999999999</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.08892</v>
+                  <v>0.0884514</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0899819</v>
+                  <v>0.08982080000000001</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0920994</v>
+                  <v>0.0916886</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0950337</v>
+                  <v>0.0949089</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.100164</v>
+                  <v>0.09997010000000001</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.113889</v>
+                  <v>0.107963</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.114021</v>
+                  <v>0.108243</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.114114</v>
+                  <v>0.108225</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.114157</v>
+                  <v>0.10822</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.114198</v>
+                  <v>0.108618</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.114387</v>
+                  <v>0.108608</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.114667</v>
+                  <v>0.109047</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.115047</v>
+                  <v>0.109454</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.115835</v>
+                  <v>0.110007</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.116215</v>
+                  <v>0.110855</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.117455</v>
+                  <v>0.112081</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.119136</v>
+                  <v>0.113914</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.122216</v>
+                  <v>0.116949</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.130657</v>
+                  <v>0.121459</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.140904</v>
+                  <v>0.134045</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.140713</v>
+                  <v>0.141735</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.140603</v>
+                  <v>0.14386</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.140544</v>
+                  <v>0.141993</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.140461</v>
+                  <v>0.141564</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.140955</v>
+                  <v>0.141767</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.142695</v>
+                  <v>0.142252</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.141111</v>
+                  <v>0.142466</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.141474</v>
+                  <v>0.143005</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.141584</v>
+                  <v>0.143627</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.144383</v>
+                  <v>0.144639</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.144338</v>
+                  <v>0.146121</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.146809</v>
+                  <v>0.148787</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.150574</v>
+                  <v>0.153145</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.157534</v>
+                  <v>0.160222</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.15768</v>
+                  <v>0.15805</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.157841</v>
+                  <v>0.158093</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.170985</v>
+                  <v>0.158066</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.158043</v>
+                  <v>0.158317</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.158496</v>
+                  <v>0.158434</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +986,7 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_map</v>
+            <v>boost::unordered_flat_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1446,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.01963</v>
+                  <v>0.0207816</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0195504</v>
+                  <v>0.0208667</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0196026</v>
+                  <v>0.0208241</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0196237</v>
+                  <v>0.0207476</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0194434</v>
+                  <v>0.020652</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0196089</v>
+                  <v>0.0209277</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0196438</v>
+                  <v>0.0208354</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.019683</v>
+                  <v>0.021057</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0206908</v>
+                  <v>0.0207722</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0208145</v>
+                  <v>0.0211993</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0208233</v>
+                  <v>0.021061</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0208079</v>
+                  <v>0.0212452</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0210678</v>
+                  <v>0.0215641</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0211339</v>
+                  <v>0.0219941</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.021293</v>
+                  <v>0.0221573</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0213755</v>
+                  <v>0.022048</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0214194</v>
+                  <v>0.022091</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0216061</v>
+                  <v>0.0223514</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0216834</v>
+                  <v>0.0224619</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0216891</v>
+                  <v>0.0226031</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.021814</v>
+                  <v>0.0229443</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.02224</v>
+                  <v>0.0236086</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0218223</v>
+                  <v>0.0218909</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.021951</v>
+                  <v>0.0220636</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0222832</v>
+                  <v>0.0222406</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0225478</v>
+                  <v>0.0225907</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0226653</v>
+                  <v>0.022887</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0228678</v>
+                  <v>0.0230842</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0232795</v>
+                  <v>0.0234928</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0234118</v>
+                  <v>0.0237357</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0236239</v>
+                  <v>0.0239547</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0237577</v>
+                  <v>0.0241213</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0245297</v>
+                  <v>0.0246092</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0248515</v>
+                  <v>0.0256069</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0259781</v>
+                  <v>0.0258742</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.028096</v>
+                  <v>0.0314078</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0231379</v>
+                  <v>0.0231422</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0235392</v>
+                  <v>0.0232697</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0237383</v>
+                  <v>0.0236008</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0240298</v>
+                  <v>0.0239637</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0242845</v>
+                  <v>0.0241731</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0248099</v>
+                  <v>0.024655</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0251381</v>
+                  <v>0.0250199</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0255035</v>
+                  <v>0.0254471</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.026017</v>
+                  <v>0.0257887</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0265204</v>
+                  <v>0.026411</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0273233</v>
+                  <v>0.0273266</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0288886</v>
+                  <v>0.0288305</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0309086</v>
+                  <v>0.0310001</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.035125</v>
+                  <v>0.0354398</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0395813</v>
+                  <v>0.0403807</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0250602</v>
+                  <v>0.0246173</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0252618</v>
+                  <v>0.0249205</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0256001</v>
+                  <v>0.0252809</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0259637</v>
+                  <v>0.0256266</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0263006</v>
+                  <v>0.0260148</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0266533</v>
+                  <v>0.0264257</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.027142</v>
+                  <v>0.0269137</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0277574</v>
+                  <v>0.0274746</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0284471</v>
+                  <v>0.0282353</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0293755</v>
+                  <v>0.0295079</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0310293</v>
+                  <v>0.0309257</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0333401</v>
+                  <v>0.0332921</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0369138</v>
+                  <v>0.0365299</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0422301</v>
+                  <v>0.0415142</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.027755</v>
+                  <v>0.0269617</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.028318</v>
+                  <v>0.0268134</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0282048</v>
+                  <v>0.0271091</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0288949</v>
+                  <v>0.028098</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0291466</v>
+                  <v>0.028241</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0296631</v>
+                  <v>0.0283238</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0302154</v>
+                  <v>0.0289933</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0308858</v>
+                  <v>0.0297943</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0317299</v>
+                  <v>0.0305728</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0327248</v>
+                  <v>0.0318959</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0344036</v>
+                  <v>0.0330477</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0365419</v>
+                  <v>0.0355949</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0395077</v>
+                  <v>0.0380312</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0440142</v>
+                  <v>0.0422199</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0384812</v>
+                  <v>0.0358291</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0393181</v>
+                  <v>0.0366934</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0400471</v>
+                  <v>0.0371542</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0410283</v>
+                  <v>0.0385504</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0422285</v>
+                  <v>0.0397275</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0436636</v>
+                  <v>0.0406958</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0450427</v>
+                  <v>0.0420235</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0465122</v>
+                  <v>0.043628</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.048317</v>
+                  <v>0.0448497</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0499665</v>
+                  <v>0.0467952</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0516792</v>
+                  <v>0.0485398</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0540677</v>
+                  <v>0.050625</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0567184</v>
+                  <v>0.0531723</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0613213</v>
+                  <v>0.0575467</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.07599069999999999</v>
+                  <v>0.0690796</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0765213</v>
+                  <v>0.0695586</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0769676</v>
+                  <v>0.07006270000000001</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.07758429999999999</v>
+                  <v>0.0706492</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0782827</v>
+                  <v>0.0712165</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0789179</v>
+                  <v>0.0719084</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.07968980000000001</v>
+                  <v>0.0726926</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0805656</v>
+                  <v>0.073481</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0816693</v>
+                  <v>0.0744592</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0863792</v>
+                  <v>0.0757119</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.08411639999999999</v>
+                  <v>0.0771091</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0859486</v>
+                  <v>0.0789149</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.08840779999999999</v>
+                  <v>0.08129740000000001</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0922501</v>
+                  <v>0.085034</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0984163</v>
+                  <v>0.0910459</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0907982</v>
+                  <v>0.08287219999999999</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0916492</v>
+                  <v>0.08375249999999999</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.092555</v>
+                  <v>0.0846664</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0937095</v>
+                  <v>0.0856579</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.09565650000000001</v>
+                  <v>0.08681120000000001</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.103513</v>
+                  <v>0.08786919999999999</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0973205</v>
+                  <v>0.0892593</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0988463</v>
+                  <v>0.0907998</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.100303</v>
+                  <v>0.0923614</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.102148</v>
+                  <v>0.0942355</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.104312</v>
+                  <v>0.096293</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.107029</v>
+                  <v>0.0990901</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.111037</v>
+                  <v>0.102927</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.116985</v>
+                  <v>0.108871</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.102804</v>
+                  <v>0.0958808</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.108721</v>
+                  <v>0.09704169999999999</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.105795</v>
+                  <v>0.0989488</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.107499</v>
+                  <v>0.100162</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.109135</v>
+                  <v>0.101129</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.111421</v>
+                  <v>0.102743</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.113514</v>
+                  <v>0.10443</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.114964</v>
+                  <v>0.106431</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.116895</v>
+                  <v>0.108216</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.119313</v>
+                  <v>0.110255</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.121782</v>
+                  <v>0.112815</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.124925</v>
+                  <v>0.11575</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.12911</v>
+                  <v>0.119701</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.135094</v>
+                  <v>0.126693</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.116615</v>
+                  <v>0.108481</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.118091</v>
+                  <v>0.109886</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.119623</v>
+                  <v>0.111216</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.121247</v>
+                  <v>0.112687</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.122801</v>
+                  <v>0.114154</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.12453</v>
+                  <v>0.115713</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2341,430 +2340,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0210661</v>
+                  <v>0.0197621</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0210821</v>
+                  <v>0.0199124</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0210432</v>
+                  <v>0.0199636</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0210228</v>
+                  <v>0.0200411</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0211017</v>
+                  <v>0.0201853</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.021451</v>
+                  <v>0.0205493</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0215967</v>
+                  <v>0.0212255</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.021032</v>
+                  <v>0.0196114</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.021237</v>
+                  <v>0.0196542</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0214398</v>
+                  <v>0.0197311</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0216389</v>
+                  <v>0.0200198</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0217625</v>
+                  <v>0.0202983</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0220811</v>
+                  <v>0.0206514</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0221537</v>
+                  <v>0.0208261</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0222621</v>
+                  <v>0.0213814</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.022351</v>
+                  <v>0.021683</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0223659</v>
+                  <v>0.0218647</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0223994</v>
+                  <v>0.0217385</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0224787</v>
+                  <v>0.0221793</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0225969</v>
+                  <v>0.0234999</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0229866</v>
+                  <v>0.025596</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0222081</v>
+                  <v>0.0208572</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0224424</v>
+                  <v>0.0211474</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0227148</v>
+                  <v>0.0213952</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0228976</v>
+                  <v>0.0216285</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0231426</v>
+                  <v>0.0219129</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0233641</v>
+                  <v>0.0221909</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0236678</v>
+                  <v>0.0226314</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0238622</v>
+                  <v>0.02287</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0240883</v>
+                  <v>0.0232938</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0241209</v>
+                  <v>0.0236459</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0243341</v>
+                  <v>0.0243776</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0249996</v>
+                  <v>0.0256094</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0258005</v>
+                  <v>0.0280099</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0317443</v>
+                  <v>0.0318825</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0233782</v>
+                  <v>0.0222322</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0235387</v>
+                  <v>0.0224761</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0237574</v>
+                  <v>0.0226406</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0240607</v>
+                  <v>0.0229219</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0243991</v>
+                  <v>0.0232372</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0246515</v>
+                  <v>0.0235604</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0249339</v>
+                  <v>0.0239217</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0252916</v>
+                  <v>0.0243675</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0255331</v>
+                  <v>0.0249258</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0260222</v>
+                  <v>0.0256372</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0266838</v>
+                  <v>0.0267547</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0278203</v>
+                  <v>0.0285161</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0305126</v>
+                  <v>0.0309254</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0344632</v>
+                  <v>0.03463</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0242031</v>
+                  <v>0.0230982</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0243873</v>
+                  <v>0.0233375</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0246308</v>
+                  <v>0.023593</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0248962</v>
+                  <v>0.0238201</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0251551</v>
+                  <v>0.0241227</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0255061</v>
+                  <v>0.0244723</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.025758</v>
+                  <v>0.024922</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0261621</v>
+                  <v>0.0253022</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0266822</v>
+                  <v>0.0259853</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.027176</v>
+                  <v>0.0267356</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0279736</v>
+                  <v>0.0278598</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0294383</v>
+                  <v>0.0296228</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0324535</v>
+                  <v>0.0320613</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0364486</v>
+                  <v>0.0356651</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.042747</v>
+                  <v>0.0410615</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0261578</v>
+                  <v>0.0247871</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0266345</v>
+                  <v>0.0249031</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0270048</v>
+                  <v>0.0256338</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0274462</v>
+                  <v>0.0258881</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0276478</v>
+                  <v>0.0259173</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0280925</v>
+                  <v>0.0262823</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0295698</v>
+                  <v>0.0271444</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0301268</v>
+                  <v>0.0274852</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0308125</v>
+                  <v>0.0283927</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0310039</v>
+                  <v>0.0298077</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0325978</v>
+                  <v>0.0311471</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0358014</v>
+                  <v>0.0336077</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0390005</v>
+                  <v>0.0368424</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0449875</v>
+                  <v>0.0414916</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0407134</v>
+                  <v>0.0365337</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0414223</v>
+                  <v>0.037033</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0420164</v>
+                  <v>0.0385276</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0428758</v>
+                  <v>0.0385709</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0435859</v>
+                  <v>0.0392564</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0441158</v>
+                  <v>0.0399463</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0451214</v>
+                  <v>0.040702</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.045933</v>
+                  <v>0.041626</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0468684</v>
+                  <v>0.0423938</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0477272</v>
+                  <v>0.0433475</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0490508</v>
+                  <v>0.0447666</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0513003</v>
+                  <v>0.0465736</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0542639</v>
+                  <v>0.0493242</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0587909</v>
+                  <v>0.0542457</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.08060109999999999</v>
+                  <v>0.07123119999999999</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.08116420000000001</v>
+                  <v>0.071656</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0815678</v>
+                  <v>0.0721349</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.08204690000000001</v>
+                  <v>0.07265770000000001</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.08264589999999999</v>
+                  <v>0.0729856</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0832561</v>
+                  <v>0.0736991</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0837205</v>
+                  <v>0.0742898</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0845051</v>
+                  <v>0.07498199999999999</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.08527559999999999</v>
+                  <v>0.07573630000000001</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0864844</v>
+                  <v>0.0766086</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0876881</v>
+                  <v>0.077876</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.08924799999999999</v>
+                  <v>0.07924580000000001</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.096528</v>
+                  <v>0.08156239999999999</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0955449</v>
+                  <v>0.0852509</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0975452</v>
+                  <v>0.08773590000000001</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0983436</v>
+                  <v>0.0884414</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0990383</v>
+                  <v>0.0892877</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.09986689999999999</v>
+                  <v>0.0899992</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.100985</v>
+                  <v>0.0907741</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.101987</v>
+                  <v>0.0918117</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.102746</v>
+                  <v>0.092913</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.10438</v>
+                  <v>0.09400500000000001</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.105384</v>
+                  <v>0.100748</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.106778</v>
+                  <v>0.09656720000000001</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.108591</v>
+                  <v>0.0981248</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.110691</v>
+                  <v>0.100153</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.113494</v>
+                  <v>0.10274</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.117535</v>
+                  <v>0.106587</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.123795</v>
+                  <v>0.112472</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.115482</v>
+                  <v>0.106248</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.116645</v>
+                  <v>0.107515</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.1179</v>
+                  <v>0.108771</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.119136</v>
+                  <v>0.110258</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.12028</v>
+                  <v>0.111363</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.121788</v>
+                  <v>0.112139</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.123885</v>
+                  <v>0.113529</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.125833</v>
+                  <v>0.114912</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.1268</v>
+                  <v>0.116482</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.129052</v>
+                  <v>0.118414</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.132444</v>
+                  <v>0.120533</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.134565</v>
+                  <v>0.123365</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.138824</v>
+                  <v>0.127277</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.145371</v>
+                  <v>0.133589</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.129339</v>
+                  <v>0.119571</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.130682</v>
+                  <v>0.123522</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.131871</v>
+                  <v>0.120321</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.133153</v>
+                  <v>0.121365</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.134562</v>
+                  <v>0.122535</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.135784</v>
+                  <v>0.123827</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.137311</v>
+                  <v>0.125232</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3222,8 +3221,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
+    <col customWidth="1" max="6" min="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3248,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.06849909999999999</v>
+        <v>0.066539</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06490269999999999</v>
+        <v>0.0632268</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0624897</v>
+        <v>0.0645665</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0696292</v>
+        <v>0.0696676</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0647522</v>
+        <v>0.0619127</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0623485</v>
+        <v>0.0648285</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.07163120000000001</v>
+        <v>0.0685645</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0633698</v>
+        <v>0.06459230000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0636808</v>
+        <v>0.06474539999999999</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0703251</v>
+        <v>0.0691832</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0649901</v>
+        <v>0.0658344</v>
       </c>
       <c r="D5" t="n">
-        <v>0.064092</v>
+        <v>0.0656157</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0710211</v>
+        <v>0.0684781</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0680904</v>
+        <v>0.0652372</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0660438</v>
+        <v>0.06712120000000001</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0709316</v>
+        <v>0.0708284</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0657382</v>
+        <v>0.068248</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0678453</v>
+        <v>0.06682100000000001</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0725488</v>
+        <v>0.06886349999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0681137</v>
+        <v>0.07396170000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.07294970000000001</v>
+        <v>0.0711811</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.07371080000000001</v>
+        <v>0.0699121</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0725869</v>
+        <v>0.06517050000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0653995</v>
+        <v>0.0662977</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.07576670000000001</v>
+        <v>0.0761032</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0664289</v>
+        <v>0.064329</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0634593</v>
+        <v>0.0679377</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0776456</v>
+        <v>0.0783003</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06848369999999999</v>
+        <v>0.0632051</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0624618</v>
+        <v>0.06420099999999999</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.077682</v>
+        <v>0.07757500000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0653905</v>
+        <v>0.0624211</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0645086</v>
+        <v>0.0638133</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0776245</v>
+        <v>0.0759013</v>
       </c>
       <c r="C13" t="n">
-        <v>0.06740400000000001</v>
+        <v>0.06517770000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0629204</v>
+        <v>0.0678034</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0771083</v>
+        <v>0.0755723</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06712559999999999</v>
+        <v>0.0665804</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0630616</v>
+        <v>0.0663323</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.07536039999999999</v>
+        <v>0.07653500000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.06920229999999999</v>
+        <v>0.0649338</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0639815</v>
+        <v>0.0694396</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.07787910000000001</v>
+        <v>0.0739606</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0674481</v>
+        <v>0.0648402</v>
       </c>
       <c r="D16" t="n">
-        <v>0.06266330000000001</v>
+        <v>0.0662295</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0751546</v>
+        <v>0.0772592</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0684684</v>
+        <v>0.0680113</v>
       </c>
       <c r="D17" t="n">
-        <v>0.06540120000000001</v>
+        <v>0.0664975</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0764049</v>
+        <v>0.0779127</v>
       </c>
       <c r="C18" t="n">
-        <v>0.06738139999999999</v>
+        <v>0.0653058</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0641432</v>
+        <v>0.067593</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0746757</v>
+        <v>0.0760772</v>
       </c>
       <c r="C19" t="n">
-        <v>0.06895</v>
+        <v>0.06643880000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>0.06564159999999999</v>
+        <v>0.07014720000000001</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0779242</v>
+        <v>0.0777774</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0702175</v>
+        <v>0.06696820000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0653791</v>
+        <v>0.0703785</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0779854</v>
+        <v>0.0798851</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0701744</v>
+        <v>0.07282139999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0703661</v>
+        <v>0.0725397</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.08053</v>
+        <v>0.07984140000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0739939</v>
+        <v>0.07849399999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0728878</v>
+        <v>0.07715859999999999</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0808374</v>
+        <v>0.0808773</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0777103</v>
+        <v>0.06938179999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>0.06663139999999999</v>
+        <v>0.0687878</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0835804</v>
+        <v>0.0815534</v>
       </c>
       <c r="C24" t="n">
-        <v>0.068385</v>
+        <v>0.06905360000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.06556339999999999</v>
+        <v>0.0713616</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0830047</v>
+        <v>0.0824472</v>
       </c>
       <c r="C25" t="n">
-        <v>0.07306310000000001</v>
+        <v>0.0681413</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0674666</v>
+        <v>0.07075960000000001</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0826679</v>
+        <v>0.08443059999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0699586</v>
+        <v>0.0697865</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0671617</v>
+        <v>0.0727472</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0833256</v>
+        <v>0.0834433</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0718419</v>
+        <v>0.06820560000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0665255</v>
+        <v>0.07100099999999999</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.083079</v>
+        <v>0.082176</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0713192</v>
+        <v>0.0717909</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0668681</v>
+        <v>0.0685458</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.08297590000000001</v>
+        <v>0.0819598</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0714321</v>
+        <v>0.0698525</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0691408</v>
+        <v>0.07109749999999999</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.08247450000000001</v>
+        <v>0.0846953</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0724471</v>
+        <v>0.0716673</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0690318</v>
+        <v>0.07168339999999999</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0856933</v>
+        <v>0.08482190000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>0.07261819999999999</v>
+        <v>0.069346</v>
       </c>
       <c r="D31" t="n">
-        <v>0.07059989999999999</v>
+        <v>0.0732814</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0831238</v>
+        <v>0.08569160000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0731651</v>
+        <v>0.071627</v>
       </c>
       <c r="D32" t="n">
-        <v>0.071588</v>
+        <v>0.07587869999999999</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0825666</v>
+        <v>0.084198</v>
       </c>
       <c r="C33" t="n">
-        <v>0.07181360000000001</v>
+        <v>0.0739346</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0706019</v>
+        <v>0.0728277</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0854972</v>
+        <v>0.084843</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0736723</v>
+        <v>0.0755444</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0728815</v>
+        <v>0.07761179999999999</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.08671710000000001</v>
+        <v>0.0879976</v>
       </c>
       <c r="C35" t="n">
-        <v>0.07720399999999999</v>
+        <v>0.0777862</v>
       </c>
       <c r="D35" t="n">
-        <v>0.07683329999999999</v>
+        <v>0.07891620000000001</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0845925</v>
+        <v>0.08294509999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0795231</v>
+        <v>0.0817923</v>
       </c>
       <c r="D36" t="n">
-        <v>0.08202810000000001</v>
+        <v>0.08412260000000001</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0880259</v>
+        <v>0.0849596</v>
       </c>
       <c r="C37" t="n">
-        <v>0.08351509999999999</v>
+        <v>0.0750841</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0733273</v>
+        <v>0.0778238</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.102327</v>
+        <v>0.0997347</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0828869</v>
+        <v>0.0749856</v>
       </c>
       <c r="D38" t="n">
-        <v>0.07666050000000001</v>
+        <v>0.0811871</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.101763</v>
+        <v>0.103575</v>
       </c>
       <c r="C39" t="n">
-        <v>0.08556030000000001</v>
+        <v>0.0749461</v>
       </c>
       <c r="D39" t="n">
-        <v>0.07584490000000001</v>
+        <v>0.07646269999999999</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.101712</v>
+        <v>0.10027</v>
       </c>
       <c r="C40" t="n">
-        <v>0.08408980000000001</v>
+        <v>0.07628</v>
       </c>
       <c r="D40" t="n">
-        <v>0.07401099999999999</v>
+        <v>0.0819719</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.102673</v>
+        <v>0.106021</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0862573</v>
+        <v>0.0767196</v>
       </c>
       <c r="D41" t="n">
-        <v>0.07687570000000001</v>
+        <v>0.0786612</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.104754</v>
+        <v>0.104029</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0850776</v>
+        <v>0.07839599999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>0.07640189999999999</v>
+        <v>0.0787028</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.101865</v>
+        <v>0.102769</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0861678</v>
+        <v>0.0771516</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0764426</v>
+        <v>0.0810789</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.102074</v>
+        <v>0.104619</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0857117</v>
+        <v>0.0790038</v>
       </c>
       <c r="D44" t="n">
-        <v>0.07796790000000001</v>
+        <v>0.0814463</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.102009</v>
+        <v>0.101795</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0869148</v>
+        <v>0.0784382</v>
       </c>
       <c r="D45" t="n">
-        <v>0.07756440000000001</v>
+        <v>0.0805657</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.101063</v>
+        <v>0.10456</v>
       </c>
       <c r="C46" t="n">
-        <v>0.08893529999999999</v>
+        <v>0.0789873</v>
       </c>
       <c r="D46" t="n">
-        <v>0.07887429999999999</v>
+        <v>0.0838564</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.103244</v>
+        <v>0.101938</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0873998</v>
+        <v>0.08039930000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.08265740000000001</v>
+        <v>0.0843347</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.103864</v>
+        <v>0.104436</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0903149</v>
+        <v>0.08195429999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0820588</v>
+        <v>0.0836978</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.105168</v>
+        <v>0.104609</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0930753</v>
+        <v>0.0863578</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0838236</v>
+        <v>0.0908627</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.106639</v>
+        <v>0.108707</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0917162</v>
+        <v>0.0896724</v>
       </c>
       <c r="D50" t="n">
-        <v>0.08588899999999999</v>
+        <v>0.0918921</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.106894</v>
+        <v>0.110093</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0974452</v>
+        <v>0.170779</v>
       </c>
       <c r="D51" t="n">
-        <v>0.164184</v>
+        <v>0.164317</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.113157</v>
+        <v>0.111067</v>
       </c>
       <c r="C52" t="n">
-        <v>0.103387</v>
+        <v>0.165261</v>
       </c>
       <c r="D52" t="n">
-        <v>0.162498</v>
+        <v>0.166331</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.193396</v>
+        <v>0.186791</v>
       </c>
       <c r="C53" t="n">
-        <v>0.172069</v>
+        <v>0.166428</v>
       </c>
       <c r="D53" t="n">
-        <v>0.167419</v>
+        <v>0.161289</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.189088</v>
+        <v>0.196892</v>
       </c>
       <c r="C54" t="n">
-        <v>0.173087</v>
+        <v>0.171676</v>
       </c>
       <c r="D54" t="n">
-        <v>0.167772</v>
+        <v>0.16659</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.189006</v>
+        <v>0.187763</v>
       </c>
       <c r="C55" t="n">
-        <v>0.179342</v>
+        <v>0.170557</v>
       </c>
       <c r="D55" t="n">
-        <v>0.168704</v>
+        <v>0.165979</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.187896</v>
+        <v>0.185969</v>
       </c>
       <c r="C56" t="n">
-        <v>0.172632</v>
+        <v>0.166463</v>
       </c>
       <c r="D56" t="n">
-        <v>0.162262</v>
+        <v>0.169789</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.190884</v>
+        <v>0.193771</v>
       </c>
       <c r="C57" t="n">
-        <v>0.17041</v>
+        <v>0.164227</v>
       </c>
       <c r="D57" t="n">
-        <v>0.168284</v>
+        <v>0.16873</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.185994</v>
+        <v>0.183927</v>
       </c>
       <c r="C58" t="n">
-        <v>0.175835</v>
+        <v>0.170328</v>
       </c>
       <c r="D58" t="n">
-        <v>0.170098</v>
+        <v>0.173427</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.194095</v>
+        <v>0.194509</v>
       </c>
       <c r="C59" t="n">
-        <v>0.173337</v>
+        <v>0.166367</v>
       </c>
       <c r="D59" t="n">
-        <v>0.170591</v>
+        <v>0.171392</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.191328</v>
+        <v>0.195599</v>
       </c>
       <c r="C60" t="n">
-        <v>0.172361</v>
+        <v>0.170695</v>
       </c>
       <c r="D60" t="n">
-        <v>0.172796</v>
+        <v>0.176679</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.191404</v>
+        <v>0.200659</v>
       </c>
       <c r="C61" t="n">
-        <v>0.17396</v>
+        <v>0.178141</v>
       </c>
       <c r="D61" t="n">
-        <v>0.171927</v>
+        <v>0.178206</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.202251</v>
+        <v>0.190225</v>
       </c>
       <c r="C62" t="n">
-        <v>0.174578</v>
+        <v>0.177436</v>
       </c>
       <c r="D62" t="n">
-        <v>0.172043</v>
+        <v>0.171776</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.19292</v>
+        <v>0.195336</v>
       </c>
       <c r="C63" t="n">
-        <v>0.176629</v>
+        <v>0.175744</v>
       </c>
       <c r="D63" t="n">
-        <v>0.173489</v>
+        <v>0.175303</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.197527</v>
+        <v>0.200219</v>
       </c>
       <c r="C64" t="n">
-        <v>0.181622</v>
+        <v>0.182692</v>
       </c>
       <c r="D64" t="n">
-        <v>0.177083</v>
+        <v>0.179544</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.197574</v>
+        <v>0.20115</v>
       </c>
       <c r="C65" t="n">
-        <v>0.187587</v>
+        <v>0.184377</v>
       </c>
       <c r="D65" t="n">
-        <v>0.178694</v>
+        <v>0.18041</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.198942</v>
+        <v>0.204381</v>
       </c>
       <c r="C66" t="n">
-        <v>0.188353</v>
+        <v>0.256342</v>
       </c>
       <c r="D66" t="n">
-        <v>0.259962</v>
+        <v>0.265058</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.299908</v>
+        <v>0.299681</v>
       </c>
       <c r="C67" t="n">
-        <v>0.26696</v>
+        <v>0.256279</v>
       </c>
       <c r="D67" t="n">
-        <v>0.258273</v>
+        <v>0.253779</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.29369</v>
+        <v>0.285805</v>
       </c>
       <c r="C68" t="n">
-        <v>0.275522</v>
+        <v>0.261111</v>
       </c>
       <c r="D68" t="n">
-        <v>0.258261</v>
+        <v>0.252895</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.294716</v>
+        <v>0.308327</v>
       </c>
       <c r="C69" t="n">
-        <v>0.273327</v>
+        <v>0.254916</v>
       </c>
       <c r="D69" t="n">
-        <v>0.258072</v>
+        <v>0.255446</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.292363</v>
+        <v>0.295161</v>
       </c>
       <c r="C70" t="n">
-        <v>0.267045</v>
+        <v>0.257396</v>
       </c>
       <c r="D70" t="n">
-        <v>0.266262</v>
+        <v>0.261324</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.289211</v>
+        <v>0.305319</v>
       </c>
       <c r="C71" t="n">
-        <v>0.27566</v>
+        <v>0.26012</v>
       </c>
       <c r="D71" t="n">
-        <v>0.258067</v>
+        <v>0.25741</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.289975</v>
+        <v>0.286586</v>
       </c>
       <c r="C72" t="n">
-        <v>0.279644</v>
+        <v>0.270485</v>
       </c>
       <c r="D72" t="n">
-        <v>0.259962</v>
+        <v>0.267762</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.290825</v>
+        <v>0.293479</v>
       </c>
       <c r="C73" t="n">
-        <v>0.273346</v>
+        <v>0.263985</v>
       </c>
       <c r="D73" t="n">
-        <v>0.267186</v>
+        <v>0.271821</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.289702</v>
+        <v>0.304772</v>
       </c>
       <c r="C74" t="n">
-        <v>0.278085</v>
+        <v>0.267066</v>
       </c>
       <c r="D74" t="n">
-        <v>0.261234</v>
+        <v>0.269404</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.289657</v>
+        <v>0.302426</v>
       </c>
       <c r="C75" t="n">
-        <v>0.290161</v>
+        <v>0.260767</v>
       </c>
       <c r="D75" t="n">
-        <v>0.269303</v>
+        <v>0.262582</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.298969</v>
+        <v>0.292831</v>
       </c>
       <c r="C76" t="n">
-        <v>0.279876</v>
+        <v>0.268941</v>
       </c>
       <c r="D76" t="n">
-        <v>0.266232</v>
+        <v>0.283541</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.309537</v>
+        <v>0.2988</v>
       </c>
       <c r="C77" t="n">
-        <v>0.285891</v>
+        <v>0.26813</v>
       </c>
       <c r="D77" t="n">
-        <v>0.267515</v>
+        <v>0.27382</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.311522</v>
+        <v>0.309781</v>
       </c>
       <c r="C78" t="n">
-        <v>0.293029</v>
+        <v>0.272916</v>
       </c>
       <c r="D78" t="n">
-        <v>0.277188</v>
+        <v>0.271652</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.306185</v>
+        <v>0.295836</v>
       </c>
       <c r="C79" t="n">
-        <v>0.286725</v>
+        <v>0.275132</v>
       </c>
       <c r="D79" t="n">
-        <v>0.272541</v>
+        <v>0.28116</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.306253</v>
+        <v>0.306745</v>
       </c>
       <c r="C80" t="n">
-        <v>0.294715</v>
+        <v>0.35519</v>
       </c>
       <c r="D80" t="n">
-        <v>0.367874</v>
+        <v>0.355853</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.384968</v>
+        <v>0.39147</v>
       </c>
       <c r="C81" t="n">
-        <v>0.385183</v>
+        <v>0.364979</v>
       </c>
       <c r="D81" t="n">
-        <v>0.369546</v>
+        <v>0.361328</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.386922</v>
+        <v>0.383281</v>
       </c>
       <c r="C82" t="n">
-        <v>0.374328</v>
+        <v>0.370317</v>
       </c>
       <c r="D82" t="n">
-        <v>0.368554</v>
+        <v>0.361156</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.383336</v>
+        <v>0.378588</v>
       </c>
       <c r="C83" t="n">
-        <v>0.374963</v>
+        <v>0.36582</v>
       </c>
       <c r="D83" t="n">
-        <v>0.364502</v>
+        <v>0.367196</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.389968</v>
+        <v>0.382187</v>
       </c>
       <c r="C84" t="n">
-        <v>0.378265</v>
+        <v>0.362539</v>
       </c>
       <c r="D84" t="n">
-        <v>0.363566</v>
+        <v>0.357131</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.378455</v>
+        <v>0.389387</v>
       </c>
       <c r="C85" t="n">
-        <v>0.361282</v>
+        <v>0.381646</v>
       </c>
       <c r="D85" t="n">
-        <v>0.370539</v>
+        <v>0.367736</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.402234</v>
+        <v>0.371547</v>
       </c>
       <c r="C86" t="n">
-        <v>0.382009</v>
+        <v>0.367641</v>
       </c>
       <c r="D86" t="n">
-        <v>0.361976</v>
+        <v>0.378748</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.408354</v>
+        <v>0.40257</v>
       </c>
       <c r="C87" t="n">
-        <v>0.370151</v>
+        <v>0.374388</v>
       </c>
       <c r="D87" t="n">
-        <v>0.390409</v>
+        <v>0.365391</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.391677</v>
+        <v>0.387277</v>
       </c>
       <c r="C88" t="n">
-        <v>0.372962</v>
+        <v>0.364257</v>
       </c>
       <c r="D88" t="n">
-        <v>0.362816</v>
+        <v>0.358929</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.397228</v>
+        <v>0.398269</v>
       </c>
       <c r="C89" t="n">
-        <v>0.380179</v>
+        <v>0.377817</v>
       </c>
       <c r="D89" t="n">
-        <v>0.375387</v>
+        <v>0.378242</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.382435</v>
+        <v>0.387966</v>
       </c>
       <c r="C90" t="n">
-        <v>0.37896</v>
+        <v>0.37988</v>
       </c>
       <c r="D90" t="n">
-        <v>0.36862</v>
+        <v>0.359784</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.396242</v>
+        <v>0.389219</v>
       </c>
       <c r="C91" t="n">
-        <v>0.377103</v>
+        <v>0.367049</v>
       </c>
       <c r="D91" t="n">
-        <v>0.368164</v>
+        <v>0.370544</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.387162</v>
+        <v>0.384045</v>
       </c>
       <c r="C92" t="n">
-        <v>0.380707</v>
+        <v>0.381375</v>
       </c>
       <c r="D92" t="n">
-        <v>0.367237</v>
+        <v>0.370809</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.384741</v>
+        <v>0.406215</v>
       </c>
       <c r="C93" t="n">
-        <v>0.382273</v>
+        <v>0.377067</v>
       </c>
       <c r="D93" t="n">
-        <v>0.372409</v>
+        <v>0.38127</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.390646</v>
+        <v>0.407083</v>
       </c>
       <c r="C94" t="n">
-        <v>0.395323</v>
+        <v>0.46835</v>
       </c>
       <c r="D94" t="n">
-        <v>0.475715</v>
+        <v>0.467498</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.465228</v>
+        <v>0.468323</v>
       </c>
       <c r="C95" t="n">
-        <v>0.469637</v>
+        <v>0.462557</v>
       </c>
       <c r="D95" t="n">
-        <v>0.46105</v>
+        <v>0.466779</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.460516</v>
+        <v>0.467154</v>
       </c>
       <c r="C96" t="n">
-        <v>0.4696</v>
+        <v>0.467066</v>
       </c>
       <c r="D96" t="n">
-        <v>0.459875</v>
+        <v>0.493437</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.464609</v>
+        <v>0.458913</v>
       </c>
       <c r="C97" t="n">
-        <v>0.455558</v>
+        <v>0.455754</v>
       </c>
       <c r="D97" t="n">
-        <v>0.466838</v>
+        <v>0.463329</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.466442</v>
+        <v>0.493251</v>
       </c>
       <c r="C98" t="n">
-        <v>0.466634</v>
+        <v>0.473458</v>
       </c>
       <c r="D98" t="n">
-        <v>0.455484</v>
+        <v>0.465928</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.471431</v>
+        <v>0.472689</v>
       </c>
       <c r="C99" t="n">
-        <v>0.466029</v>
+        <v>0.458889</v>
       </c>
       <c r="D99" t="n">
-        <v>0.46016</v>
+        <v>0.471744</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.460098</v>
+        <v>0.504053</v>
       </c>
       <c r="C100" t="n">
-        <v>0.458112</v>
+        <v>0.479977</v>
       </c>
       <c r="D100" t="n">
-        <v>0.482442</v>
+        <v>0.470422</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.469017</v>
+        <v>0.479568</v>
       </c>
       <c r="C101" t="n">
-        <v>0.454315</v>
+        <v>0.479211</v>
       </c>
       <c r="D101" t="n">
-        <v>0.46233</v>
+        <v>0.480992</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.472391</v>
+        <v>0.468314</v>
       </c>
       <c r="C102" t="n">
-        <v>0.474262</v>
+        <v>0.469133</v>
       </c>
       <c r="D102" t="n">
-        <v>0.472671</v>
+        <v>0.46643</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.493156</v>
+        <v>0.477401</v>
       </c>
       <c r="C103" t="n">
-        <v>0.477319</v>
+        <v>0.477223</v>
       </c>
       <c r="D103" t="n">
-        <v>0.467113</v>
+        <v>0.465154</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.474624</v>
+        <v>0.473536</v>
       </c>
       <c r="C104" t="n">
-        <v>0.469662</v>
+        <v>0.485358</v>
       </c>
       <c r="D104" t="n">
-        <v>0.478435</v>
+        <v>0.463349</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.467209</v>
+        <v>0.469848</v>
       </c>
       <c r="C105" t="n">
-        <v>0.463782</v>
+        <v>0.46342</v>
       </c>
       <c r="D105" t="n">
-        <v>0.474567</v>
+        <v>0.473972</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.476701</v>
+        <v>0.473017</v>
       </c>
       <c r="C106" t="n">
-        <v>0.469272</v>
+        <v>0.488665</v>
       </c>
       <c r="D106" t="n">
-        <v>0.471374</v>
+        <v>0.48553</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.480337</v>
+        <v>0.498705</v>
       </c>
       <c r="C107" t="n">
-        <v>0.473431</v>
+        <v>0.47398</v>
       </c>
       <c r="D107" t="n">
-        <v>0.4808</v>
+        <v>0.482805</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.482128</v>
+        <v>0.506421</v>
       </c>
       <c r="C108" t="n">
-        <v>0.482028</v>
+        <v>0.584713</v>
       </c>
       <c r="D108" t="n">
-        <v>0.559712</v>
+        <v>0.565012</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.48384</v>
+        <v>0.502826</v>
       </c>
       <c r="C109" t="n">
-        <v>0.487352</v>
+        <v>0.551867</v>
       </c>
       <c r="D109" t="n">
-        <v>0.571286</v>
+        <v>0.560847</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.591961</v>
+        <v>0.567447</v>
       </c>
       <c r="C110" t="n">
-        <v>0.5554480000000001</v>
+        <v>0.570446</v>
       </c>
       <c r="D110" t="n">
-        <v>0.562965</v>
+        <v>0.554001</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.591378</v>
+        <v>0.578882</v>
       </c>
       <c r="C111" t="n">
-        <v>0.552009</v>
+        <v>0.5844</v>
       </c>
       <c r="D111" t="n">
-        <v>0.558778</v>
+        <v>0.586295</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.567655</v>
+        <v>0.625293</v>
       </c>
       <c r="C112" t="n">
-        <v>0.550054</v>
+        <v>0.582626</v>
       </c>
       <c r="D112" t="n">
-        <v>0.55745</v>
+        <v>0.5674</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.585939</v>
+        <v>0.591195</v>
       </c>
       <c r="C113" t="n">
-        <v>0.561258</v>
+        <v>0.579492</v>
       </c>
       <c r="D113" t="n">
-        <v>0.568445</v>
+        <v>0.558098</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.590174</v>
+        <v>0.581223</v>
       </c>
       <c r="C114" t="n">
-        <v>0.564481</v>
+        <v>0.59357</v>
       </c>
       <c r="D114" t="n">
-        <v>0.560246</v>
+        <v>0.568257</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.572543</v>
+        <v>0.605352</v>
       </c>
       <c r="C115" t="n">
-        <v>0.5530310000000001</v>
+        <v>0.548807</v>
       </c>
       <c r="D115" t="n">
-        <v>0.570136</v>
+        <v>0.572809</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.587046</v>
+        <v>0.645545</v>
       </c>
       <c r="C116" t="n">
-        <v>0.557439</v>
+        <v>0.561676</v>
       </c>
       <c r="D116" t="n">
-        <v>0.570145</v>
+        <v>0.552102</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.582557</v>
+        <v>0.58613</v>
       </c>
       <c r="C117" t="n">
-        <v>0.56087</v>
+        <v>0.566758</v>
       </c>
       <c r="D117" t="n">
-        <v>0.562714</v>
+        <v>0.560984</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.579342</v>
+        <v>0.585273</v>
       </c>
       <c r="C118" t="n">
-        <v>0.567321</v>
+        <v>0.54696</v>
       </c>
       <c r="D118" t="n">
-        <v>0.572756</v>
+        <v>0.604915</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.592058</v>
+        <v>0.576819</v>
       </c>
       <c r="C119" t="n">
-        <v>0.576662</v>
+        <v>0.562833</v>
       </c>
       <c r="D119" t="n">
-        <v>0.582986</v>
+        <v>0.582201</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.590867</v>
+        <v>0.600174</v>
       </c>
       <c r="C120" t="n">
-        <v>0.572984</v>
+        <v>0.571445</v>
       </c>
       <c r="D120" t="n">
-        <v>0.567427</v>
+        <v>0.569846</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.600701</v>
+        <v>0.602348</v>
       </c>
       <c r="C121" t="n">
-        <v>0.583593</v>
+        <v>0.611412</v>
       </c>
       <c r="D121" t="n">
-        <v>0.574794</v>
+        <v>0.580699</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.596378</v>
+        <v>0.608809</v>
       </c>
       <c r="C122" t="n">
-        <v>0.575082</v>
+        <v>0.574362</v>
       </c>
       <c r="D122" t="n">
-        <v>0.595818</v>
+        <v>0.616275</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.59556</v>
+        <v>0.591877</v>
       </c>
       <c r="C123" t="n">
-        <v>0.584192</v>
+        <v>0.688879</v>
       </c>
       <c r="D123" t="n">
-        <v>0.685773</v>
+        <v>0.685904</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.759332</v>
+        <v>0.763435</v>
       </c>
       <c r="C124" t="n">
-        <v>0.699251</v>
+        <v>0.687644</v>
       </c>
       <c r="D124" t="n">
-        <v>0.692155</v>
+        <v>0.681824</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.77478</v>
+        <v>0.883448</v>
       </c>
       <c r="C125" t="n">
-        <v>0.694945</v>
+        <v>0.688577</v>
       </c>
       <c r="D125" t="n">
-        <v>0.69409</v>
+        <v>0.6867180000000001</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.76935</v>
+        <v>0.761493</v>
       </c>
       <c r="C126" t="n">
-        <v>0.762733</v>
+        <v>0.697308</v>
       </c>
       <c r="D126" t="n">
-        <v>0.683849</v>
+        <v>0.699829</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.75803</v>
+        <v>0.791266</v>
       </c>
       <c r="C127" t="n">
-        <v>0.717574</v>
+        <v>0.793825</v>
       </c>
       <c r="D127" t="n">
-        <v>0.68646</v>
+        <v>0.675451</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.751028</v>
+        <v>0.743436</v>
       </c>
       <c r="C128" t="n">
-        <v>0.696145</v>
+        <v>0.681439</v>
       </c>
       <c r="D128" t="n">
-        <v>0.688044</v>
+        <v>0.689073</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.767446</v>
+        <v>0.753515</v>
       </c>
       <c r="C129" t="n">
-        <v>0.700508</v>
+        <v>0.684564</v>
       </c>
       <c r="D129" t="n">
-        <v>0.6803129999999999</v>
+        <v>0.690726</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.7855569999999999</v>
+        <v>0.755718</v>
       </c>
       <c r="C130" t="n">
-        <v>0.71799</v>
+        <v>0.783619</v>
       </c>
       <c r="D130" t="n">
-        <v>0.6939</v>
+        <v>0.688701</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.763669</v>
+        <v>0.759347</v>
       </c>
       <c r="C131" t="n">
-        <v>0.71508</v>
+        <v>0.697321</v>
       </c>
       <c r="D131" t="n">
-        <v>0.700376</v>
+        <v>0.770239</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.781758</v>
+        <v>0.744401</v>
       </c>
       <c r="C132" t="n">
-        <v>0.701217</v>
+        <v>0.701393</v>
       </c>
       <c r="D132" t="n">
-        <v>0.698469</v>
+        <v>0.6963200000000001</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.759516</v>
+        <v>0.765379</v>
       </c>
       <c r="C133" t="n">
-        <v>0.702662</v>
+        <v>0.702115</v>
       </c>
       <c r="D133" t="n">
-        <v>0.704408</v>
+        <v>0.6954129999999999</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.763415</v>
+        <v>0.860556</v>
       </c>
       <c r="C134" t="n">
-        <v>0.718909</v>
+        <v>0.696271</v>
       </c>
       <c r="D134" t="n">
-        <v>0.722862</v>
+        <v>0.7129529999999999</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.855699</v>
+        <v>0.774199</v>
       </c>
       <c r="C135" t="n">
-        <v>0.719699</v>
+        <v>0.7060650000000001</v>
       </c>
       <c r="D135" t="n">
-        <v>0.701651</v>
+        <v>0.724128</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.769999</v>
+        <v>0.761161</v>
       </c>
       <c r="C136" t="n">
-        <v>0.721637</v>
+        <v>0.71626</v>
       </c>
       <c r="D136" t="n">
-        <v>0.723926</v>
+        <v>0.718112</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.789828</v>
+        <v>0.772546</v>
       </c>
       <c r="C137" t="n">
-        <v>0.749718</v>
+        <v>0.878657</v>
       </c>
       <c r="D137" t="n">
-        <v>0.911573</v>
+        <v>0.898353</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.07316</v>
+        <v>0.999192</v>
       </c>
       <c r="C138" t="n">
-        <v>0.903454</v>
+        <v>0.87909</v>
       </c>
       <c r="D138" t="n">
-        <v>0.909365</v>
+        <v>0.883046</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.995429</v>
+        <v>0.998521</v>
       </c>
       <c r="C139" t="n">
-        <v>0.94693</v>
+        <v>0.874237</v>
       </c>
       <c r="D139" t="n">
-        <v>0.890022</v>
+        <v>0.877534</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.00134</v>
+        <v>0.99238</v>
       </c>
       <c r="C140" t="n">
-        <v>0.906438</v>
+        <v>0.8915960000000001</v>
       </c>
       <c r="D140" t="n">
-        <v>0.879274</v>
+        <v>0.881306</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.00241</v>
+        <v>0.995526</v>
       </c>
       <c r="C141" t="n">
-        <v>0.893385</v>
+        <v>0.8875</v>
       </c>
       <c r="D141" t="n">
-        <v>0.907362</v>
+        <v>0.8911210000000001</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.988146</v>
+        <v>1.01255</v>
       </c>
       <c r="C142" t="n">
-        <v>0.901954</v>
+        <v>0.890358</v>
       </c>
       <c r="D142" t="n">
-        <v>0.984445</v>
+        <v>0.893301</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.988768</v>
+        <v>0.984316</v>
       </c>
       <c r="C143" t="n">
-        <v>0.916084</v>
+        <v>0.878812</v>
       </c>
       <c r="D143" t="n">
-        <v>0.914072</v>
+        <v>0.884893</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.066539</v>
+        <v>0.06654119999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0632268</v>
+        <v>0.060991</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0645665</v>
+        <v>0.0649573</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0696676</v>
+        <v>0.0668382</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0619127</v>
+        <v>0.0621442</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0648285</v>
+        <v>0.06592580000000001</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0685645</v>
+        <v>0.0673033</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06459230000000001</v>
+        <v>0.0619299</v>
       </c>
       <c r="D4" t="n">
-        <v>0.06474539999999999</v>
+        <v>0.0630801</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0691832</v>
+        <v>0.0663999</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0658344</v>
+        <v>0.064776</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0656157</v>
+        <v>0.06462320000000001</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0684781</v>
+        <v>0.06897730000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0652372</v>
+        <v>0.0649995</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06712120000000001</v>
+        <v>0.06882779999999999</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0708284</v>
+        <v>0.06967710000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.068248</v>
+        <v>0.0704447</v>
       </c>
       <c r="D7" t="n">
-        <v>0.06682100000000001</v>
+        <v>0.0681706</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.06886349999999999</v>
+        <v>0.07161389999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07396170000000001</v>
+        <v>0.0749775</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0711811</v>
+        <v>0.0733727</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0699121</v>
+        <v>0.0726538</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06517050000000001</v>
+        <v>0.0649039</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0662977</v>
+        <v>0.0674471</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0761032</v>
+        <v>0.0773909</v>
       </c>
       <c r="C10" t="n">
-        <v>0.064329</v>
+        <v>0.0664993</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0679377</v>
+        <v>0.0678684</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0783003</v>
+        <v>0.0804111</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0632051</v>
+        <v>0.0650723</v>
       </c>
       <c r="D11" t="n">
-        <v>0.06420099999999999</v>
+        <v>0.0700615</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.07757500000000001</v>
+        <v>0.07795299999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0624211</v>
+        <v>0.06420770000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0638133</v>
+        <v>0.06798650000000001</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0759013</v>
+        <v>0.07755860000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>0.06517770000000001</v>
+        <v>0.0664742</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0678034</v>
+        <v>0.06651310000000001</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0755723</v>
+        <v>0.0784411</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0665804</v>
+        <v>0.063319</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0663323</v>
+        <v>0.0656595</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.07653500000000001</v>
+        <v>0.0766922</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0649338</v>
+        <v>0.06460200000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0694396</v>
+        <v>0.0674638</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0739606</v>
+        <v>0.07665520000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0648402</v>
+        <v>0.06813520000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0662295</v>
+        <v>0.0685407</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0772592</v>
+        <v>0.07529520000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0680113</v>
+        <v>0.066993</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0664975</v>
+        <v>0.06737020000000001</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0779127</v>
+        <v>0.0784604</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0653058</v>
+        <v>0.0686315</v>
       </c>
       <c r="D18" t="n">
-        <v>0.067593</v>
+        <v>0.06994880000000001</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0760772</v>
+        <v>0.07717499999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>0.06643880000000001</v>
+        <v>0.0676765</v>
       </c>
       <c r="D19" t="n">
-        <v>0.07014720000000001</v>
+        <v>0.06825630000000001</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0777774</v>
+        <v>0.07499889999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>0.06696820000000001</v>
+        <v>0.0687055</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0703785</v>
+        <v>0.0704602</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0798851</v>
+        <v>0.07773099999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.07282139999999999</v>
+        <v>0.07079969999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0725397</v>
+        <v>0.07133589999999999</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.07984140000000001</v>
+        <v>0.0777114</v>
       </c>
       <c r="C22" t="n">
-        <v>0.07849399999999999</v>
+        <v>0.078962</v>
       </c>
       <c r="D22" t="n">
-        <v>0.07715859999999999</v>
+        <v>0.0816426</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0808773</v>
+        <v>0.0793504</v>
       </c>
       <c r="C23" t="n">
-        <v>0.06938179999999999</v>
+        <v>0.06782729999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0687878</v>
+        <v>0.07042420000000001</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0815534</v>
+        <v>0.0843148</v>
       </c>
       <c r="C24" t="n">
-        <v>0.06905360000000001</v>
+        <v>0.0711938</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0713616</v>
+        <v>0.0695388</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0824472</v>
+        <v>0.0813668</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0681413</v>
+        <v>0.0696286</v>
       </c>
       <c r="D25" t="n">
-        <v>0.07075960000000001</v>
+        <v>0.07212399999999999</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.08443059999999999</v>
+        <v>0.0826028</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0697865</v>
+        <v>0.0706205</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0727472</v>
+        <v>0.0701601</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0834433</v>
+        <v>0.08313950000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>0.06820560000000001</v>
+        <v>0.07107670000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>0.07100099999999999</v>
+        <v>0.0719091</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.082176</v>
+        <v>0.0823781</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0717909</v>
+        <v>0.0722356</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0685458</v>
+        <v>0.0701085</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0819598</v>
+        <v>0.08238719999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0698525</v>
+        <v>0.0703265</v>
       </c>
       <c r="D29" t="n">
-        <v>0.07109749999999999</v>
+        <v>0.0722513</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0846953</v>
+        <v>0.08331710000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0716673</v>
+        <v>0.0706958</v>
       </c>
       <c r="D30" t="n">
-        <v>0.07168339999999999</v>
+        <v>0.0725783</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.08482190000000001</v>
+        <v>0.0812095</v>
       </c>
       <c r="C31" t="n">
-        <v>0.069346</v>
+        <v>0.07230250000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0732814</v>
+        <v>0.07362</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.08569160000000001</v>
+        <v>0.0838021</v>
       </c>
       <c r="C32" t="n">
-        <v>0.071627</v>
+        <v>0.0724693</v>
       </c>
       <c r="D32" t="n">
-        <v>0.07587869999999999</v>
+        <v>0.0714639</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.084198</v>
+        <v>0.08586969999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0739346</v>
+        <v>0.0714482</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0728277</v>
+        <v>0.0747646</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.084843</v>
+        <v>0.08373</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0755444</v>
+        <v>0.07627009999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.07761179999999999</v>
+        <v>0.0766313</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0879976</v>
+        <v>0.084424</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0777862</v>
+        <v>0.0791998</v>
       </c>
       <c r="D35" t="n">
-        <v>0.07891620000000001</v>
+        <v>0.077847</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.08294509999999999</v>
+        <v>0.088653</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0817923</v>
+        <v>0.082854</v>
       </c>
       <c r="D36" t="n">
-        <v>0.08412260000000001</v>
+        <v>0.0844384</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0849596</v>
+        <v>0.08909549999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0750841</v>
+        <v>0.0738409</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0778238</v>
+        <v>0.0759162</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0997347</v>
+        <v>0.10224</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0749856</v>
+        <v>0.07507850000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0811871</v>
+        <v>0.07704039999999999</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.103575</v>
+        <v>0.106261</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0749461</v>
+        <v>0.075783</v>
       </c>
       <c r="D39" t="n">
-        <v>0.07646269999999999</v>
+        <v>0.082195</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.10027</v>
+        <v>0.100144</v>
       </c>
       <c r="C40" t="n">
-        <v>0.07628</v>
+        <v>0.0761482</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0819719</v>
+        <v>0.0817698</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.106021</v>
+        <v>0.105073</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0767196</v>
+        <v>0.07854940000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0786612</v>
+        <v>0.0790293</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.104029</v>
+        <v>0.100787</v>
       </c>
       <c r="C42" t="n">
-        <v>0.07839599999999999</v>
+        <v>0.0795951</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0787028</v>
+        <v>0.08049009999999999</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.102769</v>
+        <v>0.103158</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0771516</v>
+        <v>0.0803427</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0810789</v>
+        <v>0.0823382</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.104619</v>
+        <v>0.104281</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0790038</v>
+        <v>0.0783026</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0814463</v>
+        <v>0.0803726</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.101795</v>
+        <v>0.101145</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0784382</v>
+        <v>0.078288</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0805657</v>
+        <v>0.082236</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.10456</v>
+        <v>0.105431</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0789873</v>
+        <v>0.08068980000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0838564</v>
+        <v>0.08380799999999999</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.101938</v>
+        <v>0.102281</v>
       </c>
       <c r="C47" t="n">
-        <v>0.08039930000000001</v>
+        <v>0.081912</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0843347</v>
+        <v>0.0854548</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.104436</v>
+        <v>0.105664</v>
       </c>
       <c r="C48" t="n">
-        <v>0.08195429999999999</v>
+        <v>0.0838782</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0836978</v>
+        <v>0.0870214</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.104609</v>
+        <v>0.108274</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0863578</v>
+        <v>0.0876311</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0908627</v>
+        <v>0.09045640000000001</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.108707</v>
+        <v>0.106119</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0896724</v>
+        <v>0.08911529999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0918921</v>
+        <v>0.0928928</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.110093</v>
+        <v>0.108561</v>
       </c>
       <c r="C51" t="n">
-        <v>0.170779</v>
+        <v>0.164459</v>
       </c>
       <c r="D51" t="n">
-        <v>0.164317</v>
+        <v>0.169191</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.111067</v>
+        <v>0.111015</v>
       </c>
       <c r="C52" t="n">
-        <v>0.165261</v>
+        <v>0.168175</v>
       </c>
       <c r="D52" t="n">
-        <v>0.166331</v>
+        <v>0.169619</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.186791</v>
+        <v>0.195061</v>
       </c>
       <c r="C53" t="n">
-        <v>0.166428</v>
+        <v>0.169915</v>
       </c>
       <c r="D53" t="n">
-        <v>0.161289</v>
+        <v>0.170319</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.196892</v>
+        <v>0.195793</v>
       </c>
       <c r="C54" t="n">
-        <v>0.171676</v>
+        <v>0.170868</v>
       </c>
       <c r="D54" t="n">
-        <v>0.16659</v>
+        <v>0.165815</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.187763</v>
+        <v>0.194187</v>
       </c>
       <c r="C55" t="n">
-        <v>0.170557</v>
+        <v>0.170009</v>
       </c>
       <c r="D55" t="n">
-        <v>0.165979</v>
+        <v>0.168426</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.185969</v>
+        <v>0.199383</v>
       </c>
       <c r="C56" t="n">
-        <v>0.166463</v>
+        <v>0.173675</v>
       </c>
       <c r="D56" t="n">
-        <v>0.169789</v>
+        <v>0.171117</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.193771</v>
+        <v>0.193501</v>
       </c>
       <c r="C57" t="n">
-        <v>0.164227</v>
+        <v>0.169707</v>
       </c>
       <c r="D57" t="n">
-        <v>0.16873</v>
+        <v>0.174785</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.183927</v>
+        <v>0.200983</v>
       </c>
       <c r="C58" t="n">
-        <v>0.170328</v>
+        <v>0.169071</v>
       </c>
       <c r="D58" t="n">
-        <v>0.173427</v>
+        <v>0.167111</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.194509</v>
+        <v>0.194357</v>
       </c>
       <c r="C59" t="n">
-        <v>0.166367</v>
+        <v>0.173787</v>
       </c>
       <c r="D59" t="n">
-        <v>0.171392</v>
+        <v>0.178033</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.195599</v>
+        <v>0.201257</v>
       </c>
       <c r="C60" t="n">
-        <v>0.170695</v>
+        <v>0.173967</v>
       </c>
       <c r="D60" t="n">
-        <v>0.176679</v>
+        <v>0.171173</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.200659</v>
+        <v>0.193544</v>
       </c>
       <c r="C61" t="n">
-        <v>0.178141</v>
+        <v>0.17858</v>
       </c>
       <c r="D61" t="n">
-        <v>0.178206</v>
+        <v>0.175075</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.190225</v>
+        <v>0.200465</v>
       </c>
       <c r="C62" t="n">
-        <v>0.177436</v>
+        <v>0.175802</v>
       </c>
       <c r="D62" t="n">
-        <v>0.171776</v>
+        <v>0.177656</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.195336</v>
+        <v>0.196597</v>
       </c>
       <c r="C63" t="n">
-        <v>0.175744</v>
+        <v>0.183</v>
       </c>
       <c r="D63" t="n">
-        <v>0.175303</v>
+        <v>0.185009</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.200219</v>
+        <v>0.200859</v>
       </c>
       <c r="C64" t="n">
-        <v>0.182692</v>
+        <v>0.183223</v>
       </c>
       <c r="D64" t="n">
-        <v>0.179544</v>
+        <v>0.186574</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.20115</v>
+        <v>0.204501</v>
       </c>
       <c r="C65" t="n">
-        <v>0.184377</v>
+        <v>0.190321</v>
       </c>
       <c r="D65" t="n">
-        <v>0.18041</v>
+        <v>0.190004</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.204381</v>
+        <v>0.215841</v>
       </c>
       <c r="C66" t="n">
-        <v>0.256342</v>
+        <v>0.263948</v>
       </c>
       <c r="D66" t="n">
-        <v>0.265058</v>
+        <v>0.261852</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.299681</v>
+        <v>0.294024</v>
       </c>
       <c r="C67" t="n">
-        <v>0.256279</v>
+        <v>0.261219</v>
       </c>
       <c r="D67" t="n">
-        <v>0.253779</v>
+        <v>0.256166</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.285805</v>
+        <v>0.292201</v>
       </c>
       <c r="C68" t="n">
-        <v>0.261111</v>
+        <v>0.262211</v>
       </c>
       <c r="D68" t="n">
-        <v>0.252895</v>
+        <v>0.258773</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.308327</v>
+        <v>0.300077</v>
       </c>
       <c r="C69" t="n">
-        <v>0.254916</v>
+        <v>0.264327</v>
       </c>
       <c r="D69" t="n">
-        <v>0.255446</v>
+        <v>0.265865</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.295161</v>
+        <v>0.290009</v>
       </c>
       <c r="C70" t="n">
-        <v>0.257396</v>
+        <v>0.263536</v>
       </c>
       <c r="D70" t="n">
-        <v>0.261324</v>
+        <v>0.262834</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.305319</v>
+        <v>0.293358</v>
       </c>
       <c r="C71" t="n">
-        <v>0.26012</v>
+        <v>0.26775</v>
       </c>
       <c r="D71" t="n">
-        <v>0.25741</v>
+        <v>0.267051</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.286586</v>
+        <v>0.29995</v>
       </c>
       <c r="C72" t="n">
-        <v>0.270485</v>
+        <v>0.270817</v>
       </c>
       <c r="D72" t="n">
-        <v>0.267762</v>
+        <v>0.262055</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.293479</v>
+        <v>0.307575</v>
       </c>
       <c r="C73" t="n">
-        <v>0.263985</v>
+        <v>0.273087</v>
       </c>
       <c r="D73" t="n">
-        <v>0.271821</v>
+        <v>0.268894</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.304772</v>
+        <v>0.294288</v>
       </c>
       <c r="C74" t="n">
-        <v>0.267066</v>
+        <v>0.278936</v>
       </c>
       <c r="D74" t="n">
-        <v>0.269404</v>
+        <v>0.282446</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.302426</v>
+        <v>0.300911</v>
       </c>
       <c r="C75" t="n">
-        <v>0.260767</v>
+        <v>0.284452</v>
       </c>
       <c r="D75" t="n">
-        <v>0.262582</v>
+        <v>0.273387</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.292831</v>
+        <v>0.303869</v>
       </c>
       <c r="C76" t="n">
-        <v>0.268941</v>
+        <v>0.279704</v>
       </c>
       <c r="D76" t="n">
-        <v>0.283541</v>
+        <v>0.272812</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.2988</v>
+        <v>0.304359</v>
       </c>
       <c r="C77" t="n">
-        <v>0.26813</v>
+        <v>0.288516</v>
       </c>
       <c r="D77" t="n">
-        <v>0.27382</v>
+        <v>0.283036</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.309781</v>
+        <v>0.307093</v>
       </c>
       <c r="C78" t="n">
-        <v>0.272916</v>
+        <v>0.279009</v>
       </c>
       <c r="D78" t="n">
-        <v>0.271652</v>
+        <v>0.279215</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.295836</v>
+        <v>0.315704</v>
       </c>
       <c r="C79" t="n">
-        <v>0.275132</v>
+        <v>0.284318</v>
       </c>
       <c r="D79" t="n">
-        <v>0.28116</v>
+        <v>0.282911</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.306745</v>
+        <v>0.318221</v>
       </c>
       <c r="C80" t="n">
-        <v>0.35519</v>
+        <v>0.367888</v>
       </c>
       <c r="D80" t="n">
-        <v>0.355853</v>
+        <v>0.36677</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.39147</v>
+        <v>0.386143</v>
       </c>
       <c r="C81" t="n">
-        <v>0.364979</v>
+        <v>0.373127</v>
       </c>
       <c r="D81" t="n">
-        <v>0.361328</v>
+        <v>0.37263</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.383281</v>
+        <v>0.380953</v>
       </c>
       <c r="C82" t="n">
-        <v>0.370317</v>
+        <v>0.368507</v>
       </c>
       <c r="D82" t="n">
-        <v>0.361156</v>
+        <v>0.359791</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.378588</v>
+        <v>0.386836</v>
       </c>
       <c r="C83" t="n">
-        <v>0.36582</v>
+        <v>0.36386</v>
       </c>
       <c r="D83" t="n">
-        <v>0.367196</v>
+        <v>0.373302</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.382187</v>
+        <v>0.383547</v>
       </c>
       <c r="C84" t="n">
-        <v>0.362539</v>
+        <v>0.381258</v>
       </c>
       <c r="D84" t="n">
-        <v>0.357131</v>
+        <v>0.369264</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.389387</v>
+        <v>0.394057</v>
       </c>
       <c r="C85" t="n">
-        <v>0.381646</v>
+        <v>0.372407</v>
       </c>
       <c r="D85" t="n">
-        <v>0.367736</v>
+        <v>0.373822</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.371547</v>
+        <v>0.382259</v>
       </c>
       <c r="C86" t="n">
-        <v>0.367641</v>
+        <v>0.369063</v>
       </c>
       <c r="D86" t="n">
-        <v>0.378748</v>
+        <v>0.366115</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.40257</v>
+        <v>0.398224</v>
       </c>
       <c r="C87" t="n">
-        <v>0.374388</v>
+        <v>0.3728</v>
       </c>
       <c r="D87" t="n">
-        <v>0.365391</v>
+        <v>0.356613</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.387277</v>
+        <v>0.39165</v>
       </c>
       <c r="C88" t="n">
-        <v>0.364257</v>
+        <v>0.37821</v>
       </c>
       <c r="D88" t="n">
-        <v>0.358929</v>
+        <v>0.377024</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.398269</v>
+        <v>0.385506</v>
       </c>
       <c r="C89" t="n">
-        <v>0.377817</v>
+        <v>0.378165</v>
       </c>
       <c r="D89" t="n">
-        <v>0.378242</v>
+        <v>0.38284</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.387966</v>
+        <v>0.395906</v>
       </c>
       <c r="C90" t="n">
-        <v>0.37988</v>
+        <v>0.37089</v>
       </c>
       <c r="D90" t="n">
-        <v>0.359784</v>
+        <v>0.368627</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.389219</v>
+        <v>0.394763</v>
       </c>
       <c r="C91" t="n">
-        <v>0.367049</v>
+        <v>0.380439</v>
       </c>
       <c r="D91" t="n">
-        <v>0.370544</v>
+        <v>0.386429</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.384045</v>
+        <v>0.399443</v>
       </c>
       <c r="C92" t="n">
-        <v>0.381375</v>
+        <v>0.392262</v>
       </c>
       <c r="D92" t="n">
-        <v>0.370809</v>
+        <v>0.379842</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.406215</v>
+        <v>0.406937</v>
       </c>
       <c r="C93" t="n">
-        <v>0.377067</v>
+        <v>0.377356</v>
       </c>
       <c r="D93" t="n">
-        <v>0.38127</v>
+        <v>0.38608</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.407083</v>
+        <v>0.396537</v>
       </c>
       <c r="C94" t="n">
-        <v>0.46835</v>
+        <v>0.470472</v>
       </c>
       <c r="D94" t="n">
-        <v>0.467498</v>
+        <v>0.468956</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.468323</v>
+        <v>0.473819</v>
       </c>
       <c r="C95" t="n">
-        <v>0.462557</v>
+        <v>0.463842</v>
       </c>
       <c r="D95" t="n">
-        <v>0.466779</v>
+        <v>0.469403</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.467154</v>
+        <v>0.472519</v>
       </c>
       <c r="C96" t="n">
-        <v>0.467066</v>
+        <v>0.459098</v>
       </c>
       <c r="D96" t="n">
-        <v>0.493437</v>
+        <v>0.460369</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.458913</v>
+        <v>0.476422</v>
       </c>
       <c r="C97" t="n">
-        <v>0.455754</v>
+        <v>0.46948</v>
       </c>
       <c r="D97" t="n">
-        <v>0.463329</v>
+        <v>0.479606</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.493251</v>
+        <v>0.484853</v>
       </c>
       <c r="C98" t="n">
-        <v>0.473458</v>
+        <v>0.469306</v>
       </c>
       <c r="D98" t="n">
-        <v>0.465928</v>
+        <v>0.481183</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.472689</v>
+        <v>0.474891</v>
       </c>
       <c r="C99" t="n">
-        <v>0.458889</v>
+        <v>0.46269</v>
       </c>
       <c r="D99" t="n">
-        <v>0.471744</v>
+        <v>0.483713</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.504053</v>
+        <v>0.477049</v>
       </c>
       <c r="C100" t="n">
-        <v>0.479977</v>
+        <v>0.467562</v>
       </c>
       <c r="D100" t="n">
-        <v>0.470422</v>
+        <v>0.475003</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.479568</v>
+        <v>0.483031</v>
       </c>
       <c r="C101" t="n">
-        <v>0.479211</v>
+        <v>0.470407</v>
       </c>
       <c r="D101" t="n">
-        <v>0.480992</v>
+        <v>0.461888</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.468314</v>
+        <v>0.470001</v>
       </c>
       <c r="C102" t="n">
-        <v>0.469133</v>
+        <v>0.485704</v>
       </c>
       <c r="D102" t="n">
-        <v>0.46643</v>
+        <v>0.474277</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.477401</v>
+        <v>0.472239</v>
       </c>
       <c r="C103" t="n">
-        <v>0.477223</v>
+        <v>0.467621</v>
       </c>
       <c r="D103" t="n">
-        <v>0.465154</v>
+        <v>0.477918</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.473536</v>
+        <v>0.472775</v>
       </c>
       <c r="C104" t="n">
-        <v>0.485358</v>
+        <v>0.472191</v>
       </c>
       <c r="D104" t="n">
-        <v>0.463349</v>
+        <v>0.481135</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.469848</v>
+        <v>0.495752</v>
       </c>
       <c r="C105" t="n">
-        <v>0.46342</v>
+        <v>0.477712</v>
       </c>
       <c r="D105" t="n">
-        <v>0.473972</v>
+        <v>0.475654</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.473017</v>
+        <v>0.485832</v>
       </c>
       <c r="C106" t="n">
-        <v>0.488665</v>
+        <v>0.476408</v>
       </c>
       <c r="D106" t="n">
-        <v>0.48553</v>
+        <v>0.489123</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.498705</v>
+        <v>0.495682</v>
       </c>
       <c r="C107" t="n">
-        <v>0.47398</v>
+        <v>0.504215</v>
       </c>
       <c r="D107" t="n">
-        <v>0.482805</v>
+        <v>0.490929</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.506421</v>
+        <v>0.47993</v>
       </c>
       <c r="C108" t="n">
-        <v>0.584713</v>
+        <v>0.577106</v>
       </c>
       <c r="D108" t="n">
-        <v>0.565012</v>
+        <v>0.586128</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.502826</v>
+        <v>0.494316</v>
       </c>
       <c r="C109" t="n">
-        <v>0.551867</v>
+        <v>0.580642</v>
       </c>
       <c r="D109" t="n">
-        <v>0.560847</v>
+        <v>0.557014</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.567447</v>
+        <v>0.606973</v>
       </c>
       <c r="C110" t="n">
-        <v>0.570446</v>
+        <v>0.586352</v>
       </c>
       <c r="D110" t="n">
-        <v>0.554001</v>
+        <v>0.582107</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.578882</v>
+        <v>0.5734</v>
       </c>
       <c r="C111" t="n">
-        <v>0.5844</v>
+        <v>0.596418</v>
       </c>
       <c r="D111" t="n">
-        <v>0.586295</v>
+        <v>0.5965</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.625293</v>
+        <v>0.6292180000000001</v>
       </c>
       <c r="C112" t="n">
-        <v>0.582626</v>
+        <v>0.583269</v>
       </c>
       <c r="D112" t="n">
-        <v>0.5674</v>
+        <v>0.557005</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.591195</v>
+        <v>0.57477</v>
       </c>
       <c r="C113" t="n">
-        <v>0.579492</v>
+        <v>0.550195</v>
       </c>
       <c r="D113" t="n">
-        <v>0.558098</v>
+        <v>0.57686</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.581223</v>
+        <v>0.581559</v>
       </c>
       <c r="C114" t="n">
-        <v>0.59357</v>
+        <v>0.586727</v>
       </c>
       <c r="D114" t="n">
-        <v>0.568257</v>
+        <v>0.5619150000000001</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.605352</v>
+        <v>0.63131</v>
       </c>
       <c r="C115" t="n">
-        <v>0.548807</v>
+        <v>0.5747640000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>0.572809</v>
+        <v>0.55668</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.645545</v>
+        <v>0.575931</v>
       </c>
       <c r="C116" t="n">
-        <v>0.561676</v>
+        <v>0.595156</v>
       </c>
       <c r="D116" t="n">
-        <v>0.552102</v>
+        <v>0.55554</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.58613</v>
+        <v>0.583935</v>
       </c>
       <c r="C117" t="n">
-        <v>0.566758</v>
+        <v>0.55326</v>
       </c>
       <c r="D117" t="n">
-        <v>0.560984</v>
+        <v>0.558048</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.585273</v>
+        <v>0.63622</v>
       </c>
       <c r="C118" t="n">
-        <v>0.54696</v>
+        <v>0.563873</v>
       </c>
       <c r="D118" t="n">
-        <v>0.604915</v>
+        <v>0.594279</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.576819</v>
+        <v>0.611689</v>
       </c>
       <c r="C119" t="n">
-        <v>0.562833</v>
+        <v>0.566987</v>
       </c>
       <c r="D119" t="n">
-        <v>0.582201</v>
+        <v>0.600444</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.600174</v>
+        <v>0.642396</v>
       </c>
       <c r="C120" t="n">
-        <v>0.571445</v>
+        <v>0.593521</v>
       </c>
       <c r="D120" t="n">
-        <v>0.569846</v>
+        <v>0.604818</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.602348</v>
+        <v>0.598</v>
       </c>
       <c r="C121" t="n">
-        <v>0.611412</v>
+        <v>0.590591</v>
       </c>
       <c r="D121" t="n">
-        <v>0.580699</v>
+        <v>0.583358</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.608809</v>
+        <v>0.619252</v>
       </c>
       <c r="C122" t="n">
-        <v>0.574362</v>
+        <v>0.603299</v>
       </c>
       <c r="D122" t="n">
-        <v>0.616275</v>
+        <v>0.577585</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.591877</v>
+        <v>0.608115</v>
       </c>
       <c r="C123" t="n">
-        <v>0.688879</v>
+        <v>0.6659389999999999</v>
       </c>
       <c r="D123" t="n">
-        <v>0.685904</v>
+        <v>0.6800620000000001</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.763435</v>
+        <v>0.770324</v>
       </c>
       <c r="C124" t="n">
-        <v>0.687644</v>
+        <v>0.675148</v>
       </c>
       <c r="D124" t="n">
-        <v>0.681824</v>
+        <v>0.6703480000000001</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.883448</v>
+        <v>0.775614</v>
       </c>
       <c r="C125" t="n">
-        <v>0.688577</v>
+        <v>0.699079</v>
       </c>
       <c r="D125" t="n">
-        <v>0.6867180000000001</v>
+        <v>0.69842</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.761493</v>
+        <v>0.75431</v>
       </c>
       <c r="C126" t="n">
-        <v>0.697308</v>
+        <v>0.697203</v>
       </c>
       <c r="D126" t="n">
-        <v>0.699829</v>
+        <v>0.695488</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.791266</v>
+        <v>0.766341</v>
       </c>
       <c r="C127" t="n">
-        <v>0.793825</v>
+        <v>0.6787029999999999</v>
       </c>
       <c r="D127" t="n">
-        <v>0.675451</v>
+        <v>0.794338</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.743436</v>
+        <v>0.774996</v>
       </c>
       <c r="C128" t="n">
-        <v>0.681439</v>
+        <v>0.687944</v>
       </c>
       <c r="D128" t="n">
-        <v>0.689073</v>
+        <v>0.81252</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.753515</v>
+        <v>0.752839</v>
       </c>
       <c r="C129" t="n">
-        <v>0.684564</v>
+        <v>0.690614</v>
       </c>
       <c r="D129" t="n">
-        <v>0.690726</v>
+        <v>0.68968</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.755718</v>
+        <v>0.759587</v>
       </c>
       <c r="C130" t="n">
-        <v>0.783619</v>
+        <v>0.692177</v>
       </c>
       <c r="D130" t="n">
-        <v>0.688701</v>
+        <v>0.701577</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.759347</v>
+        <v>0.760099</v>
       </c>
       <c r="C131" t="n">
-        <v>0.697321</v>
+        <v>0.706797</v>
       </c>
       <c r="D131" t="n">
-        <v>0.770239</v>
+        <v>0.722229</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.744401</v>
+        <v>0.755005</v>
       </c>
       <c r="C132" t="n">
-        <v>0.701393</v>
+        <v>0.698453</v>
       </c>
       <c r="D132" t="n">
-        <v>0.6963200000000001</v>
+        <v>0.698801</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.765379</v>
+        <v>0.75084</v>
       </c>
       <c r="C133" t="n">
-        <v>0.702115</v>
+        <v>0.693856</v>
       </c>
       <c r="D133" t="n">
-        <v>0.6954129999999999</v>
+        <v>0.692703</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.860556</v>
+        <v>0.774639</v>
       </c>
       <c r="C134" t="n">
-        <v>0.696271</v>
+        <v>0.6970499999999999</v>
       </c>
       <c r="D134" t="n">
-        <v>0.7129529999999999</v>
+        <v>0.700082</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.774199</v>
+        <v>0.763855</v>
       </c>
       <c r="C135" t="n">
-        <v>0.7060650000000001</v>
+        <v>0.762896</v>
       </c>
       <c r="D135" t="n">
-        <v>0.724128</v>
+        <v>0.70108</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.761161</v>
+        <v>0.825201</v>
       </c>
       <c r="C136" t="n">
-        <v>0.71626</v>
+        <v>0.716286</v>
       </c>
       <c r="D136" t="n">
-        <v>0.718112</v>
+        <v>0.7096519999999999</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.772546</v>
+        <v>0.783674</v>
       </c>
       <c r="C137" t="n">
-        <v>0.878657</v>
+        <v>0.884729</v>
       </c>
       <c r="D137" t="n">
-        <v>0.898353</v>
+        <v>0.885494</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.999192</v>
+        <v>1.04999</v>
       </c>
       <c r="C138" t="n">
-        <v>0.87909</v>
+        <v>0.895456</v>
       </c>
       <c r="D138" t="n">
-        <v>0.883046</v>
+        <v>0.882484</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.998521</v>
+        <v>0.982301</v>
       </c>
       <c r="C139" t="n">
-        <v>0.874237</v>
+        <v>0.867717</v>
       </c>
       <c r="D139" t="n">
-        <v>0.877534</v>
+        <v>0.8840980000000001</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.99238</v>
+        <v>0.971438</v>
       </c>
       <c r="C140" t="n">
-        <v>0.8915960000000001</v>
+        <v>0.888327</v>
       </c>
       <c r="D140" t="n">
-        <v>0.881306</v>
+        <v>0.884995</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.995526</v>
+        <v>1.01057</v>
       </c>
       <c r="C141" t="n">
-        <v>0.8875</v>
+        <v>0.882462</v>
       </c>
       <c r="D141" t="n">
-        <v>0.8911210000000001</v>
+        <v>0.878089</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.01255</v>
+        <v>1.00005</v>
       </c>
       <c r="C142" t="n">
-        <v>0.890358</v>
+        <v>0.883683</v>
       </c>
       <c r="D142" t="n">
-        <v>0.893301</v>
+        <v>0.89156</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.984316</v>
+        <v>0.992743</v>
       </c>
       <c r="C143" t="n">
-        <v>0.878812</v>
+        <v>0.891738</v>
       </c>
       <c r="D143" t="n">
-        <v>0.884893</v>
+        <v>0.87945</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.06654119999999999</v>
+        <v>0.0672803</v>
       </c>
       <c r="C2" t="n">
-        <v>0.060991</v>
+        <v>0.0614769</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0649573</v>
+        <v>0.064161</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0668382</v>
+        <v>0.0662177</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0621442</v>
+        <v>0.06389069999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06592580000000001</v>
+        <v>0.0655626</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0673033</v>
+        <v>0.07017669999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0619299</v>
+        <v>0.0623202</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0630801</v>
+        <v>0.06673419999999999</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0663999</v>
+        <v>0.0675665</v>
       </c>
       <c r="C5" t="n">
-        <v>0.064776</v>
+        <v>0.0658421</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06462320000000001</v>
+        <v>0.0677991</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.06897730000000001</v>
+        <v>0.07034899999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0649995</v>
+        <v>0.0679691</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06882779999999999</v>
+        <v>0.0678816</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06967710000000001</v>
+        <v>0.07235</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0704447</v>
+        <v>0.06813230000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0681706</v>
+        <v>0.067033</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.07161389999999999</v>
+        <v>0.0679372</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0749775</v>
+        <v>0.0729851</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0733727</v>
+        <v>0.0723322</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0726538</v>
+        <v>0.0711046</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0649039</v>
+        <v>0.06369030000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0674471</v>
+        <v>0.06477289999999999</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0773909</v>
+        <v>0.07450809999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0664993</v>
+        <v>0.0668102</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0678684</v>
+        <v>0.0675529</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0804111</v>
+        <v>0.0786101</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0650723</v>
+        <v>0.0655273</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0700615</v>
+        <v>0.069088</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.07795299999999999</v>
+        <v>0.0749027</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06420770000000001</v>
+        <v>0.0647184</v>
       </c>
       <c r="D12" t="n">
-        <v>0.06798650000000001</v>
+        <v>0.0630795</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.07755860000000001</v>
+        <v>0.0744879</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0664742</v>
+        <v>0.0659969</v>
       </c>
       <c r="D13" t="n">
-        <v>0.06651310000000001</v>
+        <v>0.0638194</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0784411</v>
+        <v>0.0753241</v>
       </c>
       <c r="C14" t="n">
-        <v>0.063319</v>
+        <v>0.0625966</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0656595</v>
+        <v>0.064064</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0766922</v>
+        <v>0.0777438</v>
       </c>
       <c r="C15" t="n">
-        <v>0.06460200000000001</v>
+        <v>0.0638393</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0674638</v>
+        <v>0.06572070000000001</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.07665520000000001</v>
+        <v>0.0754833</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06813520000000001</v>
+        <v>0.0644793</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0685407</v>
+        <v>0.0644419</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.07529520000000001</v>
+        <v>0.07736609999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>0.066993</v>
+        <v>0.0637081</v>
       </c>
       <c r="D17" t="n">
-        <v>0.06737020000000001</v>
+        <v>0.066437</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0784604</v>
+        <v>0.0750234</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0686315</v>
+        <v>0.066209</v>
       </c>
       <c r="D18" t="n">
-        <v>0.06994880000000001</v>
+        <v>0.06620810000000001</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.07717499999999999</v>
+        <v>0.07630049999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0676765</v>
+        <v>0.0699579</v>
       </c>
       <c r="D19" t="n">
-        <v>0.06825630000000001</v>
+        <v>0.0667697</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.07499889999999999</v>
+        <v>0.078056</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0687055</v>
+        <v>0.0687676</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0704602</v>
+        <v>0.0712623</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07773099999999999</v>
+        <v>0.0793379</v>
       </c>
       <c r="C21" t="n">
-        <v>0.07079969999999999</v>
+        <v>0.07150339999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.07133589999999999</v>
+        <v>0.0725544</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0777114</v>
+        <v>0.08072699999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>0.078962</v>
+        <v>0.075949</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0816426</v>
+        <v>0.0741523</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0793504</v>
+        <v>0.0816977</v>
       </c>
       <c r="C23" t="n">
-        <v>0.06782729999999999</v>
+        <v>0.06788139999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>0.07042420000000001</v>
+        <v>0.07093629999999999</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0843148</v>
+        <v>0.0818072</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0711938</v>
+        <v>0.069649</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0695388</v>
+        <v>0.0688233</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0813668</v>
+        <v>0.0840852</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0696286</v>
+        <v>0.0707921</v>
       </c>
       <c r="D25" t="n">
-        <v>0.07212399999999999</v>
+        <v>0.0686664</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0826028</v>
+        <v>0.08220180000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0706205</v>
+        <v>0.0688758</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0701601</v>
+        <v>0.0705986</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.08313950000000001</v>
+        <v>0.0853367</v>
       </c>
       <c r="C27" t="n">
-        <v>0.07107670000000001</v>
+        <v>0.0695194</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0719091</v>
+        <v>0.0702438</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0823781</v>
+        <v>0.0859664</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0722356</v>
+        <v>0.07096429999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0701085</v>
+        <v>0.0701157</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.08238719999999999</v>
+        <v>0.089432</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0703265</v>
+        <v>0.07492550000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0722513</v>
+        <v>0.07271</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.08331710000000001</v>
+        <v>0.0816694</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0706958</v>
+        <v>0.0715663</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0725783</v>
+        <v>0.07311380000000001</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0812095</v>
+        <v>0.08402129999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.07230250000000001</v>
+        <v>0.07126399999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>0.07362</v>
+        <v>0.071494</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0838021</v>
+        <v>0.0854693</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0724693</v>
+        <v>0.0728306</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0714639</v>
+        <v>0.07438839999999999</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.08586969999999999</v>
+        <v>0.08280410000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0714482</v>
+        <v>0.0749788</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0747646</v>
+        <v>0.0751303</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.08373</v>
+        <v>0.0879538</v>
       </c>
       <c r="C34" t="n">
-        <v>0.07627009999999999</v>
+        <v>0.0746317</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0766313</v>
+        <v>0.07507170000000001</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.084424</v>
+        <v>0.08602990000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0791998</v>
+        <v>0.07983850000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>0.077847</v>
+        <v>0.0794579</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.088653</v>
+        <v>0.0884325</v>
       </c>
       <c r="C36" t="n">
-        <v>0.082854</v>
+        <v>0.081009</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0844384</v>
+        <v>0.0820121</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.08909549999999999</v>
+        <v>0.08876199999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0738409</v>
+        <v>0.0774953</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0759162</v>
+        <v>0.0797337</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.10224</v>
+        <v>0.102931</v>
       </c>
       <c r="C38" t="n">
-        <v>0.07507850000000001</v>
+        <v>0.0754692</v>
       </c>
       <c r="D38" t="n">
-        <v>0.07704039999999999</v>
+        <v>0.08069129999999999</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.106261</v>
+        <v>0.108253</v>
       </c>
       <c r="C39" t="n">
-        <v>0.075783</v>
+        <v>0.07807500000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>0.082195</v>
+        <v>0.08007069999999999</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.100144</v>
+        <v>0.101974</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0761482</v>
+        <v>0.0802332</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0817698</v>
+        <v>0.0819143</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.105073</v>
+        <v>0.105032</v>
       </c>
       <c r="C41" t="n">
-        <v>0.07854940000000001</v>
+        <v>0.0784647</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0790293</v>
+        <v>0.0780742</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.100787</v>
+        <v>0.104044</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0795951</v>
+        <v>0.0780652</v>
       </c>
       <c r="D42" t="n">
-        <v>0.08049009999999999</v>
+        <v>0.08026369999999999</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.103158</v>
+        <v>0.106578</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0803427</v>
+        <v>0.08148089999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0823382</v>
+        <v>0.081706</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.104281</v>
+        <v>0.107438</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0783026</v>
+        <v>0.0796487</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0803726</v>
+        <v>0.0831818</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.101145</v>
+        <v>0.1045</v>
       </c>
       <c r="C45" t="n">
-        <v>0.078288</v>
+        <v>0.0806123</v>
       </c>
       <c r="D45" t="n">
-        <v>0.082236</v>
+        <v>0.08245329999999999</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.105431</v>
+        <v>0.105803</v>
       </c>
       <c r="C46" t="n">
-        <v>0.08068980000000001</v>
+        <v>0.07900890000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>0.08380799999999999</v>
+        <v>0.0852976</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.102281</v>
+        <v>0.10823</v>
       </c>
       <c r="C47" t="n">
-        <v>0.081912</v>
+        <v>0.0817422</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0854548</v>
+        <v>0.08676689999999999</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.105664</v>
+        <v>0.106274</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0838782</v>
+        <v>0.08257730000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0870214</v>
+        <v>0.0875615</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.108274</v>
+        <v>0.102912</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0876311</v>
+        <v>0.0884296</v>
       </c>
       <c r="D49" t="n">
-        <v>0.09045640000000001</v>
+        <v>0.0877144</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.106119</v>
+        <v>0.107579</v>
       </c>
       <c r="C50" t="n">
-        <v>0.08911529999999999</v>
+        <v>0.0912439</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0928928</v>
+        <v>0.0911875</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.108561</v>
+        <v>0.109738</v>
       </c>
       <c r="C51" t="n">
-        <v>0.164459</v>
+        <v>0.169263</v>
       </c>
       <c r="D51" t="n">
-        <v>0.169191</v>
+        <v>0.167883</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.111015</v>
+        <v>0.111481</v>
       </c>
       <c r="C52" t="n">
-        <v>0.168175</v>
+        <v>0.170406</v>
       </c>
       <c r="D52" t="n">
-        <v>0.169619</v>
+        <v>0.1681</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.195061</v>
+        <v>0.1869</v>
       </c>
       <c r="C53" t="n">
-        <v>0.169915</v>
+        <v>0.169119</v>
       </c>
       <c r="D53" t="n">
-        <v>0.170319</v>
+        <v>0.167694</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.195793</v>
+        <v>0.199514</v>
       </c>
       <c r="C54" t="n">
-        <v>0.170868</v>
+        <v>0.167145</v>
       </c>
       <c r="D54" t="n">
-        <v>0.165815</v>
+        <v>0.170231</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.194187</v>
+        <v>0.1917</v>
       </c>
       <c r="C55" t="n">
-        <v>0.170009</v>
+        <v>0.17042</v>
       </c>
       <c r="D55" t="n">
-        <v>0.168426</v>
+        <v>0.172431</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.199383</v>
+        <v>0.195449</v>
       </c>
       <c r="C56" t="n">
-        <v>0.173675</v>
+        <v>0.168741</v>
       </c>
       <c r="D56" t="n">
-        <v>0.171117</v>
+        <v>0.168209</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.193501</v>
+        <v>0.193318</v>
       </c>
       <c r="C57" t="n">
-        <v>0.169707</v>
+        <v>0.168887</v>
       </c>
       <c r="D57" t="n">
-        <v>0.174785</v>
+        <v>0.168228</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.200983</v>
+        <v>0.195254</v>
       </c>
       <c r="C58" t="n">
-        <v>0.169071</v>
+        <v>0.175191</v>
       </c>
       <c r="D58" t="n">
-        <v>0.167111</v>
+        <v>0.170249</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.194357</v>
+        <v>0.196833</v>
       </c>
       <c r="C59" t="n">
-        <v>0.173787</v>
+        <v>0.170165</v>
       </c>
       <c r="D59" t="n">
-        <v>0.178033</v>
+        <v>0.176729</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.201257</v>
+        <v>0.202633</v>
       </c>
       <c r="C60" t="n">
-        <v>0.173967</v>
+        <v>0.171774</v>
       </c>
       <c r="D60" t="n">
-        <v>0.171173</v>
+        <v>0.169947</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.193544</v>
+        <v>0.198535</v>
       </c>
       <c r="C61" t="n">
-        <v>0.17858</v>
+        <v>0.177199</v>
       </c>
       <c r="D61" t="n">
-        <v>0.175075</v>
+        <v>0.174609</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.200465</v>
+        <v>0.194439</v>
       </c>
       <c r="C62" t="n">
-        <v>0.175802</v>
+        <v>0.180423</v>
       </c>
       <c r="D62" t="n">
-        <v>0.177656</v>
+        <v>0.173048</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.196597</v>
+        <v>0.195534</v>
       </c>
       <c r="C63" t="n">
-        <v>0.183</v>
+        <v>0.184137</v>
       </c>
       <c r="D63" t="n">
-        <v>0.185009</v>
+        <v>0.181558</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.200859</v>
+        <v>0.203625</v>
       </c>
       <c r="C64" t="n">
-        <v>0.183223</v>
+        <v>0.188046</v>
       </c>
       <c r="D64" t="n">
-        <v>0.186574</v>
+        <v>0.188678</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.204501</v>
+        <v>0.206332</v>
       </c>
       <c r="C65" t="n">
-        <v>0.190321</v>
+        <v>0.187953</v>
       </c>
       <c r="D65" t="n">
-        <v>0.190004</v>
+        <v>0.192575</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.215841</v>
+        <v>0.201085</v>
       </c>
       <c r="C66" t="n">
-        <v>0.263948</v>
+        <v>0.265209</v>
       </c>
       <c r="D66" t="n">
-        <v>0.261852</v>
+        <v>0.26474</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.294024</v>
+        <v>0.301492</v>
       </c>
       <c r="C67" t="n">
-        <v>0.261219</v>
+        <v>0.265286</v>
       </c>
       <c r="D67" t="n">
-        <v>0.256166</v>
+        <v>0.265272</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.292201</v>
+        <v>0.300607</v>
       </c>
       <c r="C68" t="n">
-        <v>0.262211</v>
+        <v>0.265719</v>
       </c>
       <c r="D68" t="n">
-        <v>0.258773</v>
+        <v>0.265897</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.300077</v>
+        <v>0.30605</v>
       </c>
       <c r="C69" t="n">
-        <v>0.264327</v>
+        <v>0.258149</v>
       </c>
       <c r="D69" t="n">
-        <v>0.265865</v>
+        <v>0.264109</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.290009</v>
+        <v>0.296704</v>
       </c>
       <c r="C70" t="n">
-        <v>0.263536</v>
+        <v>0.271064</v>
       </c>
       <c r="D70" t="n">
-        <v>0.262834</v>
+        <v>0.262985</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.293358</v>
+        <v>0.300146</v>
       </c>
       <c r="C71" t="n">
-        <v>0.26775</v>
+        <v>0.267227</v>
       </c>
       <c r="D71" t="n">
-        <v>0.267051</v>
+        <v>0.267109</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.29995</v>
+        <v>0.296097</v>
       </c>
       <c r="C72" t="n">
-        <v>0.270817</v>
+        <v>0.272745</v>
       </c>
       <c r="D72" t="n">
-        <v>0.262055</v>
+        <v>0.27362</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.307575</v>
+        <v>0.303088</v>
       </c>
       <c r="C73" t="n">
-        <v>0.273087</v>
+        <v>0.269376</v>
       </c>
       <c r="D73" t="n">
-        <v>0.268894</v>
+        <v>0.278353</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.294288</v>
+        <v>0.301857</v>
       </c>
       <c r="C74" t="n">
-        <v>0.278936</v>
+        <v>0.270854</v>
       </c>
       <c r="D74" t="n">
-        <v>0.282446</v>
+        <v>0.274825</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.300911</v>
+        <v>0.312826</v>
       </c>
       <c r="C75" t="n">
-        <v>0.284452</v>
+        <v>0.279358</v>
       </c>
       <c r="D75" t="n">
-        <v>0.273387</v>
+        <v>0.272088</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.303869</v>
+        <v>0.310316</v>
       </c>
       <c r="C76" t="n">
-        <v>0.279704</v>
+        <v>0.285992</v>
       </c>
       <c r="D76" t="n">
-        <v>0.272812</v>
+        <v>0.281072</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.304359</v>
+        <v>0.306248</v>
       </c>
       <c r="C77" t="n">
-        <v>0.288516</v>
+        <v>0.287713</v>
       </c>
       <c r="D77" t="n">
-        <v>0.283036</v>
+        <v>0.279545</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.307093</v>
+        <v>0.314465</v>
       </c>
       <c r="C78" t="n">
-        <v>0.279009</v>
+        <v>0.282981</v>
       </c>
       <c r="D78" t="n">
-        <v>0.279215</v>
+        <v>0.287242</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.315704</v>
+        <v>0.326597</v>
       </c>
       <c r="C79" t="n">
-        <v>0.284318</v>
+        <v>0.285438</v>
       </c>
       <c r="D79" t="n">
-        <v>0.282911</v>
+        <v>0.299812</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.318221</v>
+        <v>0.322907</v>
       </c>
       <c r="C80" t="n">
-        <v>0.367888</v>
+        <v>0.374108</v>
       </c>
       <c r="D80" t="n">
-        <v>0.36677</v>
+        <v>0.377927</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.386143</v>
+        <v>0.378225</v>
       </c>
       <c r="C81" t="n">
-        <v>0.373127</v>
+        <v>0.363243</v>
       </c>
       <c r="D81" t="n">
-        <v>0.37263</v>
+        <v>0.370238</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.380953</v>
+        <v>0.393182</v>
       </c>
       <c r="C82" t="n">
-        <v>0.368507</v>
+        <v>0.370912</v>
       </c>
       <c r="D82" t="n">
-        <v>0.359791</v>
+        <v>0.37593</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.386836</v>
+        <v>0.382153</v>
       </c>
       <c r="C83" t="n">
-        <v>0.36386</v>
+        <v>0.379856</v>
       </c>
       <c r="D83" t="n">
-        <v>0.373302</v>
+        <v>0.38139</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.383547</v>
+        <v>0.394354</v>
       </c>
       <c r="C84" t="n">
-        <v>0.381258</v>
+        <v>0.374746</v>
       </c>
       <c r="D84" t="n">
-        <v>0.369264</v>
+        <v>0.377232</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.394057</v>
+        <v>0.402424</v>
       </c>
       <c r="C85" t="n">
-        <v>0.372407</v>
+        <v>0.362329</v>
       </c>
       <c r="D85" t="n">
-        <v>0.373822</v>
+        <v>0.369286</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.382259</v>
+        <v>0.38726</v>
       </c>
       <c r="C86" t="n">
-        <v>0.369063</v>
+        <v>0.368732</v>
       </c>
       <c r="D86" t="n">
-        <v>0.366115</v>
+        <v>0.381123</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.398224</v>
+        <v>0.399379</v>
       </c>
       <c r="C87" t="n">
-        <v>0.3728</v>
+        <v>0.379073</v>
       </c>
       <c r="D87" t="n">
-        <v>0.356613</v>
+        <v>0.376465</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.39165</v>
+        <v>0.405151</v>
       </c>
       <c r="C88" t="n">
-        <v>0.37821</v>
+        <v>0.364614</v>
       </c>
       <c r="D88" t="n">
-        <v>0.377024</v>
+        <v>0.366286</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.385506</v>
+        <v>0.394706</v>
       </c>
       <c r="C89" t="n">
-        <v>0.378165</v>
+        <v>0.375262</v>
       </c>
       <c r="D89" t="n">
-        <v>0.38284</v>
+        <v>0.383429</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.395906</v>
+        <v>0.389197</v>
       </c>
       <c r="C90" t="n">
-        <v>0.37089</v>
+        <v>0.38146</v>
       </c>
       <c r="D90" t="n">
-        <v>0.368627</v>
+        <v>0.374341</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.394763</v>
+        <v>0.389567</v>
       </c>
       <c r="C91" t="n">
-        <v>0.380439</v>
+        <v>0.387361</v>
       </c>
       <c r="D91" t="n">
-        <v>0.386429</v>
+        <v>0.384658</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.399443</v>
+        <v>0.422419</v>
       </c>
       <c r="C92" t="n">
-        <v>0.392262</v>
+        <v>0.392012</v>
       </c>
       <c r="D92" t="n">
-        <v>0.379842</v>
+        <v>0.389321</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.406937</v>
+        <v>0.405665</v>
       </c>
       <c r="C93" t="n">
-        <v>0.377356</v>
+        <v>0.400973</v>
       </c>
       <c r="D93" t="n">
-        <v>0.38608</v>
+        <v>0.387886</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.396537</v>
+        <v>0.40401</v>
       </c>
       <c r="C94" t="n">
-        <v>0.470472</v>
+        <v>0.46368</v>
       </c>
       <c r="D94" t="n">
-        <v>0.468956</v>
+        <v>0.459956</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.473819</v>
+        <v>0.470666</v>
       </c>
       <c r="C95" t="n">
-        <v>0.463842</v>
+        <v>0.468156</v>
       </c>
       <c r="D95" t="n">
-        <v>0.469403</v>
+        <v>0.475574</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.472519</v>
+        <v>0.469311</v>
       </c>
       <c r="C96" t="n">
-        <v>0.459098</v>
+        <v>0.459466</v>
       </c>
       <c r="D96" t="n">
-        <v>0.460369</v>
+        <v>0.457438</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.476422</v>
+        <v>0.493905</v>
       </c>
       <c r="C97" t="n">
-        <v>0.46948</v>
+        <v>0.473675</v>
       </c>
       <c r="D97" t="n">
-        <v>0.479606</v>
+        <v>0.479649</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.484853</v>
+        <v>0.48095</v>
       </c>
       <c r="C98" t="n">
-        <v>0.469306</v>
+        <v>0.477562</v>
       </c>
       <c r="D98" t="n">
-        <v>0.481183</v>
+        <v>0.461404</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.474891</v>
+        <v>0.473952</v>
       </c>
       <c r="C99" t="n">
-        <v>0.46269</v>
+        <v>0.478746</v>
       </c>
       <c r="D99" t="n">
-        <v>0.483713</v>
+        <v>0.46358</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.477049</v>
+        <v>0.473749</v>
       </c>
       <c r="C100" t="n">
-        <v>0.467562</v>
+        <v>0.474515</v>
       </c>
       <c r="D100" t="n">
-        <v>0.475003</v>
+        <v>0.473444</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.483031</v>
+        <v>0.488538</v>
       </c>
       <c r="C101" t="n">
-        <v>0.470407</v>
+        <v>0.473427</v>
       </c>
       <c r="D101" t="n">
-        <v>0.461888</v>
+        <v>0.476859</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.470001</v>
+        <v>0.476956</v>
       </c>
       <c r="C102" t="n">
-        <v>0.485704</v>
+        <v>0.484254</v>
       </c>
       <c r="D102" t="n">
-        <v>0.474277</v>
+        <v>0.475383</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.472239</v>
+        <v>0.474025</v>
       </c>
       <c r="C103" t="n">
-        <v>0.467621</v>
+        <v>0.471332</v>
       </c>
       <c r="D103" t="n">
-        <v>0.477918</v>
+        <v>0.476012</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.472775</v>
+        <v>0.489775</v>
       </c>
       <c r="C104" t="n">
-        <v>0.472191</v>
+        <v>0.482264</v>
       </c>
       <c r="D104" t="n">
-        <v>0.481135</v>
+        <v>0.484596</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.495752</v>
+        <v>0.479177</v>
       </c>
       <c r="C105" t="n">
-        <v>0.477712</v>
+        <v>0.470195</v>
       </c>
       <c r="D105" t="n">
-        <v>0.475654</v>
+        <v>0.463169</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.485832</v>
+        <v>0.477498</v>
       </c>
       <c r="C106" t="n">
-        <v>0.476408</v>
+        <v>0.471378</v>
       </c>
       <c r="D106" t="n">
-        <v>0.489123</v>
+        <v>0.475426</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.495682</v>
+        <v>0.494018</v>
       </c>
       <c r="C107" t="n">
-        <v>0.504215</v>
+        <v>0.481386</v>
       </c>
       <c r="D107" t="n">
-        <v>0.490929</v>
+        <v>0.496437</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.47993</v>
+        <v>0.479949</v>
       </c>
       <c r="C108" t="n">
-        <v>0.577106</v>
+        <v>0.568057</v>
       </c>
       <c r="D108" t="n">
-        <v>0.586128</v>
+        <v>0.573029</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.494316</v>
+        <v>0.4867</v>
       </c>
       <c r="C109" t="n">
-        <v>0.580642</v>
+        <v>0.558994</v>
       </c>
       <c r="D109" t="n">
-        <v>0.557014</v>
+        <v>0.568113</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.606973</v>
+        <v>0.605122</v>
       </c>
       <c r="C110" t="n">
-        <v>0.586352</v>
+        <v>0.547544</v>
       </c>
       <c r="D110" t="n">
-        <v>0.582107</v>
+        <v>0.583116</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.5734</v>
+        <v>0.591589</v>
       </c>
       <c r="C111" t="n">
-        <v>0.596418</v>
+        <v>0.561751</v>
       </c>
       <c r="D111" t="n">
-        <v>0.5965</v>
+        <v>0.565663</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.6292180000000001</v>
+        <v>0.591245</v>
       </c>
       <c r="C112" t="n">
-        <v>0.583269</v>
+        <v>0.561715</v>
       </c>
       <c r="D112" t="n">
-        <v>0.557005</v>
+        <v>0.563869</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.57477</v>
+        <v>0.602132</v>
       </c>
       <c r="C113" t="n">
-        <v>0.550195</v>
+        <v>0.552503</v>
       </c>
       <c r="D113" t="n">
-        <v>0.57686</v>
+        <v>0.573031</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.581559</v>
+        <v>0.585908</v>
       </c>
       <c r="C114" t="n">
-        <v>0.586727</v>
+        <v>0.5536450000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>0.5619150000000001</v>
+        <v>0.571006</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.63131</v>
+        <v>0.60872</v>
       </c>
       <c r="C115" t="n">
-        <v>0.5747640000000001</v>
+        <v>0.57294</v>
       </c>
       <c r="D115" t="n">
-        <v>0.55668</v>
+        <v>0.576435</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.575931</v>
+        <v>0.588437</v>
       </c>
       <c r="C116" t="n">
-        <v>0.595156</v>
+        <v>0.5629729999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>0.55554</v>
+        <v>0.57644</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.583935</v>
+        <v>0.594379</v>
       </c>
       <c r="C117" t="n">
-        <v>0.55326</v>
+        <v>0.5614170000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>0.558048</v>
+        <v>0.576569</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.63622</v>
+        <v>0.593446</v>
       </c>
       <c r="C118" t="n">
-        <v>0.563873</v>
+        <v>0.567509</v>
       </c>
       <c r="D118" t="n">
-        <v>0.594279</v>
+        <v>0.5708029999999999</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.611689</v>
+        <v>0.607411</v>
       </c>
       <c r="C119" t="n">
-        <v>0.566987</v>
+        <v>0.565677</v>
       </c>
       <c r="D119" t="n">
-        <v>0.600444</v>
+        <v>0.581413</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.642396</v>
+        <v>0.602528</v>
       </c>
       <c r="C120" t="n">
-        <v>0.593521</v>
+        <v>0.577617</v>
       </c>
       <c r="D120" t="n">
-        <v>0.604818</v>
+        <v>0.575078</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.598</v>
+        <v>0.605052</v>
       </c>
       <c r="C121" t="n">
-        <v>0.590591</v>
+        <v>0.568145</v>
       </c>
       <c r="D121" t="n">
-        <v>0.583358</v>
+        <v>0.590657</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.619252</v>
+        <v>0.595514</v>
       </c>
       <c r="C122" t="n">
-        <v>0.603299</v>
+        <v>0.575056</v>
       </c>
       <c r="D122" t="n">
-        <v>0.577585</v>
+        <v>0.594487</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.608115</v>
+        <v>0.603927</v>
       </c>
       <c r="C123" t="n">
-        <v>0.6659389999999999</v>
+        <v>0.697142</v>
       </c>
       <c r="D123" t="n">
-        <v>0.6800620000000001</v>
+        <v>0.694796</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.770324</v>
+        <v>0.7753679999999999</v>
       </c>
       <c r="C124" t="n">
-        <v>0.675148</v>
+        <v>0.706408</v>
       </c>
       <c r="D124" t="n">
-        <v>0.6703480000000001</v>
+        <v>0.71351</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.775614</v>
+        <v>0.760405</v>
       </c>
       <c r="C125" t="n">
-        <v>0.699079</v>
+        <v>0.6932120000000001</v>
       </c>
       <c r="D125" t="n">
-        <v>0.69842</v>
+        <v>0.691129</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.75431</v>
+        <v>0.780037</v>
       </c>
       <c r="C126" t="n">
-        <v>0.697203</v>
+        <v>0.697049</v>
       </c>
       <c r="D126" t="n">
-        <v>0.695488</v>
+        <v>0.704139</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.766341</v>
+        <v>0.774235</v>
       </c>
       <c r="C127" t="n">
-        <v>0.6787029999999999</v>
+        <v>0.706722</v>
       </c>
       <c r="D127" t="n">
-        <v>0.794338</v>
+        <v>0.71534</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.774996</v>
+        <v>0.749647</v>
       </c>
       <c r="C128" t="n">
-        <v>0.687944</v>
+        <v>0.6961540000000001</v>
       </c>
       <c r="D128" t="n">
-        <v>0.81252</v>
+        <v>0.7015169999999999</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.752839</v>
+        <v>0.75708</v>
       </c>
       <c r="C129" t="n">
-        <v>0.690614</v>
+        <v>0.67887</v>
       </c>
       <c r="D129" t="n">
-        <v>0.68968</v>
+        <v>0.699601</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.759587</v>
+        <v>0.769414</v>
       </c>
       <c r="C130" t="n">
-        <v>0.692177</v>
+        <v>0.698394</v>
       </c>
       <c r="D130" t="n">
-        <v>0.701577</v>
+        <v>0.703075</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.760099</v>
+        <v>0.757846</v>
       </c>
       <c r="C131" t="n">
-        <v>0.706797</v>
+        <v>0.691146</v>
       </c>
       <c r="D131" t="n">
-        <v>0.722229</v>
+        <v>0.701832</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.755005</v>
+        <v>0.767717</v>
       </c>
       <c r="C132" t="n">
-        <v>0.698453</v>
+        <v>0.702007</v>
       </c>
       <c r="D132" t="n">
-        <v>0.698801</v>
+        <v>0.700117</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.75084</v>
+        <v>0.762433</v>
       </c>
       <c r="C133" t="n">
-        <v>0.693856</v>
+        <v>0.754441</v>
       </c>
       <c r="D133" t="n">
-        <v>0.692703</v>
+        <v>0.804812</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.774639</v>
+        <v>0.762977</v>
       </c>
       <c r="C134" t="n">
-        <v>0.6970499999999999</v>
+        <v>0.701983</v>
       </c>
       <c r="D134" t="n">
-        <v>0.700082</v>
+        <v>0.710431</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.763855</v>
+        <v>0.786516</v>
       </c>
       <c r="C135" t="n">
-        <v>0.762896</v>
+        <v>0.70974</v>
       </c>
       <c r="D135" t="n">
-        <v>0.70108</v>
+        <v>0.8315940000000001</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.825201</v>
+        <v>0.773675</v>
       </c>
       <c r="C136" t="n">
-        <v>0.716286</v>
+        <v>0.725722</v>
       </c>
       <c r="D136" t="n">
-        <v>0.7096519999999999</v>
+        <v>0.726199</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.783674</v>
+        <v>0.790228</v>
       </c>
       <c r="C137" t="n">
-        <v>0.884729</v>
+        <v>0.8746080000000001</v>
       </c>
       <c r="D137" t="n">
-        <v>0.885494</v>
+        <v>0.878601</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.04999</v>
+        <v>0.997454</v>
       </c>
       <c r="C138" t="n">
-        <v>0.895456</v>
+        <v>0.895172</v>
       </c>
       <c r="D138" t="n">
-        <v>0.882484</v>
+        <v>0.907358</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.982301</v>
+        <v>1.07832</v>
       </c>
       <c r="C139" t="n">
-        <v>0.867717</v>
+        <v>0.88761</v>
       </c>
       <c r="D139" t="n">
-        <v>0.8840980000000001</v>
+        <v>0.990108</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.971438</v>
+        <v>1.08446</v>
       </c>
       <c r="C140" t="n">
-        <v>0.888327</v>
+        <v>0.953083</v>
       </c>
       <c r="D140" t="n">
-        <v>0.884995</v>
+        <v>0.891419</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.01057</v>
+        <v>1.01071</v>
       </c>
       <c r="C141" t="n">
-        <v>0.882462</v>
+        <v>0.898782</v>
       </c>
       <c r="D141" t="n">
-        <v>0.878089</v>
+        <v>0.889354</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.00005</v>
+        <v>1.0186</v>
       </c>
       <c r="C142" t="n">
-        <v>0.883683</v>
+        <v>0.881413</v>
       </c>
       <c r="D142" t="n">
-        <v>0.89156</v>
+        <v>0.9527330000000001</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.992743</v>
+        <v>1.00354</v>
       </c>
       <c r="C143" t="n">
-        <v>0.891738</v>
+        <v>0.896971</v>
       </c>
       <c r="D143" t="n">
-        <v>0.87945</v>
+        <v>0.904543</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0672803</v>
+        <v>0.0676679</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0614769</v>
+        <v>0.0635819</v>
       </c>
       <c r="D2" t="n">
-        <v>0.064161</v>
+        <v>0.105702</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0662177</v>
+        <v>0.0698853</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06389069999999999</v>
+        <v>0.0638811</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0655626</v>
+        <v>0.109704</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.07017669999999999</v>
+        <v>0.0681324</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0623202</v>
+        <v>0.0642756</v>
       </c>
       <c r="D4" t="n">
-        <v>0.06673419999999999</v>
+        <v>0.114461</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0675665</v>
+        <v>0.0680133</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0658421</v>
+        <v>0.063004</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0677991</v>
+        <v>0.113475</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.07034899999999999</v>
+        <v>0.0701869</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0679691</v>
+        <v>0.0646832</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0678816</v>
+        <v>0.115738</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07235</v>
+        <v>0.06973939999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06813230000000001</v>
+        <v>0.0694236</v>
       </c>
       <c r="D7" t="n">
-        <v>0.067033</v>
+        <v>0.09031019999999999</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0679372</v>
+        <v>0.0709153</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0729851</v>
+        <v>0.0713589</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0723322</v>
+        <v>0.09066680000000001</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0711046</v>
+        <v>0.0716768</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06369030000000001</v>
+        <v>0.0623704</v>
       </c>
       <c r="D9" t="n">
-        <v>0.06477289999999999</v>
+        <v>0.0927056</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.07450809999999999</v>
+        <v>0.0746526</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0668102</v>
+        <v>0.0623797</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0675529</v>
+        <v>0.0934984</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0786101</v>
+        <v>0.0753931</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0655273</v>
+        <v>0.0656867</v>
       </c>
       <c r="D11" t="n">
-        <v>0.069088</v>
+        <v>0.102562</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0749027</v>
+        <v>0.0815737</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0647184</v>
+        <v>0.0645379</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0630795</v>
+        <v>0.101503</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0744879</v>
+        <v>0.0753351</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0659969</v>
+        <v>0.0642959</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0638194</v>
+        <v>0.10892</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0753241</v>
+        <v>0.0756598</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0625966</v>
+        <v>0.06576120000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>0.064064</v>
+        <v>0.108301</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0777438</v>
+        <v>0.0794565</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0638393</v>
+        <v>0.06543019999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>0.06572070000000001</v>
+        <v>0.110455</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0754833</v>
+        <v>0.0765034</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0644793</v>
+        <v>0.06776069999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0644419</v>
+        <v>0.116491</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.07736609999999999</v>
+        <v>0.0767217</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0637081</v>
+        <v>0.0646288</v>
       </c>
       <c r="D17" t="n">
-        <v>0.066437</v>
+        <v>0.118919</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0750234</v>
+        <v>0.07658420000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>0.066209</v>
+        <v>0.067262</v>
       </c>
       <c r="D18" t="n">
-        <v>0.06620810000000001</v>
+        <v>0.121118</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.07630049999999999</v>
+        <v>0.07722759999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0699579</v>
+        <v>0.0669319</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0667697</v>
+        <v>0.123394</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.078056</v>
+        <v>0.0775285</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0687676</v>
+        <v>0.06908549999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0712623</v>
+        <v>0.125061</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0793379</v>
+        <v>0.07810110000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.07150339999999999</v>
+        <v>0.07224419999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0725544</v>
+        <v>0.0995518</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.08072699999999999</v>
+        <v>0.07773389999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>0.075949</v>
+        <v>0.07664749999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0741523</v>
+        <v>0.0970635</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0816977</v>
+        <v>0.0788447</v>
       </c>
       <c r="C23" t="n">
-        <v>0.06788139999999999</v>
+        <v>0.06734900000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>0.07093629999999999</v>
+        <v>0.104662</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0818072</v>
+        <v>0.08345039999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>0.069649</v>
+        <v>0.0674386</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0688233</v>
+        <v>0.105742</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0840852</v>
+        <v>0.0816622</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0707921</v>
+        <v>0.06904100000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0686664</v>
+        <v>0.108747</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.08220180000000001</v>
+        <v>0.08323990000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0688758</v>
+        <v>0.0715621</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0705986</v>
+        <v>0.111369</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0853367</v>
+        <v>0.0836981</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0695194</v>
+        <v>0.071048</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0702438</v>
+        <v>0.114294</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0859664</v>
+        <v>0.0829616</v>
       </c>
       <c r="C28" t="n">
-        <v>0.07096429999999999</v>
+        <v>0.0714574</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0701157</v>
+        <v>0.116702</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.089432</v>
+        <v>0.0856696</v>
       </c>
       <c r="C29" t="n">
-        <v>0.07492550000000001</v>
+        <v>0.07210419999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>0.07271</v>
+        <v>0.120359</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0816694</v>
+        <v>0.0855452</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0715663</v>
+        <v>0.0714235</v>
       </c>
       <c r="D30" t="n">
-        <v>0.07311380000000001</v>
+        <v>0.120982</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.08402129999999999</v>
+        <v>0.0823866</v>
       </c>
       <c r="C31" t="n">
-        <v>0.07126399999999999</v>
+        <v>0.0717016</v>
       </c>
       <c r="D31" t="n">
-        <v>0.071494</v>
+        <v>0.126719</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0854693</v>
+        <v>0.0802581</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0728306</v>
+        <v>0.0722145</v>
       </c>
       <c r="D32" t="n">
-        <v>0.07438839999999999</v>
+        <v>0.127738</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.08280410000000001</v>
+        <v>0.0840282</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0749788</v>
+        <v>0.072892</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0751303</v>
+        <v>0.136838</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0879538</v>
+        <v>0.08412119999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0746317</v>
+        <v>0.0740478</v>
       </c>
       <c r="D34" t="n">
-        <v>0.07507170000000001</v>
+        <v>0.137724</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.08602990000000001</v>
+        <v>0.0826885</v>
       </c>
       <c r="C35" t="n">
-        <v>0.07983850000000001</v>
+        <v>0.0778769</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0794579</v>
+        <v>0.116215</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0884325</v>
+        <v>0.08807909999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.081009</v>
+        <v>0.07976659999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0820121</v>
+        <v>0.119309</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.08876199999999999</v>
+        <v>0.09000850000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0774953</v>
+        <v>0.07536420000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0797337</v>
+        <v>0.121981</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.102931</v>
+        <v>0.104453</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0754692</v>
+        <v>0.0761285</v>
       </c>
       <c r="D38" t="n">
-        <v>0.08069129999999999</v>
+        <v>0.131825</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.108253</v>
+        <v>0.103042</v>
       </c>
       <c r="C39" t="n">
-        <v>0.07807500000000001</v>
+        <v>0.07740329999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>0.08007069999999999</v>
+        <v>0.137714</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.101974</v>
+        <v>0.103049</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0802332</v>
+        <v>0.0795898</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0819143</v>
+        <v>0.136225</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.105032</v>
+        <v>0.102044</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0784647</v>
+        <v>0.0782979</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0780742</v>
+        <v>0.14387</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.104044</v>
+        <v>0.104709</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0780652</v>
+        <v>0.0797581</v>
       </c>
       <c r="D42" t="n">
-        <v>0.08026369999999999</v>
+        <v>0.149182</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.106578</v>
+        <v>0.101925</v>
       </c>
       <c r="C43" t="n">
-        <v>0.08148089999999999</v>
+        <v>0.0785221</v>
       </c>
       <c r="D43" t="n">
-        <v>0.081706</v>
+        <v>0.15157</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.107438</v>
+        <v>0.102545</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0796487</v>
+        <v>0.0771134</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0831818</v>
+        <v>0.161193</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.1045</v>
+        <v>0.101575</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0806123</v>
+        <v>0.0807325</v>
       </c>
       <c r="D45" t="n">
-        <v>0.08245329999999999</v>
+        <v>0.16584</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.105803</v>
+        <v>0.10573</v>
       </c>
       <c r="C46" t="n">
-        <v>0.07900890000000001</v>
+        <v>0.0806471</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0852976</v>
+        <v>0.169657</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.10823</v>
+        <v>0.101605</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0817422</v>
+        <v>0.083027</v>
       </c>
       <c r="D47" t="n">
-        <v>0.08676689999999999</v>
+        <v>0.186467</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.106274</v>
+        <v>0.104574</v>
       </c>
       <c r="C48" t="n">
-        <v>0.08257730000000001</v>
+        <v>0.08501309999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0875615</v>
+        <v>0.183569</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.102912</v>
+        <v>0.10622</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0884296</v>
+        <v>0.0858536</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0877144</v>
+        <v>0.19402</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.107579</v>
+        <v>0.109141</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0912439</v>
+        <v>0.08888500000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0911875</v>
+        <v>0.187151</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.109738</v>
+        <v>0.108536</v>
       </c>
       <c r="C51" t="n">
-        <v>0.169263</v>
+        <v>0.166572</v>
       </c>
       <c r="D51" t="n">
-        <v>0.167883</v>
+        <v>0.185794</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.111481</v>
+        <v>0.112021</v>
       </c>
       <c r="C52" t="n">
-        <v>0.170406</v>
+        <v>0.164936</v>
       </c>
       <c r="D52" t="n">
-        <v>0.1681</v>
+        <v>0.201996</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1869</v>
+        <v>0.187206</v>
       </c>
       <c r="C53" t="n">
-        <v>0.169119</v>
+        <v>0.166599</v>
       </c>
       <c r="D53" t="n">
-        <v>0.167694</v>
+        <v>0.203074</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.199514</v>
+        <v>0.19025</v>
       </c>
       <c r="C54" t="n">
-        <v>0.167145</v>
+        <v>0.167868</v>
       </c>
       <c r="D54" t="n">
-        <v>0.170231</v>
+        <v>0.20486</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.1917</v>
+        <v>0.185902</v>
       </c>
       <c r="C55" t="n">
-        <v>0.17042</v>
+        <v>0.165965</v>
       </c>
       <c r="D55" t="n">
-        <v>0.172431</v>
+        <v>0.212998</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.195449</v>
+        <v>0.192985</v>
       </c>
       <c r="C56" t="n">
-        <v>0.168741</v>
+        <v>0.166115</v>
       </c>
       <c r="D56" t="n">
-        <v>0.168209</v>
+        <v>0.217548</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.193318</v>
+        <v>0.187993</v>
       </c>
       <c r="C57" t="n">
-        <v>0.168887</v>
+        <v>0.171117</v>
       </c>
       <c r="D57" t="n">
-        <v>0.168228</v>
+        <v>0.234045</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.195254</v>
+        <v>0.191885</v>
       </c>
       <c r="C58" t="n">
-        <v>0.175191</v>
+        <v>0.170696</v>
       </c>
       <c r="D58" t="n">
-        <v>0.170249</v>
+        <v>0.243421</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.196833</v>
+        <v>0.19078</v>
       </c>
       <c r="C59" t="n">
-        <v>0.170165</v>
+        <v>0.17021</v>
       </c>
       <c r="D59" t="n">
-        <v>0.176729</v>
+        <v>0.24401</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.202633</v>
+        <v>0.1943</v>
       </c>
       <c r="C60" t="n">
-        <v>0.171774</v>
+        <v>0.171311</v>
       </c>
       <c r="D60" t="n">
-        <v>0.169947</v>
+        <v>0.258497</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.198535</v>
+        <v>0.190015</v>
       </c>
       <c r="C61" t="n">
-        <v>0.177199</v>
+        <v>0.169039</v>
       </c>
       <c r="D61" t="n">
-        <v>0.174609</v>
+        <v>0.267024</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.194439</v>
+        <v>0.190226</v>
       </c>
       <c r="C62" t="n">
-        <v>0.180423</v>
+        <v>0.172567</v>
       </c>
       <c r="D62" t="n">
-        <v>0.173048</v>
+        <v>0.280965</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.195534</v>
+        <v>0.187786</v>
       </c>
       <c r="C63" t="n">
-        <v>0.184137</v>
+        <v>0.175312</v>
       </c>
       <c r="D63" t="n">
-        <v>0.181558</v>
+        <v>0.285611</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.203625</v>
+        <v>0.196739</v>
       </c>
       <c r="C64" t="n">
-        <v>0.188046</v>
+        <v>0.180591</v>
       </c>
       <c r="D64" t="n">
-        <v>0.188678</v>
+        <v>0.285602</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.206332</v>
+        <v>0.192465</v>
       </c>
       <c r="C65" t="n">
-        <v>0.187953</v>
+        <v>0.182954</v>
       </c>
       <c r="D65" t="n">
-        <v>0.192575</v>
+        <v>0.300476</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.201085</v>
+        <v>0.204227</v>
       </c>
       <c r="C66" t="n">
-        <v>0.265209</v>
+        <v>0.25767</v>
       </c>
       <c r="D66" t="n">
-        <v>0.26474</v>
+        <v>0.304623</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.301492</v>
+        <v>0.293769</v>
       </c>
       <c r="C67" t="n">
-        <v>0.265286</v>
+        <v>0.255813</v>
       </c>
       <c r="D67" t="n">
-        <v>0.265272</v>
+        <v>0.337911</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.300607</v>
+        <v>0.288111</v>
       </c>
       <c r="C68" t="n">
-        <v>0.265719</v>
+        <v>0.256329</v>
       </c>
       <c r="D68" t="n">
-        <v>0.265897</v>
+        <v>0.330684</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.30605</v>
+        <v>0.28965</v>
       </c>
       <c r="C69" t="n">
-        <v>0.258149</v>
+        <v>0.260165</v>
       </c>
       <c r="D69" t="n">
-        <v>0.264109</v>
+        <v>0.344688</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.296704</v>
+        <v>0.296716</v>
       </c>
       <c r="C70" t="n">
-        <v>0.271064</v>
+        <v>0.258086</v>
       </c>
       <c r="D70" t="n">
-        <v>0.262985</v>
+        <v>0.353338</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.300146</v>
+        <v>0.293935</v>
       </c>
       <c r="C71" t="n">
-        <v>0.267227</v>
+        <v>0.261066</v>
       </c>
       <c r="D71" t="n">
-        <v>0.267109</v>
+        <v>0.351128</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.296097</v>
+        <v>0.312799</v>
       </c>
       <c r="C72" t="n">
-        <v>0.272745</v>
+        <v>0.263717</v>
       </c>
       <c r="D72" t="n">
-        <v>0.27362</v>
+        <v>0.372466</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.303088</v>
+        <v>0.301525</v>
       </c>
       <c r="C73" t="n">
-        <v>0.269376</v>
+        <v>0.267229</v>
       </c>
       <c r="D73" t="n">
-        <v>0.278353</v>
+        <v>0.383474</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.301857</v>
+        <v>0.289037</v>
       </c>
       <c r="C74" t="n">
-        <v>0.270854</v>
+        <v>0.260467</v>
       </c>
       <c r="D74" t="n">
-        <v>0.274825</v>
+        <v>0.394341</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.312826</v>
+        <v>0.29326</v>
       </c>
       <c r="C75" t="n">
-        <v>0.279358</v>
+        <v>0.268258</v>
       </c>
       <c r="D75" t="n">
-        <v>0.272088</v>
+        <v>0.415968</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.310316</v>
+        <v>0.310732</v>
       </c>
       <c r="C76" t="n">
-        <v>0.285992</v>
+        <v>0.26987</v>
       </c>
       <c r="D76" t="n">
-        <v>0.281072</v>
+        <v>0.42836</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.306248</v>
+        <v>0.304569</v>
       </c>
       <c r="C77" t="n">
-        <v>0.287713</v>
+        <v>0.275235</v>
       </c>
       <c r="D77" t="n">
-        <v>0.279545</v>
+        <v>0.426206</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.314465</v>
+        <v>0.303021</v>
       </c>
       <c r="C78" t="n">
-        <v>0.282981</v>
+        <v>0.270554</v>
       </c>
       <c r="D78" t="n">
-        <v>0.287242</v>
+        <v>0.38993</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.326597</v>
+        <v>0.322555</v>
       </c>
       <c r="C79" t="n">
-        <v>0.285438</v>
+        <v>0.281913</v>
       </c>
       <c r="D79" t="n">
-        <v>0.299812</v>
+        <v>0.392124</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.322907</v>
+        <v>0.310657</v>
       </c>
       <c r="C80" t="n">
-        <v>0.374108</v>
+        <v>0.355863</v>
       </c>
       <c r="D80" t="n">
-        <v>0.377927</v>
+        <v>0.394094</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.378225</v>
+        <v>0.379057</v>
       </c>
       <c r="C81" t="n">
-        <v>0.363243</v>
+        <v>0.362571</v>
       </c>
       <c r="D81" t="n">
-        <v>0.370238</v>
+        <v>0.397014</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.393182</v>
+        <v>0.386681</v>
       </c>
       <c r="C82" t="n">
-        <v>0.370912</v>
+        <v>0.360387</v>
       </c>
       <c r="D82" t="n">
-        <v>0.37593</v>
+        <v>0.420427</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.382153</v>
+        <v>0.381308</v>
       </c>
       <c r="C83" t="n">
-        <v>0.379856</v>
+        <v>0.373148</v>
       </c>
       <c r="D83" t="n">
-        <v>0.38139</v>
+        <v>0.424099</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.394354</v>
+        <v>0.383394</v>
       </c>
       <c r="C84" t="n">
-        <v>0.374746</v>
+        <v>0.363332</v>
       </c>
       <c r="D84" t="n">
-        <v>0.377232</v>
+        <v>0.429913</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.402424</v>
+        <v>0.397395</v>
       </c>
       <c r="C85" t="n">
-        <v>0.362329</v>
+        <v>0.371116</v>
       </c>
       <c r="D85" t="n">
-        <v>0.369286</v>
+        <v>0.456376</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.38726</v>
+        <v>0.382398</v>
       </c>
       <c r="C86" t="n">
-        <v>0.368732</v>
+        <v>0.360104</v>
       </c>
       <c r="D86" t="n">
-        <v>0.381123</v>
+        <v>0.454621</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.399379</v>
+        <v>0.392111</v>
       </c>
       <c r="C87" t="n">
-        <v>0.379073</v>
+        <v>0.366022</v>
       </c>
       <c r="D87" t="n">
-        <v>0.376465</v>
+        <v>0.470551</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.405151</v>
+        <v>0.390646</v>
       </c>
       <c r="C88" t="n">
-        <v>0.364614</v>
+        <v>0.359731</v>
       </c>
       <c r="D88" t="n">
-        <v>0.366286</v>
+        <v>0.48634</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.394706</v>
+        <v>0.386205</v>
       </c>
       <c r="C89" t="n">
-        <v>0.375262</v>
+        <v>0.367509</v>
       </c>
       <c r="D89" t="n">
-        <v>0.383429</v>
+        <v>0.472476</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.389197</v>
+        <v>0.392358</v>
       </c>
       <c r="C90" t="n">
-        <v>0.38146</v>
+        <v>0.372035</v>
       </c>
       <c r="D90" t="n">
-        <v>0.374341</v>
+        <v>0.504309</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.389567</v>
+        <v>0.384858</v>
       </c>
       <c r="C91" t="n">
-        <v>0.387361</v>
+        <v>0.367677</v>
       </c>
       <c r="D91" t="n">
-        <v>0.384658</v>
+        <v>0.497031</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.422419</v>
+        <v>0.402308</v>
       </c>
       <c r="C92" t="n">
-        <v>0.392012</v>
+        <v>0.375441</v>
       </c>
       <c r="D92" t="n">
-        <v>0.389321</v>
+        <v>0.46349</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.405665</v>
+        <v>0.385073</v>
       </c>
       <c r="C93" t="n">
-        <v>0.400973</v>
+        <v>0.377448</v>
       </c>
       <c r="D93" t="n">
-        <v>0.387886</v>
+        <v>0.462357</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.40401</v>
+        <v>0.397863</v>
       </c>
       <c r="C94" t="n">
-        <v>0.46368</v>
+        <v>0.467787</v>
       </c>
       <c r="D94" t="n">
-        <v>0.459956</v>
+        <v>0.477934</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.470666</v>
+        <v>0.468402</v>
       </c>
       <c r="C95" t="n">
-        <v>0.468156</v>
+        <v>0.467046</v>
       </c>
       <c r="D95" t="n">
-        <v>0.475574</v>
+        <v>0.48275</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.469311</v>
+        <v>0.485219</v>
       </c>
       <c r="C96" t="n">
-        <v>0.459466</v>
+        <v>0.468274</v>
       </c>
       <c r="D96" t="n">
-        <v>0.457438</v>
+        <v>0.48627</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.493905</v>
+        <v>0.496448</v>
       </c>
       <c r="C97" t="n">
-        <v>0.473675</v>
+        <v>0.469763</v>
       </c>
       <c r="D97" t="n">
-        <v>0.479649</v>
+        <v>0.505567</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.48095</v>
+        <v>0.480175</v>
       </c>
       <c r="C98" t="n">
-        <v>0.477562</v>
+        <v>0.467927</v>
       </c>
       <c r="D98" t="n">
-        <v>0.461404</v>
+        <v>0.506037</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.473952</v>
+        <v>0.464457</v>
       </c>
       <c r="C99" t="n">
-        <v>0.478746</v>
+        <v>0.466516</v>
       </c>
       <c r="D99" t="n">
-        <v>0.46358</v>
+        <v>0.51298</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.473749</v>
+        <v>0.492453</v>
       </c>
       <c r="C100" t="n">
-        <v>0.474515</v>
+        <v>0.470574</v>
       </c>
       <c r="D100" t="n">
-        <v>0.473444</v>
+        <v>0.526465</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.488538</v>
+        <v>0.490766</v>
       </c>
       <c r="C101" t="n">
-        <v>0.473427</v>
+        <v>0.474196</v>
       </c>
       <c r="D101" t="n">
-        <v>0.476859</v>
+        <v>0.551882</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.476956</v>
+        <v>0.490857</v>
       </c>
       <c r="C102" t="n">
-        <v>0.484254</v>
+        <v>0.477987</v>
       </c>
       <c r="D102" t="n">
-        <v>0.475383</v>
+        <v>0.543698</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.474025</v>
+        <v>0.493026</v>
       </c>
       <c r="C103" t="n">
-        <v>0.471332</v>
+        <v>0.472467</v>
       </c>
       <c r="D103" t="n">
-        <v>0.476012</v>
+        <v>0.5567569999999999</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.489775</v>
+        <v>0.475142</v>
       </c>
       <c r="C104" t="n">
-        <v>0.482264</v>
+        <v>0.46982</v>
       </c>
       <c r="D104" t="n">
-        <v>0.484596</v>
+        <v>0.567369</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.479177</v>
+        <v>0.490814</v>
       </c>
       <c r="C105" t="n">
-        <v>0.470195</v>
+        <v>0.475548</v>
       </c>
       <c r="D105" t="n">
-        <v>0.463169</v>
+        <v>0.584392</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.477498</v>
+        <v>0.47399</v>
       </c>
       <c r="C106" t="n">
-        <v>0.471378</v>
+        <v>0.473689</v>
       </c>
       <c r="D106" t="n">
-        <v>0.475426</v>
+        <v>0.603392</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.494018</v>
+        <v>0.492092</v>
       </c>
       <c r="C107" t="n">
-        <v>0.481386</v>
+        <v>0.490975</v>
       </c>
       <c r="D107" t="n">
-        <v>0.496437</v>
+        <v>0.549082</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.479949</v>
+        <v>0.482301</v>
       </c>
       <c r="C108" t="n">
-        <v>0.568057</v>
+        <v>0.574265</v>
       </c>
       <c r="D108" t="n">
-        <v>0.573029</v>
+        <v>0.559013</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.4867</v>
+        <v>0.502006</v>
       </c>
       <c r="C109" t="n">
-        <v>0.558994</v>
+        <v>0.576696</v>
       </c>
       <c r="D109" t="n">
-        <v>0.568113</v>
+        <v>0.562832</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.605122</v>
+        <v>0.573746</v>
       </c>
       <c r="C110" t="n">
-        <v>0.547544</v>
+        <v>0.579287</v>
       </c>
       <c r="D110" t="n">
-        <v>0.583116</v>
+        <v>0.5833469999999999</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.591589</v>
+        <v>0.612757</v>
       </c>
       <c r="C111" t="n">
-        <v>0.561751</v>
+        <v>0.578141</v>
       </c>
       <c r="D111" t="n">
-        <v>0.565663</v>
+        <v>0.594977</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.591245</v>
+        <v>0.576854</v>
       </c>
       <c r="C112" t="n">
-        <v>0.561715</v>
+        <v>0.581175</v>
       </c>
       <c r="D112" t="n">
-        <v>0.563869</v>
+        <v>0.600638</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.602132</v>
+        <v>0.578696</v>
       </c>
       <c r="C113" t="n">
-        <v>0.552503</v>
+        <v>0.580906</v>
       </c>
       <c r="D113" t="n">
-        <v>0.573031</v>
+        <v>0.603083</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.585908</v>
+        <v>0.582891</v>
       </c>
       <c r="C114" t="n">
-        <v>0.5536450000000001</v>
+        <v>0.544686</v>
       </c>
       <c r="D114" t="n">
-        <v>0.571006</v>
+        <v>0.626547</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.60872</v>
+        <v>0.578098</v>
       </c>
       <c r="C115" t="n">
-        <v>0.57294</v>
+        <v>0.586849</v>
       </c>
       <c r="D115" t="n">
-        <v>0.576435</v>
+        <v>0.631475</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.588437</v>
+        <v>0.593756</v>
       </c>
       <c r="C116" t="n">
-        <v>0.5629729999999999</v>
+        <v>0.559195</v>
       </c>
       <c r="D116" t="n">
-        <v>0.57644</v>
+        <v>0.644273</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.594379</v>
+        <v>0.610063</v>
       </c>
       <c r="C117" t="n">
-        <v>0.5614170000000001</v>
+        <v>0.592958</v>
       </c>
       <c r="D117" t="n">
-        <v>0.576569</v>
+        <v>0.671111</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.593446</v>
+        <v>0.605438</v>
       </c>
       <c r="C118" t="n">
-        <v>0.567509</v>
+        <v>0.561696</v>
       </c>
       <c r="D118" t="n">
-        <v>0.5708029999999999</v>
+        <v>0.677526</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.607411</v>
+        <v>0.597523</v>
       </c>
       <c r="C119" t="n">
-        <v>0.565677</v>
+        <v>0.575974</v>
       </c>
       <c r="D119" t="n">
-        <v>0.581413</v>
+        <v>0.698573</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.602528</v>
+        <v>0.585068</v>
       </c>
       <c r="C120" t="n">
-        <v>0.577617</v>
+        <v>0.574232</v>
       </c>
       <c r="D120" t="n">
-        <v>0.575078</v>
+        <v>0.704107</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.605052</v>
+        <v>0.636117</v>
       </c>
       <c r="C121" t="n">
-        <v>0.568145</v>
+        <v>0.590794</v>
       </c>
       <c r="D121" t="n">
-        <v>0.590657</v>
+        <v>0.6427929999999999</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.595514</v>
+        <v>0.600382</v>
       </c>
       <c r="C122" t="n">
-        <v>0.575056</v>
+        <v>0.591841</v>
       </c>
       <c r="D122" t="n">
-        <v>0.594487</v>
+        <v>0.6103150000000001</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.603927</v>
+        <v>0.605293</v>
       </c>
       <c r="C123" t="n">
-        <v>0.697142</v>
+        <v>0.681136</v>
       </c>
       <c r="D123" t="n">
-        <v>0.694796</v>
+        <v>0.648861</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.7753679999999999</v>
+        <v>0.873656</v>
       </c>
       <c r="C124" t="n">
-        <v>0.706408</v>
+        <v>0.7260219999999999</v>
       </c>
       <c r="D124" t="n">
-        <v>0.71351</v>
+        <v>0.666517</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.760405</v>
+        <v>0.795397</v>
       </c>
       <c r="C125" t="n">
-        <v>0.6932120000000001</v>
+        <v>0.690361</v>
       </c>
       <c r="D125" t="n">
-        <v>0.691129</v>
+        <v>0.6664330000000001</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.780037</v>
+        <v>0.75675</v>
       </c>
       <c r="C126" t="n">
-        <v>0.697049</v>
+        <v>0.671715</v>
       </c>
       <c r="D126" t="n">
-        <v>0.704139</v>
+        <v>0.68076</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.774235</v>
+        <v>0.823027</v>
       </c>
       <c r="C127" t="n">
-        <v>0.706722</v>
+        <v>0.705215</v>
       </c>
       <c r="D127" t="n">
-        <v>0.71534</v>
+        <v>0.677034</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.749647</v>
+        <v>0.8255710000000001</v>
       </c>
       <c r="C128" t="n">
-        <v>0.6961540000000001</v>
+        <v>0.776207</v>
       </c>
       <c r="D128" t="n">
-        <v>0.7015169999999999</v>
+        <v>0.700418</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.75708</v>
+        <v>0.758762</v>
       </c>
       <c r="C129" t="n">
-        <v>0.67887</v>
+        <v>0.781971</v>
       </c>
       <c r="D129" t="n">
-        <v>0.699601</v>
+        <v>0.75397</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.769414</v>
+        <v>0.829155</v>
       </c>
       <c r="C130" t="n">
-        <v>0.698394</v>
+        <v>0.754691</v>
       </c>
       <c r="D130" t="n">
-        <v>0.703075</v>
+        <v>0.7388130000000001</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.757846</v>
+        <v>0.759885</v>
       </c>
       <c r="C131" t="n">
-        <v>0.691146</v>
+        <v>0.722862</v>
       </c>
       <c r="D131" t="n">
-        <v>0.701832</v>
+        <v>0.731189</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.767717</v>
+        <v>0.770032</v>
       </c>
       <c r="C132" t="n">
-        <v>0.702007</v>
+        <v>0.687765</v>
       </c>
       <c r="D132" t="n">
-        <v>0.700117</v>
+        <v>0.762487</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.762433</v>
+        <v>0.774744</v>
       </c>
       <c r="C133" t="n">
-        <v>0.754441</v>
+        <v>0.699481</v>
       </c>
       <c r="D133" t="n">
-        <v>0.804812</v>
+        <v>0.763919</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.762977</v>
+        <v>0.882316</v>
       </c>
       <c r="C134" t="n">
-        <v>0.701983</v>
+        <v>0.806358</v>
       </c>
       <c r="D134" t="n">
-        <v>0.710431</v>
+        <v>0.8125830000000001</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.786516</v>
+        <v>0.770965</v>
       </c>
       <c r="C135" t="n">
-        <v>0.70974</v>
+        <v>0.812886</v>
       </c>
       <c r="D135" t="n">
-        <v>0.8315940000000001</v>
+        <v>0.699859</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.773675</v>
+        <v>0.772545</v>
       </c>
       <c r="C136" t="n">
-        <v>0.725722</v>
+        <v>0.716465</v>
       </c>
       <c r="D136" t="n">
-        <v>0.726199</v>
+        <v>0.725274</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.790228</v>
+        <v>0.788496</v>
       </c>
       <c r="C137" t="n">
-        <v>0.8746080000000001</v>
+        <v>0.894689</v>
       </c>
       <c r="D137" t="n">
-        <v>0.878601</v>
+        <v>0.741057</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.997454</v>
+        <v>0.987051</v>
       </c>
       <c r="C138" t="n">
-        <v>0.895172</v>
+        <v>0.8823299999999999</v>
       </c>
       <c r="D138" t="n">
-        <v>0.907358</v>
+        <v>0.743608</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.07832</v>
+        <v>1.07806</v>
       </c>
       <c r="C139" t="n">
-        <v>0.88761</v>
+        <v>0.899159</v>
       </c>
       <c r="D139" t="n">
-        <v>0.990108</v>
+        <v>0.768362</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.08446</v>
+        <v>1.01806</v>
       </c>
       <c r="C140" t="n">
-        <v>0.953083</v>
+        <v>0.871132</v>
       </c>
       <c r="D140" t="n">
-        <v>0.891419</v>
+        <v>0.771236</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.01071</v>
+        <v>1.00011</v>
       </c>
       <c r="C141" t="n">
-        <v>0.898782</v>
+        <v>0.86025</v>
       </c>
       <c r="D141" t="n">
-        <v>0.889354</v>
+        <v>0.751839</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.0186</v>
+        <v>0.918154</v>
       </c>
       <c r="C142" t="n">
-        <v>0.881413</v>
+        <v>0.832114</v>
       </c>
       <c r="D142" t="n">
-        <v>0.9527330000000001</v>
+        <v>0.772306</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.00354</v>
+        <v>0.905821</v>
       </c>
       <c r="C143" t="n">
-        <v>0.896971</v>
+        <v>0.832001</v>
       </c>
       <c r="D143" t="n">
-        <v>0.904543</v>
+        <v>0.779788</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -552,430 +552,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.019845</v>
+                  <v>0.0196861</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0198904</v>
+                  <v>0.0197442</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0199411</v>
+                  <v>0.0197441</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0199892</v>
+                  <v>0.0197505</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0201312</v>
+                  <v>0.0199072</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0202981</v>
+                  <v>0.020167</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0205168</v>
+                  <v>0.0201829</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0208663</v>
+                  <v>0.0205995</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0194247</v>
+                  <v>0.0193044</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0196249</v>
+                  <v>0.0194655</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0198597</v>
+                  <v>0.0196123</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.019879</v>
+                  <v>0.0198252</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0201309</v>
+                  <v>0.0198606</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0201944</v>
+                  <v>0.0200329</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0204396</v>
+                  <v>0.0200361</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0204292</v>
+                  <v>0.020201</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0206016</v>
+                  <v>0.0201688</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0208694</v>
+                  <v>0.0204639</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0208716</v>
+                  <v>0.020687</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.021266</v>
+                  <v>0.0209861</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0221654</v>
+                  <v>0.0214982</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0254766</v>
+                  <v>0.0232463</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0204662</v>
+                  <v>0.0203659</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0205747</v>
+                  <v>0.0204979</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0207285</v>
+                  <v>0.0206548</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0208946</v>
+                  <v>0.0208464</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0211401</v>
+                  <v>0.0210504</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0213119</v>
+                  <v>0.0212226</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0214143</v>
+                  <v>0.0216188</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0217806</v>
+                  <v>0.0218555</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0218731</v>
+                  <v>0.0220454</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0220813</v>
+                  <v>0.0221091</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.022994</v>
+                  <v>0.0229123</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0248609</v>
+                  <v>0.023554</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0303561</v>
+                  <v>0.025525</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0334795</v>
+                  <v>0.0295991</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0213853</v>
+                  <v>0.0226652</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0215081</v>
+                  <v>0.0226726</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0216916</v>
+                  <v>0.0230688</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0218279</v>
+                  <v>0.0220955</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0219942</v>
+                  <v>0.0221313</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0223725</v>
+                  <v>0.0224242</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0226982</v>
+                  <v>0.0226252</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0230858</v>
+                  <v>0.0229498</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0235639</v>
+                  <v>0.0233683</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0246222</v>
+                  <v>0.024254</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0261523</v>
+                  <v>0.0251133</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.028148</v>
+                  <v>0.0266522</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0310283</v>
+                  <v>0.029904</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0349552</v>
+                  <v>0.0329878</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0411047</v>
+                  <v>0.0389153</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0235334</v>
+                  <v>0.0231873</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0233996</v>
+                  <v>0.0233782</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0240147</v>
+                  <v>0.0234553</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0237518</v>
+                  <v>0.0236761</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0243179</v>
+                  <v>0.0239042</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0246823</v>
+                  <v>0.0242977</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0250545</v>
+                  <v>0.0246093</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0256238</v>
+                  <v>0.0252684</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0266776</v>
+                  <v>0.0261573</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0281548</v>
+                  <v>0.027529</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0303362</v>
+                  <v>0.0293145</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0330569</v>
+                  <v>0.0323043</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0370665</v>
+                  <v>0.0357062</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0420454</v>
+                  <v>0.0407992</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0292569</v>
+                  <v>0.0291067</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0293821</v>
+                  <v>0.0292957</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0294515</v>
+                  <v>0.0294658</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0297582</v>
+                  <v>0.0296458</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0298101</v>
+                  <v>0.0298446</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0302477</v>
+                  <v>0.0303077</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0307674</v>
+                  <v>0.0305738</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0314948</v>
+                  <v>0.0311089</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0322669</v>
+                  <v>0.031958</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0336498</v>
+                  <v>0.0331584</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0353674</v>
+                  <v>0.0348142</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0379218</v>
+                  <v>0.0371248</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0413547</v>
+                  <v>0.0406293</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.045947</v>
+                  <v>0.0455093</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0557759</v>
+                  <v>0.054876</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0559223</v>
+                  <v>0.0551749</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0561782</v>
+                  <v>0.0552561</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0562248</v>
+                  <v>0.0555251</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0564335</v>
+                  <v>0.0557353</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0568433</v>
+                  <v>0.0559444</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0571164</v>
+                  <v>0.056275</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0573685</v>
+                  <v>0.0565668</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0579423</v>
+                  <v>0.0570285</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0585424</v>
+                  <v>0.0577995</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0597217</v>
+                  <v>0.0587407</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0613516</v>
+                  <v>0.0605897</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0637716</v>
+                  <v>0.0631306</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0674956</v>
+                  <v>0.06695570000000001</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0857108</v>
+                  <v>0.09221509999999999</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.085729</v>
+                  <v>0.0858753</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.08582099999999999</v>
+                  <v>0.08594309999999999</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.085891</v>
+                  <v>0.0860457</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.08591310000000001</v>
+                  <v>0.0861672</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0952533</v>
+                  <v>0.0863088</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0900392</v>
+                  <v>0.0865691</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0865544</v>
+                  <v>0.0868321</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.08702120000000001</v>
+                  <v>0.08713460000000001</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.08758929999999999</v>
+                  <v>0.08769159999999999</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0884514</v>
+                  <v>0.0958198</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.08982080000000001</v>
+                  <v>0.0898485</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0916886</v>
+                  <v>0.095514</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0949089</v>
+                  <v>0.09515</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.09997010000000001</v>
+                  <v>0.100163</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.107963</v>
+                  <v>0.1074</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.108243</v>
+                  <v>0.10739</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.108225</v>
+                  <v>0.107504</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.10822</v>
+                  <v>0.107377</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.108618</v>
+                  <v>0.114714</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.108608</v>
+                  <v>0.108009</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.109047</v>
+                  <v>0.108717</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.109454</v>
+                  <v>0.109426</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.110007</v>
+                  <v>0.110397</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.110855</v>
+                  <v>0.111361</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.112081</v>
+                  <v>0.112842</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.113914</v>
+                  <v>0.114762</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.116949</v>
+                  <v>0.117867</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.121459</v>
+                  <v>0.124715</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.134045</v>
+                  <v>0.139793</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.141735</v>
+                  <v>0.140249</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.14386</v>
+                  <v>0.139831</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.141993</v>
+                  <v>0.139692</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.141564</v>
+                  <v>0.139658</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.141767</v>
+                  <v>0.139443</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.142252</v>
+                  <v>0.139582</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.142466</v>
+                  <v>0.139867</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.143005</v>
+                  <v>0.14053</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.143627</v>
+                  <v>0.141002</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.144639</v>
+                  <v>0.142003</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.146121</v>
+                  <v>0.143615</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.148787</v>
+                  <v>0.145983</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.153145</v>
+                  <v>0.150084</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.160222</v>
+                  <v>0.158033</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.15805</v>
+                  <v>0.157812</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.158093</v>
+                  <v>0.157958</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.158066</v>
+                  <v>0.158179</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.158317</v>
+                  <v>0.158157</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.158434</v>
+                  <v>0.158476</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1446,430 +1446,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0207816</v>
+                  <v>0.021348</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0208667</v>
+                  <v>0.0214877</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0208241</v>
+                  <v>0.0216247</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0207476</v>
+                  <v>0.0218795</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.020652</v>
+                  <v>0.0221566</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0209277</v>
+                  <v>0.0227802</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0208354</v>
+                  <v>0.0236896</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.021057</v>
+                  <v>0.0202692</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0207722</v>
+                  <v>0.0207092</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0211993</v>
+                  <v>0.0210303</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.021061</v>
+                  <v>0.0213025</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0212452</v>
+                  <v>0.0213527</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0215641</v>
+                  <v>0.0218472</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0219941</v>
+                  <v>0.0222591</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0221573</v>
+                  <v>0.0226628</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.022048</v>
+                  <v>0.022977</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.022091</v>
+                  <v>0.0233228</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0223514</v>
+                  <v>0.0238671</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0224619</v>
+                  <v>0.0246036</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0226031</v>
+                  <v>0.0252305</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0229443</v>
+                  <v>0.0277472</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0236086</v>
+                  <v>0.0217618</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0218909</v>
+                  <v>0.0219587</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0220636</v>
+                  <v>0.0222026</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0222406</v>
+                  <v>0.0224898</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0225907</v>
+                  <v>0.0228074</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.022887</v>
+                  <v>0.0232103</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0230842</v>
+                  <v>0.0236661</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0234928</v>
+                  <v>0.0240376</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0237357</v>
+                  <v>0.0245248</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0239547</v>
+                  <v>0.0252023</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0241213</v>
+                  <v>0.0257564</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0246092</v>
+                  <v>0.0270565</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0256069</v>
+                  <v>0.0287934</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0258742</v>
+                  <v>0.0324096</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0314078</v>
+                  <v>0.0236684</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0231422</v>
+                  <v>0.0241302</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0232697</v>
+                  <v>0.0244332</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0236008</v>
+                  <v>0.0245736</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0239637</v>
+                  <v>0.0239295</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0241731</v>
+                  <v>0.0243207</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.024655</v>
+                  <v>0.0252591</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0250199</v>
+                  <v>0.0256591</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0254471</v>
+                  <v>0.0259074</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0257887</v>
+                  <v>0.0266036</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.026411</v>
+                  <v>0.027689</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0273266</v>
+                  <v>0.0291986</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0288305</v>
+                  <v>0.0317988</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0310001</v>
+                  <v>0.0360721</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0354398</v>
+                  <v>0.023394</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0403807</v>
+                  <v>0.0236044</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0246173</v>
+                  <v>0.023867</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0249205</v>
+                  <v>0.0241515</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0252809</v>
+                  <v>0.0244875</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0256266</v>
+                  <v>0.0249477</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0260148</v>
+                  <v>0.0253774</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0264257</v>
+                  <v>0.0259302</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0269137</v>
+                  <v>0.0265094</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0274746</v>
+                  <v>0.0274929</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0282353</v>
+                  <v>0.0286629</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0295079</v>
+                  <v>0.0303873</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0309257</v>
+                  <v>0.0330881</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0332921</v>
+                  <v>0.0367975</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0365299</v>
+                  <v>0.0428056</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0415142</v>
+                  <v>0.0248565</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0269617</v>
+                  <v>0.0254945</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0268134</v>
+                  <v>0.025829</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0271091</v>
+                  <v>0.0266013</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.028098</v>
+                  <v>0.0265404</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.028241</v>
+                  <v>0.0270211</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0283238</v>
+                  <v>0.027483</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0289933</v>
+                  <v>0.0281629</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0297943</v>
+                  <v>0.0291473</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0305728</v>
+                  <v>0.0302343</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0318959</v>
+                  <v>0.0321709</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0330477</v>
+                  <v>0.0346453</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0355949</v>
+                  <v>0.038211</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0380312</v>
+                  <v>0.0437751</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0422199</v>
+                  <v>0.0369618</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0358291</v>
+                  <v>0.0377666</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0366934</v>
+                  <v>0.0385693</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0371542</v>
+                  <v>0.0393414</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0385504</v>
+                  <v>0.0400166</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0397275</v>
+                  <v>0.0406419</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0406958</v>
+                  <v>0.0415556</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0420235</v>
+                  <v>0.0424017</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.043628</v>
+                  <v>0.0449697</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0448497</v>
+                  <v>0.0442997</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0467952</v>
+                  <v>0.0456659</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0485398</v>
+                  <v>0.047738</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.050625</v>
+                  <v>0.0505484</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0531723</v>
+                  <v>0.0549595</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0575467</v>
+                  <v>0.0715803</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0690796</v>
+                  <v>0.0719887</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0695586</v>
+                  <v>0.0723747</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.07006270000000001</v>
+                  <v>0.0728399</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0706492</v>
+                  <v>0.07350520000000001</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0712165</v>
+                  <v>0.0740489</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0719084</v>
+                  <v>0.0746351</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0726926</v>
+                  <v>0.0754398</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.073481</v>
+                  <v>0.07621650000000001</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0744592</v>
+                  <v>0.0796057</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0757119</v>
+                  <v>0.07860830000000001</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0771091</v>
+                  <v>0.0804361</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0789149</v>
+                  <v>0.0829439</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.08129740000000001</v>
+                  <v>0.08686770000000001</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.085034</v>
+                  <v>0.0889514</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0910459</v>
+                  <v>0.089729</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.08287219999999999</v>
+                  <v>0.0904097</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.08375249999999999</v>
+                  <v>0.0913191</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0846664</v>
+                  <v>0.0921503</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0856579</v>
+                  <v>0.0931935</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.08681120000000001</v>
+                  <v>0.09714059999999999</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.08786919999999999</v>
+                  <v>0.09524050000000001</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0892593</v>
+                  <v>0.096618</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0907998</v>
+                  <v>0.0979674</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0923614</v>
+                  <v>0.0996447</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0942355</v>
+                  <v>0.101745</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.096293</v>
+                  <v>0.104375</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0990901</v>
+                  <v>0.108312</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.102927</v>
+                  <v>0.114594</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.108871</v>
+                  <v>0.106984</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0958808</v>
+                  <v>0.119349</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.09704169999999999</v>
+                  <v>0.109142</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0989488</v>
+                  <v>0.110214</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.100162</v>
+                  <v>0.111475</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.101129</v>
+                  <v>0.112737</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.102743</v>
+                  <v>0.11413</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.10443</v>
+                  <v>0.115719</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.106431</v>
+                  <v>0.117336</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.108216</v>
+                  <v>0.119263</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.110255</v>
+                  <v>0.121651</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.112815</v>
+                  <v>0.124577</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.11575</v>
+                  <v>0.128814</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.119701</v>
+                  <v>0.13534</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.126693</v>
+                  <v>0.118414</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.108481</v>
+                  <v>0.119444</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.109886</v>
+                  <v>0.120531</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.111216</v>
+                  <v>0.121662</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.112687</v>
+                  <v>0.122894</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.114154</v>
+                  <v>0.12405</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.115713</v>
+                  <v>0.125504</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1880,7 +1880,7 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_map</v>
+            <v>boost::unordered_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -2340,430 +2340,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0197621</v>
+                  <v>0.0336857</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0199124</v>
+                  <v>0.0394849</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0199636</v>
+                  <v>0.0423094</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0200411</v>
+                  <v>0.0461472</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0201853</v>
+                  <v>0.0507523</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0205493</v>
+                  <v>0.030305</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0212255</v>
+                  <v>0.0319421</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0196114</v>
+                  <v>0.0344693</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0196542</v>
+                  <v>0.0368055</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0197311</v>
+                  <v>0.0393418</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0200198</v>
+                  <v>0.0427875</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0202983</v>
+                  <v>0.0475742</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0206514</v>
+                  <v>0.0488059</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0208261</v>
+                  <v>0.0525665</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0213814</v>
+                  <v>0.0568101</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.021683</v>
+                  <v>0.0604767</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0218647</v>
+                  <v>0.0639252</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0217385</v>
+                  <v>0.0675722</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0221793</v>
+                  <v>0.0692373</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0234999</v>
+                  <v>0.0444481</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.025596</v>
+                  <v>0.0475408</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0208572</v>
+                  <v>0.0489493</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0211474</v>
+                  <v>0.0508013</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0213952</v>
+                  <v>0.0535126</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0216285</v>
+                  <v>0.0556632</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0219129</v>
+                  <v>0.0589148</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0221909</v>
+                  <v>0.0614351</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0226314</v>
+                  <v>0.06435200000000001</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.02287</v>
+                  <v>0.0664998</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0232938</v>
+                  <v>0.07017470000000001</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0236459</v>
+                  <v>0.0725022</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0243776</v>
+                  <v>0.0762954</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0256094</v>
+                  <v>0.0772482</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0280099</v>
+                  <v>0.0518274</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0318825</v>
+                  <v>0.0539981</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0222322</v>
+                  <v>0.0569381</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0224761</v>
+                  <v>0.0590617</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0226406</v>
+                  <v>0.0616864</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0229219</v>
+                  <v>0.0607154</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0232372</v>
+                  <v>0.06472219999999999</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0235604</v>
+                  <v>0.0669053</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0239217</v>
+                  <v>0.06983350000000001</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0243675</v>
+                  <v>0.0728838</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0249258</v>
+                  <v>0.0752324</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0256372</v>
+                  <v>0.07806680000000001</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0267547</v>
+                  <v>0.0802983</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0285161</v>
+                  <v>0.0828279</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0309254</v>
+                  <v>0.0846045</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.03463</v>
+                  <v>0.0575865</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0230982</v>
+                  <v>0.0593047</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0233375</v>
+                  <v>0.0611502</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.023593</v>
+                  <v>0.0636737</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0238201</v>
+                  <v>0.0657292</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0241227</v>
+                  <v>0.06833930000000001</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0244723</v>
+                  <v>0.0707661</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.024922</v>
+                  <v>0.073903</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0253022</v>
+                  <v>0.0761425</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0259853</v>
+                  <v>0.078791</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0267356</v>
+                  <v>0.08170040000000001</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0278598</v>
+                  <v>0.0839515</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0296228</v>
+                  <v>0.0861381</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0320613</v>
+                  <v>0.088853</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0356651</v>
+                  <v>0.0638098</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0410615</v>
+                  <v>0.06650739999999999</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0247871</v>
+                  <v>0.0691383</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0249031</v>
+                  <v>0.0715653</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0256338</v>
+                  <v>0.0745817</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0258881</v>
+                  <v>0.07851610000000001</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0259173</v>
+                  <v>0.0814839</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0262823</v>
+                  <v>0.0860113</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0271444</v>
+                  <v>0.09014419999999999</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0274852</v>
+                  <v>0.0948281</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0283927</v>
+                  <v>0.0981105</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0298077</v>
+                  <v>0.101526</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0311471</v>
+                  <v>0.107487</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0336077</v>
+                  <v>0.112807</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0368424</v>
+                  <v>0.0965601</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0414916</v>
+                  <v>0.101097</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0365337</v>
+                  <v>0.106082</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.037033</v>
+                  <v>0.110975</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0385276</v>
+                  <v>0.114995</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0385709</v>
+                  <v>0.120023</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0392564</v>
+                  <v>0.125893</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0399463</v>
+                  <v>0.130762</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.040702</v>
+                  <v>0.136855</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.041626</v>
+                  <v>0.142491</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0423938</v>
+                  <v>0.148735</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0433475</v>
+                  <v>0.154806</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0447666</v>
+                  <v>0.160276</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0465736</v>
+                  <v>0.165942</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0493242</v>
+                  <v>0.145194</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0542457</v>
+                  <v>0.148853</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.07123119999999999</v>
+                  <v>0.152457</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.071656</v>
+                  <v>0.156847</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0721349</v>
+                  <v>0.16093</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.07265770000000001</v>
+                  <v>0.165502</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0729856</v>
+                  <v>0.171025</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0736991</v>
+                  <v>0.176145</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0742898</v>
+                  <v>0.181854</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.07498199999999999</v>
+                  <v>0.187152</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.07573630000000001</v>
+                  <v>0.192849</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0766086</v>
+                  <v>0.199082</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.077876</v>
+                  <v>0.205029</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.07924580000000001</v>
+                  <v>0.211115</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.08156239999999999</v>
+                  <v>0.217795</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0852509</v>
+                  <v>0.181761</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.08773590000000001</v>
+                  <v>0.184875</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0884414</v>
+                  <v>0.18853</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0892877</v>
+                  <v>0.193379</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0899992</v>
+                  <v>0.196792</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0907741</v>
+                  <v>0.201399</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0918117</v>
+                  <v>0.206374</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.092913</v>
+                  <v>0.211734</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.09400500000000001</v>
+                  <v>0.218001</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.100748</v>
+                  <v>0.223144</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.09656720000000001</v>
+                  <v>0.229767</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0981248</v>
+                  <v>0.235872</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.100153</v>
+                  <v>0.240776</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.10274</v>
+                  <v>0.247637</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.106587</v>
+                  <v>0.198997</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.112472</v>
+                  <v>0.202385</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.106248</v>
+                  <v>0.205971</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.107515</v>
+                  <v>0.209681</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.108771</v>
+                  <v>0.213857</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.110258</v>
+                  <v>0.218441</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.111363</v>
+                  <v>0.223282</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.112139</v>
+                  <v>0.228864</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.113529</v>
+                  <v>0.234598</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.114912</v>
+                  <v>0.240649</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.116482</v>
+                  <v>0.251617</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.118414</v>
+                  <v>0.252683</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.120533</v>
+                  <v>0.258786</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.123365</v>
+                  <v>0.264415</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.127277</v>
+                  <v>0.20958</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.133589</v>
+                  <v>0.21278</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.119571</v>
+                  <v>0.216352</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.123522</v>
+                  <v>0.219749</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.120321</v>
+                  <v>0.224359</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.121365</v>
+                  <v>0.228913</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.122535</v>
+                  <v>0.236829</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.123827</v>
+                  <v>0.239299</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.125232</v>
+                  <v>0.2453</v>
                 </pt>
               </numCache>
             </numRef>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0672803</v>
+        <v>0.0694191</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0614769</v>
+        <v>0.0617486</v>
       </c>
       <c r="D2" t="n">
-        <v>0.064161</v>
+        <v>0.0636008</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0662177</v>
+        <v>0.06899329999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06389069999999999</v>
+        <v>0.0619185</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0655626</v>
+        <v>0.0702931</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.07017669999999999</v>
+        <v>0.07073459999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0623202</v>
+        <v>0.0622686</v>
       </c>
       <c r="D4" t="n">
-        <v>0.06673419999999999</v>
+        <v>0.0637341</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0675665</v>
+        <v>0.0670786</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0658421</v>
+        <v>0.0639382</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0677991</v>
+        <v>0.06468500000000001</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.07034899999999999</v>
+        <v>0.0687466</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0679691</v>
+        <v>0.06277439999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0678816</v>
+        <v>0.067757</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07235</v>
+        <v>0.0711635</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06813230000000001</v>
+        <v>0.0687807</v>
       </c>
       <c r="D7" t="n">
-        <v>0.067033</v>
+        <v>0.0715932</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0679372</v>
+        <v>0.0692895</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0729851</v>
+        <v>0.0734987</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0723322</v>
+        <v>0.0790305</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0711046</v>
+        <v>0.0695817</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06369030000000001</v>
+        <v>0.0640337</v>
       </c>
       <c r="D9" t="n">
-        <v>0.06477289999999999</v>
+        <v>0.07080690000000001</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.07450809999999999</v>
+        <v>0.0783258</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0668102</v>
+        <v>0.0639416</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0675529</v>
+        <v>0.06405909999999999</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0786101</v>
+        <v>0.0752452</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0655273</v>
+        <v>0.0617137</v>
       </c>
       <c r="D11" t="n">
-        <v>0.069088</v>
+        <v>0.0657126</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0749027</v>
+        <v>0.07719479999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0647184</v>
+        <v>0.0684519</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0630795</v>
+        <v>0.06593839999999999</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0744879</v>
+        <v>0.07492740000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0659969</v>
+        <v>0.0666612</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0638194</v>
+        <v>0.0700938</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0753241</v>
+        <v>0.0754653</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0625966</v>
+        <v>0.06417970000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>0.064064</v>
+        <v>0.0680418</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0777438</v>
+        <v>0.0758345</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0638393</v>
+        <v>0.0642645</v>
       </c>
       <c r="D15" t="n">
-        <v>0.06572070000000001</v>
+        <v>0.0654594</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0754833</v>
+        <v>0.0764445</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0644793</v>
+        <v>0.0633206</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0644419</v>
+        <v>0.0692295</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.07736609999999999</v>
+        <v>0.0779888</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0637081</v>
+        <v>0.0634793</v>
       </c>
       <c r="D17" t="n">
-        <v>0.066437</v>
+        <v>0.0694642</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0750234</v>
+        <v>0.0808939</v>
       </c>
       <c r="C18" t="n">
-        <v>0.066209</v>
+        <v>0.06984899999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>0.06620810000000001</v>
+        <v>0.06842529999999999</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.07630049999999999</v>
+        <v>0.0765706</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0699579</v>
+        <v>0.0674548</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0667697</v>
+        <v>0.0701546</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.078056</v>
+        <v>0.0794014</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0687676</v>
+        <v>0.0693126</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0712623</v>
+        <v>0.07220500000000001</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0793379</v>
+        <v>0.07683520000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.07150339999999999</v>
+        <v>0.07341590000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0725544</v>
+        <v>0.07702299999999999</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.08072699999999999</v>
+        <v>0.0792196</v>
       </c>
       <c r="C22" t="n">
-        <v>0.075949</v>
+        <v>0.0750417</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0741523</v>
+        <v>0.0793497</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0816977</v>
+        <v>0.0841044</v>
       </c>
       <c r="C23" t="n">
-        <v>0.06788139999999999</v>
+        <v>0.0677789</v>
       </c>
       <c r="D23" t="n">
-        <v>0.07093629999999999</v>
+        <v>0.0696103</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0818072</v>
+        <v>0.0882337</v>
       </c>
       <c r="C24" t="n">
-        <v>0.069649</v>
+        <v>0.0680051</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0688233</v>
+        <v>0.0702306</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0840852</v>
+        <v>0.0903373</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0707921</v>
+        <v>0.0686913</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0686664</v>
+        <v>0.07032670000000001</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.08220180000000001</v>
+        <v>0.0839218</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0688758</v>
+        <v>0.0698112</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0705986</v>
+        <v>0.0721861</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0853367</v>
+        <v>0.0863882</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0695194</v>
+        <v>0.0684338</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0702438</v>
+        <v>0.07439519999999999</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0859664</v>
+        <v>0.0882592</v>
       </c>
       <c r="C28" t="n">
-        <v>0.07096429999999999</v>
+        <v>0.0679382</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0701157</v>
+        <v>0.0698698</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.089432</v>
+        <v>0.0836601</v>
       </c>
       <c r="C29" t="n">
-        <v>0.07492550000000001</v>
+        <v>0.0697668</v>
       </c>
       <c r="D29" t="n">
-        <v>0.07271</v>
+        <v>0.07238260000000001</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0816694</v>
+        <v>0.0852059</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0715663</v>
+        <v>0.0745006</v>
       </c>
       <c r="D30" t="n">
-        <v>0.07311380000000001</v>
+        <v>0.0751034</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.08402129999999999</v>
+        <v>0.08548509999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.07126399999999999</v>
+        <v>0.0711613</v>
       </c>
       <c r="D31" t="n">
-        <v>0.071494</v>
+        <v>0.0734798</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0854693</v>
+        <v>0.08398899999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0728306</v>
+        <v>0.0733828</v>
       </c>
       <c r="D32" t="n">
-        <v>0.07438839999999999</v>
+        <v>0.0766283</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.08280410000000001</v>
+        <v>0.0829786</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0749788</v>
+        <v>0.071381</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0751303</v>
+        <v>0.07598240000000001</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0879538</v>
+        <v>0.08709649999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0746317</v>
+        <v>0.0783803</v>
       </c>
       <c r="D34" t="n">
-        <v>0.07507170000000001</v>
+        <v>0.07609779999999999</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.08602990000000001</v>
+        <v>0.0865988</v>
       </c>
       <c r="C35" t="n">
-        <v>0.07983850000000001</v>
+        <v>0.0772312</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0794579</v>
+        <v>0.07709770000000001</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0884325</v>
+        <v>0.0861001</v>
       </c>
       <c r="C36" t="n">
-        <v>0.081009</v>
+        <v>0.0826812</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0820121</v>
+        <v>0.08536009999999999</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.08876199999999999</v>
+        <v>0.0926464</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0774953</v>
+        <v>0.0769821</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0797337</v>
+        <v>0.0829609</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.102931</v>
+        <v>0.101545</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0754692</v>
+        <v>0.0774294</v>
       </c>
       <c r="D38" t="n">
-        <v>0.08069129999999999</v>
+        <v>0.0810891</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.108253</v>
+        <v>0.108401</v>
       </c>
       <c r="C39" t="n">
-        <v>0.07807500000000001</v>
+        <v>0.07802190000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>0.08007069999999999</v>
+        <v>0.0794576</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.101974</v>
+        <v>0.105827</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0802332</v>
+        <v>0.0772504</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0819143</v>
+        <v>0.07853880000000001</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.105032</v>
+        <v>0.10675</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0784647</v>
+        <v>0.08047989999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0780742</v>
+        <v>0.0805834</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.104044</v>
+        <v>0.10907</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0780652</v>
+        <v>0.0796313</v>
       </c>
       <c r="D42" t="n">
-        <v>0.08026369999999999</v>
+        <v>0.0803025</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.106578</v>
+        <v>0.102403</v>
       </c>
       <c r="C43" t="n">
-        <v>0.08148089999999999</v>
+        <v>0.08231280000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>0.081706</v>
+        <v>0.08332630000000001</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.107438</v>
+        <v>0.105269</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0796487</v>
+        <v>0.0802331</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0831818</v>
+        <v>0.0802583</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.1045</v>
+        <v>0.102354</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0806123</v>
+        <v>0.0796558</v>
       </c>
       <c r="D45" t="n">
-        <v>0.08245329999999999</v>
+        <v>0.0801693</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.105803</v>
+        <v>0.106497</v>
       </c>
       <c r="C46" t="n">
-        <v>0.07900890000000001</v>
+        <v>0.0786124</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0852976</v>
+        <v>0.0864731</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.10823</v>
+        <v>0.106482</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0817422</v>
+        <v>0.0831158</v>
       </c>
       <c r="D47" t="n">
-        <v>0.08676689999999999</v>
+        <v>0.084591</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.106274</v>
+        <v>0.105749</v>
       </c>
       <c r="C48" t="n">
-        <v>0.08257730000000001</v>
+        <v>0.083597</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0875615</v>
+        <v>0.0856041</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.102912</v>
+        <v>0.107829</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0884296</v>
+        <v>0.0843619</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0877144</v>
+        <v>0.0895726</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.107579</v>
+        <v>0.107855</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0912439</v>
+        <v>0.091026</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0911875</v>
+        <v>0.0965235</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.109738</v>
+        <v>0.111047</v>
       </c>
       <c r="C51" t="n">
-        <v>0.169263</v>
+        <v>0.168641</v>
       </c>
       <c r="D51" t="n">
-        <v>0.167883</v>
+        <v>0.169185</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.111481</v>
+        <v>0.116303</v>
       </c>
       <c r="C52" t="n">
-        <v>0.170406</v>
+        <v>0.168576</v>
       </c>
       <c r="D52" t="n">
-        <v>0.1681</v>
+        <v>0.168788</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1869</v>
+        <v>0.197021</v>
       </c>
       <c r="C53" t="n">
-        <v>0.169119</v>
+        <v>0.166546</v>
       </c>
       <c r="D53" t="n">
-        <v>0.167694</v>
+        <v>0.163634</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.199514</v>
+        <v>0.192927</v>
       </c>
       <c r="C54" t="n">
-        <v>0.167145</v>
+        <v>0.169454</v>
       </c>
       <c r="D54" t="n">
-        <v>0.170231</v>
+        <v>0.169103</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.1917</v>
+        <v>0.201852</v>
       </c>
       <c r="C55" t="n">
-        <v>0.17042</v>
+        <v>0.173239</v>
       </c>
       <c r="D55" t="n">
-        <v>0.172431</v>
+        <v>0.172922</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.195449</v>
+        <v>0.196251</v>
       </c>
       <c r="C56" t="n">
-        <v>0.168741</v>
+        <v>0.173723</v>
       </c>
       <c r="D56" t="n">
-        <v>0.168209</v>
+        <v>0.178487</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.193318</v>
+        <v>0.208592</v>
       </c>
       <c r="C57" t="n">
-        <v>0.168887</v>
+        <v>0.173016</v>
       </c>
       <c r="D57" t="n">
-        <v>0.168228</v>
+        <v>0.174454</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.195254</v>
+        <v>0.209803</v>
       </c>
       <c r="C58" t="n">
-        <v>0.175191</v>
+        <v>0.173767</v>
       </c>
       <c r="D58" t="n">
-        <v>0.170249</v>
+        <v>0.186062</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.196833</v>
+        <v>0.205061</v>
       </c>
       <c r="C59" t="n">
-        <v>0.170165</v>
+        <v>0.176818</v>
       </c>
       <c r="D59" t="n">
-        <v>0.176729</v>
+        <v>0.17503</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.202633</v>
+        <v>0.202493</v>
       </c>
       <c r="C60" t="n">
-        <v>0.171774</v>
+        <v>0.173164</v>
       </c>
       <c r="D60" t="n">
-        <v>0.169947</v>
+        <v>0.179399</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.198535</v>
+        <v>0.204547</v>
       </c>
       <c r="C61" t="n">
-        <v>0.177199</v>
+        <v>0.17113</v>
       </c>
       <c r="D61" t="n">
-        <v>0.174609</v>
+        <v>0.180585</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.194439</v>
+        <v>0.207864</v>
       </c>
       <c r="C62" t="n">
-        <v>0.180423</v>
+        <v>0.177158</v>
       </c>
       <c r="D62" t="n">
-        <v>0.173048</v>
+        <v>0.183953</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.195534</v>
+        <v>0.202717</v>
       </c>
       <c r="C63" t="n">
-        <v>0.184137</v>
+        <v>0.18025</v>
       </c>
       <c r="D63" t="n">
-        <v>0.181558</v>
+        <v>0.188348</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.203625</v>
+        <v>0.202648</v>
       </c>
       <c r="C64" t="n">
-        <v>0.188046</v>
+        <v>0.186723</v>
       </c>
       <c r="D64" t="n">
-        <v>0.188678</v>
+        <v>0.192081</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.206332</v>
+        <v>0.221915</v>
       </c>
       <c r="C65" t="n">
-        <v>0.187953</v>
+        <v>0.188517</v>
       </c>
       <c r="D65" t="n">
-        <v>0.192575</v>
+        <v>0.207495</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.201085</v>
+        <v>0.219755</v>
       </c>
       <c r="C66" t="n">
-        <v>0.265209</v>
+        <v>0.271007</v>
       </c>
       <c r="D66" t="n">
-        <v>0.26474</v>
+        <v>0.262594</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.301492</v>
+        <v>0.307012</v>
       </c>
       <c r="C67" t="n">
-        <v>0.265286</v>
+        <v>0.266468</v>
       </c>
       <c r="D67" t="n">
-        <v>0.265272</v>
+        <v>0.283776</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.300607</v>
+        <v>0.29572</v>
       </c>
       <c r="C68" t="n">
-        <v>0.265719</v>
+        <v>0.266746</v>
       </c>
       <c r="D68" t="n">
-        <v>0.265897</v>
+        <v>0.260913</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.30605</v>
+        <v>0.306061</v>
       </c>
       <c r="C69" t="n">
-        <v>0.258149</v>
+        <v>0.266283</v>
       </c>
       <c r="D69" t="n">
-        <v>0.264109</v>
+        <v>0.262308</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.296704</v>
+        <v>0.310854</v>
       </c>
       <c r="C70" t="n">
-        <v>0.271064</v>
+        <v>0.268975</v>
       </c>
       <c r="D70" t="n">
-        <v>0.262985</v>
+        <v>0.273897</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.300146</v>
+        <v>0.313828</v>
       </c>
       <c r="C71" t="n">
-        <v>0.267227</v>
+        <v>0.268477</v>
       </c>
       <c r="D71" t="n">
-        <v>0.267109</v>
+        <v>0.272145</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.296097</v>
+        <v>0.312709</v>
       </c>
       <c r="C72" t="n">
-        <v>0.272745</v>
+        <v>0.277182</v>
       </c>
       <c r="D72" t="n">
-        <v>0.27362</v>
+        <v>0.270599</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.303088</v>
+        <v>0.302899</v>
       </c>
       <c r="C73" t="n">
-        <v>0.269376</v>
+        <v>0.272775</v>
       </c>
       <c r="D73" t="n">
-        <v>0.278353</v>
+        <v>0.271991</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.301857</v>
+        <v>0.302698</v>
       </c>
       <c r="C74" t="n">
-        <v>0.270854</v>
+        <v>0.274267</v>
       </c>
       <c r="D74" t="n">
-        <v>0.274825</v>
+        <v>0.284146</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.312826</v>
+        <v>0.308118</v>
       </c>
       <c r="C75" t="n">
-        <v>0.279358</v>
+        <v>0.283316</v>
       </c>
       <c r="D75" t="n">
-        <v>0.272088</v>
+        <v>0.288238</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.310316</v>
+        <v>0.320867</v>
       </c>
       <c r="C76" t="n">
-        <v>0.285992</v>
+        <v>0.287811</v>
       </c>
       <c r="D76" t="n">
-        <v>0.281072</v>
+        <v>0.274222</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.306248</v>
+        <v>0.317638</v>
       </c>
       <c r="C77" t="n">
-        <v>0.287713</v>
+        <v>0.290787</v>
       </c>
       <c r="D77" t="n">
-        <v>0.279545</v>
+        <v>0.287011</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.314465</v>
+        <v>0.32499</v>
       </c>
       <c r="C78" t="n">
-        <v>0.282981</v>
+        <v>0.287138</v>
       </c>
       <c r="D78" t="n">
-        <v>0.287242</v>
+        <v>0.300275</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.326597</v>
+        <v>0.321685</v>
       </c>
       <c r="C79" t="n">
-        <v>0.285438</v>
+        <v>0.296986</v>
       </c>
       <c r="D79" t="n">
-        <v>0.299812</v>
+        <v>0.30316</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.322907</v>
+        <v>0.326383</v>
       </c>
       <c r="C80" t="n">
-        <v>0.374108</v>
+        <v>0.379392</v>
       </c>
       <c r="D80" t="n">
-        <v>0.377927</v>
+        <v>0.376855</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.378225</v>
+        <v>0.412543</v>
       </c>
       <c r="C81" t="n">
-        <v>0.363243</v>
+        <v>0.380904</v>
       </c>
       <c r="D81" t="n">
-        <v>0.370238</v>
+        <v>0.368126</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.393182</v>
+        <v>0.39093</v>
       </c>
       <c r="C82" t="n">
-        <v>0.370912</v>
+        <v>0.369504</v>
       </c>
       <c r="D82" t="n">
-        <v>0.37593</v>
+        <v>0.374056</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.382153</v>
+        <v>0.412613</v>
       </c>
       <c r="C83" t="n">
-        <v>0.379856</v>
+        <v>0.37913</v>
       </c>
       <c r="D83" t="n">
-        <v>0.38139</v>
+        <v>0.381568</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.394354</v>
+        <v>0.392537</v>
       </c>
       <c r="C84" t="n">
-        <v>0.374746</v>
+        <v>0.379637</v>
       </c>
       <c r="D84" t="n">
-        <v>0.377232</v>
+        <v>0.374472</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.402424</v>
+        <v>0.396598</v>
       </c>
       <c r="C85" t="n">
-        <v>0.362329</v>
+        <v>0.376096</v>
       </c>
       <c r="D85" t="n">
-        <v>0.369286</v>
+        <v>0.388984</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.38726</v>
+        <v>0.392184</v>
       </c>
       <c r="C86" t="n">
-        <v>0.368732</v>
+        <v>0.376647</v>
       </c>
       <c r="D86" t="n">
-        <v>0.381123</v>
+        <v>0.390875</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.399379</v>
+        <v>0.410216</v>
       </c>
       <c r="C87" t="n">
-        <v>0.379073</v>
+        <v>0.38455</v>
       </c>
       <c r="D87" t="n">
-        <v>0.376465</v>
+        <v>0.382848</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.405151</v>
+        <v>0.395913</v>
       </c>
       <c r="C88" t="n">
-        <v>0.364614</v>
+        <v>0.378117</v>
       </c>
       <c r="D88" t="n">
-        <v>0.366286</v>
+        <v>0.387229</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.394706</v>
+        <v>0.385437</v>
       </c>
       <c r="C89" t="n">
-        <v>0.375262</v>
+        <v>0.380555</v>
       </c>
       <c r="D89" t="n">
-        <v>0.383429</v>
+        <v>0.38052</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.389197</v>
+        <v>0.397859</v>
       </c>
       <c r="C90" t="n">
-        <v>0.38146</v>
+        <v>0.373203</v>
       </c>
       <c r="D90" t="n">
-        <v>0.374341</v>
+        <v>0.376507</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.389567</v>
+        <v>0.402875</v>
       </c>
       <c r="C91" t="n">
-        <v>0.387361</v>
+        <v>0.390769</v>
       </c>
       <c r="D91" t="n">
-        <v>0.384658</v>
+        <v>0.388821</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.422419</v>
+        <v>0.408797</v>
       </c>
       <c r="C92" t="n">
-        <v>0.392012</v>
+        <v>0.391396</v>
       </c>
       <c r="D92" t="n">
-        <v>0.389321</v>
+        <v>0.380814</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.405665</v>
+        <v>0.404643</v>
       </c>
       <c r="C93" t="n">
-        <v>0.400973</v>
+        <v>0.388722</v>
       </c>
       <c r="D93" t="n">
-        <v>0.387886</v>
+        <v>0.400395</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.40401</v>
+        <v>0.411138</v>
       </c>
       <c r="C94" t="n">
-        <v>0.46368</v>
+        <v>0.462209</v>
       </c>
       <c r="D94" t="n">
-        <v>0.459956</v>
+        <v>0.460914</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.470666</v>
+        <v>0.479496</v>
       </c>
       <c r="C95" t="n">
-        <v>0.468156</v>
+        <v>0.474399</v>
       </c>
       <c r="D95" t="n">
-        <v>0.475574</v>
+        <v>0.477643</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.469311</v>
+        <v>0.517329</v>
       </c>
       <c r="C96" t="n">
-        <v>0.459466</v>
+        <v>0.490297</v>
       </c>
       <c r="D96" t="n">
-        <v>0.457438</v>
+        <v>0.482742</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.493905</v>
+        <v>0.5109089999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>0.473675</v>
+        <v>0.489129</v>
       </c>
       <c r="D97" t="n">
-        <v>0.479649</v>
+        <v>0.47148</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.48095</v>
+        <v>0.504403</v>
       </c>
       <c r="C98" t="n">
-        <v>0.477562</v>
+        <v>0.480376</v>
       </c>
       <c r="D98" t="n">
-        <v>0.461404</v>
+        <v>0.483509</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.473952</v>
+        <v>0.485408</v>
       </c>
       <c r="C99" t="n">
-        <v>0.478746</v>
+        <v>0.482588</v>
       </c>
       <c r="D99" t="n">
-        <v>0.46358</v>
+        <v>0.471786</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.473749</v>
+        <v>0.509765</v>
       </c>
       <c r="C100" t="n">
-        <v>0.474515</v>
+        <v>0.5014150000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>0.473444</v>
+        <v>0.478112</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.488538</v>
+        <v>0.497993</v>
       </c>
       <c r="C101" t="n">
-        <v>0.473427</v>
+        <v>0.47637</v>
       </c>
       <c r="D101" t="n">
-        <v>0.476859</v>
+        <v>0.465787</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.476956</v>
+        <v>0.479652</v>
       </c>
       <c r="C102" t="n">
-        <v>0.484254</v>
+        <v>0.500918</v>
       </c>
       <c r="D102" t="n">
-        <v>0.475383</v>
+        <v>0.491487</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.474025</v>
+        <v>0.5001910000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>0.471332</v>
+        <v>0.49338</v>
       </c>
       <c r="D103" t="n">
-        <v>0.476012</v>
+        <v>0.472966</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.489775</v>
+        <v>0.481704</v>
       </c>
       <c r="C104" t="n">
-        <v>0.482264</v>
+        <v>0.491835</v>
       </c>
       <c r="D104" t="n">
-        <v>0.484596</v>
+        <v>0.489751</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.479177</v>
+        <v>0.498298</v>
       </c>
       <c r="C105" t="n">
-        <v>0.470195</v>
+        <v>0.488602</v>
       </c>
       <c r="D105" t="n">
-        <v>0.463169</v>
+        <v>0.493541</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.477498</v>
+        <v>0.495646</v>
       </c>
       <c r="C106" t="n">
-        <v>0.471378</v>
+        <v>0.486491</v>
       </c>
       <c r="D106" t="n">
-        <v>0.475426</v>
+        <v>0.488992</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.494018</v>
+        <v>0.485722</v>
       </c>
       <c r="C107" t="n">
-        <v>0.481386</v>
+        <v>0.489184</v>
       </c>
       <c r="D107" t="n">
-        <v>0.496437</v>
+        <v>0.512566</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.479949</v>
+        <v>0.491795</v>
       </c>
       <c r="C108" t="n">
-        <v>0.568057</v>
+        <v>0.56874</v>
       </c>
       <c r="D108" t="n">
-        <v>0.573029</v>
+        <v>0.578503</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.4867</v>
+        <v>0.505393</v>
       </c>
       <c r="C109" t="n">
-        <v>0.558994</v>
+        <v>0.573197</v>
       </c>
       <c r="D109" t="n">
-        <v>0.568113</v>
+        <v>0.568753</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.605122</v>
+        <v>0.636331</v>
       </c>
       <c r="C110" t="n">
-        <v>0.547544</v>
+        <v>0.567866</v>
       </c>
       <c r="D110" t="n">
-        <v>0.583116</v>
+        <v>0.589058</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.591589</v>
+        <v>0.599403</v>
       </c>
       <c r="C111" t="n">
-        <v>0.561751</v>
+        <v>0.566876</v>
       </c>
       <c r="D111" t="n">
-        <v>0.565663</v>
+        <v>0.569838</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.591245</v>
+        <v>0.644747</v>
       </c>
       <c r="C112" t="n">
-        <v>0.561715</v>
+        <v>0.577879</v>
       </c>
       <c r="D112" t="n">
-        <v>0.563869</v>
+        <v>0.586427</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.602132</v>
+        <v>0.612522</v>
       </c>
       <c r="C113" t="n">
-        <v>0.552503</v>
+        <v>0.578663</v>
       </c>
       <c r="D113" t="n">
-        <v>0.573031</v>
+        <v>0.575518</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.585908</v>
+        <v>0.609235</v>
       </c>
       <c r="C114" t="n">
-        <v>0.5536450000000001</v>
+        <v>0.553026</v>
       </c>
       <c r="D114" t="n">
-        <v>0.571006</v>
+        <v>0.602063</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.60872</v>
+        <v>0.603356</v>
       </c>
       <c r="C115" t="n">
-        <v>0.57294</v>
+        <v>0.564735</v>
       </c>
       <c r="D115" t="n">
-        <v>0.576435</v>
+        <v>0.577729</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.588437</v>
+        <v>0.602549</v>
       </c>
       <c r="C116" t="n">
-        <v>0.5629729999999999</v>
+        <v>0.58457</v>
       </c>
       <c r="D116" t="n">
-        <v>0.57644</v>
+        <v>0.593455</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.594379</v>
+        <v>0.617056</v>
       </c>
       <c r="C117" t="n">
-        <v>0.5614170000000001</v>
+        <v>0.569034</v>
       </c>
       <c r="D117" t="n">
-        <v>0.576569</v>
+        <v>0.58889</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.593446</v>
+        <v>0.631084</v>
       </c>
       <c r="C118" t="n">
-        <v>0.567509</v>
+        <v>0.581494</v>
       </c>
       <c r="D118" t="n">
-        <v>0.5708029999999999</v>
+        <v>0.5923079999999999</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.607411</v>
+        <v>0.640537</v>
       </c>
       <c r="C119" t="n">
-        <v>0.565677</v>
+        <v>0.627705</v>
       </c>
       <c r="D119" t="n">
-        <v>0.581413</v>
+        <v>0.602143</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.602528</v>
+        <v>0.622403</v>
       </c>
       <c r="C120" t="n">
-        <v>0.577617</v>
+        <v>0.580465</v>
       </c>
       <c r="D120" t="n">
-        <v>0.575078</v>
+        <v>0.601085</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.605052</v>
+        <v>0.619645</v>
       </c>
       <c r="C121" t="n">
-        <v>0.568145</v>
+        <v>0.578149</v>
       </c>
       <c r="D121" t="n">
-        <v>0.590657</v>
+        <v>0.584499</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.595514</v>
+        <v>0.614951</v>
       </c>
       <c r="C122" t="n">
-        <v>0.575056</v>
+        <v>0.602878</v>
       </c>
       <c r="D122" t="n">
-        <v>0.594487</v>
+        <v>0.618314</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.603927</v>
+        <v>0.673785</v>
       </c>
       <c r="C123" t="n">
-        <v>0.697142</v>
+        <v>0.729913</v>
       </c>
       <c r="D123" t="n">
-        <v>0.694796</v>
+        <v>0.731387</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.7753679999999999</v>
+        <v>0.793789</v>
       </c>
       <c r="C124" t="n">
-        <v>0.706408</v>
+        <v>0.70673</v>
       </c>
       <c r="D124" t="n">
-        <v>0.71351</v>
+        <v>0.717751</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.760405</v>
+        <v>0.819573</v>
       </c>
       <c r="C125" t="n">
-        <v>0.6932120000000001</v>
+        <v>0.710697</v>
       </c>
       <c r="D125" t="n">
-        <v>0.691129</v>
+        <v>0.741752</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.780037</v>
+        <v>0.786682</v>
       </c>
       <c r="C126" t="n">
-        <v>0.697049</v>
+        <v>0.729379</v>
       </c>
       <c r="D126" t="n">
-        <v>0.704139</v>
+        <v>0.718979</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.774235</v>
+        <v>0.816338</v>
       </c>
       <c r="C127" t="n">
-        <v>0.706722</v>
+        <v>0.722361</v>
       </c>
       <c r="D127" t="n">
-        <v>0.71534</v>
+        <v>0.744008</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.749647</v>
+        <v>0.834649</v>
       </c>
       <c r="C128" t="n">
-        <v>0.6961540000000001</v>
+        <v>0.7027949999999999</v>
       </c>
       <c r="D128" t="n">
-        <v>0.7015169999999999</v>
+        <v>0.711283</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.75708</v>
+        <v>0.896794</v>
       </c>
       <c r="C129" t="n">
-        <v>0.67887</v>
+        <v>0.754531</v>
       </c>
       <c r="D129" t="n">
-        <v>0.699601</v>
+        <v>0.7566929999999999</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.769414</v>
+        <v>0.812411</v>
       </c>
       <c r="C130" t="n">
-        <v>0.698394</v>
+        <v>0.700198</v>
       </c>
       <c r="D130" t="n">
-        <v>0.703075</v>
+        <v>0.714568</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.757846</v>
+        <v>0.809469</v>
       </c>
       <c r="C131" t="n">
-        <v>0.691146</v>
+        <v>0.709948</v>
       </c>
       <c r="D131" t="n">
-        <v>0.701832</v>
+        <v>0.725093</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.767717</v>
+        <v>0.775629</v>
       </c>
       <c r="C132" t="n">
-        <v>0.702007</v>
+        <v>0.722873</v>
       </c>
       <c r="D132" t="n">
-        <v>0.700117</v>
+        <v>0.725807</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.762433</v>
+        <v>0.806817</v>
       </c>
       <c r="C133" t="n">
-        <v>0.754441</v>
+        <v>0.778533</v>
       </c>
       <c r="D133" t="n">
-        <v>0.804812</v>
+        <v>0.719014</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.762977</v>
+        <v>0.807474</v>
       </c>
       <c r="C134" t="n">
-        <v>0.701983</v>
+        <v>0.723167</v>
       </c>
       <c r="D134" t="n">
-        <v>0.710431</v>
+        <v>0.731826</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.786516</v>
+        <v>0.800334</v>
       </c>
       <c r="C135" t="n">
-        <v>0.70974</v>
+        <v>0.736499</v>
       </c>
       <c r="D135" t="n">
-        <v>0.8315940000000001</v>
+        <v>0.730409</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.773675</v>
+        <v>0.8347830000000001</v>
       </c>
       <c r="C136" t="n">
-        <v>0.725722</v>
+        <v>0.749039</v>
       </c>
       <c r="D136" t="n">
-        <v>0.726199</v>
+        <v>0.735978</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.790228</v>
+        <v>0.81843</v>
       </c>
       <c r="C137" t="n">
-        <v>0.8746080000000001</v>
+        <v>0.931078</v>
       </c>
       <c r="D137" t="n">
-        <v>0.878601</v>
+        <v>0.934221</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.997454</v>
+        <v>1.13029</v>
       </c>
       <c r="C138" t="n">
-        <v>0.895172</v>
+        <v>0.945805</v>
       </c>
       <c r="D138" t="n">
-        <v>0.907358</v>
+        <v>0.969654</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.07832</v>
+        <v>1.11559</v>
       </c>
       <c r="C139" t="n">
-        <v>0.88761</v>
+        <v>0.960097</v>
       </c>
       <c r="D139" t="n">
-        <v>0.990108</v>
+        <v>0.966952</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.08446</v>
+        <v>1.08864</v>
       </c>
       <c r="C140" t="n">
-        <v>0.953083</v>
+        <v>0.957359</v>
       </c>
       <c r="D140" t="n">
-        <v>0.891419</v>
+        <v>0.9815469999999999</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.01071</v>
+        <v>1.12069</v>
       </c>
       <c r="C141" t="n">
-        <v>0.898782</v>
+        <v>1.02417</v>
       </c>
       <c r="D141" t="n">
-        <v>0.889354</v>
+        <v>0.985168</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.0186</v>
+        <v>1.10708</v>
       </c>
       <c r="C142" t="n">
-        <v>0.881413</v>
+        <v>0.98727</v>
       </c>
       <c r="D142" t="n">
-        <v>0.9527330000000001</v>
+        <v>1.01467</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.00354</v>
+        <v>1.13535</v>
       </c>
       <c r="C143" t="n">
-        <v>0.896971</v>
+        <v>0.982322</v>
       </c>
       <c r="D143" t="n">
-        <v>0.904543</v>
+        <v>0.9910679999999999</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0694191</v>
+        <v>0.0667179</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0617486</v>
+        <v>0.0604128</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0636008</v>
+        <v>0.06606910000000001</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.06899329999999999</v>
+        <v>0.0684757</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0619185</v>
+        <v>0.0624351</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0702931</v>
+        <v>0.0681629</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.07073459999999999</v>
+        <v>0.0724952</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0622686</v>
+        <v>0.0634388</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0637341</v>
+        <v>0.0697704</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0670786</v>
+        <v>0.0694842</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0639382</v>
+        <v>0.0622601</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06468500000000001</v>
+        <v>0.06657009999999999</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0687466</v>
+        <v>0.0695114</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06277439999999999</v>
+        <v>0.06360250000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.067757</v>
+        <v>0.066306</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0711635</v>
+        <v>0.0683739</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0687807</v>
+        <v>0.0693598</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0715932</v>
+        <v>0.0694974</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0692895</v>
+        <v>0.0696701</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0734987</v>
+        <v>0.0733077</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0790305</v>
+        <v>0.0741335</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0695817</v>
+        <v>0.06982919999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0640337</v>
+        <v>0.064328</v>
       </c>
       <c r="D9" t="n">
-        <v>0.07080690000000001</v>
+        <v>0.06750879999999999</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0783258</v>
+        <v>0.07520250000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0639416</v>
+        <v>0.066196</v>
       </c>
       <c r="D10" t="n">
-        <v>0.06405909999999999</v>
+        <v>0.06399820000000001</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0752452</v>
+        <v>0.0734547</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0617137</v>
+        <v>0.06381100000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0657126</v>
+        <v>0.0646021</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.07719479999999999</v>
+        <v>0.0770893</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0684519</v>
+        <v>0.0647403</v>
       </c>
       <c r="D12" t="n">
-        <v>0.06593839999999999</v>
+        <v>0.06700689999999999</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.07492740000000001</v>
+        <v>0.0797937</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0666612</v>
+        <v>0.0623605</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0700938</v>
+        <v>0.0667968</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0754653</v>
+        <v>0.07779129999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06417970000000001</v>
+        <v>0.06520720000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0680418</v>
+        <v>0.0674704</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0758345</v>
+        <v>0.0756508</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0642645</v>
+        <v>0.0648006</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0654594</v>
+        <v>0.0673359</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0764445</v>
+        <v>0.075354</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0633206</v>
+        <v>0.06542389999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0692295</v>
+        <v>0.0665319</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0779888</v>
+        <v>0.0743757</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0634793</v>
+        <v>0.06536690000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0694642</v>
+        <v>0.06531480000000001</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0808939</v>
+        <v>0.0762495</v>
       </c>
       <c r="C18" t="n">
-        <v>0.06984899999999999</v>
+        <v>0.06390079999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>0.06842529999999999</v>
+        <v>0.0691017</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0765706</v>
+        <v>0.075811</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0674548</v>
+        <v>0.067637</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0701546</v>
+        <v>0.0692257</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0794014</v>
+        <v>0.08029650000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0693126</v>
+        <v>0.07109890000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.07220500000000001</v>
+        <v>0.0719954</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07683520000000001</v>
+        <v>0.079289</v>
       </c>
       <c r="C21" t="n">
-        <v>0.07341590000000001</v>
+        <v>0.07313840000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.07702299999999999</v>
+        <v>0.0738506</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0792196</v>
+        <v>0.0808663</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0750417</v>
+        <v>0.0770053</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0793497</v>
+        <v>0.076861</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0841044</v>
+        <v>0.07983369999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0677789</v>
+        <v>0.06770569999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0696103</v>
+        <v>0.0746356</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0882337</v>
+        <v>0.0842793</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0680051</v>
+        <v>0.0680243</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0702306</v>
+        <v>0.0690976</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0903373</v>
+        <v>0.0874925</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0686913</v>
+        <v>0.0698961</v>
       </c>
       <c r="D25" t="n">
-        <v>0.07032670000000001</v>
+        <v>0.0741779</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0839218</v>
+        <v>0.08252139999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0698112</v>
+        <v>0.070671</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0721861</v>
+        <v>0.07256659999999999</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0863882</v>
+        <v>0.08217240000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0684338</v>
+        <v>0.070988</v>
       </c>
       <c r="D27" t="n">
-        <v>0.07439519999999999</v>
+        <v>0.0711676</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0882592</v>
+        <v>0.0827528</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0679382</v>
+        <v>0.0696901</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0698698</v>
+        <v>0.0718596</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0836601</v>
+        <v>0.0881084</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0697668</v>
+        <v>0.0688402</v>
       </c>
       <c r="D29" t="n">
-        <v>0.07238260000000001</v>
+        <v>0.07458239999999999</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0852059</v>
+        <v>0.0862652</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0745006</v>
+        <v>0.0712493</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0751034</v>
+        <v>0.0718395</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.08548509999999999</v>
+        <v>0.0852343</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0711613</v>
+        <v>0.07372090000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0734798</v>
+        <v>0.0739702</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.08398899999999999</v>
+        <v>0.0843935</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0733828</v>
+        <v>0.0745977</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0766283</v>
+        <v>0.07293529999999999</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0829786</v>
+        <v>0.0814671</v>
       </c>
       <c r="C33" t="n">
-        <v>0.071381</v>
+        <v>0.0751525</v>
       </c>
       <c r="D33" t="n">
-        <v>0.07598240000000001</v>
+        <v>0.07433579999999999</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.08709649999999999</v>
+        <v>0.0841508</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0783803</v>
+        <v>0.0745229</v>
       </c>
       <c r="D34" t="n">
-        <v>0.07609779999999999</v>
+        <v>0.0759292</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0865988</v>
+        <v>0.0858597</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0772312</v>
+        <v>0.0780063</v>
       </c>
       <c r="D35" t="n">
-        <v>0.07709770000000001</v>
+        <v>0.08216179999999999</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0861001</v>
+        <v>0.08661720000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0826812</v>
+        <v>0.0833672</v>
       </c>
       <c r="D36" t="n">
-        <v>0.08536009999999999</v>
+        <v>0.0860788</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0926464</v>
+        <v>0.0869904</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0769821</v>
+        <v>0.07523879999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0829609</v>
+        <v>0.0818144</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.101545</v>
+        <v>0.103876</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0774294</v>
+        <v>0.0804195</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0810891</v>
+        <v>0.08414580000000001</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.108401</v>
+        <v>0.109285</v>
       </c>
       <c r="C39" t="n">
-        <v>0.07802190000000001</v>
+        <v>0.07625410000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0794576</v>
+        <v>0.08389480000000001</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.105827</v>
+        <v>0.109794</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0772504</v>
+        <v>0.085121</v>
       </c>
       <c r="D40" t="n">
-        <v>0.07853880000000001</v>
+        <v>0.0892423</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.10675</v>
+        <v>0.105745</v>
       </c>
       <c r="C41" t="n">
-        <v>0.08047989999999999</v>
+        <v>0.0788418</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0805834</v>
+        <v>0.0892188</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.10907</v>
+        <v>0.108018</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0796313</v>
+        <v>0.0816495</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0803025</v>
+        <v>0.0891232</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.102403</v>
+        <v>0.106023</v>
       </c>
       <c r="C43" t="n">
-        <v>0.08231280000000001</v>
+        <v>0.080678</v>
       </c>
       <c r="D43" t="n">
-        <v>0.08332630000000001</v>
+        <v>0.0923491</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.105269</v>
+        <v>0.10517</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0802331</v>
+        <v>0.0779859</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0802583</v>
+        <v>0.0847585</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.102354</v>
+        <v>0.104848</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0796558</v>
+        <v>0.0798923</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0801693</v>
+        <v>0.0843922</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.106497</v>
+        <v>0.107044</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0786124</v>
+        <v>0.07782840000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0864731</v>
+        <v>0.08814760000000001</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.106482</v>
+        <v>0.105221</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0831158</v>
+        <v>0.083304</v>
       </c>
       <c r="D47" t="n">
-        <v>0.084591</v>
+        <v>0.0888618</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.105749</v>
+        <v>0.106348</v>
       </c>
       <c r="C48" t="n">
-        <v>0.083597</v>
+        <v>0.0852541</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0856041</v>
+        <v>0.08913260000000001</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.107829</v>
+        <v>0.107003</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0843619</v>
+        <v>0.08760519999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0895726</v>
+        <v>0.0996628</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.107855</v>
+        <v>0.108243</v>
       </c>
       <c r="C50" t="n">
-        <v>0.091026</v>
+        <v>0.0904715</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0965235</v>
+        <v>0.0952947</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.111047</v>
+        <v>0.109017</v>
       </c>
       <c r="C51" t="n">
-        <v>0.168641</v>
+        <v>0.181047</v>
       </c>
       <c r="D51" t="n">
-        <v>0.169185</v>
+        <v>0.183319</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.116303</v>
+        <v>0.113462</v>
       </c>
       <c r="C52" t="n">
-        <v>0.168576</v>
+        <v>0.178686</v>
       </c>
       <c r="D52" t="n">
-        <v>0.168788</v>
+        <v>0.178694</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.197021</v>
+        <v>0.195893</v>
       </c>
       <c r="C53" t="n">
-        <v>0.166546</v>
+        <v>0.180527</v>
       </c>
       <c r="D53" t="n">
-        <v>0.163634</v>
+        <v>0.186283</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.192927</v>
+        <v>0.201087</v>
       </c>
       <c r="C54" t="n">
-        <v>0.169454</v>
+        <v>0.178518</v>
       </c>
       <c r="D54" t="n">
-        <v>0.169103</v>
+        <v>0.189227</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.201852</v>
+        <v>0.196014</v>
       </c>
       <c r="C55" t="n">
-        <v>0.173239</v>
+        <v>0.184542</v>
       </c>
       <c r="D55" t="n">
-        <v>0.172922</v>
+        <v>0.187214</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.196251</v>
+        <v>0.197118</v>
       </c>
       <c r="C56" t="n">
-        <v>0.173723</v>
+        <v>0.179964</v>
       </c>
       <c r="D56" t="n">
-        <v>0.178487</v>
+        <v>0.196271</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.208592</v>
+        <v>0.196341</v>
       </c>
       <c r="C57" t="n">
-        <v>0.173016</v>
+        <v>0.190836</v>
       </c>
       <c r="D57" t="n">
-        <v>0.174454</v>
+        <v>0.189761</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.209803</v>
+        <v>0.202326</v>
       </c>
       <c r="C58" t="n">
-        <v>0.173767</v>
+        <v>0.187284</v>
       </c>
       <c r="D58" t="n">
-        <v>0.186062</v>
+        <v>0.191854</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.205061</v>
+        <v>0.207364</v>
       </c>
       <c r="C59" t="n">
-        <v>0.176818</v>
+        <v>0.197209</v>
       </c>
       <c r="D59" t="n">
-        <v>0.17503</v>
+        <v>0.194123</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.202493</v>
+        <v>0.202374</v>
       </c>
       <c r="C60" t="n">
-        <v>0.173164</v>
+        <v>0.193628</v>
       </c>
       <c r="D60" t="n">
-        <v>0.179399</v>
+        <v>0.196287</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.204547</v>
+        <v>0.200863</v>
       </c>
       <c r="C61" t="n">
-        <v>0.17113</v>
+        <v>0.191286</v>
       </c>
       <c r="D61" t="n">
-        <v>0.180585</v>
+        <v>0.201128</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.207864</v>
+        <v>0.20273</v>
       </c>
       <c r="C62" t="n">
-        <v>0.177158</v>
+        <v>0.194733</v>
       </c>
       <c r="D62" t="n">
-        <v>0.183953</v>
+        <v>0.196872</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.202717</v>
+        <v>0.20237</v>
       </c>
       <c r="C63" t="n">
-        <v>0.18025</v>
+        <v>0.196146</v>
       </c>
       <c r="D63" t="n">
-        <v>0.188348</v>
+        <v>0.204967</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.202648</v>
+        <v>0.218767</v>
       </c>
       <c r="C64" t="n">
-        <v>0.186723</v>
+        <v>0.197945</v>
       </c>
       <c r="D64" t="n">
-        <v>0.192081</v>
+        <v>0.196985</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.221915</v>
+        <v>0.211022</v>
       </c>
       <c r="C65" t="n">
-        <v>0.188517</v>
+        <v>0.205981</v>
       </c>
       <c r="D65" t="n">
-        <v>0.207495</v>
+        <v>0.212675</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.219755</v>
+        <v>0.21287</v>
       </c>
       <c r="C66" t="n">
-        <v>0.271007</v>
+        <v>0.287405</v>
       </c>
       <c r="D66" t="n">
-        <v>0.262594</v>
+        <v>0.293482</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.307012</v>
+        <v>0.305963</v>
       </c>
       <c r="C67" t="n">
-        <v>0.266468</v>
+        <v>0.295002</v>
       </c>
       <c r="D67" t="n">
-        <v>0.283776</v>
+        <v>0.28281</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.29572</v>
+        <v>0.311301</v>
       </c>
       <c r="C68" t="n">
-        <v>0.266746</v>
+        <v>0.302184</v>
       </c>
       <c r="D68" t="n">
-        <v>0.260913</v>
+        <v>0.294836</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.306061</v>
+        <v>0.315712</v>
       </c>
       <c r="C69" t="n">
-        <v>0.266283</v>
+        <v>0.298578</v>
       </c>
       <c r="D69" t="n">
-        <v>0.262308</v>
+        <v>0.30829</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.310854</v>
+        <v>0.311027</v>
       </c>
       <c r="C70" t="n">
-        <v>0.268975</v>
+        <v>0.300227</v>
       </c>
       <c r="D70" t="n">
-        <v>0.273897</v>
+        <v>0.309592</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.313828</v>
+        <v>0.303436</v>
       </c>
       <c r="C71" t="n">
-        <v>0.268477</v>
+        <v>0.309694</v>
       </c>
       <c r="D71" t="n">
-        <v>0.272145</v>
+        <v>0.301051</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.312709</v>
+        <v>0.30229</v>
       </c>
       <c r="C72" t="n">
-        <v>0.277182</v>
+        <v>0.312993</v>
       </c>
       <c r="D72" t="n">
-        <v>0.270599</v>
+        <v>0.312911</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.302899</v>
+        <v>0.30746</v>
       </c>
       <c r="C73" t="n">
-        <v>0.272775</v>
+        <v>0.30477</v>
       </c>
       <c r="D73" t="n">
-        <v>0.271991</v>
+        <v>0.322378</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.302698</v>
+        <v>0.315206</v>
       </c>
       <c r="C74" t="n">
-        <v>0.274267</v>
+        <v>0.314979</v>
       </c>
       <c r="D74" t="n">
-        <v>0.284146</v>
+        <v>0.312145</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.308118</v>
+        <v>0.3206</v>
       </c>
       <c r="C75" t="n">
-        <v>0.283316</v>
+        <v>0.310972</v>
       </c>
       <c r="D75" t="n">
-        <v>0.288238</v>
+        <v>0.306828</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.320867</v>
+        <v>0.320058</v>
       </c>
       <c r="C76" t="n">
-        <v>0.287811</v>
+        <v>0.315827</v>
       </c>
       <c r="D76" t="n">
-        <v>0.274222</v>
+        <v>0.311191</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.317638</v>
+        <v>0.334845</v>
       </c>
       <c r="C77" t="n">
-        <v>0.290787</v>
+        <v>0.324453</v>
       </c>
       <c r="D77" t="n">
-        <v>0.287011</v>
+        <v>0.320191</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.32499</v>
+        <v>0.325861</v>
       </c>
       <c r="C78" t="n">
-        <v>0.287138</v>
+        <v>0.313687</v>
       </c>
       <c r="D78" t="n">
-        <v>0.300275</v>
+        <v>0.328897</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.321685</v>
+        <v>0.328466</v>
       </c>
       <c r="C79" t="n">
-        <v>0.296986</v>
+        <v>0.333264</v>
       </c>
       <c r="D79" t="n">
-        <v>0.30316</v>
+        <v>0.329634</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.326383</v>
+        <v>0.327276</v>
       </c>
       <c r="C80" t="n">
-        <v>0.379392</v>
+        <v>0.435354</v>
       </c>
       <c r="D80" t="n">
-        <v>0.376855</v>
+        <v>0.431636</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.412543</v>
+        <v>0.419099</v>
       </c>
       <c r="C81" t="n">
-        <v>0.380904</v>
+        <v>0.437643</v>
       </c>
       <c r="D81" t="n">
-        <v>0.368126</v>
+        <v>0.432343</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.39093</v>
+        <v>0.39319</v>
       </c>
       <c r="C82" t="n">
-        <v>0.369504</v>
+        <v>0.431684</v>
       </c>
       <c r="D82" t="n">
-        <v>0.374056</v>
+        <v>0.448472</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.412613</v>
+        <v>0.397222</v>
       </c>
       <c r="C83" t="n">
-        <v>0.37913</v>
+        <v>0.437667</v>
       </c>
       <c r="D83" t="n">
-        <v>0.381568</v>
+        <v>0.456147</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.392537</v>
+        <v>0.401443</v>
       </c>
       <c r="C84" t="n">
-        <v>0.379637</v>
+        <v>0.445694</v>
       </c>
       <c r="D84" t="n">
-        <v>0.374472</v>
+        <v>0.435054</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.396598</v>
+        <v>0.389383</v>
       </c>
       <c r="C85" t="n">
-        <v>0.376096</v>
+        <v>0.448452</v>
       </c>
       <c r="D85" t="n">
-        <v>0.388984</v>
+        <v>0.449826</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.392184</v>
+        <v>0.411707</v>
       </c>
       <c r="C86" t="n">
-        <v>0.376647</v>
+        <v>0.444241</v>
       </c>
       <c r="D86" t="n">
-        <v>0.390875</v>
+        <v>0.455928</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.410216</v>
+        <v>0.388218</v>
       </c>
       <c r="C87" t="n">
-        <v>0.38455</v>
+        <v>0.451889</v>
       </c>
       <c r="D87" t="n">
-        <v>0.382848</v>
+        <v>0.447627</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.395913</v>
+        <v>0.388819</v>
       </c>
       <c r="C88" t="n">
-        <v>0.378117</v>
+        <v>0.438264</v>
       </c>
       <c r="D88" t="n">
-        <v>0.387229</v>
+        <v>0.44788</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.385437</v>
+        <v>0.391899</v>
       </c>
       <c r="C89" t="n">
-        <v>0.380555</v>
+        <v>0.459343</v>
       </c>
       <c r="D89" t="n">
-        <v>0.38052</v>
+        <v>0.44732</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.397859</v>
+        <v>0.395697</v>
       </c>
       <c r="C90" t="n">
-        <v>0.373203</v>
+        <v>0.464308</v>
       </c>
       <c r="D90" t="n">
-        <v>0.376507</v>
+        <v>0.458581</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.402875</v>
+        <v>0.41887</v>
       </c>
       <c r="C91" t="n">
-        <v>0.390769</v>
+        <v>0.448656</v>
       </c>
       <c r="D91" t="n">
-        <v>0.388821</v>
+        <v>0.455684</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.408797</v>
+        <v>0.437614</v>
       </c>
       <c r="C92" t="n">
-        <v>0.391396</v>
+        <v>0.433375</v>
       </c>
       <c r="D92" t="n">
-        <v>0.380814</v>
+        <v>0.441709</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.404643</v>
+        <v>0.400086</v>
       </c>
       <c r="C93" t="n">
-        <v>0.388722</v>
+        <v>0.456973</v>
       </c>
       <c r="D93" t="n">
-        <v>0.400395</v>
+        <v>0.475298</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.411138</v>
+        <v>0.416705</v>
       </c>
       <c r="C94" t="n">
-        <v>0.462209</v>
+        <v>0.5614130000000001</v>
       </c>
       <c r="D94" t="n">
-        <v>0.460914</v>
+        <v>0.577493</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.479496</v>
+        <v>0.493571</v>
       </c>
       <c r="C95" t="n">
-        <v>0.474399</v>
+        <v>0.568759</v>
       </c>
       <c r="D95" t="n">
-        <v>0.477643</v>
+        <v>0.5782620000000001</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.517329</v>
+        <v>0.472972</v>
       </c>
       <c r="C96" t="n">
-        <v>0.490297</v>
+        <v>0.5773</v>
       </c>
       <c r="D96" t="n">
-        <v>0.482742</v>
+        <v>0.586219</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5109089999999999</v>
+        <v>0.485448</v>
       </c>
       <c r="C97" t="n">
-        <v>0.489129</v>
+        <v>0.574983</v>
       </c>
       <c r="D97" t="n">
-        <v>0.47148</v>
+        <v>0.582057</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.504403</v>
+        <v>0.491441</v>
       </c>
       <c r="C98" t="n">
-        <v>0.480376</v>
+        <v>0.57369</v>
       </c>
       <c r="D98" t="n">
-        <v>0.483509</v>
+        <v>0.583228</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.485408</v>
+        <v>0.5168739999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>0.482588</v>
+        <v>0.576334</v>
       </c>
       <c r="D99" t="n">
-        <v>0.471786</v>
+        <v>0.570323</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.509765</v>
+        <v>0.509588</v>
       </c>
       <c r="C100" t="n">
-        <v>0.5014150000000001</v>
+        <v>0.581384</v>
       </c>
       <c r="D100" t="n">
-        <v>0.478112</v>
+        <v>0.585029</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.497993</v>
+        <v>0.487979</v>
       </c>
       <c r="C101" t="n">
-        <v>0.47637</v>
+        <v>0.584319</v>
       </c>
       <c r="D101" t="n">
-        <v>0.465787</v>
+        <v>0.592377</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.479652</v>
+        <v>0.484085</v>
       </c>
       <c r="C102" t="n">
-        <v>0.500918</v>
+        <v>0.597564</v>
       </c>
       <c r="D102" t="n">
-        <v>0.491487</v>
+        <v>0.590473</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.5001910000000001</v>
+        <v>0.476435</v>
       </c>
       <c r="C103" t="n">
-        <v>0.49338</v>
+        <v>0.572036</v>
       </c>
       <c r="D103" t="n">
-        <v>0.472966</v>
+        <v>0.596409</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.481704</v>
+        <v>0.500336</v>
       </c>
       <c r="C104" t="n">
-        <v>0.491835</v>
+        <v>0.616058</v>
       </c>
       <c r="D104" t="n">
-        <v>0.489751</v>
+        <v>0.588679</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.498298</v>
+        <v>0.508875</v>
       </c>
       <c r="C105" t="n">
-        <v>0.488602</v>
+        <v>0.594634</v>
       </c>
       <c r="D105" t="n">
-        <v>0.493541</v>
+        <v>0.603594</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.495646</v>
+        <v>0.508049</v>
       </c>
       <c r="C106" t="n">
-        <v>0.486491</v>
+        <v>0.5916130000000001</v>
       </c>
       <c r="D106" t="n">
-        <v>0.488992</v>
+        <v>0.594491</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.485722</v>
+        <v>0.470329</v>
       </c>
       <c r="C107" t="n">
-        <v>0.489184</v>
+        <v>0.609544</v>
       </c>
       <c r="D107" t="n">
-        <v>0.512566</v>
+        <v>0.6045779999999999</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.491795</v>
+        <v>0.524628</v>
       </c>
       <c r="C108" t="n">
-        <v>0.56874</v>
+        <v>0.739869</v>
       </c>
       <c r="D108" t="n">
-        <v>0.578503</v>
+        <v>0.705287</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.505393</v>
+        <v>0.516051</v>
       </c>
       <c r="C109" t="n">
-        <v>0.573197</v>
+        <v>0.752761</v>
       </c>
       <c r="D109" t="n">
-        <v>0.568753</v>
+        <v>0.7583299999999999</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.636331</v>
+        <v>0.663965</v>
       </c>
       <c r="C110" t="n">
-        <v>0.567866</v>
+        <v>0.732363</v>
       </c>
       <c r="D110" t="n">
-        <v>0.589058</v>
+        <v>0.772289</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.599403</v>
+        <v>0.671883</v>
       </c>
       <c r="C111" t="n">
-        <v>0.566876</v>
+        <v>0.741515</v>
       </c>
       <c r="D111" t="n">
-        <v>0.569838</v>
+        <v>0.701195</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.644747</v>
+        <v>0.6497810000000001</v>
       </c>
       <c r="C112" t="n">
-        <v>0.577879</v>
+        <v>0.766502</v>
       </c>
       <c r="D112" t="n">
-        <v>0.586427</v>
+        <v>0.758373</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.612522</v>
+        <v>0.65882</v>
       </c>
       <c r="C113" t="n">
-        <v>0.578663</v>
+        <v>0.73789</v>
       </c>
       <c r="D113" t="n">
-        <v>0.575518</v>
+        <v>0.742187</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.609235</v>
+        <v>0.621597</v>
       </c>
       <c r="C114" t="n">
-        <v>0.553026</v>
+        <v>0.712372</v>
       </c>
       <c r="D114" t="n">
-        <v>0.602063</v>
+        <v>0.73694</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.603356</v>
+        <v>0.606423</v>
       </c>
       <c r="C115" t="n">
-        <v>0.564735</v>
+        <v>0.755341</v>
       </c>
       <c r="D115" t="n">
-        <v>0.577729</v>
+        <v>0.777674</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.602549</v>
+        <v>0.649756</v>
       </c>
       <c r="C116" t="n">
-        <v>0.58457</v>
+        <v>0.760332</v>
       </c>
       <c r="D116" t="n">
-        <v>0.593455</v>
+        <v>0.761871</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.617056</v>
+        <v>0.610028</v>
       </c>
       <c r="C117" t="n">
-        <v>0.569034</v>
+        <v>0.743053</v>
       </c>
       <c r="D117" t="n">
-        <v>0.58889</v>
+        <v>0.7681789999999999</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.631084</v>
+        <v>0.635517</v>
       </c>
       <c r="C118" t="n">
-        <v>0.581494</v>
+        <v>0.714274</v>
       </c>
       <c r="D118" t="n">
-        <v>0.5923079999999999</v>
+        <v>0.720997</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.640537</v>
+        <v>0.604156</v>
       </c>
       <c r="C119" t="n">
-        <v>0.627705</v>
+        <v>0.75518</v>
       </c>
       <c r="D119" t="n">
-        <v>0.602143</v>
+        <v>0.76004</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.622403</v>
+        <v>0.680049</v>
       </c>
       <c r="C120" t="n">
-        <v>0.580465</v>
+        <v>0.752321</v>
       </c>
       <c r="D120" t="n">
-        <v>0.601085</v>
+        <v>0.790254</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.619645</v>
+        <v>0.681142</v>
       </c>
       <c r="C121" t="n">
-        <v>0.578149</v>
+        <v>0.737947</v>
       </c>
       <c r="D121" t="n">
-        <v>0.584499</v>
+        <v>0.7795530000000001</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.614951</v>
+        <v>0.66271</v>
       </c>
       <c r="C122" t="n">
-        <v>0.602878</v>
+        <v>0.758484</v>
       </c>
       <c r="D122" t="n">
-        <v>0.618314</v>
+        <v>0.7964290000000001</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.673785</v>
+        <v>0.675519</v>
       </c>
       <c r="C123" t="n">
-        <v>0.729913</v>
+        <v>0.984708</v>
       </c>
       <c r="D123" t="n">
-        <v>0.731387</v>
+        <v>0.989044</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.793789</v>
+        <v>0.858271</v>
       </c>
       <c r="C124" t="n">
-        <v>0.70673</v>
+        <v>0.977282</v>
       </c>
       <c r="D124" t="n">
-        <v>0.717751</v>
+        <v>1.02947</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.819573</v>
+        <v>0.818817</v>
       </c>
       <c r="C125" t="n">
-        <v>0.710697</v>
+        <v>0.9306</v>
       </c>
       <c r="D125" t="n">
-        <v>0.741752</v>
+        <v>1.00532</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.786682</v>
+        <v>0.895562</v>
       </c>
       <c r="C126" t="n">
-        <v>0.729379</v>
+        <v>0.98864</v>
       </c>
       <c r="D126" t="n">
-        <v>0.718979</v>
+        <v>1.0047</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.816338</v>
+        <v>0.812169</v>
       </c>
       <c r="C127" t="n">
-        <v>0.722361</v>
+        <v>0.899433</v>
       </c>
       <c r="D127" t="n">
-        <v>0.744008</v>
+        <v>0.922004</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.834649</v>
+        <v>0.914323</v>
       </c>
       <c r="C128" t="n">
-        <v>0.7027949999999999</v>
+        <v>0.902984</v>
       </c>
       <c r="D128" t="n">
-        <v>0.711283</v>
+        <v>0.959974</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.896794</v>
+        <v>0.887881</v>
       </c>
       <c r="C129" t="n">
-        <v>0.754531</v>
+        <v>0.914643</v>
       </c>
       <c r="D129" t="n">
-        <v>0.7566929999999999</v>
+        <v>0.92431</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.812411</v>
+        <v>0.893689</v>
       </c>
       <c r="C130" t="n">
-        <v>0.700198</v>
+        <v>0.998872</v>
       </c>
       <c r="D130" t="n">
-        <v>0.714568</v>
+        <v>0.972506</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.809469</v>
+        <v>0.910407</v>
       </c>
       <c r="C131" t="n">
-        <v>0.709948</v>
+        <v>0.915145</v>
       </c>
       <c r="D131" t="n">
-        <v>0.725093</v>
+        <v>0.92171</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.775629</v>
+        <v>0.903132</v>
       </c>
       <c r="C132" t="n">
-        <v>0.722873</v>
+        <v>0.905003</v>
       </c>
       <c r="D132" t="n">
-        <v>0.725807</v>
+        <v>0.93415</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.806817</v>
+        <v>0.911983</v>
       </c>
       <c r="C133" t="n">
-        <v>0.778533</v>
+        <v>0.954366</v>
       </c>
       <c r="D133" t="n">
-        <v>0.719014</v>
+        <v>0.983822</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.807474</v>
+        <v>0.868385</v>
       </c>
       <c r="C134" t="n">
-        <v>0.723167</v>
+        <v>0.940627</v>
       </c>
       <c r="D134" t="n">
-        <v>0.731826</v>
+        <v>1.03755</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.800334</v>
+        <v>0.798894</v>
       </c>
       <c r="C135" t="n">
-        <v>0.736499</v>
+        <v>1.014</v>
       </c>
       <c r="D135" t="n">
-        <v>0.730409</v>
+        <v>0.939041</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.8347830000000001</v>
+        <v>0.804588</v>
       </c>
       <c r="C136" t="n">
-        <v>0.749039</v>
+        <v>1.04045</v>
       </c>
       <c r="D136" t="n">
-        <v>0.735978</v>
+        <v>1.04718</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.81843</v>
+        <v>0.912086</v>
       </c>
       <c r="C137" t="n">
-        <v>0.931078</v>
+        <v>1.24539</v>
       </c>
       <c r="D137" t="n">
-        <v>0.934221</v>
+        <v>1.25008</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.13029</v>
+        <v>1.14724</v>
       </c>
       <c r="C138" t="n">
-        <v>0.945805</v>
+        <v>1.18789</v>
       </c>
       <c r="D138" t="n">
-        <v>0.969654</v>
+        <v>1.19677</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.11559</v>
+        <v>1.08117</v>
       </c>
       <c r="C139" t="n">
-        <v>0.960097</v>
+        <v>1.26547</v>
       </c>
       <c r="D139" t="n">
-        <v>0.966952</v>
+        <v>1.28672</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.08864</v>
+        <v>1.16956</v>
       </c>
       <c r="C140" t="n">
-        <v>0.957359</v>
+        <v>1.20891</v>
       </c>
       <c r="D140" t="n">
-        <v>0.9815469999999999</v>
+        <v>1.22165</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.12069</v>
+        <v>1.14225</v>
       </c>
       <c r="C141" t="n">
-        <v>1.02417</v>
+        <v>1.3128</v>
       </c>
       <c r="D141" t="n">
-        <v>0.985168</v>
+        <v>1.28563</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.10708</v>
+        <v>1.17518</v>
       </c>
       <c r="C142" t="n">
-        <v>0.98727</v>
+        <v>1.24543</v>
       </c>
       <c r="D142" t="n">
-        <v>1.01467</v>
+        <v>1.27587</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.13535</v>
+        <v>1.13225</v>
       </c>
       <c r="C143" t="n">
-        <v>0.982322</v>
+        <v>1.21063</v>
       </c>
       <c r="D143" t="n">
-        <v>0.9910679999999999</v>
+        <v>1.24703</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0667179</v>
+        <v>0.0693516</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0604128</v>
+        <v>0.059957</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06606910000000001</v>
+        <v>0.0636661</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0684757</v>
+        <v>0.06855410000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0624351</v>
+        <v>0.0616551</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0681629</v>
+        <v>0.0665129</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0724952</v>
+        <v>0.0700621</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0634388</v>
+        <v>0.06670520000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0697704</v>
+        <v>0.06884560000000001</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0694842</v>
+        <v>0.0763542</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0622601</v>
+        <v>0.0655751</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06657009999999999</v>
+        <v>0.0672377</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0695114</v>
+        <v>0.0727271</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06360250000000001</v>
+        <v>0.0663889</v>
       </c>
       <c r="D6" t="n">
-        <v>0.066306</v>
+        <v>0.0686247</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0683739</v>
+        <v>0.0715103</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0693598</v>
+        <v>0.0709225</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0694974</v>
+        <v>0.07333919999999999</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0696701</v>
+        <v>0.075353</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0733077</v>
+        <v>0.0750475</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0741335</v>
+        <v>0.07877489999999999</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.06982919999999999</v>
+        <v>0.0691837</v>
       </c>
       <c r="C9" t="n">
-        <v>0.064328</v>
+        <v>0.0633181</v>
       </c>
       <c r="D9" t="n">
-        <v>0.06750879999999999</v>
+        <v>0.0643661</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.07520250000000001</v>
+        <v>0.076804</v>
       </c>
       <c r="C10" t="n">
-        <v>0.066196</v>
+        <v>0.0641472</v>
       </c>
       <c r="D10" t="n">
-        <v>0.06399820000000001</v>
+        <v>0.0679319</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0734547</v>
+        <v>0.0756315</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06381100000000001</v>
+        <v>0.06308229999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0646021</v>
+        <v>0.0641997</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0770893</v>
+        <v>0.0755656</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0647403</v>
+        <v>0.0632808</v>
       </c>
       <c r="D12" t="n">
-        <v>0.06700689999999999</v>
+        <v>0.066035</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0797937</v>
+        <v>0.0763234</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0623605</v>
+        <v>0.0668953</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0667968</v>
+        <v>0.06683169999999999</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.07779129999999999</v>
+        <v>0.07802829999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06520720000000001</v>
+        <v>0.06347120000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0674704</v>
+        <v>0.0659371</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0756508</v>
+        <v>0.07405440000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0648006</v>
+        <v>0.0643432</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0673359</v>
+        <v>0.0663958</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.075354</v>
+        <v>0.07558479999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06542389999999999</v>
+        <v>0.06759569999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0665319</v>
+        <v>0.07081949999999999</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0743757</v>
+        <v>0.076477</v>
       </c>
       <c r="C17" t="n">
-        <v>0.06536690000000001</v>
+        <v>0.0655768</v>
       </c>
       <c r="D17" t="n">
-        <v>0.06531480000000001</v>
+        <v>0.0681345</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0762495</v>
+        <v>0.0778099</v>
       </c>
       <c r="C18" t="n">
-        <v>0.06390079999999999</v>
+        <v>0.0669532</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0691017</v>
+        <v>0.0682035</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.075811</v>
+        <v>0.0753028</v>
       </c>
       <c r="C19" t="n">
-        <v>0.067637</v>
+        <v>0.0656939</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0692257</v>
+        <v>0.0733791</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.08029650000000001</v>
+        <v>0.0783942</v>
       </c>
       <c r="C20" t="n">
-        <v>0.07109890000000001</v>
+        <v>0.06828679999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0719954</v>
+        <v>0.07074320000000001</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.079289</v>
+        <v>0.0762299</v>
       </c>
       <c r="C21" t="n">
-        <v>0.07313840000000001</v>
+        <v>0.0769589</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0738506</v>
+        <v>0.0744317</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0808663</v>
+        <v>0.080955</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0770053</v>
+        <v>0.07875459999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>0.076861</v>
+        <v>0.0774162</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.07983369999999999</v>
+        <v>0.08000409999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>0.06770569999999999</v>
+        <v>0.0679139</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0746356</v>
+        <v>0.0713051</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0842793</v>
+        <v>0.08391029999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0680243</v>
+        <v>0.0712304</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0690976</v>
+        <v>0.0708551</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0874925</v>
+        <v>0.0853568</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0698961</v>
+        <v>0.06699339999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0741779</v>
+        <v>0.07082339999999999</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.08252139999999999</v>
+        <v>0.0826165</v>
       </c>
       <c r="C26" t="n">
-        <v>0.070671</v>
+        <v>0.069579</v>
       </c>
       <c r="D26" t="n">
-        <v>0.07256659999999999</v>
+        <v>0.0759365</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.08217240000000001</v>
+        <v>0.084802</v>
       </c>
       <c r="C27" t="n">
-        <v>0.070988</v>
+        <v>0.0738135</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0711676</v>
+        <v>0.0755406</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0827528</v>
+        <v>0.0830514</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0696901</v>
+        <v>0.0693638</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0718596</v>
+        <v>0.0704293</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0881084</v>
+        <v>0.0850957</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0688402</v>
+        <v>0.0691282</v>
       </c>
       <c r="D29" t="n">
-        <v>0.07458239999999999</v>
+        <v>0.0716934</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0862652</v>
+        <v>0.0829003</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0712493</v>
+        <v>0.0699515</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0718395</v>
+        <v>0.07287780000000001</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0852343</v>
+        <v>0.08438379999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.07372090000000001</v>
+        <v>0.0718285</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0739702</v>
+        <v>0.0759259</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0843935</v>
+        <v>0.0823343</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0745977</v>
+        <v>0.07077170000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>0.07293529999999999</v>
+        <v>0.0735359</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0814671</v>
+        <v>0.08293970000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0751525</v>
+        <v>0.07422719999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>0.07433579999999999</v>
+        <v>0.0752837</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0841508</v>
+        <v>0.0835871</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0745229</v>
+        <v>0.0747536</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0759292</v>
+        <v>0.0820086</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0858597</v>
+        <v>0.08624469999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0780063</v>
+        <v>0.07933900000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>0.08216179999999999</v>
+        <v>0.0815592</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.08661720000000001</v>
+        <v>0.0890956</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0833672</v>
+        <v>0.0798069</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0860788</v>
+        <v>0.0854433</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0869904</v>
+        <v>0.0907906</v>
       </c>
       <c r="C37" t="n">
-        <v>0.07523879999999999</v>
+        <v>0.07893699999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0818144</v>
+        <v>0.0854669</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.103876</v>
+        <v>0.10313</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0804195</v>
+        <v>0.0793967</v>
       </c>
       <c r="D38" t="n">
-        <v>0.08414580000000001</v>
+        <v>0.0833009</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.109285</v>
+        <v>0.106557</v>
       </c>
       <c r="C39" t="n">
-        <v>0.07625410000000001</v>
+        <v>0.0752324</v>
       </c>
       <c r="D39" t="n">
-        <v>0.08389480000000001</v>
+        <v>0.08520610000000001</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.109794</v>
+        <v>0.10461</v>
       </c>
       <c r="C40" t="n">
-        <v>0.085121</v>
+        <v>0.0798571</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0892423</v>
+        <v>0.0860306</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.105745</v>
+        <v>0.104007</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0788418</v>
+        <v>0.0774608</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0892188</v>
+        <v>0.0831789</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.108018</v>
+        <v>0.104595</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0816495</v>
+        <v>0.0758925</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0891232</v>
+        <v>0.0855081</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.106023</v>
+        <v>0.107439</v>
       </c>
       <c r="C43" t="n">
-        <v>0.080678</v>
+        <v>0.08039019999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0923491</v>
+        <v>0.0871403</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.10517</v>
+        <v>0.103963</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0779859</v>
+        <v>0.0804603</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0847585</v>
+        <v>0.089674</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.104848</v>
+        <v>0.108252</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0798923</v>
+        <v>0.0791443</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0843922</v>
+        <v>0.08677269999999999</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.107044</v>
+        <v>0.10797</v>
       </c>
       <c r="C46" t="n">
-        <v>0.07782840000000001</v>
+        <v>0.08201</v>
       </c>
       <c r="D46" t="n">
-        <v>0.08814760000000001</v>
+        <v>0.09274110000000001</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.105221</v>
+        <v>0.10785</v>
       </c>
       <c r="C47" t="n">
-        <v>0.083304</v>
+        <v>0.08341270000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0888618</v>
+        <v>0.0846948</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.106348</v>
+        <v>0.108991</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0852541</v>
+        <v>0.0834278</v>
       </c>
       <c r="D48" t="n">
-        <v>0.08913260000000001</v>
+        <v>0.0876474</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.107003</v>
+        <v>0.108337</v>
       </c>
       <c r="C49" t="n">
-        <v>0.08760519999999999</v>
+        <v>0.08465010000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0996628</v>
+        <v>0.09193460000000001</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.108243</v>
+        <v>0.10898</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0904715</v>
+        <v>0.0878903</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0952947</v>
+        <v>0.0976059</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.109017</v>
+        <v>0.110649</v>
       </c>
       <c r="C51" t="n">
-        <v>0.181047</v>
+        <v>0.167012</v>
       </c>
       <c r="D51" t="n">
-        <v>0.183319</v>
+        <v>0.173288</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.113462</v>
+        <v>0.113051</v>
       </c>
       <c r="C52" t="n">
-        <v>0.178686</v>
+        <v>0.16916</v>
       </c>
       <c r="D52" t="n">
-        <v>0.178694</v>
+        <v>0.169757</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.195893</v>
+        <v>0.215728</v>
       </c>
       <c r="C53" t="n">
-        <v>0.180527</v>
+        <v>0.173051</v>
       </c>
       <c r="D53" t="n">
-        <v>0.186283</v>
+        <v>0.16655</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.201087</v>
+        <v>0.206742</v>
       </c>
       <c r="C54" t="n">
-        <v>0.178518</v>
+        <v>0.172442</v>
       </c>
       <c r="D54" t="n">
-        <v>0.189227</v>
+        <v>0.171215</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.196014</v>
+        <v>0.208944</v>
       </c>
       <c r="C55" t="n">
-        <v>0.184542</v>
+        <v>0.172518</v>
       </c>
       <c r="D55" t="n">
-        <v>0.187214</v>
+        <v>0.175676</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.197118</v>
+        <v>0.207362</v>
       </c>
       <c r="C56" t="n">
-        <v>0.179964</v>
+        <v>0.174436</v>
       </c>
       <c r="D56" t="n">
-        <v>0.196271</v>
+        <v>0.177725</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.196341</v>
+        <v>0.204715</v>
       </c>
       <c r="C57" t="n">
-        <v>0.190836</v>
+        <v>0.177112</v>
       </c>
       <c r="D57" t="n">
-        <v>0.189761</v>
+        <v>0.170549</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.202326</v>
+        <v>0.196149</v>
       </c>
       <c r="C58" t="n">
-        <v>0.187284</v>
+        <v>0.173971</v>
       </c>
       <c r="D58" t="n">
-        <v>0.191854</v>
+        <v>0.168517</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.207364</v>
+        <v>0.202169</v>
       </c>
       <c r="C59" t="n">
-        <v>0.197209</v>
+        <v>0.176944</v>
       </c>
       <c r="D59" t="n">
-        <v>0.194123</v>
+        <v>0.169844</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.202374</v>
+        <v>0.204386</v>
       </c>
       <c r="C60" t="n">
-        <v>0.193628</v>
+        <v>0.170271</v>
       </c>
       <c r="D60" t="n">
-        <v>0.196287</v>
+        <v>0.183895</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.200863</v>
+        <v>0.200858</v>
       </c>
       <c r="C61" t="n">
-        <v>0.191286</v>
+        <v>0.182474</v>
       </c>
       <c r="D61" t="n">
-        <v>0.201128</v>
+        <v>0.180277</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.20273</v>
+        <v>0.21085</v>
       </c>
       <c r="C62" t="n">
-        <v>0.194733</v>
+        <v>0.186852</v>
       </c>
       <c r="D62" t="n">
-        <v>0.196872</v>
+        <v>0.181291</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.20237</v>
+        <v>0.207916</v>
       </c>
       <c r="C63" t="n">
-        <v>0.196146</v>
+        <v>0.183486</v>
       </c>
       <c r="D63" t="n">
-        <v>0.204967</v>
+        <v>0.180504</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.218767</v>
+        <v>0.22006</v>
       </c>
       <c r="C64" t="n">
-        <v>0.197945</v>
+        <v>0.190522</v>
       </c>
       <c r="D64" t="n">
-        <v>0.196985</v>
+        <v>0.186072</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.211022</v>
+        <v>0.209046</v>
       </c>
       <c r="C65" t="n">
-        <v>0.205981</v>
+        <v>0.191102</v>
       </c>
       <c r="D65" t="n">
-        <v>0.212675</v>
+        <v>0.191688</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.21287</v>
+        <v>0.21949</v>
       </c>
       <c r="C66" t="n">
-        <v>0.287405</v>
+        <v>0.269889</v>
       </c>
       <c r="D66" t="n">
-        <v>0.293482</v>
+        <v>0.281955</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.305963</v>
+        <v>0.300966</v>
       </c>
       <c r="C67" t="n">
-        <v>0.295002</v>
+        <v>0.266241</v>
       </c>
       <c r="D67" t="n">
-        <v>0.28281</v>
+        <v>0.26065</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.311301</v>
+        <v>0.311866</v>
       </c>
       <c r="C68" t="n">
-        <v>0.302184</v>
+        <v>0.271021</v>
       </c>
       <c r="D68" t="n">
-        <v>0.294836</v>
+        <v>0.268192</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.315712</v>
+        <v>0.296078</v>
       </c>
       <c r="C69" t="n">
-        <v>0.298578</v>
+        <v>0.272724</v>
       </c>
       <c r="D69" t="n">
-        <v>0.30829</v>
+        <v>0.270166</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.311027</v>
+        <v>0.306276</v>
       </c>
       <c r="C70" t="n">
-        <v>0.300227</v>
+        <v>0.27242</v>
       </c>
       <c r="D70" t="n">
-        <v>0.309592</v>
+        <v>0.27344</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.303436</v>
+        <v>0.301545</v>
       </c>
       <c r="C71" t="n">
-        <v>0.309694</v>
+        <v>0.281055</v>
       </c>
       <c r="D71" t="n">
-        <v>0.301051</v>
+        <v>0.275427</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.30229</v>
+        <v>0.312758</v>
       </c>
       <c r="C72" t="n">
-        <v>0.312993</v>
+        <v>0.276469</v>
       </c>
       <c r="D72" t="n">
-        <v>0.312911</v>
+        <v>0.285124</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.30746</v>
+        <v>0.312467</v>
       </c>
       <c r="C73" t="n">
-        <v>0.30477</v>
+        <v>0.275421</v>
       </c>
       <c r="D73" t="n">
-        <v>0.322378</v>
+        <v>0.286478</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.315206</v>
+        <v>0.327908</v>
       </c>
       <c r="C74" t="n">
-        <v>0.314979</v>
+        <v>0.275747</v>
       </c>
       <c r="D74" t="n">
-        <v>0.312145</v>
+        <v>0.275579</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.3206</v>
+        <v>0.314688</v>
       </c>
       <c r="C75" t="n">
-        <v>0.310972</v>
+        <v>0.274074</v>
       </c>
       <c r="D75" t="n">
-        <v>0.306828</v>
+        <v>0.26997</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.320058</v>
+        <v>0.318064</v>
       </c>
       <c r="C76" t="n">
-        <v>0.315827</v>
+        <v>0.284784</v>
       </c>
       <c r="D76" t="n">
-        <v>0.311191</v>
+        <v>0.292674</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.334845</v>
+        <v>0.314645</v>
       </c>
       <c r="C77" t="n">
-        <v>0.324453</v>
+        <v>0.284614</v>
       </c>
       <c r="D77" t="n">
-        <v>0.320191</v>
+        <v>0.276519</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.325861</v>
+        <v>0.325725</v>
       </c>
       <c r="C78" t="n">
-        <v>0.313687</v>
+        <v>0.290364</v>
       </c>
       <c r="D78" t="n">
-        <v>0.328897</v>
+        <v>0.279834</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.328466</v>
+        <v>0.314346</v>
       </c>
       <c r="C79" t="n">
-        <v>0.333264</v>
+        <v>0.295651</v>
       </c>
       <c r="D79" t="n">
-        <v>0.329634</v>
+        <v>0.283445</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.327276</v>
+        <v>0.313153</v>
       </c>
       <c r="C80" t="n">
-        <v>0.435354</v>
+        <v>0.377298</v>
       </c>
       <c r="D80" t="n">
-        <v>0.431636</v>
+        <v>0.379932</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.419099</v>
+        <v>0.39842</v>
       </c>
       <c r="C81" t="n">
-        <v>0.437643</v>
+        <v>0.369164</v>
       </c>
       <c r="D81" t="n">
-        <v>0.432343</v>
+        <v>0.36663</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.39319</v>
+        <v>0.402257</v>
       </c>
       <c r="C82" t="n">
-        <v>0.431684</v>
+        <v>0.395792</v>
       </c>
       <c r="D82" t="n">
-        <v>0.448472</v>
+        <v>0.375721</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.397222</v>
+        <v>0.403404</v>
       </c>
       <c r="C83" t="n">
-        <v>0.437667</v>
+        <v>0.374609</v>
       </c>
       <c r="D83" t="n">
-        <v>0.456147</v>
+        <v>0.377863</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.401443</v>
+        <v>0.397439</v>
       </c>
       <c r="C84" t="n">
-        <v>0.445694</v>
+        <v>0.365638</v>
       </c>
       <c r="D84" t="n">
-        <v>0.435054</v>
+        <v>0.384323</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.389383</v>
+        <v>0.402992</v>
       </c>
       <c r="C85" t="n">
-        <v>0.448452</v>
+        <v>0.391102</v>
       </c>
       <c r="D85" t="n">
-        <v>0.449826</v>
+        <v>0.379195</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.411707</v>
+        <v>0.424053</v>
       </c>
       <c r="C86" t="n">
-        <v>0.444241</v>
+        <v>0.376684</v>
       </c>
       <c r="D86" t="n">
-        <v>0.455928</v>
+        <v>0.36885</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.388218</v>
+        <v>0.398549</v>
       </c>
       <c r="C87" t="n">
-        <v>0.451889</v>
+        <v>0.3649</v>
       </c>
       <c r="D87" t="n">
-        <v>0.447627</v>
+        <v>0.374158</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.388819</v>
+        <v>0.398069</v>
       </c>
       <c r="C88" t="n">
-        <v>0.438264</v>
+        <v>0.37282</v>
       </c>
       <c r="D88" t="n">
-        <v>0.44788</v>
+        <v>0.374256</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.391899</v>
+        <v>0.399901</v>
       </c>
       <c r="C89" t="n">
-        <v>0.459343</v>
+        <v>0.378921</v>
       </c>
       <c r="D89" t="n">
-        <v>0.44732</v>
+        <v>0.381329</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.395697</v>
+        <v>0.401295</v>
       </c>
       <c r="C90" t="n">
-        <v>0.464308</v>
+        <v>0.390848</v>
       </c>
       <c r="D90" t="n">
-        <v>0.458581</v>
+        <v>0.386326</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.41887</v>
+        <v>0.407834</v>
       </c>
       <c r="C91" t="n">
-        <v>0.448656</v>
+        <v>0.382478</v>
       </c>
       <c r="D91" t="n">
-        <v>0.455684</v>
+        <v>0.381441</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.437614</v>
+        <v>0.396796</v>
       </c>
       <c r="C92" t="n">
-        <v>0.433375</v>
+        <v>0.378575</v>
       </c>
       <c r="D92" t="n">
-        <v>0.441709</v>
+        <v>0.387051</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.400086</v>
+        <v>0.416447</v>
       </c>
       <c r="C93" t="n">
-        <v>0.456973</v>
+        <v>0.402066</v>
       </c>
       <c r="D93" t="n">
-        <v>0.475298</v>
+        <v>0.390327</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.416705</v>
+        <v>0.423522</v>
       </c>
       <c r="C94" t="n">
-        <v>0.5614130000000001</v>
+        <v>0.479966</v>
       </c>
       <c r="D94" t="n">
-        <v>0.577493</v>
+        <v>0.498215</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.493571</v>
+        <v>0.472125</v>
       </c>
       <c r="C95" t="n">
-        <v>0.568759</v>
+        <v>0.476085</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5782620000000001</v>
+        <v>0.459818</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.472972</v>
+        <v>0.504146</v>
       </c>
       <c r="C96" t="n">
-        <v>0.5773</v>
+        <v>0.462905</v>
       </c>
       <c r="D96" t="n">
-        <v>0.586219</v>
+        <v>0.473124</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.485448</v>
+        <v>0.494619</v>
       </c>
       <c r="C97" t="n">
-        <v>0.574983</v>
+        <v>0.491845</v>
       </c>
       <c r="D97" t="n">
-        <v>0.582057</v>
+        <v>0.477268</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.491441</v>
+        <v>0.50116</v>
       </c>
       <c r="C98" t="n">
-        <v>0.57369</v>
+        <v>0.4779</v>
       </c>
       <c r="D98" t="n">
-        <v>0.583228</v>
+        <v>0.489044</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.5168739999999999</v>
+        <v>0.532536</v>
       </c>
       <c r="C99" t="n">
-        <v>0.576334</v>
+        <v>0.478851</v>
       </c>
       <c r="D99" t="n">
-        <v>0.570323</v>
+        <v>0.478678</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.509588</v>
+        <v>0.469904</v>
       </c>
       <c r="C100" t="n">
-        <v>0.581384</v>
+        <v>0.51291</v>
       </c>
       <c r="D100" t="n">
-        <v>0.585029</v>
+        <v>0.477207</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.487979</v>
+        <v>0.514415</v>
       </c>
       <c r="C101" t="n">
-        <v>0.584319</v>
+        <v>0.485217</v>
       </c>
       <c r="D101" t="n">
-        <v>0.592377</v>
+        <v>0.491592</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.484085</v>
+        <v>0.492102</v>
       </c>
       <c r="C102" t="n">
-        <v>0.597564</v>
+        <v>0.483256</v>
       </c>
       <c r="D102" t="n">
-        <v>0.590473</v>
+        <v>0.48068</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.476435</v>
+        <v>0.511406</v>
       </c>
       <c r="C103" t="n">
-        <v>0.572036</v>
+        <v>0.484883</v>
       </c>
       <c r="D103" t="n">
-        <v>0.596409</v>
+        <v>0.495836</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.500336</v>
+        <v>0.498635</v>
       </c>
       <c r="C104" t="n">
-        <v>0.616058</v>
+        <v>0.478864</v>
       </c>
       <c r="D104" t="n">
-        <v>0.588679</v>
+        <v>0.485627</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.508875</v>
+        <v>0.489404</v>
       </c>
       <c r="C105" t="n">
-        <v>0.594634</v>
+        <v>0.471499</v>
       </c>
       <c r="D105" t="n">
-        <v>0.603594</v>
+        <v>0.494002</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.508049</v>
+        <v>0.492692</v>
       </c>
       <c r="C106" t="n">
-        <v>0.5916130000000001</v>
+        <v>0.488577</v>
       </c>
       <c r="D106" t="n">
-        <v>0.594491</v>
+        <v>0.487451</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.470329</v>
+        <v>0.497738</v>
       </c>
       <c r="C107" t="n">
-        <v>0.609544</v>
+        <v>0.50204</v>
       </c>
       <c r="D107" t="n">
-        <v>0.6045779999999999</v>
+        <v>0.499292</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.524628</v>
+        <v>0.505468</v>
       </c>
       <c r="C108" t="n">
-        <v>0.739869</v>
+        <v>0.586376</v>
       </c>
       <c r="D108" t="n">
-        <v>0.705287</v>
+        <v>0.615842</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.516051</v>
+        <v>0.549476</v>
       </c>
       <c r="C109" t="n">
-        <v>0.752761</v>
+        <v>0.598429</v>
       </c>
       <c r="D109" t="n">
-        <v>0.7583299999999999</v>
+        <v>0.611383</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.663965</v>
+        <v>0.614133</v>
       </c>
       <c r="C110" t="n">
-        <v>0.732363</v>
+        <v>0.598952</v>
       </c>
       <c r="D110" t="n">
-        <v>0.772289</v>
+        <v>0.606372</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.671883</v>
+        <v>0.6705719999999999</v>
       </c>
       <c r="C111" t="n">
-        <v>0.741515</v>
+        <v>0.5863930000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>0.701195</v>
+        <v>0.604383</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.6497810000000001</v>
+        <v>0.6146470000000001</v>
       </c>
       <c r="C112" t="n">
-        <v>0.766502</v>
+        <v>0.6120100000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>0.758373</v>
+        <v>0.567683</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.65882</v>
+        <v>0.618911</v>
       </c>
       <c r="C113" t="n">
-        <v>0.73789</v>
+        <v>0.580704</v>
       </c>
       <c r="D113" t="n">
-        <v>0.742187</v>
+        <v>0.5652</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.621597</v>
+        <v>0.608087</v>
       </c>
       <c r="C114" t="n">
-        <v>0.712372</v>
+        <v>0.606862</v>
       </c>
       <c r="D114" t="n">
-        <v>0.73694</v>
+        <v>0.610338</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.606423</v>
+        <v>0.602</v>
       </c>
       <c r="C115" t="n">
-        <v>0.755341</v>
+        <v>0.602199</v>
       </c>
       <c r="D115" t="n">
-        <v>0.777674</v>
+        <v>0.5937249999999999</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.649756</v>
+        <v>0.627402</v>
       </c>
       <c r="C116" t="n">
-        <v>0.760332</v>
+        <v>0.623093</v>
       </c>
       <c r="D116" t="n">
-        <v>0.761871</v>
+        <v>0.625983</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.610028</v>
+        <v>0.66587</v>
       </c>
       <c r="C117" t="n">
-        <v>0.743053</v>
+        <v>0.60316</v>
       </c>
       <c r="D117" t="n">
-        <v>0.7681789999999999</v>
+        <v>0.5935589999999999</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.635517</v>
+        <v>0.659565</v>
       </c>
       <c r="C118" t="n">
-        <v>0.714274</v>
+        <v>0.564454</v>
       </c>
       <c r="D118" t="n">
-        <v>0.720997</v>
+        <v>0.615065</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.604156</v>
+        <v>0.68386</v>
       </c>
       <c r="C119" t="n">
-        <v>0.75518</v>
+        <v>0.618008</v>
       </c>
       <c r="D119" t="n">
-        <v>0.76004</v>
+        <v>0.61659</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.680049</v>
+        <v>0.6682169999999999</v>
       </c>
       <c r="C120" t="n">
-        <v>0.752321</v>
+        <v>0.620302</v>
       </c>
       <c r="D120" t="n">
-        <v>0.790254</v>
+        <v>0.635837</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.681142</v>
+        <v>0.629968</v>
       </c>
       <c r="C121" t="n">
-        <v>0.737947</v>
+        <v>0.601136</v>
       </c>
       <c r="D121" t="n">
-        <v>0.7795530000000001</v>
+        <v>0.621764</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.66271</v>
+        <v>0.604869</v>
       </c>
       <c r="C122" t="n">
-        <v>0.758484</v>
+        <v>0.6337930000000001</v>
       </c>
       <c r="D122" t="n">
-        <v>0.7964290000000001</v>
+        <v>0.653873</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.675519</v>
+        <v>0.685146</v>
       </c>
       <c r="C123" t="n">
-        <v>0.984708</v>
+        <v>0.812742</v>
       </c>
       <c r="D123" t="n">
-        <v>0.989044</v>
+        <v>0.830468</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.858271</v>
+        <v>0.937176</v>
       </c>
       <c r="C124" t="n">
-        <v>0.977282</v>
+        <v>0.82052</v>
       </c>
       <c r="D124" t="n">
-        <v>1.02947</v>
+        <v>0.716535</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.818817</v>
+        <v>0.817069</v>
       </c>
       <c r="C125" t="n">
-        <v>0.9306</v>
+        <v>0.835269</v>
       </c>
       <c r="D125" t="n">
-        <v>1.00532</v>
+        <v>0.76109</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.895562</v>
+        <v>0.824074</v>
       </c>
       <c r="C126" t="n">
-        <v>0.98864</v>
+        <v>0.7375389999999999</v>
       </c>
       <c r="D126" t="n">
-        <v>1.0047</v>
+        <v>0.719371</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.812169</v>
+        <v>0.810667</v>
       </c>
       <c r="C127" t="n">
-        <v>0.899433</v>
+        <v>0.727734</v>
       </c>
       <c r="D127" t="n">
-        <v>0.922004</v>
+        <v>0.735218</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.914323</v>
+        <v>0.821092</v>
       </c>
       <c r="C128" t="n">
-        <v>0.902984</v>
+        <v>0.735707</v>
       </c>
       <c r="D128" t="n">
-        <v>0.959974</v>
+        <v>0.737306</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.887881</v>
+        <v>0.820663</v>
       </c>
       <c r="C129" t="n">
-        <v>0.914643</v>
+        <v>0.7636810000000001</v>
       </c>
       <c r="D129" t="n">
-        <v>0.92431</v>
+        <v>0.730795</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.893689</v>
+        <v>0.847476</v>
       </c>
       <c r="C130" t="n">
-        <v>0.998872</v>
+        <v>0.7225</v>
       </c>
       <c r="D130" t="n">
-        <v>0.972506</v>
+        <v>0.783199</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.910407</v>
+        <v>0.816353</v>
       </c>
       <c r="C131" t="n">
-        <v>0.915145</v>
+        <v>0.723839</v>
       </c>
       <c r="D131" t="n">
-        <v>0.92171</v>
+        <v>0.743649</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.903132</v>
+        <v>0.8255130000000001</v>
       </c>
       <c r="C132" t="n">
-        <v>0.905003</v>
+        <v>0.759288</v>
       </c>
       <c r="D132" t="n">
-        <v>0.93415</v>
+        <v>0.825188</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.911983</v>
+        <v>0.9037809999999999</v>
       </c>
       <c r="C133" t="n">
-        <v>0.954366</v>
+        <v>0.856218</v>
       </c>
       <c r="D133" t="n">
-        <v>0.983822</v>
+        <v>0.740519</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.868385</v>
+        <v>0.801222</v>
       </c>
       <c r="C134" t="n">
-        <v>0.940627</v>
+        <v>0.793471</v>
       </c>
       <c r="D134" t="n">
-        <v>1.03755</v>
+        <v>0.748304</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.798894</v>
+        <v>0.929184</v>
       </c>
       <c r="C135" t="n">
-        <v>1.014</v>
+        <v>0.737839</v>
       </c>
       <c r="D135" t="n">
-        <v>0.939041</v>
+        <v>0.726779</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.804588</v>
+        <v>0.812418</v>
       </c>
       <c r="C136" t="n">
-        <v>1.04045</v>
+        <v>0.76868</v>
       </c>
       <c r="D136" t="n">
-        <v>1.04718</v>
+        <v>0.851621</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.912086</v>
+        <v>0.92391</v>
       </c>
       <c r="C137" t="n">
-        <v>1.24539</v>
+        <v>1.02615</v>
       </c>
       <c r="D137" t="n">
-        <v>1.25008</v>
+        <v>0.938804</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.14724</v>
+        <v>1.12986</v>
       </c>
       <c r="C138" t="n">
-        <v>1.18789</v>
+        <v>0.931875</v>
       </c>
       <c r="D138" t="n">
-        <v>1.19677</v>
+        <v>0.972987</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.08117</v>
+        <v>1.10498</v>
       </c>
       <c r="C139" t="n">
-        <v>1.26547</v>
+        <v>0.962821</v>
       </c>
       <c r="D139" t="n">
-        <v>1.28672</v>
+        <v>0.967956</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.16956</v>
+        <v>1.10004</v>
       </c>
       <c r="C140" t="n">
-        <v>1.20891</v>
+        <v>1.0338</v>
       </c>
       <c r="D140" t="n">
-        <v>1.22165</v>
+        <v>0.977996</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.14225</v>
+        <v>1.12729</v>
       </c>
       <c r="C141" t="n">
-        <v>1.3128</v>
+        <v>0.99359</v>
       </c>
       <c r="D141" t="n">
-        <v>1.28563</v>
+        <v>1.04992</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.17518</v>
+        <v>1.16819</v>
       </c>
       <c r="C142" t="n">
-        <v>1.24543</v>
+        <v>0.994705</v>
       </c>
       <c r="D142" t="n">
-        <v>1.27587</v>
+        <v>1.01154</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.13225</v>
+        <v>1.17553</v>
       </c>
       <c r="C143" t="n">
-        <v>1.21063</v>
+        <v>0.995502</v>
       </c>
       <c r="D143" t="n">
-        <v>1.24703</v>
+        <v>1.03446</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0676679</v>
+        <v>0.0690876</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0635819</v>
+        <v>0.0621533</v>
       </c>
       <c r="D2" t="n">
-        <v>0.105702</v>
+        <v>0.0979425</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0698853</v>
+        <v>0.0655029</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0638811</v>
+        <v>0.0602755</v>
       </c>
       <c r="D3" t="n">
-        <v>0.109704</v>
+        <v>0.107876</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0681324</v>
+        <v>0.0697755</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0642756</v>
+        <v>0.0653769</v>
       </c>
       <c r="D4" t="n">
-        <v>0.114461</v>
+        <v>0.111999</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0680133</v>
+        <v>0.0712348</v>
       </c>
       <c r="C5" t="n">
-        <v>0.063004</v>
+        <v>0.06614100000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.113475</v>
+        <v>0.115403</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0701869</v>
+        <v>0.0688981</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0646832</v>
+        <v>0.06484040000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.115738</v>
+        <v>0.117026</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06973939999999999</v>
+        <v>0.0773461</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0694236</v>
+        <v>0.0691529</v>
       </c>
       <c r="D7" t="n">
-        <v>0.09031019999999999</v>
+        <v>0.08838119999999999</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0709153</v>
+        <v>0.0709534</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0713589</v>
+        <v>0.074016</v>
       </c>
       <c r="D8" t="n">
-        <v>0.09066680000000001</v>
+        <v>0.0918482</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0716768</v>
+        <v>0.069615</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0623704</v>
+        <v>0.0621467</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0927056</v>
+        <v>0.0903656</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0746526</v>
+        <v>0.0742182</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0623797</v>
+        <v>0.0610919</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0934984</v>
+        <v>0.09370390000000001</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0753931</v>
+        <v>0.0761468</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0656867</v>
+        <v>0.0614717</v>
       </c>
       <c r="D11" t="n">
-        <v>0.102562</v>
+        <v>0.0929601</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0815737</v>
+        <v>0.0760267</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0645379</v>
+        <v>0.06251080000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.101503</v>
+        <v>0.0964885</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0753351</v>
+        <v>0.0757898</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0642959</v>
+        <v>0.0632253</v>
       </c>
       <c r="D13" t="n">
-        <v>0.10892</v>
+        <v>0.100466</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0756598</v>
+        <v>0.07749789999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06576120000000001</v>
+        <v>0.0652356</v>
       </c>
       <c r="D14" t="n">
-        <v>0.108301</v>
+        <v>0.101617</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0794565</v>
+        <v>0.07752580000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.06543019999999999</v>
+        <v>0.0635196</v>
       </c>
       <c r="D15" t="n">
-        <v>0.110455</v>
+        <v>0.107556</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0765034</v>
+        <v>0.0743069</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06776069999999999</v>
+        <v>0.0635898</v>
       </c>
       <c r="D16" t="n">
-        <v>0.116491</v>
+        <v>0.109387</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0767217</v>
+        <v>0.0753751</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0646288</v>
+        <v>0.0642094</v>
       </c>
       <c r="D17" t="n">
-        <v>0.118919</v>
+        <v>0.114874</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.07658420000000001</v>
+        <v>0.080558</v>
       </c>
       <c r="C18" t="n">
-        <v>0.067262</v>
+        <v>0.06660720000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.121118</v>
+        <v>0.115239</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.07722759999999999</v>
+        <v>0.07889110000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0669319</v>
+        <v>0.06836639999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>0.123394</v>
+        <v>0.120106</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0775285</v>
+        <v>0.0781051</v>
       </c>
       <c r="C20" t="n">
-        <v>0.06908549999999999</v>
+        <v>0.06871530000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.125061</v>
+        <v>0.119169</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07810110000000001</v>
+        <v>0.0773142</v>
       </c>
       <c r="C21" t="n">
-        <v>0.07224419999999999</v>
+        <v>0.0710138</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0995518</v>
+        <v>0.0929434</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.07773389999999999</v>
+        <v>0.07842</v>
       </c>
       <c r="C22" t="n">
-        <v>0.07664749999999999</v>
+        <v>0.0750695</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0970635</v>
+        <v>0.093072</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0788447</v>
+        <v>0.0819453</v>
       </c>
       <c r="C23" t="n">
-        <v>0.06734900000000001</v>
+        <v>0.0692169</v>
       </c>
       <c r="D23" t="n">
-        <v>0.104662</v>
+        <v>0.09701799999999999</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.08345039999999999</v>
+        <v>0.0848839</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0674386</v>
+        <v>0.0679671</v>
       </c>
       <c r="D24" t="n">
-        <v>0.105742</v>
+        <v>0.0999189</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0816622</v>
+        <v>0.08277</v>
       </c>
       <c r="C25" t="n">
-        <v>0.06904100000000001</v>
+        <v>0.06937400000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>0.108747</v>
+        <v>0.101787</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.08323990000000001</v>
+        <v>0.0819124</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0715621</v>
+        <v>0.0677189</v>
       </c>
       <c r="D26" t="n">
-        <v>0.111369</v>
+        <v>0.106297</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0836981</v>
+        <v>0.0848979</v>
       </c>
       <c r="C27" t="n">
-        <v>0.071048</v>
+        <v>0.0679796</v>
       </c>
       <c r="D27" t="n">
-        <v>0.114294</v>
+        <v>0.106525</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0829616</v>
+        <v>0.08274919999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0714574</v>
+        <v>0.0711682</v>
       </c>
       <c r="D28" t="n">
-        <v>0.116702</v>
+        <v>0.114342</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0856696</v>
+        <v>0.0863328</v>
       </c>
       <c r="C29" t="n">
-        <v>0.07210419999999999</v>
+        <v>0.0738023</v>
       </c>
       <c r="D29" t="n">
-        <v>0.120359</v>
+        <v>0.119302</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0855452</v>
+        <v>0.0835272</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0714235</v>
+        <v>0.06819169999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>0.120982</v>
+        <v>0.12361</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0823866</v>
+        <v>0.0849072</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0717016</v>
+        <v>0.0698522</v>
       </c>
       <c r="D31" t="n">
-        <v>0.126719</v>
+        <v>0.129533</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0802581</v>
+        <v>0.0876265</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0722145</v>
+        <v>0.0749978</v>
       </c>
       <c r="D32" t="n">
-        <v>0.127738</v>
+        <v>0.132524</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0840282</v>
+        <v>0.08650960000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>0.072892</v>
+        <v>0.072785</v>
       </c>
       <c r="D33" t="n">
-        <v>0.136838</v>
+        <v>0.132877</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.08412119999999999</v>
+        <v>0.0853005</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0740478</v>
+        <v>0.0751612</v>
       </c>
       <c r="D34" t="n">
-        <v>0.137724</v>
+        <v>0.140001</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0826885</v>
+        <v>0.08688899999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0778769</v>
+        <v>0.0754988</v>
       </c>
       <c r="D35" t="n">
-        <v>0.116215</v>
+        <v>0.113799</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.08807909999999999</v>
+        <v>0.0883548</v>
       </c>
       <c r="C36" t="n">
-        <v>0.07976659999999999</v>
+        <v>0.07828739999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>0.119309</v>
+        <v>0.118802</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.09000850000000001</v>
+        <v>0.09325600000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>0.07536420000000001</v>
+        <v>0.0755369</v>
       </c>
       <c r="D37" t="n">
-        <v>0.121981</v>
+        <v>0.123415</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.104453</v>
+        <v>0.105759</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0761285</v>
+        <v>0.07496609999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>0.131825</v>
+        <v>0.126266</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.103042</v>
+        <v>0.109507</v>
       </c>
       <c r="C39" t="n">
-        <v>0.07740329999999999</v>
+        <v>0.07699400000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>0.137714</v>
+        <v>0.134363</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.103049</v>
+        <v>0.106273</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0795898</v>
+        <v>0.0773998</v>
       </c>
       <c r="D40" t="n">
-        <v>0.136225</v>
+        <v>0.140814</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.102044</v>
+        <v>0.102207</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0782979</v>
+        <v>0.08090600000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>0.14387</v>
+        <v>0.140255</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.104709</v>
+        <v>0.105222</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0797581</v>
+        <v>0.0787125</v>
       </c>
       <c r="D42" t="n">
-        <v>0.149182</v>
+        <v>0.151679</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.101925</v>
+        <v>0.10681</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0785221</v>
+        <v>0.0753243</v>
       </c>
       <c r="D43" t="n">
-        <v>0.15157</v>
+        <v>0.155313</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.102545</v>
+        <v>0.101947</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0771134</v>
+        <v>0.07936120000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.161193</v>
+        <v>0.16619</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.101575</v>
+        <v>0.105332</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0807325</v>
+        <v>0.0792858</v>
       </c>
       <c r="D45" t="n">
-        <v>0.16584</v>
+        <v>0.168993</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.10573</v>
+        <v>0.103445</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0806471</v>
+        <v>0.0901136</v>
       </c>
       <c r="D46" t="n">
-        <v>0.169657</v>
+        <v>0.173444</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.101605</v>
+        <v>0.104347</v>
       </c>
       <c r="C47" t="n">
-        <v>0.083027</v>
+        <v>0.0820341</v>
       </c>
       <c r="D47" t="n">
-        <v>0.186467</v>
+        <v>0.175713</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.104574</v>
+        <v>0.109524</v>
       </c>
       <c r="C48" t="n">
-        <v>0.08501309999999999</v>
+        <v>0.0814566</v>
       </c>
       <c r="D48" t="n">
-        <v>0.183569</v>
+        <v>0.188041</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.10622</v>
+        <v>0.105188</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0858536</v>
+        <v>0.0889631</v>
       </c>
       <c r="D49" t="n">
-        <v>0.19402</v>
+        <v>0.194511</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.109141</v>
+        <v>0.108156</v>
       </c>
       <c r="C50" t="n">
-        <v>0.08888500000000001</v>
+        <v>0.0921061</v>
       </c>
       <c r="D50" t="n">
-        <v>0.187151</v>
+        <v>0.189417</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.108536</v>
+        <v>0.107759</v>
       </c>
       <c r="C51" t="n">
-        <v>0.166572</v>
+        <v>0.164184</v>
       </c>
       <c r="D51" t="n">
-        <v>0.185794</v>
+        <v>0.195537</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.112021</v>
+        <v>0.115148</v>
       </c>
       <c r="C52" t="n">
-        <v>0.164936</v>
+        <v>0.177363</v>
       </c>
       <c r="D52" t="n">
-        <v>0.201996</v>
+        <v>0.20714</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.187206</v>
+        <v>0.205706</v>
       </c>
       <c r="C53" t="n">
-        <v>0.166599</v>
+        <v>0.173112</v>
       </c>
       <c r="D53" t="n">
-        <v>0.203074</v>
+        <v>0.212522</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.19025</v>
+        <v>0.204175</v>
       </c>
       <c r="C54" t="n">
-        <v>0.167868</v>
+        <v>0.170559</v>
       </c>
       <c r="D54" t="n">
-        <v>0.20486</v>
+        <v>0.235081</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.185902</v>
+        <v>0.193464</v>
       </c>
       <c r="C55" t="n">
-        <v>0.165965</v>
+        <v>0.176909</v>
       </c>
       <c r="D55" t="n">
-        <v>0.212998</v>
+        <v>0.227068</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.192985</v>
+        <v>0.203039</v>
       </c>
       <c r="C56" t="n">
-        <v>0.166115</v>
+        <v>0.171434</v>
       </c>
       <c r="D56" t="n">
-        <v>0.217548</v>
+        <v>0.23174</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.187993</v>
+        <v>0.206519</v>
       </c>
       <c r="C57" t="n">
-        <v>0.171117</v>
+        <v>0.169692</v>
       </c>
       <c r="D57" t="n">
-        <v>0.234045</v>
+        <v>0.245022</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.191885</v>
+        <v>0.210954</v>
       </c>
       <c r="C58" t="n">
-        <v>0.170696</v>
+        <v>0.176318</v>
       </c>
       <c r="D58" t="n">
-        <v>0.243421</v>
+        <v>0.266197</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.19078</v>
+        <v>0.206246</v>
       </c>
       <c r="C59" t="n">
-        <v>0.17021</v>
+        <v>0.170403</v>
       </c>
       <c r="D59" t="n">
-        <v>0.24401</v>
+        <v>0.27001</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.1943</v>
+        <v>0.204415</v>
       </c>
       <c r="C60" t="n">
-        <v>0.171311</v>
+        <v>0.186313</v>
       </c>
       <c r="D60" t="n">
-        <v>0.258497</v>
+        <v>0.278235</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.190015</v>
+        <v>0.210055</v>
       </c>
       <c r="C61" t="n">
-        <v>0.169039</v>
+        <v>0.183784</v>
       </c>
       <c r="D61" t="n">
-        <v>0.267024</v>
+        <v>0.286117</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.190226</v>
+        <v>0.207074</v>
       </c>
       <c r="C62" t="n">
-        <v>0.172567</v>
+        <v>0.178097</v>
       </c>
       <c r="D62" t="n">
-        <v>0.280965</v>
+        <v>0.312859</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.187786</v>
+        <v>0.212687</v>
       </c>
       <c r="C63" t="n">
-        <v>0.175312</v>
+        <v>0.194113</v>
       </c>
       <c r="D63" t="n">
-        <v>0.285611</v>
+        <v>0.316237</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.196739</v>
+        <v>0.213151</v>
       </c>
       <c r="C64" t="n">
-        <v>0.180591</v>
+        <v>0.185555</v>
       </c>
       <c r="D64" t="n">
-        <v>0.285602</v>
+        <v>0.318408</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.192465</v>
+        <v>0.216653</v>
       </c>
       <c r="C65" t="n">
-        <v>0.182954</v>
+        <v>0.199927</v>
       </c>
       <c r="D65" t="n">
-        <v>0.300476</v>
+        <v>0.331136</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.204227</v>
+        <v>0.211825</v>
       </c>
       <c r="C66" t="n">
-        <v>0.25767</v>
+        <v>0.274622</v>
       </c>
       <c r="D66" t="n">
-        <v>0.304623</v>
+        <v>0.310053</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.293769</v>
+        <v>0.294612</v>
       </c>
       <c r="C67" t="n">
-        <v>0.255813</v>
+        <v>0.266773</v>
       </c>
       <c r="D67" t="n">
-        <v>0.337911</v>
+        <v>0.345559</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.288111</v>
+        <v>0.306538</v>
       </c>
       <c r="C68" t="n">
-        <v>0.256329</v>
+        <v>0.268639</v>
       </c>
       <c r="D68" t="n">
-        <v>0.330684</v>
+        <v>0.350385</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.28965</v>
+        <v>0.313377</v>
       </c>
       <c r="C69" t="n">
-        <v>0.260165</v>
+        <v>0.279176</v>
       </c>
       <c r="D69" t="n">
-        <v>0.344688</v>
+        <v>0.35229</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.296716</v>
+        <v>0.312177</v>
       </c>
       <c r="C70" t="n">
-        <v>0.258086</v>
+        <v>0.270483</v>
       </c>
       <c r="D70" t="n">
-        <v>0.353338</v>
+        <v>0.369462</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.293935</v>
+        <v>0.329039</v>
       </c>
       <c r="C71" t="n">
-        <v>0.261066</v>
+        <v>0.26457</v>
       </c>
       <c r="D71" t="n">
-        <v>0.351128</v>
+        <v>0.374457</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.312799</v>
+        <v>0.33216</v>
       </c>
       <c r="C72" t="n">
-        <v>0.263717</v>
+        <v>0.27175</v>
       </c>
       <c r="D72" t="n">
-        <v>0.372466</v>
+        <v>0.380091</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.301525</v>
+        <v>0.313105</v>
       </c>
       <c r="C73" t="n">
-        <v>0.267229</v>
+        <v>0.274779</v>
       </c>
       <c r="D73" t="n">
-        <v>0.383474</v>
+        <v>0.39032</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.289037</v>
+        <v>0.318901</v>
       </c>
       <c r="C74" t="n">
-        <v>0.260467</v>
+        <v>0.277206</v>
       </c>
       <c r="D74" t="n">
-        <v>0.394341</v>
+        <v>0.397997</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.29326</v>
+        <v>0.30433</v>
       </c>
       <c r="C75" t="n">
-        <v>0.268258</v>
+        <v>0.275224</v>
       </c>
       <c r="D75" t="n">
-        <v>0.415968</v>
+        <v>0.417609</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.310732</v>
+        <v>0.329718</v>
       </c>
       <c r="C76" t="n">
-        <v>0.26987</v>
+        <v>0.282503</v>
       </c>
       <c r="D76" t="n">
-        <v>0.42836</v>
+        <v>0.426192</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.304569</v>
+        <v>0.325711</v>
       </c>
       <c r="C77" t="n">
-        <v>0.275235</v>
+        <v>0.280296</v>
       </c>
       <c r="D77" t="n">
-        <v>0.426206</v>
+        <v>0.448949</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.303021</v>
+        <v>0.308465</v>
       </c>
       <c r="C78" t="n">
-        <v>0.270554</v>
+        <v>0.282608</v>
       </c>
       <c r="D78" t="n">
-        <v>0.38993</v>
+        <v>0.388733</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.322555</v>
+        <v>0.311378</v>
       </c>
       <c r="C79" t="n">
-        <v>0.281913</v>
+        <v>0.285655</v>
       </c>
       <c r="D79" t="n">
-        <v>0.392124</v>
+        <v>0.397538</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.310657</v>
+        <v>0.318802</v>
       </c>
       <c r="C80" t="n">
-        <v>0.355863</v>
+        <v>0.387242</v>
       </c>
       <c r="D80" t="n">
-        <v>0.394094</v>
+        <v>0.412183</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.379057</v>
+        <v>0.395581</v>
       </c>
       <c r="C81" t="n">
-        <v>0.362571</v>
+        <v>0.383022</v>
       </c>
       <c r="D81" t="n">
-        <v>0.397014</v>
+        <v>0.423705</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.386681</v>
+        <v>0.395023</v>
       </c>
       <c r="C82" t="n">
-        <v>0.360387</v>
+        <v>0.38196</v>
       </c>
       <c r="D82" t="n">
-        <v>0.420427</v>
+        <v>0.424865</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.381308</v>
+        <v>0.406745</v>
       </c>
       <c r="C83" t="n">
-        <v>0.373148</v>
+        <v>0.370395</v>
       </c>
       <c r="D83" t="n">
-        <v>0.424099</v>
+        <v>0.449179</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.383394</v>
+        <v>0.391314</v>
       </c>
       <c r="C84" t="n">
-        <v>0.363332</v>
+        <v>0.372448</v>
       </c>
       <c r="D84" t="n">
-        <v>0.429913</v>
+        <v>0.464642</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.397395</v>
+        <v>0.413274</v>
       </c>
       <c r="C85" t="n">
-        <v>0.371116</v>
+        <v>0.370927</v>
       </c>
       <c r="D85" t="n">
-        <v>0.456376</v>
+        <v>0.471639</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.382398</v>
+        <v>0.390032</v>
       </c>
       <c r="C86" t="n">
-        <v>0.360104</v>
+        <v>0.381225</v>
       </c>
       <c r="D86" t="n">
-        <v>0.454621</v>
+        <v>0.458468</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.392111</v>
+        <v>0.395532</v>
       </c>
       <c r="C87" t="n">
-        <v>0.366022</v>
+        <v>0.387711</v>
       </c>
       <c r="D87" t="n">
-        <v>0.470551</v>
+        <v>0.486102</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.390646</v>
+        <v>0.396565</v>
       </c>
       <c r="C88" t="n">
-        <v>0.359731</v>
+        <v>0.377518</v>
       </c>
       <c r="D88" t="n">
-        <v>0.48634</v>
+        <v>0.497821</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.386205</v>
+        <v>0.403498</v>
       </c>
       <c r="C89" t="n">
-        <v>0.367509</v>
+        <v>0.374888</v>
       </c>
       <c r="D89" t="n">
-        <v>0.472476</v>
+        <v>0.491246</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.392358</v>
+        <v>0.405954</v>
       </c>
       <c r="C90" t="n">
-        <v>0.372035</v>
+        <v>0.385913</v>
       </c>
       <c r="D90" t="n">
-        <v>0.504309</v>
+        <v>0.525474</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.384858</v>
+        <v>0.388514</v>
       </c>
       <c r="C91" t="n">
-        <v>0.367677</v>
+        <v>0.373114</v>
       </c>
       <c r="D91" t="n">
-        <v>0.497031</v>
+        <v>0.515008</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.402308</v>
+        <v>0.410042</v>
       </c>
       <c r="C92" t="n">
-        <v>0.375441</v>
+        <v>0.378972</v>
       </c>
       <c r="D92" t="n">
-        <v>0.46349</v>
+        <v>0.472894</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.385073</v>
+        <v>0.419543</v>
       </c>
       <c r="C93" t="n">
-        <v>0.377448</v>
+        <v>0.389607</v>
       </c>
       <c r="D93" t="n">
-        <v>0.462357</v>
+        <v>0.483904</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.397863</v>
+        <v>0.41706</v>
       </c>
       <c r="C94" t="n">
-        <v>0.467787</v>
+        <v>0.483405</v>
       </c>
       <c r="D94" t="n">
-        <v>0.477934</v>
+        <v>0.492862</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.468402</v>
+        <v>0.519028</v>
       </c>
       <c r="C95" t="n">
-        <v>0.467046</v>
+        <v>0.474042</v>
       </c>
       <c r="D95" t="n">
-        <v>0.48275</v>
+        <v>0.515684</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.485219</v>
+        <v>0.484926</v>
       </c>
       <c r="C96" t="n">
-        <v>0.468274</v>
+        <v>0.477163</v>
       </c>
       <c r="D96" t="n">
-        <v>0.48627</v>
+        <v>0.487197</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.496448</v>
+        <v>0.49764</v>
       </c>
       <c r="C97" t="n">
-        <v>0.469763</v>
+        <v>0.472718</v>
       </c>
       <c r="D97" t="n">
-        <v>0.505567</v>
+        <v>0.515702</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.480175</v>
+        <v>0.502678</v>
       </c>
       <c r="C98" t="n">
-        <v>0.467927</v>
+        <v>0.490383</v>
       </c>
       <c r="D98" t="n">
-        <v>0.506037</v>
+        <v>0.536595</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.464457</v>
+        <v>0.488945</v>
       </c>
       <c r="C99" t="n">
-        <v>0.466516</v>
+        <v>0.485721</v>
       </c>
       <c r="D99" t="n">
-        <v>0.51298</v>
+        <v>0.518088</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.492453</v>
+        <v>0.48504</v>
       </c>
       <c r="C100" t="n">
-        <v>0.470574</v>
+        <v>0.487074</v>
       </c>
       <c r="D100" t="n">
-        <v>0.526465</v>
+        <v>0.532599</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.490766</v>
+        <v>0.501116</v>
       </c>
       <c r="C101" t="n">
-        <v>0.474196</v>
+        <v>0.476596</v>
       </c>
       <c r="D101" t="n">
-        <v>0.551882</v>
+        <v>0.554125</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.490857</v>
+        <v>0.518232</v>
       </c>
       <c r="C102" t="n">
-        <v>0.477987</v>
+        <v>0.483251</v>
       </c>
       <c r="D102" t="n">
-        <v>0.543698</v>
+        <v>0.571397</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.493026</v>
+        <v>0.518332</v>
       </c>
       <c r="C103" t="n">
-        <v>0.472467</v>
+        <v>0.498303</v>
       </c>
       <c r="D103" t="n">
-        <v>0.5567569999999999</v>
+        <v>0.571887</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.475142</v>
+        <v>0.490483</v>
       </c>
       <c r="C104" t="n">
-        <v>0.46982</v>
+        <v>0.482651</v>
       </c>
       <c r="D104" t="n">
-        <v>0.567369</v>
+        <v>0.572727</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.490814</v>
+        <v>0.501161</v>
       </c>
       <c r="C105" t="n">
-        <v>0.475548</v>
+        <v>0.479159</v>
       </c>
       <c r="D105" t="n">
-        <v>0.584392</v>
+        <v>0.609402</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.47399</v>
+        <v>0.49844</v>
       </c>
       <c r="C106" t="n">
-        <v>0.473689</v>
+        <v>0.50412</v>
       </c>
       <c r="D106" t="n">
-        <v>0.603392</v>
+        <v>0.626965</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.492092</v>
+        <v>0.533124</v>
       </c>
       <c r="C107" t="n">
-        <v>0.490975</v>
+        <v>0.5027199999999999</v>
       </c>
       <c r="D107" t="n">
-        <v>0.549082</v>
+        <v>0.5275339999999999</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.482301</v>
+        <v>0.50842</v>
       </c>
       <c r="C108" t="n">
-        <v>0.574265</v>
+        <v>0.616671</v>
       </c>
       <c r="D108" t="n">
-        <v>0.559013</v>
+        <v>0.573439</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.502006</v>
+        <v>0.49668</v>
       </c>
       <c r="C109" t="n">
-        <v>0.576696</v>
+        <v>0.559146</v>
       </c>
       <c r="D109" t="n">
-        <v>0.562832</v>
+        <v>0.579705</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.573746</v>
+        <v>0.5955819999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>0.579287</v>
+        <v>0.577753</v>
       </c>
       <c r="D110" t="n">
-        <v>0.5833469999999999</v>
+        <v>0.586137</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.612757</v>
+        <v>0.617181</v>
       </c>
       <c r="C111" t="n">
-        <v>0.578141</v>
+        <v>0.555848</v>
       </c>
       <c r="D111" t="n">
-        <v>0.594977</v>
+        <v>0.610581</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.576854</v>
+        <v>0.611596</v>
       </c>
       <c r="C112" t="n">
-        <v>0.581175</v>
+        <v>0.574024</v>
       </c>
       <c r="D112" t="n">
-        <v>0.600638</v>
+        <v>0.604455</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.578696</v>
+        <v>0.600332</v>
       </c>
       <c r="C113" t="n">
-        <v>0.580906</v>
+        <v>0.572691</v>
       </c>
       <c r="D113" t="n">
-        <v>0.603083</v>
+        <v>0.61136</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.582891</v>
+        <v>0.593916</v>
       </c>
       <c r="C114" t="n">
-        <v>0.544686</v>
+        <v>0.560072</v>
       </c>
       <c r="D114" t="n">
-        <v>0.626547</v>
+        <v>0.635332</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.578098</v>
+        <v>0.622786</v>
       </c>
       <c r="C115" t="n">
-        <v>0.586849</v>
+        <v>0.608904</v>
       </c>
       <c r="D115" t="n">
-        <v>0.631475</v>
+        <v>0.648278</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.593756</v>
+        <v>0.633473</v>
       </c>
       <c r="C116" t="n">
-        <v>0.559195</v>
+        <v>0.601351</v>
       </c>
       <c r="D116" t="n">
-        <v>0.644273</v>
+        <v>0.670157</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.610063</v>
+        <v>0.663986</v>
       </c>
       <c r="C117" t="n">
-        <v>0.592958</v>
+        <v>0.566468</v>
       </c>
       <c r="D117" t="n">
-        <v>0.671111</v>
+        <v>0.678691</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.605438</v>
+        <v>0.608089</v>
       </c>
       <c r="C118" t="n">
-        <v>0.561696</v>
+        <v>0.610773</v>
       </c>
       <c r="D118" t="n">
-        <v>0.677526</v>
+        <v>0.715606</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.597523</v>
+        <v>0.6274999999999999</v>
       </c>
       <c r="C119" t="n">
-        <v>0.575974</v>
+        <v>0.609656</v>
       </c>
       <c r="D119" t="n">
-        <v>0.698573</v>
+        <v>0.707533</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.585068</v>
+        <v>0.6569120000000001</v>
       </c>
       <c r="C120" t="n">
-        <v>0.574232</v>
+        <v>0.611081</v>
       </c>
       <c r="D120" t="n">
-        <v>0.704107</v>
+        <v>0.722414</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.636117</v>
+        <v>0.603909</v>
       </c>
       <c r="C121" t="n">
-        <v>0.590794</v>
+        <v>0.625592</v>
       </c>
       <c r="D121" t="n">
-        <v>0.6427929999999999</v>
+        <v>0.626261</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.600382</v>
+        <v>0.6050489999999999</v>
       </c>
       <c r="C122" t="n">
-        <v>0.591841</v>
+        <v>0.594812</v>
       </c>
       <c r="D122" t="n">
-        <v>0.6103150000000001</v>
+        <v>0.65468</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.605293</v>
+        <v>0.6170949999999999</v>
       </c>
       <c r="C123" t="n">
-        <v>0.681136</v>
+        <v>0.821496</v>
       </c>
       <c r="D123" t="n">
-        <v>0.648861</v>
+        <v>0.652962</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.873656</v>
+        <v>0.896016</v>
       </c>
       <c r="C124" t="n">
-        <v>0.7260219999999999</v>
+        <v>0.827797</v>
       </c>
       <c r="D124" t="n">
-        <v>0.666517</v>
+        <v>0.708032</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.795397</v>
+        <v>0.777936</v>
       </c>
       <c r="C125" t="n">
-        <v>0.690361</v>
+        <v>0.812171</v>
       </c>
       <c r="D125" t="n">
-        <v>0.6664330000000001</v>
+        <v>0.695699</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.75675</v>
+        <v>0.809334</v>
       </c>
       <c r="C126" t="n">
-        <v>0.671715</v>
+        <v>0.737826</v>
       </c>
       <c r="D126" t="n">
-        <v>0.68076</v>
+        <v>0.68605</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.823027</v>
+        <v>0.803986</v>
       </c>
       <c r="C127" t="n">
-        <v>0.705215</v>
+        <v>0.7108719999999999</v>
       </c>
       <c r="D127" t="n">
-        <v>0.677034</v>
+        <v>0.714902</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.8255710000000001</v>
+        <v>0.824914</v>
       </c>
       <c r="C128" t="n">
-        <v>0.776207</v>
+        <v>0.775332</v>
       </c>
       <c r="D128" t="n">
-        <v>0.700418</v>
+        <v>0.742788</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.758762</v>
+        <v>0.824579</v>
       </c>
       <c r="C129" t="n">
-        <v>0.781971</v>
+        <v>0.702274</v>
       </c>
       <c r="D129" t="n">
-        <v>0.75397</v>
+        <v>0.734021</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.829155</v>
+        <v>0.912193</v>
       </c>
       <c r="C130" t="n">
-        <v>0.754691</v>
+        <v>0.8224</v>
       </c>
       <c r="D130" t="n">
-        <v>0.7388130000000001</v>
+        <v>0.785185</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.759885</v>
+        <v>0.797095</v>
       </c>
       <c r="C131" t="n">
-        <v>0.722862</v>
+        <v>0.817762</v>
       </c>
       <c r="D131" t="n">
-        <v>0.731189</v>
+        <v>0.75846</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.770032</v>
+        <v>0.808351</v>
       </c>
       <c r="C132" t="n">
-        <v>0.687765</v>
+        <v>0.726349</v>
       </c>
       <c r="D132" t="n">
-        <v>0.762487</v>
+        <v>0.815378</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.774744</v>
+        <v>0.806023</v>
       </c>
       <c r="C133" t="n">
-        <v>0.699481</v>
+        <v>0.7239370000000001</v>
       </c>
       <c r="D133" t="n">
-        <v>0.763919</v>
+        <v>0.785708</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.882316</v>
+        <v>0.817773</v>
       </c>
       <c r="C134" t="n">
-        <v>0.806358</v>
+        <v>0.722333</v>
       </c>
       <c r="D134" t="n">
-        <v>0.8125830000000001</v>
+        <v>0.825346</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.770965</v>
+        <v>0.836614</v>
       </c>
       <c r="C135" t="n">
-        <v>0.812886</v>
+        <v>0.741213</v>
       </c>
       <c r="D135" t="n">
-        <v>0.699859</v>
+        <v>0.733532</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.772545</v>
+        <v>0.802609</v>
       </c>
       <c r="C136" t="n">
-        <v>0.716465</v>
+        <v>0.727028</v>
       </c>
       <c r="D136" t="n">
-        <v>0.725274</v>
+        <v>0.73951</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.788496</v>
+        <v>0.822621</v>
       </c>
       <c r="C137" t="n">
-        <v>0.894689</v>
+        <v>0.998771</v>
       </c>
       <c r="D137" t="n">
-        <v>0.741057</v>
+        <v>0.768163</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.987051</v>
+        <v>1.09749</v>
       </c>
       <c r="C138" t="n">
-        <v>0.8823299999999999</v>
+        <v>0.91251</v>
       </c>
       <c r="D138" t="n">
-        <v>0.743608</v>
+        <v>0.764332</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.07806</v>
+        <v>1.06061</v>
       </c>
       <c r="C139" t="n">
-        <v>0.899159</v>
+        <v>0.913225</v>
       </c>
       <c r="D139" t="n">
-        <v>0.768362</v>
+        <v>0.785686</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.01806</v>
+        <v>1.01449</v>
       </c>
       <c r="C140" t="n">
-        <v>0.871132</v>
+        <v>0.9068929999999999</v>
       </c>
       <c r="D140" t="n">
-        <v>0.771236</v>
+        <v>0.788919</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.00011</v>
+        <v>1.09089</v>
       </c>
       <c r="C141" t="n">
-        <v>0.86025</v>
+        <v>0.985412</v>
       </c>
       <c r="D141" t="n">
-        <v>0.751839</v>
+        <v>0.812159</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.918154</v>
+        <v>1.02014</v>
       </c>
       <c r="C142" t="n">
-        <v>0.832114</v>
+        <v>0.912119</v>
       </c>
       <c r="D142" t="n">
-        <v>0.772306</v>
+        <v>0.81945</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.905821</v>
+        <v>1.10487</v>
       </c>
       <c r="C143" t="n">
-        <v>0.832001</v>
+        <v>0.892725</v>
       </c>
       <c r="D143" t="n">
-        <v>0.779788</v>
+        <v>0.8584540000000001</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0690876</v>
+        <v>0.0688743</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0621533</v>
+        <v>0.06802560000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0979425</v>
+        <v>0.104518</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0655029</v>
+        <v>0.06864629999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0602755</v>
+        <v>0.0703024</v>
       </c>
       <c r="D3" t="n">
-        <v>0.107876</v>
+        <v>0.104264</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0697755</v>
+        <v>0.0702245</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0653769</v>
+        <v>0.0692149</v>
       </c>
       <c r="D4" t="n">
-        <v>0.111999</v>
+        <v>0.109929</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0712348</v>
+        <v>0.06960710000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06614100000000001</v>
+        <v>0.0699539</v>
       </c>
       <c r="D5" t="n">
-        <v>0.115403</v>
+        <v>0.111607</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0688981</v>
+        <v>0.0705282</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06484040000000001</v>
+        <v>0.0716014</v>
       </c>
       <c r="D6" t="n">
-        <v>0.117026</v>
+        <v>0.115915</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0773461</v>
+        <v>0.07186480000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0691529</v>
+        <v>0.0749151</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08838119999999999</v>
+        <v>0.08890770000000001</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0709534</v>
+        <v>0.0700297</v>
       </c>
       <c r="C8" t="n">
-        <v>0.074016</v>
+        <v>0.0803401</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0918482</v>
+        <v>0.0875919</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.069615</v>
+        <v>0.07277939999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0621467</v>
+        <v>0.06869</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0903656</v>
+        <v>0.0898047</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0742182</v>
+        <v>0.0745593</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0610919</v>
+        <v>0.0692892</v>
       </c>
       <c r="D10" t="n">
-        <v>0.09370390000000001</v>
+        <v>0.0938016</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0761468</v>
+        <v>0.0738931</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0614717</v>
+        <v>0.0686861</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0929601</v>
+        <v>0.0976403</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0760267</v>
+        <v>0.0778802</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06251080000000001</v>
+        <v>0.0691315</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0964885</v>
+        <v>0.0977538</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0757898</v>
+        <v>0.07725600000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0632253</v>
+        <v>0.071727</v>
       </c>
       <c r="D13" t="n">
-        <v>0.100466</v>
+        <v>0.101107</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.07749789999999999</v>
+        <v>0.077985</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0652356</v>
+        <v>0.07156129999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.101617</v>
+        <v>0.106834</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.07752580000000001</v>
+        <v>0.07577390000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0635196</v>
+        <v>0.0729762</v>
       </c>
       <c r="D15" t="n">
-        <v>0.107556</v>
+        <v>0.110013</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0743069</v>
+        <v>0.0792128</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0635898</v>
+        <v>0.0740386</v>
       </c>
       <c r="D16" t="n">
-        <v>0.109387</v>
+        <v>0.114241</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0753751</v>
+        <v>0.07813340000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0642094</v>
+        <v>0.07255209999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>0.114874</v>
+        <v>0.113627</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.080558</v>
+        <v>0.0782037</v>
       </c>
       <c r="C18" t="n">
-        <v>0.06660720000000001</v>
+        <v>0.0742896</v>
       </c>
       <c r="D18" t="n">
-        <v>0.115239</v>
+        <v>0.117463</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.07889110000000001</v>
+        <v>0.0760291</v>
       </c>
       <c r="C19" t="n">
-        <v>0.06836639999999999</v>
+        <v>0.07406069999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>0.120106</v>
+        <v>0.119765</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0781051</v>
+        <v>0.0797953</v>
       </c>
       <c r="C20" t="n">
-        <v>0.06871530000000001</v>
+        <v>0.07755430000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.119169</v>
+        <v>0.123986</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0773142</v>
+        <v>0.0789514</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0710138</v>
+        <v>0.0793778</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0929434</v>
+        <v>0.09535299999999999</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.07842</v>
+        <v>0.07895480000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0750695</v>
+        <v>0.081077</v>
       </c>
       <c r="D22" t="n">
-        <v>0.093072</v>
+        <v>0.0965321</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0819453</v>
+        <v>0.0808103</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0692169</v>
+        <v>0.0773942</v>
       </c>
       <c r="D23" t="n">
-        <v>0.09701799999999999</v>
+        <v>0.09914050000000001</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0848839</v>
+        <v>0.0815654</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0679671</v>
+        <v>0.0763626</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0999189</v>
+        <v>0.101787</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.08277</v>
+        <v>0.08287310000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>0.06937400000000001</v>
+        <v>0.0773908</v>
       </c>
       <c r="D25" t="n">
-        <v>0.101787</v>
+        <v>0.101799</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0819124</v>
+        <v>0.08506560000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0677189</v>
+        <v>0.0767244</v>
       </c>
       <c r="D26" t="n">
-        <v>0.106297</v>
+        <v>0.108413</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0848979</v>
+        <v>0.08398369999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0679796</v>
+        <v>0.07644620000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>0.106525</v>
+        <v>0.111252</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.08274919999999999</v>
+        <v>0.0834767</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0711682</v>
+        <v>0.07741729999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>0.114342</v>
+        <v>0.111504</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0863328</v>
+        <v>0.08349280000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0738023</v>
+        <v>0.0748487</v>
       </c>
       <c r="D29" t="n">
-        <v>0.119302</v>
+        <v>0.112434</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0835272</v>
+        <v>0.0831076</v>
       </c>
       <c r="C30" t="n">
-        <v>0.06819169999999999</v>
+        <v>0.0768538</v>
       </c>
       <c r="D30" t="n">
-        <v>0.12361</v>
+        <v>0.118387</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0849072</v>
+        <v>0.0820319</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0698522</v>
+        <v>0.0763799</v>
       </c>
       <c r="D31" t="n">
-        <v>0.129533</v>
+        <v>0.125704</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0876265</v>
+        <v>0.0836382</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0749978</v>
+        <v>0.0800631</v>
       </c>
       <c r="D32" t="n">
-        <v>0.132524</v>
+        <v>0.130252</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.08650960000000001</v>
+        <v>0.0831461</v>
       </c>
       <c r="C33" t="n">
-        <v>0.072785</v>
+        <v>0.0783732</v>
       </c>
       <c r="D33" t="n">
-        <v>0.132877</v>
+        <v>0.127412</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0853005</v>
+        <v>0.08692279999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0751612</v>
+        <v>0.08444740000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.140001</v>
+        <v>0.133256</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.08688899999999999</v>
+        <v>0.08307009999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0754988</v>
+        <v>0.0869665</v>
       </c>
       <c r="D35" t="n">
-        <v>0.113799</v>
+        <v>0.111754</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0883548</v>
+        <v>0.0872762</v>
       </c>
       <c r="C36" t="n">
-        <v>0.07828739999999999</v>
+        <v>0.08761330000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>0.118802</v>
+        <v>0.115615</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.09325600000000001</v>
+        <v>0.0880108</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0755369</v>
+        <v>0.08386200000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>0.123415</v>
+        <v>0.120146</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.105759</v>
+        <v>0.101202</v>
       </c>
       <c r="C38" t="n">
-        <v>0.07496609999999999</v>
+        <v>0.0843318</v>
       </c>
       <c r="D38" t="n">
-        <v>0.126266</v>
+        <v>0.123304</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.109507</v>
+        <v>0.102688</v>
       </c>
       <c r="C39" t="n">
-        <v>0.07699400000000001</v>
+        <v>0.0841245</v>
       </c>
       <c r="D39" t="n">
-        <v>0.134363</v>
+        <v>0.128943</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.106273</v>
+        <v>0.104767</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0773998</v>
+        <v>0.082279</v>
       </c>
       <c r="D40" t="n">
-        <v>0.140814</v>
+        <v>0.134282</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.102207</v>
+        <v>0.104253</v>
       </c>
       <c r="C41" t="n">
-        <v>0.08090600000000001</v>
+        <v>0.0849975</v>
       </c>
       <c r="D41" t="n">
-        <v>0.140255</v>
+        <v>0.138784</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.105222</v>
+        <v>0.1007</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0787125</v>
+        <v>0.0828883</v>
       </c>
       <c r="D42" t="n">
-        <v>0.151679</v>
+        <v>0.14498</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.10681</v>
+        <v>0.102859</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0753243</v>
+        <v>0.0867967</v>
       </c>
       <c r="D43" t="n">
-        <v>0.155313</v>
+        <v>0.1499</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.101947</v>
+        <v>0.104612</v>
       </c>
       <c r="C44" t="n">
-        <v>0.07936120000000001</v>
+        <v>0.0865616</v>
       </c>
       <c r="D44" t="n">
-        <v>0.16619</v>
+        <v>0.152851</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.105332</v>
+        <v>0.10245</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0792858</v>
+        <v>0.0857073</v>
       </c>
       <c r="D45" t="n">
-        <v>0.168993</v>
+        <v>0.161256</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.103445</v>
+        <v>0.106449</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0901136</v>
+        <v>0.08689040000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>0.173444</v>
+        <v>0.167021</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.104347</v>
+        <v>0.106606</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0820341</v>
+        <v>0.09043619999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>0.175713</v>
+        <v>0.17724</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.109524</v>
+        <v>0.102393</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0814566</v>
+        <v>0.0915332</v>
       </c>
       <c r="D48" t="n">
-        <v>0.188041</v>
+        <v>0.177371</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.105188</v>
+        <v>0.107792</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0889631</v>
+        <v>0.0932632</v>
       </c>
       <c r="D49" t="n">
-        <v>0.194511</v>
+        <v>0.186833</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.108156</v>
+        <v>0.10483</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0921061</v>
+        <v>0.0983357</v>
       </c>
       <c r="D50" t="n">
-        <v>0.189417</v>
+        <v>0.174631</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.107759</v>
+        <v>0.106684</v>
       </c>
       <c r="C51" t="n">
-        <v>0.164184</v>
+        <v>0.169919</v>
       </c>
       <c r="D51" t="n">
-        <v>0.195537</v>
+        <v>0.180193</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.115148</v>
+        <v>0.112253</v>
       </c>
       <c r="C52" t="n">
-        <v>0.177363</v>
+        <v>0.168808</v>
       </c>
       <c r="D52" t="n">
-        <v>0.20714</v>
+        <v>0.191344</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.205706</v>
+        <v>0.187259</v>
       </c>
       <c r="C53" t="n">
-        <v>0.173112</v>
+        <v>0.168641</v>
       </c>
       <c r="D53" t="n">
-        <v>0.212522</v>
+        <v>0.197804</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.204175</v>
+        <v>0.182797</v>
       </c>
       <c r="C54" t="n">
-        <v>0.170559</v>
+        <v>0.169793</v>
       </c>
       <c r="D54" t="n">
-        <v>0.235081</v>
+        <v>0.197582</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.193464</v>
+        <v>0.185704</v>
       </c>
       <c r="C55" t="n">
-        <v>0.176909</v>
+        <v>0.16769</v>
       </c>
       <c r="D55" t="n">
-        <v>0.227068</v>
+        <v>0.208892</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.203039</v>
+        <v>0.188702</v>
       </c>
       <c r="C56" t="n">
-        <v>0.171434</v>
+        <v>0.1689</v>
       </c>
       <c r="D56" t="n">
-        <v>0.23174</v>
+        <v>0.215303</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.206519</v>
+        <v>0.190427</v>
       </c>
       <c r="C57" t="n">
-        <v>0.169692</v>
+        <v>0.169213</v>
       </c>
       <c r="D57" t="n">
-        <v>0.245022</v>
+        <v>0.236864</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.210954</v>
+        <v>0.199009</v>
       </c>
       <c r="C58" t="n">
-        <v>0.176318</v>
+        <v>0.17701</v>
       </c>
       <c r="D58" t="n">
-        <v>0.266197</v>
+        <v>0.249186</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.206246</v>
+        <v>0.196573</v>
       </c>
       <c r="C59" t="n">
-        <v>0.170403</v>
+        <v>0.170366</v>
       </c>
       <c r="D59" t="n">
-        <v>0.27001</v>
+        <v>0.253763</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.204415</v>
+        <v>0.190374</v>
       </c>
       <c r="C60" t="n">
-        <v>0.186313</v>
+        <v>0.17983</v>
       </c>
       <c r="D60" t="n">
-        <v>0.278235</v>
+        <v>0.250741</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.210055</v>
+        <v>0.19955</v>
       </c>
       <c r="C61" t="n">
-        <v>0.183784</v>
+        <v>0.173648</v>
       </c>
       <c r="D61" t="n">
-        <v>0.286117</v>
+        <v>0.265317</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.207074</v>
+        <v>0.192754</v>
       </c>
       <c r="C62" t="n">
-        <v>0.178097</v>
+        <v>0.181013</v>
       </c>
       <c r="D62" t="n">
-        <v>0.312859</v>
+        <v>0.280271</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.212687</v>
+        <v>0.193098</v>
       </c>
       <c r="C63" t="n">
-        <v>0.194113</v>
+        <v>0.181773</v>
       </c>
       <c r="D63" t="n">
-        <v>0.316237</v>
+        <v>0.285034</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.213151</v>
+        <v>0.195038</v>
       </c>
       <c r="C64" t="n">
-        <v>0.185555</v>
+        <v>0.180421</v>
       </c>
       <c r="D64" t="n">
-        <v>0.318408</v>
+        <v>0.282621</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.216653</v>
+        <v>0.202002</v>
       </c>
       <c r="C65" t="n">
-        <v>0.199927</v>
+        <v>0.188292</v>
       </c>
       <c r="D65" t="n">
-        <v>0.331136</v>
+        <v>0.299712</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.211825</v>
+        <v>0.204795</v>
       </c>
       <c r="C66" t="n">
-        <v>0.274622</v>
+        <v>0.259254</v>
       </c>
       <c r="D66" t="n">
-        <v>0.310053</v>
+        <v>0.301652</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.294612</v>
+        <v>0.288006</v>
       </c>
       <c r="C67" t="n">
-        <v>0.266773</v>
+        <v>0.259865</v>
       </c>
       <c r="D67" t="n">
-        <v>0.345559</v>
+        <v>0.299766</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.306538</v>
+        <v>0.288372</v>
       </c>
       <c r="C68" t="n">
-        <v>0.268639</v>
+        <v>0.265939</v>
       </c>
       <c r="D68" t="n">
-        <v>0.350385</v>
+        <v>0.315862</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.313377</v>
+        <v>0.284851</v>
       </c>
       <c r="C69" t="n">
-        <v>0.279176</v>
+        <v>0.264013</v>
       </c>
       <c r="D69" t="n">
-        <v>0.35229</v>
+        <v>0.333345</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.312177</v>
+        <v>0.295599</v>
       </c>
       <c r="C70" t="n">
-        <v>0.270483</v>
+        <v>0.265673</v>
       </c>
       <c r="D70" t="n">
-        <v>0.369462</v>
+        <v>0.327498</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.329039</v>
+        <v>0.293442</v>
       </c>
       <c r="C71" t="n">
-        <v>0.26457</v>
+        <v>0.264577</v>
       </c>
       <c r="D71" t="n">
-        <v>0.374457</v>
+        <v>0.343438</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.33216</v>
+        <v>0.297164</v>
       </c>
       <c r="C72" t="n">
-        <v>0.27175</v>
+        <v>0.263618</v>
       </c>
       <c r="D72" t="n">
-        <v>0.380091</v>
+        <v>0.348268</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.313105</v>
+        <v>0.288359</v>
       </c>
       <c r="C73" t="n">
-        <v>0.274779</v>
+        <v>0.27226</v>
       </c>
       <c r="D73" t="n">
-        <v>0.39032</v>
+        <v>0.365073</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.318901</v>
+        <v>0.29386</v>
       </c>
       <c r="C74" t="n">
-        <v>0.277206</v>
+        <v>0.276199</v>
       </c>
       <c r="D74" t="n">
-        <v>0.397997</v>
+        <v>0.37404</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.30433</v>
+        <v>0.302016</v>
       </c>
       <c r="C75" t="n">
-        <v>0.275224</v>
+        <v>0.280152</v>
       </c>
       <c r="D75" t="n">
-        <v>0.417609</v>
+        <v>0.389139</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.329718</v>
+        <v>0.297517</v>
       </c>
       <c r="C76" t="n">
-        <v>0.282503</v>
+        <v>0.282086</v>
       </c>
       <c r="D76" t="n">
-        <v>0.426192</v>
+        <v>0.397935</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.325711</v>
+        <v>0.29032</v>
       </c>
       <c r="C77" t="n">
-        <v>0.280296</v>
+        <v>0.278165</v>
       </c>
       <c r="D77" t="n">
-        <v>0.448949</v>
+        <v>0.411475</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.308465</v>
+        <v>0.301339</v>
       </c>
       <c r="C78" t="n">
-        <v>0.282608</v>
+        <v>0.286462</v>
       </c>
       <c r="D78" t="n">
-        <v>0.388733</v>
+        <v>0.382737</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.311378</v>
+        <v>0.307659</v>
       </c>
       <c r="C79" t="n">
-        <v>0.285655</v>
+        <v>0.294905</v>
       </c>
       <c r="D79" t="n">
-        <v>0.397538</v>
+        <v>0.388016</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.318802</v>
+        <v>0.302943</v>
       </c>
       <c r="C80" t="n">
-        <v>0.387242</v>
+        <v>0.355803</v>
       </c>
       <c r="D80" t="n">
-        <v>0.412183</v>
+        <v>0.394966</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.395581</v>
+        <v>0.380624</v>
       </c>
       <c r="C81" t="n">
-        <v>0.383022</v>
+        <v>0.372119</v>
       </c>
       <c r="D81" t="n">
-        <v>0.423705</v>
+        <v>0.408414</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.395023</v>
+        <v>0.38974</v>
       </c>
       <c r="C82" t="n">
-        <v>0.38196</v>
+        <v>0.37467</v>
       </c>
       <c r="D82" t="n">
-        <v>0.424865</v>
+        <v>0.408759</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.406745</v>
+        <v>0.378783</v>
       </c>
       <c r="C83" t="n">
-        <v>0.370395</v>
+        <v>0.369119</v>
       </c>
       <c r="D83" t="n">
-        <v>0.449179</v>
+        <v>0.423667</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.391314</v>
+        <v>0.388789</v>
       </c>
       <c r="C84" t="n">
-        <v>0.372448</v>
+        <v>0.363855</v>
       </c>
       <c r="D84" t="n">
-        <v>0.464642</v>
+        <v>0.437432</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.413274</v>
+        <v>0.380893</v>
       </c>
       <c r="C85" t="n">
-        <v>0.370927</v>
+        <v>0.372923</v>
       </c>
       <c r="D85" t="n">
-        <v>0.471639</v>
+        <v>0.426891</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.390032</v>
+        <v>0.380893</v>
       </c>
       <c r="C86" t="n">
-        <v>0.381225</v>
+        <v>0.368857</v>
       </c>
       <c r="D86" t="n">
-        <v>0.458468</v>
+        <v>0.452081</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.395532</v>
+        <v>0.381943</v>
       </c>
       <c r="C87" t="n">
-        <v>0.387711</v>
+        <v>0.374275</v>
       </c>
       <c r="D87" t="n">
-        <v>0.486102</v>
+        <v>0.460513</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.396565</v>
+        <v>0.392921</v>
       </c>
       <c r="C88" t="n">
-        <v>0.377518</v>
+        <v>0.375794</v>
       </c>
       <c r="D88" t="n">
-        <v>0.497821</v>
+        <v>0.471813</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.403498</v>
+        <v>0.392339</v>
       </c>
       <c r="C89" t="n">
-        <v>0.374888</v>
+        <v>0.392721</v>
       </c>
       <c r="D89" t="n">
-        <v>0.491246</v>
+        <v>0.489615</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.405954</v>
+        <v>0.385174</v>
       </c>
       <c r="C90" t="n">
-        <v>0.385913</v>
+        <v>0.377486</v>
       </c>
       <c r="D90" t="n">
-        <v>0.525474</v>
+        <v>0.492075</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.388514</v>
+        <v>0.382706</v>
       </c>
       <c r="C91" t="n">
-        <v>0.373114</v>
+        <v>0.374101</v>
       </c>
       <c r="D91" t="n">
-        <v>0.515008</v>
+        <v>0.502978</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.410042</v>
+        <v>0.385443</v>
       </c>
       <c r="C92" t="n">
-        <v>0.378972</v>
+        <v>0.380566</v>
       </c>
       <c r="D92" t="n">
-        <v>0.472894</v>
+        <v>0.441315</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.419543</v>
+        <v>0.384137</v>
       </c>
       <c r="C93" t="n">
-        <v>0.389607</v>
+        <v>0.389419</v>
       </c>
       <c r="D93" t="n">
-        <v>0.483904</v>
+        <v>0.474261</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.41706</v>
+        <v>0.39715</v>
       </c>
       <c r="C94" t="n">
-        <v>0.483405</v>
+        <v>0.465573</v>
       </c>
       <c r="D94" t="n">
-        <v>0.492862</v>
+        <v>0.480006</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.519028</v>
+        <v>0.486024</v>
       </c>
       <c r="C95" t="n">
-        <v>0.474042</v>
+        <v>0.459263</v>
       </c>
       <c r="D95" t="n">
-        <v>0.515684</v>
+        <v>0.457515</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.484926</v>
+        <v>0.473123</v>
       </c>
       <c r="C96" t="n">
-        <v>0.477163</v>
+        <v>0.461548</v>
       </c>
       <c r="D96" t="n">
-        <v>0.487197</v>
+        <v>0.490125</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.49764</v>
+        <v>0.461723</v>
       </c>
       <c r="C97" t="n">
-        <v>0.472718</v>
+        <v>0.45516</v>
       </c>
       <c r="D97" t="n">
-        <v>0.515702</v>
+        <v>0.48232</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.502678</v>
+        <v>0.469168</v>
       </c>
       <c r="C98" t="n">
-        <v>0.490383</v>
+        <v>0.458896</v>
       </c>
       <c r="D98" t="n">
-        <v>0.536595</v>
+        <v>0.493578</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.488945</v>
+        <v>0.488057</v>
       </c>
       <c r="C99" t="n">
-        <v>0.485721</v>
+        <v>0.463903</v>
       </c>
       <c r="D99" t="n">
-        <v>0.518088</v>
+        <v>0.5196</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.48504</v>
+        <v>0.466552</v>
       </c>
       <c r="C100" t="n">
-        <v>0.487074</v>
+        <v>0.464691</v>
       </c>
       <c r="D100" t="n">
-        <v>0.532599</v>
+        <v>0.518859</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.501116</v>
+        <v>0.45798</v>
       </c>
       <c r="C101" t="n">
-        <v>0.476596</v>
+        <v>0.471527</v>
       </c>
       <c r="D101" t="n">
-        <v>0.554125</v>
+        <v>0.547306</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.518232</v>
+        <v>0.48205</v>
       </c>
       <c r="C102" t="n">
-        <v>0.483251</v>
+        <v>0.463286</v>
       </c>
       <c r="D102" t="n">
-        <v>0.571397</v>
+        <v>0.555446</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.518332</v>
+        <v>0.47599</v>
       </c>
       <c r="C103" t="n">
-        <v>0.498303</v>
+        <v>0.472394</v>
       </c>
       <c r="D103" t="n">
-        <v>0.571887</v>
+        <v>0.556758</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.490483</v>
+        <v>0.483862</v>
       </c>
       <c r="C104" t="n">
-        <v>0.482651</v>
+        <v>0.47701</v>
       </c>
       <c r="D104" t="n">
-        <v>0.572727</v>
+        <v>0.560007</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.501161</v>
+        <v>0.471717</v>
       </c>
       <c r="C105" t="n">
-        <v>0.479159</v>
+        <v>0.467383</v>
       </c>
       <c r="D105" t="n">
-        <v>0.609402</v>
+        <v>0.59744</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.49844</v>
+        <v>0.484527</v>
       </c>
       <c r="C106" t="n">
-        <v>0.50412</v>
+        <v>0.489414</v>
       </c>
       <c r="D106" t="n">
-        <v>0.626965</v>
+        <v>0.598519</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.533124</v>
+        <v>0.478927</v>
       </c>
       <c r="C107" t="n">
-        <v>0.5027199999999999</v>
+        <v>0.490673</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5275339999999999</v>
+        <v>0.533768</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.50842</v>
+        <v>0.482243</v>
       </c>
       <c r="C108" t="n">
-        <v>0.616671</v>
+        <v>0.553792</v>
       </c>
       <c r="D108" t="n">
-        <v>0.573439</v>
+        <v>0.526085</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.49668</v>
+        <v>0.493596</v>
       </c>
       <c r="C109" t="n">
-        <v>0.559146</v>
+        <v>0.551561</v>
       </c>
       <c r="D109" t="n">
-        <v>0.579705</v>
+        <v>0.525357</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.5955819999999999</v>
+        <v>0.57208</v>
       </c>
       <c r="C110" t="n">
-        <v>0.577753</v>
+        <v>0.553202</v>
       </c>
       <c r="D110" t="n">
-        <v>0.586137</v>
+        <v>0.560277</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.617181</v>
+        <v>0.584205</v>
       </c>
       <c r="C111" t="n">
-        <v>0.555848</v>
+        <v>0.545538</v>
       </c>
       <c r="D111" t="n">
-        <v>0.610581</v>
+        <v>0.582697</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.611596</v>
+        <v>0.577976</v>
       </c>
       <c r="C112" t="n">
-        <v>0.574024</v>
+        <v>0.54021</v>
       </c>
       <c r="D112" t="n">
-        <v>0.604455</v>
+        <v>0.567792</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.600332</v>
+        <v>0.580626</v>
       </c>
       <c r="C113" t="n">
-        <v>0.572691</v>
+        <v>0.576559</v>
       </c>
       <c r="D113" t="n">
-        <v>0.61136</v>
+        <v>0.580415</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.593916</v>
+        <v>0.5858100000000001</v>
       </c>
       <c r="C114" t="n">
-        <v>0.560072</v>
+        <v>0.547183</v>
       </c>
       <c r="D114" t="n">
-        <v>0.635332</v>
+        <v>0.599646</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.622786</v>
+        <v>0.587678</v>
       </c>
       <c r="C115" t="n">
-        <v>0.608904</v>
+        <v>0.567076</v>
       </c>
       <c r="D115" t="n">
-        <v>0.648278</v>
+        <v>0.61432</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.633473</v>
+        <v>0.583597</v>
       </c>
       <c r="C116" t="n">
-        <v>0.601351</v>
+        <v>0.558015</v>
       </c>
       <c r="D116" t="n">
-        <v>0.670157</v>
+        <v>0.612914</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.663986</v>
+        <v>0.583006</v>
       </c>
       <c r="C117" t="n">
-        <v>0.566468</v>
+        <v>0.565757</v>
       </c>
       <c r="D117" t="n">
-        <v>0.678691</v>
+        <v>0.629039</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.608089</v>
+        <v>0.578215</v>
       </c>
       <c r="C118" t="n">
-        <v>0.610773</v>
+        <v>0.548918</v>
       </c>
       <c r="D118" t="n">
-        <v>0.715606</v>
+        <v>0.642961</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.6274999999999999</v>
+        <v>0.59397</v>
       </c>
       <c r="C119" t="n">
-        <v>0.609656</v>
+        <v>0.554455</v>
       </c>
       <c r="D119" t="n">
-        <v>0.707533</v>
+        <v>0.640973</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.6569120000000001</v>
+        <v>0.586682</v>
       </c>
       <c r="C120" t="n">
-        <v>0.611081</v>
+        <v>0.564588</v>
       </c>
       <c r="D120" t="n">
-        <v>0.722414</v>
+        <v>0.677166</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.603909</v>
+        <v>0.611491</v>
       </c>
       <c r="C121" t="n">
-        <v>0.625592</v>
+        <v>0.5663629999999999</v>
       </c>
       <c r="D121" t="n">
-        <v>0.626261</v>
+        <v>0.6088249999999999</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.6050489999999999</v>
+        <v>0.620437</v>
       </c>
       <c r="C122" t="n">
-        <v>0.594812</v>
+        <v>0.587808</v>
       </c>
       <c r="D122" t="n">
-        <v>0.65468</v>
+        <v>0.597576</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.6170949999999999</v>
+        <v>0.601503</v>
       </c>
       <c r="C123" t="n">
-        <v>0.821496</v>
+        <v>0.672421</v>
       </c>
       <c r="D123" t="n">
-        <v>0.652962</v>
+        <v>0.622345</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.896016</v>
+        <v>0.76441</v>
       </c>
       <c r="C124" t="n">
-        <v>0.827797</v>
+        <v>0.690843</v>
       </c>
       <c r="D124" t="n">
-        <v>0.708032</v>
+        <v>0.630169</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.777936</v>
+        <v>0.753997</v>
       </c>
       <c r="C125" t="n">
-        <v>0.812171</v>
+        <v>0.688378</v>
       </c>
       <c r="D125" t="n">
-        <v>0.695699</v>
+        <v>0.645273</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.809334</v>
+        <v>0.765432</v>
       </c>
       <c r="C126" t="n">
-        <v>0.737826</v>
+        <v>0.682454</v>
       </c>
       <c r="D126" t="n">
-        <v>0.68605</v>
+        <v>0.653709</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.803986</v>
+        <v>0.765143</v>
       </c>
       <c r="C127" t="n">
-        <v>0.7108719999999999</v>
+        <v>0.697814</v>
       </c>
       <c r="D127" t="n">
-        <v>0.714902</v>
+        <v>0.6646069999999999</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.824914</v>
+        <v>0.7643450000000001</v>
       </c>
       <c r="C128" t="n">
-        <v>0.775332</v>
+        <v>0.701477</v>
       </c>
       <c r="D128" t="n">
-        <v>0.742788</v>
+        <v>0.684922</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.824579</v>
+        <v>0.7739509999999999</v>
       </c>
       <c r="C129" t="n">
-        <v>0.702274</v>
+        <v>0.696881</v>
       </c>
       <c r="D129" t="n">
-        <v>0.734021</v>
+        <v>0.715489</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.912193</v>
+        <v>0.883063</v>
       </c>
       <c r="C130" t="n">
-        <v>0.8224</v>
+        <v>0.701489</v>
       </c>
       <c r="D130" t="n">
-        <v>0.785185</v>
+        <v>0.708741</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.797095</v>
+        <v>0.763969</v>
       </c>
       <c r="C131" t="n">
-        <v>0.817762</v>
+        <v>0.68747</v>
       </c>
       <c r="D131" t="n">
-        <v>0.75846</v>
+        <v>0.729385</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.808351</v>
+        <v>0.765387</v>
       </c>
       <c r="C132" t="n">
-        <v>0.726349</v>
+        <v>0.696143</v>
       </c>
       <c r="D132" t="n">
-        <v>0.815378</v>
+        <v>0.738018</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.806023</v>
+        <v>0.766709</v>
       </c>
       <c r="C133" t="n">
-        <v>0.7239370000000001</v>
+        <v>0.703959</v>
       </c>
       <c r="D133" t="n">
-        <v>0.785708</v>
+        <v>0.765141</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.817773</v>
+        <v>0.7616540000000001</v>
       </c>
       <c r="C134" t="n">
-        <v>0.722333</v>
+        <v>0.709182</v>
       </c>
       <c r="D134" t="n">
-        <v>0.825346</v>
+        <v>0.771404</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.836614</v>
+        <v>0.784958</v>
       </c>
       <c r="C135" t="n">
-        <v>0.741213</v>
+        <v>0.724963</v>
       </c>
       <c r="D135" t="n">
-        <v>0.733532</v>
+        <v>0.707858</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.802609</v>
+        <v>0.781703</v>
       </c>
       <c r="C136" t="n">
-        <v>0.727028</v>
+        <v>0.732414</v>
       </c>
       <c r="D136" t="n">
-        <v>0.73951</v>
+        <v>0.724898</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.822621</v>
+        <v>0.787653</v>
       </c>
       <c r="C137" t="n">
-        <v>0.998771</v>
+        <v>0.880695</v>
       </c>
       <c r="D137" t="n">
-        <v>0.768163</v>
+        <v>0.734398</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.09749</v>
+        <v>0.970535</v>
       </c>
       <c r="C138" t="n">
-        <v>0.91251</v>
+        <v>0.886709</v>
       </c>
       <c r="D138" t="n">
-        <v>0.764332</v>
+        <v>0.758517</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.06061</v>
+        <v>0.994356</v>
       </c>
       <c r="C139" t="n">
-        <v>0.913225</v>
+        <v>0.877147</v>
       </c>
       <c r="D139" t="n">
-        <v>0.785686</v>
+        <v>0.757665</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.01449</v>
+        <v>0.991177</v>
       </c>
       <c r="C140" t="n">
-        <v>0.9068929999999999</v>
+        <v>0.884493</v>
       </c>
       <c r="D140" t="n">
-        <v>0.788919</v>
+        <v>0.7791130000000001</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.09089</v>
+        <v>1.08761</v>
       </c>
       <c r="C141" t="n">
-        <v>0.985412</v>
+        <v>0.874451</v>
       </c>
       <c r="D141" t="n">
-        <v>0.812159</v>
+        <v>0.78585</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.02014</v>
+        <v>1.00436</v>
       </c>
       <c r="C142" t="n">
-        <v>0.912119</v>
+        <v>0.886007</v>
       </c>
       <c r="D142" t="n">
-        <v>0.81945</v>
+        <v>0.806138</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.10487</v>
+        <v>1.0307</v>
       </c>
       <c r="C143" t="n">
-        <v>0.892725</v>
+        <v>0.882292</v>
       </c>
       <c r="D143" t="n">
-        <v>0.8584540000000001</v>
+        <v>0.823841</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0690876</v>
+        <v>0.06433759999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0621533</v>
+        <v>0.058241</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0979425</v>
+        <v>0.0961243</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0655029</v>
+        <v>0.0654754</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0602755</v>
+        <v>0.0589157</v>
       </c>
       <c r="D3" t="n">
-        <v>0.107876</v>
+        <v>0.100217</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0697755</v>
+        <v>0.06573370000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0653769</v>
+        <v>0.0594287</v>
       </c>
       <c r="D4" t="n">
-        <v>0.111999</v>
+        <v>0.101843</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0712348</v>
+        <v>0.0669821</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06614100000000001</v>
+        <v>0.0623017</v>
       </c>
       <c r="D5" t="n">
-        <v>0.115403</v>
+        <v>0.108079</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0688981</v>
+        <v>0.0662341</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06484040000000001</v>
+        <v>0.0626444</v>
       </c>
       <c r="D6" t="n">
-        <v>0.117026</v>
+        <v>0.109732</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0773461</v>
+        <v>0.06563960000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0691529</v>
+        <v>0.0667859</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08838119999999999</v>
+        <v>0.0849911</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0709534</v>
+        <v>0.0673565</v>
       </c>
       <c r="C8" t="n">
-        <v>0.074016</v>
+        <v>0.0703303</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0918482</v>
+        <v>0.08961</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.069615</v>
+        <v>0.06819070000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0621467</v>
+        <v>0.0610531</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0903656</v>
+        <v>0.08904479999999999</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0742182</v>
+        <v>0.0747704</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0610919</v>
+        <v>0.0594764</v>
       </c>
       <c r="D10" t="n">
-        <v>0.09370390000000001</v>
+        <v>0.0923575</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0761468</v>
+        <v>0.07380730000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0614717</v>
+        <v>0.0609877</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0929601</v>
+        <v>0.09375749999999999</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0760267</v>
+        <v>0.0740468</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06251080000000001</v>
+        <v>0.0613643</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0964885</v>
+        <v>0.0977952</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0757898</v>
+        <v>0.0766807</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0632253</v>
+        <v>0.0640902</v>
       </c>
       <c r="D13" t="n">
-        <v>0.100466</v>
+        <v>0.10041</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.07749789999999999</v>
+        <v>0.0746199</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0652356</v>
+        <v>0.0626425</v>
       </c>
       <c r="D14" t="n">
-        <v>0.101617</v>
+        <v>0.104084</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.07752580000000001</v>
+        <v>0.0753257</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0635196</v>
+        <v>0.0648864</v>
       </c>
       <c r="D15" t="n">
-        <v>0.107556</v>
+        <v>0.106772</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0743069</v>
+        <v>0.0796911</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0635898</v>
+        <v>0.0635196</v>
       </c>
       <c r="D16" t="n">
-        <v>0.109387</v>
+        <v>0.115942</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0753751</v>
+        <v>0.0767771</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0642094</v>
+        <v>0.0675086</v>
       </c>
       <c r="D17" t="n">
-        <v>0.114874</v>
+        <v>0.112267</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.080558</v>
+        <v>0.0758537</v>
       </c>
       <c r="C18" t="n">
-        <v>0.06660720000000001</v>
+        <v>0.06589830000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.115239</v>
+        <v>0.116832</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.07889110000000001</v>
+        <v>0.0758284</v>
       </c>
       <c r="C19" t="n">
-        <v>0.06836639999999999</v>
+        <v>0.0654773</v>
       </c>
       <c r="D19" t="n">
-        <v>0.120106</v>
+        <v>0.121395</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0781051</v>
+        <v>0.0754254</v>
       </c>
       <c r="C20" t="n">
-        <v>0.06871530000000001</v>
+        <v>0.06930790000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.119169</v>
+        <v>0.123101</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0773142</v>
+        <v>0.0789323</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0710138</v>
+        <v>0.0719651</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0929434</v>
+        <v>0.0939851</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.07842</v>
+        <v>0.0794246</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0750695</v>
+        <v>0.0762031</v>
       </c>
       <c r="D22" t="n">
-        <v>0.093072</v>
+        <v>0.09809130000000001</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0819453</v>
+        <v>0.08004260000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0692169</v>
+        <v>0.0703835</v>
       </c>
       <c r="D23" t="n">
-        <v>0.09701799999999999</v>
+        <v>0.101121</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0848839</v>
+        <v>0.0836457</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0679671</v>
+        <v>0.0709542</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0999189</v>
+        <v>0.100322</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.08277</v>
+        <v>0.0828646</v>
       </c>
       <c r="C25" t="n">
-        <v>0.06937400000000001</v>
+        <v>0.0690268</v>
       </c>
       <c r="D25" t="n">
-        <v>0.101787</v>
+        <v>0.103937</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0819124</v>
+        <v>0.0852699</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0677189</v>
+        <v>0.07047100000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>0.106297</v>
+        <v>0.105022</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0848979</v>
+        <v>0.0809704</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0679796</v>
+        <v>0.06814340000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>0.106525</v>
+        <v>0.112232</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.08274919999999999</v>
+        <v>0.0814431</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0711682</v>
+        <v>0.0670374</v>
       </c>
       <c r="D28" t="n">
-        <v>0.114342</v>
+        <v>0.112368</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0863328</v>
+        <v>0.0843592</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0738023</v>
+        <v>0.0704231</v>
       </c>
       <c r="D29" t="n">
-        <v>0.119302</v>
+        <v>0.119639</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0835272</v>
+        <v>0.0857367</v>
       </c>
       <c r="C30" t="n">
-        <v>0.06819169999999999</v>
+        <v>0.0687185</v>
       </c>
       <c r="D30" t="n">
-        <v>0.12361</v>
+        <v>0.123293</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0849072</v>
+        <v>0.08402900000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0698522</v>
+        <v>0.0708791</v>
       </c>
       <c r="D31" t="n">
-        <v>0.129533</v>
+        <v>0.125773</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0876265</v>
+        <v>0.0842479</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0749978</v>
+        <v>0.0713207</v>
       </c>
       <c r="D32" t="n">
-        <v>0.132524</v>
+        <v>0.125822</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.08650960000000001</v>
+        <v>0.08387500000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>0.072785</v>
+        <v>0.073902</v>
       </c>
       <c r="D33" t="n">
-        <v>0.132877</v>
+        <v>0.133568</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0853005</v>
+        <v>0.0858286</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0751612</v>
+        <v>0.0748764</v>
       </c>
       <c r="D34" t="n">
-        <v>0.140001</v>
+        <v>0.139605</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.08688899999999999</v>
+        <v>0.08443100000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0754988</v>
+        <v>0.0780025</v>
       </c>
       <c r="D35" t="n">
-        <v>0.113799</v>
+        <v>0.111957</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0883548</v>
+        <v>0.0890034</v>
       </c>
       <c r="C36" t="n">
-        <v>0.07828739999999999</v>
+        <v>0.08159959999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>0.118802</v>
+        <v>0.119538</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.09325600000000001</v>
+        <v>0.0875797</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0755369</v>
+        <v>0.0768119</v>
       </c>
       <c r="D37" t="n">
-        <v>0.123415</v>
+        <v>0.120622</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.105759</v>
+        <v>0.104687</v>
       </c>
       <c r="C38" t="n">
-        <v>0.07496609999999999</v>
+        <v>0.07691820000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.126266</v>
+        <v>0.124089</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.109507</v>
+        <v>0.105277</v>
       </c>
       <c r="C39" t="n">
-        <v>0.07699400000000001</v>
+        <v>0.0765964</v>
       </c>
       <c r="D39" t="n">
-        <v>0.134363</v>
+        <v>0.128237</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.106273</v>
+        <v>0.103333</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0773998</v>
+        <v>0.07974050000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>0.140814</v>
+        <v>0.133434</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.102207</v>
+        <v>0.101784</v>
       </c>
       <c r="C41" t="n">
-        <v>0.08090600000000001</v>
+        <v>0.0773804</v>
       </c>
       <c r="D41" t="n">
-        <v>0.140255</v>
+        <v>0.136814</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.105222</v>
+        <v>0.104699</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0787125</v>
+        <v>0.0760122</v>
       </c>
       <c r="D42" t="n">
-        <v>0.151679</v>
+        <v>0.144421</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.10681</v>
+        <v>0.100008</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0753243</v>
+        <v>0.0769686</v>
       </c>
       <c r="D43" t="n">
-        <v>0.155313</v>
+        <v>0.148992</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.101947</v>
+        <v>0.101607</v>
       </c>
       <c r="C44" t="n">
-        <v>0.07936120000000001</v>
+        <v>0.0824916</v>
       </c>
       <c r="D44" t="n">
-        <v>0.16619</v>
+        <v>0.151735</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.105332</v>
+        <v>0.10318</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0792858</v>
+        <v>0.0783148</v>
       </c>
       <c r="D45" t="n">
-        <v>0.168993</v>
+        <v>0.163032</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.103445</v>
+        <v>0.109195</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0901136</v>
+        <v>0.07861070000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>0.173444</v>
+        <v>0.169245</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.104347</v>
+        <v>0.102388</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0820341</v>
+        <v>0.0823769</v>
       </c>
       <c r="D47" t="n">
-        <v>0.175713</v>
+        <v>0.172028</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.109524</v>
+        <v>0.108914</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0814566</v>
+        <v>0.0805192</v>
       </c>
       <c r="D48" t="n">
-        <v>0.188041</v>
+        <v>0.185227</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.105188</v>
+        <v>0.106597</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0889631</v>
+        <v>0.08595800000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>0.194511</v>
+        <v>0.19515</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.108156</v>
+        <v>0.10922</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0921061</v>
+        <v>0.08712780000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>0.189417</v>
+        <v>0.184378</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.107759</v>
+        <v>0.112217</v>
       </c>
       <c r="C51" t="n">
-        <v>0.164184</v>
+        <v>0.166737</v>
       </c>
       <c r="D51" t="n">
-        <v>0.195537</v>
+        <v>0.181313</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.115148</v>
+        <v>0.111806</v>
       </c>
       <c r="C52" t="n">
-        <v>0.177363</v>
+        <v>0.16566</v>
       </c>
       <c r="D52" t="n">
-        <v>0.20714</v>
+        <v>0.193365</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.205706</v>
+        <v>0.187782</v>
       </c>
       <c r="C53" t="n">
-        <v>0.173112</v>
+        <v>0.171774</v>
       </c>
       <c r="D53" t="n">
-        <v>0.212522</v>
+        <v>0.200545</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.204175</v>
+        <v>0.190311</v>
       </c>
       <c r="C54" t="n">
-        <v>0.170559</v>
+        <v>0.169592</v>
       </c>
       <c r="D54" t="n">
-        <v>0.235081</v>
+        <v>0.200292</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.193464</v>
+        <v>0.187712</v>
       </c>
       <c r="C55" t="n">
-        <v>0.176909</v>
+        <v>0.167306</v>
       </c>
       <c r="D55" t="n">
-        <v>0.227068</v>
+        <v>0.209801</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.203039</v>
+        <v>0.184902</v>
       </c>
       <c r="C56" t="n">
-        <v>0.171434</v>
+        <v>0.168348</v>
       </c>
       <c r="D56" t="n">
-        <v>0.23174</v>
+        <v>0.22553</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.206519</v>
+        <v>0.187889</v>
       </c>
       <c r="C57" t="n">
-        <v>0.169692</v>
+        <v>0.169093</v>
       </c>
       <c r="D57" t="n">
-        <v>0.245022</v>
+        <v>0.22262</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.210954</v>
+        <v>0.194749</v>
       </c>
       <c r="C58" t="n">
-        <v>0.176318</v>
+        <v>0.173585</v>
       </c>
       <c r="D58" t="n">
-        <v>0.266197</v>
+        <v>0.235881</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.206246</v>
+        <v>0.195665</v>
       </c>
       <c r="C59" t="n">
-        <v>0.170403</v>
+        <v>0.171776</v>
       </c>
       <c r="D59" t="n">
-        <v>0.27001</v>
+        <v>0.259354</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.204415</v>
+        <v>0.191932</v>
       </c>
       <c r="C60" t="n">
-        <v>0.186313</v>
+        <v>0.171436</v>
       </c>
       <c r="D60" t="n">
-        <v>0.278235</v>
+        <v>0.257737</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.210055</v>
+        <v>0.196368</v>
       </c>
       <c r="C61" t="n">
-        <v>0.183784</v>
+        <v>0.173212</v>
       </c>
       <c r="D61" t="n">
-        <v>0.286117</v>
+        <v>0.265121</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.207074</v>
+        <v>0.198703</v>
       </c>
       <c r="C62" t="n">
-        <v>0.178097</v>
+        <v>0.173521</v>
       </c>
       <c r="D62" t="n">
-        <v>0.312859</v>
+        <v>0.289313</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.212687</v>
+        <v>0.189792</v>
       </c>
       <c r="C63" t="n">
-        <v>0.194113</v>
+        <v>0.172878</v>
       </c>
       <c r="D63" t="n">
-        <v>0.316237</v>
+        <v>0.281998</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.213151</v>
+        <v>0.193164</v>
       </c>
       <c r="C64" t="n">
-        <v>0.185555</v>
+        <v>0.176156</v>
       </c>
       <c r="D64" t="n">
-        <v>0.318408</v>
+        <v>0.285053</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.216653</v>
+        <v>0.257465</v>
       </c>
       <c r="C65" t="n">
-        <v>0.199927</v>
+        <v>0.195571</v>
       </c>
       <c r="D65" t="n">
-        <v>0.331136</v>
+        <v>0.322435</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.211825</v>
+        <v>0.201582</v>
       </c>
       <c r="C66" t="n">
-        <v>0.274622</v>
+        <v>0.254835</v>
       </c>
       <c r="D66" t="n">
-        <v>0.310053</v>
+        <v>0.309972</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.294612</v>
+        <v>0.292407</v>
       </c>
       <c r="C67" t="n">
-        <v>0.266773</v>
+        <v>0.25493</v>
       </c>
       <c r="D67" t="n">
-        <v>0.345559</v>
+        <v>0.307515</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.306538</v>
+        <v>0.30404</v>
       </c>
       <c r="C68" t="n">
-        <v>0.268639</v>
+        <v>0.267923</v>
       </c>
       <c r="D68" t="n">
-        <v>0.350385</v>
+        <v>0.31377</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.313377</v>
+        <v>0.287025</v>
       </c>
       <c r="C69" t="n">
-        <v>0.279176</v>
+        <v>0.26886</v>
       </c>
       <c r="D69" t="n">
-        <v>0.35229</v>
+        <v>0.32805</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.312177</v>
+        <v>0.294449</v>
       </c>
       <c r="C70" t="n">
-        <v>0.270483</v>
+        <v>0.262356</v>
       </c>
       <c r="D70" t="n">
-        <v>0.369462</v>
+        <v>0.342871</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.329039</v>
+        <v>0.294893</v>
       </c>
       <c r="C71" t="n">
-        <v>0.26457</v>
+        <v>0.260976</v>
       </c>
       <c r="D71" t="n">
-        <v>0.374457</v>
+        <v>0.343618</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.33216</v>
+        <v>0.295386</v>
       </c>
       <c r="C72" t="n">
-        <v>0.27175</v>
+        <v>0.275242</v>
       </c>
       <c r="D72" t="n">
-        <v>0.380091</v>
+        <v>0.358715</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.313105</v>
+        <v>0.295415</v>
       </c>
       <c r="C73" t="n">
-        <v>0.274779</v>
+        <v>0.272485</v>
       </c>
       <c r="D73" t="n">
-        <v>0.39032</v>
+        <v>0.369746</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.318901</v>
+        <v>0.29442</v>
       </c>
       <c r="C74" t="n">
-        <v>0.277206</v>
+        <v>0.26904</v>
       </c>
       <c r="D74" t="n">
-        <v>0.397997</v>
+        <v>0.375975</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.30433</v>
+        <v>0.310054</v>
       </c>
       <c r="C75" t="n">
-        <v>0.275224</v>
+        <v>0.273828</v>
       </c>
       <c r="D75" t="n">
-        <v>0.417609</v>
+        <v>0.383356</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.329718</v>
+        <v>0.294552</v>
       </c>
       <c r="C76" t="n">
-        <v>0.282503</v>
+        <v>0.268679</v>
       </c>
       <c r="D76" t="n">
-        <v>0.426192</v>
+        <v>0.400903</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.325711</v>
+        <v>0.297691</v>
       </c>
       <c r="C77" t="n">
-        <v>0.280296</v>
+        <v>0.284942</v>
       </c>
       <c r="D77" t="n">
-        <v>0.448949</v>
+        <v>0.418563</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.308465</v>
+        <v>0.308962</v>
       </c>
       <c r="C78" t="n">
-        <v>0.282608</v>
+        <v>0.280085</v>
       </c>
       <c r="D78" t="n">
-        <v>0.388733</v>
+        <v>0.389391</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.311378</v>
+        <v>0.298585</v>
       </c>
       <c r="C79" t="n">
-        <v>0.285655</v>
+        <v>0.284638</v>
       </c>
       <c r="D79" t="n">
-        <v>0.397538</v>
+        <v>0.384629</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.318802</v>
+        <v>0.313876</v>
       </c>
       <c r="C80" t="n">
-        <v>0.387242</v>
+        <v>0.358066</v>
       </c>
       <c r="D80" t="n">
-        <v>0.412183</v>
+        <v>0.396318</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.395581</v>
+        <v>0.383192</v>
       </c>
       <c r="C81" t="n">
-        <v>0.383022</v>
+        <v>0.366636</v>
       </c>
       <c r="D81" t="n">
-        <v>0.423705</v>
+        <v>0.414094</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.395023</v>
+        <v>0.380392</v>
       </c>
       <c r="C82" t="n">
-        <v>0.38196</v>
+        <v>0.362149</v>
       </c>
       <c r="D82" t="n">
-        <v>0.424865</v>
+        <v>0.413829</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.406745</v>
+        <v>0.385182</v>
       </c>
       <c r="C83" t="n">
-        <v>0.370395</v>
+        <v>0.362433</v>
       </c>
       <c r="D83" t="n">
-        <v>0.449179</v>
+        <v>0.444707</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.391314</v>
+        <v>0.395791</v>
       </c>
       <c r="C84" t="n">
-        <v>0.372448</v>
+        <v>0.365388</v>
       </c>
       <c r="D84" t="n">
-        <v>0.464642</v>
+        <v>0.431643</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.413274</v>
+        <v>0.384461</v>
       </c>
       <c r="C85" t="n">
-        <v>0.370927</v>
+        <v>0.377086</v>
       </c>
       <c r="D85" t="n">
-        <v>0.471639</v>
+        <v>0.445164</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.390032</v>
+        <v>0.391883</v>
       </c>
       <c r="C86" t="n">
-        <v>0.381225</v>
+        <v>0.368717</v>
       </c>
       <c r="D86" t="n">
-        <v>0.458468</v>
+        <v>0.457019</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.395532</v>
+        <v>0.395952</v>
       </c>
       <c r="C87" t="n">
-        <v>0.387711</v>
+        <v>0.372075</v>
       </c>
       <c r="D87" t="n">
-        <v>0.486102</v>
+        <v>0.463906</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.396565</v>
+        <v>0.397738</v>
       </c>
       <c r="C88" t="n">
-        <v>0.377518</v>
+        <v>0.370453</v>
       </c>
       <c r="D88" t="n">
-        <v>0.497821</v>
+        <v>0.486516</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.403498</v>
+        <v>0.401198</v>
       </c>
       <c r="C89" t="n">
-        <v>0.374888</v>
+        <v>0.376003</v>
       </c>
       <c r="D89" t="n">
-        <v>0.491246</v>
+        <v>0.492922</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.405954</v>
+        <v>0.382292</v>
       </c>
       <c r="C90" t="n">
-        <v>0.385913</v>
+        <v>0.373694</v>
       </c>
       <c r="D90" t="n">
-        <v>0.525474</v>
+        <v>0.500933</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.388514</v>
+        <v>0.396151</v>
       </c>
       <c r="C91" t="n">
-        <v>0.373114</v>
+        <v>0.386201</v>
       </c>
       <c r="D91" t="n">
-        <v>0.515008</v>
+        <v>0.512758</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.410042</v>
+        <v>0.385838</v>
       </c>
       <c r="C92" t="n">
-        <v>0.378972</v>
+        <v>0.374978</v>
       </c>
       <c r="D92" t="n">
-        <v>0.472894</v>
+        <v>0.447928</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.419543</v>
+        <v>0.388208</v>
       </c>
       <c r="C93" t="n">
-        <v>0.389607</v>
+        <v>0.373525</v>
       </c>
       <c r="D93" t="n">
-        <v>0.483904</v>
+        <v>0.450738</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.41706</v>
+        <v>0.389041</v>
       </c>
       <c r="C94" t="n">
-        <v>0.483405</v>
+        <v>0.455327</v>
       </c>
       <c r="D94" t="n">
-        <v>0.492862</v>
+        <v>0.470941</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.519028</v>
+        <v>0.459117</v>
       </c>
       <c r="C95" t="n">
-        <v>0.474042</v>
+        <v>0.460019</v>
       </c>
       <c r="D95" t="n">
-        <v>0.515684</v>
+        <v>0.458945</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.484926</v>
+        <v>0.476252</v>
       </c>
       <c r="C96" t="n">
-        <v>0.477163</v>
+        <v>0.467421</v>
       </c>
       <c r="D96" t="n">
-        <v>0.487197</v>
+        <v>0.482066</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.49764</v>
+        <v>0.479152</v>
       </c>
       <c r="C97" t="n">
-        <v>0.472718</v>
+        <v>0.45519</v>
       </c>
       <c r="D97" t="n">
-        <v>0.515702</v>
+        <v>0.479568</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.502678</v>
+        <v>0.471283</v>
       </c>
       <c r="C98" t="n">
-        <v>0.490383</v>
+        <v>0.455222</v>
       </c>
       <c r="D98" t="n">
-        <v>0.536595</v>
+        <v>0.49801</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.488945</v>
+        <v>0.469332</v>
       </c>
       <c r="C99" t="n">
-        <v>0.485721</v>
+        <v>0.461104</v>
       </c>
       <c r="D99" t="n">
-        <v>0.518088</v>
+        <v>0.51867</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.48504</v>
+        <v>0.466821</v>
       </c>
       <c r="C100" t="n">
-        <v>0.487074</v>
+        <v>0.46394</v>
       </c>
       <c r="D100" t="n">
-        <v>0.532599</v>
+        <v>0.5203410000000001</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.501116</v>
+        <v>0.467421</v>
       </c>
       <c r="C101" t="n">
-        <v>0.476596</v>
+        <v>0.459022</v>
       </c>
       <c r="D101" t="n">
-        <v>0.554125</v>
+        <v>0.524235</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.518232</v>
+        <v>0.470477</v>
       </c>
       <c r="C102" t="n">
-        <v>0.483251</v>
+        <v>0.468782</v>
       </c>
       <c r="D102" t="n">
-        <v>0.571397</v>
+        <v>0.545702</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.518332</v>
+        <v>0.474158</v>
       </c>
       <c r="C103" t="n">
-        <v>0.498303</v>
+        <v>0.468931</v>
       </c>
       <c r="D103" t="n">
-        <v>0.571887</v>
+        <v>0.550121</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.490483</v>
+        <v>0.472859</v>
       </c>
       <c r="C104" t="n">
-        <v>0.482651</v>
+        <v>0.467126</v>
       </c>
       <c r="D104" t="n">
-        <v>0.572727</v>
+        <v>0.574187</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.501161</v>
+        <v>0.474718</v>
       </c>
       <c r="C105" t="n">
-        <v>0.479159</v>
+        <v>0.463769</v>
       </c>
       <c r="D105" t="n">
-        <v>0.609402</v>
+        <v>0.575702</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.49844</v>
+        <v>0.459924</v>
       </c>
       <c r="C106" t="n">
-        <v>0.50412</v>
+        <v>0.465114</v>
       </c>
       <c r="D106" t="n">
-        <v>0.626965</v>
+        <v>0.599695</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.533124</v>
+        <v>0.464168</v>
       </c>
       <c r="C107" t="n">
-        <v>0.5027199999999999</v>
+        <v>0.484008</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5275339999999999</v>
+        <v>0.510178</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.50842</v>
+        <v>0.475475</v>
       </c>
       <c r="C108" t="n">
-        <v>0.616671</v>
+        <v>0.551634</v>
       </c>
       <c r="D108" t="n">
-        <v>0.573439</v>
+        <v>0.529464</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.49668</v>
+        <v>0.480668</v>
       </c>
       <c r="C109" t="n">
-        <v>0.559146</v>
+        <v>0.545392</v>
       </c>
       <c r="D109" t="n">
-        <v>0.579705</v>
+        <v>0.537152</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.5955819999999999</v>
+        <v>0.579839</v>
       </c>
       <c r="C110" t="n">
-        <v>0.577753</v>
+        <v>0.54239</v>
       </c>
       <c r="D110" t="n">
-        <v>0.586137</v>
+        <v>0.541157</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.617181</v>
+        <v>0.581242</v>
       </c>
       <c r="C111" t="n">
-        <v>0.555848</v>
+        <v>0.548808</v>
       </c>
       <c r="D111" t="n">
-        <v>0.610581</v>
+        <v>0.558979</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.611596</v>
+        <v>0.5824549999999999</v>
       </c>
       <c r="C112" t="n">
-        <v>0.574024</v>
+        <v>0.563962</v>
       </c>
       <c r="D112" t="n">
-        <v>0.604455</v>
+        <v>0.562769</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.600332</v>
+        <v>0.578163</v>
       </c>
       <c r="C113" t="n">
-        <v>0.572691</v>
+        <v>0.551143</v>
       </c>
       <c r="D113" t="n">
-        <v>0.61136</v>
+        <v>0.578244</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.593916</v>
+        <v>0.571501</v>
       </c>
       <c r="C114" t="n">
-        <v>0.560072</v>
+        <v>0.557665</v>
       </c>
       <c r="D114" t="n">
-        <v>0.635332</v>
+        <v>0.605835</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.622786</v>
+        <v>0.574079</v>
       </c>
       <c r="C115" t="n">
-        <v>0.608904</v>
+        <v>0.55419</v>
       </c>
       <c r="D115" t="n">
-        <v>0.648278</v>
+        <v>0.614645</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.633473</v>
+        <v>0.579649</v>
       </c>
       <c r="C116" t="n">
-        <v>0.601351</v>
+        <v>0.543094</v>
       </c>
       <c r="D116" t="n">
-        <v>0.670157</v>
+        <v>0.6046589999999999</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.663986</v>
+        <v>0.574442</v>
       </c>
       <c r="C117" t="n">
-        <v>0.566468</v>
+        <v>0.552302</v>
       </c>
       <c r="D117" t="n">
-        <v>0.678691</v>
+        <v>0.632049</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.608089</v>
+        <v>0.595983</v>
       </c>
       <c r="C118" t="n">
-        <v>0.610773</v>
+        <v>0.550222</v>
       </c>
       <c r="D118" t="n">
-        <v>0.715606</v>
+        <v>0.632108</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.6274999999999999</v>
+        <v>0.580025</v>
       </c>
       <c r="C119" t="n">
-        <v>0.609656</v>
+        <v>0.548834</v>
       </c>
       <c r="D119" t="n">
-        <v>0.707533</v>
+        <v>0.6431480000000001</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.6569120000000001</v>
+        <v>0.583566</v>
       </c>
       <c r="C120" t="n">
-        <v>0.611081</v>
+        <v>0.547244</v>
       </c>
       <c r="D120" t="n">
-        <v>0.722414</v>
+        <v>0.664185</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.603909</v>
+        <v>0.57857</v>
       </c>
       <c r="C121" t="n">
-        <v>0.625592</v>
+        <v>0.562705</v>
       </c>
       <c r="D121" t="n">
-        <v>0.626261</v>
+        <v>0.584157</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.6050489999999999</v>
+        <v>0.592161</v>
       </c>
       <c r="C122" t="n">
-        <v>0.594812</v>
+        <v>0.567937</v>
       </c>
       <c r="D122" t="n">
-        <v>0.65468</v>
+        <v>0.6049909999999999</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.6170949999999999</v>
+        <v>0.581301</v>
       </c>
       <c r="C123" t="n">
-        <v>0.821496</v>
+        <v>0.681772</v>
       </c>
       <c r="D123" t="n">
-        <v>0.652962</v>
+        <v>0.618914</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.896016</v>
+        <v>0.756702</v>
       </c>
       <c r="C124" t="n">
-        <v>0.827797</v>
+        <v>0.682084</v>
       </c>
       <c r="D124" t="n">
-        <v>0.708032</v>
+        <v>0.629381</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.777936</v>
+        <v>0.77068</v>
       </c>
       <c r="C125" t="n">
-        <v>0.812171</v>
+        <v>0.6802510000000001</v>
       </c>
       <c r="D125" t="n">
-        <v>0.695699</v>
+        <v>0.644845</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.809334</v>
+        <v>0.756321</v>
       </c>
       <c r="C126" t="n">
-        <v>0.737826</v>
+        <v>0.750255</v>
       </c>
       <c r="D126" t="n">
-        <v>0.68605</v>
+        <v>0.649469</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.803986</v>
+        <v>0.75696</v>
       </c>
       <c r="C127" t="n">
-        <v>0.7108719999999999</v>
+        <v>0.668041</v>
       </c>
       <c r="D127" t="n">
-        <v>0.714902</v>
+        <v>0.673562</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.824914</v>
+        <v>0.769766</v>
       </c>
       <c r="C128" t="n">
-        <v>0.775332</v>
+        <v>0.701224</v>
       </c>
       <c r="D128" t="n">
-        <v>0.742788</v>
+        <v>0.6754790000000001</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.824579</v>
+        <v>0.76654</v>
       </c>
       <c r="C129" t="n">
-        <v>0.702274</v>
+        <v>0.680343</v>
       </c>
       <c r="D129" t="n">
-        <v>0.734021</v>
+        <v>0.688127</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.912193</v>
+        <v>0.768015</v>
       </c>
       <c r="C130" t="n">
-        <v>0.8224</v>
+        <v>0.709217</v>
       </c>
       <c r="D130" t="n">
-        <v>0.785185</v>
+        <v>0.711772</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.797095</v>
+        <v>0.751551</v>
       </c>
       <c r="C131" t="n">
-        <v>0.817762</v>
+        <v>0.676325</v>
       </c>
       <c r="D131" t="n">
-        <v>0.75846</v>
+        <v>0.723231</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.808351</v>
+        <v>0.762155</v>
       </c>
       <c r="C132" t="n">
-        <v>0.726349</v>
+        <v>0.698761</v>
       </c>
       <c r="D132" t="n">
-        <v>0.815378</v>
+        <v>0.7627080000000001</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.806023</v>
+        <v>0.767087</v>
       </c>
       <c r="C133" t="n">
-        <v>0.7239370000000001</v>
+        <v>0.704592</v>
       </c>
       <c r="D133" t="n">
-        <v>0.785708</v>
+        <v>0.7546929999999999</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.817773</v>
+        <v>0.7584880000000001</v>
       </c>
       <c r="C134" t="n">
-        <v>0.722333</v>
+        <v>0.703663</v>
       </c>
       <c r="D134" t="n">
-        <v>0.825346</v>
+        <v>0.768983</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.836614</v>
+        <v>0.769715</v>
       </c>
       <c r="C135" t="n">
-        <v>0.741213</v>
+        <v>0.705219</v>
       </c>
       <c r="D135" t="n">
-        <v>0.733532</v>
+        <v>0.715349</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.802609</v>
+        <v>0.796277</v>
       </c>
       <c r="C136" t="n">
-        <v>0.727028</v>
+        <v>0.714506</v>
       </c>
       <c r="D136" t="n">
-        <v>0.73951</v>
+        <v>0.728209</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.822621</v>
+        <v>0.780769</v>
       </c>
       <c r="C137" t="n">
-        <v>0.998771</v>
+        <v>0.877459</v>
       </c>
       <c r="D137" t="n">
-        <v>0.768163</v>
+        <v>0.735388</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.09749</v>
+        <v>0.998138</v>
       </c>
       <c r="C138" t="n">
-        <v>0.91251</v>
+        <v>0.880383</v>
       </c>
       <c r="D138" t="n">
-        <v>0.764332</v>
+        <v>0.764012</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.06061</v>
+        <v>0.987082</v>
       </c>
       <c r="C139" t="n">
-        <v>0.913225</v>
+        <v>0.882836</v>
       </c>
       <c r="D139" t="n">
-        <v>0.785686</v>
+        <v>0.756383</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.01449</v>
+        <v>0.994829</v>
       </c>
       <c r="C140" t="n">
-        <v>0.9068929999999999</v>
+        <v>0.8809439999999999</v>
       </c>
       <c r="D140" t="n">
-        <v>0.788919</v>
+        <v>0.773346</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.09089</v>
+        <v>1.01141</v>
       </c>
       <c r="C141" t="n">
-        <v>0.985412</v>
+        <v>0.881247</v>
       </c>
       <c r="D141" t="n">
-        <v>0.812159</v>
+        <v>0.782151</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.02014</v>
+        <v>0.991457</v>
       </c>
       <c r="C142" t="n">
-        <v>0.912119</v>
+        <v>0.885011</v>
       </c>
       <c r="D142" t="n">
-        <v>0.81945</v>
+        <v>0.8001</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.10487</v>
+        <v>0.990119</v>
       </c>
       <c r="C143" t="n">
-        <v>0.892725</v>
+        <v>0.88196</v>
       </c>
       <c r="D143" t="n">
-        <v>0.8584540000000001</v>
+        <v>0.819844</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0690876</v>
+        <v>0.0674172</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0621533</v>
+        <v>0.0574818</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0979425</v>
+        <v>0.0964174</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0655029</v>
+        <v>0.0660931</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0602755</v>
+        <v>0.0562754</v>
       </c>
       <c r="D3" t="n">
-        <v>0.107876</v>
+        <v>0.0990486</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0697755</v>
+        <v>0.0662794</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0653769</v>
+        <v>0.0554067</v>
       </c>
       <c r="D4" t="n">
-        <v>0.111999</v>
+        <v>0.103009</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0712348</v>
+        <v>0.0661436</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06614100000000001</v>
+        <v>0.0573844</v>
       </c>
       <c r="D5" t="n">
-        <v>0.115403</v>
+        <v>0.105475</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0688981</v>
+        <v>0.06706189999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06484040000000001</v>
+        <v>0.0576604</v>
       </c>
       <c r="D6" t="n">
-        <v>0.117026</v>
+        <v>0.109756</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0773461</v>
+        <v>0.0663025</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0691529</v>
+        <v>0.0597189</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08838119999999999</v>
+        <v>0.0838222</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0709534</v>
+        <v>0.0686383</v>
       </c>
       <c r="C8" t="n">
-        <v>0.074016</v>
+        <v>0.0663817</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0918482</v>
+        <v>0.08590399999999999</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.069615</v>
+        <v>0.07007919999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0621467</v>
+        <v>0.0568204</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0903656</v>
+        <v>0.090727</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0742182</v>
+        <v>0.0745807</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0610919</v>
+        <v>0.0585192</v>
       </c>
       <c r="D10" t="n">
-        <v>0.09370390000000001</v>
+        <v>0.0908013</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0761468</v>
+        <v>0.0737213</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0614717</v>
+        <v>0.0598086</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0929601</v>
+        <v>0.096681</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0760267</v>
+        <v>0.0733005</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06251080000000001</v>
+        <v>0.0583507</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0964885</v>
+        <v>0.0976663</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0757898</v>
+        <v>0.0750999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0632253</v>
+        <v>0.0587712</v>
       </c>
       <c r="D13" t="n">
-        <v>0.100466</v>
+        <v>0.0986915</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.07749789999999999</v>
+        <v>0.0758433</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0652356</v>
+        <v>0.0577623</v>
       </c>
       <c r="D14" t="n">
-        <v>0.101617</v>
+        <v>0.103906</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.07752580000000001</v>
+        <v>0.0741097</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0635196</v>
+        <v>0.0581649</v>
       </c>
       <c r="D15" t="n">
-        <v>0.107556</v>
+        <v>0.104186</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0743069</v>
+        <v>0.0746971</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0635898</v>
+        <v>0.0587172</v>
       </c>
       <c r="D16" t="n">
-        <v>0.109387</v>
+        <v>0.109941</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0753751</v>
+        <v>0.07295740000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0642094</v>
+        <v>0.0600134</v>
       </c>
       <c r="D17" t="n">
-        <v>0.114874</v>
+        <v>0.110645</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.080558</v>
+        <v>0.0733712</v>
       </c>
       <c r="C18" t="n">
-        <v>0.06660720000000001</v>
+        <v>0.0605265</v>
       </c>
       <c r="D18" t="n">
-        <v>0.115239</v>
+        <v>0.114442</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.07889110000000001</v>
+        <v>0.0741391</v>
       </c>
       <c r="C19" t="n">
-        <v>0.06836639999999999</v>
+        <v>0.0645913</v>
       </c>
       <c r="D19" t="n">
-        <v>0.120106</v>
+        <v>0.11844</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0781051</v>
+        <v>0.0762693</v>
       </c>
       <c r="C20" t="n">
-        <v>0.06871530000000001</v>
+        <v>0.0660048</v>
       </c>
       <c r="D20" t="n">
-        <v>0.119169</v>
+        <v>0.122222</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0773142</v>
+        <v>0.07670540000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0710138</v>
+        <v>0.07017519999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0929434</v>
+        <v>0.09358320000000001</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.07842</v>
+        <v>0.07685699999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0750695</v>
+        <v>0.07129489999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>0.093072</v>
+        <v>0.0980173</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0819453</v>
+        <v>0.0782159</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0692169</v>
+        <v>0.06377720000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>0.09701799999999999</v>
+        <v>0.100099</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0848839</v>
+        <v>0.08434</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0679671</v>
+        <v>0.0654541</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0999189</v>
+        <v>0.101023</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.08277</v>
+        <v>0.083677</v>
       </c>
       <c r="C25" t="n">
-        <v>0.06937400000000001</v>
+        <v>0.0650302</v>
       </c>
       <c r="D25" t="n">
-        <v>0.101787</v>
+        <v>0.103183</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0819124</v>
+        <v>0.0839583</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0677189</v>
+        <v>0.0653909</v>
       </c>
       <c r="D26" t="n">
-        <v>0.106297</v>
+        <v>0.103996</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0848979</v>
+        <v>0.0821142</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0679796</v>
+        <v>0.0663111</v>
       </c>
       <c r="D27" t="n">
-        <v>0.106525</v>
+        <v>0.111404</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.08274919999999999</v>
+        <v>0.0816289</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0711682</v>
+        <v>0.0656683</v>
       </c>
       <c r="D28" t="n">
-        <v>0.114342</v>
+        <v>0.114199</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0863328</v>
+        <v>0.0820085</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0738023</v>
+        <v>0.06591470000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>0.119302</v>
+        <v>0.116106</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0835272</v>
+        <v>0.08377130000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>0.06819169999999999</v>
+        <v>0.068852</v>
       </c>
       <c r="D30" t="n">
-        <v>0.12361</v>
+        <v>0.120934</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0849072</v>
+        <v>0.0864939</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0698522</v>
+        <v>0.06912260000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>0.129533</v>
+        <v>0.126721</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0876265</v>
+        <v>0.08300490000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0749978</v>
+        <v>0.0665183</v>
       </c>
       <c r="D32" t="n">
-        <v>0.132524</v>
+        <v>0.129407</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.08650960000000001</v>
+        <v>0.08159719999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>0.072785</v>
+        <v>0.0718442</v>
       </c>
       <c r="D33" t="n">
-        <v>0.132877</v>
+        <v>0.130759</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0853005</v>
+        <v>0.0846682</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0751612</v>
+        <v>0.0698115</v>
       </c>
       <c r="D34" t="n">
-        <v>0.140001</v>
+        <v>0.133513</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.08688899999999999</v>
+        <v>0.0878352</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0754988</v>
+        <v>0.0761313</v>
       </c>
       <c r="D35" t="n">
-        <v>0.113799</v>
+        <v>0.111191</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0883548</v>
+        <v>0.08623599999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.07828739999999999</v>
+        <v>0.07803309999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>0.118802</v>
+        <v>0.118534</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.09325600000000001</v>
+        <v>0.08877889999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0755369</v>
+        <v>0.07066840000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>0.123415</v>
+        <v>0.123618</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.105759</v>
+        <v>0.101514</v>
       </c>
       <c r="C38" t="n">
-        <v>0.07496609999999999</v>
+        <v>0.0724312</v>
       </c>
       <c r="D38" t="n">
-        <v>0.126266</v>
+        <v>0.126811</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.109507</v>
+        <v>0.100814</v>
       </c>
       <c r="C39" t="n">
-        <v>0.07699400000000001</v>
+        <v>0.0736975</v>
       </c>
       <c r="D39" t="n">
-        <v>0.134363</v>
+        <v>0.129858</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.106273</v>
+        <v>0.103918</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0773998</v>
+        <v>0.0738394</v>
       </c>
       <c r="D40" t="n">
-        <v>0.140814</v>
+        <v>0.133446</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.102207</v>
+        <v>0.104819</v>
       </c>
       <c r="C41" t="n">
-        <v>0.08090600000000001</v>
+        <v>0.07424989999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>0.140255</v>
+        <v>0.143555</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.105222</v>
+        <v>0.102126</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0787125</v>
+        <v>0.0734046</v>
       </c>
       <c r="D42" t="n">
-        <v>0.151679</v>
+        <v>0.142661</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.10681</v>
+        <v>0.103544</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0753243</v>
+        <v>0.0736266</v>
       </c>
       <c r="D43" t="n">
-        <v>0.155313</v>
+        <v>0.14965</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.101947</v>
+        <v>0.106736</v>
       </c>
       <c r="C44" t="n">
-        <v>0.07936120000000001</v>
+        <v>0.07664319999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>0.16619</v>
+        <v>0.15313</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.105332</v>
+        <v>0.103073</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0792858</v>
+        <v>0.07615719999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>0.168993</v>
+        <v>0.162509</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.103445</v>
+        <v>0.101939</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0901136</v>
+        <v>0.0755798</v>
       </c>
       <c r="D46" t="n">
-        <v>0.173444</v>
+        <v>0.174447</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.104347</v>
+        <v>0.102114</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0820341</v>
+        <v>0.077267</v>
       </c>
       <c r="D47" t="n">
-        <v>0.175713</v>
+        <v>0.173782</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.109524</v>
+        <v>0.104656</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0814566</v>
+        <v>0.07878019999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.188041</v>
+        <v>0.180053</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.105188</v>
+        <v>0.107546</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0889631</v>
+        <v>0.082399</v>
       </c>
       <c r="D49" t="n">
-        <v>0.194511</v>
+        <v>0.190197</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.108156</v>
+        <v>0.10928</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0921061</v>
+        <v>0.08600960000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>0.189417</v>
+        <v>0.182111</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.107759</v>
+        <v>0.107409</v>
       </c>
       <c r="C51" t="n">
-        <v>0.164184</v>
+        <v>0.165733</v>
       </c>
       <c r="D51" t="n">
-        <v>0.195537</v>
+        <v>0.184886</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.115148</v>
+        <v>0.112376</v>
       </c>
       <c r="C52" t="n">
-        <v>0.177363</v>
+        <v>0.165494</v>
       </c>
       <c r="D52" t="n">
-        <v>0.20714</v>
+        <v>0.193225</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.205706</v>
+        <v>0.185085</v>
       </c>
       <c r="C53" t="n">
-        <v>0.173112</v>
+        <v>0.170163</v>
       </c>
       <c r="D53" t="n">
-        <v>0.212522</v>
+        <v>0.200846</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.204175</v>
+        <v>0.186848</v>
       </c>
       <c r="C54" t="n">
-        <v>0.170559</v>
+        <v>0.171148</v>
       </c>
       <c r="D54" t="n">
-        <v>0.235081</v>
+        <v>0.204964</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.193464</v>
+        <v>0.190416</v>
       </c>
       <c r="C55" t="n">
-        <v>0.176909</v>
+        <v>0.169</v>
       </c>
       <c r="D55" t="n">
-        <v>0.227068</v>
+        <v>0.214365</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.203039</v>
+        <v>0.18773</v>
       </c>
       <c r="C56" t="n">
-        <v>0.171434</v>
+        <v>0.165434</v>
       </c>
       <c r="D56" t="n">
-        <v>0.23174</v>
+        <v>0.21673</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.206519</v>
+        <v>0.188578</v>
       </c>
       <c r="C57" t="n">
-        <v>0.169692</v>
+        <v>0.170807</v>
       </c>
       <c r="D57" t="n">
-        <v>0.245022</v>
+        <v>0.229163</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.210954</v>
+        <v>0.192505</v>
       </c>
       <c r="C58" t="n">
-        <v>0.176318</v>
+        <v>0.162979</v>
       </c>
       <c r="D58" t="n">
-        <v>0.266197</v>
+        <v>0.247288</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.206246</v>
+        <v>0.185121</v>
       </c>
       <c r="C59" t="n">
-        <v>0.170403</v>
+        <v>0.165889</v>
       </c>
       <c r="D59" t="n">
-        <v>0.27001</v>
+        <v>0.251691</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.204415</v>
+        <v>0.198652</v>
       </c>
       <c r="C60" t="n">
-        <v>0.186313</v>
+        <v>0.168557</v>
       </c>
       <c r="D60" t="n">
-        <v>0.278235</v>
+        <v>0.252436</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.210055</v>
+        <v>0.187972</v>
       </c>
       <c r="C61" t="n">
-        <v>0.183784</v>
+        <v>0.17102</v>
       </c>
       <c r="D61" t="n">
-        <v>0.286117</v>
+        <v>0.261544</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.207074</v>
+        <v>0.198839</v>
       </c>
       <c r="C62" t="n">
-        <v>0.178097</v>
+        <v>0.172225</v>
       </c>
       <c r="D62" t="n">
-        <v>0.312859</v>
+        <v>0.286264</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.212687</v>
+        <v>0.193789</v>
       </c>
       <c r="C63" t="n">
-        <v>0.194113</v>
+        <v>0.175579</v>
       </c>
       <c r="D63" t="n">
-        <v>0.316237</v>
+        <v>0.28236</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.213151</v>
+        <v>0.19778</v>
       </c>
       <c r="C64" t="n">
-        <v>0.185555</v>
+        <v>0.177875</v>
       </c>
       <c r="D64" t="n">
-        <v>0.318408</v>
+        <v>0.289916</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.216653</v>
+        <v>0.190938</v>
       </c>
       <c r="C65" t="n">
-        <v>0.199927</v>
+        <v>0.179753</v>
       </c>
       <c r="D65" t="n">
-        <v>0.331136</v>
+        <v>0.298482</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.211825</v>
+        <v>0.19707</v>
       </c>
       <c r="C66" t="n">
-        <v>0.274622</v>
+        <v>0.255125</v>
       </c>
       <c r="D66" t="n">
-        <v>0.310053</v>
+        <v>0.30328</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.294612</v>
+        <v>0.289653</v>
       </c>
       <c r="C67" t="n">
-        <v>0.266773</v>
+        <v>0.260899</v>
       </c>
       <c r="D67" t="n">
-        <v>0.345559</v>
+        <v>0.314947</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.306538</v>
+        <v>0.28737</v>
       </c>
       <c r="C68" t="n">
-        <v>0.268639</v>
+        <v>0.25564</v>
       </c>
       <c r="D68" t="n">
-        <v>0.350385</v>
+        <v>0.321055</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.313377</v>
+        <v>0.288935</v>
       </c>
       <c r="C69" t="n">
-        <v>0.279176</v>
+        <v>0.262396</v>
       </c>
       <c r="D69" t="n">
-        <v>0.35229</v>
+        <v>0.334634</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.312177</v>
+        <v>0.287025</v>
       </c>
       <c r="C70" t="n">
-        <v>0.270483</v>
+        <v>0.264895</v>
       </c>
       <c r="D70" t="n">
-        <v>0.369462</v>
+        <v>0.332596</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.329039</v>
+        <v>0.290221</v>
       </c>
       <c r="C71" t="n">
-        <v>0.26457</v>
+        <v>0.273258</v>
       </c>
       <c r="D71" t="n">
-        <v>0.374457</v>
+        <v>0.338119</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.33216</v>
+        <v>0.307282</v>
       </c>
       <c r="C72" t="n">
-        <v>0.27175</v>
+        <v>0.263326</v>
       </c>
       <c r="D72" t="n">
-        <v>0.380091</v>
+        <v>0.363297</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.313105</v>
+        <v>0.292573</v>
       </c>
       <c r="C73" t="n">
-        <v>0.274779</v>
+        <v>0.262523</v>
       </c>
       <c r="D73" t="n">
-        <v>0.39032</v>
+        <v>0.385451</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.318901</v>
+        <v>0.30652</v>
       </c>
       <c r="C74" t="n">
-        <v>0.277206</v>
+        <v>0.27171</v>
       </c>
       <c r="D74" t="n">
-        <v>0.397997</v>
+        <v>0.383742</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.30433</v>
+        <v>0.301694</v>
       </c>
       <c r="C75" t="n">
-        <v>0.275224</v>
+        <v>0.274192</v>
       </c>
       <c r="D75" t="n">
-        <v>0.417609</v>
+        <v>0.384649</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.329718</v>
+        <v>0.301319</v>
       </c>
       <c r="C76" t="n">
-        <v>0.282503</v>
+        <v>0.267403</v>
       </c>
       <c r="D76" t="n">
-        <v>0.426192</v>
+        <v>0.425734</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.325711</v>
+        <v>0.310041</v>
       </c>
       <c r="C77" t="n">
-        <v>0.280296</v>
+        <v>0.27694</v>
       </c>
       <c r="D77" t="n">
-        <v>0.448949</v>
+        <v>0.423264</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.308465</v>
+        <v>0.306364</v>
       </c>
       <c r="C78" t="n">
-        <v>0.282608</v>
+        <v>0.273881</v>
       </c>
       <c r="D78" t="n">
-        <v>0.388733</v>
+        <v>0.381645</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.311378</v>
+        <v>0.315871</v>
       </c>
       <c r="C79" t="n">
-        <v>0.285655</v>
+        <v>0.283254</v>
       </c>
       <c r="D79" t="n">
-        <v>0.397538</v>
+        <v>0.397969</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.318802</v>
+        <v>0.309399</v>
       </c>
       <c r="C80" t="n">
-        <v>0.387242</v>
+        <v>0.372653</v>
       </c>
       <c r="D80" t="n">
-        <v>0.412183</v>
+        <v>0.405642</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.395581</v>
+        <v>0.404299</v>
       </c>
       <c r="C81" t="n">
-        <v>0.383022</v>
+        <v>0.369817</v>
       </c>
       <c r="D81" t="n">
-        <v>0.423705</v>
+        <v>0.407997</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.395023</v>
+        <v>0.391867</v>
       </c>
       <c r="C82" t="n">
-        <v>0.38196</v>
+        <v>0.368427</v>
       </c>
       <c r="D82" t="n">
-        <v>0.424865</v>
+        <v>0.425474</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.406745</v>
+        <v>0.392549</v>
       </c>
       <c r="C83" t="n">
-        <v>0.370395</v>
+        <v>0.366636</v>
       </c>
       <c r="D83" t="n">
-        <v>0.449179</v>
+        <v>0.438005</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.391314</v>
+        <v>0.386132</v>
       </c>
       <c r="C84" t="n">
-        <v>0.372448</v>
+        <v>0.36296</v>
       </c>
       <c r="D84" t="n">
-        <v>0.464642</v>
+        <v>0.445396</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.413274</v>
+        <v>0.392895</v>
       </c>
       <c r="C85" t="n">
-        <v>0.370927</v>
+        <v>0.361913</v>
       </c>
       <c r="D85" t="n">
-        <v>0.471639</v>
+        <v>0.436524</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.390032</v>
+        <v>0.386628</v>
       </c>
       <c r="C86" t="n">
-        <v>0.381225</v>
+        <v>0.37245</v>
       </c>
       <c r="D86" t="n">
-        <v>0.458468</v>
+        <v>0.467631</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.395532</v>
+        <v>0.391097</v>
       </c>
       <c r="C87" t="n">
-        <v>0.387711</v>
+        <v>0.365582</v>
       </c>
       <c r="D87" t="n">
-        <v>0.486102</v>
+        <v>0.476919</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.396565</v>
+        <v>0.397165</v>
       </c>
       <c r="C88" t="n">
-        <v>0.377518</v>
+        <v>0.381487</v>
       </c>
       <c r="D88" t="n">
-        <v>0.497821</v>
+        <v>0.488256</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.403498</v>
+        <v>0.41043</v>
       </c>
       <c r="C89" t="n">
-        <v>0.374888</v>
+        <v>0.364021</v>
       </c>
       <c r="D89" t="n">
-        <v>0.491246</v>
+        <v>0.487485</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.405954</v>
+        <v>0.390555</v>
       </c>
       <c r="C90" t="n">
-        <v>0.385913</v>
+        <v>0.370895</v>
       </c>
       <c r="D90" t="n">
-        <v>0.525474</v>
+        <v>0.500515</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.388514</v>
+        <v>0.397259</v>
       </c>
       <c r="C91" t="n">
-        <v>0.373114</v>
+        <v>0.364988</v>
       </c>
       <c r="D91" t="n">
-        <v>0.515008</v>
+        <v>0.517346</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.410042</v>
+        <v>0.402594</v>
       </c>
       <c r="C92" t="n">
-        <v>0.378972</v>
+        <v>0.380843</v>
       </c>
       <c r="D92" t="n">
-        <v>0.472894</v>
+        <v>0.459468</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.419543</v>
+        <v>0.399545</v>
       </c>
       <c r="C93" t="n">
-        <v>0.389607</v>
+        <v>0.382037</v>
       </c>
       <c r="D93" t="n">
-        <v>0.483904</v>
+        <v>0.473492</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.41706</v>
+        <v>0.392577</v>
       </c>
       <c r="C94" t="n">
-        <v>0.483405</v>
+        <v>0.461575</v>
       </c>
       <c r="D94" t="n">
-        <v>0.492862</v>
+        <v>0.458827</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.519028</v>
+        <v>0.484602</v>
       </c>
       <c r="C95" t="n">
-        <v>0.474042</v>
+        <v>0.447161</v>
       </c>
       <c r="D95" t="n">
-        <v>0.515684</v>
+        <v>0.462332</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.484926</v>
+        <v>0.465034</v>
       </c>
       <c r="C96" t="n">
-        <v>0.477163</v>
+        <v>0.462272</v>
       </c>
       <c r="D96" t="n">
-        <v>0.487197</v>
+        <v>0.480909</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.49764</v>
+        <v>0.476819</v>
       </c>
       <c r="C97" t="n">
-        <v>0.472718</v>
+        <v>0.46068</v>
       </c>
       <c r="D97" t="n">
-        <v>0.515702</v>
+        <v>0.496414</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.502678</v>
+        <v>0.483869</v>
       </c>
       <c r="C98" t="n">
-        <v>0.490383</v>
+        <v>0.458828</v>
       </c>
       <c r="D98" t="n">
-        <v>0.536595</v>
+        <v>0.503703</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.488945</v>
+        <v>0.477273</v>
       </c>
       <c r="C99" t="n">
-        <v>0.485721</v>
+        <v>0.465476</v>
       </c>
       <c r="D99" t="n">
-        <v>0.518088</v>
+        <v>0.52944</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.48504</v>
+        <v>0.470899</v>
       </c>
       <c r="C100" t="n">
-        <v>0.487074</v>
+        <v>0.463037</v>
       </c>
       <c r="D100" t="n">
-        <v>0.532599</v>
+        <v>0.534555</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.501116</v>
+        <v>0.466274</v>
       </c>
       <c r="C101" t="n">
-        <v>0.476596</v>
+        <v>0.45601</v>
       </c>
       <c r="D101" t="n">
-        <v>0.554125</v>
+        <v>0.542466</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.518232</v>
+        <v>0.458504</v>
       </c>
       <c r="C102" t="n">
-        <v>0.483251</v>
+        <v>0.470995</v>
       </c>
       <c r="D102" t="n">
-        <v>0.571397</v>
+        <v>0.544431</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.518332</v>
+        <v>0.475991</v>
       </c>
       <c r="C103" t="n">
-        <v>0.498303</v>
+        <v>0.481492</v>
       </c>
       <c r="D103" t="n">
-        <v>0.571887</v>
+        <v>0.552316</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.490483</v>
+        <v>0.473536</v>
       </c>
       <c r="C104" t="n">
-        <v>0.482651</v>
+        <v>0.463148</v>
       </c>
       <c r="D104" t="n">
-        <v>0.572727</v>
+        <v>0.576407</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.501161</v>
+        <v>0.481395</v>
       </c>
       <c r="C105" t="n">
-        <v>0.479159</v>
+        <v>0.466074</v>
       </c>
       <c r="D105" t="n">
-        <v>0.609402</v>
+        <v>0.582317</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.49844</v>
+        <v>0.486256</v>
       </c>
       <c r="C106" t="n">
-        <v>0.50412</v>
+        <v>0.468204</v>
       </c>
       <c r="D106" t="n">
-        <v>0.626965</v>
+        <v>0.600254</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.533124</v>
+        <v>0.472006</v>
       </c>
       <c r="C107" t="n">
-        <v>0.5027199999999999</v>
+        <v>0.472412</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5275339999999999</v>
+        <v>0.551481</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.50842</v>
+        <v>0.502228</v>
       </c>
       <c r="C108" t="n">
-        <v>0.616671</v>
+        <v>0.553829</v>
       </c>
       <c r="D108" t="n">
-        <v>0.573439</v>
+        <v>0.514176</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.49668</v>
+        <v>0.482221</v>
       </c>
       <c r="C109" t="n">
-        <v>0.559146</v>
+        <v>0.550491</v>
       </c>
       <c r="D109" t="n">
-        <v>0.579705</v>
+        <v>0.558994</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.5955819999999999</v>
+        <v>0.5643010000000001</v>
       </c>
       <c r="C110" t="n">
-        <v>0.577753</v>
+        <v>0.548607</v>
       </c>
       <c r="D110" t="n">
-        <v>0.586137</v>
+        <v>0.546604</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.617181</v>
+        <v>0.589628</v>
       </c>
       <c r="C111" t="n">
-        <v>0.555848</v>
+        <v>0.550166</v>
       </c>
       <c r="D111" t="n">
-        <v>0.610581</v>
+        <v>0.582261</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.611596</v>
+        <v>0.5803160000000001</v>
       </c>
       <c r="C112" t="n">
-        <v>0.574024</v>
+        <v>0.5474869999999999</v>
       </c>
       <c r="D112" t="n">
-        <v>0.604455</v>
+        <v>0.567156</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.600332</v>
+        <v>0.582503</v>
       </c>
       <c r="C113" t="n">
-        <v>0.572691</v>
+        <v>0.557997</v>
       </c>
       <c r="D113" t="n">
-        <v>0.61136</v>
+        <v>0.599417</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.593916</v>
+        <v>0.5800689999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>0.560072</v>
+        <v>0.554164</v>
       </c>
       <c r="D114" t="n">
-        <v>0.635332</v>
+        <v>0.575863</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.622786</v>
+        <v>0.583004</v>
       </c>
       <c r="C115" t="n">
-        <v>0.608904</v>
+        <v>0.5526450000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>0.648278</v>
+        <v>0.625072</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.633473</v>
+        <v>0.6419859999999999</v>
       </c>
       <c r="C116" t="n">
-        <v>0.601351</v>
+        <v>0.563813</v>
       </c>
       <c r="D116" t="n">
-        <v>0.670157</v>
+        <v>0.633476</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.663986</v>
+        <v>0.579665</v>
       </c>
       <c r="C117" t="n">
-        <v>0.566468</v>
+        <v>0.566146</v>
       </c>
       <c r="D117" t="n">
-        <v>0.678691</v>
+        <v>0.646896</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.608089</v>
+        <v>0.574377</v>
       </c>
       <c r="C118" t="n">
-        <v>0.610773</v>
+        <v>0.565113</v>
       </c>
       <c r="D118" t="n">
-        <v>0.715606</v>
+        <v>0.631115</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.6274999999999999</v>
+        <v>0.574251</v>
       </c>
       <c r="C119" t="n">
-        <v>0.609656</v>
+        <v>0.55806</v>
       </c>
       <c r="D119" t="n">
-        <v>0.707533</v>
+        <v>0.665117</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.6569120000000001</v>
+        <v>0.614953</v>
       </c>
       <c r="C120" t="n">
-        <v>0.611081</v>
+        <v>0.592642</v>
       </c>
       <c r="D120" t="n">
-        <v>0.722414</v>
+        <v>0.698466</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.603909</v>
+        <v>0.584405</v>
       </c>
       <c r="C121" t="n">
-        <v>0.625592</v>
+        <v>0.566682</v>
       </c>
       <c r="D121" t="n">
-        <v>0.626261</v>
+        <v>0.606338</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.6050489999999999</v>
+        <v>0.595061</v>
       </c>
       <c r="C122" t="n">
-        <v>0.594812</v>
+        <v>0.5694939999999999</v>
       </c>
       <c r="D122" t="n">
-        <v>0.65468</v>
+        <v>0.612182</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.6170949999999999</v>
+        <v>0.584525</v>
       </c>
       <c r="C123" t="n">
-        <v>0.821496</v>
+        <v>0.681567</v>
       </c>
       <c r="D123" t="n">
-        <v>0.652962</v>
+        <v>0.609838</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.896016</v>
+        <v>0.788662</v>
       </c>
       <c r="C124" t="n">
-        <v>0.827797</v>
+        <v>0.68294</v>
       </c>
       <c r="D124" t="n">
-        <v>0.708032</v>
+        <v>0.634032</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.777936</v>
+        <v>0.752632</v>
       </c>
       <c r="C125" t="n">
-        <v>0.812171</v>
+        <v>0.696869</v>
       </c>
       <c r="D125" t="n">
-        <v>0.695699</v>
+        <v>0.668814</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.809334</v>
+        <v>0.789458</v>
       </c>
       <c r="C126" t="n">
-        <v>0.737826</v>
+        <v>0.671721</v>
       </c>
       <c r="D126" t="n">
-        <v>0.68605</v>
+        <v>0.650744</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.803986</v>
+        <v>0.8215710000000001</v>
       </c>
       <c r="C127" t="n">
-        <v>0.7108719999999999</v>
+        <v>0.699775</v>
       </c>
       <c r="D127" t="n">
-        <v>0.714902</v>
+        <v>0.6816759999999999</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.824914</v>
+        <v>0.763602</v>
       </c>
       <c r="C128" t="n">
-        <v>0.775332</v>
+        <v>0.6967179999999999</v>
       </c>
       <c r="D128" t="n">
-        <v>0.742788</v>
+        <v>0.680972</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.824579</v>
+        <v>0.765306</v>
       </c>
       <c r="C129" t="n">
-        <v>0.702274</v>
+        <v>0.692031</v>
       </c>
       <c r="D129" t="n">
-        <v>0.734021</v>
+        <v>0.687406</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.912193</v>
+        <v>0.774976</v>
       </c>
       <c r="C130" t="n">
-        <v>0.8224</v>
+        <v>0.684631</v>
       </c>
       <c r="D130" t="n">
-        <v>0.785185</v>
+        <v>0.696538</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.797095</v>
+        <v>0.778075</v>
       </c>
       <c r="C131" t="n">
-        <v>0.817762</v>
+        <v>0.705687</v>
       </c>
       <c r="D131" t="n">
-        <v>0.75846</v>
+        <v>0.7294119999999999</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.808351</v>
+        <v>0.75778</v>
       </c>
       <c r="C132" t="n">
-        <v>0.726349</v>
+        <v>0.691787</v>
       </c>
       <c r="D132" t="n">
-        <v>0.815378</v>
+        <v>0.740682</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.806023</v>
+        <v>0.761011</v>
       </c>
       <c r="C133" t="n">
-        <v>0.7239370000000001</v>
+        <v>0.695598</v>
       </c>
       <c r="D133" t="n">
-        <v>0.785708</v>
+        <v>0.767625</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.817773</v>
+        <v>0.755216</v>
       </c>
       <c r="C134" t="n">
-        <v>0.722333</v>
+        <v>0.723627</v>
       </c>
       <c r="D134" t="n">
-        <v>0.825346</v>
+        <v>0.772377</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.836614</v>
+        <v>0.775797</v>
       </c>
       <c r="C135" t="n">
-        <v>0.741213</v>
+        <v>0.696586</v>
       </c>
       <c r="D135" t="n">
-        <v>0.733532</v>
+        <v>0.700997</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.802609</v>
+        <v>0.768788</v>
       </c>
       <c r="C136" t="n">
-        <v>0.727028</v>
+        <v>0.741256</v>
       </c>
       <c r="D136" t="n">
-        <v>0.73951</v>
+        <v>0.709744</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.822621</v>
+        <v>0.774069</v>
       </c>
       <c r="C137" t="n">
-        <v>0.998771</v>
+        <v>0.875888</v>
       </c>
       <c r="D137" t="n">
-        <v>0.768163</v>
+        <v>0.733581</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.09749</v>
+        <v>0.981573</v>
       </c>
       <c r="C138" t="n">
-        <v>0.91251</v>
+        <v>0.880339</v>
       </c>
       <c r="D138" t="n">
-        <v>0.764332</v>
+        <v>0.747453</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.06061</v>
+        <v>0.985228</v>
       </c>
       <c r="C139" t="n">
-        <v>0.913225</v>
+        <v>0.893026</v>
       </c>
       <c r="D139" t="n">
-        <v>0.785686</v>
+        <v>0.763113</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.01449</v>
+        <v>1.07974</v>
       </c>
       <c r="C140" t="n">
-        <v>0.9068929999999999</v>
+        <v>0.870239</v>
       </c>
       <c r="D140" t="n">
-        <v>0.788919</v>
+        <v>0.769864</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.09089</v>
+        <v>0.981248</v>
       </c>
       <c r="C141" t="n">
-        <v>0.985412</v>
+        <v>0.89714</v>
       </c>
       <c r="D141" t="n">
-        <v>0.812159</v>
+        <v>0.781905</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.02014</v>
+        <v>0.991873</v>
       </c>
       <c r="C142" t="n">
-        <v>0.912119</v>
+        <v>0.885171</v>
       </c>
       <c r="D142" t="n">
-        <v>0.81945</v>
+        <v>0.797156</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.10487</v>
+        <v>0.98706</v>
       </c>
       <c r="C143" t="n">
-        <v>0.892725</v>
+        <v>0.891258</v>
       </c>
       <c r="D143" t="n">
-        <v>0.8584540000000001</v>
+        <v>0.821528</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0674172</v>
+        <v>0.0670294</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0574818</v>
+        <v>0.0569768</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0964174</v>
+        <v>0.0989831</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0660931</v>
+        <v>0.0709178</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0562754</v>
+        <v>0.0603039</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0990486</v>
+        <v>0.104061</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0662794</v>
+        <v>0.06773560000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0554067</v>
+        <v>0.0602935</v>
       </c>
       <c r="D4" t="n">
-        <v>0.103009</v>
+        <v>0.109024</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0661436</v>
+        <v>0.0684613</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0573844</v>
+        <v>0.0575967</v>
       </c>
       <c r="D5" t="n">
-        <v>0.105475</v>
+        <v>0.106996</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.06706189999999999</v>
+        <v>0.0676756</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0576604</v>
+        <v>0.0596535</v>
       </c>
       <c r="D6" t="n">
-        <v>0.109756</v>
+        <v>0.1098</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0663025</v>
+        <v>0.0679666</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0597189</v>
+        <v>0.0603543</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0838222</v>
+        <v>0.0845862</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0686383</v>
+        <v>0.06618590000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0663817</v>
+        <v>0.0668769</v>
       </c>
       <c r="D8" t="n">
-        <v>0.08590399999999999</v>
+        <v>0.0893809</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.07007919999999999</v>
+        <v>0.07247480000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0568204</v>
+        <v>0.0649856</v>
       </c>
       <c r="D9" t="n">
-        <v>0.090727</v>
+        <v>0.0944512</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0745807</v>
+        <v>0.0779748</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0585192</v>
+        <v>0.0624294</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0908013</v>
+        <v>0.0982295</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0737213</v>
+        <v>0.0830482</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0598086</v>
+        <v>0.0613046</v>
       </c>
       <c r="D11" t="n">
-        <v>0.096681</v>
+        <v>0.09822350000000001</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0733005</v>
+        <v>0.077123</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0583507</v>
+        <v>0.06374290000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0976663</v>
+        <v>0.103058</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0750999</v>
+        <v>0.075766</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0587712</v>
+        <v>0.0615003</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0986915</v>
+        <v>0.105261</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0758433</v>
+        <v>0.0795471</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0577623</v>
+        <v>0.062459</v>
       </c>
       <c r="D14" t="n">
-        <v>0.103906</v>
+        <v>0.109074</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0741097</v>
+        <v>0.0805471</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0581649</v>
+        <v>0.0628766</v>
       </c>
       <c r="D15" t="n">
-        <v>0.104186</v>
+        <v>0.111594</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0746971</v>
+        <v>0.08165500000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0587172</v>
+        <v>0.0633748</v>
       </c>
       <c r="D16" t="n">
-        <v>0.109941</v>
+        <v>0.111879</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.07295740000000001</v>
+        <v>0.07828640000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0600134</v>
+        <v>0.06320389999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>0.110645</v>
+        <v>0.116437</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0733712</v>
+        <v>0.0769994</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0605265</v>
+        <v>0.0623618</v>
       </c>
       <c r="D18" t="n">
-        <v>0.114442</v>
+        <v>0.123266</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0741391</v>
+        <v>0.0791968</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0645913</v>
+        <v>0.065564</v>
       </c>
       <c r="D19" t="n">
-        <v>0.11844</v>
+        <v>0.126048</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0762693</v>
+        <v>0.078168</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0660048</v>
+        <v>0.0653205</v>
       </c>
       <c r="D20" t="n">
-        <v>0.122222</v>
+        <v>0.120514</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07670540000000001</v>
+        <v>0.0764956</v>
       </c>
       <c r="C21" t="n">
-        <v>0.07017519999999999</v>
+        <v>0.0681402</v>
       </c>
       <c r="D21" t="n">
-        <v>0.09358320000000001</v>
+        <v>0.095332</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.07685699999999999</v>
+        <v>0.0809484</v>
       </c>
       <c r="C22" t="n">
-        <v>0.07129489999999999</v>
+        <v>0.07228320000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0980173</v>
+        <v>0.09658079999999999</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0782159</v>
+        <v>0.08081190000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>0.06377720000000001</v>
+        <v>0.0650935</v>
       </c>
       <c r="D23" t="n">
-        <v>0.100099</v>
+        <v>0.0993049</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.08434</v>
+        <v>0.0824034</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0654541</v>
+        <v>0.0641321</v>
       </c>
       <c r="D24" t="n">
-        <v>0.101023</v>
+        <v>0.102165</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.083677</v>
+        <v>0.0839314</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0650302</v>
+        <v>0.0650105</v>
       </c>
       <c r="D25" t="n">
-        <v>0.103183</v>
+        <v>0.102641</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0839583</v>
+        <v>0.0856586</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0653909</v>
+        <v>0.0645686</v>
       </c>
       <c r="D26" t="n">
-        <v>0.103996</v>
+        <v>0.104079</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0821142</v>
+        <v>0.0821429</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0663111</v>
+        <v>0.06522600000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>0.111404</v>
+        <v>0.108957</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0816289</v>
+        <v>0.08292579999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0656683</v>
+        <v>0.0664708</v>
       </c>
       <c r="D28" t="n">
-        <v>0.114199</v>
+        <v>0.116479</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0820085</v>
+        <v>0.0827444</v>
       </c>
       <c r="C29" t="n">
-        <v>0.06591470000000001</v>
+        <v>0.0655734</v>
       </c>
       <c r="D29" t="n">
-        <v>0.116106</v>
+        <v>0.116265</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.08377130000000001</v>
+        <v>0.0816036</v>
       </c>
       <c r="C30" t="n">
-        <v>0.068852</v>
+        <v>0.0666476</v>
       </c>
       <c r="D30" t="n">
-        <v>0.120934</v>
+        <v>0.115823</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0864939</v>
+        <v>0.0830777</v>
       </c>
       <c r="C31" t="n">
-        <v>0.06912260000000001</v>
+        <v>0.0678216</v>
       </c>
       <c r="D31" t="n">
-        <v>0.126721</v>
+        <v>0.1264</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.08300490000000001</v>
+        <v>0.0821379</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0665183</v>
+        <v>0.06669319999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>0.129407</v>
+        <v>0.124517</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.08159719999999999</v>
+        <v>0.08300680000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0718442</v>
+        <v>0.068884</v>
       </c>
       <c r="D33" t="n">
-        <v>0.130759</v>
+        <v>0.127257</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0846682</v>
+        <v>0.0833274</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0698115</v>
+        <v>0.0686524</v>
       </c>
       <c r="D34" t="n">
-        <v>0.133513</v>
+        <v>0.133483</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0878352</v>
+        <v>0.0822563</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0761313</v>
+        <v>0.0739939</v>
       </c>
       <c r="D35" t="n">
-        <v>0.111191</v>
+        <v>0.115615</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.08623599999999999</v>
+        <v>0.0839607</v>
       </c>
       <c r="C36" t="n">
-        <v>0.07803309999999999</v>
+        <v>0.07704809999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>0.118534</v>
+        <v>0.116392</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.08877889999999999</v>
+        <v>0.0876284</v>
       </c>
       <c r="C37" t="n">
-        <v>0.07066840000000001</v>
+        <v>0.0707525</v>
       </c>
       <c r="D37" t="n">
-        <v>0.123618</v>
+        <v>0.118914</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.101514</v>
+        <v>0.102549</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0724312</v>
+        <v>0.0742723</v>
       </c>
       <c r="D38" t="n">
-        <v>0.126811</v>
+        <v>0.124241</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.100814</v>
+        <v>0.104446</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0736975</v>
+        <v>0.0733419</v>
       </c>
       <c r="D39" t="n">
-        <v>0.129858</v>
+        <v>0.129427</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.103918</v>
+        <v>0.100226</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0738394</v>
+        <v>0.0726146</v>
       </c>
       <c r="D40" t="n">
-        <v>0.133446</v>
+        <v>0.138668</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.104819</v>
+        <v>0.101747</v>
       </c>
       <c r="C41" t="n">
-        <v>0.07424989999999999</v>
+        <v>0.0727841</v>
       </c>
       <c r="D41" t="n">
-        <v>0.143555</v>
+        <v>0.137645</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.102126</v>
+        <v>0.099957</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0734046</v>
+        <v>0.0740577</v>
       </c>
       <c r="D42" t="n">
-        <v>0.142661</v>
+        <v>0.140456</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.103544</v>
+        <v>0.100274</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0736266</v>
+        <v>0.0729982</v>
       </c>
       <c r="D43" t="n">
-        <v>0.14965</v>
+        <v>0.147374</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.106736</v>
+        <v>0.09778820000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>0.07664319999999999</v>
+        <v>0.0737756</v>
       </c>
       <c r="D44" t="n">
-        <v>0.15313</v>
+        <v>0.153092</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.103073</v>
+        <v>0.100346</v>
       </c>
       <c r="C45" t="n">
-        <v>0.07615719999999999</v>
+        <v>0.0745093</v>
       </c>
       <c r="D45" t="n">
-        <v>0.162509</v>
+        <v>0.156</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.101939</v>
+        <v>0.103903</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0755798</v>
+        <v>0.0731895</v>
       </c>
       <c r="D46" t="n">
-        <v>0.174447</v>
+        <v>0.165868</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.102114</v>
+        <v>0.101797</v>
       </c>
       <c r="C47" t="n">
-        <v>0.077267</v>
+        <v>0.0754874</v>
       </c>
       <c r="D47" t="n">
-        <v>0.173782</v>
+        <v>0.176211</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.104656</v>
+        <v>0.100992</v>
       </c>
       <c r="C48" t="n">
-        <v>0.07878019999999999</v>
+        <v>0.0799744</v>
       </c>
       <c r="D48" t="n">
-        <v>0.180053</v>
+        <v>0.179192</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.107546</v>
+        <v>0.103889</v>
       </c>
       <c r="C49" t="n">
-        <v>0.082399</v>
+        <v>0.0800329</v>
       </c>
       <c r="D49" t="n">
-        <v>0.190197</v>
+        <v>0.188916</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.10928</v>
+        <v>0.103935</v>
       </c>
       <c r="C50" t="n">
-        <v>0.08600960000000001</v>
+        <v>0.0870867</v>
       </c>
       <c r="D50" t="n">
-        <v>0.182111</v>
+        <v>0.17769</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.107409</v>
+        <v>0.109779</v>
       </c>
       <c r="C51" t="n">
-        <v>0.165733</v>
+        <v>0.159345</v>
       </c>
       <c r="D51" t="n">
-        <v>0.184886</v>
+        <v>0.182308</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.112376</v>
+        <v>0.107385</v>
       </c>
       <c r="C52" t="n">
-        <v>0.165494</v>
+        <v>0.161292</v>
       </c>
       <c r="D52" t="n">
-        <v>0.193225</v>
+        <v>0.189383</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.185085</v>
+        <v>0.184528</v>
       </c>
       <c r="C53" t="n">
-        <v>0.170163</v>
+        <v>0.164512</v>
       </c>
       <c r="D53" t="n">
-        <v>0.200846</v>
+        <v>0.188754</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.186848</v>
+        <v>0.186219</v>
       </c>
       <c r="C54" t="n">
-        <v>0.171148</v>
+        <v>0.165817</v>
       </c>
       <c r="D54" t="n">
-        <v>0.204964</v>
+        <v>0.202849</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.190416</v>
+        <v>0.191036</v>
       </c>
       <c r="C55" t="n">
-        <v>0.169</v>
+        <v>0.163433</v>
       </c>
       <c r="D55" t="n">
-        <v>0.214365</v>
+        <v>0.221585</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.18773</v>
+        <v>0.189067</v>
       </c>
       <c r="C56" t="n">
-        <v>0.165434</v>
+        <v>0.167674</v>
       </c>
       <c r="D56" t="n">
-        <v>0.21673</v>
+        <v>0.214387</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.188578</v>
+        <v>0.191045</v>
       </c>
       <c r="C57" t="n">
-        <v>0.170807</v>
+        <v>0.165231</v>
       </c>
       <c r="D57" t="n">
-        <v>0.229163</v>
+        <v>0.231929</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.192505</v>
+        <v>0.186134</v>
       </c>
       <c r="C58" t="n">
-        <v>0.162979</v>
+        <v>0.16885</v>
       </c>
       <c r="D58" t="n">
-        <v>0.247288</v>
+        <v>0.237177</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.185121</v>
+        <v>0.190059</v>
       </c>
       <c r="C59" t="n">
-        <v>0.165889</v>
+        <v>0.172947</v>
       </c>
       <c r="D59" t="n">
-        <v>0.251691</v>
+        <v>0.262409</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.198652</v>
+        <v>0.185816</v>
       </c>
       <c r="C60" t="n">
-        <v>0.168557</v>
+        <v>0.164286</v>
       </c>
       <c r="D60" t="n">
-        <v>0.252436</v>
+        <v>0.261698</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.187972</v>
+        <v>0.190211</v>
       </c>
       <c r="C61" t="n">
-        <v>0.17102</v>
+        <v>0.171663</v>
       </c>
       <c r="D61" t="n">
-        <v>0.261544</v>
+        <v>0.269774</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.198839</v>
+        <v>0.197191</v>
       </c>
       <c r="C62" t="n">
-        <v>0.172225</v>
+        <v>0.172762</v>
       </c>
       <c r="D62" t="n">
-        <v>0.286264</v>
+        <v>0.282186</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.193789</v>
+        <v>0.192218</v>
       </c>
       <c r="C63" t="n">
-        <v>0.175579</v>
+        <v>0.173373</v>
       </c>
       <c r="D63" t="n">
-        <v>0.28236</v>
+        <v>0.290106</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.19778</v>
+        <v>0.191526</v>
       </c>
       <c r="C64" t="n">
-        <v>0.177875</v>
+        <v>0.176114</v>
       </c>
       <c r="D64" t="n">
-        <v>0.289916</v>
+        <v>0.282233</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.190938</v>
+        <v>0.189852</v>
       </c>
       <c r="C65" t="n">
-        <v>0.179753</v>
+        <v>0.17519</v>
       </c>
       <c r="D65" t="n">
-        <v>0.298482</v>
+        <v>0.311241</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.19707</v>
+        <v>0.19929</v>
       </c>
       <c r="C66" t="n">
-        <v>0.255125</v>
+        <v>0.255184</v>
       </c>
       <c r="D66" t="n">
-        <v>0.30328</v>
+        <v>0.28985</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.289653</v>
+        <v>0.284956</v>
       </c>
       <c r="C67" t="n">
-        <v>0.260899</v>
+        <v>0.262265</v>
       </c>
       <c r="D67" t="n">
-        <v>0.314947</v>
+        <v>0.301671</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.28737</v>
+        <v>0.293506</v>
       </c>
       <c r="C68" t="n">
-        <v>0.25564</v>
+        <v>0.255273</v>
       </c>
       <c r="D68" t="n">
-        <v>0.321055</v>
+        <v>0.312774</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.288935</v>
+        <v>0.285417</v>
       </c>
       <c r="C69" t="n">
-        <v>0.262396</v>
+        <v>0.256754</v>
       </c>
       <c r="D69" t="n">
-        <v>0.334634</v>
+        <v>0.328556</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.287025</v>
+        <v>0.285797</v>
       </c>
       <c r="C70" t="n">
-        <v>0.264895</v>
+        <v>0.259491</v>
       </c>
       <c r="D70" t="n">
-        <v>0.332596</v>
+        <v>0.326739</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.290221</v>
+        <v>0.292091</v>
       </c>
       <c r="C71" t="n">
-        <v>0.273258</v>
+        <v>0.255024</v>
       </c>
       <c r="D71" t="n">
-        <v>0.338119</v>
+        <v>0.344516</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.307282</v>
+        <v>0.28121</v>
       </c>
       <c r="C72" t="n">
-        <v>0.263326</v>
+        <v>0.259823</v>
       </c>
       <c r="D72" t="n">
-        <v>0.363297</v>
+        <v>0.363175</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.292573</v>
+        <v>0.283543</v>
       </c>
       <c r="C73" t="n">
-        <v>0.262523</v>
+        <v>0.267613</v>
       </c>
       <c r="D73" t="n">
-        <v>0.385451</v>
+        <v>0.354162</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.30652</v>
+        <v>0.284466</v>
       </c>
       <c r="C74" t="n">
-        <v>0.27171</v>
+        <v>0.266127</v>
       </c>
       <c r="D74" t="n">
-        <v>0.383742</v>
+        <v>0.374196</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.301694</v>
+        <v>0.281952</v>
       </c>
       <c r="C75" t="n">
-        <v>0.274192</v>
+        <v>0.275498</v>
       </c>
       <c r="D75" t="n">
-        <v>0.384649</v>
+        <v>0.375945</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.301319</v>
+        <v>0.291882</v>
       </c>
       <c r="C76" t="n">
-        <v>0.267403</v>
+        <v>0.266052</v>
       </c>
       <c r="D76" t="n">
-        <v>0.425734</v>
+        <v>0.388501</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.310041</v>
+        <v>0.289069</v>
       </c>
       <c r="C77" t="n">
-        <v>0.27694</v>
+        <v>0.271225</v>
       </c>
       <c r="D77" t="n">
-        <v>0.423264</v>
+        <v>0.408976</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.306364</v>
+        <v>0.296649</v>
       </c>
       <c r="C78" t="n">
-        <v>0.273881</v>
+        <v>0.273725</v>
       </c>
       <c r="D78" t="n">
-        <v>0.381645</v>
+        <v>0.374487</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.315871</v>
+        <v>0.303929</v>
       </c>
       <c r="C79" t="n">
-        <v>0.283254</v>
+        <v>0.289686</v>
       </c>
       <c r="D79" t="n">
-        <v>0.397969</v>
+        <v>0.382077</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.309399</v>
+        <v>0.308707</v>
       </c>
       <c r="C80" t="n">
-        <v>0.372653</v>
+        <v>0.367937</v>
       </c>
       <c r="D80" t="n">
-        <v>0.405642</v>
+        <v>0.388579</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.404299</v>
+        <v>0.380388</v>
       </c>
       <c r="C81" t="n">
-        <v>0.369817</v>
+        <v>0.358381</v>
       </c>
       <c r="D81" t="n">
-        <v>0.407997</v>
+        <v>0.403371</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.391867</v>
+        <v>0.377983</v>
       </c>
       <c r="C82" t="n">
-        <v>0.368427</v>
+        <v>0.376312</v>
       </c>
       <c r="D82" t="n">
-        <v>0.425474</v>
+        <v>0.4147</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.392549</v>
+        <v>0.390387</v>
       </c>
       <c r="C83" t="n">
-        <v>0.366636</v>
+        <v>0.361022</v>
       </c>
       <c r="D83" t="n">
-        <v>0.438005</v>
+        <v>0.424116</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.386132</v>
+        <v>0.377939</v>
       </c>
       <c r="C84" t="n">
-        <v>0.36296</v>
+        <v>0.369727</v>
       </c>
       <c r="D84" t="n">
-        <v>0.445396</v>
+        <v>0.447844</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.392895</v>
+        <v>0.386638</v>
       </c>
       <c r="C85" t="n">
-        <v>0.361913</v>
+        <v>0.366152</v>
       </c>
       <c r="D85" t="n">
-        <v>0.436524</v>
+        <v>0.445225</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.386628</v>
+        <v>0.377298</v>
       </c>
       <c r="C86" t="n">
-        <v>0.37245</v>
+        <v>0.367071</v>
       </c>
       <c r="D86" t="n">
-        <v>0.467631</v>
+        <v>0.442675</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.391097</v>
+        <v>0.384937</v>
       </c>
       <c r="C87" t="n">
-        <v>0.365582</v>
+        <v>0.373192</v>
       </c>
       <c r="D87" t="n">
-        <v>0.476919</v>
+        <v>0.46234</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.397165</v>
+        <v>0.389651</v>
       </c>
       <c r="C88" t="n">
-        <v>0.381487</v>
+        <v>0.364152</v>
       </c>
       <c r="D88" t="n">
-        <v>0.488256</v>
+        <v>0.468125</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.41043</v>
+        <v>0.383893</v>
       </c>
       <c r="C89" t="n">
-        <v>0.364021</v>
+        <v>0.375955</v>
       </c>
       <c r="D89" t="n">
-        <v>0.487485</v>
+        <v>0.478349</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.390555</v>
+        <v>0.374512</v>
       </c>
       <c r="C90" t="n">
-        <v>0.370895</v>
+        <v>0.362744</v>
       </c>
       <c r="D90" t="n">
-        <v>0.500515</v>
+        <v>0.486368</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.397259</v>
+        <v>0.377382</v>
       </c>
       <c r="C91" t="n">
-        <v>0.364988</v>
+        <v>0.373049</v>
       </c>
       <c r="D91" t="n">
-        <v>0.517346</v>
+        <v>0.506692</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.402594</v>
+        <v>0.384047</v>
       </c>
       <c r="C92" t="n">
-        <v>0.380843</v>
+        <v>0.367298</v>
       </c>
       <c r="D92" t="n">
-        <v>0.459468</v>
+        <v>0.437914</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.399545</v>
+        <v>0.394582</v>
       </c>
       <c r="C93" t="n">
-        <v>0.382037</v>
+        <v>0.382329</v>
       </c>
       <c r="D93" t="n">
-        <v>0.473492</v>
+        <v>0.447895</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.392577</v>
+        <v>0.382279</v>
       </c>
       <c r="C94" t="n">
-        <v>0.461575</v>
+        <v>0.469045</v>
       </c>
       <c r="D94" t="n">
-        <v>0.458827</v>
+        <v>0.464192</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.484602</v>
+        <v>0.488087</v>
       </c>
       <c r="C95" t="n">
-        <v>0.447161</v>
+        <v>0.470212</v>
       </c>
       <c r="D95" t="n">
-        <v>0.462332</v>
+        <v>0.48022</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.465034</v>
+        <v>0.480996</v>
       </c>
       <c r="C96" t="n">
-        <v>0.462272</v>
+        <v>0.45189</v>
       </c>
       <c r="D96" t="n">
-        <v>0.480909</v>
+        <v>0.478203</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.476819</v>
+        <v>0.479227</v>
       </c>
       <c r="C97" t="n">
-        <v>0.46068</v>
+        <v>0.458971</v>
       </c>
       <c r="D97" t="n">
-        <v>0.496414</v>
+        <v>0.49383</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.483869</v>
+        <v>0.477128</v>
       </c>
       <c r="C98" t="n">
-        <v>0.458828</v>
+        <v>0.458565</v>
       </c>
       <c r="D98" t="n">
-        <v>0.503703</v>
+        <v>0.485065</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.477273</v>
+        <v>0.460827</v>
       </c>
       <c r="C99" t="n">
-        <v>0.465476</v>
+        <v>0.458593</v>
       </c>
       <c r="D99" t="n">
-        <v>0.52944</v>
+        <v>0.5057779999999999</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.470899</v>
+        <v>0.4863</v>
       </c>
       <c r="C100" t="n">
-        <v>0.463037</v>
+        <v>0.474807</v>
       </c>
       <c r="D100" t="n">
-        <v>0.534555</v>
+        <v>0.527289</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.466274</v>
+        <v>0.4814</v>
       </c>
       <c r="C101" t="n">
-        <v>0.45601</v>
+        <v>0.452766</v>
       </c>
       <c r="D101" t="n">
-        <v>0.542466</v>
+        <v>0.544785</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.458504</v>
+        <v>0.473828</v>
       </c>
       <c r="C102" t="n">
-        <v>0.470995</v>
+        <v>0.471111</v>
       </c>
       <c r="D102" t="n">
-        <v>0.544431</v>
+        <v>0.539442</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.475991</v>
+        <v>0.493608</v>
       </c>
       <c r="C103" t="n">
-        <v>0.481492</v>
+        <v>0.469838</v>
       </c>
       <c r="D103" t="n">
-        <v>0.552316</v>
+        <v>0.562136</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.473536</v>
+        <v>0.476204</v>
       </c>
       <c r="C104" t="n">
-        <v>0.463148</v>
+        <v>0.476047</v>
       </c>
       <c r="D104" t="n">
-        <v>0.576407</v>
+        <v>0.566798</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.481395</v>
+        <v>0.468192</v>
       </c>
       <c r="C105" t="n">
-        <v>0.466074</v>
+        <v>0.48178</v>
       </c>
       <c r="D105" t="n">
-        <v>0.582317</v>
+        <v>0.590684</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.486256</v>
+        <v>0.490126</v>
       </c>
       <c r="C106" t="n">
-        <v>0.468204</v>
+        <v>0.492371</v>
       </c>
       <c r="D106" t="n">
-        <v>0.600254</v>
+        <v>0.596424</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.472006</v>
+        <v>0.470919</v>
       </c>
       <c r="C107" t="n">
-        <v>0.472412</v>
+        <v>0.481146</v>
       </c>
       <c r="D107" t="n">
-        <v>0.551481</v>
+        <v>0.536438</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.502228</v>
+        <v>0.501207</v>
       </c>
       <c r="C108" t="n">
-        <v>0.553829</v>
+        <v>0.581435</v>
       </c>
       <c r="D108" t="n">
-        <v>0.514176</v>
+        <v>0.563187</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.482221</v>
+        <v>0.493525</v>
       </c>
       <c r="C109" t="n">
-        <v>0.550491</v>
+        <v>0.553696</v>
       </c>
       <c r="D109" t="n">
-        <v>0.558994</v>
+        <v>0.540273</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.5643010000000001</v>
+        <v>0.655104</v>
       </c>
       <c r="C110" t="n">
-        <v>0.548607</v>
+        <v>0.61181</v>
       </c>
       <c r="D110" t="n">
-        <v>0.546604</v>
+        <v>0.576967</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.589628</v>
+        <v>0.574171</v>
       </c>
       <c r="C111" t="n">
-        <v>0.550166</v>
+        <v>0.586526</v>
       </c>
       <c r="D111" t="n">
-        <v>0.582261</v>
+        <v>0.57209</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.5803160000000001</v>
+        <v>0.585994</v>
       </c>
       <c r="C112" t="n">
-        <v>0.5474869999999999</v>
+        <v>0.549715</v>
       </c>
       <c r="D112" t="n">
-        <v>0.567156</v>
+        <v>0.590793</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.582503</v>
+        <v>0.595077</v>
       </c>
       <c r="C113" t="n">
-        <v>0.557997</v>
+        <v>0.576411</v>
       </c>
       <c r="D113" t="n">
-        <v>0.599417</v>
+        <v>0.629728</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.5800689999999999</v>
+        <v>0.630819</v>
       </c>
       <c r="C114" t="n">
-        <v>0.554164</v>
+        <v>0.560109</v>
       </c>
       <c r="D114" t="n">
-        <v>0.575863</v>
+        <v>0.609677</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.583004</v>
+        <v>0.57585</v>
       </c>
       <c r="C115" t="n">
-        <v>0.5526450000000001</v>
+        <v>0.548136</v>
       </c>
       <c r="D115" t="n">
-        <v>0.625072</v>
+        <v>0.623297</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.6419859999999999</v>
+        <v>0.578217</v>
       </c>
       <c r="C116" t="n">
-        <v>0.563813</v>
+        <v>0.5624</v>
       </c>
       <c r="D116" t="n">
-        <v>0.633476</v>
+        <v>0.631529</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.579665</v>
+        <v>0.575891</v>
       </c>
       <c r="C117" t="n">
-        <v>0.566146</v>
+        <v>0.582163</v>
       </c>
       <c r="D117" t="n">
-        <v>0.646896</v>
+        <v>0.646238</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.574377</v>
+        <v>0.587388</v>
       </c>
       <c r="C118" t="n">
-        <v>0.565113</v>
+        <v>0.551468</v>
       </c>
       <c r="D118" t="n">
-        <v>0.631115</v>
+        <v>0.665752</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.574251</v>
+        <v>0.591086</v>
       </c>
       <c r="C119" t="n">
-        <v>0.55806</v>
+        <v>0.55635</v>
       </c>
       <c r="D119" t="n">
-        <v>0.665117</v>
+        <v>0.655758</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.614953</v>
+        <v>0.588401</v>
       </c>
       <c r="C120" t="n">
-        <v>0.592642</v>
+        <v>0.557144</v>
       </c>
       <c r="D120" t="n">
-        <v>0.698466</v>
+        <v>0.684279</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.584405</v>
+        <v>0.5825360000000001</v>
       </c>
       <c r="C121" t="n">
-        <v>0.566682</v>
+        <v>0.557631</v>
       </c>
       <c r="D121" t="n">
-        <v>0.606338</v>
+        <v>0.602291</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.595061</v>
+        <v>0.5868910000000001</v>
       </c>
       <c r="C122" t="n">
-        <v>0.5694939999999999</v>
+        <v>0.617188</v>
       </c>
       <c r="D122" t="n">
-        <v>0.612182</v>
+        <v>0.605112</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.584525</v>
+        <v>0.590234</v>
       </c>
       <c r="C123" t="n">
-        <v>0.681567</v>
+        <v>0.685292</v>
       </c>
       <c r="D123" t="n">
-        <v>0.609838</v>
+        <v>0.631445</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.788662</v>
+        <v>0.858121</v>
       </c>
       <c r="C124" t="n">
-        <v>0.68294</v>
+        <v>0.68102</v>
       </c>
       <c r="D124" t="n">
-        <v>0.634032</v>
+        <v>0.643788</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.752632</v>
+        <v>0.775372</v>
       </c>
       <c r="C125" t="n">
-        <v>0.696869</v>
+        <v>0.688651</v>
       </c>
       <c r="D125" t="n">
-        <v>0.668814</v>
+        <v>0.637591</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.789458</v>
+        <v>0.760077</v>
       </c>
       <c r="C126" t="n">
-        <v>0.671721</v>
+        <v>0.695916</v>
       </c>
       <c r="D126" t="n">
-        <v>0.650744</v>
+        <v>0.662022</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.8215710000000001</v>
+        <v>0.761916</v>
       </c>
       <c r="C127" t="n">
-        <v>0.699775</v>
+        <v>0.676</v>
       </c>
       <c r="D127" t="n">
-        <v>0.6816759999999999</v>
+        <v>0.659873</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.763602</v>
+        <v>0.758036</v>
       </c>
       <c r="C128" t="n">
-        <v>0.6967179999999999</v>
+        <v>0.6801199999999999</v>
       </c>
       <c r="D128" t="n">
-        <v>0.680972</v>
+        <v>0.700538</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.765306</v>
+        <v>0.768638</v>
       </c>
       <c r="C129" t="n">
-        <v>0.692031</v>
+        <v>0.685963</v>
       </c>
       <c r="D129" t="n">
-        <v>0.687406</v>
+        <v>0.698912</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.774976</v>
+        <v>0.750915</v>
       </c>
       <c r="C130" t="n">
-        <v>0.684631</v>
+        <v>0.671878</v>
       </c>
       <c r="D130" t="n">
-        <v>0.696538</v>
+        <v>0.7032119999999999</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.778075</v>
+        <v>0.753606</v>
       </c>
       <c r="C131" t="n">
-        <v>0.705687</v>
+        <v>0.691671</v>
       </c>
       <c r="D131" t="n">
-        <v>0.7294119999999999</v>
+        <v>0.717682</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.75778</v>
+        <v>0.742497</v>
       </c>
       <c r="C132" t="n">
-        <v>0.691787</v>
+        <v>0.692867</v>
       </c>
       <c r="D132" t="n">
-        <v>0.740682</v>
+        <v>0.740183</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.761011</v>
+        <v>0.755266</v>
       </c>
       <c r="C133" t="n">
-        <v>0.695598</v>
+        <v>0.69384</v>
       </c>
       <c r="D133" t="n">
-        <v>0.767625</v>
+        <v>0.7482490000000001</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.755216</v>
+        <v>0.760509</v>
       </c>
       <c r="C134" t="n">
-        <v>0.723627</v>
+        <v>0.698719</v>
       </c>
       <c r="D134" t="n">
-        <v>0.772377</v>
+        <v>0.768097</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.775797</v>
+        <v>0.869868</v>
       </c>
       <c r="C135" t="n">
-        <v>0.696586</v>
+        <v>0.80103</v>
       </c>
       <c r="D135" t="n">
-        <v>0.700997</v>
+        <v>0.703893</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.768788</v>
+        <v>0.773838</v>
       </c>
       <c r="C136" t="n">
-        <v>0.741256</v>
+        <v>0.701065</v>
       </c>
       <c r="D136" t="n">
-        <v>0.709744</v>
+        <v>0.7320449999999999</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.774069</v>
+        <v>0.762523</v>
       </c>
       <c r="C137" t="n">
-        <v>0.875888</v>
+        <v>0.874382</v>
       </c>
       <c r="D137" t="n">
-        <v>0.733581</v>
+        <v>0.735947</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.981573</v>
+        <v>1.09294</v>
       </c>
       <c r="C138" t="n">
-        <v>0.880339</v>
+        <v>0.87418</v>
       </c>
       <c r="D138" t="n">
-        <v>0.747453</v>
+        <v>0.748402</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.985228</v>
+        <v>1.0129</v>
       </c>
       <c r="C139" t="n">
-        <v>0.893026</v>
+        <v>0.8795500000000001</v>
       </c>
       <c r="D139" t="n">
-        <v>0.763113</v>
+        <v>0.761945</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.07974</v>
+        <v>0.99017</v>
       </c>
       <c r="C140" t="n">
-        <v>0.870239</v>
+        <v>0.895415</v>
       </c>
       <c r="D140" t="n">
-        <v>0.769864</v>
+        <v>0.7643450000000001</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.981248</v>
+        <v>1.089</v>
       </c>
       <c r="C141" t="n">
-        <v>0.89714</v>
+        <v>0.88834</v>
       </c>
       <c r="D141" t="n">
-        <v>0.781905</v>
+        <v>0.771039</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.991873</v>
+        <v>1.085</v>
       </c>
       <c r="C142" t="n">
-        <v>0.885171</v>
+        <v>0.888929</v>
       </c>
       <c r="D142" t="n">
-        <v>0.797156</v>
+        <v>0.800523</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.98706</v>
+        <v>0.981271</v>
       </c>
       <c r="C143" t="n">
-        <v>0.891258</v>
+        <v>0.882167</v>
       </c>
       <c r="D143" t="n">
-        <v>0.821528</v>
+        <v>0.82463</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -3213,7 +3213,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D143"/>
+  <dimension ref="A1:E143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="G23" sqref="G23"/>
@@ -3246,13 +3246,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0670294</v>
+        <v>0.0660787</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0569768</v>
+        <v>0.103189</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0989831</v>
+        <v>0.0554806</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0629492</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3263,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0709178</v>
+        <v>0.0688525</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0603039</v>
+        <v>0.103782</v>
       </c>
       <c r="D3" t="n">
-        <v>0.104061</v>
+        <v>0.05521</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0612436</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3280,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.06773560000000001</v>
+        <v>0.0671586</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0602935</v>
+        <v>0.10627</v>
       </c>
       <c r="D4" t="n">
-        <v>0.109024</v>
+        <v>0.0542924</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.06409860000000001</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3297,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0684613</v>
+        <v>0.0645381</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0575967</v>
+        <v>0.108823</v>
       </c>
       <c r="D5" t="n">
-        <v>0.106996</v>
+        <v>0.0554304</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.06309480000000001</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3314,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0676756</v>
+        <v>0.0681636</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0596535</v>
+        <v>0.118312</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1098</v>
+        <v>0.0586848</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0653985</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3331,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0679666</v>
+        <v>0.06776359999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0603543</v>
+        <v>0.0873994</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0845862</v>
+        <v>0.0596199</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0655191</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3348,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.06618590000000001</v>
+        <v>0.0739771</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0668769</v>
+        <v>0.0940727</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0893809</v>
+        <v>0.0652084</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0694713</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3365,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.07247480000000001</v>
+        <v>0.0698637</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0649856</v>
+        <v>0.0955814</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0944512</v>
+        <v>0.0607647</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.07073169999999999</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3382,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0779748</v>
+        <v>0.0765279</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0624294</v>
+        <v>0.09726120000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0982295</v>
+        <v>0.0598097</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0704834</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3399,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0830482</v>
+        <v>0.07593080000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0613046</v>
+        <v>0.100852</v>
       </c>
       <c r="D11" t="n">
-        <v>0.09822350000000001</v>
+        <v>0.0600174</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.06960230000000001</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3416,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.077123</v>
+        <v>0.07619570000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06374290000000001</v>
+        <v>0.104615</v>
       </c>
       <c r="D12" t="n">
-        <v>0.103058</v>
+        <v>0.0604714</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0686127</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3433,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.075766</v>
+        <v>0.0748914</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0615003</v>
+        <v>0.104634</v>
       </c>
       <c r="D13" t="n">
-        <v>0.105261</v>
+        <v>0.0576789</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0670453</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3450,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0795471</v>
+        <v>0.0771805</v>
       </c>
       <c r="C14" t="n">
-        <v>0.062459</v>
+        <v>0.11294</v>
       </c>
       <c r="D14" t="n">
-        <v>0.109074</v>
+        <v>0.0598933</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.07021769999999999</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3467,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0805471</v>
+        <v>0.07521079999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0628766</v>
+        <v>0.111327</v>
       </c>
       <c r="D15" t="n">
-        <v>0.111594</v>
+        <v>0.0595861</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.07009070000000001</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3484,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.08165500000000001</v>
+        <v>0.0745532</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0633748</v>
+        <v>0.11427</v>
       </c>
       <c r="D16" t="n">
-        <v>0.111879</v>
+        <v>0.0600693</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0691104</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3501,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.07828640000000001</v>
+        <v>0.0734293</v>
       </c>
       <c r="C17" t="n">
-        <v>0.06320389999999999</v>
+        <v>0.114355</v>
       </c>
       <c r="D17" t="n">
-        <v>0.116437</v>
+        <v>0.0589691</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.06976930000000001</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3518,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0769994</v>
+        <v>0.0729638</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0623618</v>
+        <v>0.116872</v>
       </c>
       <c r="D18" t="n">
-        <v>0.123266</v>
+        <v>0.0589243</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.0683539</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3535,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0791968</v>
+        <v>0.0786458</v>
       </c>
       <c r="C19" t="n">
-        <v>0.065564</v>
+        <v>0.123547</v>
       </c>
       <c r="D19" t="n">
-        <v>0.126048</v>
+        <v>0.0597458</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0692338</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3552,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.078168</v>
+        <v>0.0754643</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0653205</v>
+        <v>0.128515</v>
       </c>
       <c r="D20" t="n">
-        <v>0.120514</v>
+        <v>0.0622297</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.071115</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3569,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0764956</v>
+        <v>0.0738169</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0681402</v>
+        <v>0.09228210000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.095332</v>
+        <v>0.06377289999999999</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.07168430000000001</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3586,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0809484</v>
+        <v>0.0745377</v>
       </c>
       <c r="C22" t="n">
-        <v>0.07228320000000001</v>
+        <v>0.0945696</v>
       </c>
       <c r="D22" t="n">
-        <v>0.09658079999999999</v>
+        <v>0.0684955</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.076088</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3603,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.08081190000000001</v>
+        <v>0.0764801</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0650935</v>
+        <v>0.09714639999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0993049</v>
+        <v>0.0621502</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.07296809999999999</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3620,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0824034</v>
+        <v>0.0785507</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0641321</v>
+        <v>0.099707</v>
       </c>
       <c r="D24" t="n">
-        <v>0.102165</v>
+        <v>0.0617064</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0730069</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3637,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0839314</v>
+        <v>0.0782537</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0650105</v>
+        <v>0.102953</v>
       </c>
       <c r="D25" t="n">
-        <v>0.102641</v>
+        <v>0.0632354</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.0733109</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3654,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0856586</v>
+        <v>0.0780063</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0645686</v>
+        <v>0.104667</v>
       </c>
       <c r="D26" t="n">
-        <v>0.104079</v>
+        <v>0.0619606</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.0736887</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3671,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0821429</v>
+        <v>0.07903399999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.06522600000000001</v>
+        <v>0.108714</v>
       </c>
       <c r="D27" t="n">
-        <v>0.108957</v>
+        <v>0.0627659</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.07451969999999999</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3688,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.08292579999999999</v>
+        <v>0.07884819999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0664708</v>
+        <v>0.114467</v>
       </c>
       <c r="D28" t="n">
-        <v>0.116479</v>
+        <v>0.0621932</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.0783322</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3705,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0827444</v>
+        <v>0.0788186</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0655734</v>
+        <v>0.11652</v>
       </c>
       <c r="D29" t="n">
-        <v>0.116265</v>
+        <v>0.0640912</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.0758783</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3722,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0816036</v>
+        <v>0.07966570000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0666476</v>
+        <v>0.120145</v>
       </c>
       <c r="D30" t="n">
-        <v>0.115823</v>
+        <v>0.0634444</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.0764966</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3739,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0830777</v>
+        <v>0.0795348</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0678216</v>
+        <v>0.123987</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1264</v>
+        <v>0.0639549</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.0772379</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3756,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0821379</v>
+        <v>0.07957549999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>0.06669319999999999</v>
+        <v>0.126832</v>
       </c>
       <c r="D32" t="n">
-        <v>0.124517</v>
+        <v>0.06460390000000001</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.0776367</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3773,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.08300680000000001</v>
+        <v>0.0797486</v>
       </c>
       <c r="C33" t="n">
-        <v>0.068884</v>
+        <v>0.132114</v>
       </c>
       <c r="D33" t="n">
-        <v>0.127257</v>
+        <v>0.0658055</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.0788147</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3790,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0833274</v>
+        <v>0.0815785</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0686524</v>
+        <v>0.13575</v>
       </c>
       <c r="D34" t="n">
-        <v>0.133483</v>
+        <v>0.0670429</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.0804135</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3807,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0822563</v>
+        <v>0.0804523</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0739939</v>
+        <v>0.108728</v>
       </c>
       <c r="D35" t="n">
-        <v>0.115615</v>
+        <v>0.0694521</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.0830383</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3824,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0839607</v>
+        <v>0.0832208</v>
       </c>
       <c r="C36" t="n">
-        <v>0.07704809999999999</v>
+        <v>0.113949</v>
       </c>
       <c r="D36" t="n">
-        <v>0.116392</v>
+        <v>0.0736238</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.08547780000000001</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3841,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0876284</v>
+        <v>0.0844356</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0707525</v>
+        <v>0.116344</v>
       </c>
       <c r="D37" t="n">
-        <v>0.118914</v>
+        <v>0.0691698</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.08082880000000001</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3858,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.102549</v>
+        <v>0.0968734</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0742723</v>
+        <v>0.122066</v>
       </c>
       <c r="D38" t="n">
-        <v>0.124241</v>
+        <v>0.0687357</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.0813342</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3875,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.104446</v>
+        <v>0.09717240000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0733419</v>
+        <v>0.126525</v>
       </c>
       <c r="D39" t="n">
-        <v>0.129427</v>
+        <v>0.06863370000000001</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.0814122</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3892,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.100226</v>
+        <v>0.101428</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0726146</v>
+        <v>0.132198</v>
       </c>
       <c r="D40" t="n">
-        <v>0.138668</v>
+        <v>0.0698782</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.08374139999999999</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3909,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.101747</v>
+        <v>0.09739589999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0727841</v>
+        <v>0.139098</v>
       </c>
       <c r="D41" t="n">
-        <v>0.137645</v>
+        <v>0.0701053</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.0855289</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3926,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.099957</v>
+        <v>0.097914</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0740577</v>
+        <v>0.142103</v>
       </c>
       <c r="D42" t="n">
-        <v>0.140456</v>
+        <v>0.0705433</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.0851944</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3943,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.100274</v>
+        <v>0.09717629999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0729982</v>
+        <v>0.146761</v>
       </c>
       <c r="D43" t="n">
-        <v>0.147374</v>
+        <v>0.0710319</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.0860925</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3960,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.09778820000000001</v>
+        <v>0.097592</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0737756</v>
+        <v>0.153057</v>
       </c>
       <c r="D44" t="n">
-        <v>0.153092</v>
+        <v>0.07131079999999999</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.08731849999999999</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3977,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.100346</v>
+        <v>0.0965669</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0745093</v>
+        <v>0.155089</v>
       </c>
       <c r="D45" t="n">
-        <v>0.156</v>
+        <v>0.0704733</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.08731319999999999</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3994,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.103903</v>
+        <v>0.09726609999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0731895</v>
+        <v>0.161412</v>
       </c>
       <c r="D46" t="n">
-        <v>0.165868</v>
+        <v>0.07249319999999999</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.08940240000000001</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +4011,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.101797</v>
+        <v>0.09815939999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0754874</v>
+        <v>0.166565</v>
       </c>
       <c r="D47" t="n">
-        <v>0.176211</v>
+        <v>0.0727715</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.0905629</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +4028,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.100992</v>
+        <v>0.100604</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0799744</v>
+        <v>0.176732</v>
       </c>
       <c r="D48" t="n">
-        <v>0.179192</v>
+        <v>0.0752766</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.0959006</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +4045,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.103889</v>
+        <v>0.100968</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0800329</v>
+        <v>0.181415</v>
       </c>
       <c r="D49" t="n">
-        <v>0.188916</v>
+        <v>0.07779510000000001</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.09876799999999999</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +4062,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.103935</v>
+        <v>0.101509</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0870867</v>
+        <v>0.170444</v>
       </c>
       <c r="D50" t="n">
-        <v>0.17769</v>
+        <v>0.0805143</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.100532</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +4079,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.109779</v>
+        <v>0.103003</v>
       </c>
       <c r="C51" t="n">
-        <v>0.159345</v>
+        <v>0.174272</v>
       </c>
       <c r="D51" t="n">
-        <v>0.182308</v>
+        <v>0.156924</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.123123</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +4096,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.107385</v>
+        <v>0.104544</v>
       </c>
       <c r="C52" t="n">
-        <v>0.161292</v>
+        <v>0.183108</v>
       </c>
       <c r="D52" t="n">
-        <v>0.189383</v>
+        <v>0.16252</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.127147</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +4113,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.184528</v>
+        <v>0.173947</v>
       </c>
       <c r="C53" t="n">
-        <v>0.164512</v>
+        <v>0.186415</v>
       </c>
       <c r="D53" t="n">
-        <v>0.188754</v>
+        <v>0.157698</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.126594</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +4130,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.186219</v>
+        <v>0.171713</v>
       </c>
       <c r="C54" t="n">
-        <v>0.165817</v>
+        <v>0.203584</v>
       </c>
       <c r="D54" t="n">
-        <v>0.202849</v>
+        <v>0.158965</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.129169</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +4147,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.191036</v>
+        <v>0.176327</v>
       </c>
       <c r="C55" t="n">
-        <v>0.163433</v>
+        <v>0.200334</v>
       </c>
       <c r="D55" t="n">
-        <v>0.221585</v>
+        <v>0.157523</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.133282</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4164,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.189067</v>
+        <v>0.174089</v>
       </c>
       <c r="C56" t="n">
-        <v>0.167674</v>
+        <v>0.20752</v>
       </c>
       <c r="D56" t="n">
-        <v>0.214387</v>
+        <v>0.157898</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.135977</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4181,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.191045</v>
+        <v>0.175604</v>
       </c>
       <c r="C57" t="n">
-        <v>0.165231</v>
+        <v>0.215308</v>
       </c>
       <c r="D57" t="n">
-        <v>0.231929</v>
+        <v>0.157921</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.140541</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4198,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.186134</v>
+        <v>0.17611</v>
       </c>
       <c r="C58" t="n">
-        <v>0.16885</v>
+        <v>0.223818</v>
       </c>
       <c r="D58" t="n">
-        <v>0.237177</v>
+        <v>0.161153</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.144988</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4215,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.190059</v>
+        <v>0.177394</v>
       </c>
       <c r="C59" t="n">
-        <v>0.172947</v>
+        <v>0.231507</v>
       </c>
       <c r="D59" t="n">
-        <v>0.262409</v>
+        <v>0.159854</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.146118</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4232,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.185816</v>
+        <v>0.175133</v>
       </c>
       <c r="C60" t="n">
-        <v>0.164286</v>
+        <v>0.24377</v>
       </c>
       <c r="D60" t="n">
-        <v>0.261698</v>
+        <v>0.162116</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.153684</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4249,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.190211</v>
+        <v>0.178278</v>
       </c>
       <c r="C61" t="n">
-        <v>0.171663</v>
+        <v>0.253506</v>
       </c>
       <c r="D61" t="n">
-        <v>0.269774</v>
+        <v>0.163912</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.156313</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4266,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.197191</v>
+        <v>0.175574</v>
       </c>
       <c r="C62" t="n">
-        <v>0.172762</v>
+        <v>0.266043</v>
       </c>
       <c r="D62" t="n">
-        <v>0.282186</v>
+        <v>0.165976</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.161328</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4283,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.192218</v>
+        <v>0.188034</v>
       </c>
       <c r="C63" t="n">
-        <v>0.173373</v>
+        <v>0.271053</v>
       </c>
       <c r="D63" t="n">
-        <v>0.290106</v>
+        <v>0.164218</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.164598</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4300,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.191526</v>
+        <v>0.176827</v>
       </c>
       <c r="C64" t="n">
-        <v>0.176114</v>
+        <v>0.269092</v>
       </c>
       <c r="D64" t="n">
-        <v>0.282233</v>
+        <v>0.165228</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.169277</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4317,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.189852</v>
+        <v>0.181347</v>
       </c>
       <c r="C65" t="n">
-        <v>0.17519</v>
+        <v>0.278375</v>
       </c>
       <c r="D65" t="n">
-        <v>0.311241</v>
+        <v>0.1706</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.177731</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4334,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.19929</v>
+        <v>0.180692</v>
       </c>
       <c r="C66" t="n">
-        <v>0.255184</v>
+        <v>0.282694</v>
       </c>
       <c r="D66" t="n">
-        <v>0.28985</v>
+        <v>0.24047</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.254768</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4351,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.284956</v>
+        <v>0.264501</v>
       </c>
       <c r="C67" t="n">
-        <v>0.262265</v>
+        <v>0.297799</v>
       </c>
       <c r="D67" t="n">
-        <v>0.301671</v>
+        <v>0.239437</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.253391</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4368,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.293506</v>
+        <v>0.264928</v>
       </c>
       <c r="C68" t="n">
-        <v>0.255273</v>
+        <v>0.301942</v>
       </c>
       <c r="D68" t="n">
-        <v>0.312774</v>
+        <v>0.245073</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.257894</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4385,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.285417</v>
+        <v>0.278238</v>
       </c>
       <c r="C69" t="n">
-        <v>0.256754</v>
+        <v>0.319629</v>
       </c>
       <c r="D69" t="n">
-        <v>0.328556</v>
+        <v>0.251579</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.265098</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4402,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.285797</v>
+        <v>0.273196</v>
       </c>
       <c r="C70" t="n">
-        <v>0.259491</v>
+        <v>0.324627</v>
       </c>
       <c r="D70" t="n">
-        <v>0.326739</v>
+        <v>0.253359</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.260822</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4419,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.292091</v>
+        <v>0.272369</v>
       </c>
       <c r="C71" t="n">
-        <v>0.255024</v>
+        <v>0.332986</v>
       </c>
       <c r="D71" t="n">
-        <v>0.344516</v>
+        <v>0.248569</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.261731</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4436,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.28121</v>
+        <v>0.272774</v>
       </c>
       <c r="C72" t="n">
-        <v>0.259823</v>
+        <v>0.339014</v>
       </c>
       <c r="D72" t="n">
-        <v>0.363175</v>
+        <v>0.248983</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.260565</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4453,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.283543</v>
+        <v>0.267062</v>
       </c>
       <c r="C73" t="n">
-        <v>0.267613</v>
+        <v>0.347138</v>
       </c>
       <c r="D73" t="n">
-        <v>0.354162</v>
+        <v>0.252441</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.265099</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4470,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.284466</v>
+        <v>0.269842</v>
       </c>
       <c r="C74" t="n">
-        <v>0.266127</v>
+        <v>0.356291</v>
       </c>
       <c r="D74" t="n">
-        <v>0.374196</v>
+        <v>0.251789</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.264077</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4487,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.281952</v>
+        <v>0.272371</v>
       </c>
       <c r="C75" t="n">
-        <v>0.275498</v>
+        <v>0.367046</v>
       </c>
       <c r="D75" t="n">
-        <v>0.375945</v>
+        <v>0.25513</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.267208</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4504,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.291882</v>
+        <v>0.274429</v>
       </c>
       <c r="C76" t="n">
-        <v>0.266052</v>
+        <v>0.381035</v>
       </c>
       <c r="D76" t="n">
-        <v>0.388501</v>
+        <v>0.259796</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.27241</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4521,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.289069</v>
+        <v>0.275825</v>
       </c>
       <c r="C77" t="n">
-        <v>0.271225</v>
+        <v>0.400627</v>
       </c>
       <c r="D77" t="n">
-        <v>0.408976</v>
+        <v>0.270885</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.276128</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4538,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.296649</v>
+        <v>0.28987</v>
       </c>
       <c r="C78" t="n">
-        <v>0.273725</v>
+        <v>0.361973</v>
       </c>
       <c r="D78" t="n">
-        <v>0.374487</v>
+        <v>0.260719</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.277646</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4555,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.303929</v>
+        <v>0.280781</v>
       </c>
       <c r="C79" t="n">
-        <v>0.289686</v>
+        <v>0.366795</v>
       </c>
       <c r="D79" t="n">
-        <v>0.382077</v>
+        <v>0.265905</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.287172</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4572,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.308707</v>
+        <v>0.284641</v>
       </c>
       <c r="C80" t="n">
-        <v>0.367937</v>
+        <v>0.37834</v>
       </c>
       <c r="D80" t="n">
-        <v>0.388579</v>
+        <v>0.347913</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.394435</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4589,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.380388</v>
+        <v>0.36633</v>
       </c>
       <c r="C81" t="n">
-        <v>0.358381</v>
+        <v>0.383653</v>
       </c>
       <c r="D81" t="n">
-        <v>0.403371</v>
+        <v>0.344906</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.409954</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4606,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.377983</v>
+        <v>0.362133</v>
       </c>
       <c r="C82" t="n">
-        <v>0.376312</v>
+        <v>0.394687</v>
       </c>
       <c r="D82" t="n">
-        <v>0.4147</v>
+        <v>0.346689</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.39542</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4623,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.390387</v>
+        <v>0.362263</v>
       </c>
       <c r="C83" t="n">
-        <v>0.361022</v>
+        <v>0.401373</v>
       </c>
       <c r="D83" t="n">
-        <v>0.424116</v>
+        <v>0.346979</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.399051</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4640,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.377939</v>
+        <v>0.364052</v>
       </c>
       <c r="C84" t="n">
-        <v>0.369727</v>
+        <v>0.417393</v>
       </c>
       <c r="D84" t="n">
-        <v>0.447844</v>
+        <v>0.347339</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.403003</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4657,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.386638</v>
+        <v>0.365287</v>
       </c>
       <c r="C85" t="n">
-        <v>0.366152</v>
+        <v>0.425486</v>
       </c>
       <c r="D85" t="n">
-        <v>0.445225</v>
+        <v>0.352089</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.408038</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4674,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.377298</v>
+        <v>0.369703</v>
       </c>
       <c r="C86" t="n">
-        <v>0.367071</v>
+        <v>0.435833</v>
       </c>
       <c r="D86" t="n">
-        <v>0.442675</v>
+        <v>0.352898</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.405498</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4691,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.384937</v>
+        <v>0.369757</v>
       </c>
       <c r="C87" t="n">
-        <v>0.373192</v>
+        <v>0.459912</v>
       </c>
       <c r="D87" t="n">
-        <v>0.46234</v>
+        <v>0.350845</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.406102</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4708,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.389651</v>
+        <v>0.367436</v>
       </c>
       <c r="C88" t="n">
-        <v>0.364152</v>
+        <v>0.451975</v>
       </c>
       <c r="D88" t="n">
-        <v>0.468125</v>
+        <v>0.349862</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.407718</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4725,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.383893</v>
+        <v>0.366244</v>
       </c>
       <c r="C89" t="n">
-        <v>0.375955</v>
+        <v>0.460173</v>
       </c>
       <c r="D89" t="n">
-        <v>0.478349</v>
+        <v>0.353397</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.414688</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4742,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.374512</v>
+        <v>0.381726</v>
       </c>
       <c r="C90" t="n">
-        <v>0.362744</v>
+        <v>0.508318</v>
       </c>
       <c r="D90" t="n">
-        <v>0.486368</v>
+        <v>0.359769</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.417404</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4759,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.377382</v>
+        <v>0.374425</v>
       </c>
       <c r="C91" t="n">
-        <v>0.373049</v>
+        <v>0.489935</v>
       </c>
       <c r="D91" t="n">
-        <v>0.506692</v>
+        <v>0.358538</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.418775</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4776,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.384047</v>
+        <v>0.372545</v>
       </c>
       <c r="C92" t="n">
-        <v>0.367298</v>
+        <v>0.431033</v>
       </c>
       <c r="D92" t="n">
-        <v>0.437914</v>
+        <v>0.357425</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.420311</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4793,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.394582</v>
+        <v>0.375208</v>
       </c>
       <c r="C93" t="n">
-        <v>0.382329</v>
+        <v>0.459194</v>
       </c>
       <c r="D93" t="n">
-        <v>0.447895</v>
+        <v>0.37447</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.445065</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4810,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.382279</v>
+        <v>0.380443</v>
       </c>
       <c r="C94" t="n">
-        <v>0.469045</v>
+        <v>0.460798</v>
       </c>
       <c r="D94" t="n">
-        <v>0.464192</v>
+        <v>0.439817</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.500401</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4827,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.488087</v>
+        <v>0.442606</v>
       </c>
       <c r="C95" t="n">
-        <v>0.470212</v>
+        <v>0.45492</v>
       </c>
       <c r="D95" t="n">
-        <v>0.48022</v>
+        <v>0.448117</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.507633</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4844,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.480996</v>
+        <v>0.447964</v>
       </c>
       <c r="C96" t="n">
-        <v>0.45189</v>
+        <v>0.466116</v>
       </c>
       <c r="D96" t="n">
-        <v>0.478203</v>
+        <v>0.45166</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.507954</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4861,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.479227</v>
+        <v>0.445463</v>
       </c>
       <c r="C97" t="n">
-        <v>0.458971</v>
+        <v>0.481466</v>
       </c>
       <c r="D97" t="n">
-        <v>0.49383</v>
+        <v>0.4539</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.519433</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4878,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.477128</v>
+        <v>0.451338</v>
       </c>
       <c r="C98" t="n">
-        <v>0.458565</v>
+        <v>0.478229</v>
       </c>
       <c r="D98" t="n">
-        <v>0.485065</v>
+        <v>0.445168</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.513738</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4895,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.460827</v>
+        <v>0.445462</v>
       </c>
       <c r="C99" t="n">
-        <v>0.458593</v>
+        <v>0.485791</v>
       </c>
       <c r="D99" t="n">
-        <v>0.5057779999999999</v>
+        <v>0.449282</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.514701</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4912,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.4863</v>
+        <v>0.450426</v>
       </c>
       <c r="C100" t="n">
-        <v>0.474807</v>
+        <v>0.503848</v>
       </c>
       <c r="D100" t="n">
-        <v>0.527289</v>
+        <v>0.443654</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.518873</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4929,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.4814</v>
+        <v>0.448742</v>
       </c>
       <c r="C101" t="n">
-        <v>0.452766</v>
+        <v>0.509876</v>
       </c>
       <c r="D101" t="n">
-        <v>0.544785</v>
+        <v>0.447453</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.528694</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4946,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.473828</v>
+        <v>0.465665</v>
       </c>
       <c r="C102" t="n">
-        <v>0.471111</v>
+        <v>0.544586</v>
       </c>
       <c r="D102" t="n">
-        <v>0.539442</v>
+        <v>0.461654</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.525709</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4963,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.493608</v>
+        <v>0.453619</v>
       </c>
       <c r="C103" t="n">
-        <v>0.469838</v>
+        <v>0.546932</v>
       </c>
       <c r="D103" t="n">
-        <v>0.562136</v>
+        <v>0.45782</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.524046</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4980,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.476204</v>
+        <v>0.465857</v>
       </c>
       <c r="C104" t="n">
-        <v>0.476047</v>
+        <v>0.548293</v>
       </c>
       <c r="D104" t="n">
-        <v>0.566798</v>
+        <v>0.486832</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.528091</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4997,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.468192</v>
+        <v>0.462358</v>
       </c>
       <c r="C105" t="n">
-        <v>0.48178</v>
+        <v>0.562634</v>
       </c>
       <c r="D105" t="n">
-        <v>0.590684</v>
+        <v>0.453689</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.530581</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +5014,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.490126</v>
+        <v>0.452192</v>
       </c>
       <c r="C106" t="n">
-        <v>0.492371</v>
+        <v>0.572848</v>
       </c>
       <c r="D106" t="n">
-        <v>0.596424</v>
+        <v>0.452116</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.5369390000000001</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +5031,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.470919</v>
+        <v>0.449166</v>
       </c>
       <c r="C107" t="n">
-        <v>0.481146</v>
+        <v>0.489174</v>
       </c>
       <c r="D107" t="n">
-        <v>0.536438</v>
+        <v>0.457052</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.545876</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +5048,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.501207</v>
+        <v>0.458427</v>
       </c>
       <c r="C108" t="n">
-        <v>0.581435</v>
+        <v>0.500613</v>
       </c>
       <c r="D108" t="n">
-        <v>0.563187</v>
+        <v>0.526629</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.581846</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +5065,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.493525</v>
+        <v>0.468022</v>
       </c>
       <c r="C109" t="n">
-        <v>0.553696</v>
+        <v>0.511078</v>
       </c>
       <c r="D109" t="n">
-        <v>0.540273</v>
+        <v>0.524644</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.58566</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +5082,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.655104</v>
+        <v>0.553333</v>
       </c>
       <c r="C110" t="n">
-        <v>0.61181</v>
+        <v>0.52276</v>
       </c>
       <c r="D110" t="n">
-        <v>0.576967</v>
+        <v>0.5192639999999999</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.585037</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +5099,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.574171</v>
+        <v>0.542831</v>
       </c>
       <c r="C111" t="n">
-        <v>0.586526</v>
+        <v>0.527268</v>
       </c>
       <c r="D111" t="n">
-        <v>0.57209</v>
+        <v>0.52021</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.585526</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +5116,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.585994</v>
+        <v>0.544231</v>
       </c>
       <c r="C112" t="n">
-        <v>0.549715</v>
+        <v>0.545498</v>
       </c>
       <c r="D112" t="n">
-        <v>0.590793</v>
+        <v>0.525536</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.5905629999999999</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +5133,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.595077</v>
+        <v>0.561188</v>
       </c>
       <c r="C113" t="n">
-        <v>0.576411</v>
+        <v>0.560265</v>
       </c>
       <c r="D113" t="n">
-        <v>0.629728</v>
+        <v>0.533964</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.607001</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +5150,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.630819</v>
+        <v>0.545106</v>
       </c>
       <c r="C114" t="n">
-        <v>0.560109</v>
+        <v>0.584884</v>
       </c>
       <c r="D114" t="n">
-        <v>0.609677</v>
+        <v>0.522706</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.596754</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +5167,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.57585</v>
+        <v>0.577303</v>
       </c>
       <c r="C115" t="n">
-        <v>0.548136</v>
+        <v>0.580327</v>
       </c>
       <c r="D115" t="n">
-        <v>0.623297</v>
+        <v>0.527538</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.603522</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +5184,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.578217</v>
+        <v>0.5530890000000001</v>
       </c>
       <c r="C116" t="n">
-        <v>0.5624</v>
+        <v>0.598229</v>
       </c>
       <c r="D116" t="n">
-        <v>0.631529</v>
+        <v>0.540307</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.598769</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +5201,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.575891</v>
+        <v>0.548713</v>
       </c>
       <c r="C117" t="n">
-        <v>0.582163</v>
+        <v>0.609839</v>
       </c>
       <c r="D117" t="n">
-        <v>0.646238</v>
+        <v>0.537268</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.608054</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +5218,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.587388</v>
+        <v>0.5523439999999999</v>
       </c>
       <c r="C118" t="n">
-        <v>0.551468</v>
+        <v>0.618474</v>
       </c>
       <c r="D118" t="n">
-        <v>0.665752</v>
+        <v>0.531678</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.612694</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +5235,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.591086</v>
+        <v>0.558701</v>
       </c>
       <c r="C119" t="n">
-        <v>0.55635</v>
+        <v>0.626455</v>
       </c>
       <c r="D119" t="n">
-        <v>0.655758</v>
+        <v>0.531455</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.611867</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +5252,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.588401</v>
+        <v>0.554449</v>
       </c>
       <c r="C120" t="n">
-        <v>0.557144</v>
+        <v>0.64494</v>
       </c>
       <c r="D120" t="n">
-        <v>0.684279</v>
+        <v>0.546502</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.643904</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +5269,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.5825360000000001</v>
+        <v>0.568983</v>
       </c>
       <c r="C121" t="n">
-        <v>0.557631</v>
+        <v>0.560928</v>
       </c>
       <c r="D121" t="n">
-        <v>0.602291</v>
+        <v>0.538355</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.62432</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +5286,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.5868910000000001</v>
+        <v>0.556868</v>
       </c>
       <c r="C122" t="n">
-        <v>0.617188</v>
+        <v>0.577457</v>
       </c>
       <c r="D122" t="n">
-        <v>0.605112</v>
+        <v>0.554724</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.635178</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +5303,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.590234</v>
+        <v>0.566757</v>
       </c>
       <c r="C123" t="n">
-        <v>0.685292</v>
+        <v>0.585943</v>
       </c>
       <c r="D123" t="n">
-        <v>0.631445</v>
+        <v>0.644899</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.6538</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +5320,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.858121</v>
+        <v>0.7134470000000001</v>
       </c>
       <c r="C124" t="n">
-        <v>0.68102</v>
+        <v>0.612789</v>
       </c>
       <c r="D124" t="n">
-        <v>0.643788</v>
+        <v>0.649502</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.662958</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +5337,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.775372</v>
+        <v>0.70764</v>
       </c>
       <c r="C125" t="n">
-        <v>0.688651</v>
+        <v>0.621052</v>
       </c>
       <c r="D125" t="n">
-        <v>0.637591</v>
+        <v>0.6602440000000001</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.677905</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +5354,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.760077</v>
+        <v>0.706785</v>
       </c>
       <c r="C126" t="n">
-        <v>0.695916</v>
+        <v>0.619517</v>
       </c>
       <c r="D126" t="n">
-        <v>0.662022</v>
+        <v>0.6482830000000001</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.6681049999999999</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +5371,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.761916</v>
+        <v>0.717423</v>
       </c>
       <c r="C127" t="n">
-        <v>0.676</v>
+        <v>0.639612</v>
       </c>
       <c r="D127" t="n">
-        <v>0.659873</v>
+        <v>0.660102</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.6832780000000001</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5388,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.758036</v>
+        <v>0.716004</v>
       </c>
       <c r="C128" t="n">
-        <v>0.6801199999999999</v>
+        <v>0.652876</v>
       </c>
       <c r="D128" t="n">
-        <v>0.700538</v>
+        <v>0.654789</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.674831</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5405,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.768638</v>
+        <v>0.789013</v>
       </c>
       <c r="C129" t="n">
-        <v>0.685963</v>
+        <v>0.662853</v>
       </c>
       <c r="D129" t="n">
-        <v>0.698912</v>
+        <v>0.6621</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.688172</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5422,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.750915</v>
+        <v>0.706768</v>
       </c>
       <c r="C130" t="n">
-        <v>0.671878</v>
+        <v>0.675889</v>
       </c>
       <c r="D130" t="n">
-        <v>0.7032119999999999</v>
+        <v>0.659694</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.682385</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5439,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.753606</v>
+        <v>0.715766</v>
       </c>
       <c r="C131" t="n">
-        <v>0.691671</v>
+        <v>0.68207</v>
       </c>
       <c r="D131" t="n">
-        <v>0.717682</v>
+        <v>0.654541</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.679774</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5456,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.742497</v>
+        <v>0.708127</v>
       </c>
       <c r="C132" t="n">
-        <v>0.692867</v>
+        <v>0.700819</v>
       </c>
       <c r="D132" t="n">
-        <v>0.740183</v>
+        <v>0.656938</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.6902470000000001</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5473,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.755266</v>
+        <v>0.715427</v>
       </c>
       <c r="C133" t="n">
-        <v>0.69384</v>
+        <v>0.713079</v>
       </c>
       <c r="D133" t="n">
-        <v>0.7482490000000001</v>
+        <v>0.65644</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.7017679999999999</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5490,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.760509</v>
+        <v>0.7136</v>
       </c>
       <c r="C134" t="n">
-        <v>0.698719</v>
+        <v>0.7318440000000001</v>
       </c>
       <c r="D134" t="n">
-        <v>0.768097</v>
+        <v>0.658174</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.7399289999999999</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5507,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.869868</v>
+        <v>0.72363</v>
       </c>
       <c r="C135" t="n">
-        <v>0.80103</v>
+        <v>0.676241</v>
       </c>
       <c r="D135" t="n">
-        <v>0.703893</v>
+        <v>0.685074</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.715467</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5524,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.773838</v>
+        <v>0.723758</v>
       </c>
       <c r="C136" t="n">
-        <v>0.701065</v>
+        <v>0.675813</v>
       </c>
       <c r="D136" t="n">
-        <v>0.7320449999999999</v>
+        <v>0.6865560000000001</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.728872</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5541,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.762523</v>
+        <v>0.727889</v>
       </c>
       <c r="C137" t="n">
-        <v>0.874382</v>
+        <v>0.687858</v>
       </c>
       <c r="D137" t="n">
-        <v>0.735947</v>
+        <v>0.836513</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.779604</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5558,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.09294</v>
+        <v>0.915107</v>
       </c>
       <c r="C138" t="n">
-        <v>0.87418</v>
+        <v>0.6995980000000001</v>
       </c>
       <c r="D138" t="n">
-        <v>0.748402</v>
+        <v>0.812202</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.766481</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5575,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.0129</v>
+        <v>0.901399</v>
       </c>
       <c r="C139" t="n">
-        <v>0.8795500000000001</v>
+        <v>0.715041</v>
       </c>
       <c r="D139" t="n">
-        <v>0.761945</v>
+        <v>0.819262</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.75986</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5592,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.99017</v>
+        <v>0.911687</v>
       </c>
       <c r="C140" t="n">
-        <v>0.895415</v>
+        <v>0.724743</v>
       </c>
       <c r="D140" t="n">
-        <v>0.7643450000000001</v>
+        <v>0.825388</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.770919</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5609,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.089</v>
+        <v>0.911057</v>
       </c>
       <c r="C141" t="n">
-        <v>0.88834</v>
+        <v>0.7480290000000001</v>
       </c>
       <c r="D141" t="n">
-        <v>0.771039</v>
+        <v>0.820215</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.77174</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5626,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.085</v>
+        <v>0.911652</v>
       </c>
       <c r="C142" t="n">
-        <v>0.888929</v>
+        <v>0.7560750000000001</v>
       </c>
       <c r="D142" t="n">
-        <v>0.800523</v>
+        <v>0.82416</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.771494</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5643,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.981271</v>
+        <v>0.909509</v>
       </c>
       <c r="C143" t="n">
-        <v>0.882167</v>
+        <v>0.7775609999999999</v>
       </c>
       <c r="D143" t="n">
-        <v>0.82463</v>
+        <v>0.827759</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.782672</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="-120"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15600" windowWidth="28800" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="plot" sheetId="1" state="visible" r:id="rId1"/>
@@ -89,10 +89,18 @@
         <scatterStyle val="lineMarker"/>
         <varyColors val="0"/>
         <ser>
-          <idx val="3"/>
+          <idx val="0"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_map</v>
+            <strRef>
+              <f>plot!$B$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>absl::flat_hash_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -552,430 +560,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0196861</v>
+                  <v>0.0194751</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0197442</v>
+                  <v>0.0195629</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0197441</v>
+                  <v>0.019489</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0197505</v>
+                  <v>0.0195779</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0199072</v>
+                  <v>0.0196134</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.020167</v>
+                  <v>0.0197913</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0201829</v>
+                  <v>0.0199155</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0205995</v>
+                  <v>0.0201101</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0193044</v>
+                  <v>0.0196084</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0194655</v>
+                  <v>0.0195614</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0196123</v>
+                  <v>0.0196347</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0198252</v>
+                  <v>0.0198925</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0198606</v>
+                  <v>0.0200039</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0200329</v>
+                  <v>0.0201837</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0200361</v>
+                  <v>0.0200675</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.020201</v>
+                  <v>0.0201647</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0201688</v>
+                  <v>0.0202739</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0204639</v>
+                  <v>0.0202086</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.020687</v>
+                  <v>0.0205069</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0209861</v>
+                  <v>0.0207083</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0214982</v>
+                  <v>0.0211543</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0232463</v>
+                  <v>0.0230484</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0203659</v>
+                  <v>0.0206813</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0204979</v>
+                  <v>0.0207405</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0206548</v>
+                  <v>0.0207665</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0208464</v>
+                  <v>0.0209769</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0210504</v>
+                  <v>0.021056</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0212226</v>
+                  <v>0.0212252</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0216188</v>
+                  <v>0.0213505</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0218555</v>
+                  <v>0.0215039</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0220454</v>
+                  <v>0.0217981</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0221091</v>
+                  <v>0.0221214</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0229123</v>
+                  <v>0.023275</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.023554</v>
+                  <v>0.0250124</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.025525</v>
+                  <v>0.0266118</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0295991</v>
+                  <v>0.0311996</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0226652</v>
+                  <v>0.0216211</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0226726</v>
+                  <v>0.0218931</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0230688</v>
+                  <v>0.0219329</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0220955</v>
+                  <v>0.0221215</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0221313</v>
+                  <v>0.0222904</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0224242</v>
+                  <v>0.0224773</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0226252</v>
+                  <v>0.0228221</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0229498</v>
+                  <v>0.0230365</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0233683</v>
+                  <v>0.0235124</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.024254</v>
+                  <v>0.02408</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0251133</v>
+                  <v>0.025044</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0266522</v>
+                  <v>0.0279553</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.029904</v>
+                  <v>0.0304389</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0329878</v>
+                  <v>0.0353825</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0389153</v>
+                  <v>0.0392081</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0231873</v>
+                  <v>0.0230524</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0233782</v>
+                  <v>0.0234244</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0234553</v>
+                  <v>0.0234108</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0236761</v>
+                  <v>0.0239286</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0239042</v>
+                  <v>0.0240818</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0242977</v>
+                  <v>0.024439</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0246093</v>
+                  <v>0.0247787</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0252684</v>
+                  <v>0.0252449</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0261573</v>
+                  <v>0.0265282</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.027529</v>
+                  <v>0.0274839</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0293145</v>
+                  <v>0.0294202</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0323043</v>
+                  <v>0.032256</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0357062</v>
+                  <v>0.035998</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0407992</v>
+                  <v>0.0410284</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0291067</v>
+                  <v>0.0292854</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0292957</v>
+                  <v>0.0293731</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0294658</v>
+                  <v>0.0295223</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0296458</v>
+                  <v>0.0297504</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0298446</v>
+                  <v>0.0300985</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0303077</v>
+                  <v>0.0302054</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0305738</v>
+                  <v>0.030751</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0311089</v>
+                  <v>0.0311922</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.031958</v>
+                  <v>0.0320559</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0331584</v>
+                  <v>0.0331467</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0348142</v>
+                  <v>0.0348991</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0371248</v>
+                  <v>0.0373412</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0406293</v>
+                  <v>0.0409062</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0455093</v>
+                  <v>0.0457293</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.054876</v>
+                  <v>0.0555257</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0551749</v>
+                  <v>0.0577904</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0552561</v>
+                  <v>0.055792</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0555251</v>
+                  <v>0.0560207</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0557353</v>
+                  <v>0.0561087</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0559444</v>
+                  <v>0.0563414</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.056275</v>
+                  <v>0.056655</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0565668</v>
+                  <v>0.0571958</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0570285</v>
+                  <v>0.057884</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0577995</v>
+                  <v>0.0582425</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0587407</v>
+                  <v>0.0592452</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0605897</v>
+                  <v>0.0608211</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0631306</v>
+                  <v>0.0633513</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.06695570000000001</v>
+                  <v>0.06725390000000001</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.09221509999999999</v>
+                  <v>0.0858208</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0858753</v>
+                  <v>0.08577170000000001</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.08594309999999999</v>
+                  <v>0.08594590000000001</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0860457</v>
+                  <v>0.08606900000000001</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0861672</v>
+                  <v>0.08616749999999999</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0863088</v>
+                  <v>0.08662789999999999</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0865691</v>
+                  <v>0.0864133</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0868321</v>
+                  <v>0.088181</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.08713460000000001</v>
+                  <v>0.0871123</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.08769159999999999</v>
+                  <v>0.0876926</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0958198</v>
+                  <v>0.0885166</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0898485</v>
+                  <v>0.0897474</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.095514</v>
+                  <v>0.09172080000000001</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.09515</v>
+                  <v>0.0949308</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.100163</v>
+                  <v>0.0997827</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.1074</v>
+                  <v>0.109009</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.10739</v>
+                  <v>0.108902</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.107504</v>
+                  <v>0.109017</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.107377</v>
+                  <v>0.109219</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.114714</v>
+                  <v>0.109295</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.108009</v>
+                  <v>0.109582</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.108717</v>
+                  <v>0.109729</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.109426</v>
+                  <v>0.110229</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.110397</v>
+                  <v>0.110875</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.111361</v>
+                  <v>0.111655</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.112842</v>
+                  <v>0.112821</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.114762</v>
+                  <v>0.114619</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.117867</v>
+                  <v>0.117464</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.124715</v>
+                  <v>0.122013</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.139793</v>
+                  <v>0.139209</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.140249</v>
+                  <v>0.139131</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.139831</v>
+                  <v>0.139496</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.139692</v>
+                  <v>0.139621</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.139658</v>
+                  <v>0.13995</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.139443</v>
+                  <v>0.14025</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.139582</v>
+                  <v>0.140479</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.139867</v>
+                  <v>0.142087</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.14053</v>
+                  <v>0.141701</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.141002</v>
+                  <v>0.142135</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.142003</v>
+                  <v>0.143369</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.143615</v>
+                  <v>0.14492</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.145983</v>
+                  <v>0.147621</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.150084</v>
+                  <v>0.151632</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.158033</v>
+                  <v>0.157728</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.157812</v>
+                  <v>0.157774</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.157958</v>
+                  <v>0.157822</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.158179</v>
+                  <v>0.158086</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.158157</v>
+                  <v>0.158035</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.158476</v>
+                  <v>0.178791</v>
                 </pt>
               </numCache>
             </numRef>
@@ -983,10 +991,18 @@
           <smooth val="0"/>
         </ser>
         <ser>
-          <idx val="4"/>
+          <idx val="1"/>
           <order val="1"/>
           <tx>
-            <v>boost::unordered_flat_map</v>
+            <strRef>
+              <f>plot!$C$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -1446,430 +1462,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.021348</v>
+                  <v>0.0365145</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0214877</v>
+                  <v>0.0396988</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0216247</v>
+                  <v>0.0447642</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0218795</v>
+                  <v>0.0498033</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0221566</v>
+                  <v>0.0537687</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0227802</v>
+                  <v>0.0315887</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0236896</v>
+                  <v>0.0336489</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0202692</v>
+                  <v>0.0356574</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0207092</v>
+                  <v>0.0376125</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0210303</v>
+                  <v>0.0405804</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0213025</v>
+                  <v>0.0447308</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0213527</v>
+                  <v>0.047286</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0218472</v>
+                  <v>0.0503759</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0222591</v>
+                  <v>0.0539423</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0226628</v>
+                  <v>0.0578276</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.022977</v>
+                  <v>0.0614582</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0233228</v>
+                  <v>0.0653006</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0238671</v>
+                  <v>0.0680994</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0246036</v>
+                  <v>0.0704849</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0252305</v>
+                  <v>0.0446121</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0277472</v>
+                  <v>0.047444</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0217618</v>
+                  <v>0.0493842</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0219587</v>
+                  <v>0.0514984</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0222026</v>
+                  <v>0.0543429</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0224898</v>
+                  <v>0.0563413</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0228074</v>
+                  <v>0.0616033</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0232103</v>
+                  <v>0.0643247</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0236661</v>
+                  <v>0.0662176</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0240376</v>
+                  <v>0.0698588</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0245248</v>
+                  <v>0.07215820000000001</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0252023</v>
+                  <v>0.0748846</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0257564</v>
+                  <v>0.0769565</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0270565</v>
+                  <v>0.0791249</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0287934</v>
+                  <v>0.0519505</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0324096</v>
+                  <v>0.0537373</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0236684</v>
+                  <v>0.0560572</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0241302</v>
+                  <v>0.0580173</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0244332</v>
+                  <v>0.0596857</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0245736</v>
+                  <v>0.0624772</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0239295</v>
+                  <v>0.06461600000000001</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0243207</v>
+                  <v>0.0672449</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0252591</v>
+                  <v>0.06969930000000001</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0256591</v>
+                  <v>0.07249079999999999</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0259074</v>
+                  <v>0.07484499999999999</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0266036</v>
+                  <v>0.0778189</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.027689</v>
+                  <v>0.0800609</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0291986</v>
+                  <v>0.0823764</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0317988</v>
+                  <v>0.0844506</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0360721</v>
+                  <v>0.0578649</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.023394</v>
+                  <v>0.0591875</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0236044</v>
+                  <v>0.0615245</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.023867</v>
+                  <v>0.0639034</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0241515</v>
+                  <v>0.0656783</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0244875</v>
+                  <v>0.0679548</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0249477</v>
+                  <v>0.0705563</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0253774</v>
+                  <v>0.0733139</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0259302</v>
+                  <v>0.0760695</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0265094</v>
+                  <v>0.07903490000000001</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0274929</v>
+                  <v>0.080972</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0286629</v>
+                  <v>0.08393299999999999</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0303873</v>
+                  <v>0.08583780000000001</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0330881</v>
+                  <v>0.08868760000000001</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0367975</v>
+                  <v>0.0634653</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0428056</v>
+                  <v>0.0660341</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0248565</v>
+                  <v>0.068684</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0254945</v>
+                  <v>0.0716908</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.025829</v>
+                  <v>0.0754389</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0266013</v>
+                  <v>0.0780781</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0265404</v>
+                  <v>0.08159859999999999</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0270211</v>
+                  <v>0.0866746</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.027483</v>
+                  <v>0.0889358</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0281629</v>
+                  <v>0.0945853</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0291473</v>
+                  <v>0.0982999</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0302343</v>
+                  <v>0.102978</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0321709</v>
+                  <v>0.106901</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0346453</v>
+                  <v>0.112317</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.038211</v>
+                  <v>0.09733840000000001</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0437751</v>
+                  <v>0.101335</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0369618</v>
+                  <v>0.105975</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0377666</v>
+                  <v>0.110132</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0385693</v>
+                  <v>0.115172</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0393414</v>
+                  <v>0.121209</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0400166</v>
+                  <v>0.126205</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0406419</v>
+                  <v>0.131141</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0415556</v>
+                  <v>0.137704</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0424017</v>
+                  <v>0.143051</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0449697</v>
+                  <v>0.149748</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0442997</v>
+                  <v>0.154568</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0456659</v>
+                  <v>0.16029</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.047738</v>
+                  <v>0.166513</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0505484</v>
+                  <v>0.145912</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0549595</v>
+                  <v>0.149301</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0715803</v>
+                  <v>0.152309</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0719887</v>
+                  <v>0.157221</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0723747</v>
+                  <v>0.160664</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0728399</v>
+                  <v>0.166029</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.07350520000000001</v>
+                  <v>0.170781</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0740489</v>
+                  <v>0.175608</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0746351</v>
+                  <v>0.181033</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0754398</v>
+                  <v>0.186455</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.07621650000000001</v>
+                  <v>0.192398</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0796057</v>
+                  <v>0.199037</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.07860830000000001</v>
+                  <v>0.203931</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0804361</v>
+                  <v>0.210695</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0829439</v>
+                  <v>0.216678</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.08686770000000001</v>
+                  <v>0.181859</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0889514</v>
+                  <v>0.199868</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.089729</v>
+                  <v>0.193515</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0904097</v>
+                  <v>0.192797</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0913191</v>
+                  <v>0.196994</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0921503</v>
+                  <v>0.201949</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0931935</v>
+                  <v>0.206787</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.09714059999999999</v>
+                  <v>0.212581</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.09524050000000001</v>
+                  <v>0.217678</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.096618</v>
+                  <v>0.223918</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0979674</v>
+                  <v>0.229518</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0996447</v>
+                  <v>0.23542</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.101745</v>
+                  <v>0.241207</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.104375</v>
+                  <v>0.247384</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.108312</v>
+                  <v>0.199268</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.114594</v>
+                  <v>0.202036</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.106984</v>
+                  <v>0.205435</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.119349</v>
+                  <v>0.209778</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.109142</v>
+                  <v>0.213788</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.110214</v>
+                  <v>0.218497</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.111475</v>
+                  <v>0.22327</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.112737</v>
+                  <v>0.228488</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.11413</v>
+                  <v>0.234375</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.115719</v>
+                  <v>0.240447</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.117336</v>
+                  <v>0.24599</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.119263</v>
+                  <v>0.251978</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.121651</v>
+                  <v>0.257944</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.124577</v>
+                  <v>0.268641</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.128814</v>
+                  <v>0.209616</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.13534</v>
+                  <v>0.212749</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.118414</v>
+                  <v>0.216194</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.119444</v>
+                  <v>0.220147</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.120531</v>
+                  <v>0.224171</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.121662</v>
+                  <v>0.229194</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.122894</v>
+                  <v>0.234298</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.12405</v>
+                  <v>0.239466</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.125504</v>
+                  <v>0.245367</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1877,10 +1893,18 @@
           <smooth val="0"/>
         </ser>
         <ser>
-          <idx val="5"/>
+          <idx val="2"/>
           <order val="2"/>
           <tx>
-            <v>boost::unordered_map</v>
+            <strRef>
+              <f>plot!$D$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_flat_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -2340,430 +2364,1332 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0336857</v>
+                  <v>0.0196261</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0394849</v>
+                  <v>0.0197912</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0423094</v>
+                  <v>0.0198901</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0461472</v>
+                  <v>0.0199582</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0507523</v>
+                  <v>0.0201314</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.030305</v>
+                  <v>0.0201829</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0319421</v>
+                  <v>0.0207955</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0344693</v>
+                  <v>0.0194471</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0368055</v>
+                  <v>0.0195449</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0393418</v>
+                  <v>0.019867</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0427875</v>
+                  <v>0.0201596</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0475742</v>
+                  <v>0.0201363</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0488059</v>
+                  <v>0.0205715</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0525665</v>
+                  <v>0.021072</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0568101</v>
+                  <v>0.0210413</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0604767</v>
+                  <v>0.0212453</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0639252</v>
+                  <v>0.0213354</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0675722</v>
+                  <v>0.0214148</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0692373</v>
+                  <v>0.0218501</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0444481</v>
+                  <v>0.0224228</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0475408</v>
+                  <v>0.0237556</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0489493</v>
+                  <v>0.0210571</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0508013</v>
+                  <v>0.0212586</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0535126</v>
+                  <v>0.0214644</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0556632</v>
+                  <v>0.0215637</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0589148</v>
+                  <v>0.021764</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0614351</v>
+                  <v>0.0221105</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.06435200000000001</v>
+                  <v>0.022421</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0664998</v>
+                  <v>0.0226251</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.07017470000000001</v>
+                  <v>0.0229748</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0725022</v>
+                  <v>0.02343</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0762954</v>
+                  <v>0.0239333</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0772482</v>
+                  <v>0.0247176</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0518274</v>
+                  <v>0.0263657</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0539981</v>
+                  <v>0.0292434</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0569381</v>
+                  <v>0.0221968</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0590617</v>
+                  <v>0.0224122</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0616864</v>
+                  <v>0.0226233</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0607154</v>
+                  <v>0.0229104</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.06472219999999999</v>
+                  <v>0.0231873</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0669053</v>
+                  <v>0.0235225</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.06983350000000001</v>
+                  <v>0.0245394</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0728838</v>
+                  <v>0.0242028</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0752324</v>
+                  <v>0.0246188</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.07806680000000001</v>
+                  <v>0.0255792</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0802983</v>
+                  <v>0.0258658</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0828279</v>
+                  <v>0.0269256</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0846045</v>
+                  <v>0.029475</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0575865</v>
+                  <v>0.0328029</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0593047</v>
+                  <v>0.0229759</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0611502</v>
+                  <v>0.0231768</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0636737</v>
+                  <v>0.0234395</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0657292</v>
+                  <v>0.023729</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.06833930000000001</v>
+                  <v>0.0240074</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0707661</v>
+                  <v>0.024327</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.073903</v>
+                  <v>0.0247229</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0761425</v>
+                  <v>0.025276</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.078791</v>
+                  <v>0.0257848</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.08170040000000001</v>
+                  <v>0.0264266</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0839515</v>
+                  <v>0.0273739</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0861381</v>
+                  <v>0.0289127</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.088853</v>
+                  <v>0.0313813</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0638098</v>
+                  <v>0.0347866</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.06650739999999999</v>
+                  <v>0.0405541</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0691383</v>
+                  <v>0.0251501</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0715653</v>
+                  <v>0.0254762</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0745817</v>
+                  <v>0.0257275</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.07851610000000001</v>
+                  <v>0.0260131</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0814839</v>
+                  <v>0.0263866</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0860113</v>
+                  <v>0.0261122</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.09014419999999999</v>
+                  <v>0.0272077</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0948281</v>
+                  <v>0.0281149</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0981105</v>
+                  <v>0.0283556</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.101526</v>
+                  <v>0.0292696</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.107487</v>
+                  <v>0.0306653</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.112807</v>
+                  <v>0.0333493</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0965601</v>
+                  <v>0.0363328</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.101097</v>
+                  <v>0.0412171</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.106082</v>
+                  <v>0.0356659</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.110975</v>
+                  <v>0.0363526</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.114995</v>
+                  <v>0.0371667</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.120023</v>
+                  <v>0.0379171</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.125893</v>
+                  <v>0.0386585</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.130762</v>
+                  <v>0.0393656</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.136855</v>
+                  <v>0.0400877</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.142491</v>
+                  <v>0.0412195</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.148735</v>
+                  <v>0.0419461</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.154806</v>
+                  <v>0.0430021</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.160276</v>
+                  <v>0.0442752</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.165942</v>
+                  <v>0.046052</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.145194</v>
+                  <v>0.0487434</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.148853</v>
+                  <v>0.0533016</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.152457</v>
+                  <v>0.0713101</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.156847</v>
+                  <v>0.07162789999999999</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.16093</v>
+                  <v>0.0721873</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.165502</v>
+                  <v>0.0726131</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.171025</v>
+                  <v>0.0731451</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.176145</v>
+                  <v>0.073726</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.181854</v>
+                  <v>0.0743772</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.187152</v>
+                  <v>0.0751235</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.192849</v>
+                  <v>0.0758935</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.199082</v>
+                  <v>0.07695730000000001</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.205029</v>
+                  <v>0.07818170000000001</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.211115</v>
+                  <v>0.0798373</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.217795</v>
+                  <v>0.08226</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.181761</v>
+                  <v>0.0859181</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.184875</v>
+                  <v>0.08945119999999999</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.18853</v>
+                  <v>0.0901479</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.193379</v>
+                  <v>0.0909215</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.196792</v>
+                  <v>0.0917118</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.201399</v>
+                  <v>0.09258719999999999</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.206374</v>
+                  <v>0.09357890000000001</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.211734</v>
+                  <v>0.09464</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.218001</v>
+                  <v>0.0957011</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.223144</v>
+                  <v>0.0970447</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.229767</v>
+                  <v>0.0984414</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.235872</v>
+                  <v>0.101572</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.240776</v>
+                  <v>0.102157</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.247637</v>
+                  <v>0.104633</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.198997</v>
+                  <v>0.108505</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.202385</v>
+                  <v>0.114455</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.205971</v>
+                  <v>0.107135</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.209681</v>
+                  <v>0.10814</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.213857</v>
+                  <v>0.109179</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.218441</v>
+                  <v>0.110339</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.223282</v>
+                  <v>0.111555</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.228864</v>
+                  <v>0.117399</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.234598</v>
+                  <v>0.11438</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.240649</v>
+                  <v>0.115714</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.251617</v>
+                  <v>0.117191</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.252683</v>
+                  <v>0.11914</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.258786</v>
+                  <v>0.121337</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.264415</v>
+                  <v>0.127893</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.20958</v>
+                  <v>0.128374</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.21278</v>
+                  <v>0.134621</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.216352</v>
+                  <v>0.118436</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.219749</v>
+                  <v>0.119542</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.224359</v>
+                  <v>0.120555</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.228913</v>
+                  <v>0.124935</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.236829</v>
+                  <v>0.12278</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.239299</v>
+                  <v>0.123993</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.2453</v>
+                  <v>0.125349</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>plot!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>plot!$A$2:$A$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>10000</v>
+                </pt>
+                <pt idx="1">
+                  <v>10500</v>
+                </pt>
+                <pt idx="2">
+                  <v>11025</v>
+                </pt>
+                <pt idx="3">
+                  <v>11576</v>
+                </pt>
+                <pt idx="4">
+                  <v>12154</v>
+                </pt>
+                <pt idx="5">
+                  <v>12760</v>
+                </pt>
+                <pt idx="6">
+                  <v>13396</v>
+                </pt>
+                <pt idx="7">
+                  <v>14063</v>
+                </pt>
+                <pt idx="8">
+                  <v>14763</v>
+                </pt>
+                <pt idx="9">
+                  <v>15498</v>
+                </pt>
+                <pt idx="10">
+                  <v>16269</v>
+                </pt>
+                <pt idx="11">
+                  <v>17078</v>
+                </pt>
+                <pt idx="12">
+                  <v>17927</v>
+                </pt>
+                <pt idx="13">
+                  <v>18818</v>
+                </pt>
+                <pt idx="14">
+                  <v>19753</v>
+                </pt>
+                <pt idx="15">
+                  <v>20734</v>
+                </pt>
+                <pt idx="16">
+                  <v>21764</v>
+                </pt>
+                <pt idx="17">
+                  <v>22845</v>
+                </pt>
+                <pt idx="18">
+                  <v>23980</v>
+                </pt>
+                <pt idx="19">
+                  <v>25171</v>
+                </pt>
+                <pt idx="20">
+                  <v>26421</v>
+                </pt>
+                <pt idx="21">
+                  <v>27733</v>
+                </pt>
+                <pt idx="22">
+                  <v>29110</v>
+                </pt>
+                <pt idx="23">
+                  <v>30555</v>
+                </pt>
+                <pt idx="24">
+                  <v>32072</v>
+                </pt>
+                <pt idx="25">
+                  <v>33664</v>
+                </pt>
+                <pt idx="26">
+                  <v>35335</v>
+                </pt>
+                <pt idx="27">
+                  <v>37089</v>
+                </pt>
+                <pt idx="28">
+                  <v>38930</v>
+                </pt>
+                <pt idx="29">
+                  <v>40863</v>
+                </pt>
+                <pt idx="30">
+                  <v>42892</v>
+                </pt>
+                <pt idx="31">
+                  <v>45022</v>
+                </pt>
+                <pt idx="32">
+                  <v>47258</v>
+                </pt>
+                <pt idx="33">
+                  <v>49605</v>
+                </pt>
+                <pt idx="34">
+                  <v>52069</v>
+                </pt>
+                <pt idx="35">
+                  <v>54656</v>
+                </pt>
+                <pt idx="36">
+                  <v>57372</v>
+                </pt>
+                <pt idx="37">
+                  <v>60223</v>
+                </pt>
+                <pt idx="38">
+                  <v>63216</v>
+                </pt>
+                <pt idx="39">
+                  <v>66358</v>
+                </pt>
+                <pt idx="40">
+                  <v>69657</v>
+                </pt>
+                <pt idx="41">
+                  <v>73120</v>
+                </pt>
+                <pt idx="42">
+                  <v>76756</v>
+                </pt>
+                <pt idx="43">
+                  <v>80573</v>
+                </pt>
+                <pt idx="44">
+                  <v>84580</v>
+                </pt>
+                <pt idx="45">
+                  <v>88787</v>
+                </pt>
+                <pt idx="46">
+                  <v>93204</v>
+                </pt>
+                <pt idx="47">
+                  <v>97841</v>
+                </pt>
+                <pt idx="48">
+                  <v>102709</v>
+                </pt>
+                <pt idx="49">
+                  <v>107820</v>
+                </pt>
+                <pt idx="50">
+                  <v>113186</v>
+                </pt>
+                <pt idx="51">
+                  <v>118820</v>
+                </pt>
+                <pt idx="52">
+                  <v>124735</v>
+                </pt>
+                <pt idx="53">
+                  <v>130945</v>
+                </pt>
+                <pt idx="54">
+                  <v>137465</v>
+                </pt>
+                <pt idx="55">
+                  <v>144311</v>
+                </pt>
+                <pt idx="56">
+                  <v>151499</v>
+                </pt>
+                <pt idx="57">
+                  <v>159046</v>
+                </pt>
+                <pt idx="58">
+                  <v>166970</v>
+                </pt>
+                <pt idx="59">
+                  <v>175290</v>
+                </pt>
+                <pt idx="60">
+                  <v>184026</v>
+                </pt>
+                <pt idx="61">
+                  <v>193198</v>
+                </pt>
+                <pt idx="62">
+                  <v>202828</v>
+                </pt>
+                <pt idx="63">
+                  <v>212939</v>
+                </pt>
+                <pt idx="64">
+                  <v>223555</v>
+                </pt>
+                <pt idx="65">
+                  <v>234701</v>
+                </pt>
+                <pt idx="66">
+                  <v>246404</v>
+                </pt>
+                <pt idx="67">
+                  <v>258692</v>
+                </pt>
+                <pt idx="68">
+                  <v>271594</v>
+                </pt>
+                <pt idx="69">
+                  <v>285141</v>
+                </pt>
+                <pt idx="70">
+                  <v>299365</v>
+                </pt>
+                <pt idx="71">
+                  <v>314300</v>
+                </pt>
+                <pt idx="72">
+                  <v>329981</v>
+                </pt>
+                <pt idx="73">
+                  <v>346446</v>
+                </pt>
+                <pt idx="74">
+                  <v>363734</v>
+                </pt>
+                <pt idx="75">
+                  <v>381886</v>
+                </pt>
+                <pt idx="76">
+                  <v>400945</v>
+                </pt>
+                <pt idx="77">
+                  <v>420956</v>
+                </pt>
+                <pt idx="78">
+                  <v>441967</v>
+                </pt>
+                <pt idx="79">
+                  <v>464028</v>
+                </pt>
+                <pt idx="80">
+                  <v>487192</v>
+                </pt>
+                <pt idx="81">
+                  <v>511514</v>
+                </pt>
+                <pt idx="82">
+                  <v>537052</v>
+                </pt>
+                <pt idx="83">
+                  <v>563866</v>
+                </pt>
+                <pt idx="84">
+                  <v>592020</v>
+                </pt>
+                <pt idx="85">
+                  <v>621581</v>
+                </pt>
+                <pt idx="86">
+                  <v>652620</v>
+                </pt>
+                <pt idx="87">
+                  <v>685210</v>
+                </pt>
+                <pt idx="88">
+                  <v>719429</v>
+                </pt>
+                <pt idx="89">
+                  <v>755358</v>
+                </pt>
+                <pt idx="90">
+                  <v>793083</v>
+                </pt>
+                <pt idx="91">
+                  <v>832694</v>
+                </pt>
+                <pt idx="92">
+                  <v>874285</v>
+                </pt>
+                <pt idx="93">
+                  <v>917955</v>
+                </pt>
+                <pt idx="94">
+                  <v>963808</v>
+                </pt>
+                <pt idx="95">
+                  <v>1011953</v>
+                </pt>
+                <pt idx="96">
+                  <v>1062505</v>
+                </pt>
+                <pt idx="97">
+                  <v>1115584</v>
+                </pt>
+                <pt idx="98">
+                  <v>1171316</v>
+                </pt>
+                <pt idx="99">
+                  <v>1229834</v>
+                </pt>
+                <pt idx="100">
+                  <v>1291277</v>
+                </pt>
+                <pt idx="101">
+                  <v>1355792</v>
+                </pt>
+                <pt idx="102">
+                  <v>1423532</v>
+                </pt>
+                <pt idx="103">
+                  <v>1494659</v>
+                </pt>
+                <pt idx="104">
+                  <v>1569342</v>
+                </pt>
+                <pt idx="105">
+                  <v>1647759</v>
+                </pt>
+                <pt idx="106">
+                  <v>1730096</v>
+                </pt>
+                <pt idx="107">
+                  <v>1816549</v>
+                </pt>
+                <pt idx="108">
+                  <v>1907324</v>
+                </pt>
+                <pt idx="109">
+                  <v>2002637</v>
+                </pt>
+                <pt idx="110">
+                  <v>2102715</v>
+                </pt>
+                <pt idx="111">
+                  <v>2207796</v>
+                </pt>
+                <pt idx="112">
+                  <v>2318131</v>
+                </pt>
+                <pt idx="113">
+                  <v>2433982</v>
+                </pt>
+                <pt idx="114">
+                  <v>2555625</v>
+                </pt>
+                <pt idx="115">
+                  <v>2683350</v>
+                </pt>
+                <pt idx="116">
+                  <v>2817461</v>
+                </pt>
+                <pt idx="117">
+                  <v>2958277</v>
+                </pt>
+                <pt idx="118">
+                  <v>3106133</v>
+                </pt>
+                <pt idx="119">
+                  <v>3261381</v>
+                </pt>
+                <pt idx="120">
+                  <v>3424391</v>
+                </pt>
+                <pt idx="121">
+                  <v>3595551</v>
+                </pt>
+                <pt idx="122">
+                  <v>3775269</v>
+                </pt>
+                <pt idx="123">
+                  <v>3963972</v>
+                </pt>
+                <pt idx="124">
+                  <v>4162110</v>
+                </pt>
+                <pt idx="125">
+                  <v>4370154</v>
+                </pt>
+                <pt idx="126">
+                  <v>4588600</v>
+                </pt>
+                <pt idx="127">
+                  <v>4817968</v>
+                </pt>
+                <pt idx="128">
+                  <v>5058804</v>
+                </pt>
+                <pt idx="129">
+                  <v>5311681</v>
+                </pt>
+                <pt idx="130">
+                  <v>5577201</v>
+                </pt>
+                <pt idx="131">
+                  <v>5855997</v>
+                </pt>
+                <pt idx="132">
+                  <v>6148732</v>
+                </pt>
+                <pt idx="133">
+                  <v>6456103</v>
+                </pt>
+                <pt idx="134">
+                  <v>6778842</v>
+                </pt>
+                <pt idx="135">
+                  <v>7117717</v>
+                </pt>
+                <pt idx="136">
+                  <v>7473535</v>
+                </pt>
+                <pt idx="137">
+                  <v>7847143</v>
+                </pt>
+                <pt idx="138">
+                  <v>8239431</v>
+                </pt>
+                <pt idx="139">
+                  <v>8651333</v>
+                </pt>
+                <pt idx="140">
+                  <v>9083830</v>
+                </pt>
+                <pt idx="141">
+                  <v>9537951</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>plot!$E$2:$E$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>0.0206785</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.0207813</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.0208833</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.0207783</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.0207749</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.020897</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.0212215</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.0216661</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.0216931</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.0219577</v>
+                </pt>
+                <pt idx="10">
+                  <v>0.0219969</v>
+                </pt>
+                <pt idx="11">
+                  <v>0.0221826</v>
+                </pt>
+                <pt idx="12">
+                  <v>0.0225411</v>
+                </pt>
+                <pt idx="13">
+                  <v>0.0228079</v>
+                </pt>
+                <pt idx="14">
+                  <v>0.0227173</v>
+                </pt>
+                <pt idx="15">
+                  <v>0.0227772</v>
+                </pt>
+                <pt idx="16">
+                  <v>0.0230473</v>
+                </pt>
+                <pt idx="17">
+                  <v>0.0229634</v>
+                </pt>
+                <pt idx="18">
+                  <v>0.0230157</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.0234205</v>
+                </pt>
+                <pt idx="20">
+                  <v>0.0244919</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.023336</v>
+                </pt>
+                <pt idx="22">
+                  <v>0.0235586</v>
+                </pt>
+                <pt idx="23">
+                  <v>0.0238225</v>
+                </pt>
+                <pt idx="24">
+                  <v>0.0237382</v>
+                </pt>
+                <pt idx="25">
+                  <v>0.0238801</v>
+                </pt>
+                <pt idx="26">
+                  <v>0.0241333</v>
+                </pt>
+                <pt idx="27">
+                  <v>0.0244564</v>
+                </pt>
+                <pt idx="28">
+                  <v>0.0245499</v>
+                </pt>
+                <pt idx="29">
+                  <v>0.0247842</v>
+                </pt>
+                <pt idx="30">
+                  <v>0.0251216</v>
+                </pt>
+                <pt idx="31">
+                  <v>0.0254613</v>
+                </pt>
+                <pt idx="32">
+                  <v>0.0260233</v>
+                </pt>
+                <pt idx="33">
+                  <v>0.0270699</v>
+                </pt>
+                <pt idx="34">
+                  <v>0.0306774</v>
+                </pt>
+                <pt idx="35">
+                  <v>0.0245451</v>
+                </pt>
+                <pt idx="36">
+                  <v>0.0247372</v>
+                </pt>
+                <pt idx="37">
+                  <v>0.024937</v>
+                </pt>
+                <pt idx="38">
+                  <v>0.0252111</v>
+                </pt>
+                <pt idx="39">
+                  <v>0.0253094</v>
+                </pt>
+                <pt idx="40">
+                  <v>0.0255793</v>
+                </pt>
+                <pt idx="41">
+                  <v>0.0257865</v>
+                </pt>
+                <pt idx="42">
+                  <v>0.0260194</v>
+                </pt>
+                <pt idx="43">
+                  <v>0.026382</v>
+                </pt>
+                <pt idx="44">
+                  <v>0.0268562</v>
+                </pt>
+                <pt idx="45">
+                  <v>0.0274538</v>
+                </pt>
+                <pt idx="46">
+                  <v>0.0286629</v>
+                </pt>
+                <pt idx="47">
+                  <v>0.030666</v>
+                </pt>
+                <pt idx="48">
+                  <v>0.0341753</v>
+                </pt>
+                <pt idx="49">
+                  <v>0.0248564</v>
+                </pt>
+                <pt idx="50">
+                  <v>0.0250656</v>
+                </pt>
+                <pt idx="51">
+                  <v>0.0253725</v>
+                </pt>
+                <pt idx="52">
+                  <v>0.0256172</v>
+                </pt>
+                <pt idx="53">
+                  <v>0.025785</v>
+                </pt>
+                <pt idx="54">
+                  <v>0.0260479</v>
+                </pt>
+                <pt idx="55">
+                  <v>0.0265271</v>
+                </pt>
+                <pt idx="56">
+                  <v>0.0269807</v>
+                </pt>
+                <pt idx="57">
+                  <v>0.0273609</v>
+                </pt>
+                <pt idx="58">
+                  <v>0.0280786</v>
+                </pt>
+                <pt idx="59">
+                  <v>0.0290054</v>
+                </pt>
+                <pt idx="60">
+                  <v>0.0305336</v>
+                </pt>
+                <pt idx="61">
+                  <v>0.0329544</v>
+                </pt>
+                <pt idx="62">
+                  <v>0.0362898</v>
+                </pt>
+                <pt idx="63">
+                  <v>0.0419218</v>
+                </pt>
+                <pt idx="64">
+                  <v>0.026637</v>
+                </pt>
+                <pt idx="65">
+                  <v>0.0267861</v>
+                </pt>
+                <pt idx="66">
+                  <v>0.0277745</v>
+                </pt>
+                <pt idx="67">
+                  <v>0.0273026</v>
+                </pt>
+                <pt idx="68">
+                  <v>0.0277491</v>
+                </pt>
+                <pt idx="69">
+                  <v>0.0281135</v>
+                </pt>
+                <pt idx="70">
+                  <v>0.0285725</v>
+                </pt>
+                <pt idx="71">
+                  <v>0.0291539</v>
+                </pt>
+                <pt idx="72">
+                  <v>0.0301281</v>
+                </pt>
+                <pt idx="73">
+                  <v>0.0315789</v>
+                </pt>
+                <pt idx="74">
+                  <v>0.032797</v>
+                </pt>
+                <pt idx="75">
+                  <v>0.0350439</v>
+                </pt>
+                <pt idx="76">
+                  <v>0.0383708</v>
+                </pt>
+                <pt idx="77">
+                  <v>0.0434181</v>
+                </pt>
+                <pt idx="78">
+                  <v>0.0335094</v>
+                </pt>
+                <pt idx="79">
+                  <v>0.033843</v>
+                </pt>
+                <pt idx="80">
+                  <v>0.0344867</v>
+                </pt>
+                <pt idx="81">
+                  <v>0.0348016</v>
+                </pt>
+                <pt idx="82">
+                  <v>0.0352056</v>
+                </pt>
+                <pt idx="83">
+                  <v>0.0360305</v>
+                </pt>
+                <pt idx="84">
+                  <v>0.0367309</v>
+                </pt>
+                <pt idx="85">
+                  <v>0.0372919</v>
+                </pt>
+                <pt idx="86">
+                  <v>0.0386863</v>
+                </pt>
+                <pt idx="87">
+                  <v>0.0396944</v>
+                </pt>
+                <pt idx="88">
+                  <v>0.0417616</v>
+                </pt>
+                <pt idx="89">
+                  <v>0.0440648</v>
+                </pt>
+                <pt idx="90">
+                  <v>0.0474931</v>
+                </pt>
+                <pt idx="91">
+                  <v>0.052939</v>
+                </pt>
+                <pt idx="92">
+                  <v>0.06786490000000001</v>
+                </pt>
+                <pt idx="93">
+                  <v>0.068254</v>
+                </pt>
+                <pt idx="94">
+                  <v>0.06875249999999999</v>
+                </pt>
+                <pt idx="95">
+                  <v>0.0691842</v>
+                </pt>
+                <pt idx="96">
+                  <v>0.06990540000000001</v>
+                </pt>
+                <pt idx="97">
+                  <v>0.07045410000000001</v>
+                </pt>
+                <pt idx="98">
+                  <v>0.0711215</v>
+                </pt>
+                <pt idx="99">
+                  <v>0.0718926</v>
+                </pt>
+                <pt idx="100">
+                  <v>0.0728032</v>
+                </pt>
+                <pt idx="101">
+                  <v>0.07412000000000001</v>
+                </pt>
+                <pt idx="102">
+                  <v>0.07561420000000001</v>
+                </pt>
+                <pt idx="103">
+                  <v>0.0777135</v>
+                </pt>
+                <pt idx="104">
+                  <v>0.08079749999999999</v>
+                </pt>
+                <pt idx="105">
+                  <v>0.0859578</v>
+                </pt>
+                <pt idx="106">
+                  <v>0.0926965</v>
+                </pt>
+                <pt idx="107">
+                  <v>0.0931657</v>
+                </pt>
+                <pt idx="108">
+                  <v>0.09363</v>
+                </pt>
+                <pt idx="109">
+                  <v>0.0942807</v>
+                </pt>
+                <pt idx="110">
+                  <v>0.0949342</v>
+                </pt>
+                <pt idx="111">
+                  <v>0.0956124</v>
+                </pt>
+                <pt idx="112">
+                  <v>0.09643110000000001</v>
+                </pt>
+                <pt idx="113">
+                  <v>0.0974578</v>
+                </pt>
+                <pt idx="114">
+                  <v>0.09865409999999999</v>
+                </pt>
+                <pt idx="115">
+                  <v>0.099985</v>
+                </pt>
+                <pt idx="116">
+                  <v>0.101915</v>
+                </pt>
+                <pt idx="117">
+                  <v>0.10417</v>
+                </pt>
+                <pt idx="118">
+                  <v>0.107355</v>
+                </pt>
+                <pt idx="119">
+                  <v>0.111855</v>
+                </pt>
+                <pt idx="120">
+                  <v>0.119295</v>
+                </pt>
+                <pt idx="121">
+                  <v>0.111174</v>
+                </pt>
+                <pt idx="122">
+                  <v>0.113436</v>
+                </pt>
+                <pt idx="123">
+                  <v>0.112627</v>
+                </pt>
+                <pt idx="124">
+                  <v>0.113487</v>
+                </pt>
+                <pt idx="125">
+                  <v>0.114491</v>
+                </pt>
+                <pt idx="126">
+                  <v>0.116157</v>
+                </pt>
+                <pt idx="127">
+                  <v>0.116856</v>
+                </pt>
+                <pt idx="128">
+                  <v>0.118562</v>
+                </pt>
+                <pt idx="129">
+                  <v>0.120523</v>
+                </pt>
+                <pt idx="130">
+                  <v>0.121962</v>
+                </pt>
+                <pt idx="131">
+                  <v>0.124397</v>
+                </pt>
+                <pt idx="132">
+                  <v>0.127842</v>
+                </pt>
+                <pt idx="133">
+                  <v>0.14034</v>
+                </pt>
+                <pt idx="134">
+                  <v>0.13989</v>
+                </pt>
+                <pt idx="135">
+                  <v>0.123322</v>
+                </pt>
+                <pt idx="136">
+                  <v>0.124097</v>
+                </pt>
+                <pt idx="137">
+                  <v>0.124887</v>
+                </pt>
+                <pt idx="138">
+                  <v>0.126237</v>
+                </pt>
+                <pt idx="139">
+                  <v>0.12706</v>
+                </pt>
+                <pt idx="140">
+                  <v>0.127951</v>
+                </pt>
+                <pt idx="141">
+                  <v>0.129431</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2865,8 +3791,8 @@
           <hMode val="factor"/>
           <x val="0.09943851078021188"/>
           <y val="0.05455922082745843"/>
-          <w val="0.3953147440728324"/>
-          <h val="0.2347463490140655"/>
+          <w val="0.3308817338426756"/>
+          <h val="0.2472877044215627"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -3215,8 +4141,8 @@
   </sheetPr>
   <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3232,12 +4158,17 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_map</t>
+          <t>boost::unordered_map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc15_map</t>
+          <t>boost::unordered_flat_map</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::unordered_node_map</t>
         </is>
       </c>
     </row>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -4177,16 +4177,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0660787</v>
+        <v>0.06354559999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.103189</v>
+        <v>0.0682659</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0554806</v>
+        <v>0.057124</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0629492</v>
+        <v>0.0611665</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4194,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0688525</v>
+        <v>0.063762</v>
       </c>
       <c r="C3" t="n">
-        <v>0.103782</v>
+        <v>0.0667647</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05521</v>
+        <v>0.055128</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0612436</v>
+        <v>0.0625999</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4211,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0671586</v>
+        <v>0.0632289</v>
       </c>
       <c r="C4" t="n">
-        <v>0.10627</v>
+        <v>0.0670203</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0542924</v>
+        <v>0.054508</v>
       </c>
       <c r="E4" t="n">
-        <v>0.06409860000000001</v>
+        <v>0.0609947</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4228,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0645381</v>
+        <v>0.06391380000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.108823</v>
+        <v>0.07080980000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0554304</v>
+        <v>0.0572284</v>
       </c>
       <c r="E5" t="n">
-        <v>0.06309480000000001</v>
+        <v>0.0615433</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4245,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0681636</v>
+        <v>0.06431340000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.118312</v>
+        <v>0.0678299</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0586848</v>
+        <v>0.055569</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0653985</v>
+        <v>0.0619869</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4262,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06776359999999999</v>
+        <v>0.0647961</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0873994</v>
+        <v>0.06809469999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0596199</v>
+        <v>0.0579772</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0655191</v>
+        <v>0.0633198</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4279,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0739771</v>
+        <v>0.06746580000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0940727</v>
+        <v>0.0692637</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0652084</v>
+        <v>0.06269379999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0694713</v>
+        <v>0.0670235</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4296,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0698637</v>
+        <v>0.06782879999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0955814</v>
+        <v>0.0705422</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0607647</v>
+        <v>0.0560853</v>
       </c>
       <c r="E9" t="n">
-        <v>0.07073169999999999</v>
+        <v>0.06427040000000001</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4313,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0765279</v>
+        <v>0.0709457</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09726120000000001</v>
+        <v>0.0770952</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0598097</v>
+        <v>0.0562344</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0704834</v>
+        <v>0.0667296</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4330,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.07593080000000001</v>
+        <v>0.0723076</v>
       </c>
       <c r="C11" t="n">
-        <v>0.100852</v>
+        <v>0.07694239999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0600174</v>
+        <v>0.0563236</v>
       </c>
       <c r="E11" t="n">
-        <v>0.06960230000000001</v>
+        <v>0.06649430000000001</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4347,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.07619570000000001</v>
+        <v>0.0722218</v>
       </c>
       <c r="C12" t="n">
-        <v>0.104615</v>
+        <v>0.07650750000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0604714</v>
+        <v>0.0566016</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0686127</v>
+        <v>0.0662871</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4364,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0748914</v>
+        <v>0.071676</v>
       </c>
       <c r="C13" t="n">
-        <v>0.104634</v>
+        <v>0.07615810000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0576789</v>
+        <v>0.0569834</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0670453</v>
+        <v>0.06857829999999999</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4381,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0771805</v>
+        <v>0.0728613</v>
       </c>
       <c r="C14" t="n">
-        <v>0.11294</v>
+        <v>0.07703649999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0598933</v>
+        <v>0.0572465</v>
       </c>
       <c r="E14" t="n">
-        <v>0.07021769999999999</v>
+        <v>0.0671576</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4398,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.07521079999999999</v>
+        <v>0.0720263</v>
       </c>
       <c r="C15" t="n">
-        <v>0.111327</v>
+        <v>0.0763017</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0595861</v>
+        <v>0.0578425</v>
       </c>
       <c r="E15" t="n">
-        <v>0.07009070000000001</v>
+        <v>0.0679102</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4415,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0745532</v>
+        <v>0.072201</v>
       </c>
       <c r="C16" t="n">
-        <v>0.11427</v>
+        <v>0.0764445</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0600693</v>
+        <v>0.0579736</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0691104</v>
+        <v>0.0672895</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4432,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0734293</v>
+        <v>0.072074</v>
       </c>
       <c r="C17" t="n">
-        <v>0.114355</v>
+        <v>0.0763953</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0589691</v>
+        <v>0.0585002</v>
       </c>
       <c r="E17" t="n">
-        <v>0.06976930000000001</v>
+        <v>0.0674614</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4449,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0729638</v>
+        <v>0.0728111</v>
       </c>
       <c r="C18" t="n">
-        <v>0.116872</v>
+        <v>0.0777706</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0589243</v>
+        <v>0.0596002</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0683539</v>
+        <v>0.0688776</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4466,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0786458</v>
+        <v>0.07334</v>
       </c>
       <c r="C19" t="n">
-        <v>0.123547</v>
+        <v>0.0779895</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0597458</v>
+        <v>0.0597612</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0692338</v>
+        <v>0.0703111</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4483,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0754643</v>
+        <v>0.0739414</v>
       </c>
       <c r="C20" t="n">
-        <v>0.128515</v>
+        <v>0.0786472</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0622297</v>
+        <v>0.0618524</v>
       </c>
       <c r="E20" t="n">
-        <v>0.071115</v>
+        <v>0.07200139999999999</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4500,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0738169</v>
+        <v>0.07499939999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.09228210000000001</v>
+        <v>0.079052</v>
       </c>
       <c r="D21" t="n">
-        <v>0.06377289999999999</v>
+        <v>0.0648098</v>
       </c>
       <c r="E21" t="n">
-        <v>0.07168430000000001</v>
+        <v>0.072796</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4517,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0745377</v>
+        <v>0.0744905</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0945696</v>
+        <v>0.0808084</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0684955</v>
+        <v>0.0684999</v>
       </c>
       <c r="E22" t="n">
-        <v>0.076088</v>
+        <v>0.0760781</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4534,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0764801</v>
+        <v>0.0760729</v>
       </c>
       <c r="C23" t="n">
-        <v>0.09714639999999999</v>
+        <v>0.0813275</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0621502</v>
+        <v>0.0615898</v>
       </c>
       <c r="E23" t="n">
-        <v>0.07296809999999999</v>
+        <v>0.0723259</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4551,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0785507</v>
+        <v>0.0784605</v>
       </c>
       <c r="C24" t="n">
-        <v>0.099707</v>
+        <v>0.0854915</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0617064</v>
+        <v>0.0614945</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0730069</v>
+        <v>0.0728251</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4568,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0782537</v>
+        <v>0.078194</v>
       </c>
       <c r="C25" t="n">
-        <v>0.102953</v>
+        <v>0.0860147</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0632354</v>
+        <v>0.0619909</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0733109</v>
+        <v>0.0729691</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4585,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0780063</v>
+        <v>0.0779707</v>
       </c>
       <c r="C26" t="n">
-        <v>0.104667</v>
+        <v>0.08643339999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0619606</v>
+        <v>0.0629767</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0736887</v>
+        <v>0.0733572</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4602,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.07903399999999999</v>
+        <v>0.07805769999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.108714</v>
+        <v>0.0862917</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0627659</v>
+        <v>0.0626758</v>
       </c>
       <c r="E27" t="n">
-        <v>0.07451969999999999</v>
+        <v>0.0738359</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4619,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.07884819999999999</v>
+        <v>0.0780923</v>
       </c>
       <c r="C28" t="n">
-        <v>0.114467</v>
+        <v>0.0876454</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0621932</v>
+        <v>0.0633711</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0783322</v>
+        <v>0.07475759999999999</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4636,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0788186</v>
+        <v>0.0785764</v>
       </c>
       <c r="C29" t="n">
-        <v>0.11652</v>
+        <v>0.086989</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0640912</v>
+        <v>0.06291140000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0758783</v>
+        <v>0.07500709999999999</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4653,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.07966570000000001</v>
+        <v>0.0782031</v>
       </c>
       <c r="C30" t="n">
-        <v>0.120145</v>
+        <v>0.08733200000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0634444</v>
+        <v>0.06390120000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0764966</v>
+        <v>0.07642110000000001</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4670,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0795348</v>
+        <v>0.07924589999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.123987</v>
+        <v>0.0883969</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0639549</v>
+        <v>0.0634947</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0772379</v>
+        <v>0.0764253</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4687,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.07957549999999999</v>
+        <v>0.0792672</v>
       </c>
       <c r="C32" t="n">
-        <v>0.126832</v>
+        <v>0.08836910000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>0.06460390000000001</v>
+        <v>0.0650606</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0776367</v>
+        <v>0.0768102</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4704,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0797486</v>
+        <v>0.0792133</v>
       </c>
       <c r="C33" t="n">
-        <v>0.132114</v>
+        <v>0.0898311</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0658055</v>
+        <v>0.06527380000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0788147</v>
+        <v>0.0777795</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4721,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0815785</v>
+        <v>0.0797799</v>
       </c>
       <c r="C34" t="n">
-        <v>0.13575</v>
+        <v>0.0895942</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0670429</v>
+        <v>0.0673059</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0804135</v>
+        <v>0.0801959</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4738,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0804523</v>
+        <v>0.0818357</v>
       </c>
       <c r="C35" t="n">
-        <v>0.108728</v>
+        <v>0.0906315</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0694521</v>
+        <v>0.0698819</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0830383</v>
+        <v>0.0832017</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4755,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0832208</v>
+        <v>0.0831524</v>
       </c>
       <c r="C36" t="n">
-        <v>0.113949</v>
+        <v>0.094974</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0736238</v>
+        <v>0.0755199</v>
       </c>
       <c r="E36" t="n">
-        <v>0.08547780000000001</v>
+        <v>0.0881179</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4772,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0844356</v>
+        <v>0.08473169999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>0.116344</v>
+        <v>0.0954825</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0691698</v>
+        <v>0.07044499999999999</v>
       </c>
       <c r="E37" t="n">
-        <v>0.08082880000000001</v>
+        <v>0.08218250000000001</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4789,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0968734</v>
+        <v>0.0979332</v>
       </c>
       <c r="C38" t="n">
-        <v>0.122066</v>
+        <v>0.0969257</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0687357</v>
+        <v>0.06910910000000001</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0813342</v>
+        <v>0.0818074</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4806,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.09717240000000001</v>
+        <v>0.0981298</v>
       </c>
       <c r="C39" t="n">
-        <v>0.126525</v>
+        <v>0.09842190000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>0.06863370000000001</v>
+        <v>0.0703599</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0814122</v>
+        <v>0.08238529999999999</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4823,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.101428</v>
+        <v>0.0970256</v>
       </c>
       <c r="C40" t="n">
-        <v>0.132198</v>
+        <v>0.0968672</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0698782</v>
+        <v>0.07000389999999999</v>
       </c>
       <c r="E40" t="n">
-        <v>0.08374139999999999</v>
+        <v>0.0826633</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4840,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.09739589999999999</v>
+        <v>0.0980758</v>
       </c>
       <c r="C41" t="n">
-        <v>0.139098</v>
+        <v>0.0974091</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0701053</v>
+        <v>0.06943820000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0855289</v>
+        <v>0.0818058</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4857,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.097914</v>
+        <v>0.0956583</v>
       </c>
       <c r="C42" t="n">
-        <v>0.142103</v>
+        <v>0.0974676</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0705433</v>
+        <v>0.06982439999999999</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0851944</v>
+        <v>0.0830432</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4874,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.09717629999999999</v>
+        <v>0.0961867</v>
       </c>
       <c r="C43" t="n">
-        <v>0.146761</v>
+        <v>0.0985103</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0710319</v>
+        <v>0.0701715</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0860925</v>
+        <v>0.08467429999999999</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +4891,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.097592</v>
+        <v>0.09708749999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>0.153057</v>
+        <v>0.0991393</v>
       </c>
       <c r="D44" t="n">
-        <v>0.07131079999999999</v>
+        <v>0.0707334</v>
       </c>
       <c r="E44" t="n">
-        <v>0.08731849999999999</v>
+        <v>0.0850441</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +4908,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0965669</v>
+        <v>0.09785480000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>0.155089</v>
+        <v>0.0997963</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0704733</v>
+        <v>0.0708555</v>
       </c>
       <c r="E45" t="n">
-        <v>0.08731319999999999</v>
+        <v>0.0863155</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +4925,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.09726609999999999</v>
+        <v>0.104048</v>
       </c>
       <c r="C46" t="n">
-        <v>0.161412</v>
+        <v>0.101569</v>
       </c>
       <c r="D46" t="n">
-        <v>0.07249319999999999</v>
+        <v>0.072781</v>
       </c>
       <c r="E46" t="n">
-        <v>0.08940240000000001</v>
+        <v>0.0885391</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +4942,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.09815939999999999</v>
+        <v>0.0989767</v>
       </c>
       <c r="C47" t="n">
-        <v>0.166565</v>
+        <v>0.102758</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0727715</v>
+        <v>0.0736334</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0905629</v>
+        <v>0.0901144</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +4959,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.100604</v>
+        <v>0.0988453</v>
       </c>
       <c r="C48" t="n">
-        <v>0.176732</v>
+        <v>0.104022</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0752766</v>
+        <v>0.07612579999999999</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0959006</v>
+        <v>0.0923235</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +4976,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.100968</v>
+        <v>0.0995774</v>
       </c>
       <c r="C49" t="n">
-        <v>0.181415</v>
+        <v>0.108337</v>
       </c>
       <c r="D49" t="n">
-        <v>0.07779510000000001</v>
+        <v>0.0764976</v>
       </c>
       <c r="E49" t="n">
-        <v>0.09876799999999999</v>
+        <v>0.100905</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +4993,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.101509</v>
+        <v>0.104909</v>
       </c>
       <c r="C50" t="n">
-        <v>0.170444</v>
+        <v>0.109528</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0805143</v>
+        <v>0.07932450000000001</v>
       </c>
       <c r="E50" t="n">
-        <v>0.100532</v>
+        <v>0.101939</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5010,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.103003</v>
+        <v>0.105517</v>
       </c>
       <c r="C51" t="n">
-        <v>0.174272</v>
+        <v>0.114342</v>
       </c>
       <c r="D51" t="n">
-        <v>0.156924</v>
+        <v>0.158993</v>
       </c>
       <c r="E51" t="n">
-        <v>0.123123</v>
+        <v>0.12222</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5027,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.104544</v>
+        <v>0.10749</v>
       </c>
       <c r="C52" t="n">
-        <v>0.183108</v>
+        <v>0.122895</v>
       </c>
       <c r="D52" t="n">
-        <v>0.16252</v>
+        <v>0.157702</v>
       </c>
       <c r="E52" t="n">
-        <v>0.127147</v>
+        <v>0.125597</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5044,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.173947</v>
+        <v>0.183109</v>
       </c>
       <c r="C53" t="n">
-        <v>0.186415</v>
+        <v>0.158753</v>
       </c>
       <c r="D53" t="n">
-        <v>0.157698</v>
+        <v>0.160257</v>
       </c>
       <c r="E53" t="n">
-        <v>0.126594</v>
+        <v>0.136434</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5061,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.171713</v>
+        <v>0.177368</v>
       </c>
       <c r="C54" t="n">
-        <v>0.203584</v>
+        <v>0.157646</v>
       </c>
       <c r="D54" t="n">
-        <v>0.158965</v>
+        <v>0.158033</v>
       </c>
       <c r="E54" t="n">
-        <v>0.129169</v>
+        <v>0.131965</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5078,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.176327</v>
+        <v>0.175729</v>
       </c>
       <c r="C55" t="n">
-        <v>0.200334</v>
+        <v>0.160037</v>
       </c>
       <c r="D55" t="n">
-        <v>0.157523</v>
+        <v>0.159137</v>
       </c>
       <c r="E55" t="n">
-        <v>0.133282</v>
+        <v>0.134478</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5095,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.174089</v>
+        <v>0.174787</v>
       </c>
       <c r="C56" t="n">
-        <v>0.20752</v>
+        <v>0.164774</v>
       </c>
       <c r="D56" t="n">
-        <v>0.157898</v>
+        <v>0.161102</v>
       </c>
       <c r="E56" t="n">
-        <v>0.135977</v>
+        <v>0.141305</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5112,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.175604</v>
+        <v>0.180477</v>
       </c>
       <c r="C57" t="n">
-        <v>0.215308</v>
+        <v>0.169197</v>
       </c>
       <c r="D57" t="n">
-        <v>0.157921</v>
+        <v>0.161727</v>
       </c>
       <c r="E57" t="n">
-        <v>0.140541</v>
+        <v>0.143973</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5129,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.17611</v>
+        <v>0.1768</v>
       </c>
       <c r="C58" t="n">
-        <v>0.223818</v>
+        <v>0.175703</v>
       </c>
       <c r="D58" t="n">
-        <v>0.161153</v>
+        <v>0.169179</v>
       </c>
       <c r="E58" t="n">
-        <v>0.144988</v>
+        <v>0.152511</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5146,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.177394</v>
+        <v>0.179289</v>
       </c>
       <c r="C59" t="n">
-        <v>0.231507</v>
+        <v>0.173411</v>
       </c>
       <c r="D59" t="n">
-        <v>0.159854</v>
+        <v>0.16282</v>
       </c>
       <c r="E59" t="n">
-        <v>0.146118</v>
+        <v>0.149709</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5163,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.175133</v>
+        <v>0.184876</v>
       </c>
       <c r="C60" t="n">
-        <v>0.24377</v>
+        <v>0.177844</v>
       </c>
       <c r="D60" t="n">
-        <v>0.162116</v>
+        <v>0.165184</v>
       </c>
       <c r="E60" t="n">
-        <v>0.153684</v>
+        <v>0.156292</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5180,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.178278</v>
+        <v>0.178092</v>
       </c>
       <c r="C61" t="n">
-        <v>0.253506</v>
+        <v>0.179551</v>
       </c>
       <c r="D61" t="n">
-        <v>0.163912</v>
+        <v>0.163301</v>
       </c>
       <c r="E61" t="n">
-        <v>0.156313</v>
+        <v>0.159966</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5197,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.175574</v>
+        <v>0.181958</v>
       </c>
       <c r="C62" t="n">
-        <v>0.266043</v>
+        <v>0.183315</v>
       </c>
       <c r="D62" t="n">
-        <v>0.165976</v>
+        <v>0.162783</v>
       </c>
       <c r="E62" t="n">
-        <v>0.161328</v>
+        <v>0.162787</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5214,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.188034</v>
+        <v>0.17928</v>
       </c>
       <c r="C63" t="n">
-        <v>0.271053</v>
+        <v>0.187844</v>
       </c>
       <c r="D63" t="n">
-        <v>0.164218</v>
+        <v>0.167785</v>
       </c>
       <c r="E63" t="n">
-        <v>0.164598</v>
+        <v>0.169842</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5231,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.176827</v>
+        <v>0.179608</v>
       </c>
       <c r="C64" t="n">
-        <v>0.269092</v>
+        <v>0.191524</v>
       </c>
       <c r="D64" t="n">
-        <v>0.165228</v>
+        <v>0.17023</v>
       </c>
       <c r="E64" t="n">
-        <v>0.169277</v>
+        <v>0.175338</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5248,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.181347</v>
+        <v>0.178129</v>
       </c>
       <c r="C65" t="n">
-        <v>0.278375</v>
+        <v>0.195332</v>
       </c>
       <c r="D65" t="n">
-        <v>0.1706</v>
+        <v>0.174108</v>
       </c>
       <c r="E65" t="n">
-        <v>0.177731</v>
+        <v>0.182557</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5265,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.180692</v>
+        <v>0.190279</v>
       </c>
       <c r="C66" t="n">
-        <v>0.282694</v>
+        <v>0.207361</v>
       </c>
       <c r="D66" t="n">
-        <v>0.24047</v>
+        <v>0.247663</v>
       </c>
       <c r="E66" t="n">
-        <v>0.254768</v>
+        <v>0.254846</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5282,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.264501</v>
+        <v>0.268918</v>
       </c>
       <c r="C67" t="n">
-        <v>0.297799</v>
+        <v>0.280357</v>
       </c>
       <c r="D67" t="n">
-        <v>0.239437</v>
+        <v>0.246103</v>
       </c>
       <c r="E67" t="n">
-        <v>0.253391</v>
+        <v>0.260655</v>
       </c>
     </row>
     <row r="68">
@@ -5299,16 +5299,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.264928</v>
+        <v>0.275206</v>
       </c>
       <c r="C68" t="n">
-        <v>0.301942</v>
+        <v>0.287431</v>
       </c>
       <c r="D68" t="n">
-        <v>0.245073</v>
+        <v>0.251521</v>
       </c>
       <c r="E68" t="n">
-        <v>0.257894</v>
+        <v>0.268114</v>
       </c>
     </row>
     <row r="69">
@@ -5316,16 +5316,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.278238</v>
+        <v>0.292023</v>
       </c>
       <c r="C69" t="n">
-        <v>0.319629</v>
+        <v>0.290003</v>
       </c>
       <c r="D69" t="n">
-        <v>0.251579</v>
+        <v>0.258496</v>
       </c>
       <c r="E69" t="n">
-        <v>0.265098</v>
+        <v>0.260875</v>
       </c>
     </row>
     <row r="70">
@@ -5333,16 +5333,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.273196</v>
+        <v>0.271268</v>
       </c>
       <c r="C70" t="n">
-        <v>0.324627</v>
+        <v>0.281483</v>
       </c>
       <c r="D70" t="n">
-        <v>0.253359</v>
+        <v>0.247302</v>
       </c>
       <c r="E70" t="n">
-        <v>0.260822</v>
+        <v>0.260485</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5350,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.272369</v>
+        <v>0.274475</v>
       </c>
       <c r="C71" t="n">
-        <v>0.332986</v>
+        <v>0.285663</v>
       </c>
       <c r="D71" t="n">
-        <v>0.248569</v>
+        <v>0.250323</v>
       </c>
       <c r="E71" t="n">
-        <v>0.261731</v>
+        <v>0.261723</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5367,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.272774</v>
+        <v>0.270846</v>
       </c>
       <c r="C72" t="n">
-        <v>0.339014</v>
+        <v>0.301325</v>
       </c>
       <c r="D72" t="n">
-        <v>0.248983</v>
+        <v>0.252555</v>
       </c>
       <c r="E72" t="n">
-        <v>0.260565</v>
+        <v>0.285632</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5384,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.267062</v>
+        <v>0.289532</v>
       </c>
       <c r="C73" t="n">
-        <v>0.347138</v>
+        <v>0.286987</v>
       </c>
       <c r="D73" t="n">
-        <v>0.252441</v>
+        <v>0.253947</v>
       </c>
       <c r="E73" t="n">
-        <v>0.265099</v>
+        <v>0.268052</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5401,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.269842</v>
+        <v>0.274475</v>
       </c>
       <c r="C74" t="n">
-        <v>0.356291</v>
+        <v>0.288655</v>
       </c>
       <c r="D74" t="n">
-        <v>0.251789</v>
+        <v>0.265149</v>
       </c>
       <c r="E74" t="n">
-        <v>0.264077</v>
+        <v>0.269149</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5418,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.272371</v>
+        <v>0.277731</v>
       </c>
       <c r="C75" t="n">
-        <v>0.367046</v>
+        <v>0.295155</v>
       </c>
       <c r="D75" t="n">
-        <v>0.25513</v>
+        <v>0.254935</v>
       </c>
       <c r="E75" t="n">
-        <v>0.267208</v>
+        <v>0.268014</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5435,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.274429</v>
+        <v>0.273591</v>
       </c>
       <c r="C76" t="n">
-        <v>0.381035</v>
+        <v>0.291443</v>
       </c>
       <c r="D76" t="n">
-        <v>0.259796</v>
+        <v>0.257104</v>
       </c>
       <c r="E76" t="n">
-        <v>0.27241</v>
+        <v>0.288877</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5452,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.275825</v>
+        <v>0.274396</v>
       </c>
       <c r="C77" t="n">
-        <v>0.400627</v>
+        <v>0.302649</v>
       </c>
       <c r="D77" t="n">
-        <v>0.270885</v>
+        <v>0.258601</v>
       </c>
       <c r="E77" t="n">
-        <v>0.276128</v>
+        <v>0.274428</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5469,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.28987</v>
+        <v>0.289874</v>
       </c>
       <c r="C78" t="n">
-        <v>0.361973</v>
+        <v>0.29472</v>
       </c>
       <c r="D78" t="n">
-        <v>0.260719</v>
+        <v>0.263983</v>
       </c>
       <c r="E78" t="n">
-        <v>0.277646</v>
+        <v>0.278738</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5486,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.280781</v>
+        <v>0.27939</v>
       </c>
       <c r="C79" t="n">
-        <v>0.366795</v>
+        <v>0.295864</v>
       </c>
       <c r="D79" t="n">
-        <v>0.265905</v>
+        <v>0.269102</v>
       </c>
       <c r="E79" t="n">
-        <v>0.287172</v>
+        <v>0.284411</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5503,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.284641</v>
+        <v>0.287741</v>
       </c>
       <c r="C80" t="n">
-        <v>0.37834</v>
+        <v>0.304496</v>
       </c>
       <c r="D80" t="n">
-        <v>0.347913</v>
+        <v>0.346875</v>
       </c>
       <c r="E80" t="n">
-        <v>0.394435</v>
+        <v>0.392184</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5520,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.36633</v>
+        <v>0.366862</v>
       </c>
       <c r="C81" t="n">
-        <v>0.383653</v>
+        <v>0.401673</v>
       </c>
       <c r="D81" t="n">
-        <v>0.344906</v>
+        <v>0.353126</v>
       </c>
       <c r="E81" t="n">
-        <v>0.409954</v>
+        <v>0.393602</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5537,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.362133</v>
+        <v>0.364389</v>
       </c>
       <c r="C82" t="n">
-        <v>0.394687</v>
+        <v>0.401237</v>
       </c>
       <c r="D82" t="n">
-        <v>0.346689</v>
+        <v>0.351957</v>
       </c>
       <c r="E82" t="n">
-        <v>0.39542</v>
+        <v>0.396223</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5554,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.362263</v>
+        <v>0.36538</v>
       </c>
       <c r="C83" t="n">
-        <v>0.401373</v>
+        <v>0.405847</v>
       </c>
       <c r="D83" t="n">
-        <v>0.346979</v>
+        <v>0.351942</v>
       </c>
       <c r="E83" t="n">
-        <v>0.399051</v>
+        <v>0.400796</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5571,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.364052</v>
+        <v>0.366139</v>
       </c>
       <c r="C84" t="n">
-        <v>0.417393</v>
+        <v>0.402504</v>
       </c>
       <c r="D84" t="n">
-        <v>0.347339</v>
+        <v>0.345886</v>
       </c>
       <c r="E84" t="n">
-        <v>0.403003</v>
+        <v>0.396251</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5588,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.365287</v>
+        <v>0.364009</v>
       </c>
       <c r="C85" t="n">
-        <v>0.425486</v>
+        <v>0.40484</v>
       </c>
       <c r="D85" t="n">
-        <v>0.352089</v>
+        <v>0.348129</v>
       </c>
       <c r="E85" t="n">
-        <v>0.408038</v>
+        <v>0.399966</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5605,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.369703</v>
+        <v>0.365795</v>
       </c>
       <c r="C86" t="n">
-        <v>0.435833</v>
+        <v>0.418928</v>
       </c>
       <c r="D86" t="n">
-        <v>0.352898</v>
+        <v>0.353939</v>
       </c>
       <c r="E86" t="n">
-        <v>0.405498</v>
+        <v>0.415451</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5622,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.369757</v>
+        <v>0.378992</v>
       </c>
       <c r="C87" t="n">
-        <v>0.459912</v>
+        <v>0.410569</v>
       </c>
       <c r="D87" t="n">
-        <v>0.350845</v>
+        <v>0.356333</v>
       </c>
       <c r="E87" t="n">
-        <v>0.406102</v>
+        <v>0.408703</v>
       </c>
     </row>
     <row r="88">
@@ -5639,16 +5639,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.367436</v>
+        <v>0.372831</v>
       </c>
       <c r="C88" t="n">
-        <v>0.451975</v>
+        <v>0.412043</v>
       </c>
       <c r="D88" t="n">
-        <v>0.349862</v>
+        <v>0.357398</v>
       </c>
       <c r="E88" t="n">
-        <v>0.407718</v>
+        <v>0.407378</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5656,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.366244</v>
+        <v>0.370677</v>
       </c>
       <c r="C89" t="n">
-        <v>0.460173</v>
+        <v>0.431804</v>
       </c>
       <c r="D89" t="n">
-        <v>0.353397</v>
+        <v>0.357018</v>
       </c>
       <c r="E89" t="n">
-        <v>0.414688</v>
+        <v>0.412088</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5673,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.381726</v>
+        <v>0.369598</v>
       </c>
       <c r="C90" t="n">
-        <v>0.508318</v>
+        <v>0.420588</v>
       </c>
       <c r="D90" t="n">
-        <v>0.359769</v>
+        <v>0.355183</v>
       </c>
       <c r="E90" t="n">
-        <v>0.417404</v>
+        <v>0.416</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5690,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.374425</v>
+        <v>0.376196</v>
       </c>
       <c r="C91" t="n">
-        <v>0.489935</v>
+        <v>0.420577</v>
       </c>
       <c r="D91" t="n">
-        <v>0.358538</v>
+        <v>0.358623</v>
       </c>
       <c r="E91" t="n">
-        <v>0.418775</v>
+        <v>0.411974</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5707,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.372545</v>
+        <v>0.371212</v>
       </c>
       <c r="C92" t="n">
-        <v>0.431033</v>
+        <v>0.421385</v>
       </c>
       <c r="D92" t="n">
-        <v>0.357425</v>
+        <v>0.365997</v>
       </c>
       <c r="E92" t="n">
-        <v>0.420311</v>
+        <v>0.424584</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5724,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.375208</v>
+        <v>0.379081</v>
       </c>
       <c r="C93" t="n">
-        <v>0.459194</v>
+        <v>0.432165</v>
       </c>
       <c r="D93" t="n">
-        <v>0.37447</v>
+        <v>0.367387</v>
       </c>
       <c r="E93" t="n">
-        <v>0.445065</v>
+        <v>0.429788</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +5741,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.380443</v>
+        <v>0.377768</v>
       </c>
       <c r="C94" t="n">
-        <v>0.460798</v>
+        <v>0.43874</v>
       </c>
       <c r="D94" t="n">
-        <v>0.439817</v>
+        <v>0.45443</v>
       </c>
       <c r="E94" t="n">
-        <v>0.500401</v>
+        <v>0.50581</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +5758,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.442606</v>
+        <v>0.450165</v>
       </c>
       <c r="C95" t="n">
-        <v>0.45492</v>
+        <v>0.500652</v>
       </c>
       <c r="D95" t="n">
-        <v>0.448117</v>
+        <v>0.44909</v>
       </c>
       <c r="E95" t="n">
-        <v>0.507633</v>
+        <v>0.504134</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +5775,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.447964</v>
+        <v>0.447598</v>
       </c>
       <c r="C96" t="n">
-        <v>0.466116</v>
+        <v>0.514276</v>
       </c>
       <c r="D96" t="n">
-        <v>0.45166</v>
+        <v>0.440841</v>
       </c>
       <c r="E96" t="n">
-        <v>0.507954</v>
+        <v>0.506373</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +5792,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.445463</v>
+        <v>0.44425</v>
       </c>
       <c r="C97" t="n">
-        <v>0.481466</v>
+        <v>0.500359</v>
       </c>
       <c r="D97" t="n">
-        <v>0.4539</v>
+        <v>0.449146</v>
       </c>
       <c r="E97" t="n">
-        <v>0.519433</v>
+        <v>0.507559</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +5809,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.451338</v>
+        <v>0.448513</v>
       </c>
       <c r="C98" t="n">
-        <v>0.478229</v>
+        <v>0.499764</v>
       </c>
       <c r="D98" t="n">
-        <v>0.445168</v>
+        <v>0.448052</v>
       </c>
       <c r="E98" t="n">
-        <v>0.513738</v>
+        <v>0.511064</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +5826,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.445462</v>
+        <v>0.446514</v>
       </c>
       <c r="C99" t="n">
-        <v>0.485791</v>
+        <v>0.50631</v>
       </c>
       <c r="D99" t="n">
-        <v>0.449282</v>
+        <v>0.447337</v>
       </c>
       <c r="E99" t="n">
-        <v>0.514701</v>
+        <v>0.526826</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +5843,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.450426</v>
+        <v>0.447454</v>
       </c>
       <c r="C100" t="n">
-        <v>0.503848</v>
+        <v>0.513041</v>
       </c>
       <c r="D100" t="n">
-        <v>0.443654</v>
+        <v>0.450492</v>
       </c>
       <c r="E100" t="n">
-        <v>0.518873</v>
+        <v>0.524213</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +5860,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.448742</v>
+        <v>0.452214</v>
       </c>
       <c r="C101" t="n">
-        <v>0.509876</v>
+        <v>0.508148</v>
       </c>
       <c r="D101" t="n">
-        <v>0.447453</v>
+        <v>0.452951</v>
       </c>
       <c r="E101" t="n">
-        <v>0.528694</v>
+        <v>0.523451</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +5877,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.465665</v>
+        <v>0.456225</v>
       </c>
       <c r="C102" t="n">
-        <v>0.544586</v>
+        <v>0.5111560000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>0.461654</v>
+        <v>0.451354</v>
       </c>
       <c r="E102" t="n">
-        <v>0.525709</v>
+        <v>0.542573</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +5894,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.453619</v>
+        <v>0.455317</v>
       </c>
       <c r="C103" t="n">
-        <v>0.546932</v>
+        <v>0.509786</v>
       </c>
       <c r="D103" t="n">
-        <v>0.45782</v>
+        <v>0.453785</v>
       </c>
       <c r="E103" t="n">
-        <v>0.524046</v>
+        <v>0.528567</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +5911,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.465857</v>
+        <v>0.454672</v>
       </c>
       <c r="C104" t="n">
-        <v>0.548293</v>
+        <v>0.519723</v>
       </c>
       <c r="D104" t="n">
-        <v>0.486832</v>
+        <v>0.453509</v>
       </c>
       <c r="E104" t="n">
-        <v>0.528091</v>
+        <v>0.527271</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +5928,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.462358</v>
+        <v>0.465331</v>
       </c>
       <c r="C105" t="n">
-        <v>0.562634</v>
+        <v>0.539327</v>
       </c>
       <c r="D105" t="n">
-        <v>0.453689</v>
+        <v>0.454268</v>
       </c>
       <c r="E105" t="n">
-        <v>0.530581</v>
+        <v>0.531599</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +5945,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.452192</v>
+        <v>0.458926</v>
       </c>
       <c r="C106" t="n">
-        <v>0.572848</v>
+        <v>0.527957</v>
       </c>
       <c r="D106" t="n">
-        <v>0.452116</v>
+        <v>0.463533</v>
       </c>
       <c r="E106" t="n">
-        <v>0.5369390000000001</v>
+        <v>0.547861</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +5962,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.449166</v>
+        <v>0.458712</v>
       </c>
       <c r="C107" t="n">
-        <v>0.489174</v>
+        <v>0.5319199999999999</v>
       </c>
       <c r="D107" t="n">
-        <v>0.457052</v>
+        <v>0.463929</v>
       </c>
       <c r="E107" t="n">
-        <v>0.545876</v>
+        <v>0.552195</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +5979,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.458427</v>
+        <v>0.471531</v>
       </c>
       <c r="C108" t="n">
-        <v>0.500613</v>
+        <v>0.542768</v>
       </c>
       <c r="D108" t="n">
-        <v>0.526629</v>
+        <v>0.521146</v>
       </c>
       <c r="E108" t="n">
-        <v>0.581846</v>
+        <v>0.5862619999999999</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +5996,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.468022</v>
+        <v>0.468007</v>
       </c>
       <c r="C109" t="n">
-        <v>0.511078</v>
+        <v>0.5493749999999999</v>
       </c>
       <c r="D109" t="n">
-        <v>0.524644</v>
+        <v>0.530076</v>
       </c>
       <c r="E109" t="n">
-        <v>0.58566</v>
+        <v>0.603925</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6013,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.553333</v>
+        <v>0.5589499999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>0.52276</v>
+        <v>0.601498</v>
       </c>
       <c r="D110" t="n">
-        <v>0.5192639999999999</v>
+        <v>0.5303060000000001</v>
       </c>
       <c r="E110" t="n">
-        <v>0.585037</v>
+        <v>0.584602</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6030,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.542831</v>
+        <v>0.545858</v>
       </c>
       <c r="C111" t="n">
-        <v>0.527268</v>
+        <v>0.5922269999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>0.52021</v>
+        <v>0.521795</v>
       </c>
       <c r="E111" t="n">
-        <v>0.585526</v>
+        <v>0.589819</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6047,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.544231</v>
+        <v>0.5610039999999999</v>
       </c>
       <c r="C112" t="n">
-        <v>0.545498</v>
+        <v>0.595077</v>
       </c>
       <c r="D112" t="n">
-        <v>0.525536</v>
+        <v>0.522559</v>
       </c>
       <c r="E112" t="n">
-        <v>0.5905629999999999</v>
+        <v>0.593895</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6064,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.561188</v>
+        <v>0.553864</v>
       </c>
       <c r="C113" t="n">
-        <v>0.560265</v>
+        <v>0.597646</v>
       </c>
       <c r="D113" t="n">
-        <v>0.533964</v>
+        <v>0.556898</v>
       </c>
       <c r="E113" t="n">
-        <v>0.607001</v>
+        <v>0.599316</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6081,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.545106</v>
+        <v>0.5563129999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>0.584884</v>
+        <v>0.597579</v>
       </c>
       <c r="D114" t="n">
-        <v>0.522706</v>
+        <v>0.555778</v>
       </c>
       <c r="E114" t="n">
-        <v>0.596754</v>
+        <v>0.594876</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6098,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.577303</v>
+        <v>0.548188</v>
       </c>
       <c r="C115" t="n">
-        <v>0.580327</v>
+        <v>0.597821</v>
       </c>
       <c r="D115" t="n">
-        <v>0.527538</v>
+        <v>0.528365</v>
       </c>
       <c r="E115" t="n">
-        <v>0.603522</v>
+        <v>0.611726</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6115,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.5530890000000001</v>
+        <v>0.547712</v>
       </c>
       <c r="C116" t="n">
-        <v>0.598229</v>
+        <v>0.602503</v>
       </c>
       <c r="D116" t="n">
-        <v>0.540307</v>
+        <v>0.525604</v>
       </c>
       <c r="E116" t="n">
-        <v>0.598769</v>
+        <v>0.602065</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6132,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.548713</v>
+        <v>0.542444</v>
       </c>
       <c r="C117" t="n">
-        <v>0.609839</v>
+        <v>0.602355</v>
       </c>
       <c r="D117" t="n">
-        <v>0.537268</v>
+        <v>0.5242059999999999</v>
       </c>
       <c r="E117" t="n">
-        <v>0.608054</v>
+        <v>0.605403</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6149,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.5523439999999999</v>
+        <v>0.5512010000000001</v>
       </c>
       <c r="C118" t="n">
-        <v>0.618474</v>
+        <v>0.607232</v>
       </c>
       <c r="D118" t="n">
-        <v>0.531678</v>
+        <v>0.529972</v>
       </c>
       <c r="E118" t="n">
-        <v>0.612694</v>
+        <v>0.607355</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6166,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.558701</v>
+        <v>0.552171</v>
       </c>
       <c r="C119" t="n">
-        <v>0.626455</v>
+        <v>0.6078</v>
       </c>
       <c r="D119" t="n">
-        <v>0.531455</v>
+        <v>0.53246</v>
       </c>
       <c r="E119" t="n">
-        <v>0.611867</v>
+        <v>0.613366</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6183,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.554449</v>
+        <v>0.555095</v>
       </c>
       <c r="C120" t="n">
-        <v>0.64494</v>
+        <v>0.613218</v>
       </c>
       <c r="D120" t="n">
-        <v>0.546502</v>
+        <v>0.5812850000000001</v>
       </c>
       <c r="E120" t="n">
-        <v>0.643904</v>
+        <v>0.739307</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6200,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.568983</v>
+        <v>0.7168099999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>0.560928</v>
+        <v>0.756448</v>
       </c>
       <c r="D121" t="n">
-        <v>0.538355</v>
+        <v>0.677498</v>
       </c>
       <c r="E121" t="n">
-        <v>0.62432</v>
+        <v>0.697186</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6217,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.556868</v>
+        <v>0.7270489999999999</v>
       </c>
       <c r="C122" t="n">
-        <v>0.577457</v>
+        <v>0.854357</v>
       </c>
       <c r="D122" t="n">
-        <v>0.554724</v>
+        <v>0.559323</v>
       </c>
       <c r="E122" t="n">
-        <v>0.635178</v>
+        <v>0.647125</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6234,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.566757</v>
+        <v>0.579766</v>
       </c>
       <c r="C123" t="n">
-        <v>0.585943</v>
+        <v>0.641688</v>
       </c>
       <c r="D123" t="n">
-        <v>0.644899</v>
+        <v>0.655586</v>
       </c>
       <c r="E123" t="n">
-        <v>0.6538</v>
+        <v>0.655799</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6251,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.7134470000000001</v>
+        <v>0.706629</v>
       </c>
       <c r="C124" t="n">
-        <v>0.612789</v>
+        <v>0.720035</v>
       </c>
       <c r="D124" t="n">
-        <v>0.649502</v>
+        <v>0.6595569999999999</v>
       </c>
       <c r="E124" t="n">
-        <v>0.662958</v>
+        <v>0.661391</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6268,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.70764</v>
+        <v>0.719201</v>
       </c>
       <c r="C125" t="n">
-        <v>0.621052</v>
+        <v>0.727943</v>
       </c>
       <c r="D125" t="n">
-        <v>0.6602440000000001</v>
+        <v>0.662146</v>
       </c>
       <c r="E125" t="n">
-        <v>0.677905</v>
+        <v>0.658516</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6285,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.706785</v>
+        <v>0.721567</v>
       </c>
       <c r="C126" t="n">
-        <v>0.619517</v>
+        <v>0.725356</v>
       </c>
       <c r="D126" t="n">
-        <v>0.6482830000000001</v>
+        <v>0.653303</v>
       </c>
       <c r="E126" t="n">
-        <v>0.6681049999999999</v>
+        <v>0.662585</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6302,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.717423</v>
+        <v>0.7187</v>
       </c>
       <c r="C127" t="n">
-        <v>0.639612</v>
+        <v>0.719936</v>
       </c>
       <c r="D127" t="n">
-        <v>0.660102</v>
+        <v>0.670856</v>
       </c>
       <c r="E127" t="n">
-        <v>0.6832780000000001</v>
+        <v>0.675141</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6319,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.716004</v>
+        <v>0.722036</v>
       </c>
       <c r="C128" t="n">
-        <v>0.652876</v>
+        <v>0.731866</v>
       </c>
       <c r="D128" t="n">
-        <v>0.654789</v>
+        <v>0.661378</v>
       </c>
       <c r="E128" t="n">
-        <v>0.674831</v>
+        <v>0.67049</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6336,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.789013</v>
+        <v>0.7167210000000001</v>
       </c>
       <c r="C129" t="n">
-        <v>0.662853</v>
+        <v>0.729532</v>
       </c>
       <c r="D129" t="n">
-        <v>0.6621</v>
+        <v>0.665229</v>
       </c>
       <c r="E129" t="n">
-        <v>0.688172</v>
+        <v>0.676145</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6353,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.706768</v>
+        <v>0.717052</v>
       </c>
       <c r="C130" t="n">
-        <v>0.675889</v>
+        <v>0.723936</v>
       </c>
       <c r="D130" t="n">
-        <v>0.659694</v>
+        <v>0.653273</v>
       </c>
       <c r="E130" t="n">
-        <v>0.682385</v>
+        <v>0.677785</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6370,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.715766</v>
+        <v>0.728873</v>
       </c>
       <c r="C131" t="n">
-        <v>0.68207</v>
+        <v>0.7259060000000001</v>
       </c>
       <c r="D131" t="n">
-        <v>0.654541</v>
+        <v>0.655623</v>
       </c>
       <c r="E131" t="n">
-        <v>0.679774</v>
+        <v>0.690588</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6387,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.708127</v>
+        <v>0.716503</v>
       </c>
       <c r="C132" t="n">
-        <v>0.700819</v>
+        <v>0.773715</v>
       </c>
       <c r="D132" t="n">
-        <v>0.656938</v>
+        <v>0.655197</v>
       </c>
       <c r="E132" t="n">
-        <v>0.6902470000000001</v>
+        <v>0.7323539999999999</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6404,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.715427</v>
+        <v>0.725355</v>
       </c>
       <c r="C133" t="n">
-        <v>0.713079</v>
+        <v>0.72881</v>
       </c>
       <c r="D133" t="n">
-        <v>0.65644</v>
+        <v>0.660955</v>
       </c>
       <c r="E133" t="n">
-        <v>0.7017679999999999</v>
+        <v>0.700925</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6421,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.7136</v>
+        <v>0.722939</v>
       </c>
       <c r="C134" t="n">
-        <v>0.7318440000000001</v>
+        <v>0.74412</v>
       </c>
       <c r="D134" t="n">
-        <v>0.658174</v>
+        <v>0.6703249999999999</v>
       </c>
       <c r="E134" t="n">
-        <v>0.7399289999999999</v>
+        <v>0.708195</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6438,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.72363</v>
+        <v>0.721131</v>
       </c>
       <c r="C135" t="n">
-        <v>0.676241</v>
+        <v>0.780515</v>
       </c>
       <c r="D135" t="n">
-        <v>0.685074</v>
+        <v>0.678272</v>
       </c>
       <c r="E135" t="n">
-        <v>0.715467</v>
+        <v>0.7224930000000001</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6455,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.723758</v>
+        <v>0.726472</v>
       </c>
       <c r="C136" t="n">
-        <v>0.675813</v>
+        <v>0.760609</v>
       </c>
       <c r="D136" t="n">
-        <v>0.6865560000000001</v>
+        <v>0.678502</v>
       </c>
       <c r="E136" t="n">
-        <v>0.728872</v>
+        <v>0.737857</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6472,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.727889</v>
+        <v>0.721491</v>
       </c>
       <c r="C137" t="n">
-        <v>0.687858</v>
+        <v>0.7695340000000001</v>
       </c>
       <c r="D137" t="n">
-        <v>0.836513</v>
+        <v>0.812339</v>
       </c>
       <c r="E137" t="n">
-        <v>0.779604</v>
+        <v>0.7751400000000001</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6489,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.915107</v>
+        <v>0.914543</v>
       </c>
       <c r="C138" t="n">
-        <v>0.6995980000000001</v>
+        <v>0.831488</v>
       </c>
       <c r="D138" t="n">
-        <v>0.812202</v>
+        <v>0.815445</v>
       </c>
       <c r="E138" t="n">
-        <v>0.766481</v>
+        <v>0.7622100000000001</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6506,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.901399</v>
+        <v>0.920975</v>
       </c>
       <c r="C139" t="n">
-        <v>0.715041</v>
+        <v>0.83589</v>
       </c>
       <c r="D139" t="n">
-        <v>0.819262</v>
+        <v>0.824411</v>
       </c>
       <c r="E139" t="n">
-        <v>0.75986</v>
+        <v>0.767551</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6523,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.911687</v>
+        <v>0.912102</v>
       </c>
       <c r="C140" t="n">
-        <v>0.724743</v>
+        <v>0.837879</v>
       </c>
       <c r="D140" t="n">
-        <v>0.825388</v>
+        <v>0.815334</v>
       </c>
       <c r="E140" t="n">
-        <v>0.770919</v>
+        <v>0.787251</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6540,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.911057</v>
+        <v>0.931905</v>
       </c>
       <c r="C141" t="n">
-        <v>0.7480290000000001</v>
+        <v>0.831174</v>
       </c>
       <c r="D141" t="n">
-        <v>0.820215</v>
+        <v>0.82863</v>
       </c>
       <c r="E141" t="n">
-        <v>0.77174</v>
+        <v>0.760346</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6557,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.911652</v>
+        <v>0.922885</v>
       </c>
       <c r="C142" t="n">
-        <v>0.7560750000000001</v>
+        <v>0.833614</v>
       </c>
       <c r="D142" t="n">
-        <v>0.82416</v>
+        <v>0.835715</v>
       </c>
       <c r="E142" t="n">
-        <v>0.771494</v>
+        <v>0.774073</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6574,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.909509</v>
+        <v>0.899755</v>
       </c>
       <c r="C143" t="n">
-        <v>0.7775609999999999</v>
+        <v>0.8285709999999999</v>
       </c>
       <c r="D143" t="n">
-        <v>0.827759</v>
+        <v>0.838197</v>
       </c>
       <c r="E143" t="n">
-        <v>0.782672</v>
+        <v>0.773082</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -4177,16 +4177,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0660787</v>
+        <v>0.06943290000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.103189</v>
+        <v>0.100592</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0554806</v>
+        <v>0.0578407</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0629492</v>
+        <v>0.065086</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4194,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0688525</v>
+        <v>0.0682164</v>
       </c>
       <c r="C3" t="n">
-        <v>0.103782</v>
+        <v>0.103115</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05521</v>
+        <v>0.0586855</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0612436</v>
+        <v>0.0644974</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4211,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0671586</v>
+        <v>0.0672603</v>
       </c>
       <c r="C4" t="n">
-        <v>0.10627</v>
+        <v>0.105902</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0542924</v>
+        <v>0.0574414</v>
       </c>
       <c r="E4" t="n">
-        <v>0.06409860000000001</v>
+        <v>0.0641309</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4228,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0645381</v>
+        <v>0.0656457</v>
       </c>
       <c r="C5" t="n">
-        <v>0.108823</v>
+        <v>0.108924</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0554304</v>
+        <v>0.0570009</v>
       </c>
       <c r="E5" t="n">
-        <v>0.06309480000000001</v>
+        <v>0.0646786</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4245,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0681636</v>
+        <v>0.0673262</v>
       </c>
       <c r="C6" t="n">
-        <v>0.118312</v>
+        <v>0.114806</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0586848</v>
+        <v>0.0580607</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0653985</v>
+        <v>0.07236579999999999</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4262,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06776359999999999</v>
+        <v>0.0683449</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0873994</v>
+        <v>0.08789859999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0596199</v>
+        <v>0.0596725</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0655191</v>
+        <v>0.06666619999999999</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4279,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0739771</v>
+        <v>0.0682001</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0940727</v>
+        <v>0.0883685</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0652084</v>
+        <v>0.0653692</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0694713</v>
+        <v>0.06930459999999999</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4296,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0698637</v>
+        <v>0.0706415</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0955814</v>
+        <v>0.09061760000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0607647</v>
+        <v>0.058014</v>
       </c>
       <c r="E9" t="n">
-        <v>0.07073169999999999</v>
+        <v>0.0692989</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4313,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0765279</v>
+        <v>0.07483919999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09726120000000001</v>
+        <v>0.0932721</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0598097</v>
+        <v>0.0579758</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0704834</v>
+        <v>0.0716041</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4330,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.07593080000000001</v>
+        <v>0.0768575</v>
       </c>
       <c r="C11" t="n">
-        <v>0.100852</v>
+        <v>0.09583940000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0600174</v>
+        <v>0.0577811</v>
       </c>
       <c r="E11" t="n">
-        <v>0.06960230000000001</v>
+        <v>0.06713139999999999</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4347,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.07619570000000001</v>
+        <v>0.072794</v>
       </c>
       <c r="C12" t="n">
-        <v>0.104615</v>
+        <v>0.0953138</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0604714</v>
+        <v>0.0563651</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0686127</v>
+        <v>0.068075</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4364,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0748914</v>
+        <v>0.07618900000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>0.104634</v>
+        <v>0.0981485</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0576789</v>
+        <v>0.0575341</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0670453</v>
+        <v>0.06735090000000001</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4381,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0771805</v>
+        <v>0.0726359</v>
       </c>
       <c r="C14" t="n">
-        <v>0.11294</v>
+        <v>0.101011</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0598933</v>
+        <v>0.0578423</v>
       </c>
       <c r="E14" t="n">
-        <v>0.07021769999999999</v>
+        <v>0.0703939</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4398,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.07521079999999999</v>
+        <v>0.0856943</v>
       </c>
       <c r="C15" t="n">
-        <v>0.111327</v>
+        <v>0.109585</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0595861</v>
+        <v>0.06613479999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>0.07009070000000001</v>
+        <v>0.0719042</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4415,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0745532</v>
+        <v>0.0763088</v>
       </c>
       <c r="C16" t="n">
-        <v>0.11427</v>
+        <v>0.119968</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0600693</v>
+        <v>0.0644629</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0691104</v>
+        <v>0.0726247</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4432,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0734293</v>
+        <v>0.0753125</v>
       </c>
       <c r="C17" t="n">
-        <v>0.114355</v>
+        <v>0.113454</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0589691</v>
+        <v>0.0599957</v>
       </c>
       <c r="E17" t="n">
-        <v>0.06976930000000001</v>
+        <v>0.069908</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4449,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0729638</v>
+        <v>0.073462</v>
       </c>
       <c r="C18" t="n">
-        <v>0.116872</v>
+        <v>0.112925</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0589243</v>
+        <v>0.0587629</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0683539</v>
+        <v>0.06906900000000001</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4466,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0786458</v>
+        <v>0.0734916</v>
       </c>
       <c r="C19" t="n">
-        <v>0.123547</v>
+        <v>0.116666</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0597458</v>
+        <v>0.059667</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0692338</v>
+        <v>0.0681865</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4483,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0754643</v>
+        <v>0.0737478</v>
       </c>
       <c r="C20" t="n">
-        <v>0.128515</v>
+        <v>0.117971</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0622297</v>
+        <v>0.061117</v>
       </c>
       <c r="E20" t="n">
-        <v>0.071115</v>
+        <v>0.06959029999999999</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4500,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0738169</v>
+        <v>0.0754388</v>
       </c>
       <c r="C21" t="n">
-        <v>0.09228210000000001</v>
+        <v>0.08920359999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.06377289999999999</v>
+        <v>0.0637329</v>
       </c>
       <c r="E21" t="n">
-        <v>0.07168430000000001</v>
+        <v>0.0746913</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4517,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0745377</v>
+        <v>0.0759566</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0945696</v>
+        <v>0.0917453</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0684955</v>
+        <v>0.06815980000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>0.076088</v>
+        <v>0.0764341</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4534,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0764801</v>
+        <v>0.0796061</v>
       </c>
       <c r="C23" t="n">
-        <v>0.09714639999999999</v>
+        <v>0.09896439999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0621502</v>
+        <v>0.0615539</v>
       </c>
       <c r="E23" t="n">
-        <v>0.07296809999999999</v>
+        <v>0.0717034</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4551,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0785507</v>
+        <v>0.07850020000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>0.099707</v>
+        <v>0.096373</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0617064</v>
+        <v>0.0610745</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0730069</v>
+        <v>0.0736725</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4568,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0782537</v>
+        <v>0.08035440000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>0.102953</v>
+        <v>0.0988407</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0632354</v>
+        <v>0.0622535</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0733109</v>
+        <v>0.0726632</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4585,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0780063</v>
+        <v>0.0782326</v>
       </c>
       <c r="C26" t="n">
-        <v>0.104667</v>
+        <v>0.10158</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0619606</v>
+        <v>0.0616143</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0736887</v>
+        <v>0.0756848</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4602,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.07903399999999999</v>
+        <v>0.07796790000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>0.108714</v>
+        <v>0.106064</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0627659</v>
+        <v>0.0656326</v>
       </c>
       <c r="E27" t="n">
-        <v>0.07451969999999999</v>
+        <v>0.0752621</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4619,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.07884819999999999</v>
+        <v>0.0777158</v>
       </c>
       <c r="C28" t="n">
-        <v>0.114467</v>
+        <v>0.108354</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0621932</v>
+        <v>0.06305330000000001</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0783322</v>
+        <v>0.079445</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4636,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0788186</v>
+        <v>0.0780334</v>
       </c>
       <c r="C29" t="n">
-        <v>0.11652</v>
+        <v>0.110385</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0640912</v>
+        <v>0.0629012</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0758783</v>
+        <v>0.0758568</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4653,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.07966570000000001</v>
+        <v>0.0795486</v>
       </c>
       <c r="C30" t="n">
-        <v>0.120145</v>
+        <v>0.117911</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0634444</v>
+        <v>0.06488869999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0764966</v>
+        <v>0.0772774</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4670,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0795348</v>
+        <v>0.07990170000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>0.123987</v>
+        <v>0.119478</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0639549</v>
+        <v>0.0635558</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0772379</v>
+        <v>0.0755605</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4687,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.07957549999999999</v>
+        <v>0.07880429999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>0.126832</v>
+        <v>0.125279</v>
       </c>
       <c r="D32" t="n">
-        <v>0.06460390000000001</v>
+        <v>0.0643975</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0776367</v>
+        <v>0.08033179999999999</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4704,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0797486</v>
+        <v>0.0809337</v>
       </c>
       <c r="C33" t="n">
-        <v>0.132114</v>
+        <v>0.129484</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0658055</v>
+        <v>0.0662261</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0788147</v>
+        <v>0.07926030000000001</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4721,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0815785</v>
+        <v>0.08004500000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>0.13575</v>
+        <v>0.133365</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0670429</v>
+        <v>0.0673555</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0804135</v>
+        <v>0.0788037</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4738,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0804523</v>
+        <v>0.07979990000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.108728</v>
+        <v>0.111163</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0694521</v>
+        <v>0.07006469999999999</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0830383</v>
+        <v>0.0835234</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4755,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0832208</v>
+        <v>0.0824251</v>
       </c>
       <c r="C36" t="n">
-        <v>0.113949</v>
+        <v>0.111509</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0736238</v>
+        <v>0.0732134</v>
       </c>
       <c r="E36" t="n">
-        <v>0.08547780000000001</v>
+        <v>0.0858366</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4772,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0844356</v>
+        <v>0.08304830000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>0.116344</v>
+        <v>0.114126</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0691698</v>
+        <v>0.0688141</v>
       </c>
       <c r="E37" t="n">
-        <v>0.08082880000000001</v>
+        <v>0.08023130000000001</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4789,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0968734</v>
+        <v>0.09934809999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>0.122066</v>
+        <v>0.119623</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0687357</v>
+        <v>0.070093</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0813342</v>
+        <v>0.0821458</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4806,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.09717240000000001</v>
+        <v>0.0980979</v>
       </c>
       <c r="C39" t="n">
-        <v>0.126525</v>
+        <v>0.12356</v>
       </c>
       <c r="D39" t="n">
-        <v>0.06863370000000001</v>
+        <v>0.0707805</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0814122</v>
+        <v>0.08069</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4823,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.101428</v>
+        <v>0.0964981</v>
       </c>
       <c r="C40" t="n">
-        <v>0.132198</v>
+        <v>0.127644</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0698782</v>
+        <v>0.0732281</v>
       </c>
       <c r="E40" t="n">
-        <v>0.08374139999999999</v>
+        <v>0.0910754</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4840,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.09739589999999999</v>
+        <v>0.0962494</v>
       </c>
       <c r="C41" t="n">
-        <v>0.139098</v>
+        <v>0.132116</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0701053</v>
+        <v>0.0700375</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0855289</v>
+        <v>0.0843201</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4857,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.097914</v>
+        <v>0.104054</v>
       </c>
       <c r="C42" t="n">
-        <v>0.142103</v>
+        <v>0.139062</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0705433</v>
+        <v>0.07060039999999999</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0851944</v>
+        <v>0.0838909</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4874,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.09717629999999999</v>
+        <v>0.0959597</v>
       </c>
       <c r="C43" t="n">
-        <v>0.146761</v>
+        <v>0.142521</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0710319</v>
+        <v>0.0701445</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0860925</v>
+        <v>0.083199</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +4891,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.097592</v>
+        <v>0.0961601</v>
       </c>
       <c r="C44" t="n">
-        <v>0.153057</v>
+        <v>0.147249</v>
       </c>
       <c r="D44" t="n">
-        <v>0.07131079999999999</v>
+        <v>0.0729151</v>
       </c>
       <c r="E44" t="n">
-        <v>0.08731849999999999</v>
+        <v>0.0856639</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +4908,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0965669</v>
+        <v>0.0969381</v>
       </c>
       <c r="C45" t="n">
-        <v>0.155089</v>
+        <v>0.152176</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0704733</v>
+        <v>0.0713104</v>
       </c>
       <c r="E45" t="n">
-        <v>0.08731319999999999</v>
+        <v>0.0874461</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +4925,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.09726609999999999</v>
+        <v>0.0984862</v>
       </c>
       <c r="C46" t="n">
-        <v>0.161412</v>
+        <v>0.162923</v>
       </c>
       <c r="D46" t="n">
-        <v>0.07249319999999999</v>
+        <v>0.07338210000000001</v>
       </c>
       <c r="E46" t="n">
-        <v>0.08940240000000001</v>
+        <v>0.0946154</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +4942,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.09815939999999999</v>
+        <v>0.0971016</v>
       </c>
       <c r="C47" t="n">
-        <v>0.166565</v>
+        <v>0.16381</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0727715</v>
+        <v>0.0733939</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0905629</v>
+        <v>0.0944743</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +4959,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.100604</v>
+        <v>0.0974749</v>
       </c>
       <c r="C48" t="n">
-        <v>0.176732</v>
+        <v>0.171273</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0752766</v>
+        <v>0.0764189</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0959006</v>
+        <v>0.09306300000000001</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +4976,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.100968</v>
+        <v>0.098316</v>
       </c>
       <c r="C49" t="n">
-        <v>0.181415</v>
+        <v>0.181131</v>
       </c>
       <c r="D49" t="n">
-        <v>0.07779510000000001</v>
+        <v>0.0802828</v>
       </c>
       <c r="E49" t="n">
-        <v>0.09876799999999999</v>
+        <v>0.100446</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +4993,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.101509</v>
+        <v>0.0996266</v>
       </c>
       <c r="C50" t="n">
-        <v>0.170444</v>
+        <v>0.169657</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0805143</v>
+        <v>0.08005429999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>0.100532</v>
+        <v>0.102271</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5010,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.103003</v>
+        <v>0.103196</v>
       </c>
       <c r="C51" t="n">
-        <v>0.174272</v>
+        <v>0.17082</v>
       </c>
       <c r="D51" t="n">
-        <v>0.156924</v>
+        <v>0.158733</v>
       </c>
       <c r="E51" t="n">
-        <v>0.123123</v>
+        <v>0.133199</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5027,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.104544</v>
+        <v>0.10564</v>
       </c>
       <c r="C52" t="n">
-        <v>0.183108</v>
+        <v>0.182859</v>
       </c>
       <c r="D52" t="n">
-        <v>0.16252</v>
+        <v>0.167864</v>
       </c>
       <c r="E52" t="n">
-        <v>0.127147</v>
+        <v>0.124037</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5044,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.173947</v>
+        <v>0.185064</v>
       </c>
       <c r="C53" t="n">
-        <v>0.186415</v>
+        <v>0.19048</v>
       </c>
       <c r="D53" t="n">
-        <v>0.157698</v>
+        <v>0.156326</v>
       </c>
       <c r="E53" t="n">
-        <v>0.126594</v>
+        <v>0.138568</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5061,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.171713</v>
+        <v>0.182342</v>
       </c>
       <c r="C54" t="n">
-        <v>0.203584</v>
+        <v>0.197156</v>
       </c>
       <c r="D54" t="n">
-        <v>0.158965</v>
+        <v>0.161957</v>
       </c>
       <c r="E54" t="n">
-        <v>0.129169</v>
+        <v>0.146495</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5078,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.176327</v>
+        <v>0.173651</v>
       </c>
       <c r="C55" t="n">
-        <v>0.200334</v>
+        <v>0.204218</v>
       </c>
       <c r="D55" t="n">
-        <v>0.157523</v>
+        <v>0.157212</v>
       </c>
       <c r="E55" t="n">
-        <v>0.133282</v>
+        <v>0.152256</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5095,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.174089</v>
+        <v>0.177832</v>
       </c>
       <c r="C56" t="n">
-        <v>0.20752</v>
+        <v>0.218064</v>
       </c>
       <c r="D56" t="n">
-        <v>0.157898</v>
+        <v>0.166707</v>
       </c>
       <c r="E56" t="n">
-        <v>0.135977</v>
+        <v>0.154526</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5112,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.175604</v>
+        <v>0.173731</v>
       </c>
       <c r="C57" t="n">
-        <v>0.215308</v>
+        <v>0.21614</v>
       </c>
       <c r="D57" t="n">
-        <v>0.157921</v>
+        <v>0.158003</v>
       </c>
       <c r="E57" t="n">
-        <v>0.140541</v>
+        <v>0.162133</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5129,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.17611</v>
+        <v>0.179457</v>
       </c>
       <c r="C58" t="n">
-        <v>0.223818</v>
+        <v>0.220725</v>
       </c>
       <c r="D58" t="n">
-        <v>0.161153</v>
+        <v>0.158699</v>
       </c>
       <c r="E58" t="n">
-        <v>0.144988</v>
+        <v>0.144414</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5146,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.177394</v>
+        <v>0.175165</v>
       </c>
       <c r="C59" t="n">
-        <v>0.231507</v>
+        <v>0.234033</v>
       </c>
       <c r="D59" t="n">
-        <v>0.159854</v>
+        <v>0.16269</v>
       </c>
       <c r="E59" t="n">
-        <v>0.146118</v>
+        <v>0.150422</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5163,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.175133</v>
+        <v>0.182373</v>
       </c>
       <c r="C60" t="n">
-        <v>0.24377</v>
+        <v>0.242571</v>
       </c>
       <c r="D60" t="n">
-        <v>0.162116</v>
+        <v>0.160948</v>
       </c>
       <c r="E60" t="n">
-        <v>0.153684</v>
+        <v>0.156918</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5180,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.178278</v>
+        <v>0.184826</v>
       </c>
       <c r="C61" t="n">
-        <v>0.253506</v>
+        <v>0.249801</v>
       </c>
       <c r="D61" t="n">
-        <v>0.163912</v>
+        <v>0.161543</v>
       </c>
       <c r="E61" t="n">
-        <v>0.156313</v>
+        <v>0.15978</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5197,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.175574</v>
+        <v>0.17956</v>
       </c>
       <c r="C62" t="n">
-        <v>0.266043</v>
+        <v>0.259035</v>
       </c>
       <c r="D62" t="n">
-        <v>0.165976</v>
+        <v>0.170205</v>
       </c>
       <c r="E62" t="n">
-        <v>0.161328</v>
+        <v>0.167718</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5214,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.188034</v>
+        <v>0.183476</v>
       </c>
       <c r="C63" t="n">
-        <v>0.271053</v>
+        <v>0.279793</v>
       </c>
       <c r="D63" t="n">
-        <v>0.164218</v>
+        <v>0.165237</v>
       </c>
       <c r="E63" t="n">
-        <v>0.164598</v>
+        <v>0.167325</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5231,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.176827</v>
+        <v>0.183212</v>
       </c>
       <c r="C64" t="n">
-        <v>0.269092</v>
+        <v>0.275558</v>
       </c>
       <c r="D64" t="n">
-        <v>0.165228</v>
+        <v>0.185064</v>
       </c>
       <c r="E64" t="n">
-        <v>0.169277</v>
+        <v>0.199093</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5248,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.181347</v>
+        <v>0.201227</v>
       </c>
       <c r="C65" t="n">
-        <v>0.278375</v>
+        <v>0.314023</v>
       </c>
       <c r="D65" t="n">
-        <v>0.1706</v>
+        <v>0.212502</v>
       </c>
       <c r="E65" t="n">
-        <v>0.177731</v>
+        <v>0.203177</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5265,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.180692</v>
+        <v>0.222964</v>
       </c>
       <c r="C66" t="n">
-        <v>0.282694</v>
+        <v>0.300655</v>
       </c>
       <c r="D66" t="n">
-        <v>0.24047</v>
+        <v>0.255556</v>
       </c>
       <c r="E66" t="n">
-        <v>0.254768</v>
+        <v>0.276581</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5282,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.264501</v>
+        <v>0.286322</v>
       </c>
       <c r="C67" t="n">
-        <v>0.297799</v>
+        <v>0.311526</v>
       </c>
       <c r="D67" t="n">
-        <v>0.239437</v>
+        <v>0.260275</v>
       </c>
       <c r="E67" t="n">
-        <v>0.253391</v>
+        <v>0.289823</v>
       </c>
     </row>
     <row r="68">
@@ -5299,16 +5299,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.264928</v>
+        <v>0.304504</v>
       </c>
       <c r="C68" t="n">
-        <v>0.301942</v>
+        <v>0.389229</v>
       </c>
       <c r="D68" t="n">
-        <v>0.245073</v>
+        <v>0.285866</v>
       </c>
       <c r="E68" t="n">
-        <v>0.257894</v>
+        <v>0.270518</v>
       </c>
     </row>
     <row r="69">
@@ -5316,16 +5316,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.278238</v>
+        <v>0.29785</v>
       </c>
       <c r="C69" t="n">
-        <v>0.319629</v>
+        <v>0.314496</v>
       </c>
       <c r="D69" t="n">
-        <v>0.251579</v>
+        <v>0.250551</v>
       </c>
       <c r="E69" t="n">
-        <v>0.265098</v>
+        <v>0.272484</v>
       </c>
     </row>
     <row r="70">
@@ -5333,16 +5333,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.273196</v>
+        <v>0.283856</v>
       </c>
       <c r="C70" t="n">
-        <v>0.324627</v>
+        <v>0.319129</v>
       </c>
       <c r="D70" t="n">
-        <v>0.253359</v>
+        <v>0.250896</v>
       </c>
       <c r="E70" t="n">
-        <v>0.260822</v>
+        <v>0.260698</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5350,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.272369</v>
+        <v>0.267747</v>
       </c>
       <c r="C71" t="n">
-        <v>0.332986</v>
+        <v>0.327254</v>
       </c>
       <c r="D71" t="n">
-        <v>0.248569</v>
+        <v>0.264498</v>
       </c>
       <c r="E71" t="n">
-        <v>0.261731</v>
+        <v>0.261713</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5367,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.272774</v>
+        <v>0.273144</v>
       </c>
       <c r="C72" t="n">
-        <v>0.339014</v>
+        <v>0.340279</v>
       </c>
       <c r="D72" t="n">
-        <v>0.248983</v>
+        <v>0.26496</v>
       </c>
       <c r="E72" t="n">
-        <v>0.260565</v>
+        <v>0.263517</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5384,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.267062</v>
+        <v>0.274018</v>
       </c>
       <c r="C73" t="n">
-        <v>0.347138</v>
+        <v>0.347155</v>
       </c>
       <c r="D73" t="n">
-        <v>0.252441</v>
+        <v>0.258054</v>
       </c>
       <c r="E73" t="n">
-        <v>0.265099</v>
+        <v>0.267107</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5401,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.269842</v>
+        <v>0.271021</v>
       </c>
       <c r="C74" t="n">
-        <v>0.356291</v>
+        <v>0.355563</v>
       </c>
       <c r="D74" t="n">
-        <v>0.251789</v>
+        <v>0.254174</v>
       </c>
       <c r="E74" t="n">
-        <v>0.264077</v>
+        <v>0.269099</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5418,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.272371</v>
+        <v>0.281197</v>
       </c>
       <c r="C75" t="n">
-        <v>0.367046</v>
+        <v>0.381662</v>
       </c>
       <c r="D75" t="n">
-        <v>0.25513</v>
+        <v>0.25765</v>
       </c>
       <c r="E75" t="n">
-        <v>0.267208</v>
+        <v>0.27066</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5435,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.274429</v>
+        <v>0.272836</v>
       </c>
       <c r="C76" t="n">
-        <v>0.381035</v>
+        <v>0.382113</v>
       </c>
       <c r="D76" t="n">
-        <v>0.259796</v>
+        <v>0.259466</v>
       </c>
       <c r="E76" t="n">
-        <v>0.27241</v>
+        <v>0.270441</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5452,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.275825</v>
+        <v>0.276251</v>
       </c>
       <c r="C77" t="n">
-        <v>0.400627</v>
+        <v>0.407855</v>
       </c>
       <c r="D77" t="n">
-        <v>0.270885</v>
+        <v>0.259094</v>
       </c>
       <c r="E77" t="n">
-        <v>0.276128</v>
+        <v>0.273253</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5469,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.28987</v>
+        <v>0.290531</v>
       </c>
       <c r="C78" t="n">
-        <v>0.361973</v>
+        <v>0.389242</v>
       </c>
       <c r="D78" t="n">
-        <v>0.260719</v>
+        <v>0.263436</v>
       </c>
       <c r="E78" t="n">
-        <v>0.277646</v>
+        <v>0.278792</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5486,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.280781</v>
+        <v>0.283738</v>
       </c>
       <c r="C79" t="n">
-        <v>0.366795</v>
+        <v>0.39911</v>
       </c>
       <c r="D79" t="n">
-        <v>0.265905</v>
+        <v>0.267043</v>
       </c>
       <c r="E79" t="n">
-        <v>0.287172</v>
+        <v>0.283406</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5503,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.284641</v>
+        <v>0.29016</v>
       </c>
       <c r="C80" t="n">
-        <v>0.37834</v>
+        <v>0.375588</v>
       </c>
       <c r="D80" t="n">
-        <v>0.347913</v>
+        <v>0.345916</v>
       </c>
       <c r="E80" t="n">
-        <v>0.394435</v>
+        <v>0.391744</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5520,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.36633</v>
+        <v>0.392867</v>
       </c>
       <c r="C81" t="n">
-        <v>0.383653</v>
+        <v>0.38653</v>
       </c>
       <c r="D81" t="n">
-        <v>0.344906</v>
+        <v>0.346054</v>
       </c>
       <c r="E81" t="n">
-        <v>0.409954</v>
+        <v>0.392867</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5537,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.362133</v>
+        <v>0.370433</v>
       </c>
       <c r="C82" t="n">
-        <v>0.394687</v>
+        <v>0.393967</v>
       </c>
       <c r="D82" t="n">
-        <v>0.346689</v>
+        <v>0.353966</v>
       </c>
       <c r="E82" t="n">
-        <v>0.39542</v>
+        <v>0.406445</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5554,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.362263</v>
+        <v>0.40306</v>
       </c>
       <c r="C83" t="n">
-        <v>0.401373</v>
+        <v>0.404029</v>
       </c>
       <c r="D83" t="n">
-        <v>0.346979</v>
+        <v>0.349689</v>
       </c>
       <c r="E83" t="n">
-        <v>0.399051</v>
+        <v>0.400314</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5571,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.364052</v>
+        <v>0.364259</v>
       </c>
       <c r="C84" t="n">
-        <v>0.417393</v>
+        <v>0.40999</v>
       </c>
       <c r="D84" t="n">
-        <v>0.347339</v>
+        <v>0.359435</v>
       </c>
       <c r="E84" t="n">
-        <v>0.403003</v>
+        <v>0.410308</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5588,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.365287</v>
+        <v>0.374322</v>
       </c>
       <c r="C85" t="n">
-        <v>0.425486</v>
+        <v>0.416733</v>
       </c>
       <c r="D85" t="n">
-        <v>0.352089</v>
+        <v>0.355335</v>
       </c>
       <c r="E85" t="n">
-        <v>0.408038</v>
+        <v>0.400267</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5605,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.369703</v>
+        <v>0.364192</v>
       </c>
       <c r="C86" t="n">
-        <v>0.435833</v>
+        <v>0.427941</v>
       </c>
       <c r="D86" t="n">
-        <v>0.352898</v>
+        <v>0.355187</v>
       </c>
       <c r="E86" t="n">
-        <v>0.405498</v>
+        <v>0.415057</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5622,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.369757</v>
+        <v>0.365779</v>
       </c>
       <c r="C87" t="n">
-        <v>0.459912</v>
+        <v>0.440252</v>
       </c>
       <c r="D87" t="n">
-        <v>0.350845</v>
+        <v>0.354585</v>
       </c>
       <c r="E87" t="n">
-        <v>0.406102</v>
+        <v>0.403315</v>
       </c>
     </row>
     <row r="88">
@@ -5639,16 +5639,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.367436</v>
+        <v>0.378874</v>
       </c>
       <c r="C88" t="n">
-        <v>0.451975</v>
+        <v>0.44864</v>
       </c>
       <c r="D88" t="n">
-        <v>0.349862</v>
+        <v>0.375509</v>
       </c>
       <c r="E88" t="n">
-        <v>0.407718</v>
+        <v>0.456845</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5656,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.366244</v>
+        <v>0.367623</v>
       </c>
       <c r="C89" t="n">
-        <v>0.460173</v>
+        <v>0.462308</v>
       </c>
       <c r="D89" t="n">
-        <v>0.353397</v>
+        <v>0.361595</v>
       </c>
       <c r="E89" t="n">
-        <v>0.414688</v>
+        <v>0.433238</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5673,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.381726</v>
+        <v>0.372049</v>
       </c>
       <c r="C90" t="n">
-        <v>0.508318</v>
+        <v>0.476614</v>
       </c>
       <c r="D90" t="n">
-        <v>0.359769</v>
+        <v>0.35791</v>
       </c>
       <c r="E90" t="n">
-        <v>0.417404</v>
+        <v>0.413577</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5690,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.374425</v>
+        <v>0.375852</v>
       </c>
       <c r="C91" t="n">
-        <v>0.489935</v>
+        <v>0.484716</v>
       </c>
       <c r="D91" t="n">
-        <v>0.358538</v>
+        <v>0.362728</v>
       </c>
       <c r="E91" t="n">
-        <v>0.418775</v>
+        <v>0.429831</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5707,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.372545</v>
+        <v>0.395775</v>
       </c>
       <c r="C92" t="n">
-        <v>0.431033</v>
+        <v>0.425385</v>
       </c>
       <c r="D92" t="n">
-        <v>0.357425</v>
+        <v>0.362862</v>
       </c>
       <c r="E92" t="n">
-        <v>0.420311</v>
+        <v>0.423768</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5724,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.375208</v>
+        <v>0.377244</v>
       </c>
       <c r="C93" t="n">
-        <v>0.459194</v>
+        <v>0.431195</v>
       </c>
       <c r="D93" t="n">
-        <v>0.37447</v>
+        <v>0.371235</v>
       </c>
       <c r="E93" t="n">
-        <v>0.445065</v>
+        <v>0.432855</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +5741,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.380443</v>
+        <v>0.388061</v>
       </c>
       <c r="C94" t="n">
-        <v>0.460798</v>
+        <v>0.440493</v>
       </c>
       <c r="D94" t="n">
-        <v>0.439817</v>
+        <v>0.44375</v>
       </c>
       <c r="E94" t="n">
-        <v>0.500401</v>
+        <v>0.511437</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +5758,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.442606</v>
+        <v>0.450958</v>
       </c>
       <c r="C95" t="n">
-        <v>0.45492</v>
+        <v>0.450788</v>
       </c>
       <c r="D95" t="n">
-        <v>0.448117</v>
+        <v>0.455796</v>
       </c>
       <c r="E95" t="n">
-        <v>0.507633</v>
+        <v>0.519748</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +5775,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.447964</v>
+        <v>0.447658</v>
       </c>
       <c r="C96" t="n">
-        <v>0.466116</v>
+        <v>0.485515</v>
       </c>
       <c r="D96" t="n">
-        <v>0.45166</v>
+        <v>0.456479</v>
       </c>
       <c r="E96" t="n">
-        <v>0.507954</v>
+        <v>0.505311</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +5792,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.445463</v>
+        <v>0.449938</v>
       </c>
       <c r="C97" t="n">
-        <v>0.481466</v>
+        <v>0.462294</v>
       </c>
       <c r="D97" t="n">
-        <v>0.4539</v>
+        <v>0.447287</v>
       </c>
       <c r="E97" t="n">
-        <v>0.519433</v>
+        <v>0.512282</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +5809,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.451338</v>
+        <v>0.47131</v>
       </c>
       <c r="C98" t="n">
-        <v>0.478229</v>
+        <v>0.487961</v>
       </c>
       <c r="D98" t="n">
-        <v>0.445168</v>
+        <v>0.44164</v>
       </c>
       <c r="E98" t="n">
-        <v>0.513738</v>
+        <v>0.514451</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +5826,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.445462</v>
+        <v>0.444954</v>
       </c>
       <c r="C99" t="n">
-        <v>0.485791</v>
+        <v>0.496074</v>
       </c>
       <c r="D99" t="n">
-        <v>0.449282</v>
+        <v>0.472409</v>
       </c>
       <c r="E99" t="n">
-        <v>0.514701</v>
+        <v>0.540193</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +5843,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.450426</v>
+        <v>0.469109</v>
       </c>
       <c r="C100" t="n">
-        <v>0.503848</v>
+        <v>0.506202</v>
       </c>
       <c r="D100" t="n">
-        <v>0.443654</v>
+        <v>0.450704</v>
       </c>
       <c r="E100" t="n">
-        <v>0.518873</v>
+        <v>0.520333</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +5860,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.448742</v>
+        <v>0.476503</v>
       </c>
       <c r="C101" t="n">
-        <v>0.509876</v>
+        <v>0.522277</v>
       </c>
       <c r="D101" t="n">
-        <v>0.447453</v>
+        <v>0.484417</v>
       </c>
       <c r="E101" t="n">
-        <v>0.528694</v>
+        <v>0.548849</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +5877,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.465665</v>
+        <v>0.466891</v>
       </c>
       <c r="C102" t="n">
-        <v>0.544586</v>
+        <v>0.527107</v>
       </c>
       <c r="D102" t="n">
-        <v>0.461654</v>
+        <v>0.455092</v>
       </c>
       <c r="E102" t="n">
-        <v>0.525709</v>
+        <v>0.529056</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +5894,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.453619</v>
+        <v>0.477395</v>
       </c>
       <c r="C103" t="n">
-        <v>0.546932</v>
+        <v>0.56123</v>
       </c>
       <c r="D103" t="n">
-        <v>0.45782</v>
+        <v>0.452703</v>
       </c>
       <c r="E103" t="n">
-        <v>0.524046</v>
+        <v>0.521084</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +5911,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.465857</v>
+        <v>0.458632</v>
       </c>
       <c r="C104" t="n">
-        <v>0.548293</v>
+        <v>0.548296</v>
       </c>
       <c r="D104" t="n">
-        <v>0.486832</v>
+        <v>0.456319</v>
       </c>
       <c r="E104" t="n">
-        <v>0.528091</v>
+        <v>0.528271</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +5928,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.462358</v>
+        <v>0.458252</v>
       </c>
       <c r="C105" t="n">
-        <v>0.562634</v>
+        <v>0.56191</v>
       </c>
       <c r="D105" t="n">
-        <v>0.453689</v>
+        <v>0.46127</v>
       </c>
       <c r="E105" t="n">
-        <v>0.530581</v>
+        <v>0.5339739999999999</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +5945,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.452192</v>
+        <v>0.44981</v>
       </c>
       <c r="C106" t="n">
-        <v>0.572848</v>
+        <v>0.588993</v>
       </c>
       <c r="D106" t="n">
-        <v>0.452116</v>
+        <v>0.464925</v>
       </c>
       <c r="E106" t="n">
-        <v>0.5369390000000001</v>
+        <v>0.548157</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +5962,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.449166</v>
+        <v>0.456212</v>
       </c>
       <c r="C107" t="n">
-        <v>0.489174</v>
+        <v>0.517813</v>
       </c>
       <c r="D107" t="n">
-        <v>0.457052</v>
+        <v>0.470266</v>
       </c>
       <c r="E107" t="n">
-        <v>0.545876</v>
+        <v>0.554268</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +5979,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.458427</v>
+        <v>0.458713</v>
       </c>
       <c r="C108" t="n">
-        <v>0.500613</v>
+        <v>0.514157</v>
       </c>
       <c r="D108" t="n">
-        <v>0.526629</v>
+        <v>0.52634</v>
       </c>
       <c r="E108" t="n">
-        <v>0.581846</v>
+        <v>0.583874</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +5996,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.468022</v>
+        <v>0.465083</v>
       </c>
       <c r="C109" t="n">
-        <v>0.511078</v>
+        <v>0.512611</v>
       </c>
       <c r="D109" t="n">
-        <v>0.524644</v>
+        <v>0.547109</v>
       </c>
       <c r="E109" t="n">
-        <v>0.58566</v>
+        <v>0.603465</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6013,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.553333</v>
+        <v>0.586707</v>
       </c>
       <c r="C110" t="n">
-        <v>0.52276</v>
+        <v>0.52012</v>
       </c>
       <c r="D110" t="n">
-        <v>0.5192639999999999</v>
+        <v>0.531426</v>
       </c>
       <c r="E110" t="n">
-        <v>0.585037</v>
+        <v>0.592656</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6030,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.542831</v>
+        <v>0.548779</v>
       </c>
       <c r="C111" t="n">
-        <v>0.527268</v>
+        <v>0.598097</v>
       </c>
       <c r="D111" t="n">
-        <v>0.52021</v>
+        <v>0.543597</v>
       </c>
       <c r="E111" t="n">
-        <v>0.585526</v>
+        <v>0.603967</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6047,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.544231</v>
+        <v>0.5527260000000001</v>
       </c>
       <c r="C112" t="n">
-        <v>0.545498</v>
+        <v>0.574241</v>
       </c>
       <c r="D112" t="n">
-        <v>0.525536</v>
+        <v>0.569311</v>
       </c>
       <c r="E112" t="n">
-        <v>0.5905629999999999</v>
+        <v>0.586389</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6064,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.561188</v>
+        <v>0.545664</v>
       </c>
       <c r="C113" t="n">
-        <v>0.560265</v>
+        <v>0.583363</v>
       </c>
       <c r="D113" t="n">
-        <v>0.533964</v>
+        <v>0.525873</v>
       </c>
       <c r="E113" t="n">
-        <v>0.607001</v>
+        <v>0.605816</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6081,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.545106</v>
+        <v>0.542262</v>
       </c>
       <c r="C114" t="n">
-        <v>0.584884</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="D114" t="n">
-        <v>0.522706</v>
+        <v>0.526662</v>
       </c>
       <c r="E114" t="n">
-        <v>0.596754</v>
+        <v>0.595232</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6098,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.577303</v>
+        <v>0.543309</v>
       </c>
       <c r="C115" t="n">
-        <v>0.580327</v>
+        <v>0.618523</v>
       </c>
       <c r="D115" t="n">
-        <v>0.527538</v>
+        <v>0.542631</v>
       </c>
       <c r="E115" t="n">
-        <v>0.603522</v>
+        <v>0.615801</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6115,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.5530890000000001</v>
+        <v>0.547746</v>
       </c>
       <c r="C116" t="n">
-        <v>0.598229</v>
+        <v>0.594052</v>
       </c>
       <c r="D116" t="n">
-        <v>0.540307</v>
+        <v>0.540212</v>
       </c>
       <c r="E116" t="n">
-        <v>0.598769</v>
+        <v>0.602031</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6132,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.548713</v>
+        <v>0.561769</v>
       </c>
       <c r="C117" t="n">
-        <v>0.609839</v>
+        <v>0.606467</v>
       </c>
       <c r="D117" t="n">
-        <v>0.537268</v>
+        <v>0.531872</v>
       </c>
       <c r="E117" t="n">
-        <v>0.608054</v>
+        <v>0.610967</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6149,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.5523439999999999</v>
+        <v>0.549602</v>
       </c>
       <c r="C118" t="n">
-        <v>0.618474</v>
+        <v>0.624149</v>
       </c>
       <c r="D118" t="n">
-        <v>0.531678</v>
+        <v>0.543274</v>
       </c>
       <c r="E118" t="n">
-        <v>0.612694</v>
+        <v>0.632447</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6166,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.558701</v>
+        <v>0.551823</v>
       </c>
       <c r="C119" t="n">
-        <v>0.626455</v>
+        <v>0.665151</v>
       </c>
       <c r="D119" t="n">
-        <v>0.531455</v>
+        <v>0.5283600000000001</v>
       </c>
       <c r="E119" t="n">
-        <v>0.611867</v>
+        <v>0.6902779999999999</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6183,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.554449</v>
+        <v>0.553211</v>
       </c>
       <c r="C120" t="n">
-        <v>0.64494</v>
+        <v>0.683548</v>
       </c>
       <c r="D120" t="n">
-        <v>0.546502</v>
+        <v>0.543712</v>
       </c>
       <c r="E120" t="n">
-        <v>0.643904</v>
+        <v>0.629957</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6200,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.568983</v>
+        <v>0.562254</v>
       </c>
       <c r="C121" t="n">
-        <v>0.560928</v>
+        <v>0.602051</v>
       </c>
       <c r="D121" t="n">
-        <v>0.538355</v>
+        <v>0.547064</v>
       </c>
       <c r="E121" t="n">
-        <v>0.62432</v>
+        <v>0.635128</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6217,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.556868</v>
+        <v>0.557154</v>
       </c>
       <c r="C122" t="n">
-        <v>0.577457</v>
+        <v>0.589438</v>
       </c>
       <c r="D122" t="n">
-        <v>0.554724</v>
+        <v>0.553878</v>
       </c>
       <c r="E122" t="n">
-        <v>0.635178</v>
+        <v>0.658151</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6234,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.566757</v>
+        <v>0.566317</v>
       </c>
       <c r="C123" t="n">
-        <v>0.585943</v>
+        <v>0.5898949999999999</v>
       </c>
       <c r="D123" t="n">
-        <v>0.644899</v>
+        <v>0.645254</v>
       </c>
       <c r="E123" t="n">
-        <v>0.6538</v>
+        <v>0.711174</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6251,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.7134470000000001</v>
+        <v>0.825789</v>
       </c>
       <c r="C124" t="n">
-        <v>0.612789</v>
+        <v>0.616515</v>
       </c>
       <c r="D124" t="n">
-        <v>0.649502</v>
+        <v>0.661293</v>
       </c>
       <c r="E124" t="n">
-        <v>0.662958</v>
+        <v>0.664523</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6268,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.70764</v>
+        <v>0.743277</v>
       </c>
       <c r="C125" t="n">
-        <v>0.621052</v>
+        <v>0.611189</v>
       </c>
       <c r="D125" t="n">
-        <v>0.6602440000000001</v>
+        <v>0.657023</v>
       </c>
       <c r="E125" t="n">
-        <v>0.677905</v>
+        <v>0.707838</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6285,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.706785</v>
+        <v>0.704756</v>
       </c>
       <c r="C126" t="n">
-        <v>0.619517</v>
+        <v>0.649274</v>
       </c>
       <c r="D126" t="n">
-        <v>0.6482830000000001</v>
+        <v>0.664485</v>
       </c>
       <c r="E126" t="n">
-        <v>0.6681049999999999</v>
+        <v>0.675839</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6302,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.717423</v>
+        <v>0.711529</v>
       </c>
       <c r="C127" t="n">
-        <v>0.639612</v>
+        <v>0.632653</v>
       </c>
       <c r="D127" t="n">
-        <v>0.660102</v>
+        <v>0.660609</v>
       </c>
       <c r="E127" t="n">
-        <v>0.6832780000000001</v>
+        <v>0.665631</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6319,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.716004</v>
+        <v>0.748296</v>
       </c>
       <c r="C128" t="n">
-        <v>0.652876</v>
+        <v>0.653394</v>
       </c>
       <c r="D128" t="n">
-        <v>0.654789</v>
+        <v>0.687244</v>
       </c>
       <c r="E128" t="n">
-        <v>0.674831</v>
+        <v>0.6865</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6336,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.789013</v>
+        <v>0.73683</v>
       </c>
       <c r="C129" t="n">
-        <v>0.662853</v>
+        <v>0.673521</v>
       </c>
       <c r="D129" t="n">
-        <v>0.6621</v>
+        <v>0.673872</v>
       </c>
       <c r="E129" t="n">
-        <v>0.688172</v>
+        <v>0.72762</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6353,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.706768</v>
+        <v>0.743243</v>
       </c>
       <c r="C130" t="n">
-        <v>0.675889</v>
+        <v>0.709203</v>
       </c>
       <c r="D130" t="n">
-        <v>0.659694</v>
+        <v>0.692952</v>
       </c>
       <c r="E130" t="n">
-        <v>0.682385</v>
+        <v>0.681459</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6370,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.715766</v>
+        <v>0.811049</v>
       </c>
       <c r="C131" t="n">
-        <v>0.68207</v>
+        <v>0.699726</v>
       </c>
       <c r="D131" t="n">
-        <v>0.654541</v>
+        <v>0.67022</v>
       </c>
       <c r="E131" t="n">
-        <v>0.679774</v>
+        <v>0.683041</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6387,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.708127</v>
+        <v>0.729232</v>
       </c>
       <c r="C132" t="n">
-        <v>0.700819</v>
+        <v>0.751972</v>
       </c>
       <c r="D132" t="n">
-        <v>0.656938</v>
+        <v>0.753838</v>
       </c>
       <c r="E132" t="n">
-        <v>0.6902470000000001</v>
+        <v>0.732954</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6404,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.715427</v>
+        <v>0.73339</v>
       </c>
       <c r="C133" t="n">
-        <v>0.713079</v>
+        <v>0.7319290000000001</v>
       </c>
       <c r="D133" t="n">
-        <v>0.65644</v>
+        <v>0.691499</v>
       </c>
       <c r="E133" t="n">
-        <v>0.7017679999999999</v>
+        <v>0.738935</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6421,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.7136</v>
+        <v>0.847631</v>
       </c>
       <c r="C134" t="n">
-        <v>0.7318440000000001</v>
+        <v>0.792594</v>
       </c>
       <c r="D134" t="n">
-        <v>0.658174</v>
+        <v>0.685901</v>
       </c>
       <c r="E134" t="n">
-        <v>0.7399289999999999</v>
+        <v>0.713066</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6438,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.72363</v>
+        <v>0.740806</v>
       </c>
       <c r="C135" t="n">
-        <v>0.676241</v>
+        <v>0.682138</v>
       </c>
       <c r="D135" t="n">
-        <v>0.685074</v>
+        <v>0.707415</v>
       </c>
       <c r="E135" t="n">
-        <v>0.715467</v>
+        <v>0.741282</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6455,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.723758</v>
+        <v>0.84057</v>
       </c>
       <c r="C136" t="n">
-        <v>0.675813</v>
+        <v>0.6968800000000001</v>
       </c>
       <c r="D136" t="n">
-        <v>0.6865560000000001</v>
+        <v>0.697054</v>
       </c>
       <c r="E136" t="n">
-        <v>0.728872</v>
+        <v>0.78408</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6472,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.727889</v>
+        <v>0.740908</v>
       </c>
       <c r="C137" t="n">
-        <v>0.687858</v>
+        <v>0.717585</v>
       </c>
       <c r="D137" t="n">
-        <v>0.836513</v>
+        <v>0.860419</v>
       </c>
       <c r="E137" t="n">
-        <v>0.779604</v>
+        <v>0.788226</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6489,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.915107</v>
+        <v>0.950125</v>
       </c>
       <c r="C138" t="n">
-        <v>0.6995980000000001</v>
+        <v>0.72</v>
       </c>
       <c r="D138" t="n">
-        <v>0.812202</v>
+        <v>0.83416</v>
       </c>
       <c r="E138" t="n">
-        <v>0.766481</v>
+        <v>0.7738969999999999</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6506,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.901399</v>
+        <v>0.945271</v>
       </c>
       <c r="C139" t="n">
-        <v>0.715041</v>
+        <v>0.746425</v>
       </c>
       <c r="D139" t="n">
-        <v>0.819262</v>
+        <v>0.849658</v>
       </c>
       <c r="E139" t="n">
-        <v>0.75986</v>
+        <v>0.778878</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6523,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.911687</v>
+        <v>0.952751</v>
       </c>
       <c r="C140" t="n">
-        <v>0.724743</v>
+        <v>0.772803</v>
       </c>
       <c r="D140" t="n">
-        <v>0.825388</v>
+        <v>0.865009</v>
       </c>
       <c r="E140" t="n">
-        <v>0.770919</v>
+        <v>0.790224</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6540,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.911057</v>
+        <v>0.955085</v>
       </c>
       <c r="C141" t="n">
-        <v>0.7480290000000001</v>
+        <v>0.771115</v>
       </c>
       <c r="D141" t="n">
-        <v>0.820215</v>
+        <v>0.847897</v>
       </c>
       <c r="E141" t="n">
-        <v>0.77174</v>
+        <v>0.8004019999999999</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6557,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.911652</v>
+        <v>0.9638139999999999</v>
       </c>
       <c r="C142" t="n">
-        <v>0.7560750000000001</v>
+        <v>0.77857</v>
       </c>
       <c r="D142" t="n">
-        <v>0.82416</v>
+        <v>0.854079</v>
       </c>
       <c r="E142" t="n">
-        <v>0.771494</v>
+        <v>0.795997</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6574,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.909509</v>
+        <v>0.94091</v>
       </c>
       <c r="C143" t="n">
-        <v>0.7775609999999999</v>
+        <v>0.796415</v>
       </c>
       <c r="D143" t="n">
-        <v>0.827759</v>
+        <v>0.846514</v>
       </c>
       <c r="E143" t="n">
-        <v>0.782672</v>
+        <v>0.788061</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -4139,7 +4139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E143"/>
+  <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I27" sqref="I27"/>
@@ -4177,16 +4177,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.06943290000000001</v>
+        <v>0.0697455</v>
       </c>
       <c r="C2" t="n">
-        <v>0.100592</v>
+        <v>0.072462</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0578407</v>
+        <v>0.0988038</v>
       </c>
       <c r="E2" t="n">
-        <v>0.065086</v>
+        <v>0.0569939</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.06271359999999999</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4197,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0682164</v>
+        <v>0.07244440000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>0.103115</v>
+        <v>0.07266549999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0586855</v>
+        <v>0.105473</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0644974</v>
+        <v>0.0564531</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.06584</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4217,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0672603</v>
+        <v>0.0691953</v>
       </c>
       <c r="C4" t="n">
-        <v>0.105902</v>
+        <v>0.0730259</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0574414</v>
+        <v>0.105319</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0641309</v>
+        <v>0.0577047</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.062762</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4237,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0656457</v>
+        <v>0.065731</v>
       </c>
       <c r="C5" t="n">
-        <v>0.108924</v>
+        <v>0.0690952</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0570009</v>
+        <v>0.111068</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0646786</v>
+        <v>0.056276</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.063217</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4257,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0673262</v>
+        <v>0.0692772</v>
       </c>
       <c r="C6" t="n">
-        <v>0.114806</v>
+        <v>0.0675666</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0580607</v>
+        <v>0.107327</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07236579999999999</v>
+        <v>0.0571848</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.06764489999999999</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4277,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0683449</v>
+        <v>0.0767423</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08789859999999999</v>
+        <v>0.0722312</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0596725</v>
+        <v>0.0870068</v>
       </c>
       <c r="E7" t="n">
-        <v>0.06666619999999999</v>
+        <v>0.0606429</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0669472</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4297,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0682001</v>
+        <v>0.0677687</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0883685</v>
+        <v>0.0722858</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0653692</v>
+        <v>0.0950826</v>
       </c>
       <c r="E8" t="n">
-        <v>0.06930459999999999</v>
+        <v>0.07267419999999999</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0778211</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4317,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0706415</v>
+        <v>0.0691739</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09061760000000001</v>
+        <v>0.0787471</v>
       </c>
       <c r="D9" t="n">
-        <v>0.058014</v>
+        <v>0.0903269</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0692989</v>
+        <v>0.0596861</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0702091</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4337,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.07483919999999999</v>
+        <v>0.0753433</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0932721</v>
+        <v>0.0837999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0579758</v>
+        <v>0.09320340000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0716041</v>
+        <v>0.0600285</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0695621</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4357,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0768575</v>
+        <v>0.0783404</v>
       </c>
       <c r="C11" t="n">
-        <v>0.09583940000000001</v>
+        <v>0.0843217</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0577811</v>
+        <v>0.0995771</v>
       </c>
       <c r="E11" t="n">
-        <v>0.06713139999999999</v>
+        <v>0.0597251</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0709549</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4377,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.072794</v>
+        <v>0.08047360000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0953138</v>
+        <v>0.0871127</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0563651</v>
+        <v>0.0977658</v>
       </c>
       <c r="E12" t="n">
-        <v>0.068075</v>
+        <v>0.0608979</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0690882</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4397,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.07618900000000001</v>
+        <v>0.0748554</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0981485</v>
+        <v>0.07949879999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0575341</v>
+        <v>0.101232</v>
       </c>
       <c r="E13" t="n">
-        <v>0.06735090000000001</v>
+        <v>0.0605266</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0697324</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4417,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0726359</v>
+        <v>0.0838911</v>
       </c>
       <c r="C14" t="n">
-        <v>0.101011</v>
+        <v>0.08082019999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0578423</v>
+        <v>0.100265</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0703939</v>
+        <v>0.0576453</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.06684470000000001</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4437,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0856943</v>
+        <v>0.07267849999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>0.109585</v>
+        <v>0.08067589999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>0.06613479999999999</v>
+        <v>0.105081</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0719042</v>
+        <v>0.0613853</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.0675398</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4457,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0763088</v>
+        <v>0.0758887</v>
       </c>
       <c r="C16" t="n">
-        <v>0.119968</v>
+        <v>0.07711270000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0644629</v>
+        <v>0.105415</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0726247</v>
+        <v>0.0579849</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0669458</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4477,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0753125</v>
+        <v>0.0741885</v>
       </c>
       <c r="C17" t="n">
-        <v>0.113454</v>
+        <v>0.0773962</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0599957</v>
+        <v>0.111723</v>
       </c>
       <c r="E17" t="n">
-        <v>0.069908</v>
+        <v>0.06267780000000001</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0699958</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4497,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.073462</v>
+        <v>0.074959</v>
       </c>
       <c r="C18" t="n">
-        <v>0.112925</v>
+        <v>0.07716530000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0587629</v>
+        <v>0.111788</v>
       </c>
       <c r="E18" t="n">
-        <v>0.06906900000000001</v>
+        <v>0.0589575</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.067674</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4517,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0734916</v>
+        <v>0.0728549</v>
       </c>
       <c r="C19" t="n">
-        <v>0.116666</v>
+        <v>0.0788219</v>
       </c>
       <c r="D19" t="n">
-        <v>0.059667</v>
+        <v>0.11461</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0681865</v>
+        <v>0.0594905</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.0688262</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4537,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0737478</v>
+        <v>0.0748915</v>
       </c>
       <c r="C20" t="n">
-        <v>0.117971</v>
+        <v>0.08172260000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.061117</v>
+        <v>0.117583</v>
       </c>
       <c r="E20" t="n">
-        <v>0.06959029999999999</v>
+        <v>0.0619073</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.0694553</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4557,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0754388</v>
+        <v>0.07410650000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08920359999999999</v>
+        <v>0.07901130000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0637329</v>
+        <v>0.0916947</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0746913</v>
+        <v>0.0694089</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.0711961</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4577,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0759566</v>
+        <v>0.07698439999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0917453</v>
+        <v>0.0812293</v>
       </c>
       <c r="D22" t="n">
-        <v>0.06815980000000001</v>
+        <v>0.0906791</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0764341</v>
+        <v>0.0718781</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.07864980000000001</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4597,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0796061</v>
+        <v>0.07684820000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>0.09896439999999999</v>
+        <v>0.0872457</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0615539</v>
+        <v>0.09330529999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0717034</v>
+        <v>0.0621493</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.0726808</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4617,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.07850020000000001</v>
+        <v>0.0795106</v>
       </c>
       <c r="C24" t="n">
-        <v>0.096373</v>
+        <v>0.08666500000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0610745</v>
+        <v>0.0983883</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0736725</v>
+        <v>0.06280760000000001</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.07351190000000001</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4637,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.08035440000000001</v>
+        <v>0.0811829</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0988407</v>
+        <v>0.0866797</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0622535</v>
+        <v>0.102996</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0726632</v>
+        <v>0.0647961</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0750304</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4657,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0782326</v>
+        <v>0.0811429</v>
       </c>
       <c r="C26" t="n">
-        <v>0.10158</v>
+        <v>0.0891936</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0616143</v>
+        <v>0.103131</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0756848</v>
+        <v>0.0628283</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0759092</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4677,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.07796790000000001</v>
+        <v>0.08241</v>
       </c>
       <c r="C27" t="n">
-        <v>0.106064</v>
+        <v>0.0888279</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0656326</v>
+        <v>0.105857</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0752621</v>
+        <v>0.0706339</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.08037759999999999</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4697,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0777158</v>
+        <v>0.0883179</v>
       </c>
       <c r="C28" t="n">
-        <v>0.108354</v>
+        <v>0.0901266</v>
       </c>
       <c r="D28" t="n">
-        <v>0.06305330000000001</v>
+        <v>0.110633</v>
       </c>
       <c r="E28" t="n">
-        <v>0.079445</v>
+        <v>0.06563289999999999</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0781061</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4717,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0780334</v>
+        <v>0.0803936</v>
       </c>
       <c r="C29" t="n">
-        <v>0.110385</v>
+        <v>0.0890676</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0629012</v>
+        <v>0.11374</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0758568</v>
+        <v>0.0658306</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0762789</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4737,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0795486</v>
+        <v>0.082874</v>
       </c>
       <c r="C30" t="n">
-        <v>0.117911</v>
+        <v>0.08800090000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>0.06488869999999999</v>
+        <v>0.114405</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0772774</v>
+        <v>0.0661621</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.07696260000000001</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4757,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.07990170000000001</v>
+        <v>0.0804347</v>
       </c>
       <c r="C31" t="n">
-        <v>0.119478</v>
+        <v>0.0916492</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0635558</v>
+        <v>0.118202</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0755605</v>
+        <v>0.0664151</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0823475</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4777,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.07880429999999999</v>
+        <v>0.0805936</v>
       </c>
       <c r="C32" t="n">
-        <v>0.125279</v>
+        <v>0.0893779</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0643975</v>
+        <v>0.119778</v>
       </c>
       <c r="E32" t="n">
-        <v>0.08033179999999999</v>
+        <v>0.0649822</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.07837909999999999</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4797,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0809337</v>
+        <v>0.0803971</v>
       </c>
       <c r="C33" t="n">
-        <v>0.129484</v>
+        <v>0.0919116</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0662261</v>
+        <v>0.124974</v>
       </c>
       <c r="E33" t="n">
-        <v>0.07926030000000001</v>
+        <v>0.066122</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.08217679999999999</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4817,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.08004500000000001</v>
+        <v>0.081513</v>
       </c>
       <c r="C34" t="n">
-        <v>0.133365</v>
+        <v>0.0906526</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0673555</v>
+        <v>0.126716</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0788037</v>
+        <v>0.0675636</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.0798893</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4837,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.07979990000000001</v>
+        <v>0.0816791</v>
       </c>
       <c r="C35" t="n">
-        <v>0.111163</v>
+        <v>0.0913133</v>
       </c>
       <c r="D35" t="n">
-        <v>0.07006469999999999</v>
+        <v>0.108444</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0835234</v>
+        <v>0.0708926</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.0836026</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4857,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0824251</v>
+        <v>0.0834226</v>
       </c>
       <c r="C36" t="n">
-        <v>0.111509</v>
+        <v>0.092336</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0732134</v>
+        <v>0.111474</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0858366</v>
+        <v>0.0736965</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.0868312</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4877,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.08304830000000001</v>
+        <v>0.08464149999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>0.114126</v>
+        <v>0.100864</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0688141</v>
+        <v>0.115968</v>
       </c>
       <c r="E37" t="n">
-        <v>0.08023130000000001</v>
+        <v>0.07007380000000001</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.0841563</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4897,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.09934809999999999</v>
+        <v>0.0963138</v>
       </c>
       <c r="C38" t="n">
-        <v>0.119623</v>
+        <v>0.0998589</v>
       </c>
       <c r="D38" t="n">
-        <v>0.070093</v>
+        <v>0.121791</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0821458</v>
+        <v>0.07076399999999999</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.0823649</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4917,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0980979</v>
+        <v>0.0981829</v>
       </c>
       <c r="C39" t="n">
-        <v>0.12356</v>
+        <v>0.100207</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0707805</v>
+        <v>0.121888</v>
       </c>
       <c r="E39" t="n">
-        <v>0.08069</v>
+        <v>0.0701736</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.0811833</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4937,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0964981</v>
+        <v>0.09953339999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>0.127644</v>
+        <v>0.0989434</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0732281</v>
+        <v>0.127207</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0910754</v>
+        <v>0.069896</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.0846673</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4957,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0962494</v>
+        <v>0.0981535</v>
       </c>
       <c r="C41" t="n">
-        <v>0.132116</v>
+        <v>0.0990409</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0700375</v>
+        <v>0.133283</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0843201</v>
+        <v>0.0711436</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.0841349</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4977,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.104054</v>
+        <v>0.100631</v>
       </c>
       <c r="C42" t="n">
-        <v>0.139062</v>
+        <v>0.100751</v>
       </c>
       <c r="D42" t="n">
-        <v>0.07060039999999999</v>
+        <v>0.139608</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0838909</v>
+        <v>0.0740276</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.08889900000000001</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4997,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0959597</v>
+        <v>0.0984196</v>
       </c>
       <c r="C43" t="n">
-        <v>0.142521</v>
+        <v>0.0992006</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0701445</v>
+        <v>0.14351</v>
       </c>
       <c r="E43" t="n">
-        <v>0.083199</v>
+        <v>0.073598</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.0858945</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +5017,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0961601</v>
+        <v>0.0984795</v>
       </c>
       <c r="C44" t="n">
-        <v>0.147249</v>
+        <v>0.101609</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0729151</v>
+        <v>0.149732</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0856639</v>
+        <v>0.0712653</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.08600240000000001</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +5037,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0969381</v>
+        <v>0.09737990000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>0.152176</v>
+        <v>0.105675</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0713104</v>
+        <v>0.158371</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0874461</v>
+        <v>0.0753207</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.09004959999999999</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +5057,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0984862</v>
+        <v>0.0999318</v>
       </c>
       <c r="C46" t="n">
-        <v>0.162923</v>
+        <v>0.102674</v>
       </c>
       <c r="D46" t="n">
-        <v>0.07338210000000001</v>
+        <v>0.162816</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0946154</v>
+        <v>0.0725442</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.091664</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +5077,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0971016</v>
+        <v>0.0979884</v>
       </c>
       <c r="C47" t="n">
-        <v>0.16381</v>
+        <v>0.104126</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0733939</v>
+        <v>0.16765</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0944743</v>
+        <v>0.073313</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.0929304</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +5097,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0974749</v>
+        <v>0.102587</v>
       </c>
       <c r="C48" t="n">
-        <v>0.171273</v>
+        <v>0.106962</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0764189</v>
+        <v>0.181635</v>
       </c>
       <c r="E48" t="n">
-        <v>0.09306300000000001</v>
+        <v>0.07474550000000001</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.092806</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +5117,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.098316</v>
+        <v>0.0992816</v>
       </c>
       <c r="C49" t="n">
-        <v>0.181131</v>
+        <v>0.112739</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0802828</v>
+        <v>0.184448</v>
       </c>
       <c r="E49" t="n">
-        <v>0.100446</v>
+        <v>0.08052479999999999</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.0981327</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +5137,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0996266</v>
+        <v>0.102787</v>
       </c>
       <c r="C50" t="n">
-        <v>0.169657</v>
+        <v>0.113812</v>
       </c>
       <c r="D50" t="n">
-        <v>0.08005429999999999</v>
+        <v>0.165967</v>
       </c>
       <c r="E50" t="n">
-        <v>0.102271</v>
+        <v>0.080318</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.105447</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5157,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.103196</v>
+        <v>0.101286</v>
       </c>
       <c r="C51" t="n">
-        <v>0.17082</v>
+        <v>0.11875</v>
       </c>
       <c r="D51" t="n">
-        <v>0.158733</v>
+        <v>0.181862</v>
       </c>
       <c r="E51" t="n">
-        <v>0.133199</v>
+        <v>0.20678</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.128085</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5177,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.10564</v>
+        <v>0.106047</v>
       </c>
       <c r="C52" t="n">
-        <v>0.182859</v>
+        <v>0.122129</v>
       </c>
       <c r="D52" t="n">
-        <v>0.167864</v>
+        <v>0.177956</v>
       </c>
       <c r="E52" t="n">
-        <v>0.124037</v>
+        <v>0.204063</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.128084</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5197,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.185064</v>
+        <v>0.172287</v>
       </c>
       <c r="C53" t="n">
-        <v>0.19048</v>
+        <v>0.162179</v>
       </c>
       <c r="D53" t="n">
-        <v>0.156326</v>
+        <v>0.189988</v>
       </c>
       <c r="E53" t="n">
-        <v>0.138568</v>
+        <v>0.203805</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.146701</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5217,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.182342</v>
+        <v>0.179076</v>
       </c>
       <c r="C54" t="n">
-        <v>0.197156</v>
+        <v>0.165839</v>
       </c>
       <c r="D54" t="n">
-        <v>0.161957</v>
+        <v>0.194086</v>
       </c>
       <c r="E54" t="n">
-        <v>0.146495</v>
+        <v>0.207277</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.146274</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5237,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.173651</v>
+        <v>0.184694</v>
       </c>
       <c r="C55" t="n">
-        <v>0.204218</v>
+        <v>0.164986</v>
       </c>
       <c r="D55" t="n">
-        <v>0.157212</v>
+        <v>0.205621</v>
       </c>
       <c r="E55" t="n">
-        <v>0.152256</v>
+        <v>0.223874</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.140727</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5257,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.177832</v>
+        <v>0.178143</v>
       </c>
       <c r="C56" t="n">
-        <v>0.218064</v>
+        <v>0.167931</v>
       </c>
       <c r="D56" t="n">
-        <v>0.166707</v>
+        <v>0.211441</v>
       </c>
       <c r="E56" t="n">
-        <v>0.154526</v>
+        <v>0.221182</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.140797</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5277,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.173731</v>
+        <v>0.183834</v>
       </c>
       <c r="C57" t="n">
-        <v>0.21614</v>
+        <v>0.177233</v>
       </c>
       <c r="D57" t="n">
-        <v>0.158003</v>
+        <v>0.214894</v>
       </c>
       <c r="E57" t="n">
-        <v>0.162133</v>
+        <v>0.205191</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.146314</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5297,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.179457</v>
+        <v>0.179851</v>
       </c>
       <c r="C58" t="n">
-        <v>0.220725</v>
+        <v>0.169997</v>
       </c>
       <c r="D58" t="n">
-        <v>0.158699</v>
+        <v>0.221054</v>
       </c>
       <c r="E58" t="n">
-        <v>0.144414</v>
+        <v>0.207526</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.150418</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5317,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.175165</v>
+        <v>0.176073</v>
       </c>
       <c r="C59" t="n">
-        <v>0.234033</v>
+        <v>0.173514</v>
       </c>
       <c r="D59" t="n">
-        <v>0.16269</v>
+        <v>0.23485</v>
       </c>
       <c r="E59" t="n">
-        <v>0.150422</v>
+        <v>0.212005</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.155476</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5337,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.182373</v>
+        <v>0.189097</v>
       </c>
       <c r="C60" t="n">
-        <v>0.242571</v>
+        <v>0.178272</v>
       </c>
       <c r="D60" t="n">
-        <v>0.160948</v>
+        <v>0.249963</v>
       </c>
       <c r="E60" t="n">
-        <v>0.156918</v>
+        <v>0.210965</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.162678</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5357,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.184826</v>
+        <v>0.179873</v>
       </c>
       <c r="C61" t="n">
-        <v>0.249801</v>
+        <v>0.178445</v>
       </c>
       <c r="D61" t="n">
-        <v>0.161543</v>
+        <v>0.251821</v>
       </c>
       <c r="E61" t="n">
-        <v>0.15978</v>
+        <v>0.218237</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.164629</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5377,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.17956</v>
+        <v>0.182024</v>
       </c>
       <c r="C62" t="n">
-        <v>0.259035</v>
+        <v>0.183661</v>
       </c>
       <c r="D62" t="n">
-        <v>0.170205</v>
+        <v>0.261499</v>
       </c>
       <c r="E62" t="n">
-        <v>0.167718</v>
+        <v>0.231642</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.166177</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5397,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.183476</v>
+        <v>0.176442</v>
       </c>
       <c r="C63" t="n">
-        <v>0.279793</v>
+        <v>0.193752</v>
       </c>
       <c r="D63" t="n">
-        <v>0.165237</v>
+        <v>0.270875</v>
       </c>
       <c r="E63" t="n">
-        <v>0.167325</v>
+        <v>0.211944</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.170603</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5417,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.183212</v>
+        <v>0.18322</v>
       </c>
       <c r="C64" t="n">
-        <v>0.275558</v>
+        <v>0.189844</v>
       </c>
       <c r="D64" t="n">
-        <v>0.185064</v>
+        <v>0.269214</v>
       </c>
       <c r="E64" t="n">
-        <v>0.199093</v>
+        <v>0.233705</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.182039</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5437,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.201227</v>
+        <v>0.180971</v>
       </c>
       <c r="C65" t="n">
-        <v>0.314023</v>
+        <v>0.192983</v>
       </c>
       <c r="D65" t="n">
-        <v>0.212502</v>
+        <v>0.278513</v>
       </c>
       <c r="E65" t="n">
-        <v>0.203177</v>
+        <v>0.229357</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.184016</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5457,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.222964</v>
+        <v>0.189827</v>
       </c>
       <c r="C66" t="n">
-        <v>0.300655</v>
+        <v>0.203884</v>
       </c>
       <c r="D66" t="n">
-        <v>0.255556</v>
+        <v>0.30513</v>
       </c>
       <c r="E66" t="n">
-        <v>0.276581</v>
+        <v>0.322236</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.272018</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5477,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.286322</v>
+        <v>0.268188</v>
       </c>
       <c r="C67" t="n">
-        <v>0.311526</v>
+        <v>0.300352</v>
       </c>
       <c r="D67" t="n">
-        <v>0.260275</v>
+        <v>0.30151</v>
       </c>
       <c r="E67" t="n">
-        <v>0.289823</v>
+        <v>0.335478</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.284471</v>
       </c>
     </row>
     <row r="68">
@@ -5299,16 +5497,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.304504</v>
+        <v>0.275778</v>
       </c>
       <c r="C68" t="n">
-        <v>0.389229</v>
+        <v>0.284059</v>
       </c>
       <c r="D68" t="n">
-        <v>0.285866</v>
+        <v>0.30313</v>
       </c>
       <c r="E68" t="n">
-        <v>0.270518</v>
+        <v>0.337965</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.27256</v>
       </c>
     </row>
     <row r="69">
@@ -5316,16 +5517,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.29785</v>
+        <v>0.283177</v>
       </c>
       <c r="C69" t="n">
-        <v>0.314496</v>
+        <v>0.304716</v>
       </c>
       <c r="D69" t="n">
-        <v>0.250551</v>
+        <v>0.308543</v>
       </c>
       <c r="E69" t="n">
-        <v>0.272484</v>
+        <v>0.344798</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.281463</v>
       </c>
     </row>
     <row r="70">
@@ -5333,16 +5537,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.283856</v>
+        <v>0.271697</v>
       </c>
       <c r="C70" t="n">
-        <v>0.319129</v>
+        <v>0.290606</v>
       </c>
       <c r="D70" t="n">
-        <v>0.250896</v>
+        <v>0.329879</v>
       </c>
       <c r="E70" t="n">
-        <v>0.260698</v>
+        <v>0.343387</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.281264</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5557,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.267747</v>
+        <v>0.271435</v>
       </c>
       <c r="C71" t="n">
-        <v>0.327254</v>
+        <v>0.289415</v>
       </c>
       <c r="D71" t="n">
-        <v>0.264498</v>
+        <v>0.330793</v>
       </c>
       <c r="E71" t="n">
-        <v>0.261713</v>
+        <v>0.340028</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.283507</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5577,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.273144</v>
+        <v>0.273729</v>
       </c>
       <c r="C72" t="n">
-        <v>0.340279</v>
+        <v>0.29904</v>
       </c>
       <c r="D72" t="n">
-        <v>0.26496</v>
+        <v>0.375337</v>
       </c>
       <c r="E72" t="n">
-        <v>0.263517</v>
+        <v>0.361034</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.279933</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5597,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.274018</v>
+        <v>0.276794</v>
       </c>
       <c r="C73" t="n">
-        <v>0.347155</v>
+        <v>0.294956</v>
       </c>
       <c r="D73" t="n">
-        <v>0.258054</v>
+        <v>0.356163</v>
       </c>
       <c r="E73" t="n">
-        <v>0.267107</v>
+        <v>0.359262</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.286478</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5617,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.271021</v>
+        <v>0.27619</v>
       </c>
       <c r="C74" t="n">
-        <v>0.355563</v>
+        <v>0.288811</v>
       </c>
       <c r="D74" t="n">
-        <v>0.254174</v>
+        <v>0.36634</v>
       </c>
       <c r="E74" t="n">
-        <v>0.269099</v>
+        <v>0.364788</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.285212</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5637,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.281197</v>
+        <v>0.273697</v>
       </c>
       <c r="C75" t="n">
-        <v>0.381662</v>
+        <v>0.304653</v>
       </c>
       <c r="D75" t="n">
-        <v>0.25765</v>
+        <v>0.37194</v>
       </c>
       <c r="E75" t="n">
-        <v>0.27066</v>
+        <v>0.362698</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.29067</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5657,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.272836</v>
+        <v>0.292494</v>
       </c>
       <c r="C76" t="n">
-        <v>0.382113</v>
+        <v>0.310613</v>
       </c>
       <c r="D76" t="n">
-        <v>0.259466</v>
+        <v>0.379899</v>
       </c>
       <c r="E76" t="n">
-        <v>0.270441</v>
+        <v>0.367606</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.289929</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5677,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.276251</v>
+        <v>0.283094</v>
       </c>
       <c r="C77" t="n">
-        <v>0.407855</v>
+        <v>0.296345</v>
       </c>
       <c r="D77" t="n">
-        <v>0.259094</v>
+        <v>0.401908</v>
       </c>
       <c r="E77" t="n">
-        <v>0.273253</v>
+        <v>0.369055</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.298809</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5697,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.290531</v>
+        <v>0.281899</v>
       </c>
       <c r="C78" t="n">
-        <v>0.389242</v>
+        <v>0.30126</v>
       </c>
       <c r="D78" t="n">
-        <v>0.263436</v>
+        <v>0.366705</v>
       </c>
       <c r="E78" t="n">
-        <v>0.278792</v>
+        <v>0.380442</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.300999</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5717,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.283738</v>
+        <v>0.288874</v>
       </c>
       <c r="C79" t="n">
-        <v>0.39911</v>
+        <v>0.307761</v>
       </c>
       <c r="D79" t="n">
-        <v>0.267043</v>
+        <v>0.366142</v>
       </c>
       <c r="E79" t="n">
-        <v>0.283406</v>
+        <v>0.386936</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.303511</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5737,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.29016</v>
+        <v>0.296153</v>
       </c>
       <c r="C80" t="n">
-        <v>0.375588</v>
+        <v>0.308725</v>
       </c>
       <c r="D80" t="n">
-        <v>0.345916</v>
+        <v>0.387501</v>
       </c>
       <c r="E80" t="n">
-        <v>0.391744</v>
+        <v>0.567832</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.442343</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5757,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.392867</v>
+        <v>0.367782</v>
       </c>
       <c r="C81" t="n">
-        <v>0.38653</v>
+        <v>0.420719</v>
       </c>
       <c r="D81" t="n">
-        <v>0.346054</v>
+        <v>0.391425</v>
       </c>
       <c r="E81" t="n">
-        <v>0.392867</v>
+        <v>0.612507</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.433784</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5777,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.370433</v>
+        <v>0.363596</v>
       </c>
       <c r="C82" t="n">
-        <v>0.393967</v>
+        <v>0.408364</v>
       </c>
       <c r="D82" t="n">
-        <v>0.353966</v>
+        <v>0.414293</v>
       </c>
       <c r="E82" t="n">
-        <v>0.406445</v>
+        <v>0.589364</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.442919</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5797,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.40306</v>
+        <v>0.366889</v>
       </c>
       <c r="C83" t="n">
-        <v>0.404029</v>
+        <v>0.404643</v>
       </c>
       <c r="D83" t="n">
-        <v>0.349689</v>
+        <v>0.423308</v>
       </c>
       <c r="E83" t="n">
-        <v>0.400314</v>
+        <v>0.612601</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.441671</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5817,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.364259</v>
+        <v>0.377887</v>
       </c>
       <c r="C84" t="n">
-        <v>0.40999</v>
+        <v>0.428607</v>
       </c>
       <c r="D84" t="n">
-        <v>0.359435</v>
+        <v>0.426906</v>
       </c>
       <c r="E84" t="n">
-        <v>0.410308</v>
+        <v>0.585426</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.450511</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5837,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.374322</v>
+        <v>0.368307</v>
       </c>
       <c r="C85" t="n">
-        <v>0.416733</v>
+        <v>0.415772</v>
       </c>
       <c r="D85" t="n">
-        <v>0.355335</v>
+        <v>0.432932</v>
       </c>
       <c r="E85" t="n">
-        <v>0.400267</v>
+        <v>0.596805</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.459067</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5857,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.364192</v>
+        <v>0.401363</v>
       </c>
       <c r="C86" t="n">
-        <v>0.427941</v>
+        <v>0.429017</v>
       </c>
       <c r="D86" t="n">
-        <v>0.355187</v>
+        <v>0.447728</v>
       </c>
       <c r="E86" t="n">
-        <v>0.415057</v>
+        <v>0.588009</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.456154</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5877,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.365779</v>
+        <v>0.370431</v>
       </c>
       <c r="C87" t="n">
-        <v>0.440252</v>
+        <v>0.428876</v>
       </c>
       <c r="D87" t="n">
-        <v>0.354585</v>
+        <v>0.457392</v>
       </c>
       <c r="E87" t="n">
-        <v>0.403315</v>
+        <v>0.59107</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.454533</v>
       </c>
     </row>
     <row r="88">
@@ -5639,16 +5897,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.378874</v>
+        <v>0.378006</v>
       </c>
       <c r="C88" t="n">
-        <v>0.44864</v>
+        <v>0.437596</v>
       </c>
       <c r="D88" t="n">
-        <v>0.375509</v>
+        <v>0.465821</v>
       </c>
       <c r="E88" t="n">
-        <v>0.456845</v>
+        <v>0.591367</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.45886</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5917,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.367623</v>
+        <v>0.38208</v>
       </c>
       <c r="C89" t="n">
-        <v>0.462308</v>
+        <v>0.434928</v>
       </c>
       <c r="D89" t="n">
-        <v>0.361595</v>
+        <v>0.475905</v>
       </c>
       <c r="E89" t="n">
-        <v>0.433238</v>
+        <v>0.588661</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.451224</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5937,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.372049</v>
+        <v>0.372407</v>
       </c>
       <c r="C90" t="n">
-        <v>0.476614</v>
+        <v>0.41896</v>
       </c>
       <c r="D90" t="n">
-        <v>0.35791</v>
+        <v>0.488117</v>
       </c>
       <c r="E90" t="n">
-        <v>0.413577</v>
+        <v>0.59421</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.481781</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5957,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.375852</v>
+        <v>0.386495</v>
       </c>
       <c r="C91" t="n">
-        <v>0.484716</v>
+        <v>0.441929</v>
       </c>
       <c r="D91" t="n">
-        <v>0.362728</v>
+        <v>0.507848</v>
       </c>
       <c r="E91" t="n">
-        <v>0.429831</v>
+        <v>0.627983</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.468813</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5977,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.395775</v>
+        <v>0.374596</v>
       </c>
       <c r="C92" t="n">
-        <v>0.425385</v>
+        <v>0.444543</v>
       </c>
       <c r="D92" t="n">
-        <v>0.362862</v>
+        <v>0.446663</v>
       </c>
       <c r="E92" t="n">
-        <v>0.423768</v>
+        <v>0.617487</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.470422</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5997,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.377244</v>
+        <v>0.379628</v>
       </c>
       <c r="C93" t="n">
-        <v>0.431195</v>
+        <v>0.438401</v>
       </c>
       <c r="D93" t="n">
-        <v>0.371235</v>
+        <v>0.462364</v>
       </c>
       <c r="E93" t="n">
-        <v>0.432855</v>
+        <v>0.59814</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.478158</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +6017,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.388061</v>
+        <v>0.379809</v>
       </c>
       <c r="C94" t="n">
-        <v>0.440493</v>
+        <v>0.447669</v>
       </c>
       <c r="D94" t="n">
-        <v>0.44375</v>
+        <v>0.468489</v>
       </c>
       <c r="E94" t="n">
-        <v>0.511437</v>
+        <v>0.884207</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.575621</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +6037,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.450958</v>
+        <v>0.474883</v>
       </c>
       <c r="C95" t="n">
-        <v>0.450788</v>
+        <v>0.511884</v>
       </c>
       <c r="D95" t="n">
-        <v>0.455796</v>
+        <v>0.457438</v>
       </c>
       <c r="E95" t="n">
-        <v>0.519748</v>
+        <v>0.864743</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.559789</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +6057,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.447658</v>
+        <v>0.462195</v>
       </c>
       <c r="C96" t="n">
-        <v>0.485515</v>
+        <v>0.508566</v>
       </c>
       <c r="D96" t="n">
-        <v>0.456479</v>
+        <v>0.483658</v>
       </c>
       <c r="E96" t="n">
-        <v>0.505311</v>
+        <v>0.855352</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.559226</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +6077,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.449938</v>
+        <v>0.454116</v>
       </c>
       <c r="C97" t="n">
-        <v>0.462294</v>
+        <v>0.527607</v>
       </c>
       <c r="D97" t="n">
-        <v>0.447287</v>
+        <v>0.489552</v>
       </c>
       <c r="E97" t="n">
-        <v>0.512282</v>
+        <v>0.8765230000000001</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.565062</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +6097,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.47131</v>
+        <v>0.462396</v>
       </c>
       <c r="C98" t="n">
-        <v>0.487961</v>
+        <v>0.529366</v>
       </c>
       <c r="D98" t="n">
-        <v>0.44164</v>
+        <v>0.493288</v>
       </c>
       <c r="E98" t="n">
-        <v>0.514451</v>
+        <v>0.860725</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.569164</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +6117,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.444954</v>
+        <v>0.45585</v>
       </c>
       <c r="C99" t="n">
-        <v>0.496074</v>
+        <v>0.509399</v>
       </c>
       <c r="D99" t="n">
-        <v>0.472409</v>
+        <v>0.513889</v>
       </c>
       <c r="E99" t="n">
-        <v>0.540193</v>
+        <v>0.885142</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.57737</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +6137,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.469109</v>
+        <v>0.46837</v>
       </c>
       <c r="C100" t="n">
-        <v>0.506202</v>
+        <v>0.515282</v>
       </c>
       <c r="D100" t="n">
-        <v>0.450704</v>
+        <v>0.513668</v>
       </c>
       <c r="E100" t="n">
-        <v>0.520333</v>
+        <v>0.876576</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.5756</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +6157,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.476503</v>
+        <v>0.461794</v>
       </c>
       <c r="C101" t="n">
-        <v>0.522277</v>
+        <v>0.505869</v>
       </c>
       <c r="D101" t="n">
-        <v>0.484417</v>
+        <v>0.51302</v>
       </c>
       <c r="E101" t="n">
-        <v>0.548849</v>
+        <v>0.87673</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.577536</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +6177,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.466891</v>
+        <v>0.452521</v>
       </c>
       <c r="C102" t="n">
-        <v>0.527107</v>
+        <v>0.51532</v>
       </c>
       <c r="D102" t="n">
-        <v>0.455092</v>
+        <v>0.537718</v>
       </c>
       <c r="E102" t="n">
-        <v>0.529056</v>
+        <v>0.879881</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.577448</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +6197,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.477395</v>
+        <v>0.456637</v>
       </c>
       <c r="C103" t="n">
-        <v>0.56123</v>
+        <v>0.524042</v>
       </c>
       <c r="D103" t="n">
-        <v>0.452703</v>
+        <v>0.536582</v>
       </c>
       <c r="E103" t="n">
-        <v>0.521084</v>
+        <v>0.874985</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.573956</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +6217,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.458632</v>
+        <v>0.456904</v>
       </c>
       <c r="C104" t="n">
-        <v>0.548296</v>
+        <v>0.541482</v>
       </c>
       <c r="D104" t="n">
-        <v>0.456319</v>
+        <v>0.550222</v>
       </c>
       <c r="E104" t="n">
-        <v>0.528271</v>
+        <v>0.89616</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.583586</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +6237,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.458252</v>
+        <v>0.479187</v>
       </c>
       <c r="C105" t="n">
-        <v>0.56191</v>
+        <v>0.53594</v>
       </c>
       <c r="D105" t="n">
-        <v>0.46127</v>
+        <v>0.559227</v>
       </c>
       <c r="E105" t="n">
-        <v>0.5339739999999999</v>
+        <v>0.869148</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.593737</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +6257,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.44981</v>
+        <v>0.464254</v>
       </c>
       <c r="C106" t="n">
-        <v>0.588993</v>
+        <v>0.519477</v>
       </c>
       <c r="D106" t="n">
-        <v>0.464925</v>
+        <v>0.58312</v>
       </c>
       <c r="E106" t="n">
-        <v>0.548157</v>
+        <v>0.874898</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.598274</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +6277,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.456212</v>
+        <v>0.458524</v>
       </c>
       <c r="C107" t="n">
-        <v>0.517813</v>
+        <v>0.538165</v>
       </c>
       <c r="D107" t="n">
-        <v>0.470266</v>
+        <v>0.503042</v>
       </c>
       <c r="E107" t="n">
-        <v>0.554268</v>
+        <v>0.923879</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.612664</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +6297,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.458713</v>
+        <v>0.466064</v>
       </c>
       <c r="C108" t="n">
-        <v>0.514157</v>
+        <v>0.541557</v>
       </c>
       <c r="D108" t="n">
-        <v>0.52634</v>
+        <v>0.506089</v>
       </c>
       <c r="E108" t="n">
-        <v>0.583874</v>
+        <v>1.10467</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.646602</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +6317,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.465083</v>
+        <v>0.467307</v>
       </c>
       <c r="C109" t="n">
-        <v>0.512611</v>
+        <v>0.543783</v>
       </c>
       <c r="D109" t="n">
-        <v>0.547109</v>
+        <v>0.5273600000000001</v>
       </c>
       <c r="E109" t="n">
-        <v>0.603465</v>
+        <v>1.14668</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.64383</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6337,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.586707</v>
+        <v>0.5618069999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>0.52012</v>
+        <v>0.621219</v>
       </c>
       <c r="D110" t="n">
-        <v>0.531426</v>
+        <v>0.5348000000000001</v>
       </c>
       <c r="E110" t="n">
-        <v>0.592656</v>
+        <v>1.11136</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.676971</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6357,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.548779</v>
+        <v>0.559667</v>
       </c>
       <c r="C111" t="n">
-        <v>0.598097</v>
+        <v>0.647282</v>
       </c>
       <c r="D111" t="n">
-        <v>0.543597</v>
+        <v>0.572314</v>
       </c>
       <c r="E111" t="n">
-        <v>0.603967</v>
+        <v>1.10944</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.655497</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6377,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.5527260000000001</v>
+        <v>0.568367</v>
       </c>
       <c r="C112" t="n">
-        <v>0.574241</v>
+        <v>0.607389</v>
       </c>
       <c r="D112" t="n">
-        <v>0.569311</v>
+        <v>0.581843</v>
       </c>
       <c r="E112" t="n">
-        <v>0.586389</v>
+        <v>1.1188</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.662377</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6397,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.545664</v>
+        <v>0.556202</v>
       </c>
       <c r="C113" t="n">
-        <v>0.583363</v>
+        <v>0.609033</v>
       </c>
       <c r="D113" t="n">
-        <v>0.525873</v>
+        <v>0.577211</v>
       </c>
       <c r="E113" t="n">
-        <v>0.605816</v>
+        <v>1.11063</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.666387</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6417,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.542262</v>
+        <v>0.557072</v>
       </c>
       <c r="C114" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.606946</v>
       </c>
       <c r="D114" t="n">
-        <v>0.526662</v>
+        <v>0.586099</v>
       </c>
       <c r="E114" t="n">
-        <v>0.595232</v>
+        <v>1.10739</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.67096</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6437,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.543309</v>
+        <v>0.563817</v>
       </c>
       <c r="C115" t="n">
-        <v>0.618523</v>
+        <v>0.604382</v>
       </c>
       <c r="D115" t="n">
-        <v>0.542631</v>
+        <v>0.578498</v>
       </c>
       <c r="E115" t="n">
-        <v>0.615801</v>
+        <v>1.09525</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.682866</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6457,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.547746</v>
+        <v>0.550802</v>
       </c>
       <c r="C116" t="n">
-        <v>0.594052</v>
+        <v>0.604387</v>
       </c>
       <c r="D116" t="n">
-        <v>0.540212</v>
+        <v>0.598908</v>
       </c>
       <c r="E116" t="n">
-        <v>0.602031</v>
+        <v>1.10094</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.696968</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6477,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.561769</v>
+        <v>0.567844</v>
       </c>
       <c r="C117" t="n">
-        <v>0.606467</v>
+        <v>0.608595</v>
       </c>
       <c r="D117" t="n">
-        <v>0.531872</v>
+        <v>0.614484</v>
       </c>
       <c r="E117" t="n">
-        <v>0.610967</v>
+        <v>1.14498</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.696199</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6497,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.549602</v>
+        <v>0.556025</v>
       </c>
       <c r="C118" t="n">
-        <v>0.624149</v>
+        <v>0.630917</v>
       </c>
       <c r="D118" t="n">
-        <v>0.543274</v>
+        <v>0.651021</v>
       </c>
       <c r="E118" t="n">
-        <v>0.632447</v>
+        <v>1.11117</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.677345</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6517,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.551823</v>
+        <v>0.550004</v>
       </c>
       <c r="C119" t="n">
-        <v>0.665151</v>
+        <v>0.618467</v>
       </c>
       <c r="D119" t="n">
-        <v>0.5283600000000001</v>
+        <v>0.676432</v>
       </c>
       <c r="E119" t="n">
-        <v>0.6902779999999999</v>
+        <v>1.12992</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.685759</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6537,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.553211</v>
+        <v>0.559318</v>
       </c>
       <c r="C120" t="n">
-        <v>0.683548</v>
+        <v>0.634169</v>
       </c>
       <c r="D120" t="n">
-        <v>0.543712</v>
+        <v>0.6777030000000001</v>
       </c>
       <c r="E120" t="n">
-        <v>0.629957</v>
+        <v>1.1339</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.694169</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6557,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.562254</v>
+        <v>0.552214</v>
       </c>
       <c r="C121" t="n">
-        <v>0.602051</v>
+        <v>0.6259400000000001</v>
       </c>
       <c r="D121" t="n">
-        <v>0.547064</v>
+        <v>0.577408</v>
       </c>
       <c r="E121" t="n">
-        <v>0.635128</v>
+        <v>1.11825</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.710099</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6577,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.557154</v>
+        <v>0.581795</v>
       </c>
       <c r="C122" t="n">
-        <v>0.589438</v>
+        <v>0.663623</v>
       </c>
       <c r="D122" t="n">
-        <v>0.553878</v>
+        <v>0.58601</v>
       </c>
       <c r="E122" t="n">
-        <v>0.658151</v>
+        <v>1.11531</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.722162</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6597,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.566317</v>
+        <v>0.59566</v>
       </c>
       <c r="C123" t="n">
-        <v>0.5898949999999999</v>
+        <v>0.712955</v>
       </c>
       <c r="D123" t="n">
-        <v>0.645254</v>
+        <v>0.590551</v>
       </c>
       <c r="E123" t="n">
-        <v>0.711174</v>
+        <v>1.49502</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.7874910000000001</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6617,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.825789</v>
+        <v>0.723013</v>
       </c>
       <c r="C124" t="n">
-        <v>0.616515</v>
+        <v>0.7218</v>
       </c>
       <c r="D124" t="n">
-        <v>0.661293</v>
+        <v>0.6209440000000001</v>
       </c>
       <c r="E124" t="n">
-        <v>0.664523</v>
+        <v>1.50877</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.755439</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6637,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.743277</v>
+        <v>0.749838</v>
       </c>
       <c r="C125" t="n">
-        <v>0.611189</v>
+        <v>0.724429</v>
       </c>
       <c r="D125" t="n">
-        <v>0.657023</v>
+        <v>0.618802</v>
       </c>
       <c r="E125" t="n">
-        <v>0.707838</v>
+        <v>1.51822</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.80062</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6657,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.704756</v>
+        <v>0.735506</v>
       </c>
       <c r="C126" t="n">
-        <v>0.649274</v>
+        <v>0.742319</v>
       </c>
       <c r="D126" t="n">
-        <v>0.664485</v>
+        <v>0.639591</v>
       </c>
       <c r="E126" t="n">
-        <v>0.675839</v>
+        <v>1.5004</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.753684</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6677,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.711529</v>
+        <v>0.726309</v>
       </c>
       <c r="C127" t="n">
-        <v>0.632653</v>
+        <v>0.724438</v>
       </c>
       <c r="D127" t="n">
-        <v>0.660609</v>
+        <v>0.655494</v>
       </c>
       <c r="E127" t="n">
-        <v>0.665631</v>
+        <v>1.49566</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.802239</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6697,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.748296</v>
+        <v>0.751787</v>
       </c>
       <c r="C128" t="n">
-        <v>0.653394</v>
+        <v>0.778104</v>
       </c>
       <c r="D128" t="n">
-        <v>0.687244</v>
+        <v>0.655108</v>
       </c>
       <c r="E128" t="n">
-        <v>0.6865</v>
+        <v>1.48397</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.754796</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6717,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.73683</v>
+        <v>0.731595</v>
       </c>
       <c r="C129" t="n">
-        <v>0.673521</v>
+        <v>0.764149</v>
       </c>
       <c r="D129" t="n">
-        <v>0.673872</v>
+        <v>0.666086</v>
       </c>
       <c r="E129" t="n">
-        <v>0.72762</v>
+        <v>1.50563</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.812732</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6737,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.743243</v>
+        <v>0.745978</v>
       </c>
       <c r="C130" t="n">
-        <v>0.709203</v>
+        <v>0.727039</v>
       </c>
       <c r="D130" t="n">
-        <v>0.692952</v>
+        <v>0.695752</v>
       </c>
       <c r="E130" t="n">
-        <v>0.681459</v>
+        <v>1.5771</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.762462</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6757,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.811049</v>
+        <v>0.742722</v>
       </c>
       <c r="C131" t="n">
-        <v>0.699726</v>
+        <v>0.73794</v>
       </c>
       <c r="D131" t="n">
-        <v>0.67022</v>
+        <v>0.692921</v>
       </c>
       <c r="E131" t="n">
-        <v>0.683041</v>
+        <v>1.51816</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.782534</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6777,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.729232</v>
+        <v>0.720982</v>
       </c>
       <c r="C132" t="n">
-        <v>0.751972</v>
+        <v>0.745381</v>
       </c>
       <c r="D132" t="n">
-        <v>0.753838</v>
+        <v>0.711516</v>
       </c>
       <c r="E132" t="n">
-        <v>0.732954</v>
+        <v>1.532</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.799229</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6797,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.73339</v>
+        <v>0.730328</v>
       </c>
       <c r="C133" t="n">
-        <v>0.7319290000000001</v>
+        <v>0.757253</v>
       </c>
       <c r="D133" t="n">
-        <v>0.691499</v>
+        <v>0.738367</v>
       </c>
       <c r="E133" t="n">
-        <v>0.738935</v>
+        <v>1.50515</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.818831</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6817,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.847631</v>
+        <v>0.731028</v>
       </c>
       <c r="C134" t="n">
-        <v>0.792594</v>
+        <v>0.757802</v>
       </c>
       <c r="D134" t="n">
-        <v>0.685901</v>
+        <v>0.752061</v>
       </c>
       <c r="E134" t="n">
-        <v>0.713066</v>
+        <v>1.50579</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.812007</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6837,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.740806</v>
+        <v>0.730239</v>
       </c>
       <c r="C135" t="n">
-        <v>0.682138</v>
+        <v>0.758141</v>
       </c>
       <c r="D135" t="n">
-        <v>0.707415</v>
+        <v>0.697514</v>
       </c>
       <c r="E135" t="n">
-        <v>0.741282</v>
+        <v>1.50443</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.823471</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6857,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.84057</v>
+        <v>0.734285</v>
       </c>
       <c r="C136" t="n">
-        <v>0.6968800000000001</v>
+        <v>0.76468</v>
       </c>
       <c r="D136" t="n">
-        <v>0.697054</v>
+        <v>0.7</v>
       </c>
       <c r="E136" t="n">
-        <v>0.78408</v>
+        <v>1.50272</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.825911</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6877,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.740908</v>
+        <v>0.756928</v>
       </c>
       <c r="C137" t="n">
-        <v>0.717585</v>
+        <v>0.786874</v>
       </c>
       <c r="D137" t="n">
-        <v>0.860419</v>
+        <v>0.730795</v>
       </c>
       <c r="E137" t="n">
-        <v>0.788226</v>
+        <v>1.85185</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.884022</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6897,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.950125</v>
+        <v>0.92034</v>
       </c>
       <c r="C138" t="n">
-        <v>0.72</v>
+        <v>0.843218</v>
       </c>
       <c r="D138" t="n">
-        <v>0.83416</v>
+        <v>0.716114</v>
       </c>
       <c r="E138" t="n">
-        <v>0.7738969999999999</v>
+        <v>1.86156</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.868788</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6917,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.945271</v>
+        <v>0.985885</v>
       </c>
       <c r="C139" t="n">
-        <v>0.746425</v>
+        <v>0.911691</v>
       </c>
       <c r="D139" t="n">
-        <v>0.849658</v>
+        <v>0.728662</v>
       </c>
       <c r="E139" t="n">
-        <v>0.778878</v>
+        <v>1.84762</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.867283</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6937,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.952751</v>
+        <v>0.945595</v>
       </c>
       <c r="C140" t="n">
-        <v>0.772803</v>
+        <v>0.845861</v>
       </c>
       <c r="D140" t="n">
-        <v>0.865009</v>
+        <v>0.7572</v>
       </c>
       <c r="E140" t="n">
-        <v>0.790224</v>
+        <v>1.84642</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.88998</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6957,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.955085</v>
+        <v>1.03795</v>
       </c>
       <c r="C141" t="n">
-        <v>0.771115</v>
+        <v>0.846343</v>
       </c>
       <c r="D141" t="n">
-        <v>0.847897</v>
+        <v>0.7504769999999999</v>
       </c>
       <c r="E141" t="n">
-        <v>0.8004019999999999</v>
+        <v>1.83901</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.896983</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6977,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.9638139999999999</v>
+        <v>0.935612</v>
       </c>
       <c r="C142" t="n">
-        <v>0.77857</v>
+        <v>0.8494080000000001</v>
       </c>
       <c r="D142" t="n">
-        <v>0.854079</v>
+        <v>0.764687</v>
       </c>
       <c r="E142" t="n">
-        <v>0.795997</v>
+        <v>1.86953</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.887121</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6997,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.94091</v>
+        <v>1.04703</v>
       </c>
       <c r="C143" t="n">
-        <v>0.796415</v>
+        <v>0.848194</v>
       </c>
       <c r="D143" t="n">
-        <v>0.846514</v>
+        <v>0.7862209999999999</v>
       </c>
       <c r="E143" t="n">
-        <v>0.788061</v>
+        <v>1.83593</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.874912</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -560,430 +560,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0194751</v>
+                  <v>0.0193848</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0195629</v>
+                  <v>0.0194619</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.019489</v>
+                  <v>0.0193778</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0195779</v>
+                  <v>0.0194707</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0196134</v>
+                  <v>0.0196489</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0197913</v>
+                  <v>0.0196529</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0199155</v>
+                  <v>0.0199483</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0201101</v>
+                  <v>0.0201947</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0196084</v>
+                  <v>0.0192209</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0195614</v>
+                  <v>0.019424</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0196347</v>
+                  <v>0.0197447</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0198925</v>
+                  <v>0.0197918</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0200039</v>
+                  <v>0.0198616</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0201837</v>
+                  <v>0.0200231</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0200675</v>
+                  <v>0.0201789</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0201647</v>
+                  <v>0.0202069</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0202739</v>
+                  <v>0.0204096</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0202086</v>
+                  <v>0.0205851</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0205069</v>
+                  <v>0.0206359</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0207083</v>
+                  <v>0.0208679</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0211543</v>
+                  <v>0.0211078</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0230484</v>
+                  <v>0.0248881</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0206813</v>
+                  <v>0.0203805</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0207405</v>
+                  <v>0.0204958</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0207665</v>
+                  <v>0.0206497</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0209769</v>
+                  <v>0.0208718</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.021056</v>
+                  <v>0.0210186</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0212252</v>
+                  <v>0.0211438</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0213505</v>
+                  <v>0.0213385</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0215039</v>
+                  <v>0.021513</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0217981</v>
+                  <v>0.0220629</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0221214</v>
+                  <v>0.0221137</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.023275</v>
+                  <v>0.0228733</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0250124</v>
+                  <v>0.0243698</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0266118</v>
+                  <v>0.0271109</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0311996</v>
+                  <v>0.0312224</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0216211</v>
+                  <v>0.0214949</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0218931</v>
+                  <v>0.0218569</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0219329</v>
+                  <v>0.0217457</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0221215</v>
+                  <v>0.0220473</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0222904</v>
+                  <v>0.0222951</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0224773</v>
+                  <v>0.0224305</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0228221</v>
+                  <v>0.0226572</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0230365</v>
+                  <v>0.0229888</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0235124</v>
+                  <v>0.0234883</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.02408</v>
+                  <v>0.0238963</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.025044</v>
+                  <v>0.025005</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0279553</v>
+                  <v>0.0268192</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0304389</v>
+                  <v>0.029844</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0353825</v>
+                  <v>0.0336676</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0392081</v>
+                  <v>0.03842</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0230524</v>
+                  <v>0.0233104</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0234244</v>
+                  <v>0.023341</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0234108</v>
+                  <v>0.0237441</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0239286</v>
+                  <v>0.0239331</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0240818</v>
+                  <v>0.0241352</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.024439</v>
+                  <v>0.024359</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0247787</v>
+                  <v>0.0245657</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0252449</v>
+                  <v>0.0251086</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0265282</v>
+                  <v>0.0260587</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0274839</v>
+                  <v>0.0274484</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0294202</v>
+                  <v>0.0293528</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.032256</v>
+                  <v>0.0319897</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.035998</v>
+                  <v>0.0356338</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0410284</v>
+                  <v>0.0409657</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0292854</v>
+                  <v>0.0289145</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0293731</v>
+                  <v>0.0290849</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0295223</v>
+                  <v>0.0291312</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0297504</v>
+                  <v>0.0292314</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0300985</v>
+                  <v>0.0295317</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0302054</v>
+                  <v>0.0298013</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.030751</v>
+                  <v>0.0301607</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0311922</v>
+                  <v>0.030776</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0320559</v>
+                  <v>0.0317162</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0331467</v>
+                  <v>0.0328879</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0348991</v>
+                  <v>0.0346028</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0373412</v>
+                  <v>0.0370192</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0409062</v>
+                  <v>0.0402907</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0457293</v>
+                  <v>0.0451694</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0555257</v>
+                  <v>0.0547573</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0577904</v>
+                  <v>0.0555636</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.055792</v>
+                  <v>0.055387</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0560207</v>
+                  <v>0.0554725</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0561087</v>
+                  <v>0.0557169</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0563414</v>
+                  <v>0.0559509</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.056655</v>
+                  <v>0.0560586</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0571958</v>
+                  <v>0.0562625</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.057884</v>
+                  <v>0.0567185</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0582425</v>
+                  <v>0.0576972</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0592452</v>
+                  <v>0.0587159</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0608211</v>
+                  <v>0.060325</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0633513</v>
+                  <v>0.0629981</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.06725390000000001</v>
+                  <v>0.06682589999999999</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0858208</v>
+                  <v>0.0858251</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.08577170000000001</v>
+                  <v>0.0857677</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.08594590000000001</v>
+                  <v>0.085906</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.08606900000000001</v>
+                  <v>0.0859969</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.08616749999999999</v>
+                  <v>0.086075</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.08662789999999999</v>
+                  <v>0.0861682</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0864133</v>
+                  <v>0.08647729999999999</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.088181</v>
+                  <v>0.0867111</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0871123</v>
+                  <v>0.08710229999999999</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0876926</v>
+                  <v>0.08776050000000001</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0885166</v>
+                  <v>0.08850959999999999</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0897474</v>
+                  <v>0.0897652</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.09172080000000001</v>
+                  <v>0.09188499999999999</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0949308</v>
+                  <v>0.0952229</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0997827</v>
+                  <v>0.100016</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.109009</v>
+                  <v>0.108131</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.108902</v>
+                  <v>0.108075</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.109017</v>
+                  <v>0.108184</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.109219</v>
+                  <v>0.10833</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.109295</v>
+                  <v>0.108539</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.109582</v>
+                  <v>0.108599</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.109729</v>
+                  <v>0.108799</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.110229</v>
+                  <v>0.109382</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.110875</v>
+                  <v>0.109872</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.111655</v>
+                  <v>0.121679</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.112821</v>
+                  <v>0.11203</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.114619</v>
+                  <v>0.113814</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.117464</v>
+                  <v>0.116862</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.122013</v>
+                  <v>0.121543</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.139209</v>
+                  <v>0.140062</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.139131</v>
+                  <v>0.140058</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.139496</v>
+                  <v>0.139603</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.139621</v>
+                  <v>0.139793</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.13995</v>
+                  <v>0.139755</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.14025</v>
+                  <v>0.139773</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.140479</v>
+                  <v>0.139973</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.142087</v>
+                  <v>0.140326</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.141701</v>
+                  <v>0.140658</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.142135</v>
+                  <v>0.140894</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.143369</v>
+                  <v>0.1421</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.14492</v>
+                  <v>0.143547</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.147621</v>
+                  <v>0.146307</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.151632</v>
+                  <v>0.150172</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.157728</v>
+                  <v>0.158166</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.157774</v>
+                  <v>0.158195</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.157822</v>
+                  <v>0.15855</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.158086</v>
+                  <v>0.158668</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.158035</v>
+                  <v>0.159246</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.178791</v>
+                  <v>0.158584</v>
                 </pt>
               </numCache>
             </numRef>
@@ -999,7 +999,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_map</v>
+                  <v>absl::node_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -1462,430 +1462,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0365145</v>
+                  <v>0.0175627</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0396988</v>
+                  <v>0.0175947</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0447642</v>
+                  <v>0.0176587</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0498033</v>
+                  <v>0.0177658</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0537687</v>
+                  <v>0.0179719</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0315887</v>
+                  <v>0.018025</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0336489</v>
+                  <v>0.0181412</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0356574</v>
+                  <v>0.0187716</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0376125</v>
+                  <v>0.0181729</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0405804</v>
+                  <v>0.0183363</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0447308</v>
+                  <v>0.018272</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.047286</v>
+                  <v>0.0186146</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0503759</v>
+                  <v>0.0185738</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0539423</v>
+                  <v>0.0189054</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0578276</v>
+                  <v>0.0189311</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0614582</v>
+                  <v>0.0193473</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0653006</v>
+                  <v>0.0191405</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0680994</v>
+                  <v>0.0193073</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0704849</v>
+                  <v>0.0193</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0446121</v>
+                  <v>0.0195934</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.047444</v>
+                  <v>0.0204342</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0493842</v>
+                  <v>0.0258092</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0514984</v>
+                  <v>0.0194516</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0543429</v>
+                  <v>0.0195151</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0563413</v>
+                  <v>0.019712</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0616033</v>
+                  <v>0.0198041</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0643247</v>
+                  <v>0.0200263</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0662176</v>
+                  <v>0.0201955</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0698588</v>
+                  <v>0.0204215</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.07215820000000001</v>
+                  <v>0.020546</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0748846</v>
+                  <v>0.0208661</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0769565</v>
+                  <v>0.0211468</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0791249</v>
+                  <v>0.0216524</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0519505</v>
+                  <v>0.0228986</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0537373</v>
+                  <v>0.0250296</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0560572</v>
+                  <v>0.0299358</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0580173</v>
+                  <v>0.0207518</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0596857</v>
+                  <v>0.0209239</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0624772</v>
+                  <v>0.0210062</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.06461600000000001</v>
+                  <v>0.0212501</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0672449</v>
+                  <v>0.0213877</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.06969930000000001</v>
+                  <v>0.0216913</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.07249079999999999</v>
+                  <v>0.0219272</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.07484499999999999</v>
+                  <v>0.022197</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0778189</v>
+                  <v>0.022681</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0800609</v>
+                  <v>0.0234421</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0823764</v>
+                  <v>0.0240753</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0844506</v>
+                  <v>0.0257732</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0578649</v>
+                  <v>0.0285813</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0591875</v>
+                  <v>0.0324607</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0615245</v>
+                  <v>0.0380034</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0639034</v>
+                  <v>0.0220148</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0656783</v>
+                  <v>0.0221262</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0679548</v>
+                  <v>0.0223024</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0705563</v>
+                  <v>0.022656</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0733139</v>
+                  <v>0.0228134</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0760695</v>
+                  <v>0.0231381</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.07903490000000001</v>
+                  <v>0.0235722</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.080972</v>
+                  <v>0.0241989</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.08393299999999999</v>
+                  <v>0.025026</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.08583780000000001</v>
+                  <v>0.0264049</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.08868760000000001</v>
+                  <v>0.0283304</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0634653</v>
+                  <v>0.0308026</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0660341</v>
+                  <v>0.0349232</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.068684</v>
+                  <v>0.0401922</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0716908</v>
+                  <v>0.0246507</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0754389</v>
+                  <v>0.0249507</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0780781</v>
+                  <v>0.0249084</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.08159859999999999</v>
+                  <v>0.025417</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0866746</v>
+                  <v>0.025691</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0889358</v>
+                  <v>0.0262707</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0945853</v>
+                  <v>0.0268015</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0982999</v>
+                  <v>0.0274789</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.102978</v>
+                  <v>0.0288561</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.106901</v>
+                  <v>0.030155</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.112317</v>
+                  <v>0.0326295</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.09733840000000001</v>
+                  <v>0.0355582</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.101335</v>
+                  <v>0.0387886</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.105975</v>
+                  <v>0.0442776</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.110132</v>
+                  <v>0.0354786</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.115172</v>
+                  <v>0.0356873</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.121209</v>
+                  <v>0.0359896</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.126205</v>
+                  <v>0.0361447</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.131141</v>
+                  <v>0.0365455</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.137704</v>
+                  <v>0.0370387</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.143051</v>
+                  <v>0.0374911</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.149748</v>
+                  <v>0.0382015</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.154568</v>
+                  <v>0.0393225</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.16029</v>
+                  <v>0.0405886</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.166513</v>
+                  <v>0.0425901</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.145912</v>
+                  <v>0.0454562</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.149301</v>
+                  <v>0.0496657</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.152309</v>
+                  <v>0.0553023</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.157221</v>
+                  <v>0.07135279999999999</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.160664</v>
+                  <v>0.0716075</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.166029</v>
+                  <v>0.0718963</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.170781</v>
+                  <v>0.0721396</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.175608</v>
+                  <v>0.07288070000000001</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.181033</v>
+                  <v>0.07289329999999999</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.186455</v>
+                  <v>0.073226</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.192398</v>
+                  <v>0.073786</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.199037</v>
+                  <v>0.0744944</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.203931</v>
+                  <v>0.07550759999999999</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.210695</v>
+                  <v>0.0775174</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.216678</v>
+                  <v>0.0796972</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.181859</v>
+                  <v>0.0833348</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.199868</v>
+                  <v>0.08797199999999999</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.193515</v>
+                  <v>0.0954035</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.192797</v>
+                  <v>0.0996648</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.196994</v>
+                  <v>0.0977754</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.201949</v>
+                  <v>0.0978999</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.206787</v>
+                  <v>0.0981046</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.212581</v>
+                  <v>0.0988192</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.217678</v>
+                  <v>0.0991438</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.223918</v>
+                  <v>0.102822</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.229518</v>
+                  <v>0.100287</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.23542</v>
+                  <v>0.101658</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.241207</v>
+                  <v>0.103364</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.247384</v>
+                  <v>0.105254</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.199268</v>
+                  <v>0.108244</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.202036</v>
+                  <v>0.11305</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.205435</v>
+                  <v>0.119961</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.209778</v>
+                  <v>0.13336</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.213788</v>
+                  <v>0.133718</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.218497</v>
+                  <v>0.133814</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.22327</v>
+                  <v>0.133896</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.228488</v>
+                  <v>0.134135</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.234375</v>
+                  <v>0.134577</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.240447</v>
+                  <v>0.135148</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.24599</v>
+                  <v>0.135817</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.251978</v>
+                  <v>0.136846</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.257944</v>
+                  <v>0.13806</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.268641</v>
+                  <v>0.139958</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.209616</v>
+                  <v>0.14262</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.212749</v>
+                  <v>0.146392</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.216194</v>
+                  <v>0.152046</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.220147</v>
+                  <v>0.152616</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.224171</v>
+                  <v>0.153035</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.229194</v>
+                  <v>0.153122</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.234298</v>
+                  <v>0.153483</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.239466</v>
+                  <v>0.153843</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.245367</v>
+                  <v>0.153735</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1901,7 +1901,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_flat_map</v>
+                  <v>boost::unordered_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -2364,430 +2364,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0196261</v>
+                  <v>0.0349354</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0197912</v>
+                  <v>0.0372243</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0198901</v>
+                  <v>0.0433747</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0199582</v>
+                  <v>0.0462062</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0201314</v>
+                  <v>0.0510849</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0201829</v>
+                  <v>0.0306249</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0207955</v>
+                  <v>0.0325</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0194471</v>
+                  <v>0.0346322</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0195449</v>
+                  <v>0.0364502</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.019867</v>
+                  <v>0.0397791</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0201596</v>
+                  <v>0.0431275</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0201363</v>
+                  <v>0.0471309</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0205715</v>
+                  <v>0.0496454</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.021072</v>
+                  <v>0.0533765</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0210413</v>
+                  <v>0.0571097</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0212453</v>
+                  <v>0.0602121</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0213354</v>
+                  <v>0.0639561</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0214148</v>
+                  <v>0.0669614</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0218501</v>
+                  <v>0.070434</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0224228</v>
+                  <v>0.0451085</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0237556</v>
+                  <v>0.046578</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0210571</v>
+                  <v>0.0525073</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0212586</v>
+                  <v>0.0537413</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0214644</v>
+                  <v>0.056061</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0215637</v>
+                  <v>0.0582335</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.021764</v>
+                  <v>0.0604336</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0221105</v>
+                  <v>0.063626</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.022421</v>
+                  <v>0.06649049999999999</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0226251</v>
+                  <v>0.0688616</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0229748</v>
+                  <v>0.07168040000000001</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.02343</v>
+                  <v>0.0746487</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0239333</v>
+                  <v>0.07752729999999999</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0247176</v>
+                  <v>0.07917970000000001</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0263657</v>
+                  <v>0.0529663</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0292434</v>
+                  <v>0.0547963</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0221968</v>
+                  <v>0.0564959</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0224122</v>
+                  <v>0.0580906</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0226233</v>
+                  <v>0.0601554</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0229104</v>
+                  <v>0.06259190000000001</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0231873</v>
+                  <v>0.0644839</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0235225</v>
+                  <v>0.0672614</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0245394</v>
+                  <v>0.06977800000000001</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0242028</v>
+                  <v>0.0726223</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0246188</v>
+                  <v>0.0752708</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0255792</v>
+                  <v>0.0774999</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0258658</v>
+                  <v>0.0799808</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0269256</v>
+                  <v>0.0821132</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.029475</v>
+                  <v>0.0838373</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0328029</v>
+                  <v>0.057428</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0229759</v>
+                  <v>0.0590788</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0231768</v>
+                  <v>0.0613427</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0234395</v>
+                  <v>0.06343699999999999</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.023729</v>
+                  <v>0.06561989999999999</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0240074</v>
+                  <v>0.0681055</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.024327</v>
+                  <v>0.070746</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0247229</v>
+                  <v>0.0727792</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.025276</v>
+                  <v>0.0757994</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0257848</v>
+                  <v>0.07800020000000001</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0264266</v>
+                  <v>0.08056480000000001</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0273739</v>
+                  <v>0.08313520000000001</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0289127</v>
+                  <v>0.0855432</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0313813</v>
+                  <v>0.0898707</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0347866</v>
+                  <v>0.0657703</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0405541</v>
+                  <v>0.06761300000000001</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0251501</v>
+                  <v>0.0706816</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0254762</v>
+                  <v>0.0736002</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0257275</v>
+                  <v>0.07693999999999999</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0260131</v>
+                  <v>0.0791196</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0263866</v>
+                  <v>0.0839456</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0261122</v>
+                  <v>0.0874417</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0272077</v>
+                  <v>0.0915048</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0281149</v>
+                  <v>0.0958411</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0283556</v>
+                  <v>0.100017</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0292696</v>
+                  <v>0.10394</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0306653</v>
+                  <v>0.107671</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0333493</v>
+                  <v>0.113168</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0363328</v>
+                  <v>0.0979264</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0412171</v>
+                  <v>0.101481</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0356659</v>
+                  <v>0.105553</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0363526</v>
+                  <v>0.11045</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0371667</v>
+                  <v>0.115302</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0379171</v>
+                  <v>0.120141</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0386585</v>
+                  <v>0.125522</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0393656</v>
+                  <v>0.130499</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0400877</v>
+                  <v>0.135999</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0412195</v>
+                  <v>0.141492</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0419461</v>
+                  <v>0.147983</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0430021</v>
+                  <v>0.153941</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0442752</v>
+                  <v>0.160131</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.046052</v>
+                  <v>0.165987</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0487434</v>
+                  <v>0.145305</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0533016</v>
+                  <v>0.149575</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0713101</v>
+                  <v>0.15412</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.07162789999999999</v>
+                  <v>0.156752</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0721873</v>
+                  <v>0.161486</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0726131</v>
+                  <v>0.165355</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0731451</v>
+                  <v>0.171084</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.073726</v>
+                  <v>0.175965</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0743772</v>
+                  <v>0.181715</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0751235</v>
+                  <v>0.18689</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0758935</v>
+                  <v>0.193063</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.07695730000000001</v>
+                  <v>0.198751</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.07818170000000001</v>
+                  <v>0.204087</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0798373</v>
+                  <v>0.211733</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.08226</v>
+                  <v>0.21659</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0859181</v>
+                  <v>0.182251</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.08945119999999999</v>
+                  <v>0.185854</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0901479</v>
+                  <v>0.189322</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0909215</v>
+                  <v>0.193413</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0917118</v>
+                  <v>0.19773</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.09258719999999999</v>
+                  <v>0.202287</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.09357890000000001</v>
+                  <v>0.208167</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.09464</v>
+                  <v>0.212927</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0957011</v>
+                  <v>0.218337</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0970447</v>
+                  <v>0.224385</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0984414</v>
+                  <v>0.230112</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.101572</v>
+                  <v>0.236296</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.102157</v>
+                  <v>0.242636</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.104633</v>
+                  <v>0.248114</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.108505</v>
+                  <v>0.200198</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.114455</v>
+                  <v>0.202936</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.107135</v>
+                  <v>0.206116</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.10814</v>
+                  <v>0.209939</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.109179</v>
+                  <v>0.214804</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.110339</v>
+                  <v>0.220161</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.111555</v>
+                  <v>0.223485</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.117399</v>
+                  <v>0.229261</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.11438</v>
+                  <v>0.235257</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.115714</v>
+                  <v>0.24097</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.117191</v>
+                  <v>0.246462</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.11914</v>
+                  <v>0.253085</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.121337</v>
+                  <v>0.258205</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.127893</v>
+                  <v>0.265025</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.128374</v>
+                  <v>0.210482</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.134621</v>
+                  <v>0.213193</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.118436</v>
+                  <v>0.219024</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.119542</v>
+                  <v>0.221271</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.120555</v>
+                  <v>0.22573</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.124935</v>
+                  <v>0.229762</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.12278</v>
+                  <v>0.23492</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.123993</v>
+                  <v>0.24055</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.125349</v>
+                  <v>0.245786</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2803,7 +2803,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_node_map</v>
+                  <v>boost::unordered_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -3266,430 +3266,1332 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0206785</v>
+                  <v>0.0197894</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0207813</v>
+                  <v>0.0201052</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0208833</v>
+                  <v>0.0201236</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0207783</v>
+                  <v>0.0200332</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0207749</v>
+                  <v>0.0203125</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.020897</v>
+                  <v>0.0206254</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0212215</v>
+                  <v>0.0213259</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0216661</v>
+                  <v>0.019472</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0216931</v>
+                  <v>0.0198448</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0219577</v>
+                  <v>0.019895</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0219969</v>
+                  <v>0.0201555</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0221826</v>
+                  <v>0.0202462</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0225411</v>
+                  <v>0.0204734</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0228079</v>
+                  <v>0.0207159</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0227173</v>
+                  <v>0.0208968</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0227772</v>
+                  <v>0.021277</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0230473</v>
+                  <v>0.0214165</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0229634</v>
+                  <v>0.0217844</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0230157</v>
+                  <v>0.0221565</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0234205</v>
+                  <v>0.0230293</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0244919</v>
+                  <v>0.02607</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.023336</v>
+                  <v>0.0209819</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0235586</v>
+                  <v>0.0211275</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0238225</v>
+                  <v>0.0213664</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0237382</v>
+                  <v>0.021552</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0238801</v>
+                  <v>0.0217889</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0241333</v>
+                  <v>0.022141</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0244564</v>
+                  <v>0.0224621</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0245499</v>
+                  <v>0.0227454</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0247842</v>
+                  <v>0.0230891</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0251216</v>
+                  <v>0.0235791</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0254613</v>
+                  <v>0.0243147</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0260233</v>
+                  <v>0.0254992</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0270699</v>
+                  <v>0.0276103</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0306774</v>
+                  <v>0.0319471</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0245451</v>
+                  <v>0.0222259</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0247372</v>
+                  <v>0.0224589</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.024937</v>
+                  <v>0.0225931</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0252111</v>
+                  <v>0.0229286</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0253094</v>
+                  <v>0.0231774</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0255793</v>
+                  <v>0.0240694</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0257865</v>
+                  <v>0.0239096</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0260194</v>
+                  <v>0.0242348</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.026382</v>
+                  <v>0.0247279</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0268562</v>
+                  <v>0.0255188</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0274538</v>
+                  <v>0.0264864</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0286629</v>
+                  <v>0.0279806</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.030666</v>
+                  <v>0.0306931</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0341753</v>
+                  <v>0.0341211</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0248564</v>
+                  <v>0.0229859</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0250656</v>
+                  <v>0.0231886</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0253725</v>
+                  <v>0.0234438</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0256172</v>
+                  <v>0.0237361</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.025785</v>
+                  <v>0.0240592</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0260479</v>
+                  <v>0.0243611</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0265271</v>
+                  <v>0.0247697</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0269807</v>
+                  <v>0.0252948</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0273609</v>
+                  <v>0.0259223</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0280786</v>
+                  <v>0.026794</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0290054</v>
+                  <v>0.027927</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0305336</v>
+                  <v>0.0297296</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0329544</v>
+                  <v>0.0320666</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0362898</v>
+                  <v>0.0355204</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0419218</v>
+                  <v>0.040984</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.026637</v>
+                  <v>0.0253889</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0267861</v>
+                  <v>0.0250649</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0277745</v>
+                  <v>0.0253452</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0273026</v>
+                  <v>0.0255558</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0277491</v>
+                  <v>0.0259444</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0281135</v>
+                  <v>0.0264835</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0285725</v>
+                  <v>0.0277257</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0291539</v>
+                  <v>0.0278552</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0301281</v>
+                  <v>0.0284422</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0315789</v>
+                  <v>0.0297968</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.032797</v>
+                  <v>0.0311555</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0350439</v>
+                  <v>0.033579</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0383708</v>
+                  <v>0.036514</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0434181</v>
+                  <v>0.041536</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0335094</v>
+                  <v>0.0361322</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.033843</v>
+                  <v>0.0366932</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0344867</v>
+                  <v>0.0376074</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0348016</v>
+                  <v>0.0384358</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0352056</v>
+                  <v>0.0391975</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0360305</v>
+                  <v>0.0400954</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0367309</v>
+                  <v>0.0407676</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0372919</v>
+                  <v>0.0415868</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0386863</v>
+                  <v>0.0424312</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0396944</v>
+                  <v>0.0440182</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0417616</v>
+                  <v>0.0448619</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0440648</v>
+                  <v>0.0466044</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0474931</v>
+                  <v>0.0522096</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.052939</v>
+                  <v>0.0533849</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.06786490000000001</v>
+                  <v>0.07120079999999999</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.068254</v>
+                  <v>0.074347</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.06875249999999999</v>
+                  <v>0.0720843</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0691842</v>
+                  <v>0.0726903</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.06990540000000001</v>
+                  <v>0.0733799</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.07045410000000001</v>
+                  <v>0.0737217</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0711215</v>
+                  <v>0.0743284</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0718926</v>
+                  <v>0.07510169999999999</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0728032</v>
+                  <v>0.0759703</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.07412000000000001</v>
+                  <v>0.0768456</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.07561420000000001</v>
+                  <v>0.078163</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0777135</v>
+                  <v>0.08907039999999999</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.08079749999999999</v>
+                  <v>0.0824233</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0859578</v>
+                  <v>0.0859721</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0926965</v>
+                  <v>0.0888313</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0931657</v>
+                  <v>0.0893418</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.09363</v>
+                  <v>0.09014900000000001</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0942807</v>
+                  <v>0.0909683</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0949342</v>
+                  <v>0.091824</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0956124</v>
+                  <v>0.0928055</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.09643110000000001</v>
+                  <v>0.0937335</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0974578</v>
+                  <v>0.0949487</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.09865409999999999</v>
+                  <v>0.0960443</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.099985</v>
+                  <v>0.1104</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.101915</v>
+                  <v>0.0990668</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.10417</v>
+                  <v>0.101151</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.107355</v>
+                  <v>0.103725</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.111855</v>
+                  <v>0.107499</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.119295</v>
+                  <v>0.11348</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.111174</v>
+                  <v>0.107438</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.113436</v>
+                  <v>0.108556</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.112627</v>
+                  <v>0.109643</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.113487</v>
+                  <v>0.110714</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.114491</v>
+                  <v>0.111891</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.116157</v>
+                  <v>0.113163</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.116856</v>
+                  <v>0.114402</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.118562</v>
+                  <v>0.119551</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.120523</v>
+                  <v>0.117449</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.121962</v>
+                  <v>0.11945</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.124397</v>
+                  <v>0.121615</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.127842</v>
+                  <v>0.124506</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.14034</v>
+                  <v>0.128529</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.13989</v>
+                  <v>0.136396</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.123322</v>
+                  <v>0.118386</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.124097</v>
+                  <v>0.120885</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.124887</v>
+                  <v>0.121618</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.126237</v>
+                  <v>0.121781</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.12706</v>
+                  <v>0.123325</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.127951</v>
+                  <v>0.123784</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.129431</v>
+                  <v>0.125183</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>plot!$F$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF66FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>plot!$A$2:$A$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>10000</v>
+                </pt>
+                <pt idx="1">
+                  <v>10500</v>
+                </pt>
+                <pt idx="2">
+                  <v>11025</v>
+                </pt>
+                <pt idx="3">
+                  <v>11576</v>
+                </pt>
+                <pt idx="4">
+                  <v>12154</v>
+                </pt>
+                <pt idx="5">
+                  <v>12760</v>
+                </pt>
+                <pt idx="6">
+                  <v>13396</v>
+                </pt>
+                <pt idx="7">
+                  <v>14063</v>
+                </pt>
+                <pt idx="8">
+                  <v>14763</v>
+                </pt>
+                <pt idx="9">
+                  <v>15498</v>
+                </pt>
+                <pt idx="10">
+                  <v>16269</v>
+                </pt>
+                <pt idx="11">
+                  <v>17078</v>
+                </pt>
+                <pt idx="12">
+                  <v>17927</v>
+                </pt>
+                <pt idx="13">
+                  <v>18818</v>
+                </pt>
+                <pt idx="14">
+                  <v>19753</v>
+                </pt>
+                <pt idx="15">
+                  <v>20734</v>
+                </pt>
+                <pt idx="16">
+                  <v>21764</v>
+                </pt>
+                <pt idx="17">
+                  <v>22845</v>
+                </pt>
+                <pt idx="18">
+                  <v>23980</v>
+                </pt>
+                <pt idx="19">
+                  <v>25171</v>
+                </pt>
+                <pt idx="20">
+                  <v>26421</v>
+                </pt>
+                <pt idx="21">
+                  <v>27733</v>
+                </pt>
+                <pt idx="22">
+                  <v>29110</v>
+                </pt>
+                <pt idx="23">
+                  <v>30555</v>
+                </pt>
+                <pt idx="24">
+                  <v>32072</v>
+                </pt>
+                <pt idx="25">
+                  <v>33664</v>
+                </pt>
+                <pt idx="26">
+                  <v>35335</v>
+                </pt>
+                <pt idx="27">
+                  <v>37089</v>
+                </pt>
+                <pt idx="28">
+                  <v>38930</v>
+                </pt>
+                <pt idx="29">
+                  <v>40863</v>
+                </pt>
+                <pt idx="30">
+                  <v>42892</v>
+                </pt>
+                <pt idx="31">
+                  <v>45022</v>
+                </pt>
+                <pt idx="32">
+                  <v>47258</v>
+                </pt>
+                <pt idx="33">
+                  <v>49605</v>
+                </pt>
+                <pt idx="34">
+                  <v>52069</v>
+                </pt>
+                <pt idx="35">
+                  <v>54656</v>
+                </pt>
+                <pt idx="36">
+                  <v>57372</v>
+                </pt>
+                <pt idx="37">
+                  <v>60223</v>
+                </pt>
+                <pt idx="38">
+                  <v>63216</v>
+                </pt>
+                <pt idx="39">
+                  <v>66358</v>
+                </pt>
+                <pt idx="40">
+                  <v>69657</v>
+                </pt>
+                <pt idx="41">
+                  <v>73120</v>
+                </pt>
+                <pt idx="42">
+                  <v>76756</v>
+                </pt>
+                <pt idx="43">
+                  <v>80573</v>
+                </pt>
+                <pt idx="44">
+                  <v>84580</v>
+                </pt>
+                <pt idx="45">
+                  <v>88787</v>
+                </pt>
+                <pt idx="46">
+                  <v>93204</v>
+                </pt>
+                <pt idx="47">
+                  <v>97841</v>
+                </pt>
+                <pt idx="48">
+                  <v>102709</v>
+                </pt>
+                <pt idx="49">
+                  <v>107820</v>
+                </pt>
+                <pt idx="50">
+                  <v>113186</v>
+                </pt>
+                <pt idx="51">
+                  <v>118820</v>
+                </pt>
+                <pt idx="52">
+                  <v>124735</v>
+                </pt>
+                <pt idx="53">
+                  <v>130945</v>
+                </pt>
+                <pt idx="54">
+                  <v>137465</v>
+                </pt>
+                <pt idx="55">
+                  <v>144311</v>
+                </pt>
+                <pt idx="56">
+                  <v>151499</v>
+                </pt>
+                <pt idx="57">
+                  <v>159046</v>
+                </pt>
+                <pt idx="58">
+                  <v>166970</v>
+                </pt>
+                <pt idx="59">
+                  <v>175290</v>
+                </pt>
+                <pt idx="60">
+                  <v>184026</v>
+                </pt>
+                <pt idx="61">
+                  <v>193198</v>
+                </pt>
+                <pt idx="62">
+                  <v>202828</v>
+                </pt>
+                <pt idx="63">
+                  <v>212939</v>
+                </pt>
+                <pt idx="64">
+                  <v>223555</v>
+                </pt>
+                <pt idx="65">
+                  <v>234701</v>
+                </pt>
+                <pt idx="66">
+                  <v>246404</v>
+                </pt>
+                <pt idx="67">
+                  <v>258692</v>
+                </pt>
+                <pt idx="68">
+                  <v>271594</v>
+                </pt>
+                <pt idx="69">
+                  <v>285141</v>
+                </pt>
+                <pt idx="70">
+                  <v>299365</v>
+                </pt>
+                <pt idx="71">
+                  <v>314300</v>
+                </pt>
+                <pt idx="72">
+                  <v>329981</v>
+                </pt>
+                <pt idx="73">
+                  <v>346446</v>
+                </pt>
+                <pt idx="74">
+                  <v>363734</v>
+                </pt>
+                <pt idx="75">
+                  <v>381886</v>
+                </pt>
+                <pt idx="76">
+                  <v>400945</v>
+                </pt>
+                <pt idx="77">
+                  <v>420956</v>
+                </pt>
+                <pt idx="78">
+                  <v>441967</v>
+                </pt>
+                <pt idx="79">
+                  <v>464028</v>
+                </pt>
+                <pt idx="80">
+                  <v>487192</v>
+                </pt>
+                <pt idx="81">
+                  <v>511514</v>
+                </pt>
+                <pt idx="82">
+                  <v>537052</v>
+                </pt>
+                <pt idx="83">
+                  <v>563866</v>
+                </pt>
+                <pt idx="84">
+                  <v>592020</v>
+                </pt>
+                <pt idx="85">
+                  <v>621581</v>
+                </pt>
+                <pt idx="86">
+                  <v>652620</v>
+                </pt>
+                <pt idx="87">
+                  <v>685210</v>
+                </pt>
+                <pt idx="88">
+                  <v>719429</v>
+                </pt>
+                <pt idx="89">
+                  <v>755358</v>
+                </pt>
+                <pt idx="90">
+                  <v>793083</v>
+                </pt>
+                <pt idx="91">
+                  <v>832694</v>
+                </pt>
+                <pt idx="92">
+                  <v>874285</v>
+                </pt>
+                <pt idx="93">
+                  <v>917955</v>
+                </pt>
+                <pt idx="94">
+                  <v>963808</v>
+                </pt>
+                <pt idx="95">
+                  <v>1011953</v>
+                </pt>
+                <pt idx="96">
+                  <v>1062505</v>
+                </pt>
+                <pt idx="97">
+                  <v>1115584</v>
+                </pt>
+                <pt idx="98">
+                  <v>1171316</v>
+                </pt>
+                <pt idx="99">
+                  <v>1229834</v>
+                </pt>
+                <pt idx="100">
+                  <v>1291277</v>
+                </pt>
+                <pt idx="101">
+                  <v>1355792</v>
+                </pt>
+                <pt idx="102">
+                  <v>1423532</v>
+                </pt>
+                <pt idx="103">
+                  <v>1494659</v>
+                </pt>
+                <pt idx="104">
+                  <v>1569342</v>
+                </pt>
+                <pt idx="105">
+                  <v>1647759</v>
+                </pt>
+                <pt idx="106">
+                  <v>1730096</v>
+                </pt>
+                <pt idx="107">
+                  <v>1816549</v>
+                </pt>
+                <pt idx="108">
+                  <v>1907324</v>
+                </pt>
+                <pt idx="109">
+                  <v>2002637</v>
+                </pt>
+                <pt idx="110">
+                  <v>2102715</v>
+                </pt>
+                <pt idx="111">
+                  <v>2207796</v>
+                </pt>
+                <pt idx="112">
+                  <v>2318131</v>
+                </pt>
+                <pt idx="113">
+                  <v>2433982</v>
+                </pt>
+                <pt idx="114">
+                  <v>2555625</v>
+                </pt>
+                <pt idx="115">
+                  <v>2683350</v>
+                </pt>
+                <pt idx="116">
+                  <v>2817461</v>
+                </pt>
+                <pt idx="117">
+                  <v>2958277</v>
+                </pt>
+                <pt idx="118">
+                  <v>3106133</v>
+                </pt>
+                <pt idx="119">
+                  <v>3261381</v>
+                </pt>
+                <pt idx="120">
+                  <v>3424391</v>
+                </pt>
+                <pt idx="121">
+                  <v>3595551</v>
+                </pt>
+                <pt idx="122">
+                  <v>3775269</v>
+                </pt>
+                <pt idx="123">
+                  <v>3963972</v>
+                </pt>
+                <pt idx="124">
+                  <v>4162110</v>
+                </pt>
+                <pt idx="125">
+                  <v>4370154</v>
+                </pt>
+                <pt idx="126">
+                  <v>4588600</v>
+                </pt>
+                <pt idx="127">
+                  <v>4817968</v>
+                </pt>
+                <pt idx="128">
+                  <v>5058804</v>
+                </pt>
+                <pt idx="129">
+                  <v>5311681</v>
+                </pt>
+                <pt idx="130">
+                  <v>5577201</v>
+                </pt>
+                <pt idx="131">
+                  <v>5855997</v>
+                </pt>
+                <pt idx="132">
+                  <v>6148732</v>
+                </pt>
+                <pt idx="133">
+                  <v>6456103</v>
+                </pt>
+                <pt idx="134">
+                  <v>6778842</v>
+                </pt>
+                <pt idx="135">
+                  <v>7117717</v>
+                </pt>
+                <pt idx="136">
+                  <v>7473535</v>
+                </pt>
+                <pt idx="137">
+                  <v>7847143</v>
+                </pt>
+                <pt idx="138">
+                  <v>8239431</v>
+                </pt>
+                <pt idx="139">
+                  <v>8651333</v>
+                </pt>
+                <pt idx="140">
+                  <v>9083830</v>
+                </pt>
+                <pt idx="141">
+                  <v>9537951</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>plot!$F$2:$F$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>0.0207038</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.0209254</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.0210935</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.0211706</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.0212118</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.0213994</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.0221416</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.0217383</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.021984</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.0219441</v>
+                </pt>
+                <pt idx="10">
+                  <v>0.0222077</v>
+                </pt>
+                <pt idx="11">
+                  <v>0.0225074</v>
+                </pt>
+                <pt idx="12">
+                  <v>0.0225264</v>
+                </pt>
+                <pt idx="13">
+                  <v>0.0227424</v>
+                </pt>
+                <pt idx="14">
+                  <v>0.0228512</v>
+                </pt>
+                <pt idx="15">
+                  <v>0.022922</v>
+                </pt>
+                <pt idx="16">
+                  <v>0.0231906</v>
+                </pt>
+                <pt idx="17">
+                  <v>0.0233755</v>
+                </pt>
+                <pt idx="18">
+                  <v>0.0238266</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.0248271</v>
+                </pt>
+                <pt idx="20">
+                  <v>0.0279618</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.0233915</v>
+                </pt>
+                <pt idx="22">
+                  <v>0.0234442</v>
+                </pt>
+                <pt idx="23">
+                  <v>0.0236222</v>
+                </pt>
+                <pt idx="24">
+                  <v>0.0237763</v>
+                </pt>
+                <pt idx="25">
+                  <v>0.0240463</v>
+                </pt>
+                <pt idx="26">
+                  <v>0.0242566</v>
+                </pt>
+                <pt idx="27">
+                  <v>0.0245442</v>
+                </pt>
+                <pt idx="28">
+                  <v>0.0247829</v>
+                </pt>
+                <pt idx="29">
+                  <v>0.0251674</v>
+                </pt>
+                <pt idx="30">
+                  <v>0.0255784</v>
+                </pt>
+                <pt idx="31">
+                  <v>0.0262318</v>
+                </pt>
+                <pt idx="32">
+                  <v>0.0271806</v>
+                </pt>
+                <pt idx="33">
+                  <v>0.0296471</v>
+                </pt>
+                <pt idx="34">
+                  <v>0.0340328</v>
+                </pt>
+                <pt idx="35">
+                  <v>0.0245842</v>
+                </pt>
+                <pt idx="36">
+                  <v>0.0247098</v>
+                </pt>
+                <pt idx="37">
+                  <v>0.0249816</v>
+                </pt>
+                <pt idx="38">
+                  <v>0.0251795</v>
+                </pt>
+                <pt idx="39">
+                  <v>0.0253233</v>
+                </pt>
+                <pt idx="40">
+                  <v>0.0256274</v>
+                </pt>
+                <pt idx="41">
+                  <v>0.0259189</v>
+                </pt>
+                <pt idx="42">
+                  <v>0.0261494</v>
+                </pt>
+                <pt idx="43">
+                  <v>0.026656</v>
+                </pt>
+                <pt idx="44">
+                  <v>0.0272972</v>
+                </pt>
+                <pt idx="45">
+                  <v>0.0281227</v>
+                </pt>
+                <pt idx="46">
+                  <v>0.0297722</v>
+                </pt>
+                <pt idx="47">
+                  <v>0.0320114</v>
+                </pt>
+                <pt idx="48">
+                  <v>0.0359768</v>
+                </pt>
+                <pt idx="49">
+                  <v>0.0249922</v>
+                </pt>
+                <pt idx="50">
+                  <v>0.0251284</v>
+                </pt>
+                <pt idx="51">
+                  <v>0.0254049</v>
+                </pt>
+                <pt idx="52">
+                  <v>0.0255729</v>
+                </pt>
+                <pt idx="53">
+                  <v>0.0259531</v>
+                </pt>
+                <pt idx="54">
+                  <v>0.0261395</v>
+                </pt>
+                <pt idx="55">
+                  <v>0.0265401</v>
+                </pt>
+                <pt idx="56">
+                  <v>0.0270227</v>
+                </pt>
+                <pt idx="57">
+                  <v>0.0276978</v>
+                </pt>
+                <pt idx="58">
+                  <v>0.0284369</v>
+                </pt>
+                <pt idx="59">
+                  <v>0.0295769</v>
+                </pt>
+                <pt idx="60">
+                  <v>0.0313434</v>
+                </pt>
+                <pt idx="61">
+                  <v>0.0337604</v>
+                </pt>
+                <pt idx="62">
+                  <v>0.0372556</v>
+                </pt>
+                <pt idx="63">
+                  <v>0.042835</v>
+                </pt>
+                <pt idx="64">
+                  <v>0.0265858</v>
+                </pt>
+                <pt idx="65">
+                  <v>0.0269848</v>
+                </pt>
+                <pt idx="66">
+                  <v>0.0272039</v>
+                </pt>
+                <pt idx="67">
+                  <v>0.0274478</v>
+                </pt>
+                <pt idx="68">
+                  <v>0.0278812</v>
+                </pt>
+                <pt idx="69">
+                  <v>0.0281991</v>
+                </pt>
+                <pt idx="70">
+                  <v>0.0287265</v>
+                </pt>
+                <pt idx="71">
+                  <v>0.0295737</v>
+                </pt>
+                <pt idx="72">
+                  <v>0.0303666</v>
+                </pt>
+                <pt idx="73">
+                  <v>0.0315994</v>
+                </pt>
+                <pt idx="74">
+                  <v>0.0332608</v>
+                </pt>
+                <pt idx="75">
+                  <v>0.0355532</v>
+                </pt>
+                <pt idx="76">
+                  <v>0.038887</v>
+                </pt>
+                <pt idx="77">
+                  <v>0.0440891</v>
+                </pt>
+                <pt idx="78">
+                  <v>0.0335026</v>
+                </pt>
+                <pt idx="79">
+                  <v>0.0336411</v>
+                </pt>
+                <pt idx="80">
+                  <v>0.0340919</v>
+                </pt>
+                <pt idx="81">
+                  <v>0.0347245</v>
+                </pt>
+                <pt idx="82">
+                  <v>0.0350658</v>
+                </pt>
+                <pt idx="83">
+                  <v>0.035695</v>
+                </pt>
+                <pt idx="84">
+                  <v>0.036408</v>
+                </pt>
+                <pt idx="85">
+                  <v>0.0372398</v>
+                </pt>
+                <pt idx="86">
+                  <v>0.0382203</v>
+                </pt>
+                <pt idx="87">
+                  <v>0.0395911</v>
+                </pt>
+                <pt idx="88">
+                  <v>0.0413396</v>
+                </pt>
+                <pt idx="89">
+                  <v>0.0440599</v>
+                </pt>
+                <pt idx="90">
+                  <v>0.0478185</v>
+                </pt>
+                <pt idx="91">
+                  <v>0.0531663</v>
+                </pt>
+                <pt idx="92">
+                  <v>0.0674756</v>
+                </pt>
+                <pt idx="93">
+                  <v>0.0678738</v>
+                </pt>
+                <pt idx="94">
+                  <v>0.06835280000000001</v>
+                </pt>
+                <pt idx="95">
+                  <v>0.0688624</v>
+                </pt>
+                <pt idx="96">
+                  <v>0.07131179999999999</v>
+                </pt>
+                <pt idx="97">
+                  <v>0.07247720000000001</v>
+                </pt>
+                <pt idx="98">
+                  <v>0.0707691</v>
+                </pt>
+                <pt idx="99">
+                  <v>0.0715047</v>
+                </pt>
+                <pt idx="100">
+                  <v>0.0724716</v>
+                </pt>
+                <pt idx="101">
+                  <v>0.07365339999999999</v>
+                </pt>
+                <pt idx="102">
+                  <v>0.0752357</v>
+                </pt>
+                <pt idx="103">
+                  <v>0.07733470000000001</v>
+                </pt>
+                <pt idx="104">
+                  <v>0.0805929</v>
+                </pt>
+                <pt idx="105">
+                  <v>0.08521570000000001</v>
+                </pt>
+                <pt idx="106">
+                  <v>0.09318120000000001</v>
+                </pt>
+                <pt idx="107">
+                  <v>0.0937201</v>
+                </pt>
+                <pt idx="108">
+                  <v>0.0947561</v>
+                </pt>
+                <pt idx="109">
+                  <v>0.0946718</v>
+                </pt>
+                <pt idx="110">
+                  <v>0.0954238</v>
+                </pt>
+                <pt idx="111">
+                  <v>0.0960589</v>
+                </pt>
+                <pt idx="112">
+                  <v>0.09680229999999999</v>
+                </pt>
+                <pt idx="113">
+                  <v>0.09780510000000001</v>
+                </pt>
+                <pt idx="114">
+                  <v>0.0989189</v>
+                </pt>
+                <pt idx="115">
+                  <v>0.100379</v>
+                </pt>
+                <pt idx="116">
+                  <v>0.102046</v>
+                </pt>
+                <pt idx="117">
+                  <v>0.104462</v>
+                </pt>
+                <pt idx="118">
+                  <v>0.107403</v>
+                </pt>
+                <pt idx="119">
+                  <v>0.123425</v>
+                </pt>
+                <pt idx="120">
+                  <v>0.119466</v>
+                </pt>
+                <pt idx="121">
+                  <v>0.111747</v>
+                </pt>
+                <pt idx="122">
+                  <v>0.112366</v>
+                </pt>
+                <pt idx="123">
+                  <v>0.113098</v>
+                </pt>
+                <pt idx="124">
+                  <v>0.113718</v>
+                </pt>
+                <pt idx="125">
+                  <v>0.114767</v>
+                </pt>
+                <pt idx="126">
+                  <v>0.115834</v>
+                </pt>
+                <pt idx="127">
+                  <v>0.117009</v>
+                </pt>
+                <pt idx="128">
+                  <v>0.11837</v>
+                </pt>
+                <pt idx="129">
+                  <v>0.120045</v>
+                </pt>
+                <pt idx="130">
+                  <v>0.122017</v>
+                </pt>
+                <pt idx="131">
+                  <v>0.124441</v>
+                </pt>
+                <pt idx="132">
+                  <v>0.12801</v>
+                </pt>
+                <pt idx="133">
+                  <v>0.132847</v>
+                </pt>
+                <pt idx="134">
+                  <v>0.140151</v>
+                </pt>
+                <pt idx="135">
+                  <v>0.123723</v>
+                </pt>
+                <pt idx="136">
+                  <v>0.124728</v>
+                </pt>
+                <pt idx="137">
+                  <v>0.125981</v>
+                </pt>
+                <pt idx="138">
+                  <v>0.126212</v>
+                </pt>
+                <pt idx="139">
+                  <v>0.127737</v>
+                </pt>
+                <pt idx="140">
+                  <v>0.127931</v>
+                </pt>
+                <pt idx="141">
+                  <v>0.129179</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3792,7 +4694,7 @@
           <x val="0.09943851078021188"/>
           <y val="0.05455922082745843"/>
           <w val="0.3308817338426756"/>
-          <h val="0.2472877044215627"/>
+          <h val="0.3091096305269533"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -4142,7 +5044,7 @@
   <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4158,15 +5060,20 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>absl::node_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::unordered_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::unordered_flat_map</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>boost::unordered_node_map</t>
         </is>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0697455</v>
+        <v>0.0637916</v>
       </c>
       <c r="C2" t="n">
-        <v>0.072462</v>
+        <v>0.0672991</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0988038</v>
+        <v>0.0946837</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0569939</v>
+        <v>0.0548281</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06271359999999999</v>
+        <v>0.0650525</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.07244440000000001</v>
+        <v>0.0641902</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07266549999999999</v>
+        <v>0.0674377</v>
       </c>
       <c r="D3" t="n">
-        <v>0.105473</v>
+        <v>0.09861300000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0564531</v>
+        <v>0.0542892</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06584</v>
+        <v>0.0610984</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0691953</v>
+        <v>0.0674421</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0730259</v>
+        <v>0.0670837</v>
       </c>
       <c r="D4" t="n">
-        <v>0.105319</v>
+        <v>0.100818</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0577047</v>
+        <v>0.054488</v>
       </c>
       <c r="F4" t="n">
-        <v>0.062762</v>
+        <v>0.0616355</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.065731</v>
+        <v>0.0638417</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0690952</v>
+        <v>0.0717043</v>
       </c>
       <c r="D5" t="n">
-        <v>0.111068</v>
+        <v>0.105437</v>
       </c>
       <c r="E5" t="n">
-        <v>0.056276</v>
+        <v>0.0554691</v>
       </c>
       <c r="F5" t="n">
-        <v>0.063217</v>
+        <v>0.0631627</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0692772</v>
+        <v>0.06567000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0675666</v>
+        <v>0.0690339</v>
       </c>
       <c r="D6" t="n">
-        <v>0.107327</v>
+        <v>0.108427</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0571848</v>
+        <v>0.056088</v>
       </c>
       <c r="F6" t="n">
-        <v>0.06764489999999999</v>
+        <v>0.0622346</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0767423</v>
+        <v>0.0651544</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0722312</v>
+        <v>0.0688793</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0870068</v>
+        <v>0.08313429999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0606429</v>
+        <v>0.060062</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0669472</v>
+        <v>0.063471</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0677687</v>
+        <v>0.0667338</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0722858</v>
+        <v>0.069664</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0950826</v>
+        <v>0.08567279999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>0.07267419999999999</v>
+        <v>0.06487030000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0778211</v>
+        <v>0.06649140000000001</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0691739</v>
+        <v>0.0666224</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0787471</v>
+        <v>0.070773</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0903269</v>
+        <v>0.08961860000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0596861</v>
+        <v>0.0558839</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0702091</v>
+        <v>0.0660087</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0753433</v>
+        <v>0.0722979</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0837999</v>
+        <v>0.079819</v>
       </c>
       <c r="D10" t="n">
-        <v>0.09320340000000001</v>
+        <v>0.08881029999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0600285</v>
+        <v>0.0562253</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0695621</v>
+        <v>0.066596</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0783404</v>
+        <v>0.07316640000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0843217</v>
+        <v>0.0789034</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0995771</v>
+        <v>0.0918486</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0597251</v>
+        <v>0.0597676</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0709549</v>
+        <v>0.0674382</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.08047360000000001</v>
+        <v>0.0724038</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0871127</v>
+        <v>0.07653890000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0977658</v>
+        <v>0.0934902</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0608979</v>
+        <v>0.0562116</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0690882</v>
+        <v>0.0657133</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0748554</v>
+        <v>0.07125819999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07949879999999999</v>
+        <v>0.07635980000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>0.101232</v>
+        <v>0.0979805</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0605266</v>
+        <v>0.0565094</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0697324</v>
+        <v>0.0659991</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0838911</v>
+        <v>0.0759667</v>
       </c>
       <c r="C14" t="n">
-        <v>0.08082019999999999</v>
+        <v>0.0769268</v>
       </c>
       <c r="D14" t="n">
-        <v>0.100265</v>
+        <v>0.0997194</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0576453</v>
+        <v>0.0572564</v>
       </c>
       <c r="F14" t="n">
-        <v>0.06684470000000001</v>
+        <v>0.06660820000000001</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.07267849999999999</v>
+        <v>0.0747437</v>
       </c>
       <c r="C15" t="n">
-        <v>0.08067589999999999</v>
+        <v>0.0788147</v>
       </c>
       <c r="D15" t="n">
-        <v>0.105081</v>
+        <v>0.102504</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0613853</v>
+        <v>0.0582911</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0675398</v>
+        <v>0.06886150000000001</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0758887</v>
+        <v>0.0754233</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07711270000000001</v>
+        <v>0.0810728</v>
       </c>
       <c r="D16" t="n">
-        <v>0.105415</v>
+        <v>0.105618</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0579849</v>
+        <v>0.0579476</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0669458</v>
+        <v>0.06998409999999999</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0741885</v>
+        <v>0.0728265</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0773962</v>
+        <v>0.0823951</v>
       </c>
       <c r="D17" t="n">
-        <v>0.111723</v>
+        <v>0.108926</v>
       </c>
       <c r="E17" t="n">
-        <v>0.06267780000000001</v>
+        <v>0.058821</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0699958</v>
+        <v>0.06892719999999999</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.074959</v>
+        <v>0.0736059</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07716530000000001</v>
+        <v>0.0796444</v>
       </c>
       <c r="D18" t="n">
-        <v>0.111788</v>
+        <v>0.113014</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0589575</v>
+        <v>0.0591118</v>
       </c>
       <c r="F18" t="n">
-        <v>0.067674</v>
+        <v>0.0693121</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0728549</v>
+        <v>0.0739112</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0788219</v>
+        <v>0.0812491</v>
       </c>
       <c r="D19" t="n">
-        <v>0.11461</v>
+        <v>0.11596</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0594905</v>
+        <v>0.0607308</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0688262</v>
+        <v>0.0713911</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0748915</v>
+        <v>0.07366979999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>0.08172260000000001</v>
+        <v>0.07762189999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>0.117583</v>
+        <v>0.120676</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0619073</v>
+        <v>0.0620195</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0694553</v>
+        <v>0.0705973</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07410650000000001</v>
+        <v>0.0747442</v>
       </c>
       <c r="C21" t="n">
-        <v>0.07901130000000001</v>
+        <v>0.082061</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0916947</v>
+        <v>0.0907371</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0694089</v>
+        <v>0.0648181</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0711961</v>
+        <v>0.072281</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.07698439999999999</v>
+        <v>0.0786314</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0812293</v>
+        <v>0.0831976</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0906791</v>
+        <v>0.0933707</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0718781</v>
+        <v>0.06876210000000001</v>
       </c>
       <c r="F22" t="n">
-        <v>0.07864980000000001</v>
+        <v>0.07790080000000001</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.07684820000000001</v>
+        <v>0.07706499999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0872457</v>
+        <v>0.0826146</v>
       </c>
       <c r="D23" t="n">
-        <v>0.09330529999999999</v>
+        <v>0.09383039999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0621493</v>
+        <v>0.06276569999999999</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0726808</v>
+        <v>0.0735851</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0795106</v>
+        <v>0.0794801</v>
       </c>
       <c r="C24" t="n">
-        <v>0.08666500000000001</v>
+        <v>0.08737979999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0983883</v>
+        <v>0.0962105</v>
       </c>
       <c r="E24" t="n">
-        <v>0.06280760000000001</v>
+        <v>0.0619164</v>
       </c>
       <c r="F24" t="n">
-        <v>0.07351190000000001</v>
+        <v>0.07498489999999999</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0811829</v>
+        <v>0.0795077</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0866797</v>
+        <v>0.089958</v>
       </c>
       <c r="D25" t="n">
-        <v>0.102996</v>
+        <v>0.100162</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0647961</v>
+        <v>0.062472</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0750304</v>
+        <v>0.074583</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0811429</v>
+        <v>0.08089</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0891936</v>
+        <v>0.08694739999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>0.103131</v>
+        <v>0.103399</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0628283</v>
+        <v>0.0624182</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0759092</v>
+        <v>0.0747242</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.08241</v>
+        <v>0.0792491</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0888279</v>
+        <v>0.0870785</v>
       </c>
       <c r="D27" t="n">
-        <v>0.105857</v>
+        <v>0.108871</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0706339</v>
+        <v>0.06331349999999999</v>
       </c>
       <c r="F27" t="n">
-        <v>0.08037759999999999</v>
+        <v>0.07864110000000001</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0883179</v>
+        <v>0.07949349999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0901266</v>
+        <v>0.0869378</v>
       </c>
       <c r="D28" t="n">
-        <v>0.110633</v>
+        <v>0.108169</v>
       </c>
       <c r="E28" t="n">
-        <v>0.06563289999999999</v>
+        <v>0.0627337</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0781061</v>
+        <v>0.0744269</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0803936</v>
+        <v>0.0804877</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0890676</v>
+        <v>0.0886554</v>
       </c>
       <c r="D29" t="n">
-        <v>0.11374</v>
+        <v>0.115952</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0658306</v>
+        <v>0.063331</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0762789</v>
+        <v>0.076844</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.082874</v>
+        <v>0.0801724</v>
       </c>
       <c r="C30" t="n">
-        <v>0.08800090000000001</v>
+        <v>0.0926037</v>
       </c>
       <c r="D30" t="n">
-        <v>0.114405</v>
+        <v>0.117773</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0661621</v>
+        <v>0.064806</v>
       </c>
       <c r="F30" t="n">
-        <v>0.07696260000000001</v>
+        <v>0.076849</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0804347</v>
+        <v>0.08002570000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0916492</v>
+        <v>0.0878935</v>
       </c>
       <c r="D31" t="n">
-        <v>0.118202</v>
+        <v>0.121654</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0664151</v>
+        <v>0.0654623</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0823475</v>
+        <v>0.07612430000000001</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0805936</v>
+        <v>0.0794764</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0893779</v>
+        <v>0.09082079999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>0.119778</v>
+        <v>0.123006</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0649822</v>
+        <v>0.0651668</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07837909999999999</v>
+        <v>0.0768471</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0803971</v>
+        <v>0.0799903</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0919116</v>
+        <v>0.0897453</v>
       </c>
       <c r="D33" t="n">
-        <v>0.124974</v>
+        <v>0.129616</v>
       </c>
       <c r="E33" t="n">
-        <v>0.066122</v>
+        <v>0.0663707</v>
       </c>
       <c r="F33" t="n">
-        <v>0.08217679999999999</v>
+        <v>0.0797168</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.081513</v>
+        <v>0.08129690000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0906526</v>
+        <v>0.0908839</v>
       </c>
       <c r="D34" t="n">
-        <v>0.126716</v>
+        <v>0.132733</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0675636</v>
+        <v>0.06771439999999999</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0798893</v>
+        <v>0.0814867</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0816791</v>
+        <v>0.0812068</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0913133</v>
+        <v>0.0905251</v>
       </c>
       <c r="D35" t="n">
-        <v>0.108444</v>
+        <v>0.108504</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0708926</v>
+        <v>0.0695104</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0836026</v>
+        <v>0.08321240000000001</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0834226</v>
+        <v>0.0831083</v>
       </c>
       <c r="C36" t="n">
-        <v>0.092336</v>
+        <v>0.0925194</v>
       </c>
       <c r="D36" t="n">
-        <v>0.111474</v>
+        <v>0.115585</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0736965</v>
+        <v>0.07432900000000001</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0868312</v>
+        <v>0.08769979999999999</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.08464149999999999</v>
+        <v>0.0849892</v>
       </c>
       <c r="C37" t="n">
-        <v>0.100864</v>
+        <v>0.095899</v>
       </c>
       <c r="D37" t="n">
-        <v>0.115968</v>
+        <v>0.11518</v>
       </c>
       <c r="E37" t="n">
-        <v>0.07007380000000001</v>
+        <v>0.06939770000000001</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0841563</v>
+        <v>0.0819309</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0963138</v>
+        <v>0.0964555</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0998589</v>
+        <v>0.100721</v>
       </c>
       <c r="D38" t="n">
-        <v>0.121791</v>
+        <v>0.119797</v>
       </c>
       <c r="E38" t="n">
-        <v>0.07076399999999999</v>
+        <v>0.0725705</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0823649</v>
+        <v>0.0822692</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0981829</v>
+        <v>0.0996229</v>
       </c>
       <c r="C39" t="n">
-        <v>0.100207</v>
+        <v>0.0968016</v>
       </c>
       <c r="D39" t="n">
-        <v>0.121888</v>
+        <v>0.122353</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0701736</v>
+        <v>0.0697125</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0811833</v>
+        <v>0.0818402</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.09953339999999999</v>
+        <v>0.0961848</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0989434</v>
+        <v>0.0991467</v>
       </c>
       <c r="D40" t="n">
-        <v>0.127207</v>
+        <v>0.128878</v>
       </c>
       <c r="E40" t="n">
-        <v>0.069896</v>
+        <v>0.0698979</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0846673</v>
+        <v>0.0813758</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0981535</v>
+        <v>0.0966094</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0990409</v>
+        <v>0.0995407</v>
       </c>
       <c r="D41" t="n">
-        <v>0.133283</v>
+        <v>0.133557</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0711436</v>
+        <v>0.0704515</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0841349</v>
+        <v>0.0849936</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.100631</v>
+        <v>0.104494</v>
       </c>
       <c r="C42" t="n">
-        <v>0.100751</v>
+        <v>0.100703</v>
       </c>
       <c r="D42" t="n">
-        <v>0.139608</v>
+        <v>0.139404</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0740276</v>
+        <v>0.07122580000000001</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08889900000000001</v>
+        <v>0.08488420000000001</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0984196</v>
+        <v>0.0986394</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0992006</v>
+        <v>0.100085</v>
       </c>
       <c r="D43" t="n">
-        <v>0.14351</v>
+        <v>0.141348</v>
       </c>
       <c r="E43" t="n">
-        <v>0.073598</v>
+        <v>0.0708076</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0858945</v>
+        <v>0.084688</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0984795</v>
+        <v>0.09633709999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>0.101609</v>
+        <v>0.103107</v>
       </c>
       <c r="D44" t="n">
-        <v>0.149732</v>
+        <v>0.147324</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0712653</v>
+        <v>0.0714484</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08600240000000001</v>
+        <v>0.0850611</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.09737990000000001</v>
+        <v>0.0972413</v>
       </c>
       <c r="C45" t="n">
-        <v>0.105675</v>
+        <v>0.100791</v>
       </c>
       <c r="D45" t="n">
-        <v>0.158371</v>
+        <v>0.152976</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0753207</v>
+        <v>0.0718565</v>
       </c>
       <c r="F45" t="n">
-        <v>0.09004959999999999</v>
+        <v>0.0872163</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0999318</v>
+        <v>0.0974077</v>
       </c>
       <c r="C46" t="n">
-        <v>0.102674</v>
+        <v>0.10375</v>
       </c>
       <c r="D46" t="n">
-        <v>0.162816</v>
+        <v>0.160837</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0725442</v>
+        <v>0.07382619999999999</v>
       </c>
       <c r="F46" t="n">
-        <v>0.091664</v>
+        <v>0.0898414</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0979884</v>
+        <v>0.101027</v>
       </c>
       <c r="C47" t="n">
-        <v>0.104126</v>
+        <v>0.110148</v>
       </c>
       <c r="D47" t="n">
-        <v>0.16765</v>
+        <v>0.16986</v>
       </c>
       <c r="E47" t="n">
-        <v>0.073313</v>
+        <v>0.0739737</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0929304</v>
+        <v>0.0946531</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.102587</v>
+        <v>0.100615</v>
       </c>
       <c r="C48" t="n">
-        <v>0.106962</v>
+        <v>0.107126</v>
       </c>
       <c r="D48" t="n">
-        <v>0.181635</v>
+        <v>0.174182</v>
       </c>
       <c r="E48" t="n">
-        <v>0.07474550000000001</v>
+        <v>0.0769254</v>
       </c>
       <c r="F48" t="n">
-        <v>0.092806</v>
+        <v>0.105109</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0992816</v>
+        <v>0.102276</v>
       </c>
       <c r="C49" t="n">
-        <v>0.112739</v>
+        <v>0.109348</v>
       </c>
       <c r="D49" t="n">
-        <v>0.184448</v>
+        <v>0.17898</v>
       </c>
       <c r="E49" t="n">
-        <v>0.08052479999999999</v>
+        <v>0.0780676</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0981327</v>
+        <v>0.101104</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.102787</v>
+        <v>0.102089</v>
       </c>
       <c r="C50" t="n">
-        <v>0.113812</v>
+        <v>0.111947</v>
       </c>
       <c r="D50" t="n">
-        <v>0.165967</v>
+        <v>0.180361</v>
       </c>
       <c r="E50" t="n">
-        <v>0.080318</v>
+        <v>0.0818334</v>
       </c>
       <c r="F50" t="n">
-        <v>0.105447</v>
+        <v>0.111645</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.101286</v>
+        <v>0.103747</v>
       </c>
       <c r="C51" t="n">
-        <v>0.11875</v>
+        <v>0.116889</v>
       </c>
       <c r="D51" t="n">
-        <v>0.181862</v>
+        <v>0.173894</v>
       </c>
       <c r="E51" t="n">
-        <v>0.20678</v>
+        <v>0.160711</v>
       </c>
       <c r="F51" t="n">
-        <v>0.128085</v>
+        <v>0.125285</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.106047</v>
+        <v>0.107815</v>
       </c>
       <c r="C52" t="n">
-        <v>0.122129</v>
+        <v>0.133552</v>
       </c>
       <c r="D52" t="n">
-        <v>0.177956</v>
+        <v>0.179741</v>
       </c>
       <c r="E52" t="n">
-        <v>0.204063</v>
+        <v>0.160483</v>
       </c>
       <c r="F52" t="n">
-        <v>0.128084</v>
+        <v>0.125598</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.172287</v>
+        <v>0.187068</v>
       </c>
       <c r="C53" t="n">
-        <v>0.162179</v>
+        <v>0.1618</v>
       </c>
       <c r="D53" t="n">
-        <v>0.189988</v>
+        <v>0.185749</v>
       </c>
       <c r="E53" t="n">
-        <v>0.203805</v>
+        <v>0.165024</v>
       </c>
       <c r="F53" t="n">
-        <v>0.146701</v>
+        <v>0.134896</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.179076</v>
+        <v>0.194418</v>
       </c>
       <c r="C54" t="n">
-        <v>0.165839</v>
+        <v>0.159616</v>
       </c>
       <c r="D54" t="n">
-        <v>0.194086</v>
+        <v>0.192318</v>
       </c>
       <c r="E54" t="n">
-        <v>0.207277</v>
+        <v>0.160883</v>
       </c>
       <c r="F54" t="n">
-        <v>0.146274</v>
+        <v>0.131555</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.184694</v>
+        <v>0.179216</v>
       </c>
       <c r="C55" t="n">
-        <v>0.164986</v>
+        <v>0.166285</v>
       </c>
       <c r="D55" t="n">
-        <v>0.205621</v>
+        <v>0.198073</v>
       </c>
       <c r="E55" t="n">
-        <v>0.223874</v>
+        <v>0.163198</v>
       </c>
       <c r="F55" t="n">
-        <v>0.140727</v>
+        <v>0.135925</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.178143</v>
+        <v>0.18425</v>
       </c>
       <c r="C56" t="n">
-        <v>0.167931</v>
+        <v>0.174448</v>
       </c>
       <c r="D56" t="n">
-        <v>0.211441</v>
+        <v>0.206541</v>
       </c>
       <c r="E56" t="n">
-        <v>0.221182</v>
+        <v>0.16136</v>
       </c>
       <c r="F56" t="n">
-        <v>0.140797</v>
+        <v>0.137877</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.183834</v>
+        <v>0.177127</v>
       </c>
       <c r="C57" t="n">
-        <v>0.177233</v>
+        <v>0.169989</v>
       </c>
       <c r="D57" t="n">
-        <v>0.214894</v>
+        <v>0.216972</v>
       </c>
       <c r="E57" t="n">
-        <v>0.205191</v>
+        <v>0.157858</v>
       </c>
       <c r="F57" t="n">
-        <v>0.146314</v>
+        <v>0.147239</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.179851</v>
+        <v>0.176973</v>
       </c>
       <c r="C58" t="n">
-        <v>0.169997</v>
+        <v>0.171884</v>
       </c>
       <c r="D58" t="n">
-        <v>0.221054</v>
+        <v>0.22267</v>
       </c>
       <c r="E58" t="n">
-        <v>0.207526</v>
+        <v>0.165643</v>
       </c>
       <c r="F58" t="n">
-        <v>0.150418</v>
+        <v>0.145886</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.176073</v>
+        <v>0.179445</v>
       </c>
       <c r="C59" t="n">
-        <v>0.173514</v>
+        <v>0.172175</v>
       </c>
       <c r="D59" t="n">
-        <v>0.23485</v>
+        <v>0.230165</v>
       </c>
       <c r="E59" t="n">
-        <v>0.212005</v>
+        <v>0.165879</v>
       </c>
       <c r="F59" t="n">
-        <v>0.155476</v>
+        <v>0.152587</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.189097</v>
+        <v>0.179854</v>
       </c>
       <c r="C60" t="n">
-        <v>0.178272</v>
+        <v>0.180011</v>
       </c>
       <c r="D60" t="n">
-        <v>0.249963</v>
+        <v>0.26052</v>
       </c>
       <c r="E60" t="n">
-        <v>0.210965</v>
+        <v>0.1641</v>
       </c>
       <c r="F60" t="n">
-        <v>0.162678</v>
+        <v>0.150933</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.179873</v>
+        <v>0.180432</v>
       </c>
       <c r="C61" t="n">
-        <v>0.178445</v>
+        <v>0.177131</v>
       </c>
       <c r="D61" t="n">
-        <v>0.251821</v>
+        <v>0.248854</v>
       </c>
       <c r="E61" t="n">
-        <v>0.218237</v>
+        <v>0.161994</v>
       </c>
       <c r="F61" t="n">
-        <v>0.164629</v>
+        <v>0.155553</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.182024</v>
+        <v>0.174201</v>
       </c>
       <c r="C62" t="n">
-        <v>0.183661</v>
+        <v>0.178384</v>
       </c>
       <c r="D62" t="n">
-        <v>0.261499</v>
+        <v>0.256236</v>
       </c>
       <c r="E62" t="n">
-        <v>0.231642</v>
+        <v>0.160754</v>
       </c>
       <c r="F62" t="n">
-        <v>0.166177</v>
+        <v>0.158465</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.176442</v>
+        <v>0.17553</v>
       </c>
       <c r="C63" t="n">
-        <v>0.193752</v>
+        <v>0.184998</v>
       </c>
       <c r="D63" t="n">
-        <v>0.270875</v>
+        <v>0.269987</v>
       </c>
       <c r="E63" t="n">
-        <v>0.211944</v>
+        <v>0.164434</v>
       </c>
       <c r="F63" t="n">
-        <v>0.170603</v>
+        <v>0.165764</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.18322</v>
+        <v>0.176306</v>
       </c>
       <c r="C64" t="n">
-        <v>0.189844</v>
+        <v>0.187743</v>
       </c>
       <c r="D64" t="n">
-        <v>0.269214</v>
+        <v>0.273129</v>
       </c>
       <c r="E64" t="n">
-        <v>0.233705</v>
+        <v>0.174397</v>
       </c>
       <c r="F64" t="n">
-        <v>0.182039</v>
+        <v>0.170626</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.180971</v>
+        <v>0.190584</v>
       </c>
       <c r="C65" t="n">
-        <v>0.192983</v>
+        <v>0.191658</v>
       </c>
       <c r="D65" t="n">
-        <v>0.278513</v>
+        <v>0.273347</v>
       </c>
       <c r="E65" t="n">
-        <v>0.229357</v>
+        <v>0.170556</v>
       </c>
       <c r="F65" t="n">
-        <v>0.184016</v>
+        <v>0.179798</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.189827</v>
+        <v>0.188623</v>
       </c>
       <c r="C66" t="n">
-        <v>0.203884</v>
+        <v>0.199244</v>
       </c>
       <c r="D66" t="n">
-        <v>0.30513</v>
+        <v>0.285375</v>
       </c>
       <c r="E66" t="n">
-        <v>0.322236</v>
+        <v>0.243739</v>
       </c>
       <c r="F66" t="n">
-        <v>0.272018</v>
+        <v>0.257884</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.268188</v>
+        <v>0.264696</v>
       </c>
       <c r="C67" t="n">
-        <v>0.300352</v>
+        <v>0.286026</v>
       </c>
       <c r="D67" t="n">
-        <v>0.30151</v>
+        <v>0.289453</v>
       </c>
       <c r="E67" t="n">
-        <v>0.335478</v>
+        <v>0.241306</v>
       </c>
       <c r="F67" t="n">
-        <v>0.284471</v>
+        <v>0.251771</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.275778</v>
+        <v>0.264827</v>
       </c>
       <c r="C68" t="n">
-        <v>0.284059</v>
+        <v>0.291479</v>
       </c>
       <c r="D68" t="n">
-        <v>0.30313</v>
+        <v>0.300219</v>
       </c>
       <c r="E68" t="n">
-        <v>0.337965</v>
+        <v>0.242852</v>
       </c>
       <c r="F68" t="n">
-        <v>0.27256</v>
+        <v>0.254665</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.283177</v>
+        <v>0.263441</v>
       </c>
       <c r="C69" t="n">
-        <v>0.304716</v>
+        <v>0.281022</v>
       </c>
       <c r="D69" t="n">
-        <v>0.308543</v>
+        <v>0.30937</v>
       </c>
       <c r="E69" t="n">
-        <v>0.344798</v>
+        <v>0.244227</v>
       </c>
       <c r="F69" t="n">
-        <v>0.281463</v>
+        <v>0.255669</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.271697</v>
+        <v>0.268688</v>
       </c>
       <c r="C70" t="n">
-        <v>0.290606</v>
+        <v>0.278238</v>
       </c>
       <c r="D70" t="n">
-        <v>0.329879</v>
+        <v>0.316694</v>
       </c>
       <c r="E70" t="n">
-        <v>0.343387</v>
+        <v>0.244578</v>
       </c>
       <c r="F70" t="n">
-        <v>0.281264</v>
+        <v>0.257961</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.271435</v>
+        <v>0.269973</v>
       </c>
       <c r="C71" t="n">
-        <v>0.289415</v>
+        <v>0.285422</v>
       </c>
       <c r="D71" t="n">
-        <v>0.330793</v>
+        <v>0.325758</v>
       </c>
       <c r="E71" t="n">
-        <v>0.340028</v>
+        <v>0.249879</v>
       </c>
       <c r="F71" t="n">
-        <v>0.283507</v>
+        <v>0.261783</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.273729</v>
+        <v>0.275939</v>
       </c>
       <c r="C72" t="n">
-        <v>0.29904</v>
+        <v>0.292518</v>
       </c>
       <c r="D72" t="n">
-        <v>0.375337</v>
+        <v>0.33857</v>
       </c>
       <c r="E72" t="n">
-        <v>0.361034</v>
+        <v>0.25468</v>
       </c>
       <c r="F72" t="n">
-        <v>0.279933</v>
+        <v>0.267958</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.276794</v>
+        <v>0.271671</v>
       </c>
       <c r="C73" t="n">
-        <v>0.294956</v>
+        <v>0.284772</v>
       </c>
       <c r="D73" t="n">
-        <v>0.356163</v>
+        <v>0.34991</v>
       </c>
       <c r="E73" t="n">
-        <v>0.359262</v>
+        <v>0.25584</v>
       </c>
       <c r="F73" t="n">
-        <v>0.286478</v>
+        <v>0.271167</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.27619</v>
+        <v>0.2729</v>
       </c>
       <c r="C74" t="n">
-        <v>0.288811</v>
+        <v>0.300615</v>
       </c>
       <c r="D74" t="n">
-        <v>0.36634</v>
+        <v>0.361022</v>
       </c>
       <c r="E74" t="n">
-        <v>0.364788</v>
+        <v>0.255067</v>
       </c>
       <c r="F74" t="n">
-        <v>0.285212</v>
+        <v>0.265941</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.273697</v>
+        <v>0.270677</v>
       </c>
       <c r="C75" t="n">
-        <v>0.304653</v>
+        <v>0.288678</v>
       </c>
       <c r="D75" t="n">
-        <v>0.37194</v>
+        <v>0.362441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.362698</v>
+        <v>0.258104</v>
       </c>
       <c r="F75" t="n">
-        <v>0.29067</v>
+        <v>0.277408</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.292494</v>
+        <v>0.274831</v>
       </c>
       <c r="C76" t="n">
-        <v>0.310613</v>
+        <v>0.293946</v>
       </c>
       <c r="D76" t="n">
-        <v>0.379899</v>
+        <v>0.380674</v>
       </c>
       <c r="E76" t="n">
-        <v>0.367606</v>
+        <v>0.260009</v>
       </c>
       <c r="F76" t="n">
-        <v>0.289929</v>
+        <v>0.278898</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.283094</v>
+        <v>0.288269</v>
       </c>
       <c r="C77" t="n">
-        <v>0.296345</v>
+        <v>0.296296</v>
       </c>
       <c r="D77" t="n">
-        <v>0.401908</v>
+        <v>0.387777</v>
       </c>
       <c r="E77" t="n">
-        <v>0.369055</v>
+        <v>0.258262</v>
       </c>
       <c r="F77" t="n">
-        <v>0.298809</v>
+        <v>0.272563</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.281899</v>
+        <v>0.293571</v>
       </c>
       <c r="C78" t="n">
-        <v>0.30126</v>
+        <v>0.302719</v>
       </c>
       <c r="D78" t="n">
-        <v>0.366705</v>
+        <v>0.362915</v>
       </c>
       <c r="E78" t="n">
-        <v>0.380442</v>
+        <v>0.265915</v>
       </c>
       <c r="F78" t="n">
-        <v>0.300999</v>
+        <v>0.284531</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.288874</v>
+        <v>0.280454</v>
       </c>
       <c r="C79" t="n">
-        <v>0.307761</v>
+        <v>0.333612</v>
       </c>
       <c r="D79" t="n">
-        <v>0.366142</v>
+        <v>0.3751</v>
       </c>
       <c r="E79" t="n">
-        <v>0.386936</v>
+        <v>0.265886</v>
       </c>
       <c r="F79" t="n">
-        <v>0.303511</v>
+        <v>0.296209</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.296153</v>
+        <v>0.290421</v>
       </c>
       <c r="C80" t="n">
-        <v>0.308725</v>
+        <v>0.311697</v>
       </c>
       <c r="D80" t="n">
-        <v>0.387501</v>
+        <v>0.378093</v>
       </c>
       <c r="E80" t="n">
-        <v>0.567832</v>
+        <v>0.356954</v>
       </c>
       <c r="F80" t="n">
-        <v>0.442343</v>
+        <v>0.389836</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.367782</v>
+        <v>0.377059</v>
       </c>
       <c r="C81" t="n">
-        <v>0.420719</v>
+        <v>0.413314</v>
       </c>
       <c r="D81" t="n">
-        <v>0.391425</v>
+        <v>0.383899</v>
       </c>
       <c r="E81" t="n">
-        <v>0.612507</v>
+        <v>0.357528</v>
       </c>
       <c r="F81" t="n">
-        <v>0.433784</v>
+        <v>0.405388</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.363596</v>
+        <v>0.364561</v>
       </c>
       <c r="C82" t="n">
-        <v>0.408364</v>
+        <v>0.401602</v>
       </c>
       <c r="D82" t="n">
-        <v>0.414293</v>
+        <v>0.393938</v>
       </c>
       <c r="E82" t="n">
-        <v>0.589364</v>
+        <v>0.351687</v>
       </c>
       <c r="F82" t="n">
-        <v>0.442919</v>
+        <v>0.401807</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.366889</v>
+        <v>0.367733</v>
       </c>
       <c r="C83" t="n">
-        <v>0.404643</v>
+        <v>0.405987</v>
       </c>
       <c r="D83" t="n">
-        <v>0.423308</v>
+        <v>0.404435</v>
       </c>
       <c r="E83" t="n">
-        <v>0.612601</v>
+        <v>0.350013</v>
       </c>
       <c r="F83" t="n">
-        <v>0.441671</v>
+        <v>0.399207</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.377887</v>
+        <v>0.364911</v>
       </c>
       <c r="C84" t="n">
-        <v>0.428607</v>
+        <v>0.405943</v>
       </c>
       <c r="D84" t="n">
-        <v>0.426906</v>
+        <v>0.406783</v>
       </c>
       <c r="E84" t="n">
-        <v>0.585426</v>
+        <v>0.356663</v>
       </c>
       <c r="F84" t="n">
-        <v>0.450511</v>
+        <v>0.399411</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.368307</v>
+        <v>0.381612</v>
       </c>
       <c r="C85" t="n">
-        <v>0.415772</v>
+        <v>0.405952</v>
       </c>
       <c r="D85" t="n">
-        <v>0.432932</v>
+        <v>0.417204</v>
       </c>
       <c r="E85" t="n">
-        <v>0.596805</v>
+        <v>0.356332</v>
       </c>
       <c r="F85" t="n">
-        <v>0.459067</v>
+        <v>0.398976</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.401363</v>
+        <v>0.371442</v>
       </c>
       <c r="C86" t="n">
-        <v>0.429017</v>
+        <v>0.408885</v>
       </c>
       <c r="D86" t="n">
-        <v>0.447728</v>
+        <v>0.431033</v>
       </c>
       <c r="E86" t="n">
-        <v>0.588009</v>
+        <v>0.360421</v>
       </c>
       <c r="F86" t="n">
-        <v>0.456154</v>
+        <v>0.407847</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.370431</v>
+        <v>0.369995</v>
       </c>
       <c r="C87" t="n">
-        <v>0.428876</v>
+        <v>0.412546</v>
       </c>
       <c r="D87" t="n">
-        <v>0.457392</v>
+        <v>0.459514</v>
       </c>
       <c r="E87" t="n">
-        <v>0.59107</v>
+        <v>0.358105</v>
       </c>
       <c r="F87" t="n">
-        <v>0.454533</v>
+        <v>0.422433</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.378006</v>
+        <v>0.376515</v>
       </c>
       <c r="C88" t="n">
-        <v>0.437596</v>
+        <v>0.411314</v>
       </c>
       <c r="D88" t="n">
-        <v>0.465821</v>
+        <v>0.45658</v>
       </c>
       <c r="E88" t="n">
-        <v>0.591367</v>
+        <v>0.35953</v>
       </c>
       <c r="F88" t="n">
-        <v>0.45886</v>
+        <v>0.416696</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.38208</v>
+        <v>0.379811</v>
       </c>
       <c r="C89" t="n">
-        <v>0.434928</v>
+        <v>0.418152</v>
       </c>
       <c r="D89" t="n">
-        <v>0.475905</v>
+        <v>0.468443</v>
       </c>
       <c r="E89" t="n">
-        <v>0.588661</v>
+        <v>0.360898</v>
       </c>
       <c r="F89" t="n">
-        <v>0.451224</v>
+        <v>0.419218</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.372407</v>
+        <v>0.365843</v>
       </c>
       <c r="C90" t="n">
-        <v>0.41896</v>
+        <v>0.426158</v>
       </c>
       <c r="D90" t="n">
-        <v>0.488117</v>
+        <v>0.492591</v>
       </c>
       <c r="E90" t="n">
-        <v>0.59421</v>
+        <v>0.357851</v>
       </c>
       <c r="F90" t="n">
-        <v>0.481781</v>
+        <v>0.427813</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.386495</v>
+        <v>0.375844</v>
       </c>
       <c r="C91" t="n">
-        <v>0.441929</v>
+        <v>0.436358</v>
       </c>
       <c r="D91" t="n">
-        <v>0.507848</v>
+        <v>0.482714</v>
       </c>
       <c r="E91" t="n">
-        <v>0.627983</v>
+        <v>0.355287</v>
       </c>
       <c r="F91" t="n">
-        <v>0.468813</v>
+        <v>0.414207</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.374596</v>
+        <v>0.371341</v>
       </c>
       <c r="C92" t="n">
-        <v>0.444543</v>
+        <v>0.438999</v>
       </c>
       <c r="D92" t="n">
-        <v>0.446663</v>
+        <v>0.426624</v>
       </c>
       <c r="E92" t="n">
-        <v>0.617487</v>
+        <v>0.364821</v>
       </c>
       <c r="F92" t="n">
-        <v>0.470422</v>
+        <v>0.421409</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.379628</v>
+        <v>0.377456</v>
       </c>
       <c r="C93" t="n">
-        <v>0.438401</v>
+        <v>0.441677</v>
       </c>
       <c r="D93" t="n">
-        <v>0.462364</v>
+        <v>0.438217</v>
       </c>
       <c r="E93" t="n">
-        <v>0.59814</v>
+        <v>0.37139</v>
       </c>
       <c r="F93" t="n">
-        <v>0.478158</v>
+        <v>0.438457</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.379809</v>
+        <v>0.386915</v>
       </c>
       <c r="C94" t="n">
-        <v>0.447669</v>
+        <v>0.441596</v>
       </c>
       <c r="D94" t="n">
-        <v>0.468489</v>
+        <v>0.439356</v>
       </c>
       <c r="E94" t="n">
-        <v>0.884207</v>
+        <v>0.439028</v>
       </c>
       <c r="F94" t="n">
-        <v>0.575621</v>
+        <v>0.513217</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.474883</v>
+        <v>0.443606</v>
       </c>
       <c r="C95" t="n">
-        <v>0.511884</v>
+        <v>0.508162</v>
       </c>
       <c r="D95" t="n">
-        <v>0.457438</v>
+        <v>0.449574</v>
       </c>
       <c r="E95" t="n">
-        <v>0.864743</v>
+        <v>0.455509</v>
       </c>
       <c r="F95" t="n">
-        <v>0.559789</v>
+        <v>0.52866</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.462195</v>
+        <v>0.444489</v>
       </c>
       <c r="C96" t="n">
-        <v>0.508566</v>
+        <v>0.526111</v>
       </c>
       <c r="D96" t="n">
-        <v>0.483658</v>
+        <v>0.4616</v>
       </c>
       <c r="E96" t="n">
-        <v>0.855352</v>
+        <v>0.448792</v>
       </c>
       <c r="F96" t="n">
-        <v>0.559226</v>
+        <v>0.510964</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.454116</v>
+        <v>0.46209</v>
       </c>
       <c r="C97" t="n">
-        <v>0.527607</v>
+        <v>0.500131</v>
       </c>
       <c r="D97" t="n">
-        <v>0.489552</v>
+        <v>0.465735</v>
       </c>
       <c r="E97" t="n">
-        <v>0.8765230000000001</v>
+        <v>0.443273</v>
       </c>
       <c r="F97" t="n">
-        <v>0.565062</v>
+        <v>0.511412</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.462396</v>
+        <v>0.453361</v>
       </c>
       <c r="C98" t="n">
-        <v>0.529366</v>
+        <v>0.518716</v>
       </c>
       <c r="D98" t="n">
-        <v>0.493288</v>
+        <v>0.480935</v>
       </c>
       <c r="E98" t="n">
-        <v>0.860725</v>
+        <v>0.450804</v>
       </c>
       <c r="F98" t="n">
-        <v>0.569164</v>
+        <v>0.508059</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.45585</v>
+        <v>0.446195</v>
       </c>
       <c r="C99" t="n">
-        <v>0.509399</v>
+        <v>0.530996</v>
       </c>
       <c r="D99" t="n">
-        <v>0.513889</v>
+        <v>0.50598</v>
       </c>
       <c r="E99" t="n">
-        <v>0.885142</v>
+        <v>0.452993</v>
       </c>
       <c r="F99" t="n">
-        <v>0.57737</v>
+        <v>0.525345</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.46837</v>
+        <v>0.467676</v>
       </c>
       <c r="C100" t="n">
-        <v>0.515282</v>
+        <v>0.517692</v>
       </c>
       <c r="D100" t="n">
-        <v>0.513668</v>
+        <v>0.500277</v>
       </c>
       <c r="E100" t="n">
-        <v>0.876576</v>
+        <v>0.455733</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5756</v>
+        <v>0.52177</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.461794</v>
+        <v>0.445113</v>
       </c>
       <c r="C101" t="n">
-        <v>0.505869</v>
+        <v>0.506603</v>
       </c>
       <c r="D101" t="n">
-        <v>0.51302</v>
+        <v>0.519691</v>
       </c>
       <c r="E101" t="n">
-        <v>0.87673</v>
+        <v>0.445487</v>
       </c>
       <c r="F101" t="n">
-        <v>0.577536</v>
+        <v>0.52278</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.452521</v>
+        <v>0.452398</v>
       </c>
       <c r="C102" t="n">
-        <v>0.51532</v>
+        <v>0.526094</v>
       </c>
       <c r="D102" t="n">
-        <v>0.537718</v>
+        <v>0.5225109999999999</v>
       </c>
       <c r="E102" t="n">
-        <v>0.879881</v>
+        <v>0.451473</v>
       </c>
       <c r="F102" t="n">
-        <v>0.577448</v>
+        <v>0.51676</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.456637</v>
+        <v>0.457726</v>
       </c>
       <c r="C103" t="n">
-        <v>0.524042</v>
+        <v>0.537921</v>
       </c>
       <c r="D103" t="n">
-        <v>0.536582</v>
+        <v>0.548121</v>
       </c>
       <c r="E103" t="n">
-        <v>0.874985</v>
+        <v>0.456885</v>
       </c>
       <c r="F103" t="n">
-        <v>0.573956</v>
+        <v>0.529724</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.456904</v>
+        <v>0.457437</v>
       </c>
       <c r="C104" t="n">
-        <v>0.541482</v>
+        <v>0.551484</v>
       </c>
       <c r="D104" t="n">
-        <v>0.550222</v>
+        <v>0.5455989999999999</v>
       </c>
       <c r="E104" t="n">
-        <v>0.89616</v>
+        <v>0.450685</v>
       </c>
       <c r="F104" t="n">
-        <v>0.583586</v>
+        <v>0.532006</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.479187</v>
+        <v>0.455543</v>
       </c>
       <c r="C105" t="n">
-        <v>0.53594</v>
+        <v>0.5171289999999999</v>
       </c>
       <c r="D105" t="n">
-        <v>0.559227</v>
+        <v>0.559639</v>
       </c>
       <c r="E105" t="n">
-        <v>0.869148</v>
+        <v>0.454601</v>
       </c>
       <c r="F105" t="n">
-        <v>0.593737</v>
+        <v>0.525119</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.464254</v>
+        <v>0.477472</v>
       </c>
       <c r="C106" t="n">
-        <v>0.519477</v>
+        <v>0.542681</v>
       </c>
       <c r="D106" t="n">
-        <v>0.58312</v>
+        <v>0.5705</v>
       </c>
       <c r="E106" t="n">
-        <v>0.874898</v>
+        <v>0.46101</v>
       </c>
       <c r="F106" t="n">
-        <v>0.598274</v>
+        <v>0.53716</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.458524</v>
+        <v>0.458217</v>
       </c>
       <c r="C107" t="n">
-        <v>0.538165</v>
+        <v>0.528085</v>
       </c>
       <c r="D107" t="n">
-        <v>0.503042</v>
+        <v>0.490711</v>
       </c>
       <c r="E107" t="n">
-        <v>0.923879</v>
+        <v>0.459298</v>
       </c>
       <c r="F107" t="n">
-        <v>0.612664</v>
+        <v>0.545855</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.466064</v>
+        <v>0.463403</v>
       </c>
       <c r="C108" t="n">
-        <v>0.541557</v>
+        <v>0.534224</v>
       </c>
       <c r="D108" t="n">
-        <v>0.506089</v>
+        <v>0.501279</v>
       </c>
       <c r="E108" t="n">
-        <v>1.10467</v>
+        <v>0.5334410000000001</v>
       </c>
       <c r="F108" t="n">
-        <v>0.646602</v>
+        <v>0.587266</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.467307</v>
+        <v>0.459994</v>
       </c>
       <c r="C109" t="n">
-        <v>0.543783</v>
+        <v>0.581613</v>
       </c>
       <c r="D109" t="n">
-        <v>0.5273600000000001</v>
+        <v>0.544522</v>
       </c>
       <c r="E109" t="n">
-        <v>1.14668</v>
+        <v>0.5283409999999999</v>
       </c>
       <c r="F109" t="n">
-        <v>0.64383</v>
+        <v>0.587275</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.5618069999999999</v>
+        <v>0.545143</v>
       </c>
       <c r="C110" t="n">
-        <v>0.621219</v>
+        <v>0.598054</v>
       </c>
       <c r="D110" t="n">
-        <v>0.5348000000000001</v>
+        <v>0.524603</v>
       </c>
       <c r="E110" t="n">
-        <v>1.11136</v>
+        <v>0.547481</v>
       </c>
       <c r="F110" t="n">
-        <v>0.676971</v>
+        <v>0.587185</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.559667</v>
+        <v>0.548902</v>
       </c>
       <c r="C111" t="n">
-        <v>0.647282</v>
+        <v>0.601553</v>
       </c>
       <c r="D111" t="n">
-        <v>0.572314</v>
+        <v>0.541666</v>
       </c>
       <c r="E111" t="n">
-        <v>1.10944</v>
+        <v>0.5330819999999999</v>
       </c>
       <c r="F111" t="n">
-        <v>0.655497</v>
+        <v>0.592328</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.568367</v>
+        <v>0.556455</v>
       </c>
       <c r="C112" t="n">
-        <v>0.607389</v>
+        <v>0.59787</v>
       </c>
       <c r="D112" t="n">
-        <v>0.581843</v>
+        <v>0.541982</v>
       </c>
       <c r="E112" t="n">
-        <v>1.1188</v>
+        <v>0.538231</v>
       </c>
       <c r="F112" t="n">
-        <v>0.662377</v>
+        <v>0.606775</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.556202</v>
+        <v>0.547239</v>
       </c>
       <c r="C113" t="n">
-        <v>0.609033</v>
+        <v>0.593845</v>
       </c>
       <c r="D113" t="n">
-        <v>0.577211</v>
+        <v>0.563623</v>
       </c>
       <c r="E113" t="n">
-        <v>1.11063</v>
+        <v>0.53366</v>
       </c>
       <c r="F113" t="n">
-        <v>0.666387</v>
+        <v>0.599962</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.557072</v>
+        <v>0.548055</v>
       </c>
       <c r="C114" t="n">
-        <v>0.606946</v>
+        <v>0.623371</v>
       </c>
       <c r="D114" t="n">
-        <v>0.586099</v>
+        <v>0.567895</v>
       </c>
       <c r="E114" t="n">
-        <v>1.10739</v>
+        <v>0.528556</v>
       </c>
       <c r="F114" t="n">
-        <v>0.67096</v>
+        <v>0.607783</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.563817</v>
+        <v>0.552889</v>
       </c>
       <c r="C115" t="n">
-        <v>0.604382</v>
+        <v>0.603559</v>
       </c>
       <c r="D115" t="n">
-        <v>0.578498</v>
+        <v>0.582559</v>
       </c>
       <c r="E115" t="n">
-        <v>1.09525</v>
+        <v>0.535822</v>
       </c>
       <c r="F115" t="n">
-        <v>0.682866</v>
+        <v>0.594889</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.550802</v>
+        <v>0.555453</v>
       </c>
       <c r="C116" t="n">
-        <v>0.604387</v>
+        <v>0.61805</v>
       </c>
       <c r="D116" t="n">
-        <v>0.598908</v>
+        <v>0.588706</v>
       </c>
       <c r="E116" t="n">
-        <v>1.10094</v>
+        <v>0.532977</v>
       </c>
       <c r="F116" t="n">
-        <v>0.696968</v>
+        <v>0.599743</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.567844</v>
+        <v>0.553211</v>
       </c>
       <c r="C117" t="n">
-        <v>0.608595</v>
+        <v>0.599357</v>
       </c>
       <c r="D117" t="n">
-        <v>0.614484</v>
+        <v>0.616255</v>
       </c>
       <c r="E117" t="n">
-        <v>1.14498</v>
+        <v>0.532309</v>
       </c>
       <c r="F117" t="n">
-        <v>0.696199</v>
+        <v>0.6221370000000001</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.556025</v>
+        <v>0.562425</v>
       </c>
       <c r="C118" t="n">
-        <v>0.630917</v>
+        <v>0.602285</v>
       </c>
       <c r="D118" t="n">
-        <v>0.651021</v>
+        <v>0.612058</v>
       </c>
       <c r="E118" t="n">
-        <v>1.11117</v>
+        <v>0.544513</v>
       </c>
       <c r="F118" t="n">
-        <v>0.677345</v>
+        <v>0.611822</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.550004</v>
+        <v>0.54504</v>
       </c>
       <c r="C119" t="n">
-        <v>0.618467</v>
+        <v>0.622776</v>
       </c>
       <c r="D119" t="n">
-        <v>0.676432</v>
+        <v>0.624192</v>
       </c>
       <c r="E119" t="n">
-        <v>1.12992</v>
+        <v>0.53936</v>
       </c>
       <c r="F119" t="n">
-        <v>0.685759</v>
+        <v>0.613433</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.559318</v>
+        <v>0.557066</v>
       </c>
       <c r="C120" t="n">
-        <v>0.634169</v>
+        <v>0.624242</v>
       </c>
       <c r="D120" t="n">
-        <v>0.6777030000000001</v>
+        <v>0.659118</v>
       </c>
       <c r="E120" t="n">
-        <v>1.1339</v>
+        <v>0.536322</v>
       </c>
       <c r="F120" t="n">
-        <v>0.694169</v>
+        <v>0.620823</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.552214</v>
+        <v>0.553382</v>
       </c>
       <c r="C121" t="n">
-        <v>0.6259400000000001</v>
+        <v>0.6138400000000001</v>
       </c>
       <c r="D121" t="n">
-        <v>0.577408</v>
+        <v>0.598447</v>
       </c>
       <c r="E121" t="n">
-        <v>1.11825</v>
+        <v>0.542743</v>
       </c>
       <c r="F121" t="n">
-        <v>0.710099</v>
+        <v>0.625636</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.581795</v>
+        <v>0.566949</v>
       </c>
       <c r="C122" t="n">
-        <v>0.663623</v>
+        <v>0.6349</v>
       </c>
       <c r="D122" t="n">
-        <v>0.58601</v>
+        <v>0.57641</v>
       </c>
       <c r="E122" t="n">
-        <v>1.11531</v>
+        <v>0.549411</v>
       </c>
       <c r="F122" t="n">
-        <v>0.722162</v>
+        <v>0.646377</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.59566</v>
+        <v>0.623328</v>
       </c>
       <c r="C123" t="n">
-        <v>0.712955</v>
+        <v>0.636758</v>
       </c>
       <c r="D123" t="n">
-        <v>0.590551</v>
+        <v>0.609271</v>
       </c>
       <c r="E123" t="n">
-        <v>1.49502</v>
+        <v>0.661067</v>
       </c>
       <c r="F123" t="n">
-        <v>0.7874910000000001</v>
+        <v>0.668822</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.723013</v>
+        <v>0.834133</v>
       </c>
       <c r="C124" t="n">
-        <v>0.7218</v>
+        <v>0.723826</v>
       </c>
       <c r="D124" t="n">
-        <v>0.6209440000000001</v>
+        <v>0.596943</v>
       </c>
       <c r="E124" t="n">
-        <v>1.50877</v>
+        <v>0.6480320000000001</v>
       </c>
       <c r="F124" t="n">
-        <v>0.755439</v>
+        <v>0.710972</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.749838</v>
+        <v>0.724042</v>
       </c>
       <c r="C125" t="n">
-        <v>0.724429</v>
+        <v>0.720166</v>
       </c>
       <c r="D125" t="n">
-        <v>0.618802</v>
+        <v>0.615495</v>
       </c>
       <c r="E125" t="n">
-        <v>1.51822</v>
+        <v>0.655549</v>
       </c>
       <c r="F125" t="n">
-        <v>0.80062</v>
+        <v>0.679494</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.735506</v>
+        <v>0.712477</v>
       </c>
       <c r="C126" t="n">
-        <v>0.742319</v>
+        <v>0.719359</v>
       </c>
       <c r="D126" t="n">
-        <v>0.639591</v>
+        <v>0.6346349999999999</v>
       </c>
       <c r="E126" t="n">
-        <v>1.5004</v>
+        <v>0.652888</v>
       </c>
       <c r="F126" t="n">
-        <v>0.753684</v>
+        <v>0.6704</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.726309</v>
+        <v>0.70951</v>
       </c>
       <c r="C127" t="n">
-        <v>0.724438</v>
+        <v>0.725988</v>
       </c>
       <c r="D127" t="n">
-        <v>0.655494</v>
+        <v>0.63552</v>
       </c>
       <c r="E127" t="n">
-        <v>1.49566</v>
+        <v>0.646906</v>
       </c>
       <c r="F127" t="n">
-        <v>0.802239</v>
+        <v>0.674831</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.751787</v>
+        <v>0.707987</v>
       </c>
       <c r="C128" t="n">
-        <v>0.778104</v>
+        <v>0.748677</v>
       </c>
       <c r="D128" t="n">
-        <v>0.655108</v>
+        <v>0.6520629999999999</v>
       </c>
       <c r="E128" t="n">
-        <v>1.48397</v>
+        <v>0.679559</v>
       </c>
       <c r="F128" t="n">
-        <v>0.754796</v>
+        <v>0.713444</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.731595</v>
+        <v>0.717235</v>
       </c>
       <c r="C129" t="n">
-        <v>0.764149</v>
+        <v>0.720866</v>
       </c>
       <c r="D129" t="n">
-        <v>0.666086</v>
+        <v>0.654383</v>
       </c>
       <c r="E129" t="n">
-        <v>1.50563</v>
+        <v>0.660245</v>
       </c>
       <c r="F129" t="n">
-        <v>0.812732</v>
+        <v>0.675004</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.745978</v>
+        <v>0.709896</v>
       </c>
       <c r="C130" t="n">
-        <v>0.727039</v>
+        <v>0.753976</v>
       </c>
       <c r="D130" t="n">
-        <v>0.695752</v>
+        <v>0.665341</v>
       </c>
       <c r="E130" t="n">
-        <v>1.5771</v>
+        <v>0.665364</v>
       </c>
       <c r="F130" t="n">
-        <v>0.762462</v>
+        <v>0.681296</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.742722</v>
+        <v>0.711782</v>
       </c>
       <c r="C131" t="n">
-        <v>0.73794</v>
+        <v>0.736161</v>
       </c>
       <c r="D131" t="n">
-        <v>0.692921</v>
+        <v>0.681698</v>
       </c>
       <c r="E131" t="n">
-        <v>1.51816</v>
+        <v>0.664818</v>
       </c>
       <c r="F131" t="n">
-        <v>0.782534</v>
+        <v>0.682355</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.720982</v>
+        <v>0.712286</v>
       </c>
       <c r="C132" t="n">
-        <v>0.745381</v>
+        <v>0.736282</v>
       </c>
       <c r="D132" t="n">
-        <v>0.711516</v>
+        <v>0.699229</v>
       </c>
       <c r="E132" t="n">
-        <v>1.532</v>
+        <v>0.6591360000000001</v>
       </c>
       <c r="F132" t="n">
-        <v>0.799229</v>
+        <v>0.702495</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.730328</v>
+        <v>0.734949</v>
       </c>
       <c r="C133" t="n">
-        <v>0.757253</v>
+        <v>0.7403419999999999</v>
       </c>
       <c r="D133" t="n">
-        <v>0.738367</v>
+        <v>0.70796</v>
       </c>
       <c r="E133" t="n">
-        <v>1.50515</v>
+        <v>0.661937</v>
       </c>
       <c r="F133" t="n">
-        <v>0.818831</v>
+        <v>0.7103159999999999</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.731028</v>
+        <v>0.7099259999999999</v>
       </c>
       <c r="C134" t="n">
-        <v>0.757802</v>
+        <v>0.7712599999999999</v>
       </c>
       <c r="D134" t="n">
-        <v>0.752061</v>
+        <v>0.734568</v>
       </c>
       <c r="E134" t="n">
-        <v>1.50579</v>
+        <v>0.684447</v>
       </c>
       <c r="F134" t="n">
-        <v>0.812007</v>
+        <v>0.71596</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.730239</v>
+        <v>0.720808</v>
       </c>
       <c r="C135" t="n">
-        <v>0.758141</v>
+        <v>0.755564</v>
       </c>
       <c r="D135" t="n">
-        <v>0.697514</v>
+        <v>0.693165</v>
       </c>
       <c r="E135" t="n">
-        <v>1.50443</v>
+        <v>0.673951</v>
       </c>
       <c r="F135" t="n">
-        <v>0.823471</v>
+        <v>0.706532</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.734285</v>
+        <v>0.715077</v>
       </c>
       <c r="C136" t="n">
-        <v>0.76468</v>
+        <v>0.748406</v>
       </c>
       <c r="D136" t="n">
-        <v>0.7</v>
+        <v>0.68658</v>
       </c>
       <c r="E136" t="n">
-        <v>1.50272</v>
+        <v>0.68973</v>
       </c>
       <c r="F136" t="n">
-        <v>0.825911</v>
+        <v>0.716724</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.756928</v>
+        <v>0.721193</v>
       </c>
       <c r="C137" t="n">
-        <v>0.786874</v>
+        <v>0.769512</v>
       </c>
       <c r="D137" t="n">
-        <v>0.730795</v>
+        <v>0.6952469999999999</v>
       </c>
       <c r="E137" t="n">
-        <v>1.85185</v>
+        <v>0.829757</v>
       </c>
       <c r="F137" t="n">
-        <v>0.884022</v>
+        <v>0.7865220000000001</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.92034</v>
+        <v>0.914818</v>
       </c>
       <c r="C138" t="n">
-        <v>0.843218</v>
+        <v>0.837527</v>
       </c>
       <c r="D138" t="n">
-        <v>0.716114</v>
+        <v>0.708803</v>
       </c>
       <c r="E138" t="n">
-        <v>1.86156</v>
+        <v>0.829864</v>
       </c>
       <c r="F138" t="n">
-        <v>0.868788</v>
+        <v>0.787668</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.985885</v>
+        <v>0.922276</v>
       </c>
       <c r="C139" t="n">
-        <v>0.911691</v>
+        <v>0.841426</v>
       </c>
       <c r="D139" t="n">
-        <v>0.728662</v>
+        <v>0.715386</v>
       </c>
       <c r="E139" t="n">
-        <v>1.84762</v>
+        <v>0.853106</v>
       </c>
       <c r="F139" t="n">
-        <v>0.867283</v>
+        <v>0.809657</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.945595</v>
+        <v>0.922831</v>
       </c>
       <c r="C140" t="n">
-        <v>0.845861</v>
+        <v>0.837666</v>
       </c>
       <c r="D140" t="n">
-        <v>0.7572</v>
+        <v>0.734649</v>
       </c>
       <c r="E140" t="n">
-        <v>1.84642</v>
+        <v>0.8178569999999999</v>
       </c>
       <c r="F140" t="n">
-        <v>0.88998</v>
+        <v>0.785529</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.03795</v>
+        <v>0.914058</v>
       </c>
       <c r="C141" t="n">
-        <v>0.846343</v>
+        <v>0.84766</v>
       </c>
       <c r="D141" t="n">
-        <v>0.7504769999999999</v>
+        <v>0.745572</v>
       </c>
       <c r="E141" t="n">
-        <v>1.83901</v>
+        <v>0.819396</v>
       </c>
       <c r="F141" t="n">
-        <v>0.896983</v>
+        <v>0.796197</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.935612</v>
+        <v>0.906294</v>
       </c>
       <c r="C142" t="n">
-        <v>0.8494080000000001</v>
+        <v>0.837704</v>
       </c>
       <c r="D142" t="n">
-        <v>0.764687</v>
+        <v>0.763135</v>
       </c>
       <c r="E142" t="n">
-        <v>1.86953</v>
+        <v>0.82728</v>
       </c>
       <c r="F142" t="n">
-        <v>0.887121</v>
+        <v>0.792834</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.04703</v>
+        <v>0.910297</v>
       </c>
       <c r="C143" t="n">
-        <v>0.848194</v>
+        <v>0.843205</v>
       </c>
       <c r="D143" t="n">
-        <v>0.7862209999999999</v>
+        <v>0.77729</v>
       </c>
       <c r="E143" t="n">
-        <v>1.83593</v>
+        <v>0.813231</v>
       </c>
       <c r="F143" t="n">
-        <v>0.874912</v>
+        <v>0.793544</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0637916</v>
+        <v>0.06615649999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0672991</v>
+        <v>0.071465</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0946837</v>
+        <v>0.098027</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0548281</v>
+        <v>0.055029</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0650525</v>
+        <v>0.06264749999999999</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0641902</v>
+        <v>0.0641779</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0674377</v>
+        <v>0.0689355</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09861300000000001</v>
+        <v>0.0982687</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0542892</v>
+        <v>0.0545303</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0610984</v>
+        <v>0.0612339</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0674421</v>
+        <v>0.06419</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0670837</v>
+        <v>0.06961249999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.100818</v>
+        <v>0.102669</v>
       </c>
       <c r="E4" t="n">
-        <v>0.054488</v>
+        <v>0.0545357</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0616355</v>
+        <v>0.0619031</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0638417</v>
+        <v>0.0666934</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0717043</v>
+        <v>0.0715081</v>
       </c>
       <c r="D5" t="n">
-        <v>0.105437</v>
+        <v>0.108011</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0554691</v>
+        <v>0.0568132</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0631627</v>
+        <v>0.06441230000000001</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.06567000000000001</v>
+        <v>0.0665104</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0690339</v>
+        <v>0.07000530000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.108427</v>
+        <v>0.110328</v>
       </c>
       <c r="E6" t="n">
-        <v>0.056088</v>
+        <v>0.0575635</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0622346</v>
+        <v>0.0650227</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0651544</v>
+        <v>0.069743</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0688793</v>
+        <v>0.0723477</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08313429999999999</v>
+        <v>0.08578570000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>0.060062</v>
+        <v>0.0603393</v>
       </c>
       <c r="F7" t="n">
-        <v>0.063471</v>
+        <v>0.0663642</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0667338</v>
+        <v>0.0686336</v>
       </c>
       <c r="C8" t="n">
-        <v>0.069664</v>
+        <v>0.0728138</v>
       </c>
       <c r="D8" t="n">
-        <v>0.08567279999999999</v>
+        <v>0.08792949999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>0.06487030000000001</v>
+        <v>0.06676700000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06649140000000001</v>
+        <v>0.07140059999999999</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0666224</v>
+        <v>0.070359</v>
       </c>
       <c r="C9" t="n">
-        <v>0.070773</v>
+        <v>0.0750701</v>
       </c>
       <c r="D9" t="n">
-        <v>0.08961860000000001</v>
+        <v>0.0923677</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0558839</v>
+        <v>0.0590174</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0660087</v>
+        <v>0.0686913</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0722979</v>
+        <v>0.0751033</v>
       </c>
       <c r="C10" t="n">
-        <v>0.079819</v>
+        <v>0.0801362</v>
       </c>
       <c r="D10" t="n">
-        <v>0.08881029999999999</v>
+        <v>0.0928631</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0562253</v>
+        <v>0.0615514</v>
       </c>
       <c r="F10" t="n">
-        <v>0.066596</v>
+        <v>0.06744029999999999</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.07316640000000001</v>
+        <v>0.07532999999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0789034</v>
+        <v>0.0810215</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0918486</v>
+        <v>0.0937813</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0597676</v>
+        <v>0.0568356</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0674382</v>
+        <v>0.06666710000000001</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0724038</v>
+        <v>0.07443130000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07653890000000001</v>
+        <v>0.07750650000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0934902</v>
+        <v>0.0938214</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0562116</v>
+        <v>0.0570091</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0657133</v>
+        <v>0.0662657</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.07125819999999999</v>
+        <v>0.07279330000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07635980000000001</v>
+        <v>0.0763394</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0979805</v>
+        <v>0.09759900000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0565094</v>
+        <v>0.0571396</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0659991</v>
+        <v>0.0677745</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0759667</v>
+        <v>0.0742878</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0769268</v>
+        <v>0.0787915</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0997194</v>
+        <v>0.100036</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0572564</v>
+        <v>0.0570203</v>
       </c>
       <c r="F14" t="n">
-        <v>0.06660820000000001</v>
+        <v>0.06654590000000001</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0747437</v>
+        <v>0.0719407</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0788147</v>
+        <v>0.07671269999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>0.102504</v>
+        <v>0.102126</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0582911</v>
+        <v>0.0572807</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06886150000000001</v>
+        <v>0.066916</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0754233</v>
+        <v>0.0718676</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0810728</v>
+        <v>0.0761442</v>
       </c>
       <c r="D16" t="n">
-        <v>0.105618</v>
+        <v>0.105007</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0579476</v>
+        <v>0.0576789</v>
       </c>
       <c r="F16" t="n">
-        <v>0.06998409999999999</v>
+        <v>0.0667367</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0728265</v>
+        <v>0.071856</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0823951</v>
+        <v>0.07594140000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>0.108926</v>
+        <v>0.106995</v>
       </c>
       <c r="E17" t="n">
-        <v>0.058821</v>
+        <v>0.0573515</v>
       </c>
       <c r="F17" t="n">
-        <v>0.06892719999999999</v>
+        <v>0.06685190000000001</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0736059</v>
+        <v>0.07281269999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0796444</v>
+        <v>0.07749830000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.113014</v>
+        <v>0.111241</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0591118</v>
+        <v>0.0588144</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0693121</v>
+        <v>0.0674993</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0739112</v>
+        <v>0.07231269999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0812491</v>
+        <v>0.07714169999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>0.11596</v>
+        <v>0.114253</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0607308</v>
+        <v>0.0594345</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0713911</v>
+        <v>0.06891220000000001</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.07366979999999999</v>
+        <v>0.0735445</v>
       </c>
       <c r="C20" t="n">
-        <v>0.07762189999999999</v>
+        <v>0.0799692</v>
       </c>
       <c r="D20" t="n">
-        <v>0.120676</v>
+        <v>0.119148</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0620195</v>
+        <v>0.0621255</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0705973</v>
+        <v>0.07014380000000001</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0747442</v>
+        <v>0.07571899999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.082061</v>
+        <v>0.0790415</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0907371</v>
+        <v>0.08997769999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0648181</v>
+        <v>0.0656414</v>
       </c>
       <c r="F21" t="n">
-        <v>0.072281</v>
+        <v>0.0739306</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0786314</v>
+        <v>0.07506790000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0831976</v>
+        <v>0.07935689999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0933707</v>
+        <v>0.0902244</v>
       </c>
       <c r="E22" t="n">
-        <v>0.06876210000000001</v>
+        <v>0.0677917</v>
       </c>
       <c r="F22" t="n">
-        <v>0.07790080000000001</v>
+        <v>0.07563830000000001</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.07706499999999999</v>
+        <v>0.0777323</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0826146</v>
+        <v>0.0819559</v>
       </c>
       <c r="D23" t="n">
-        <v>0.09383039999999999</v>
+        <v>0.09297130000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>0.06276569999999999</v>
+        <v>0.0610187</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0735851</v>
+        <v>0.07208349999999999</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0794801</v>
+        <v>0.0781853</v>
       </c>
       <c r="C24" t="n">
-        <v>0.08737979999999999</v>
+        <v>0.0884445</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0962105</v>
+        <v>0.094861</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0619164</v>
+        <v>0.061657</v>
       </c>
       <c r="F24" t="n">
-        <v>0.07498489999999999</v>
+        <v>0.07177550000000001</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0795077</v>
+        <v>0.0778985</v>
       </c>
       <c r="C25" t="n">
-        <v>0.089958</v>
+        <v>0.0868191</v>
       </c>
       <c r="D25" t="n">
-        <v>0.100162</v>
+        <v>0.0980521</v>
       </c>
       <c r="E25" t="n">
-        <v>0.062472</v>
+        <v>0.0618401</v>
       </c>
       <c r="F25" t="n">
-        <v>0.074583</v>
+        <v>0.07372330000000001</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.08089</v>
+        <v>0.0785607</v>
       </c>
       <c r="C26" t="n">
-        <v>0.08694739999999999</v>
+        <v>0.0868786</v>
       </c>
       <c r="D26" t="n">
-        <v>0.103399</v>
+        <v>0.101093</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0624182</v>
+        <v>0.0625257</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0747242</v>
+        <v>0.07419820000000001</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0792491</v>
+        <v>0.07915700000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0870785</v>
+        <v>0.08682049999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>0.108871</v>
+        <v>0.104896</v>
       </c>
       <c r="E27" t="n">
-        <v>0.06331349999999999</v>
+        <v>0.0621454</v>
       </c>
       <c r="F27" t="n">
-        <v>0.07864110000000001</v>
+        <v>0.07371999999999999</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.07949349999999999</v>
+        <v>0.0784511</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0869378</v>
+        <v>0.0916188</v>
       </c>
       <c r="D28" t="n">
-        <v>0.108169</v>
+        <v>0.113339</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0627337</v>
+        <v>0.0623756</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0744269</v>
+        <v>0.0745653</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0804877</v>
+        <v>0.07827729999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0886554</v>
+        <v>0.09086279999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>0.115952</v>
+        <v>0.109752</v>
       </c>
       <c r="E29" t="n">
-        <v>0.063331</v>
+        <v>0.06343260000000001</v>
       </c>
       <c r="F29" t="n">
-        <v>0.076844</v>
+        <v>0.07818</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0801724</v>
+        <v>0.0789236</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0926037</v>
+        <v>0.0881535</v>
       </c>
       <c r="D30" t="n">
-        <v>0.117773</v>
+        <v>0.113011</v>
       </c>
       <c r="E30" t="n">
-        <v>0.064806</v>
+        <v>0.0633285</v>
       </c>
       <c r="F30" t="n">
-        <v>0.076849</v>
+        <v>0.075972</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.08002570000000001</v>
+        <v>0.079384</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0878935</v>
+        <v>0.08791160000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>0.121654</v>
+        <v>0.12127</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0654623</v>
+        <v>0.0666052</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07612430000000001</v>
+        <v>0.0765405</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0794764</v>
+        <v>0.0796925</v>
       </c>
       <c r="C32" t="n">
-        <v>0.09082079999999999</v>
+        <v>0.08938450000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>0.123006</v>
+        <v>0.119055</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0651668</v>
+        <v>0.0645979</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0768471</v>
+        <v>0.07648430000000001</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0799903</v>
+        <v>0.0838315</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0897453</v>
+        <v>0.08841309999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>0.129616</v>
+        <v>0.121992</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0663707</v>
+        <v>0.0651448</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0797168</v>
+        <v>0.0798326</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.08129690000000001</v>
+        <v>0.0797725</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0908839</v>
+        <v>0.0895272</v>
       </c>
       <c r="D34" t="n">
-        <v>0.132733</v>
+        <v>0.126125</v>
       </c>
       <c r="E34" t="n">
-        <v>0.06771439999999999</v>
+        <v>0.06698510000000001</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0814867</v>
+        <v>0.0803768</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0812068</v>
+        <v>0.0803779</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0905251</v>
+        <v>0.089473</v>
       </c>
       <c r="D35" t="n">
-        <v>0.108504</v>
+        <v>0.105091</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0695104</v>
+        <v>0.06857000000000001</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08321240000000001</v>
+        <v>0.0808273</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0831083</v>
+        <v>0.08125</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0925194</v>
+        <v>0.0917584</v>
       </c>
       <c r="D36" t="n">
-        <v>0.115585</v>
+        <v>0.112345</v>
       </c>
       <c r="E36" t="n">
-        <v>0.07432900000000001</v>
+        <v>0.0725035</v>
       </c>
       <c r="F36" t="n">
-        <v>0.08769979999999999</v>
+        <v>0.08687789999999999</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0849892</v>
+        <v>0.08448550000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>0.095899</v>
+        <v>0.093566</v>
       </c>
       <c r="D37" t="n">
-        <v>0.11518</v>
+        <v>0.114251</v>
       </c>
       <c r="E37" t="n">
-        <v>0.06939770000000001</v>
+        <v>0.0687084</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0819309</v>
+        <v>0.0801828</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0964555</v>
+        <v>0.0955141</v>
       </c>
       <c r="C38" t="n">
-        <v>0.100721</v>
+        <v>0.096612</v>
       </c>
       <c r="D38" t="n">
-        <v>0.119797</v>
+        <v>0.118166</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0725705</v>
+        <v>0.0686098</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0822692</v>
+        <v>0.08131869999999999</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0996229</v>
+        <v>0.0965825</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0968016</v>
+        <v>0.0973329</v>
       </c>
       <c r="D39" t="n">
-        <v>0.122353</v>
+        <v>0.122466</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0697125</v>
+        <v>0.0706473</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0818402</v>
+        <v>0.08319310000000001</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0961848</v>
+        <v>0.09662370000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0991467</v>
+        <v>0.100929</v>
       </c>
       <c r="D40" t="n">
-        <v>0.128878</v>
+        <v>0.128153</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0698979</v>
+        <v>0.0687376</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0813758</v>
+        <v>0.0813744</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0966094</v>
+        <v>0.0962383</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0995407</v>
+        <v>0.0979621</v>
       </c>
       <c r="D41" t="n">
-        <v>0.133557</v>
+        <v>0.131591</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0704515</v>
+        <v>0.0691036</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0849936</v>
+        <v>0.0827151</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.104494</v>
+        <v>0.09708319999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>0.100703</v>
+        <v>0.0997324</v>
       </c>
       <c r="D42" t="n">
-        <v>0.139404</v>
+        <v>0.137594</v>
       </c>
       <c r="E42" t="n">
-        <v>0.07122580000000001</v>
+        <v>0.0693199</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08488420000000001</v>
+        <v>0.08356860000000001</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0986394</v>
+        <v>0.0972807</v>
       </c>
       <c r="C43" t="n">
-        <v>0.100085</v>
+        <v>0.102827</v>
       </c>
       <c r="D43" t="n">
-        <v>0.141348</v>
+        <v>0.143822</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0708076</v>
+        <v>0.07253220000000001</v>
       </c>
       <c r="F43" t="n">
-        <v>0.084688</v>
+        <v>0.084532</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.09633709999999999</v>
+        <v>0.09646879999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>0.103107</v>
+        <v>0.102112</v>
       </c>
       <c r="D44" t="n">
-        <v>0.147324</v>
+        <v>0.148007</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0714484</v>
+        <v>0.07044499999999999</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0850611</v>
+        <v>0.0865447</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0972413</v>
+        <v>0.09623139999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>0.100791</v>
+        <v>0.102717</v>
       </c>
       <c r="D45" t="n">
-        <v>0.152976</v>
+        <v>0.153724</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0718565</v>
+        <v>0.0706878</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0872163</v>
+        <v>0.08804430000000001</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0974077</v>
+        <v>0.098042</v>
       </c>
       <c r="C46" t="n">
-        <v>0.10375</v>
+        <v>0.102679</v>
       </c>
       <c r="D46" t="n">
-        <v>0.160837</v>
+        <v>0.15833</v>
       </c>
       <c r="E46" t="n">
-        <v>0.07382619999999999</v>
+        <v>0.0712918</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0898414</v>
+        <v>0.0935686</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.101027</v>
+        <v>0.0984424</v>
       </c>
       <c r="C47" t="n">
-        <v>0.110148</v>
+        <v>0.109195</v>
       </c>
       <c r="D47" t="n">
-        <v>0.16986</v>
+        <v>0.164176</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0739737</v>
+        <v>0.0723312</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0946531</v>
+        <v>0.0931073</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.100615</v>
+        <v>0.0972562</v>
       </c>
       <c r="C48" t="n">
-        <v>0.107126</v>
+        <v>0.10834</v>
       </c>
       <c r="D48" t="n">
-        <v>0.174182</v>
+        <v>0.169767</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0769254</v>
+        <v>0.0749597</v>
       </c>
       <c r="F48" t="n">
-        <v>0.105109</v>
+        <v>0.09809229999999999</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.102276</v>
+        <v>0.099229</v>
       </c>
       <c r="C49" t="n">
-        <v>0.109348</v>
+        <v>0.115962</v>
       </c>
       <c r="D49" t="n">
-        <v>0.17898</v>
+        <v>0.178429</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0780676</v>
+        <v>0.07610690000000001</v>
       </c>
       <c r="F49" t="n">
-        <v>0.101104</v>
+        <v>0.0993711</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.102089</v>
+        <v>0.09956130000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.111947</v>
+        <v>0.114886</v>
       </c>
       <c r="D50" t="n">
-        <v>0.180361</v>
+        <v>0.171917</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0818334</v>
+        <v>0.0792963</v>
       </c>
       <c r="F50" t="n">
-        <v>0.111645</v>
+        <v>0.106406</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.103747</v>
+        <v>0.1015</v>
       </c>
       <c r="C51" t="n">
-        <v>0.116889</v>
+        <v>0.11371</v>
       </c>
       <c r="D51" t="n">
-        <v>0.173894</v>
+        <v>0.171325</v>
       </c>
       <c r="E51" t="n">
-        <v>0.160711</v>
+        <v>0.156046</v>
       </c>
       <c r="F51" t="n">
-        <v>0.125285</v>
+        <v>0.136283</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.107815</v>
+        <v>0.105104</v>
       </c>
       <c r="C52" t="n">
-        <v>0.133552</v>
+        <v>0.124615</v>
       </c>
       <c r="D52" t="n">
-        <v>0.179741</v>
+        <v>0.180474</v>
       </c>
       <c r="E52" t="n">
-        <v>0.160483</v>
+        <v>0.156277</v>
       </c>
       <c r="F52" t="n">
-        <v>0.125598</v>
+        <v>0.132851</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.187068</v>
+        <v>0.172761</v>
       </c>
       <c r="C53" t="n">
-        <v>0.1618</v>
+        <v>0.150496</v>
       </c>
       <c r="D53" t="n">
-        <v>0.185749</v>
+        <v>0.187242</v>
       </c>
       <c r="E53" t="n">
-        <v>0.165024</v>
+        <v>0.15671</v>
       </c>
       <c r="F53" t="n">
-        <v>0.134896</v>
+        <v>0.142769</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.194418</v>
+        <v>0.175657</v>
       </c>
       <c r="C54" t="n">
-        <v>0.159616</v>
+        <v>0.162091</v>
       </c>
       <c r="D54" t="n">
-        <v>0.192318</v>
+        <v>0.194509</v>
       </c>
       <c r="E54" t="n">
-        <v>0.160883</v>
+        <v>0.157902</v>
       </c>
       <c r="F54" t="n">
-        <v>0.131555</v>
+        <v>0.130241</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.179216</v>
+        <v>0.174977</v>
       </c>
       <c r="C55" t="n">
-        <v>0.166285</v>
+        <v>0.161352</v>
       </c>
       <c r="D55" t="n">
-        <v>0.198073</v>
+        <v>0.200269</v>
       </c>
       <c r="E55" t="n">
-        <v>0.163198</v>
+        <v>0.159581</v>
       </c>
       <c r="F55" t="n">
-        <v>0.135925</v>
+        <v>0.134043</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.18425</v>
+        <v>0.1734</v>
       </c>
       <c r="C56" t="n">
-        <v>0.174448</v>
+        <v>0.166704</v>
       </c>
       <c r="D56" t="n">
-        <v>0.206541</v>
+        <v>0.205376</v>
       </c>
       <c r="E56" t="n">
-        <v>0.16136</v>
+        <v>0.159036</v>
       </c>
       <c r="F56" t="n">
-        <v>0.137877</v>
+        <v>0.13797</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.177127</v>
+        <v>0.176758</v>
       </c>
       <c r="C57" t="n">
-        <v>0.169989</v>
+        <v>0.164501</v>
       </c>
       <c r="D57" t="n">
-        <v>0.216972</v>
+        <v>0.212612</v>
       </c>
       <c r="E57" t="n">
-        <v>0.157858</v>
+        <v>0.159168</v>
       </c>
       <c r="F57" t="n">
-        <v>0.147239</v>
+        <v>0.139787</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.176973</v>
+        <v>0.17703</v>
       </c>
       <c r="C58" t="n">
-        <v>0.171884</v>
+        <v>0.166868</v>
       </c>
       <c r="D58" t="n">
-        <v>0.22267</v>
+        <v>0.228213</v>
       </c>
       <c r="E58" t="n">
-        <v>0.165643</v>
+        <v>0.158659</v>
       </c>
       <c r="F58" t="n">
-        <v>0.145886</v>
+        <v>0.141244</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.179445</v>
+        <v>0.17469</v>
       </c>
       <c r="C59" t="n">
-        <v>0.172175</v>
+        <v>0.170568</v>
       </c>
       <c r="D59" t="n">
-        <v>0.230165</v>
+        <v>0.229458</v>
       </c>
       <c r="E59" t="n">
-        <v>0.165879</v>
+        <v>0.163178</v>
       </c>
       <c r="F59" t="n">
-        <v>0.152587</v>
+        <v>0.146512</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.179854</v>
+        <v>0.172162</v>
       </c>
       <c r="C60" t="n">
-        <v>0.180011</v>
+        <v>0.17198</v>
       </c>
       <c r="D60" t="n">
-        <v>0.26052</v>
+        <v>0.240949</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1641</v>
+        <v>0.16116</v>
       </c>
       <c r="F60" t="n">
-        <v>0.150933</v>
+        <v>0.150015</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.180432</v>
+        <v>0.173524</v>
       </c>
       <c r="C61" t="n">
-        <v>0.177131</v>
+        <v>0.176077</v>
       </c>
       <c r="D61" t="n">
-        <v>0.248854</v>
+        <v>0.246856</v>
       </c>
       <c r="E61" t="n">
-        <v>0.161994</v>
+        <v>0.161714</v>
       </c>
       <c r="F61" t="n">
-        <v>0.155553</v>
+        <v>0.155754</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.174201</v>
+        <v>0.174689</v>
       </c>
       <c r="C62" t="n">
-        <v>0.178384</v>
+        <v>0.181128</v>
       </c>
       <c r="D62" t="n">
-        <v>0.256236</v>
+        <v>0.257227</v>
       </c>
       <c r="E62" t="n">
-        <v>0.160754</v>
+        <v>0.164309</v>
       </c>
       <c r="F62" t="n">
-        <v>0.158465</v>
+        <v>0.162922</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.17553</v>
+        <v>0.175896</v>
       </c>
       <c r="C63" t="n">
-        <v>0.184998</v>
+        <v>0.186783</v>
       </c>
       <c r="D63" t="n">
-        <v>0.269987</v>
+        <v>0.270186</v>
       </c>
       <c r="E63" t="n">
-        <v>0.164434</v>
+        <v>0.165779</v>
       </c>
       <c r="F63" t="n">
-        <v>0.165764</v>
+        <v>0.165099</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.176306</v>
+        <v>0.1779</v>
       </c>
       <c r="C64" t="n">
-        <v>0.187743</v>
+        <v>0.190004</v>
       </c>
       <c r="D64" t="n">
-        <v>0.273129</v>
+        <v>0.268899</v>
       </c>
       <c r="E64" t="n">
-        <v>0.174397</v>
+        <v>0.163754</v>
       </c>
       <c r="F64" t="n">
-        <v>0.170626</v>
+        <v>0.170089</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.190584</v>
+        <v>0.179765</v>
       </c>
       <c r="C65" t="n">
-        <v>0.191658</v>
+        <v>0.194705</v>
       </c>
       <c r="D65" t="n">
-        <v>0.273347</v>
+        <v>0.280314</v>
       </c>
       <c r="E65" t="n">
-        <v>0.170556</v>
+        <v>0.172557</v>
       </c>
       <c r="F65" t="n">
-        <v>0.179798</v>
+        <v>0.181358</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.188623</v>
+        <v>0.185907</v>
       </c>
       <c r="C66" t="n">
-        <v>0.199244</v>
+        <v>0.201463</v>
       </c>
       <c r="D66" t="n">
-        <v>0.285375</v>
+        <v>0.282041</v>
       </c>
       <c r="E66" t="n">
-        <v>0.243739</v>
+        <v>0.242252</v>
       </c>
       <c r="F66" t="n">
-        <v>0.257884</v>
+        <v>0.255252</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.264696</v>
+        <v>0.266998</v>
       </c>
       <c r="C67" t="n">
-        <v>0.286026</v>
+        <v>0.276492</v>
       </c>
       <c r="D67" t="n">
-        <v>0.289453</v>
+        <v>0.286821</v>
       </c>
       <c r="E67" t="n">
-        <v>0.241306</v>
+        <v>0.243667</v>
       </c>
       <c r="F67" t="n">
-        <v>0.251771</v>
+        <v>0.253528</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.264827</v>
+        <v>0.265144</v>
       </c>
       <c r="C68" t="n">
-        <v>0.291479</v>
+        <v>0.2781</v>
       </c>
       <c r="D68" t="n">
-        <v>0.300219</v>
+        <v>0.29762</v>
       </c>
       <c r="E68" t="n">
-        <v>0.242852</v>
+        <v>0.243386</v>
       </c>
       <c r="F68" t="n">
-        <v>0.254665</v>
+        <v>0.255637</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.263441</v>
+        <v>0.277129</v>
       </c>
       <c r="C69" t="n">
-        <v>0.281022</v>
+        <v>0.279247</v>
       </c>
       <c r="D69" t="n">
-        <v>0.30937</v>
+        <v>0.328016</v>
       </c>
       <c r="E69" t="n">
-        <v>0.244227</v>
+        <v>0.245227</v>
       </c>
       <c r="F69" t="n">
-        <v>0.255669</v>
+        <v>0.254938</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.268688</v>
+        <v>0.264281</v>
       </c>
       <c r="C70" t="n">
-        <v>0.278238</v>
+        <v>0.283923</v>
       </c>
       <c r="D70" t="n">
-        <v>0.316694</v>
+        <v>0.315306</v>
       </c>
       <c r="E70" t="n">
-        <v>0.244578</v>
+        <v>0.248751</v>
       </c>
       <c r="F70" t="n">
-        <v>0.257961</v>
+        <v>0.261136</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.269973</v>
+        <v>0.265429</v>
       </c>
       <c r="C71" t="n">
-        <v>0.285422</v>
+        <v>0.280326</v>
       </c>
       <c r="D71" t="n">
-        <v>0.325758</v>
+        <v>0.323266</v>
       </c>
       <c r="E71" t="n">
-        <v>0.249879</v>
+        <v>0.248239</v>
       </c>
       <c r="F71" t="n">
-        <v>0.261783</v>
+        <v>0.257751</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.275939</v>
+        <v>0.26547</v>
       </c>
       <c r="C72" t="n">
-        <v>0.292518</v>
+        <v>0.282267</v>
       </c>
       <c r="D72" t="n">
-        <v>0.33857</v>
+        <v>0.341272</v>
       </c>
       <c r="E72" t="n">
-        <v>0.25468</v>
+        <v>0.248541</v>
       </c>
       <c r="F72" t="n">
-        <v>0.267958</v>
+        <v>0.264591</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.271671</v>
+        <v>0.272408</v>
       </c>
       <c r="C73" t="n">
-        <v>0.284772</v>
+        <v>0.283007</v>
       </c>
       <c r="D73" t="n">
-        <v>0.34991</v>
+        <v>0.344924</v>
       </c>
       <c r="E73" t="n">
-        <v>0.25584</v>
+        <v>0.250682</v>
       </c>
       <c r="F73" t="n">
-        <v>0.271167</v>
+        <v>0.271225</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.2729</v>
+        <v>0.270522</v>
       </c>
       <c r="C74" t="n">
-        <v>0.300615</v>
+        <v>0.285693</v>
       </c>
       <c r="D74" t="n">
-        <v>0.361022</v>
+        <v>0.354094</v>
       </c>
       <c r="E74" t="n">
-        <v>0.255067</v>
+        <v>0.251607</v>
       </c>
       <c r="F74" t="n">
-        <v>0.265941</v>
+        <v>0.265537</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.270677</v>
+        <v>0.271029</v>
       </c>
       <c r="C75" t="n">
-        <v>0.288678</v>
+        <v>0.29319</v>
       </c>
       <c r="D75" t="n">
-        <v>0.362441</v>
+        <v>0.369197</v>
       </c>
       <c r="E75" t="n">
-        <v>0.258104</v>
+        <v>0.257987</v>
       </c>
       <c r="F75" t="n">
-        <v>0.277408</v>
+        <v>0.280301</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.274831</v>
+        <v>0.269791</v>
       </c>
       <c r="C76" t="n">
-        <v>0.293946</v>
+        <v>0.286262</v>
       </c>
       <c r="D76" t="n">
-        <v>0.380674</v>
+        <v>0.372857</v>
       </c>
       <c r="E76" t="n">
-        <v>0.260009</v>
+        <v>0.255615</v>
       </c>
       <c r="F76" t="n">
-        <v>0.278898</v>
+        <v>0.268366</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.288269</v>
+        <v>0.277723</v>
       </c>
       <c r="C77" t="n">
-        <v>0.296296</v>
+        <v>0.292328</v>
       </c>
       <c r="D77" t="n">
-        <v>0.387777</v>
+        <v>0.38873</v>
       </c>
       <c r="E77" t="n">
-        <v>0.258262</v>
+        <v>0.260038</v>
       </c>
       <c r="F77" t="n">
-        <v>0.272563</v>
+        <v>0.275035</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.293571</v>
+        <v>0.29875</v>
       </c>
       <c r="C78" t="n">
-        <v>0.302719</v>
+        <v>0.29628</v>
       </c>
       <c r="D78" t="n">
-        <v>0.362915</v>
+        <v>0.362444</v>
       </c>
       <c r="E78" t="n">
-        <v>0.265915</v>
+        <v>0.264741</v>
       </c>
       <c r="F78" t="n">
-        <v>0.284531</v>
+        <v>0.277646</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.280454</v>
+        <v>0.282277</v>
       </c>
       <c r="C79" t="n">
-        <v>0.333612</v>
+        <v>0.303951</v>
       </c>
       <c r="D79" t="n">
-        <v>0.3751</v>
+        <v>0.370398</v>
       </c>
       <c r="E79" t="n">
-        <v>0.265886</v>
+        <v>0.271503</v>
       </c>
       <c r="F79" t="n">
-        <v>0.296209</v>
+        <v>0.28434</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.290421</v>
+        <v>0.304783</v>
       </c>
       <c r="C80" t="n">
-        <v>0.311697</v>
+        <v>0.305021</v>
       </c>
       <c r="D80" t="n">
-        <v>0.378093</v>
+        <v>0.380048</v>
       </c>
       <c r="E80" t="n">
-        <v>0.356954</v>
+        <v>0.352862</v>
       </c>
       <c r="F80" t="n">
-        <v>0.389836</v>
+        <v>0.395513</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.377059</v>
+        <v>0.367833</v>
       </c>
       <c r="C81" t="n">
-        <v>0.413314</v>
+        <v>0.399049</v>
       </c>
       <c r="D81" t="n">
-        <v>0.383899</v>
+        <v>0.382641</v>
       </c>
       <c r="E81" t="n">
-        <v>0.357528</v>
+        <v>0.347348</v>
       </c>
       <c r="F81" t="n">
-        <v>0.405388</v>
+        <v>0.407472</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.364561</v>
+        <v>0.366416</v>
       </c>
       <c r="C82" t="n">
-        <v>0.401602</v>
+        <v>0.403134</v>
       </c>
       <c r="D82" t="n">
-        <v>0.393938</v>
+        <v>0.394151</v>
       </c>
       <c r="E82" t="n">
-        <v>0.351687</v>
+        <v>0.351734</v>
       </c>
       <c r="F82" t="n">
-        <v>0.401807</v>
+        <v>0.396912</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.367733</v>
+        <v>0.369869</v>
       </c>
       <c r="C83" t="n">
-        <v>0.405987</v>
+        <v>0.443334</v>
       </c>
       <c r="D83" t="n">
-        <v>0.404435</v>
+        <v>0.400926</v>
       </c>
       <c r="E83" t="n">
-        <v>0.350013</v>
+        <v>0.346878</v>
       </c>
       <c r="F83" t="n">
-        <v>0.399207</v>
+        <v>0.402202</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.364911</v>
+        <v>0.372369</v>
       </c>
       <c r="C84" t="n">
-        <v>0.405943</v>
+        <v>0.405983</v>
       </c>
       <c r="D84" t="n">
-        <v>0.406783</v>
+        <v>0.41545</v>
       </c>
       <c r="E84" t="n">
-        <v>0.356663</v>
+        <v>0.36046</v>
       </c>
       <c r="F84" t="n">
-        <v>0.399411</v>
+        <v>0.400904</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.381612</v>
+        <v>0.369426</v>
       </c>
       <c r="C85" t="n">
-        <v>0.405952</v>
+        <v>0.409185</v>
       </c>
       <c r="D85" t="n">
-        <v>0.417204</v>
+        <v>0.420326</v>
       </c>
       <c r="E85" t="n">
-        <v>0.356332</v>
+        <v>0.350171</v>
       </c>
       <c r="F85" t="n">
-        <v>0.398976</v>
+        <v>0.407022</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.371442</v>
+        <v>0.371174</v>
       </c>
       <c r="C86" t="n">
-        <v>0.408885</v>
+        <v>0.412381</v>
       </c>
       <c r="D86" t="n">
-        <v>0.431033</v>
+        <v>0.432536</v>
       </c>
       <c r="E86" t="n">
-        <v>0.360421</v>
+        <v>0.355493</v>
       </c>
       <c r="F86" t="n">
-        <v>0.407847</v>
+        <v>0.405834</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.369995</v>
+        <v>0.371521</v>
       </c>
       <c r="C87" t="n">
-        <v>0.412546</v>
+        <v>0.414512</v>
       </c>
       <c r="D87" t="n">
-        <v>0.459514</v>
+        <v>0.447053</v>
       </c>
       <c r="E87" t="n">
-        <v>0.358105</v>
+        <v>0.358995</v>
       </c>
       <c r="F87" t="n">
-        <v>0.422433</v>
+        <v>0.414584</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.376515</v>
+        <v>0.370337</v>
       </c>
       <c r="C88" t="n">
-        <v>0.411314</v>
+        <v>0.41541</v>
       </c>
       <c r="D88" t="n">
-        <v>0.45658</v>
+        <v>0.456254</v>
       </c>
       <c r="E88" t="n">
-        <v>0.35953</v>
+        <v>0.357849</v>
       </c>
       <c r="F88" t="n">
-        <v>0.416696</v>
+        <v>0.417589</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.379811</v>
+        <v>0.373829</v>
       </c>
       <c r="C89" t="n">
-        <v>0.418152</v>
+        <v>0.429972</v>
       </c>
       <c r="D89" t="n">
-        <v>0.468443</v>
+        <v>0.477742</v>
       </c>
       <c r="E89" t="n">
-        <v>0.360898</v>
+        <v>0.354357</v>
       </c>
       <c r="F89" t="n">
-        <v>0.419218</v>
+        <v>0.421969</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.365843</v>
+        <v>0.384303</v>
       </c>
       <c r="C90" t="n">
-        <v>0.426158</v>
+        <v>0.419412</v>
       </c>
       <c r="D90" t="n">
-        <v>0.492591</v>
+        <v>0.480288</v>
       </c>
       <c r="E90" t="n">
-        <v>0.357851</v>
+        <v>0.361672</v>
       </c>
       <c r="F90" t="n">
-        <v>0.427813</v>
+        <v>0.423561</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.375844</v>
+        <v>0.376561</v>
       </c>
       <c r="C91" t="n">
-        <v>0.436358</v>
+        <v>0.427211</v>
       </c>
       <c r="D91" t="n">
-        <v>0.482714</v>
+        <v>0.491443</v>
       </c>
       <c r="E91" t="n">
-        <v>0.355287</v>
+        <v>0.366476</v>
       </c>
       <c r="F91" t="n">
-        <v>0.414207</v>
+        <v>0.424741</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.371341</v>
+        <v>0.379447</v>
       </c>
       <c r="C92" t="n">
-        <v>0.438999</v>
+        <v>0.436259</v>
       </c>
       <c r="D92" t="n">
-        <v>0.426624</v>
+        <v>0.440008</v>
       </c>
       <c r="E92" t="n">
-        <v>0.364821</v>
+        <v>0.363252</v>
       </c>
       <c r="F92" t="n">
-        <v>0.421409</v>
+        <v>0.424806</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.377456</v>
+        <v>0.373333</v>
       </c>
       <c r="C93" t="n">
-        <v>0.441677</v>
+        <v>0.440991</v>
       </c>
       <c r="D93" t="n">
-        <v>0.438217</v>
+        <v>0.432892</v>
       </c>
       <c r="E93" t="n">
-        <v>0.37139</v>
+        <v>0.36352</v>
       </c>
       <c r="F93" t="n">
-        <v>0.438457</v>
+        <v>0.429369</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.386915</v>
+        <v>0.381429</v>
       </c>
       <c r="C94" t="n">
-        <v>0.441596</v>
+        <v>0.44087</v>
       </c>
       <c r="D94" t="n">
-        <v>0.439356</v>
+        <v>0.441698</v>
       </c>
       <c r="E94" t="n">
-        <v>0.439028</v>
+        <v>0.443724</v>
       </c>
       <c r="F94" t="n">
-        <v>0.513217</v>
+        <v>0.5041020000000001</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.443606</v>
+        <v>0.4496</v>
       </c>
       <c r="C95" t="n">
-        <v>0.508162</v>
+        <v>0.53705</v>
       </c>
       <c r="D95" t="n">
-        <v>0.449574</v>
+        <v>0.482098</v>
       </c>
       <c r="E95" t="n">
-        <v>0.455509</v>
+        <v>0.450755</v>
       </c>
       <c r="F95" t="n">
-        <v>0.52866</v>
+        <v>0.513772</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.444489</v>
+        <v>0.465699</v>
       </c>
       <c r="C96" t="n">
-        <v>0.526111</v>
+        <v>0.5041870000000001</v>
       </c>
       <c r="D96" t="n">
-        <v>0.4616</v>
+        <v>0.481286</v>
       </c>
       <c r="E96" t="n">
-        <v>0.448792</v>
+        <v>0.444627</v>
       </c>
       <c r="F96" t="n">
-        <v>0.510964</v>
+        <v>0.511676</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.46209</v>
+        <v>0.454954</v>
       </c>
       <c r="C97" t="n">
-        <v>0.500131</v>
+        <v>0.512147</v>
       </c>
       <c r="D97" t="n">
-        <v>0.465735</v>
+        <v>0.478731</v>
       </c>
       <c r="E97" t="n">
-        <v>0.443273</v>
+        <v>0.454622</v>
       </c>
       <c r="F97" t="n">
-        <v>0.511412</v>
+        <v>0.523446</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.453361</v>
+        <v>0.451224</v>
       </c>
       <c r="C98" t="n">
-        <v>0.518716</v>
+        <v>0.504283</v>
       </c>
       <c r="D98" t="n">
-        <v>0.480935</v>
+        <v>0.476417</v>
       </c>
       <c r="E98" t="n">
-        <v>0.450804</v>
+        <v>0.447986</v>
       </c>
       <c r="F98" t="n">
-        <v>0.508059</v>
+        <v>0.509575</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.446195</v>
+        <v>0.475244</v>
       </c>
       <c r="C99" t="n">
-        <v>0.530996</v>
+        <v>0.5031600000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>0.50598</v>
+        <v>0.487778</v>
       </c>
       <c r="E99" t="n">
-        <v>0.452993</v>
+        <v>0.449145</v>
       </c>
       <c r="F99" t="n">
-        <v>0.525345</v>
+        <v>0.526807</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.467676</v>
+        <v>0.446435</v>
       </c>
       <c r="C100" t="n">
-        <v>0.517692</v>
+        <v>0.5166230000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>0.500277</v>
+        <v>0.500563</v>
       </c>
       <c r="E100" t="n">
-        <v>0.455733</v>
+        <v>0.448695</v>
       </c>
       <c r="F100" t="n">
-        <v>0.52177</v>
+        <v>0.524967</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.445113</v>
+        <v>0.45577</v>
       </c>
       <c r="C101" t="n">
-        <v>0.506603</v>
+        <v>0.507715</v>
       </c>
       <c r="D101" t="n">
-        <v>0.519691</v>
+        <v>0.515007</v>
       </c>
       <c r="E101" t="n">
-        <v>0.445487</v>
+        <v>0.449429</v>
       </c>
       <c r="F101" t="n">
-        <v>0.52278</v>
+        <v>0.513215</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.452398</v>
+        <v>0.445107</v>
       </c>
       <c r="C102" t="n">
-        <v>0.526094</v>
+        <v>0.505162</v>
       </c>
       <c r="D102" t="n">
-        <v>0.5225109999999999</v>
+        <v>0.561982</v>
       </c>
       <c r="E102" t="n">
-        <v>0.451473</v>
+        <v>0.456189</v>
       </c>
       <c r="F102" t="n">
-        <v>0.51676</v>
+        <v>0.527969</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.457726</v>
+        <v>0.474367</v>
       </c>
       <c r="C103" t="n">
-        <v>0.537921</v>
+        <v>0.515853</v>
       </c>
       <c r="D103" t="n">
-        <v>0.548121</v>
+        <v>0.535104</v>
       </c>
       <c r="E103" t="n">
-        <v>0.456885</v>
+        <v>0.444718</v>
       </c>
       <c r="F103" t="n">
-        <v>0.529724</v>
+        <v>0.530261</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.457437</v>
+        <v>0.452475</v>
       </c>
       <c r="C104" t="n">
-        <v>0.551484</v>
+        <v>0.5171519999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>0.5455989999999999</v>
+        <v>0.545156</v>
       </c>
       <c r="E104" t="n">
-        <v>0.450685</v>
+        <v>0.480866</v>
       </c>
       <c r="F104" t="n">
-        <v>0.532006</v>
+        <v>0.523092</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.455543</v>
+        <v>0.448733</v>
       </c>
       <c r="C105" t="n">
-        <v>0.5171289999999999</v>
+        <v>0.525678</v>
       </c>
       <c r="D105" t="n">
-        <v>0.559639</v>
+        <v>0.558743</v>
       </c>
       <c r="E105" t="n">
-        <v>0.454601</v>
+        <v>0.451541</v>
       </c>
       <c r="F105" t="n">
-        <v>0.525119</v>
+        <v>0.529433</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.477472</v>
+        <v>0.46908</v>
       </c>
       <c r="C106" t="n">
-        <v>0.542681</v>
+        <v>0.525413</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5705</v>
+        <v>0.581911</v>
       </c>
       <c r="E106" t="n">
-        <v>0.46101</v>
+        <v>0.465611</v>
       </c>
       <c r="F106" t="n">
-        <v>0.53716</v>
+        <v>0.556616</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.458217</v>
+        <v>0.466824</v>
       </c>
       <c r="C107" t="n">
-        <v>0.528085</v>
+        <v>0.526369</v>
       </c>
       <c r="D107" t="n">
-        <v>0.490711</v>
+        <v>0.484263</v>
       </c>
       <c r="E107" t="n">
-        <v>0.459298</v>
+        <v>0.453077</v>
       </c>
       <c r="F107" t="n">
-        <v>0.545855</v>
+        <v>0.565041</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.463403</v>
+        <v>0.45304</v>
       </c>
       <c r="C108" t="n">
-        <v>0.534224</v>
+        <v>0.5334100000000001</v>
       </c>
       <c r="D108" t="n">
-        <v>0.501279</v>
+        <v>0.516292</v>
       </c>
       <c r="E108" t="n">
-        <v>0.5334410000000001</v>
+        <v>0.531393</v>
       </c>
       <c r="F108" t="n">
-        <v>0.587266</v>
+        <v>0.584168</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.459994</v>
+        <v>0.470826</v>
       </c>
       <c r="C109" t="n">
-        <v>0.581613</v>
+        <v>0.557473</v>
       </c>
       <c r="D109" t="n">
-        <v>0.544522</v>
+        <v>0.5117390000000001</v>
       </c>
       <c r="E109" t="n">
-        <v>0.5283409999999999</v>
+        <v>0.551997</v>
       </c>
       <c r="F109" t="n">
-        <v>0.587275</v>
+        <v>0.6003540000000001</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.545143</v>
+        <v>0.547728</v>
       </c>
       <c r="C110" t="n">
-        <v>0.598054</v>
+        <v>0.588929</v>
       </c>
       <c r="D110" t="n">
-        <v>0.524603</v>
+        <v>0.516459</v>
       </c>
       <c r="E110" t="n">
-        <v>0.547481</v>
+        <v>0.530629</v>
       </c>
       <c r="F110" t="n">
-        <v>0.587185</v>
+        <v>0.585394</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.548902</v>
+        <v>0.552053</v>
       </c>
       <c r="C111" t="n">
-        <v>0.601553</v>
+        <v>0.594638</v>
       </c>
       <c r="D111" t="n">
-        <v>0.541666</v>
+        <v>0.529957</v>
       </c>
       <c r="E111" t="n">
-        <v>0.5330819999999999</v>
+        <v>0.560746</v>
       </c>
       <c r="F111" t="n">
-        <v>0.592328</v>
+        <v>0.5851769999999999</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.556455</v>
+        <v>0.543479</v>
       </c>
       <c r="C112" t="n">
-        <v>0.59787</v>
+        <v>0.5995470000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>0.541982</v>
+        <v>0.541226</v>
       </c>
       <c r="E112" t="n">
-        <v>0.538231</v>
+        <v>0.5238159999999999</v>
       </c>
       <c r="F112" t="n">
-        <v>0.606775</v>
+        <v>0.589483</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.547239</v>
+        <v>0.557145</v>
       </c>
       <c r="C113" t="n">
-        <v>0.593845</v>
+        <v>0.600222</v>
       </c>
       <c r="D113" t="n">
-        <v>0.563623</v>
+        <v>0.559096</v>
       </c>
       <c r="E113" t="n">
-        <v>0.53366</v>
+        <v>0.530477</v>
       </c>
       <c r="F113" t="n">
-        <v>0.599962</v>
+        <v>0.600091</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.548055</v>
+        <v>0.543888</v>
       </c>
       <c r="C114" t="n">
-        <v>0.623371</v>
+        <v>0.59777</v>
       </c>
       <c r="D114" t="n">
-        <v>0.567895</v>
+        <v>0.570594</v>
       </c>
       <c r="E114" t="n">
-        <v>0.528556</v>
+        <v>0.531602</v>
       </c>
       <c r="F114" t="n">
-        <v>0.607783</v>
+        <v>0.599133</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.552889</v>
+        <v>0.547086</v>
       </c>
       <c r="C115" t="n">
-        <v>0.603559</v>
+        <v>0.594176</v>
       </c>
       <c r="D115" t="n">
-        <v>0.582559</v>
+        <v>0.574453</v>
       </c>
       <c r="E115" t="n">
-        <v>0.535822</v>
+        <v>0.5342980000000001</v>
       </c>
       <c r="F115" t="n">
-        <v>0.594889</v>
+        <v>0.618081</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.555453</v>
+        <v>0.544482</v>
       </c>
       <c r="C116" t="n">
-        <v>0.61805</v>
+        <v>0.598177</v>
       </c>
       <c r="D116" t="n">
-        <v>0.588706</v>
+        <v>0.615069</v>
       </c>
       <c r="E116" t="n">
-        <v>0.532977</v>
+        <v>0.525985</v>
       </c>
       <c r="F116" t="n">
-        <v>0.599743</v>
+        <v>0.61011</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.553211</v>
+        <v>0.558462</v>
       </c>
       <c r="C117" t="n">
-        <v>0.599357</v>
+        <v>0.6019</v>
       </c>
       <c r="D117" t="n">
-        <v>0.616255</v>
+        <v>0.606356</v>
       </c>
       <c r="E117" t="n">
-        <v>0.532309</v>
+        <v>0.535259</v>
       </c>
       <c r="F117" t="n">
-        <v>0.6221370000000001</v>
+        <v>0.60961</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.562425</v>
+        <v>0.55435</v>
       </c>
       <c r="C118" t="n">
-        <v>0.602285</v>
+        <v>0.610881</v>
       </c>
       <c r="D118" t="n">
-        <v>0.612058</v>
+        <v>0.614945</v>
       </c>
       <c r="E118" t="n">
-        <v>0.544513</v>
+        <v>0.538788</v>
       </c>
       <c r="F118" t="n">
-        <v>0.611822</v>
+        <v>0.632597</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.54504</v>
+        <v>0.565658</v>
       </c>
       <c r="C119" t="n">
-        <v>0.622776</v>
+        <v>0.62113</v>
       </c>
       <c r="D119" t="n">
-        <v>0.624192</v>
+        <v>0.660808</v>
       </c>
       <c r="E119" t="n">
-        <v>0.53936</v>
+        <v>0.5389119999999999</v>
       </c>
       <c r="F119" t="n">
-        <v>0.613433</v>
+        <v>0.619598</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.557066</v>
+        <v>0.559451</v>
       </c>
       <c r="C120" t="n">
-        <v>0.624242</v>
+        <v>0.623336</v>
       </c>
       <c r="D120" t="n">
-        <v>0.659118</v>
+        <v>0.661305</v>
       </c>
       <c r="E120" t="n">
-        <v>0.536322</v>
+        <v>0.544952</v>
       </c>
       <c r="F120" t="n">
-        <v>0.620823</v>
+        <v>0.625759</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.553382</v>
+        <v>0.556401</v>
       </c>
       <c r="C121" t="n">
-        <v>0.6138400000000001</v>
+        <v>0.615434</v>
       </c>
       <c r="D121" t="n">
-        <v>0.598447</v>
+        <v>0.57978</v>
       </c>
       <c r="E121" t="n">
-        <v>0.542743</v>
+        <v>0.55797</v>
       </c>
       <c r="F121" t="n">
-        <v>0.625636</v>
+        <v>0.637997</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.566949</v>
+        <v>0.556477</v>
       </c>
       <c r="C122" t="n">
-        <v>0.6349</v>
+        <v>0.624346</v>
       </c>
       <c r="D122" t="n">
-        <v>0.57641</v>
+        <v>0.568255</v>
       </c>
       <c r="E122" t="n">
-        <v>0.549411</v>
+        <v>0.572153</v>
       </c>
       <c r="F122" t="n">
-        <v>0.646377</v>
+        <v>0.636191</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.623328</v>
+        <v>0.558162</v>
       </c>
       <c r="C123" t="n">
-        <v>0.636758</v>
+        <v>0.639813</v>
       </c>
       <c r="D123" t="n">
-        <v>0.609271</v>
+        <v>0.582578</v>
       </c>
       <c r="E123" t="n">
-        <v>0.661067</v>
+        <v>0.646107</v>
       </c>
       <c r="F123" t="n">
-        <v>0.668822</v>
+        <v>0.653682</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.834133</v>
+        <v>0.703758</v>
       </c>
       <c r="C124" t="n">
-        <v>0.723826</v>
+        <v>0.711573</v>
       </c>
       <c r="D124" t="n">
-        <v>0.596943</v>
+        <v>0.598014</v>
       </c>
       <c r="E124" t="n">
-        <v>0.6480320000000001</v>
+        <v>0.675075</v>
       </c>
       <c r="F124" t="n">
-        <v>0.710972</v>
+        <v>0.659379</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.724042</v>
+        <v>0.711018</v>
       </c>
       <c r="C125" t="n">
-        <v>0.720166</v>
+        <v>0.715401</v>
       </c>
       <c r="D125" t="n">
-        <v>0.615495</v>
+        <v>0.610557</v>
       </c>
       <c r="E125" t="n">
-        <v>0.655549</v>
+        <v>0.848604</v>
       </c>
       <c r="F125" t="n">
-        <v>0.679494</v>
+        <v>0.723359</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.712477</v>
+        <v>0.948974</v>
       </c>
       <c r="C126" t="n">
-        <v>0.719359</v>
+        <v>0.719792</v>
       </c>
       <c r="D126" t="n">
-        <v>0.6346349999999999</v>
+        <v>0.630086</v>
       </c>
       <c r="E126" t="n">
-        <v>0.652888</v>
+        <v>0.660525</v>
       </c>
       <c r="F126" t="n">
-        <v>0.6704</v>
+        <v>0.661305</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.70951</v>
+        <v>0.718776</v>
       </c>
       <c r="C127" t="n">
-        <v>0.725988</v>
+        <v>0.720479</v>
       </c>
       <c r="D127" t="n">
-        <v>0.63552</v>
+        <v>0.658644</v>
       </c>
       <c r="E127" t="n">
-        <v>0.646906</v>
+        <v>0.651219</v>
       </c>
       <c r="F127" t="n">
-        <v>0.674831</v>
+        <v>0.666428</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.707987</v>
+        <v>0.711655</v>
       </c>
       <c r="C128" t="n">
-        <v>0.748677</v>
+        <v>0.7405</v>
       </c>
       <c r="D128" t="n">
-        <v>0.6520629999999999</v>
+        <v>0.646312</v>
       </c>
       <c r="E128" t="n">
-        <v>0.679559</v>
+        <v>0.661816</v>
       </c>
       <c r="F128" t="n">
-        <v>0.713444</v>
+        <v>0.66852</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.717235</v>
+        <v>0.715795</v>
       </c>
       <c r="C129" t="n">
-        <v>0.720866</v>
+        <v>0.729963</v>
       </c>
       <c r="D129" t="n">
-        <v>0.654383</v>
+        <v>0.6638230000000001</v>
       </c>
       <c r="E129" t="n">
-        <v>0.660245</v>
+        <v>0.666339</v>
       </c>
       <c r="F129" t="n">
-        <v>0.675004</v>
+        <v>0.670369</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.709896</v>
+        <v>0.71196</v>
       </c>
       <c r="C130" t="n">
-        <v>0.753976</v>
+        <v>0.7225819999999999</v>
       </c>
       <c r="D130" t="n">
-        <v>0.665341</v>
+        <v>0.670849</v>
       </c>
       <c r="E130" t="n">
-        <v>0.665364</v>
+        <v>0.658226</v>
       </c>
       <c r="F130" t="n">
-        <v>0.681296</v>
+        <v>0.673685</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.711782</v>
+        <v>0.721542</v>
       </c>
       <c r="C131" t="n">
-        <v>0.736161</v>
+        <v>0.729871</v>
       </c>
       <c r="D131" t="n">
-        <v>0.681698</v>
+        <v>0.6838689999999999</v>
       </c>
       <c r="E131" t="n">
-        <v>0.664818</v>
+        <v>0.67064</v>
       </c>
       <c r="F131" t="n">
-        <v>0.682355</v>
+        <v>0.685301</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.712286</v>
+        <v>0.717124</v>
       </c>
       <c r="C132" t="n">
-        <v>0.736282</v>
+        <v>0.7332379999999999</v>
       </c>
       <c r="D132" t="n">
-        <v>0.699229</v>
+        <v>0.704117</v>
       </c>
       <c r="E132" t="n">
-        <v>0.6591360000000001</v>
+        <v>0.670874</v>
       </c>
       <c r="F132" t="n">
-        <v>0.702495</v>
+        <v>0.693426</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.734949</v>
+        <v>0.724643</v>
       </c>
       <c r="C133" t="n">
-        <v>0.7403419999999999</v>
+        <v>0.742533</v>
       </c>
       <c r="D133" t="n">
-        <v>0.70796</v>
+        <v>0.7241379999999999</v>
       </c>
       <c r="E133" t="n">
-        <v>0.661937</v>
+        <v>0.684692</v>
       </c>
       <c r="F133" t="n">
-        <v>0.7103159999999999</v>
+        <v>0.700191</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.7099259999999999</v>
+        <v>0.725482</v>
       </c>
       <c r="C134" t="n">
-        <v>0.7712599999999999</v>
+        <v>0.74072</v>
       </c>
       <c r="D134" t="n">
-        <v>0.734568</v>
+        <v>0.727115</v>
       </c>
       <c r="E134" t="n">
-        <v>0.684447</v>
+        <v>0.6636919999999999</v>
       </c>
       <c r="F134" t="n">
-        <v>0.71596</v>
+        <v>0.705718</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.720808</v>
+        <v>0.720292</v>
       </c>
       <c r="C135" t="n">
-        <v>0.755564</v>
+        <v>0.749479</v>
       </c>
       <c r="D135" t="n">
-        <v>0.693165</v>
+        <v>0.670805</v>
       </c>
       <c r="E135" t="n">
-        <v>0.673951</v>
+        <v>0.663882</v>
       </c>
       <c r="F135" t="n">
-        <v>0.706532</v>
+        <v>0.7180839999999999</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.715077</v>
+        <v>0.730963</v>
       </c>
       <c r="C136" t="n">
-        <v>0.748406</v>
+        <v>0.761753</v>
       </c>
       <c r="D136" t="n">
-        <v>0.68658</v>
+        <v>0.6919729999999999</v>
       </c>
       <c r="E136" t="n">
-        <v>0.68973</v>
+        <v>0.682844</v>
       </c>
       <c r="F136" t="n">
-        <v>0.716724</v>
+        <v>0.758711</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.721193</v>
+        <v>0.7272729999999999</v>
       </c>
       <c r="C137" t="n">
-        <v>0.769512</v>
+        <v>0.7667040000000001</v>
       </c>
       <c r="D137" t="n">
-        <v>0.6952469999999999</v>
+        <v>0.700103</v>
       </c>
       <c r="E137" t="n">
-        <v>0.829757</v>
+        <v>0.82089</v>
       </c>
       <c r="F137" t="n">
-        <v>0.7865220000000001</v>
+        <v>0.765566</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.914818</v>
+        <v>0.904961</v>
       </c>
       <c r="C138" t="n">
-        <v>0.837527</v>
+        <v>0.832861</v>
       </c>
       <c r="D138" t="n">
-        <v>0.708803</v>
+        <v>0.707048</v>
       </c>
       <c r="E138" t="n">
-        <v>0.829864</v>
+        <v>0.818106</v>
       </c>
       <c r="F138" t="n">
-        <v>0.787668</v>
+        <v>0.769423</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.922276</v>
+        <v>0.918084</v>
       </c>
       <c r="C139" t="n">
-        <v>0.841426</v>
+        <v>0.8296829999999999</v>
       </c>
       <c r="D139" t="n">
-        <v>0.715386</v>
+        <v>0.724051</v>
       </c>
       <c r="E139" t="n">
-        <v>0.853106</v>
+        <v>0.819974</v>
       </c>
       <c r="F139" t="n">
-        <v>0.809657</v>
+        <v>0.773634</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.922831</v>
+        <v>0.90798</v>
       </c>
       <c r="C140" t="n">
-        <v>0.837666</v>
+        <v>0.828826</v>
       </c>
       <c r="D140" t="n">
-        <v>0.734649</v>
+        <v>0.73667</v>
       </c>
       <c r="E140" t="n">
-        <v>0.8178569999999999</v>
+        <v>0.816194</v>
       </c>
       <c r="F140" t="n">
-        <v>0.785529</v>
+        <v>0.763308</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.914058</v>
+        <v>0.900699</v>
       </c>
       <c r="C141" t="n">
-        <v>0.84766</v>
+        <v>0.822812</v>
       </c>
       <c r="D141" t="n">
-        <v>0.745572</v>
+        <v>0.74105</v>
       </c>
       <c r="E141" t="n">
-        <v>0.819396</v>
+        <v>0.818085</v>
       </c>
       <c r="F141" t="n">
-        <v>0.796197</v>
+        <v>0.781845</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.906294</v>
+        <v>0.902963</v>
       </c>
       <c r="C142" t="n">
-        <v>0.837704</v>
+        <v>0.823075</v>
       </c>
       <c r="D142" t="n">
-        <v>0.763135</v>
+        <v>0.751231</v>
       </c>
       <c r="E142" t="n">
-        <v>0.82728</v>
+        <v>0.824997</v>
       </c>
       <c r="F142" t="n">
-        <v>0.792834</v>
+        <v>0.774815</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.910297</v>
+        <v>0.912493</v>
       </c>
       <c r="C143" t="n">
-        <v>0.843205</v>
+        <v>0.826489</v>
       </c>
       <c r="D143" t="n">
-        <v>0.77729</v>
+        <v>0.765972</v>
       </c>
       <c r="E143" t="n">
-        <v>0.813231</v>
+        <v>0.814492</v>
       </c>
       <c r="F143" t="n">
-        <v>0.793544</v>
+        <v>0.76589</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.06615649999999999</v>
+        <v>0.07069540000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.071465</v>
+        <v>0.0716987</v>
       </c>
       <c r="D2" t="n">
-        <v>0.098027</v>
+        <v>0.09916320000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>0.055029</v>
+        <v>0.0560464</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06264749999999999</v>
+        <v>0.0671202</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0641779</v>
+        <v>0.0694504</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0689355</v>
+        <v>0.0716557</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0982687</v>
+        <v>0.102566</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0545303</v>
+        <v>0.0565779</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0612339</v>
+        <v>0.06415949999999999</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.06419</v>
+        <v>0.0668898</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06961249999999999</v>
+        <v>0.0773983</v>
       </c>
       <c r="D4" t="n">
-        <v>0.102669</v>
+        <v>0.106539</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0545357</v>
+        <v>0.0566442</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0619031</v>
+        <v>0.0659498</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0666934</v>
+        <v>0.06680990000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0715081</v>
+        <v>0.0702595</v>
       </c>
       <c r="D5" t="n">
-        <v>0.108011</v>
+        <v>0.108806</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0568132</v>
+        <v>0.0570365</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06441230000000001</v>
+        <v>0.06412080000000001</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0665104</v>
+        <v>0.06684560000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07000530000000001</v>
+        <v>0.0700601</v>
       </c>
       <c r="D6" t="n">
-        <v>0.110328</v>
+        <v>0.109558</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0575635</v>
+        <v>0.0581634</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0650227</v>
+        <v>0.06554020000000001</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.069743</v>
+        <v>0.0680226</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0723477</v>
+        <v>0.0725235</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08578570000000001</v>
+        <v>0.0867303</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0603393</v>
+        <v>0.0610704</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0663642</v>
+        <v>0.0668802</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0686336</v>
+        <v>0.07566440000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0728138</v>
+        <v>0.0723171</v>
       </c>
       <c r="D8" t="n">
-        <v>0.08792949999999999</v>
+        <v>0.08848109999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>0.06676700000000001</v>
+        <v>0.0654988</v>
       </c>
       <c r="F8" t="n">
-        <v>0.07140059999999999</v>
+        <v>0.07298399999999999</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.070359</v>
+        <v>0.0741771</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0750701</v>
+        <v>0.0726352</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0923677</v>
+        <v>0.0892561</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0590174</v>
+        <v>0.0581407</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0686913</v>
+        <v>0.0764137</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0751033</v>
+        <v>0.08040799999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0801362</v>
+        <v>0.07890850000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0928631</v>
+        <v>0.0927177</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0615514</v>
+        <v>0.0589019</v>
       </c>
       <c r="F10" t="n">
-        <v>0.06744029999999999</v>
+        <v>0.0696915</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.07532999999999999</v>
+        <v>0.0738685</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0810215</v>
+        <v>0.07855959999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0937813</v>
+        <v>0.09473090000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0568356</v>
+        <v>0.0584785</v>
       </c>
       <c r="F11" t="n">
-        <v>0.06666710000000001</v>
+        <v>0.0690122</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.07443130000000001</v>
+        <v>0.07655240000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07750650000000001</v>
+        <v>0.0779445</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0938214</v>
+        <v>0.0967928</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0570091</v>
+        <v>0.0578068</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0662657</v>
+        <v>0.0674869</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.07279330000000001</v>
+        <v>0.073115</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0763394</v>
+        <v>0.0759143</v>
       </c>
       <c r="D13" t="n">
-        <v>0.09759900000000001</v>
+        <v>0.09562320000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0571396</v>
+        <v>0.0561777</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0677745</v>
+        <v>0.0662182</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0742878</v>
+        <v>0.07095600000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0787915</v>
+        <v>0.0758663</v>
       </c>
       <c r="D14" t="n">
-        <v>0.100036</v>
+        <v>0.0984307</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0570203</v>
+        <v>0.056458</v>
       </c>
       <c r="F14" t="n">
-        <v>0.06654590000000001</v>
+        <v>0.06609909999999999</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0719407</v>
+        <v>0.07150819999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07671269999999999</v>
+        <v>0.07610980000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>0.102126</v>
+        <v>0.102153</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0572807</v>
+        <v>0.0572531</v>
       </c>
       <c r="F15" t="n">
-        <v>0.066916</v>
+        <v>0.0684603</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0718676</v>
+        <v>0.071701</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0761442</v>
+        <v>0.0774913</v>
       </c>
       <c r="D16" t="n">
-        <v>0.105007</v>
+        <v>0.106166</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0576789</v>
+        <v>0.0590163</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0667367</v>
+        <v>0.0675489</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.071856</v>
+        <v>0.0721728</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07594140000000001</v>
+        <v>0.07723919999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>0.106995</v>
+        <v>0.119321</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0573515</v>
+        <v>0.0651497</v>
       </c>
       <c r="F17" t="n">
-        <v>0.06685190000000001</v>
+        <v>0.0669235</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.07281269999999999</v>
+        <v>0.0788905</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07749830000000001</v>
+        <v>0.07772660000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.111241</v>
+        <v>0.11092</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0588144</v>
+        <v>0.0587689</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0674993</v>
+        <v>0.06912550000000001</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.07231269999999999</v>
+        <v>0.0731477</v>
       </c>
       <c r="C19" t="n">
-        <v>0.07714169999999999</v>
+        <v>0.0775156</v>
       </c>
       <c r="D19" t="n">
-        <v>0.114253</v>
+        <v>0.114163</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0594345</v>
+        <v>0.059215</v>
       </c>
       <c r="F19" t="n">
-        <v>0.06891220000000001</v>
+        <v>0.0687816</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0735445</v>
+        <v>0.0728481</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0799692</v>
+        <v>0.0782318</v>
       </c>
       <c r="D20" t="n">
-        <v>0.119148</v>
+        <v>0.11679</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0621255</v>
+        <v>0.0612526</v>
       </c>
       <c r="F20" t="n">
-        <v>0.07014380000000001</v>
+        <v>0.0711001</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07571899999999999</v>
+        <v>0.074931</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0790415</v>
+        <v>0.079486</v>
       </c>
       <c r="D21" t="n">
-        <v>0.08997769999999999</v>
+        <v>0.0893138</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0656414</v>
+        <v>0.06441479999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0739306</v>
+        <v>0.07335800000000001</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.07506790000000001</v>
+        <v>0.0744713</v>
       </c>
       <c r="C22" t="n">
-        <v>0.07935689999999999</v>
+        <v>0.0793546</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0902244</v>
+        <v>0.0903485</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0677917</v>
+        <v>0.06834369999999999</v>
       </c>
       <c r="F22" t="n">
-        <v>0.07563830000000001</v>
+        <v>0.0768996</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0777323</v>
+        <v>0.0769141</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0819559</v>
+        <v>0.08235729999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>0.09297130000000001</v>
+        <v>0.0939927</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0610187</v>
+        <v>0.0618883</v>
       </c>
       <c r="F23" t="n">
-        <v>0.07208349999999999</v>
+        <v>0.07341399999999999</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0781853</v>
+        <v>0.07906779999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0884445</v>
+        <v>0.0859934</v>
       </c>
       <c r="D24" t="n">
-        <v>0.094861</v>
+        <v>0.09477090000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>0.061657</v>
+        <v>0.0613017</v>
       </c>
       <c r="F24" t="n">
-        <v>0.07177550000000001</v>
+        <v>0.07195650000000001</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0778985</v>
+        <v>0.07886559999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0868191</v>
+        <v>0.0884577</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0980521</v>
+        <v>0.0990534</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0618401</v>
+        <v>0.0622649</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07372330000000001</v>
+        <v>0.07400080000000001</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0785607</v>
+        <v>0.07931240000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0868786</v>
+        <v>0.0865416</v>
       </c>
       <c r="D26" t="n">
-        <v>0.101093</v>
+        <v>0.10098</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0625257</v>
+        <v>0.0616472</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07419820000000001</v>
+        <v>0.07354579999999999</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.07915700000000001</v>
+        <v>0.0801087</v>
       </c>
       <c r="C27" t="n">
-        <v>0.08682049999999999</v>
+        <v>0.0865843</v>
       </c>
       <c r="D27" t="n">
-        <v>0.104896</v>
+        <v>0.103218</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0621454</v>
+        <v>0.0613234</v>
       </c>
       <c r="F27" t="n">
-        <v>0.07371999999999999</v>
+        <v>0.0732035</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0784511</v>
+        <v>0.0777794</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0916188</v>
+        <v>0.0859026</v>
       </c>
       <c r="D28" t="n">
-        <v>0.113339</v>
+        <v>0.106117</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0623756</v>
+        <v>0.0619332</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0745653</v>
+        <v>0.0758182</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.07827729999999999</v>
+        <v>0.07929559999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>0.09086279999999999</v>
+        <v>0.08749949999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>0.109752</v>
+        <v>0.110089</v>
       </c>
       <c r="E29" t="n">
-        <v>0.06343260000000001</v>
+        <v>0.0627732</v>
       </c>
       <c r="F29" t="n">
-        <v>0.07818</v>
+        <v>0.07484590000000001</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0789236</v>
+        <v>0.0798485</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0881535</v>
+        <v>0.0886006</v>
       </c>
       <c r="D30" t="n">
-        <v>0.113011</v>
+        <v>0.118621</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0633285</v>
+        <v>0.06339649999999999</v>
       </c>
       <c r="F30" t="n">
-        <v>0.075972</v>
+        <v>0.0750343</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.079384</v>
+        <v>0.0784933</v>
       </c>
       <c r="C31" t="n">
-        <v>0.08791160000000001</v>
+        <v>0.0869253</v>
       </c>
       <c r="D31" t="n">
-        <v>0.12127</v>
+        <v>0.119586</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0666052</v>
+        <v>0.06302729999999999</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0765405</v>
+        <v>0.0766907</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0796925</v>
+        <v>0.0787829</v>
       </c>
       <c r="C32" t="n">
-        <v>0.08938450000000001</v>
+        <v>0.0884133</v>
       </c>
       <c r="D32" t="n">
-        <v>0.119055</v>
+        <v>0.120556</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0645979</v>
+        <v>0.06479559999999999</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07648430000000001</v>
+        <v>0.07749929999999999</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0838315</v>
+        <v>0.0831166</v>
       </c>
       <c r="C33" t="n">
-        <v>0.08841309999999999</v>
+        <v>0.08841259999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>0.121992</v>
+        <v>0.124642</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0651448</v>
+        <v>0.06548279999999999</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0798326</v>
+        <v>0.078057</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0797725</v>
+        <v>0.079568</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0895272</v>
+        <v>0.0897858</v>
       </c>
       <c r="D34" t="n">
-        <v>0.126125</v>
+        <v>0.130986</v>
       </c>
       <c r="E34" t="n">
-        <v>0.06698510000000001</v>
+        <v>0.0673938</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0803768</v>
+        <v>0.07946300000000001</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0803779</v>
+        <v>0.0802239</v>
       </c>
       <c r="C35" t="n">
-        <v>0.089473</v>
+        <v>0.0899737</v>
       </c>
       <c r="D35" t="n">
-        <v>0.105091</v>
+        <v>0.109611</v>
       </c>
       <c r="E35" t="n">
-        <v>0.06857000000000001</v>
+        <v>0.0692369</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0808273</v>
+        <v>0.0824206</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.08125</v>
+        <v>0.0823895</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0917584</v>
+        <v>0.0912067</v>
       </c>
       <c r="D36" t="n">
-        <v>0.112345</v>
+        <v>0.111957</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0725035</v>
+        <v>0.07304579999999999</v>
       </c>
       <c r="F36" t="n">
-        <v>0.08687789999999999</v>
+        <v>0.08531229999999999</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.08448550000000001</v>
+        <v>0.0834553</v>
       </c>
       <c r="C37" t="n">
-        <v>0.093566</v>
+        <v>0.0939079</v>
       </c>
       <c r="D37" t="n">
-        <v>0.114251</v>
+        <v>0.113658</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0687084</v>
+        <v>0.068012</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0801828</v>
+        <v>0.080807</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0955141</v>
+        <v>0.0963907</v>
       </c>
       <c r="C38" t="n">
-        <v>0.096612</v>
+        <v>0.09793350000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.118166</v>
+        <v>0.118559</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0686098</v>
+        <v>0.06881130000000001</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08131869999999999</v>
+        <v>0.08206720000000001</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0965825</v>
+        <v>0.09651709999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0973329</v>
+        <v>0.0996479</v>
       </c>
       <c r="D39" t="n">
-        <v>0.122466</v>
+        <v>0.12326</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0706473</v>
+        <v>0.06912889999999999</v>
       </c>
       <c r="F39" t="n">
-        <v>0.08319310000000001</v>
+        <v>0.0815367</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.09662370000000001</v>
+        <v>0.100486</v>
       </c>
       <c r="C40" t="n">
-        <v>0.100929</v>
+        <v>0.09773900000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>0.128153</v>
+        <v>0.127388</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0687376</v>
+        <v>0.0706903</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0813744</v>
+        <v>0.0856253</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0962383</v>
+        <v>0.09718209999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0979621</v>
+        <v>0.10032</v>
       </c>
       <c r="D41" t="n">
-        <v>0.131591</v>
+        <v>0.132497</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0691036</v>
+        <v>0.0699694</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0827151</v>
+        <v>0.0832806</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.09708319999999999</v>
+        <v>0.0967403</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0997324</v>
+        <v>0.100675</v>
       </c>
       <c r="D42" t="n">
-        <v>0.137594</v>
+        <v>0.138249</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0693199</v>
+        <v>0.07072249999999999</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08356860000000001</v>
+        <v>0.0837774</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0972807</v>
+        <v>0.09748329999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>0.102827</v>
+        <v>0.100034</v>
       </c>
       <c r="D43" t="n">
-        <v>0.143822</v>
+        <v>0.142461</v>
       </c>
       <c r="E43" t="n">
-        <v>0.07253220000000001</v>
+        <v>0.0703631</v>
       </c>
       <c r="F43" t="n">
-        <v>0.084532</v>
+        <v>0.0851822</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.09646879999999999</v>
+        <v>0.0976641</v>
       </c>
       <c r="C44" t="n">
-        <v>0.102112</v>
+        <v>0.100337</v>
       </c>
       <c r="D44" t="n">
-        <v>0.148007</v>
+        <v>0.148002</v>
       </c>
       <c r="E44" t="n">
-        <v>0.07044499999999999</v>
+        <v>0.0710247</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0865447</v>
+        <v>0.0858474</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.09623139999999999</v>
+        <v>0.09796249999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>0.102717</v>
+        <v>0.10256</v>
       </c>
       <c r="D45" t="n">
-        <v>0.153724</v>
+        <v>0.154146</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0706878</v>
+        <v>0.0716118</v>
       </c>
       <c r="F45" t="n">
-        <v>0.08804430000000001</v>
+        <v>0.0866866</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.098042</v>
+        <v>0.0966357</v>
       </c>
       <c r="C46" t="n">
-        <v>0.102679</v>
+        <v>0.101224</v>
       </c>
       <c r="D46" t="n">
-        <v>0.15833</v>
+        <v>0.156401</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0712918</v>
+        <v>0.0714766</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0935686</v>
+        <v>0.0882312</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0984424</v>
+        <v>0.09775060000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>0.109195</v>
+        <v>0.105828</v>
       </c>
       <c r="D47" t="n">
-        <v>0.164176</v>
+        <v>0.173744</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0723312</v>
+        <v>0.0730954</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0931073</v>
+        <v>0.0918699</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0972562</v>
+        <v>0.100676</v>
       </c>
       <c r="C48" t="n">
-        <v>0.10834</v>
+        <v>0.106704</v>
       </c>
       <c r="D48" t="n">
-        <v>0.169767</v>
+        <v>0.170424</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0749597</v>
+        <v>0.0831306</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09809229999999999</v>
+        <v>0.0934565</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.099229</v>
+        <v>0.0980694</v>
       </c>
       <c r="C49" t="n">
-        <v>0.115962</v>
+        <v>0.107619</v>
       </c>
       <c r="D49" t="n">
-        <v>0.178429</v>
+        <v>0.177314</v>
       </c>
       <c r="E49" t="n">
-        <v>0.07610690000000001</v>
+        <v>0.0774528</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0993711</v>
+        <v>0.0988267</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09956130000000001</v>
+        <v>0.100624</v>
       </c>
       <c r="C50" t="n">
-        <v>0.114886</v>
+        <v>0.110246</v>
       </c>
       <c r="D50" t="n">
-        <v>0.171917</v>
+        <v>0.167825</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0792963</v>
+        <v>0.07976569999999999</v>
       </c>
       <c r="F50" t="n">
-        <v>0.106406</v>
+        <v>0.10204</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.1015</v>
+        <v>0.102156</v>
       </c>
       <c r="C51" t="n">
-        <v>0.11371</v>
+        <v>0.114808</v>
       </c>
       <c r="D51" t="n">
-        <v>0.171325</v>
+        <v>0.175225</v>
       </c>
       <c r="E51" t="n">
-        <v>0.156046</v>
+        <v>0.156316</v>
       </c>
       <c r="F51" t="n">
-        <v>0.136283</v>
+        <v>0.121349</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.105104</v>
+        <v>0.104288</v>
       </c>
       <c r="C52" t="n">
-        <v>0.124615</v>
+        <v>0.120516</v>
       </c>
       <c r="D52" t="n">
-        <v>0.180474</v>
+        <v>0.177862</v>
       </c>
       <c r="E52" t="n">
-        <v>0.156277</v>
+        <v>0.156231</v>
       </c>
       <c r="F52" t="n">
-        <v>0.132851</v>
+        <v>0.1258</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.172761</v>
+        <v>0.171538</v>
       </c>
       <c r="C53" t="n">
-        <v>0.150496</v>
+        <v>0.158345</v>
       </c>
       <c r="D53" t="n">
-        <v>0.187242</v>
+        <v>0.184055</v>
       </c>
       <c r="E53" t="n">
-        <v>0.15671</v>
+        <v>0.156676</v>
       </c>
       <c r="F53" t="n">
-        <v>0.142769</v>
+        <v>0.130505</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.175657</v>
+        <v>0.180281</v>
       </c>
       <c r="C54" t="n">
-        <v>0.162091</v>
+        <v>0.158032</v>
       </c>
       <c r="D54" t="n">
-        <v>0.194509</v>
+        <v>0.197905</v>
       </c>
       <c r="E54" t="n">
-        <v>0.157902</v>
+        <v>0.159186</v>
       </c>
       <c r="F54" t="n">
-        <v>0.130241</v>
+        <v>0.130961</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.174977</v>
+        <v>0.1729</v>
       </c>
       <c r="C55" t="n">
-        <v>0.161352</v>
+        <v>0.161228</v>
       </c>
       <c r="D55" t="n">
-        <v>0.200269</v>
+        <v>0.195837</v>
       </c>
       <c r="E55" t="n">
-        <v>0.159581</v>
+        <v>0.15667</v>
       </c>
       <c r="F55" t="n">
-        <v>0.134043</v>
+        <v>0.133652</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1734</v>
+        <v>0.171127</v>
       </c>
       <c r="C56" t="n">
-        <v>0.166704</v>
+        <v>0.16075</v>
       </c>
       <c r="D56" t="n">
-        <v>0.205376</v>
+        <v>0.202138</v>
       </c>
       <c r="E56" t="n">
-        <v>0.159036</v>
+        <v>0.157006</v>
       </c>
       <c r="F56" t="n">
-        <v>0.13797</v>
+        <v>0.135426</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.176758</v>
+        <v>0.174458</v>
       </c>
       <c r="C57" t="n">
-        <v>0.164501</v>
+        <v>0.165742</v>
       </c>
       <c r="D57" t="n">
-        <v>0.212612</v>
+        <v>0.211321</v>
       </c>
       <c r="E57" t="n">
-        <v>0.159168</v>
+        <v>0.157389</v>
       </c>
       <c r="F57" t="n">
-        <v>0.139787</v>
+        <v>0.140301</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.17703</v>
+        <v>0.176263</v>
       </c>
       <c r="C58" t="n">
-        <v>0.166868</v>
+        <v>0.16843</v>
       </c>
       <c r="D58" t="n">
-        <v>0.228213</v>
+        <v>0.219544</v>
       </c>
       <c r="E58" t="n">
-        <v>0.158659</v>
+        <v>0.157559</v>
       </c>
       <c r="F58" t="n">
-        <v>0.141244</v>
+        <v>0.143244</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.17469</v>
+        <v>0.182601</v>
       </c>
       <c r="C59" t="n">
-        <v>0.170568</v>
+        <v>0.172442</v>
       </c>
       <c r="D59" t="n">
-        <v>0.229458</v>
+        <v>0.232144</v>
       </c>
       <c r="E59" t="n">
-        <v>0.163178</v>
+        <v>0.159878</v>
       </c>
       <c r="F59" t="n">
-        <v>0.146512</v>
+        <v>0.148527</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.172162</v>
+        <v>0.176095</v>
       </c>
       <c r="C60" t="n">
-        <v>0.17198</v>
+        <v>0.173299</v>
       </c>
       <c r="D60" t="n">
-        <v>0.240949</v>
+        <v>0.238606</v>
       </c>
       <c r="E60" t="n">
-        <v>0.16116</v>
+        <v>0.164553</v>
       </c>
       <c r="F60" t="n">
-        <v>0.150015</v>
+        <v>0.152857</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.173524</v>
+        <v>0.182843</v>
       </c>
       <c r="C61" t="n">
-        <v>0.176077</v>
+        <v>0.177277</v>
       </c>
       <c r="D61" t="n">
-        <v>0.246856</v>
+        <v>0.248907</v>
       </c>
       <c r="E61" t="n">
-        <v>0.161714</v>
+        <v>0.16045</v>
       </c>
       <c r="F61" t="n">
-        <v>0.155754</v>
+        <v>0.158086</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.174689</v>
+        <v>0.17672</v>
       </c>
       <c r="C62" t="n">
-        <v>0.181128</v>
+        <v>0.18134</v>
       </c>
       <c r="D62" t="n">
-        <v>0.257227</v>
+        <v>0.259001</v>
       </c>
       <c r="E62" t="n">
-        <v>0.164309</v>
+        <v>0.163195</v>
       </c>
       <c r="F62" t="n">
-        <v>0.162922</v>
+        <v>0.164263</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.175896</v>
+        <v>0.177159</v>
       </c>
       <c r="C63" t="n">
-        <v>0.186783</v>
+        <v>0.184383</v>
       </c>
       <c r="D63" t="n">
-        <v>0.270186</v>
+        <v>0.284457</v>
       </c>
       <c r="E63" t="n">
-        <v>0.165779</v>
+        <v>0.167931</v>
       </c>
       <c r="F63" t="n">
-        <v>0.165099</v>
+        <v>0.166148</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.1779</v>
+        <v>0.179483</v>
       </c>
       <c r="C64" t="n">
-        <v>0.190004</v>
+        <v>0.188587</v>
       </c>
       <c r="D64" t="n">
-        <v>0.268899</v>
+        <v>0.271359</v>
       </c>
       <c r="E64" t="n">
-        <v>0.163754</v>
+        <v>0.166088</v>
       </c>
       <c r="F64" t="n">
-        <v>0.170089</v>
+        <v>0.181473</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.179765</v>
+        <v>0.191518</v>
       </c>
       <c r="C65" t="n">
-        <v>0.194705</v>
+        <v>0.193783</v>
       </c>
       <c r="D65" t="n">
-        <v>0.280314</v>
+        <v>0.282089</v>
       </c>
       <c r="E65" t="n">
-        <v>0.172557</v>
+        <v>0.172371</v>
       </c>
       <c r="F65" t="n">
-        <v>0.181358</v>
+        <v>0.180418</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.185907</v>
+        <v>0.185175</v>
       </c>
       <c r="C66" t="n">
-        <v>0.201463</v>
+        <v>0.197661</v>
       </c>
       <c r="D66" t="n">
-        <v>0.282041</v>
+        <v>0.281101</v>
       </c>
       <c r="E66" t="n">
-        <v>0.242252</v>
+        <v>0.238807</v>
       </c>
       <c r="F66" t="n">
-        <v>0.255252</v>
+        <v>0.260283</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.266998</v>
+        <v>0.266111</v>
       </c>
       <c r="C67" t="n">
-        <v>0.276492</v>
+        <v>0.279305</v>
       </c>
       <c r="D67" t="n">
-        <v>0.286821</v>
+        <v>0.291249</v>
       </c>
       <c r="E67" t="n">
-        <v>0.243667</v>
+        <v>0.243757</v>
       </c>
       <c r="F67" t="n">
-        <v>0.253528</v>
+        <v>0.253793</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.265144</v>
+        <v>0.267056</v>
       </c>
       <c r="C68" t="n">
-        <v>0.2781</v>
+        <v>0.280477</v>
       </c>
       <c r="D68" t="n">
-        <v>0.29762</v>
+        <v>0.295646</v>
       </c>
       <c r="E68" t="n">
-        <v>0.243386</v>
+        <v>0.241432</v>
       </c>
       <c r="F68" t="n">
-        <v>0.255637</v>
+        <v>0.253404</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.277129</v>
+        <v>0.267865</v>
       </c>
       <c r="C69" t="n">
-        <v>0.279247</v>
+        <v>0.283415</v>
       </c>
       <c r="D69" t="n">
-        <v>0.328016</v>
+        <v>0.307469</v>
       </c>
       <c r="E69" t="n">
-        <v>0.245227</v>
+        <v>0.245789</v>
       </c>
       <c r="F69" t="n">
-        <v>0.254938</v>
+        <v>0.258605</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.264281</v>
+        <v>0.269671</v>
       </c>
       <c r="C70" t="n">
-        <v>0.283923</v>
+        <v>0.28489</v>
       </c>
       <c r="D70" t="n">
-        <v>0.315306</v>
+        <v>0.317369</v>
       </c>
       <c r="E70" t="n">
-        <v>0.248751</v>
+        <v>0.252258</v>
       </c>
       <c r="F70" t="n">
-        <v>0.261136</v>
+        <v>0.269008</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.265429</v>
+        <v>0.270274</v>
       </c>
       <c r="C71" t="n">
-        <v>0.280326</v>
+        <v>0.285353</v>
       </c>
       <c r="D71" t="n">
-        <v>0.323266</v>
+        <v>0.324194</v>
       </c>
       <c r="E71" t="n">
-        <v>0.248239</v>
+        <v>0.247415</v>
       </c>
       <c r="F71" t="n">
-        <v>0.257751</v>
+        <v>0.263487</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.26547</v>
+        <v>0.268611</v>
       </c>
       <c r="C72" t="n">
-        <v>0.282267</v>
+        <v>0.282582</v>
       </c>
       <c r="D72" t="n">
-        <v>0.341272</v>
+        <v>0.333585</v>
       </c>
       <c r="E72" t="n">
-        <v>0.248541</v>
+        <v>0.248373</v>
       </c>
       <c r="F72" t="n">
-        <v>0.264591</v>
+        <v>0.261279</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.272408</v>
+        <v>0.270323</v>
       </c>
       <c r="C73" t="n">
-        <v>0.283007</v>
+        <v>0.285061</v>
       </c>
       <c r="D73" t="n">
-        <v>0.344924</v>
+        <v>0.342414</v>
       </c>
       <c r="E73" t="n">
-        <v>0.250682</v>
+        <v>0.250696</v>
       </c>
       <c r="F73" t="n">
-        <v>0.271225</v>
+        <v>0.264215</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.270522</v>
+        <v>0.273352</v>
       </c>
       <c r="C74" t="n">
-        <v>0.285693</v>
+        <v>0.28477</v>
       </c>
       <c r="D74" t="n">
-        <v>0.354094</v>
+        <v>0.354073</v>
       </c>
       <c r="E74" t="n">
-        <v>0.251607</v>
+        <v>0.252072</v>
       </c>
       <c r="F74" t="n">
-        <v>0.265537</v>
+        <v>0.266401</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.271029</v>
+        <v>0.271275</v>
       </c>
       <c r="C75" t="n">
-        <v>0.29319</v>
+        <v>0.288853</v>
       </c>
       <c r="D75" t="n">
-        <v>0.369197</v>
+        <v>0.37609</v>
       </c>
       <c r="E75" t="n">
-        <v>0.257987</v>
+        <v>0.253573</v>
       </c>
       <c r="F75" t="n">
-        <v>0.280301</v>
+        <v>0.269498</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.269791</v>
+        <v>0.276133</v>
       </c>
       <c r="C76" t="n">
-        <v>0.286262</v>
+        <v>0.297637</v>
       </c>
       <c r="D76" t="n">
-        <v>0.372857</v>
+        <v>0.397748</v>
       </c>
       <c r="E76" t="n">
-        <v>0.255615</v>
+        <v>0.270471</v>
       </c>
       <c r="F76" t="n">
-        <v>0.268366</v>
+        <v>0.276345</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.277723</v>
+        <v>0.278226</v>
       </c>
       <c r="C77" t="n">
-        <v>0.292328</v>
+        <v>0.296939</v>
       </c>
       <c r="D77" t="n">
-        <v>0.38873</v>
+        <v>0.390869</v>
       </c>
       <c r="E77" t="n">
-        <v>0.260038</v>
+        <v>0.27196</v>
       </c>
       <c r="F77" t="n">
-        <v>0.275035</v>
+        <v>0.276681</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.29875</v>
+        <v>0.277798</v>
       </c>
       <c r="C78" t="n">
-        <v>0.29628</v>
+        <v>0.295654</v>
       </c>
       <c r="D78" t="n">
-        <v>0.362444</v>
+        <v>0.359912</v>
       </c>
       <c r="E78" t="n">
-        <v>0.264741</v>
+        <v>0.258601</v>
       </c>
       <c r="F78" t="n">
-        <v>0.277646</v>
+        <v>0.29487</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.282277</v>
+        <v>0.280298</v>
       </c>
       <c r="C79" t="n">
-        <v>0.303951</v>
+        <v>0.298691</v>
       </c>
       <c r="D79" t="n">
-        <v>0.370398</v>
+        <v>0.364044</v>
       </c>
       <c r="E79" t="n">
-        <v>0.271503</v>
+        <v>0.26578</v>
       </c>
       <c r="F79" t="n">
-        <v>0.28434</v>
+        <v>0.28168</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.304783</v>
+        <v>0.28432</v>
       </c>
       <c r="C80" t="n">
-        <v>0.305021</v>
+        <v>0.306381</v>
       </c>
       <c r="D80" t="n">
-        <v>0.380048</v>
+        <v>0.372388</v>
       </c>
       <c r="E80" t="n">
-        <v>0.352862</v>
+        <v>0.343251</v>
       </c>
       <c r="F80" t="n">
-        <v>0.395513</v>
+        <v>0.388662</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.367833</v>
+        <v>0.358539</v>
       </c>
       <c r="C81" t="n">
-        <v>0.399049</v>
+        <v>0.398598</v>
       </c>
       <c r="D81" t="n">
-        <v>0.382641</v>
+        <v>0.380166</v>
       </c>
       <c r="E81" t="n">
-        <v>0.347348</v>
+        <v>0.344358</v>
       </c>
       <c r="F81" t="n">
-        <v>0.407472</v>
+        <v>0.391935</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.366416</v>
+        <v>0.363465</v>
       </c>
       <c r="C82" t="n">
-        <v>0.403134</v>
+        <v>0.401637</v>
       </c>
       <c r="D82" t="n">
-        <v>0.394151</v>
+        <v>0.389221</v>
       </c>
       <c r="E82" t="n">
-        <v>0.351734</v>
+        <v>0.351525</v>
       </c>
       <c r="F82" t="n">
-        <v>0.396912</v>
+        <v>0.399384</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.369869</v>
+        <v>0.365259</v>
       </c>
       <c r="C83" t="n">
-        <v>0.443334</v>
+        <v>0.422759</v>
       </c>
       <c r="D83" t="n">
-        <v>0.400926</v>
+        <v>0.405792</v>
       </c>
       <c r="E83" t="n">
-        <v>0.346878</v>
+        <v>0.355597</v>
       </c>
       <c r="F83" t="n">
-        <v>0.402202</v>
+        <v>0.395827</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.372369</v>
+        <v>0.361146</v>
       </c>
       <c r="C84" t="n">
-        <v>0.405983</v>
+        <v>0.400767</v>
       </c>
       <c r="D84" t="n">
-        <v>0.41545</v>
+        <v>0.443165</v>
       </c>
       <c r="E84" t="n">
-        <v>0.36046</v>
+        <v>0.372671</v>
       </c>
       <c r="F84" t="n">
-        <v>0.400904</v>
+        <v>0.404928</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.369426</v>
+        <v>0.366188</v>
       </c>
       <c r="C85" t="n">
-        <v>0.409185</v>
+        <v>0.416444</v>
       </c>
       <c r="D85" t="n">
-        <v>0.420326</v>
+        <v>0.416364</v>
       </c>
       <c r="E85" t="n">
-        <v>0.350171</v>
+        <v>0.353351</v>
       </c>
       <c r="F85" t="n">
-        <v>0.407022</v>
+        <v>0.402718</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.371174</v>
+        <v>0.365829</v>
       </c>
       <c r="C86" t="n">
-        <v>0.412381</v>
+        <v>0.413701</v>
       </c>
       <c r="D86" t="n">
-        <v>0.432536</v>
+        <v>0.435281</v>
       </c>
       <c r="E86" t="n">
-        <v>0.355493</v>
+        <v>0.356369</v>
       </c>
       <c r="F86" t="n">
-        <v>0.405834</v>
+        <v>0.404839</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.371521</v>
+        <v>0.368959</v>
       </c>
       <c r="C87" t="n">
-        <v>0.414512</v>
+        <v>0.419024</v>
       </c>
       <c r="D87" t="n">
-        <v>0.447053</v>
+        <v>0.456752</v>
       </c>
       <c r="E87" t="n">
-        <v>0.358995</v>
+        <v>0.362399</v>
       </c>
       <c r="F87" t="n">
-        <v>0.414584</v>
+        <v>0.416389</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.370337</v>
+        <v>0.377479</v>
       </c>
       <c r="C88" t="n">
-        <v>0.41541</v>
+        <v>0.423597</v>
       </c>
       <c r="D88" t="n">
-        <v>0.456254</v>
+        <v>0.454681</v>
       </c>
       <c r="E88" t="n">
-        <v>0.357849</v>
+        <v>0.356699</v>
       </c>
       <c r="F88" t="n">
-        <v>0.417589</v>
+        <v>0.424886</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.373829</v>
+        <v>0.37092</v>
       </c>
       <c r="C89" t="n">
-        <v>0.429972</v>
+        <v>0.41803</v>
       </c>
       <c r="D89" t="n">
-        <v>0.477742</v>
+        <v>0.460505</v>
       </c>
       <c r="E89" t="n">
-        <v>0.354357</v>
+        <v>0.35258</v>
       </c>
       <c r="F89" t="n">
-        <v>0.421969</v>
+        <v>0.407781</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.384303</v>
+        <v>0.367339</v>
       </c>
       <c r="C90" t="n">
-        <v>0.419412</v>
+        <v>0.417282</v>
       </c>
       <c r="D90" t="n">
-        <v>0.480288</v>
+        <v>0.471344</v>
       </c>
       <c r="E90" t="n">
-        <v>0.361672</v>
+        <v>0.354456</v>
       </c>
       <c r="F90" t="n">
-        <v>0.423561</v>
+        <v>0.414334</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.376561</v>
+        <v>0.371618</v>
       </c>
       <c r="C91" t="n">
-        <v>0.427211</v>
+        <v>0.424598</v>
       </c>
       <c r="D91" t="n">
-        <v>0.491443</v>
+        <v>0.484116</v>
       </c>
       <c r="E91" t="n">
-        <v>0.366476</v>
+        <v>0.36021</v>
       </c>
       <c r="F91" t="n">
-        <v>0.424741</v>
+        <v>0.431355</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.379447</v>
+        <v>0.376724</v>
       </c>
       <c r="C92" t="n">
-        <v>0.436259</v>
+        <v>0.428449</v>
       </c>
       <c r="D92" t="n">
-        <v>0.440008</v>
+        <v>0.45193</v>
       </c>
       <c r="E92" t="n">
-        <v>0.363252</v>
+        <v>0.375784</v>
       </c>
       <c r="F92" t="n">
-        <v>0.424806</v>
+        <v>0.440156</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.373333</v>
+        <v>0.379779</v>
       </c>
       <c r="C93" t="n">
-        <v>0.440991</v>
+        <v>0.432374</v>
       </c>
       <c r="D93" t="n">
-        <v>0.432892</v>
+        <v>0.437127</v>
       </c>
       <c r="E93" t="n">
-        <v>0.36352</v>
+        <v>0.363815</v>
       </c>
       <c r="F93" t="n">
-        <v>0.429369</v>
+        <v>0.428134</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.381429</v>
+        <v>0.389198</v>
       </c>
       <c r="C94" t="n">
-        <v>0.44087</v>
+        <v>0.435898</v>
       </c>
       <c r="D94" t="n">
-        <v>0.441698</v>
+        <v>0.45824</v>
       </c>
       <c r="E94" t="n">
-        <v>0.443724</v>
+        <v>0.456582</v>
       </c>
       <c r="F94" t="n">
-        <v>0.5041020000000001</v>
+        <v>0.508777</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.4496</v>
+        <v>0.442098</v>
       </c>
       <c r="C95" t="n">
-        <v>0.53705</v>
+        <v>0.497299</v>
       </c>
       <c r="D95" t="n">
-        <v>0.482098</v>
+        <v>0.453388</v>
       </c>
       <c r="E95" t="n">
-        <v>0.450755</v>
+        <v>0.451346</v>
       </c>
       <c r="F95" t="n">
-        <v>0.513772</v>
+        <v>0.51374</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.465699</v>
+        <v>0.445449</v>
       </c>
       <c r="C96" t="n">
-        <v>0.5041870000000001</v>
+        <v>0.499951</v>
       </c>
       <c r="D96" t="n">
-        <v>0.481286</v>
+        <v>0.45359</v>
       </c>
       <c r="E96" t="n">
-        <v>0.444627</v>
+        <v>0.441875</v>
       </c>
       <c r="F96" t="n">
-        <v>0.511676</v>
+        <v>0.520336</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.454954</v>
+        <v>0.447445</v>
       </c>
       <c r="C97" t="n">
-        <v>0.512147</v>
+        <v>0.504398</v>
       </c>
       <c r="D97" t="n">
-        <v>0.478731</v>
+        <v>0.470986</v>
       </c>
       <c r="E97" t="n">
-        <v>0.454622</v>
+        <v>0.444152</v>
       </c>
       <c r="F97" t="n">
-        <v>0.523446</v>
+        <v>0.510257</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.451224</v>
+        <v>0.448622</v>
       </c>
       <c r="C98" t="n">
-        <v>0.504283</v>
+        <v>0.502517</v>
       </c>
       <c r="D98" t="n">
-        <v>0.476417</v>
+        <v>0.492229</v>
       </c>
       <c r="E98" t="n">
-        <v>0.447986</v>
+        <v>0.448706</v>
       </c>
       <c r="F98" t="n">
-        <v>0.509575</v>
+        <v>0.517729</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.475244</v>
+        <v>0.443741</v>
       </c>
       <c r="C99" t="n">
-        <v>0.5031600000000001</v>
+        <v>0.530915</v>
       </c>
       <c r="D99" t="n">
-        <v>0.487778</v>
+        <v>0.484663</v>
       </c>
       <c r="E99" t="n">
-        <v>0.449145</v>
+        <v>0.447375</v>
       </c>
       <c r="F99" t="n">
-        <v>0.526807</v>
+        <v>0.516369</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.446435</v>
+        <v>0.466216</v>
       </c>
       <c r="C100" t="n">
-        <v>0.5166230000000001</v>
+        <v>0.505006</v>
       </c>
       <c r="D100" t="n">
-        <v>0.500563</v>
+        <v>0.498689</v>
       </c>
       <c r="E100" t="n">
-        <v>0.448695</v>
+        <v>0.45059</v>
       </c>
       <c r="F100" t="n">
-        <v>0.524967</v>
+        <v>0.524174</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.45577</v>
+        <v>0.446867</v>
       </c>
       <c r="C101" t="n">
-        <v>0.507715</v>
+        <v>0.505988</v>
       </c>
       <c r="D101" t="n">
-        <v>0.515007</v>
+        <v>0.537146</v>
       </c>
       <c r="E101" t="n">
-        <v>0.449429</v>
+        <v>0.4494</v>
       </c>
       <c r="F101" t="n">
-        <v>0.513215</v>
+        <v>0.51694</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.445107</v>
+        <v>0.466444</v>
       </c>
       <c r="C102" t="n">
-        <v>0.505162</v>
+        <v>0.54339</v>
       </c>
       <c r="D102" t="n">
-        <v>0.561982</v>
+        <v>0.525752</v>
       </c>
       <c r="E102" t="n">
-        <v>0.456189</v>
+        <v>0.452628</v>
       </c>
       <c r="F102" t="n">
-        <v>0.527969</v>
+        <v>0.518636</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.474367</v>
+        <v>0.449814</v>
       </c>
       <c r="C103" t="n">
-        <v>0.515853</v>
+        <v>0.512487</v>
       </c>
       <c r="D103" t="n">
-        <v>0.535104</v>
+        <v>0.535393</v>
       </c>
       <c r="E103" t="n">
-        <v>0.444718</v>
+        <v>0.453907</v>
       </c>
       <c r="F103" t="n">
-        <v>0.530261</v>
+        <v>0.528149</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.452475</v>
+        <v>0.463737</v>
       </c>
       <c r="C104" t="n">
-        <v>0.5171519999999999</v>
+        <v>0.517727</v>
       </c>
       <c r="D104" t="n">
-        <v>0.545156</v>
+        <v>0.5474</v>
       </c>
       <c r="E104" t="n">
-        <v>0.480866</v>
+        <v>0.452376</v>
       </c>
       <c r="F104" t="n">
-        <v>0.523092</v>
+        <v>0.526275</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.448733</v>
+        <v>0.451657</v>
       </c>
       <c r="C105" t="n">
-        <v>0.525678</v>
+        <v>0.51801</v>
       </c>
       <c r="D105" t="n">
-        <v>0.558743</v>
+        <v>0.55991</v>
       </c>
       <c r="E105" t="n">
-        <v>0.451541</v>
+        <v>0.449312</v>
       </c>
       <c r="F105" t="n">
-        <v>0.529433</v>
+        <v>0.529747</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.46908</v>
+        <v>0.451589</v>
       </c>
       <c r="C106" t="n">
-        <v>0.525413</v>
+        <v>0.523682</v>
       </c>
       <c r="D106" t="n">
-        <v>0.581911</v>
+        <v>0.577991</v>
       </c>
       <c r="E106" t="n">
-        <v>0.465611</v>
+        <v>0.452934</v>
       </c>
       <c r="F106" t="n">
-        <v>0.556616</v>
+        <v>0.537413</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.466824</v>
+        <v>0.462827</v>
       </c>
       <c r="C107" t="n">
-        <v>0.526369</v>
+        <v>0.52395</v>
       </c>
       <c r="D107" t="n">
-        <v>0.484263</v>
+        <v>0.485417</v>
       </c>
       <c r="E107" t="n">
-        <v>0.453077</v>
+        <v>0.457188</v>
       </c>
       <c r="F107" t="n">
-        <v>0.565041</v>
+        <v>0.546811</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.45304</v>
+        <v>0.455607</v>
       </c>
       <c r="C108" t="n">
-        <v>0.5334100000000001</v>
+        <v>0.532513</v>
       </c>
       <c r="D108" t="n">
-        <v>0.516292</v>
+        <v>0.524806</v>
       </c>
       <c r="E108" t="n">
-        <v>0.531393</v>
+        <v>0.519311</v>
       </c>
       <c r="F108" t="n">
-        <v>0.584168</v>
+        <v>0.591114</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.470826</v>
+        <v>0.489419</v>
       </c>
       <c r="C109" t="n">
-        <v>0.557473</v>
+        <v>0.54549</v>
       </c>
       <c r="D109" t="n">
-        <v>0.5117390000000001</v>
+        <v>0.508487</v>
       </c>
       <c r="E109" t="n">
-        <v>0.551997</v>
+        <v>0.528286</v>
       </c>
       <c r="F109" t="n">
-        <v>0.6003540000000001</v>
+        <v>0.585332</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.547728</v>
+        <v>0.550992</v>
       </c>
       <c r="C110" t="n">
-        <v>0.588929</v>
+        <v>0.5929450000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>0.516459</v>
+        <v>0.522827</v>
       </c>
       <c r="E110" t="n">
-        <v>0.530629</v>
+        <v>0.528236</v>
       </c>
       <c r="F110" t="n">
-        <v>0.585394</v>
+        <v>0.583928</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.552053</v>
+        <v>0.5548650000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>0.594638</v>
+        <v>0.6051609999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>0.529957</v>
+        <v>0.539681</v>
       </c>
       <c r="E111" t="n">
-        <v>0.560746</v>
+        <v>0.519282</v>
       </c>
       <c r="F111" t="n">
-        <v>0.5851769999999999</v>
+        <v>0.597495</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.543479</v>
+        <v>0.5430739999999999</v>
       </c>
       <c r="C112" t="n">
-        <v>0.5995470000000001</v>
+        <v>0.590994</v>
       </c>
       <c r="D112" t="n">
-        <v>0.541226</v>
+        <v>0.53837</v>
       </c>
       <c r="E112" t="n">
-        <v>0.5238159999999999</v>
+        <v>0.520319</v>
       </c>
       <c r="F112" t="n">
-        <v>0.589483</v>
+        <v>0.599844</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.557145</v>
+        <v>0.548189</v>
       </c>
       <c r="C113" t="n">
-        <v>0.600222</v>
+        <v>0.59777</v>
       </c>
       <c r="D113" t="n">
-        <v>0.559096</v>
+        <v>0.557021</v>
       </c>
       <c r="E113" t="n">
-        <v>0.530477</v>
+        <v>0.541456</v>
       </c>
       <c r="F113" t="n">
-        <v>0.600091</v>
+        <v>0.589681</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.543888</v>
+        <v>0.546633</v>
       </c>
       <c r="C114" t="n">
-        <v>0.59777</v>
+        <v>0.602384</v>
       </c>
       <c r="D114" t="n">
-        <v>0.570594</v>
+        <v>0.564396</v>
       </c>
       <c r="E114" t="n">
-        <v>0.531602</v>
+        <v>0.531973</v>
       </c>
       <c r="F114" t="n">
-        <v>0.599133</v>
+        <v>0.597339</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.547086</v>
+        <v>0.583026</v>
       </c>
       <c r="C115" t="n">
-        <v>0.594176</v>
+        <v>0.604315</v>
       </c>
       <c r="D115" t="n">
-        <v>0.574453</v>
+        <v>0.589054</v>
       </c>
       <c r="E115" t="n">
-        <v>0.5342980000000001</v>
+        <v>0.526566</v>
       </c>
       <c r="F115" t="n">
-        <v>0.618081</v>
+        <v>0.593294</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.544482</v>
+        <v>0.553596</v>
       </c>
       <c r="C116" t="n">
-        <v>0.598177</v>
+        <v>0.605357</v>
       </c>
       <c r="D116" t="n">
-        <v>0.615069</v>
+        <v>0.59544</v>
       </c>
       <c r="E116" t="n">
-        <v>0.525985</v>
+        <v>0.537202</v>
       </c>
       <c r="F116" t="n">
-        <v>0.61011</v>
+        <v>0.606106</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.558462</v>
+        <v>0.557962</v>
       </c>
       <c r="C117" t="n">
-        <v>0.6019</v>
+        <v>0.604826</v>
       </c>
       <c r="D117" t="n">
-        <v>0.606356</v>
+        <v>0.608198</v>
       </c>
       <c r="E117" t="n">
-        <v>0.535259</v>
+        <v>0.537569</v>
       </c>
       <c r="F117" t="n">
-        <v>0.60961</v>
+        <v>0.60601</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.55435</v>
+        <v>0.550742</v>
       </c>
       <c r="C118" t="n">
-        <v>0.610881</v>
+        <v>0.607367</v>
       </c>
       <c r="D118" t="n">
-        <v>0.614945</v>
+        <v>0.608166</v>
       </c>
       <c r="E118" t="n">
-        <v>0.538788</v>
+        <v>0.5247889999999999</v>
       </c>
       <c r="F118" t="n">
-        <v>0.632597</v>
+        <v>0.607699</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.565658</v>
+        <v>0.545517</v>
       </c>
       <c r="C119" t="n">
-        <v>0.62113</v>
+        <v>0.607176</v>
       </c>
       <c r="D119" t="n">
-        <v>0.660808</v>
+        <v>0.621286</v>
       </c>
       <c r="E119" t="n">
-        <v>0.5389119999999999</v>
+        <v>0.530174</v>
       </c>
       <c r="F119" t="n">
-        <v>0.619598</v>
+        <v>0.609538</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.559451</v>
+        <v>0.557411</v>
       </c>
       <c r="C120" t="n">
-        <v>0.623336</v>
+        <v>0.6395960000000001</v>
       </c>
       <c r="D120" t="n">
-        <v>0.661305</v>
+        <v>0.64063</v>
       </c>
       <c r="E120" t="n">
-        <v>0.544952</v>
+        <v>0.533534</v>
       </c>
       <c r="F120" t="n">
-        <v>0.625759</v>
+        <v>0.623685</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.556401</v>
+        <v>0.555857</v>
       </c>
       <c r="C121" t="n">
-        <v>0.615434</v>
+        <v>0.656243</v>
       </c>
       <c r="D121" t="n">
-        <v>0.57978</v>
+        <v>0.568676</v>
       </c>
       <c r="E121" t="n">
-        <v>0.55797</v>
+        <v>0.539886</v>
       </c>
       <c r="F121" t="n">
-        <v>0.637997</v>
+        <v>0.638672</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.556477</v>
+        <v>0.551373</v>
       </c>
       <c r="C122" t="n">
-        <v>0.624346</v>
+        <v>0.622374</v>
       </c>
       <c r="D122" t="n">
-        <v>0.568255</v>
+        <v>0.569388</v>
       </c>
       <c r="E122" t="n">
-        <v>0.572153</v>
+        <v>0.544704</v>
       </c>
       <c r="F122" t="n">
-        <v>0.636191</v>
+        <v>0.656289</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.558162</v>
+        <v>0.568781</v>
       </c>
       <c r="C123" t="n">
-        <v>0.639813</v>
+        <v>0.6384880000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>0.582578</v>
+        <v>0.590527</v>
       </c>
       <c r="E123" t="n">
-        <v>0.646107</v>
+        <v>0.663618</v>
       </c>
       <c r="F123" t="n">
-        <v>0.653682</v>
+        <v>0.65504</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.703758</v>
+        <v>0.711934</v>
       </c>
       <c r="C124" t="n">
-        <v>0.711573</v>
+        <v>0.71662</v>
       </c>
       <c r="D124" t="n">
-        <v>0.598014</v>
+        <v>0.602283</v>
       </c>
       <c r="E124" t="n">
-        <v>0.675075</v>
+        <v>0.6543909999999999</v>
       </c>
       <c r="F124" t="n">
-        <v>0.659379</v>
+        <v>0.679697</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.711018</v>
+        <v>0.765811</v>
       </c>
       <c r="C125" t="n">
-        <v>0.715401</v>
+        <v>0.7208020000000001</v>
       </c>
       <c r="D125" t="n">
-        <v>0.610557</v>
+        <v>0.608069</v>
       </c>
       <c r="E125" t="n">
-        <v>0.848604</v>
+        <v>0.6512520000000001</v>
       </c>
       <c r="F125" t="n">
-        <v>0.723359</v>
+        <v>0.659386</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.948974</v>
+        <v>0.833631</v>
       </c>
       <c r="C126" t="n">
-        <v>0.719792</v>
+        <v>0.7176399999999999</v>
       </c>
       <c r="D126" t="n">
-        <v>0.630086</v>
+        <v>0.6219980000000001</v>
       </c>
       <c r="E126" t="n">
-        <v>0.660525</v>
+        <v>0.652659</v>
       </c>
       <c r="F126" t="n">
-        <v>0.661305</v>
+        <v>0.661442</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.718776</v>
+        <v>0.7079800000000001</v>
       </c>
       <c r="C127" t="n">
-        <v>0.720479</v>
+        <v>0.754726</v>
       </c>
       <c r="D127" t="n">
-        <v>0.658644</v>
+        <v>0.6315809999999999</v>
       </c>
       <c r="E127" t="n">
-        <v>0.651219</v>
+        <v>0.68385</v>
       </c>
       <c r="F127" t="n">
-        <v>0.666428</v>
+        <v>0.6622980000000001</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.711655</v>
+        <v>0.828898</v>
       </c>
       <c r="C128" t="n">
-        <v>0.7405</v>
+        <v>0.71767</v>
       </c>
       <c r="D128" t="n">
-        <v>0.646312</v>
+        <v>0.645627</v>
       </c>
       <c r="E128" t="n">
-        <v>0.661816</v>
+        <v>0.654759</v>
       </c>
       <c r="F128" t="n">
-        <v>0.66852</v>
+        <v>0.671144</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.715795</v>
+        <v>0.710263</v>
       </c>
       <c r="C129" t="n">
-        <v>0.729963</v>
+        <v>0.721843</v>
       </c>
       <c r="D129" t="n">
-        <v>0.6638230000000001</v>
+        <v>0.659146</v>
       </c>
       <c r="E129" t="n">
-        <v>0.666339</v>
+        <v>0.6529430000000001</v>
       </c>
       <c r="F129" t="n">
-        <v>0.670369</v>
+        <v>0.676994</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.71196</v>
+        <v>0.721855</v>
       </c>
       <c r="C130" t="n">
-        <v>0.7225819999999999</v>
+        <v>0.727528</v>
       </c>
       <c r="D130" t="n">
-        <v>0.670849</v>
+        <v>0.666335</v>
       </c>
       <c r="E130" t="n">
-        <v>0.658226</v>
+        <v>0.661425</v>
       </c>
       <c r="F130" t="n">
-        <v>0.673685</v>
+        <v>0.689113</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.721542</v>
+        <v>0.720073</v>
       </c>
       <c r="C131" t="n">
-        <v>0.729871</v>
+        <v>0.729106</v>
       </c>
       <c r="D131" t="n">
-        <v>0.6838689999999999</v>
+        <v>0.689485</v>
       </c>
       <c r="E131" t="n">
-        <v>0.67064</v>
+        <v>0.660841</v>
       </c>
       <c r="F131" t="n">
-        <v>0.685301</v>
+        <v>0.683905</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.717124</v>
+        <v>0.710908</v>
       </c>
       <c r="C132" t="n">
-        <v>0.7332379999999999</v>
+        <v>0.7712560000000001</v>
       </c>
       <c r="D132" t="n">
-        <v>0.704117</v>
+        <v>0.712178</v>
       </c>
       <c r="E132" t="n">
-        <v>0.670874</v>
+        <v>0.6563</v>
       </c>
       <c r="F132" t="n">
-        <v>0.693426</v>
+        <v>0.691219</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.724643</v>
+        <v>0.714203</v>
       </c>
       <c r="C133" t="n">
-        <v>0.742533</v>
+        <v>0.738269</v>
       </c>
       <c r="D133" t="n">
-        <v>0.7241379999999999</v>
+        <v>0.7289060000000001</v>
       </c>
       <c r="E133" t="n">
-        <v>0.684692</v>
+        <v>0.669787</v>
       </c>
       <c r="F133" t="n">
-        <v>0.700191</v>
+        <v>0.692509</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.725482</v>
+        <v>0.719567</v>
       </c>
       <c r="C134" t="n">
-        <v>0.74072</v>
+        <v>0.731935</v>
       </c>
       <c r="D134" t="n">
-        <v>0.727115</v>
+        <v>0.731449</v>
       </c>
       <c r="E134" t="n">
-        <v>0.6636919999999999</v>
+        <v>0.672803</v>
       </c>
       <c r="F134" t="n">
-        <v>0.705718</v>
+        <v>0.700735</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.720292</v>
+        <v>0.717812</v>
       </c>
       <c r="C135" t="n">
-        <v>0.749479</v>
+        <v>0.761038</v>
       </c>
       <c r="D135" t="n">
-        <v>0.670805</v>
+        <v>0.672307</v>
       </c>
       <c r="E135" t="n">
-        <v>0.663882</v>
+        <v>0.672224</v>
       </c>
       <c r="F135" t="n">
-        <v>0.7180839999999999</v>
+        <v>0.752203</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.730963</v>
+        <v>0.714795</v>
       </c>
       <c r="C136" t="n">
-        <v>0.761753</v>
+        <v>0.794988</v>
       </c>
       <c r="D136" t="n">
-        <v>0.6919729999999999</v>
+        <v>0.684952</v>
       </c>
       <c r="E136" t="n">
-        <v>0.682844</v>
+        <v>0.684466</v>
       </c>
       <c r="F136" t="n">
-        <v>0.758711</v>
+        <v>0.719261</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.7272729999999999</v>
+        <v>0.73165</v>
       </c>
       <c r="C137" t="n">
-        <v>0.7667040000000001</v>
+        <v>0.761306</v>
       </c>
       <c r="D137" t="n">
-        <v>0.700103</v>
+        <v>0.695186</v>
       </c>
       <c r="E137" t="n">
-        <v>0.82089</v>
+        <v>0.827386</v>
       </c>
       <c r="F137" t="n">
-        <v>0.765566</v>
+        <v>0.759097</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.904961</v>
+        <v>0.91756</v>
       </c>
       <c r="C138" t="n">
-        <v>0.832861</v>
+        <v>0.831277</v>
       </c>
       <c r="D138" t="n">
-        <v>0.707048</v>
+        <v>0.706361</v>
       </c>
       <c r="E138" t="n">
-        <v>0.818106</v>
+        <v>0.820039</v>
       </c>
       <c r="F138" t="n">
-        <v>0.769423</v>
+        <v>0.777846</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.918084</v>
+        <v>0.909604</v>
       </c>
       <c r="C139" t="n">
-        <v>0.8296829999999999</v>
+        <v>0.835717</v>
       </c>
       <c r="D139" t="n">
-        <v>0.724051</v>
+        <v>0.715689</v>
       </c>
       <c r="E139" t="n">
-        <v>0.819974</v>
+        <v>0.818275</v>
       </c>
       <c r="F139" t="n">
-        <v>0.773634</v>
+        <v>0.788045</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.90798</v>
+        <v>0.917273</v>
       </c>
       <c r="C140" t="n">
-        <v>0.828826</v>
+        <v>0.839148</v>
       </c>
       <c r="D140" t="n">
-        <v>0.73667</v>
+        <v>0.731749</v>
       </c>
       <c r="E140" t="n">
-        <v>0.816194</v>
+        <v>0.833794</v>
       </c>
       <c r="F140" t="n">
-        <v>0.763308</v>
+        <v>0.767494</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.900699</v>
+        <v>0.905762</v>
       </c>
       <c r="C141" t="n">
-        <v>0.822812</v>
+        <v>0.828611</v>
       </c>
       <c r="D141" t="n">
-        <v>0.74105</v>
+        <v>0.745134</v>
       </c>
       <c r="E141" t="n">
-        <v>0.818085</v>
+        <v>0.813147</v>
       </c>
       <c r="F141" t="n">
-        <v>0.781845</v>
+        <v>0.761749</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.902963</v>
+        <v>0.9070240000000001</v>
       </c>
       <c r="C142" t="n">
-        <v>0.823075</v>
+        <v>0.833552</v>
       </c>
       <c r="D142" t="n">
-        <v>0.751231</v>
+        <v>0.755263</v>
       </c>
       <c r="E142" t="n">
-        <v>0.824997</v>
+        <v>0.821973</v>
       </c>
       <c r="F142" t="n">
-        <v>0.774815</v>
+        <v>0.7586540000000001</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.912493</v>
+        <v>0.8998699999999999</v>
       </c>
       <c r="C143" t="n">
-        <v>0.826489</v>
+        <v>0.838774</v>
       </c>
       <c r="D143" t="n">
-        <v>0.765972</v>
+        <v>0.773634</v>
       </c>
       <c r="E143" t="n">
-        <v>0.814492</v>
+        <v>0.823225</v>
       </c>
       <c r="F143" t="n">
-        <v>0.76589</v>
+        <v>0.782718</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0637916</v>
+        <v>0.0649762</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0672991</v>
+        <v>0.0712523</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0946837</v>
+        <v>0.09915889999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0548281</v>
+        <v>0.0567134</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0650525</v>
+        <v>0.06309339999999999</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0641902</v>
+        <v>0.06682299999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0674377</v>
+        <v>0.0706538</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09861300000000001</v>
+        <v>0.103365</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0542892</v>
+        <v>0.0561183</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0610984</v>
+        <v>0.06423470000000001</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0674421</v>
+        <v>0.0670538</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0670837</v>
+        <v>0.07182470000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.100818</v>
+        <v>0.106904</v>
       </c>
       <c r="E4" t="n">
-        <v>0.054488</v>
+        <v>0.0572129</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0616355</v>
+        <v>0.0655187</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0638417</v>
+        <v>0.06644269999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0717043</v>
+        <v>0.0740649</v>
       </c>
       <c r="D5" t="n">
-        <v>0.105437</v>
+        <v>0.113735</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0554691</v>
+        <v>0.058378</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0631627</v>
+        <v>0.066339</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.06567000000000001</v>
+        <v>0.06644609999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0690339</v>
+        <v>0.077348</v>
       </c>
       <c r="D6" t="n">
-        <v>0.108427</v>
+        <v>0.111813</v>
       </c>
       <c r="E6" t="n">
-        <v>0.056088</v>
+        <v>0.056666</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0622346</v>
+        <v>0.063337</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0651544</v>
+        <v>0.0707134</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0688793</v>
+        <v>0.0747734</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08313429999999999</v>
+        <v>0.09100129999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>0.060062</v>
+        <v>0.0629</v>
       </c>
       <c r="F7" t="n">
-        <v>0.063471</v>
+        <v>0.06934510000000001</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0667338</v>
+        <v>0.0680887</v>
       </c>
       <c r="C8" t="n">
-        <v>0.069664</v>
+        <v>0.0735876</v>
       </c>
       <c r="D8" t="n">
-        <v>0.08567279999999999</v>
+        <v>0.0937233</v>
       </c>
       <c r="E8" t="n">
-        <v>0.06487030000000001</v>
+        <v>0.0676543</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06649140000000001</v>
+        <v>0.0692128</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0666224</v>
+        <v>0.0691625</v>
       </c>
       <c r="C9" t="n">
-        <v>0.070773</v>
+        <v>0.0740883</v>
       </c>
       <c r="D9" t="n">
-        <v>0.08961860000000001</v>
+        <v>0.0901255</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0558839</v>
+        <v>0.0578803</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0660087</v>
+        <v>0.0683787</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0722979</v>
+        <v>0.0738858</v>
       </c>
       <c r="C10" t="n">
-        <v>0.079819</v>
+        <v>0.0792254</v>
       </c>
       <c r="D10" t="n">
-        <v>0.08881029999999999</v>
+        <v>0.0957527</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0562253</v>
+        <v>0.0576328</v>
       </c>
       <c r="F10" t="n">
-        <v>0.066596</v>
+        <v>0.0682014</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.07316640000000001</v>
+        <v>0.0735176</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0789034</v>
+        <v>0.0855339</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0918486</v>
+        <v>0.09354700000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0597676</v>
+        <v>0.0578755</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0674382</v>
+        <v>0.0681392</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0724038</v>
+        <v>0.07453510000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07653890000000001</v>
+        <v>0.0813735</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0934902</v>
+        <v>0.09773229999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0562116</v>
+        <v>0.0595164</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0657133</v>
+        <v>0.06727080000000001</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.07125819999999999</v>
+        <v>0.0774524</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07635980000000001</v>
+        <v>0.0775691</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0979805</v>
+        <v>0.0953032</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0565094</v>
+        <v>0.0573652</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0659991</v>
+        <v>0.0663422</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0759667</v>
+        <v>0.0717613</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0769268</v>
+        <v>0.0765373</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0997194</v>
+        <v>0.0985935</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0572564</v>
+        <v>0.0568291</v>
       </c>
       <c r="F14" t="n">
-        <v>0.06660820000000001</v>
+        <v>0.0664599</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0747437</v>
+        <v>0.071133</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0788147</v>
+        <v>0.0758378</v>
       </c>
       <c r="D15" t="n">
-        <v>0.102504</v>
+        <v>0.101476</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0582911</v>
+        <v>0.0579954</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06886150000000001</v>
+        <v>0.0671151</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0754233</v>
+        <v>0.07265530000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0810728</v>
+        <v>0.0765522</v>
       </c>
       <c r="D16" t="n">
-        <v>0.105618</v>
+        <v>0.106271</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0579476</v>
+        <v>0.0580764</v>
       </c>
       <c r="F16" t="n">
-        <v>0.06998409999999999</v>
+        <v>0.06728969999999999</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0728265</v>
+        <v>0.0725619</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0823951</v>
+        <v>0.07881630000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>0.108926</v>
+        <v>0.111836</v>
       </c>
       <c r="E17" t="n">
-        <v>0.058821</v>
+        <v>0.0599079</v>
       </c>
       <c r="F17" t="n">
-        <v>0.06892719999999999</v>
+        <v>0.0687355</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0736059</v>
+        <v>0.0733316</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0796444</v>
+        <v>0.0784538</v>
       </c>
       <c r="D18" t="n">
-        <v>0.113014</v>
+        <v>0.114297</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0591118</v>
+        <v>0.0587404</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0693121</v>
+        <v>0.06746199999999999</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0739112</v>
+        <v>0.07256609999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0812491</v>
+        <v>0.07719819999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>0.11596</v>
+        <v>0.114028</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0607308</v>
+        <v>0.0593527</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0713911</v>
+        <v>0.0678662</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.07366979999999999</v>
+        <v>0.07347620000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.07762189999999999</v>
+        <v>0.0779049</v>
       </c>
       <c r="D20" t="n">
-        <v>0.120676</v>
+        <v>0.116232</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0620195</v>
+        <v>0.0609217</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0705973</v>
+        <v>0.07004920000000001</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0747442</v>
+        <v>0.07306799999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.082061</v>
+        <v>0.0820255</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0907371</v>
+        <v>0.0888067</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0648181</v>
+        <v>0.06378209999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>0.072281</v>
+        <v>0.07214</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0786314</v>
+        <v>0.07479230000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0831976</v>
+        <v>0.07876180000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0933707</v>
+        <v>0.0905721</v>
       </c>
       <c r="E22" t="n">
-        <v>0.06876210000000001</v>
+        <v>0.0686214</v>
       </c>
       <c r="F22" t="n">
-        <v>0.07790080000000001</v>
+        <v>0.0758127</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.07706499999999999</v>
+        <v>0.076348</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0826146</v>
+        <v>0.0823981</v>
       </c>
       <c r="D23" t="n">
-        <v>0.09383039999999999</v>
+        <v>0.0928619</v>
       </c>
       <c r="E23" t="n">
-        <v>0.06276569999999999</v>
+        <v>0.0625293</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0735851</v>
+        <v>0.07295939999999999</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0794801</v>
+        <v>0.0789145</v>
       </c>
       <c r="C24" t="n">
-        <v>0.08737979999999999</v>
+        <v>0.0853158</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0962105</v>
+        <v>0.0949513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0619164</v>
+        <v>0.0618628</v>
       </c>
       <c r="F24" t="n">
-        <v>0.07498489999999999</v>
+        <v>0.07214669999999999</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0795077</v>
+        <v>0.0784407</v>
       </c>
       <c r="C25" t="n">
-        <v>0.089958</v>
+        <v>0.0866639</v>
       </c>
       <c r="D25" t="n">
-        <v>0.100162</v>
+        <v>0.0989389</v>
       </c>
       <c r="E25" t="n">
-        <v>0.062472</v>
+        <v>0.0622724</v>
       </c>
       <c r="F25" t="n">
-        <v>0.074583</v>
+        <v>0.0739944</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.08089</v>
+        <v>0.08269020000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>0.08694739999999999</v>
+        <v>0.0933143</v>
       </c>
       <c r="D26" t="n">
-        <v>0.103399</v>
+        <v>0.100635</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0624182</v>
+        <v>0.0620429</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0747242</v>
+        <v>0.0730324</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0792491</v>
+        <v>0.07909529999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0870785</v>
+        <v>0.0874943</v>
       </c>
       <c r="D27" t="n">
-        <v>0.108871</v>
+        <v>0.105885</v>
       </c>
       <c r="E27" t="n">
-        <v>0.06331349999999999</v>
+        <v>0.0634579</v>
       </c>
       <c r="F27" t="n">
-        <v>0.07864110000000001</v>
+        <v>0.07412199999999999</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.07949349999999999</v>
+        <v>0.07768559999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0869378</v>
+        <v>0.0866017</v>
       </c>
       <c r="D28" t="n">
-        <v>0.108169</v>
+        <v>0.108865</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0627337</v>
+        <v>0.06494229999999999</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0744269</v>
+        <v>0.0748268</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0804877</v>
+        <v>0.0795332</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0886554</v>
+        <v>0.087075</v>
       </c>
       <c r="D29" t="n">
-        <v>0.115952</v>
+        <v>0.115633</v>
       </c>
       <c r="E29" t="n">
-        <v>0.063331</v>
+        <v>0.06289690000000001</v>
       </c>
       <c r="F29" t="n">
-        <v>0.076844</v>
+        <v>0.07514</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0801724</v>
+        <v>0.0814841</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0926037</v>
+        <v>0.0887836</v>
       </c>
       <c r="D30" t="n">
-        <v>0.117773</v>
+        <v>0.117181</v>
       </c>
       <c r="E30" t="n">
-        <v>0.064806</v>
+        <v>0.0636332</v>
       </c>
       <c r="F30" t="n">
-        <v>0.076849</v>
+        <v>0.0761944</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.08002570000000001</v>
+        <v>0.07888920000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0878935</v>
+        <v>0.0869202</v>
       </c>
       <c r="D31" t="n">
-        <v>0.121654</v>
+        <v>0.120293</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0654623</v>
+        <v>0.0644175</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07612430000000001</v>
+        <v>0.07528</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0794764</v>
+        <v>0.0782709</v>
       </c>
       <c r="C32" t="n">
-        <v>0.09082079999999999</v>
+        <v>0.0908896</v>
       </c>
       <c r="D32" t="n">
-        <v>0.123006</v>
+        <v>0.1235</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0651668</v>
+        <v>0.0648348</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0768471</v>
+        <v>0.0779503</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0799903</v>
+        <v>0.0807254</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0897453</v>
+        <v>0.08918329999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>0.129616</v>
+        <v>0.125646</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0663707</v>
+        <v>0.0657982</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0797168</v>
+        <v>0.0786236</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.08129690000000001</v>
+        <v>0.08017349999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0908839</v>
+        <v>0.0891783</v>
       </c>
       <c r="D34" t="n">
-        <v>0.132733</v>
+        <v>0.130637</v>
       </c>
       <c r="E34" t="n">
-        <v>0.06771439999999999</v>
+        <v>0.06654590000000001</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0814867</v>
+        <v>0.082231</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0812068</v>
+        <v>0.08075649999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0905251</v>
+        <v>0.0919489</v>
       </c>
       <c r="D35" t="n">
-        <v>0.108504</v>
+        <v>0.112685</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0695104</v>
+        <v>0.07027890000000001</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08321240000000001</v>
+        <v>0.0832193</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0831083</v>
+        <v>0.0874472</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0925194</v>
+        <v>0.0901561</v>
       </c>
       <c r="D36" t="n">
-        <v>0.115585</v>
+        <v>0.111763</v>
       </c>
       <c r="E36" t="n">
-        <v>0.07432900000000001</v>
+        <v>0.0723187</v>
       </c>
       <c r="F36" t="n">
-        <v>0.08769979999999999</v>
+        <v>0.0853351</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0849892</v>
+        <v>0.0837562</v>
       </c>
       <c r="C37" t="n">
-        <v>0.095899</v>
+        <v>0.0939695</v>
       </c>
       <c r="D37" t="n">
-        <v>0.11518</v>
+        <v>0.115434</v>
       </c>
       <c r="E37" t="n">
-        <v>0.06939770000000001</v>
+        <v>0.06788710000000001</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0819309</v>
+        <v>0.0796405</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0964555</v>
+        <v>0.0980361</v>
       </c>
       <c r="C38" t="n">
-        <v>0.100721</v>
+        <v>0.0980326</v>
       </c>
       <c r="D38" t="n">
-        <v>0.119797</v>
+        <v>0.118216</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0725705</v>
+        <v>0.0692729</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0822692</v>
+        <v>0.0818222</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0996229</v>
+        <v>0.0987396</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0968016</v>
+        <v>0.0963855</v>
       </c>
       <c r="D39" t="n">
-        <v>0.122353</v>
+        <v>0.126348</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0697125</v>
+        <v>0.06843680000000001</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0818402</v>
+        <v>0.0808775</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0961848</v>
+        <v>0.0960193</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0991467</v>
+        <v>0.098121</v>
       </c>
       <c r="D40" t="n">
-        <v>0.128878</v>
+        <v>0.130025</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0698979</v>
+        <v>0.0686229</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0813758</v>
+        <v>0.0827695</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0966094</v>
+        <v>0.09836739999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0995407</v>
+        <v>0.099027</v>
       </c>
       <c r="D41" t="n">
-        <v>0.133557</v>
+        <v>0.132678</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0704515</v>
+        <v>0.0693756</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0849936</v>
+        <v>0.0854205</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.104494</v>
+        <v>0.0986197</v>
       </c>
       <c r="C42" t="n">
-        <v>0.100703</v>
+        <v>0.10326</v>
       </c>
       <c r="D42" t="n">
-        <v>0.139404</v>
+        <v>0.139043</v>
       </c>
       <c r="E42" t="n">
-        <v>0.07122580000000001</v>
+        <v>0.06969590000000001</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08488420000000001</v>
+        <v>0.0828979</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0986394</v>
+        <v>0.09590410000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>0.100085</v>
+        <v>0.0991192</v>
       </c>
       <c r="D43" t="n">
-        <v>0.141348</v>
+        <v>0.141976</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0708076</v>
+        <v>0.0701985</v>
       </c>
       <c r="F43" t="n">
-        <v>0.084688</v>
+        <v>0.0860495</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.09633709999999999</v>
+        <v>0.09726509999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>0.103107</v>
+        <v>0.09998310000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.147324</v>
+        <v>0.147831</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0714484</v>
+        <v>0.070755</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0850611</v>
+        <v>0.08620650000000001</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0972413</v>
+        <v>0.100022</v>
       </c>
       <c r="C45" t="n">
-        <v>0.100791</v>
+        <v>0.100722</v>
       </c>
       <c r="D45" t="n">
-        <v>0.152976</v>
+        <v>0.1537</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0718565</v>
+        <v>0.07277599999999999</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0872163</v>
+        <v>0.08753759999999999</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0974077</v>
+        <v>0.0976472</v>
       </c>
       <c r="C46" t="n">
-        <v>0.10375</v>
+        <v>0.102162</v>
       </c>
       <c r="D46" t="n">
-        <v>0.160837</v>
+        <v>0.156981</v>
       </c>
       <c r="E46" t="n">
-        <v>0.07382619999999999</v>
+        <v>0.07671119999999999</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0898414</v>
+        <v>0.09378930000000001</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.101027</v>
+        <v>0.104928</v>
       </c>
       <c r="C47" t="n">
-        <v>0.110148</v>
+        <v>0.106259</v>
       </c>
       <c r="D47" t="n">
-        <v>0.16986</v>
+        <v>0.165853</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0739737</v>
+        <v>0.0754673</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0946531</v>
+        <v>0.0894117</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.100615</v>
+        <v>0.09996289999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>0.107126</v>
+        <v>0.106214</v>
       </c>
       <c r="D48" t="n">
-        <v>0.174182</v>
+        <v>0.170298</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0769254</v>
+        <v>0.07383240000000001</v>
       </c>
       <c r="F48" t="n">
-        <v>0.105109</v>
+        <v>0.0961497</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.102276</v>
+        <v>0.099284</v>
       </c>
       <c r="C49" t="n">
-        <v>0.109348</v>
+        <v>0.109071</v>
       </c>
       <c r="D49" t="n">
-        <v>0.17898</v>
+        <v>0.179926</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0780676</v>
+        <v>0.0768952</v>
       </c>
       <c r="F49" t="n">
-        <v>0.101104</v>
+        <v>0.097901</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.102089</v>
+        <v>0.10474</v>
       </c>
       <c r="C50" t="n">
-        <v>0.111947</v>
+        <v>0.116315</v>
       </c>
       <c r="D50" t="n">
-        <v>0.180361</v>
+        <v>0.167615</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0818334</v>
+        <v>0.07904029999999999</v>
       </c>
       <c r="F50" t="n">
-        <v>0.111645</v>
+        <v>0.102627</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.103747</v>
+        <v>0.102188</v>
       </c>
       <c r="C51" t="n">
-        <v>0.116889</v>
+        <v>0.116215</v>
       </c>
       <c r="D51" t="n">
-        <v>0.173894</v>
+        <v>0.172166</v>
       </c>
       <c r="E51" t="n">
-        <v>0.160711</v>
+        <v>0.158015</v>
       </c>
       <c r="F51" t="n">
-        <v>0.125285</v>
+        <v>0.121326</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.107815</v>
+        <v>0.106361</v>
       </c>
       <c r="C52" t="n">
-        <v>0.133552</v>
+        <v>0.121259</v>
       </c>
       <c r="D52" t="n">
-        <v>0.179741</v>
+        <v>0.176593</v>
       </c>
       <c r="E52" t="n">
-        <v>0.160483</v>
+        <v>0.156144</v>
       </c>
       <c r="F52" t="n">
-        <v>0.125598</v>
+        <v>0.122874</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.187068</v>
+        <v>0.17302</v>
       </c>
       <c r="C53" t="n">
-        <v>0.1618</v>
+        <v>0.156852</v>
       </c>
       <c r="D53" t="n">
-        <v>0.185749</v>
+        <v>0.183475</v>
       </c>
       <c r="E53" t="n">
-        <v>0.165024</v>
+        <v>0.15722</v>
       </c>
       <c r="F53" t="n">
-        <v>0.134896</v>
+        <v>0.128684</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.194418</v>
+        <v>0.175427</v>
       </c>
       <c r="C54" t="n">
-        <v>0.159616</v>
+        <v>0.155695</v>
       </c>
       <c r="D54" t="n">
-        <v>0.192318</v>
+        <v>0.194266</v>
       </c>
       <c r="E54" t="n">
-        <v>0.160883</v>
+        <v>0.15771</v>
       </c>
       <c r="F54" t="n">
-        <v>0.131555</v>
+        <v>0.128824</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.179216</v>
+        <v>0.174758</v>
       </c>
       <c r="C55" t="n">
-        <v>0.166285</v>
+        <v>0.159455</v>
       </c>
       <c r="D55" t="n">
-        <v>0.198073</v>
+        <v>0.197951</v>
       </c>
       <c r="E55" t="n">
-        <v>0.163198</v>
+        <v>0.158412</v>
       </c>
       <c r="F55" t="n">
-        <v>0.135925</v>
+        <v>0.132339</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.18425</v>
+        <v>0.18104</v>
       </c>
       <c r="C56" t="n">
-        <v>0.174448</v>
+        <v>0.169594</v>
       </c>
       <c r="D56" t="n">
-        <v>0.206541</v>
+        <v>0.207323</v>
       </c>
       <c r="E56" t="n">
-        <v>0.16136</v>
+        <v>0.15614</v>
       </c>
       <c r="F56" t="n">
-        <v>0.137877</v>
+        <v>0.136146</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.177127</v>
+        <v>0.170633</v>
       </c>
       <c r="C57" t="n">
-        <v>0.169989</v>
+        <v>0.162202</v>
       </c>
       <c r="D57" t="n">
-        <v>0.216972</v>
+        <v>0.213628</v>
       </c>
       <c r="E57" t="n">
-        <v>0.157858</v>
+        <v>0.160606</v>
       </c>
       <c r="F57" t="n">
-        <v>0.147239</v>
+        <v>0.14095</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.176973</v>
+        <v>0.174263</v>
       </c>
       <c r="C58" t="n">
-        <v>0.171884</v>
+        <v>0.166901</v>
       </c>
       <c r="D58" t="n">
-        <v>0.22267</v>
+        <v>0.219593</v>
       </c>
       <c r="E58" t="n">
-        <v>0.165643</v>
+        <v>0.157619</v>
       </c>
       <c r="F58" t="n">
-        <v>0.145886</v>
+        <v>0.148271</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.179445</v>
+        <v>0.176688</v>
       </c>
       <c r="C59" t="n">
-        <v>0.172175</v>
+        <v>0.17332</v>
       </c>
       <c r="D59" t="n">
-        <v>0.230165</v>
+        <v>0.230534</v>
       </c>
       <c r="E59" t="n">
-        <v>0.165879</v>
+        <v>0.160585</v>
       </c>
       <c r="F59" t="n">
-        <v>0.152587</v>
+        <v>0.147605</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.179854</v>
+        <v>0.175212</v>
       </c>
       <c r="C60" t="n">
-        <v>0.180011</v>
+        <v>0.172601</v>
       </c>
       <c r="D60" t="n">
-        <v>0.26052</v>
+        <v>0.236348</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1641</v>
+        <v>0.160029</v>
       </c>
       <c r="F60" t="n">
-        <v>0.150933</v>
+        <v>0.151508</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.180432</v>
+        <v>0.175295</v>
       </c>
       <c r="C61" t="n">
-        <v>0.177131</v>
+        <v>0.17657</v>
       </c>
       <c r="D61" t="n">
-        <v>0.248854</v>
+        <v>0.249685</v>
       </c>
       <c r="E61" t="n">
-        <v>0.161994</v>
+        <v>0.16369</v>
       </c>
       <c r="F61" t="n">
-        <v>0.155553</v>
+        <v>0.155616</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.174201</v>
+        <v>0.174823</v>
       </c>
       <c r="C62" t="n">
-        <v>0.178384</v>
+        <v>0.178846</v>
       </c>
       <c r="D62" t="n">
-        <v>0.256236</v>
+        <v>0.256827</v>
       </c>
       <c r="E62" t="n">
-        <v>0.160754</v>
+        <v>0.164944</v>
       </c>
       <c r="F62" t="n">
-        <v>0.158465</v>
+        <v>0.162471</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.17553</v>
+        <v>0.175314</v>
       </c>
       <c r="C63" t="n">
-        <v>0.184998</v>
+        <v>0.185804</v>
       </c>
       <c r="D63" t="n">
-        <v>0.269987</v>
+        <v>0.267438</v>
       </c>
       <c r="E63" t="n">
-        <v>0.164434</v>
+        <v>0.164999</v>
       </c>
       <c r="F63" t="n">
-        <v>0.165764</v>
+        <v>0.163787</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.176306</v>
+        <v>0.178209</v>
       </c>
       <c r="C64" t="n">
-        <v>0.187743</v>
+        <v>0.187153</v>
       </c>
       <c r="D64" t="n">
-        <v>0.273129</v>
+        <v>0.26723</v>
       </c>
       <c r="E64" t="n">
-        <v>0.174397</v>
+        <v>0.168209</v>
       </c>
       <c r="F64" t="n">
-        <v>0.170626</v>
+        <v>0.17151</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.190584</v>
+        <v>0.18232</v>
       </c>
       <c r="C65" t="n">
-        <v>0.191658</v>
+        <v>0.194176</v>
       </c>
       <c r="D65" t="n">
-        <v>0.273347</v>
+        <v>0.280416</v>
       </c>
       <c r="E65" t="n">
-        <v>0.170556</v>
+        <v>0.174536</v>
       </c>
       <c r="F65" t="n">
-        <v>0.179798</v>
+        <v>0.179587</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.188623</v>
+        <v>0.189845</v>
       </c>
       <c r="C66" t="n">
-        <v>0.199244</v>
+        <v>0.199732</v>
       </c>
       <c r="D66" t="n">
-        <v>0.285375</v>
+        <v>0.281169</v>
       </c>
       <c r="E66" t="n">
-        <v>0.243739</v>
+        <v>0.239114</v>
       </c>
       <c r="F66" t="n">
-        <v>0.257884</v>
+        <v>0.254208</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.264696</v>
+        <v>0.271819</v>
       </c>
       <c r="C67" t="n">
-        <v>0.286026</v>
+        <v>0.279928</v>
       </c>
       <c r="D67" t="n">
-        <v>0.289453</v>
+        <v>0.290462</v>
       </c>
       <c r="E67" t="n">
-        <v>0.241306</v>
+        <v>0.247997</v>
       </c>
       <c r="F67" t="n">
-        <v>0.251771</v>
+        <v>0.253994</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.264827</v>
+        <v>0.274579</v>
       </c>
       <c r="C68" t="n">
-        <v>0.291479</v>
+        <v>0.27955</v>
       </c>
       <c r="D68" t="n">
-        <v>0.300219</v>
+        <v>0.299173</v>
       </c>
       <c r="E68" t="n">
-        <v>0.242852</v>
+        <v>0.242837</v>
       </c>
       <c r="F68" t="n">
-        <v>0.254665</v>
+        <v>0.256272</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.263441</v>
+        <v>0.266411</v>
       </c>
       <c r="C69" t="n">
-        <v>0.281022</v>
+        <v>0.280198</v>
       </c>
       <c r="D69" t="n">
-        <v>0.30937</v>
+        <v>0.307112</v>
       </c>
       <c r="E69" t="n">
-        <v>0.244227</v>
+        <v>0.248054</v>
       </c>
       <c r="F69" t="n">
-        <v>0.255669</v>
+        <v>0.253669</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.268688</v>
+        <v>0.2712</v>
       </c>
       <c r="C70" t="n">
-        <v>0.278238</v>
+        <v>0.294288</v>
       </c>
       <c r="D70" t="n">
-        <v>0.316694</v>
+        <v>0.318177</v>
       </c>
       <c r="E70" t="n">
-        <v>0.244578</v>
+        <v>0.257433</v>
       </c>
       <c r="F70" t="n">
-        <v>0.257961</v>
+        <v>0.300337</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.269973</v>
+        <v>0.276126</v>
       </c>
       <c r="C71" t="n">
-        <v>0.285422</v>
+        <v>0.28317</v>
       </c>
       <c r="D71" t="n">
-        <v>0.325758</v>
+        <v>0.332665</v>
       </c>
       <c r="E71" t="n">
-        <v>0.249879</v>
+        <v>0.250575</v>
       </c>
       <c r="F71" t="n">
-        <v>0.261783</v>
+        <v>0.260291</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.275939</v>
+        <v>0.272586</v>
       </c>
       <c r="C72" t="n">
-        <v>0.292518</v>
+        <v>0.286758</v>
       </c>
       <c r="D72" t="n">
-        <v>0.33857</v>
+        <v>0.335208</v>
       </c>
       <c r="E72" t="n">
-        <v>0.25468</v>
+        <v>0.249558</v>
       </c>
       <c r="F72" t="n">
-        <v>0.267958</v>
+        <v>0.266011</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.271671</v>
+        <v>0.271555</v>
       </c>
       <c r="C73" t="n">
-        <v>0.284772</v>
+        <v>0.288317</v>
       </c>
       <c r="D73" t="n">
-        <v>0.34991</v>
+        <v>0.345551</v>
       </c>
       <c r="E73" t="n">
-        <v>0.25584</v>
+        <v>0.252321</v>
       </c>
       <c r="F73" t="n">
-        <v>0.271167</v>
+        <v>0.262961</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.2729</v>
+        <v>0.269704</v>
       </c>
       <c r="C74" t="n">
-        <v>0.300615</v>
+        <v>0.28531</v>
       </c>
       <c r="D74" t="n">
-        <v>0.361022</v>
+        <v>0.351129</v>
       </c>
       <c r="E74" t="n">
-        <v>0.255067</v>
+        <v>0.251182</v>
       </c>
       <c r="F74" t="n">
-        <v>0.265941</v>
+        <v>0.263764</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.270677</v>
+        <v>0.283613</v>
       </c>
       <c r="C75" t="n">
-        <v>0.288678</v>
+        <v>0.285352</v>
       </c>
       <c r="D75" t="n">
-        <v>0.362441</v>
+        <v>0.365057</v>
       </c>
       <c r="E75" t="n">
-        <v>0.258104</v>
+        <v>0.26024</v>
       </c>
       <c r="F75" t="n">
-        <v>0.277408</v>
+        <v>0.291388</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.274831</v>
+        <v>0.278585</v>
       </c>
       <c r="C76" t="n">
-        <v>0.293946</v>
+        <v>0.294532</v>
       </c>
       <c r="D76" t="n">
-        <v>0.380674</v>
+        <v>0.395247</v>
       </c>
       <c r="E76" t="n">
-        <v>0.260009</v>
+        <v>0.265014</v>
       </c>
       <c r="F76" t="n">
-        <v>0.278898</v>
+        <v>0.283333</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.288269</v>
+        <v>0.282739</v>
       </c>
       <c r="C77" t="n">
-        <v>0.296296</v>
+        <v>0.307771</v>
       </c>
       <c r="D77" t="n">
-        <v>0.387777</v>
+        <v>0.411607</v>
       </c>
       <c r="E77" t="n">
-        <v>0.258262</v>
+        <v>0.262861</v>
       </c>
       <c r="F77" t="n">
-        <v>0.272563</v>
+        <v>0.294938</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.293571</v>
+        <v>0.281616</v>
       </c>
       <c r="C78" t="n">
-        <v>0.302719</v>
+        <v>0.30924</v>
       </c>
       <c r="D78" t="n">
-        <v>0.362915</v>
+        <v>0.363044</v>
       </c>
       <c r="E78" t="n">
-        <v>0.265915</v>
+        <v>0.264989</v>
       </c>
       <c r="F78" t="n">
-        <v>0.284531</v>
+        <v>0.27666</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.280454</v>
+        <v>0.287361</v>
       </c>
       <c r="C79" t="n">
-        <v>0.333612</v>
+        <v>0.306887</v>
       </c>
       <c r="D79" t="n">
-        <v>0.3751</v>
+        <v>0.36523</v>
       </c>
       <c r="E79" t="n">
-        <v>0.265886</v>
+        <v>0.262048</v>
       </c>
       <c r="F79" t="n">
-        <v>0.296209</v>
+        <v>0.287761</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.290421</v>
+        <v>0.286954</v>
       </c>
       <c r="C80" t="n">
-        <v>0.311697</v>
+        <v>0.304636</v>
       </c>
       <c r="D80" t="n">
-        <v>0.378093</v>
+        <v>0.384424</v>
       </c>
       <c r="E80" t="n">
-        <v>0.356954</v>
+        <v>0.345016</v>
       </c>
       <c r="F80" t="n">
-        <v>0.389836</v>
+        <v>0.394162</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.377059</v>
+        <v>0.36615</v>
       </c>
       <c r="C81" t="n">
-        <v>0.413314</v>
+        <v>0.400621</v>
       </c>
       <c r="D81" t="n">
-        <v>0.383899</v>
+        <v>0.386717</v>
       </c>
       <c r="E81" t="n">
-        <v>0.357528</v>
+        <v>0.353436</v>
       </c>
       <c r="F81" t="n">
-        <v>0.405388</v>
+        <v>0.404458</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.364561</v>
+        <v>0.376728</v>
       </c>
       <c r="C82" t="n">
-        <v>0.401602</v>
+        <v>0.420203</v>
       </c>
       <c r="D82" t="n">
-        <v>0.393938</v>
+        <v>0.402469</v>
       </c>
       <c r="E82" t="n">
-        <v>0.351687</v>
+        <v>0.365134</v>
       </c>
       <c r="F82" t="n">
-        <v>0.401807</v>
+        <v>0.414032</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.367733</v>
+        <v>0.364376</v>
       </c>
       <c r="C83" t="n">
-        <v>0.405987</v>
+        <v>0.414488</v>
       </c>
       <c r="D83" t="n">
-        <v>0.404435</v>
+        <v>0.399873</v>
       </c>
       <c r="E83" t="n">
-        <v>0.350013</v>
+        <v>0.347286</v>
       </c>
       <c r="F83" t="n">
-        <v>0.399207</v>
+        <v>0.402977</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.364911</v>
+        <v>0.365742</v>
       </c>
       <c r="C84" t="n">
-        <v>0.405943</v>
+        <v>0.406445</v>
       </c>
       <c r="D84" t="n">
-        <v>0.406783</v>
+        <v>0.405591</v>
       </c>
       <c r="E84" t="n">
-        <v>0.356663</v>
+        <v>0.350451</v>
       </c>
       <c r="F84" t="n">
-        <v>0.399411</v>
+        <v>0.404662</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.381612</v>
+        <v>0.367122</v>
       </c>
       <c r="C85" t="n">
-        <v>0.405952</v>
+        <v>0.410169</v>
       </c>
       <c r="D85" t="n">
-        <v>0.417204</v>
+        <v>0.423028</v>
       </c>
       <c r="E85" t="n">
-        <v>0.356332</v>
+        <v>0.356851</v>
       </c>
       <c r="F85" t="n">
-        <v>0.398976</v>
+        <v>0.401761</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.371442</v>
+        <v>0.368149</v>
       </c>
       <c r="C86" t="n">
-        <v>0.408885</v>
+        <v>0.410434</v>
       </c>
       <c r="D86" t="n">
-        <v>0.431033</v>
+        <v>0.424594</v>
       </c>
       <c r="E86" t="n">
-        <v>0.360421</v>
+        <v>0.348326</v>
       </c>
       <c r="F86" t="n">
-        <v>0.407847</v>
+        <v>0.40881</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.369995</v>
+        <v>0.370426</v>
       </c>
       <c r="C87" t="n">
-        <v>0.412546</v>
+        <v>0.416382</v>
       </c>
       <c r="D87" t="n">
-        <v>0.459514</v>
+        <v>0.441083</v>
       </c>
       <c r="E87" t="n">
-        <v>0.358105</v>
+        <v>0.358378</v>
       </c>
       <c r="F87" t="n">
-        <v>0.422433</v>
+        <v>0.405707</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.376515</v>
+        <v>0.36864</v>
       </c>
       <c r="C88" t="n">
-        <v>0.411314</v>
+        <v>0.412375</v>
       </c>
       <c r="D88" t="n">
-        <v>0.45658</v>
+        <v>0.449984</v>
       </c>
       <c r="E88" t="n">
-        <v>0.35953</v>
+        <v>0.353609</v>
       </c>
       <c r="F88" t="n">
-        <v>0.416696</v>
+        <v>0.417608</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.379811</v>
+        <v>0.370041</v>
       </c>
       <c r="C89" t="n">
-        <v>0.418152</v>
+        <v>0.42083</v>
       </c>
       <c r="D89" t="n">
-        <v>0.468443</v>
+        <v>0.463138</v>
       </c>
       <c r="E89" t="n">
-        <v>0.360898</v>
+        <v>0.361144</v>
       </c>
       <c r="F89" t="n">
-        <v>0.419218</v>
+        <v>0.415917</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.365843</v>
+        <v>0.369388</v>
       </c>
       <c r="C90" t="n">
-        <v>0.426158</v>
+        <v>0.413397</v>
       </c>
       <c r="D90" t="n">
-        <v>0.492591</v>
+        <v>0.467936</v>
       </c>
       <c r="E90" t="n">
-        <v>0.357851</v>
+        <v>0.354794</v>
       </c>
       <c r="F90" t="n">
-        <v>0.427813</v>
+        <v>0.418676</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.375844</v>
+        <v>0.372367</v>
       </c>
       <c r="C91" t="n">
-        <v>0.436358</v>
+        <v>0.419773</v>
       </c>
       <c r="D91" t="n">
-        <v>0.482714</v>
+        <v>0.5145380000000001</v>
       </c>
       <c r="E91" t="n">
-        <v>0.355287</v>
+        <v>0.358262</v>
       </c>
       <c r="F91" t="n">
-        <v>0.414207</v>
+        <v>0.420366</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.371341</v>
+        <v>0.371791</v>
       </c>
       <c r="C92" t="n">
-        <v>0.438999</v>
+        <v>0.426702</v>
       </c>
       <c r="D92" t="n">
-        <v>0.426624</v>
+        <v>0.42798</v>
       </c>
       <c r="E92" t="n">
-        <v>0.364821</v>
+        <v>0.374001</v>
       </c>
       <c r="F92" t="n">
-        <v>0.421409</v>
+        <v>0.423088</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.377456</v>
+        <v>0.381331</v>
       </c>
       <c r="C93" t="n">
-        <v>0.441677</v>
+        <v>0.456392</v>
       </c>
       <c r="D93" t="n">
-        <v>0.438217</v>
+        <v>0.433928</v>
       </c>
       <c r="E93" t="n">
-        <v>0.37139</v>
+        <v>0.363332</v>
       </c>
       <c r="F93" t="n">
-        <v>0.438457</v>
+        <v>0.433002</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.386915</v>
+        <v>0.380155</v>
       </c>
       <c r="C94" t="n">
-        <v>0.441596</v>
+        <v>0.439285</v>
       </c>
       <c r="D94" t="n">
-        <v>0.439356</v>
+        <v>0.440269</v>
       </c>
       <c r="E94" t="n">
-        <v>0.439028</v>
+        <v>0.440356</v>
       </c>
       <c r="F94" t="n">
-        <v>0.513217</v>
+        <v>0.502391</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.443606</v>
+        <v>0.451814</v>
       </c>
       <c r="C95" t="n">
-        <v>0.508162</v>
+        <v>0.499804</v>
       </c>
       <c r="D95" t="n">
-        <v>0.449574</v>
+        <v>0.449908</v>
       </c>
       <c r="E95" t="n">
-        <v>0.455509</v>
+        <v>0.437971</v>
       </c>
       <c r="F95" t="n">
-        <v>0.52866</v>
+        <v>0.50734</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.444489</v>
+        <v>0.451678</v>
       </c>
       <c r="C96" t="n">
-        <v>0.526111</v>
+        <v>0.503407</v>
       </c>
       <c r="D96" t="n">
-        <v>0.4616</v>
+        <v>0.467819</v>
       </c>
       <c r="E96" t="n">
-        <v>0.448792</v>
+        <v>0.445728</v>
       </c>
       <c r="F96" t="n">
-        <v>0.510964</v>
+        <v>0.510984</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.46209</v>
+        <v>0.450348</v>
       </c>
       <c r="C97" t="n">
-        <v>0.500131</v>
+        <v>0.552235</v>
       </c>
       <c r="D97" t="n">
-        <v>0.465735</v>
+        <v>0.47717</v>
       </c>
       <c r="E97" t="n">
-        <v>0.443273</v>
+        <v>0.451817</v>
       </c>
       <c r="F97" t="n">
-        <v>0.511412</v>
+        <v>0.520334</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.453361</v>
+        <v>0.46254</v>
       </c>
       <c r="C98" t="n">
-        <v>0.518716</v>
+        <v>0.503022</v>
       </c>
       <c r="D98" t="n">
-        <v>0.480935</v>
+        <v>0.473946</v>
       </c>
       <c r="E98" t="n">
-        <v>0.450804</v>
+        <v>0.444849</v>
       </c>
       <c r="F98" t="n">
-        <v>0.508059</v>
+        <v>0.507361</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.446195</v>
+        <v>0.44818</v>
       </c>
       <c r="C99" t="n">
-        <v>0.530996</v>
+        <v>0.501903</v>
       </c>
       <c r="D99" t="n">
-        <v>0.50598</v>
+        <v>0.484823</v>
       </c>
       <c r="E99" t="n">
-        <v>0.452993</v>
+        <v>0.451115</v>
       </c>
       <c r="F99" t="n">
-        <v>0.525345</v>
+        <v>0.526993</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.467676</v>
+        <v>0.453658</v>
       </c>
       <c r="C100" t="n">
-        <v>0.517692</v>
+        <v>0.512997</v>
       </c>
       <c r="D100" t="n">
-        <v>0.500277</v>
+        <v>0.501726</v>
       </c>
       <c r="E100" t="n">
-        <v>0.455733</v>
+        <v>0.451703</v>
       </c>
       <c r="F100" t="n">
-        <v>0.52177</v>
+        <v>0.5240320000000001</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.445113</v>
+        <v>0.446723</v>
       </c>
       <c r="C101" t="n">
-        <v>0.506603</v>
+        <v>0.504782</v>
       </c>
       <c r="D101" t="n">
-        <v>0.519691</v>
+        <v>0.5081599999999999</v>
       </c>
       <c r="E101" t="n">
-        <v>0.445487</v>
+        <v>0.446838</v>
       </c>
       <c r="F101" t="n">
-        <v>0.52278</v>
+        <v>0.5184029999999999</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.452398</v>
+        <v>0.448327</v>
       </c>
       <c r="C102" t="n">
-        <v>0.526094</v>
+        <v>0.507987</v>
       </c>
       <c r="D102" t="n">
-        <v>0.5225109999999999</v>
+        <v>0.533505</v>
       </c>
       <c r="E102" t="n">
-        <v>0.451473</v>
+        <v>0.451688</v>
       </c>
       <c r="F102" t="n">
-        <v>0.51676</v>
+        <v>0.518198</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.457726</v>
+        <v>0.446311</v>
       </c>
       <c r="C103" t="n">
-        <v>0.537921</v>
+        <v>0.512611</v>
       </c>
       <c r="D103" t="n">
-        <v>0.548121</v>
+        <v>0.537923</v>
       </c>
       <c r="E103" t="n">
-        <v>0.456885</v>
+        <v>0.454781</v>
       </c>
       <c r="F103" t="n">
-        <v>0.529724</v>
+        <v>0.537457</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.457437</v>
+        <v>0.452516</v>
       </c>
       <c r="C104" t="n">
-        <v>0.551484</v>
+        <v>0.516093</v>
       </c>
       <c r="D104" t="n">
-        <v>0.5455989999999999</v>
+        <v>0.550241</v>
       </c>
       <c r="E104" t="n">
-        <v>0.450685</v>
+        <v>0.454169</v>
       </c>
       <c r="F104" t="n">
-        <v>0.532006</v>
+        <v>0.563847</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.455543</v>
+        <v>0.454291</v>
       </c>
       <c r="C105" t="n">
-        <v>0.5171289999999999</v>
+        <v>0.520106</v>
       </c>
       <c r="D105" t="n">
-        <v>0.559639</v>
+        <v>0.565426</v>
       </c>
       <c r="E105" t="n">
-        <v>0.454601</v>
+        <v>0.460942</v>
       </c>
       <c r="F105" t="n">
-        <v>0.525119</v>
+        <v>0.542291</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.477472</v>
+        <v>0.460254</v>
       </c>
       <c r="C106" t="n">
-        <v>0.542681</v>
+        <v>0.548234</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5705</v>
+        <v>0.571486</v>
       </c>
       <c r="E106" t="n">
-        <v>0.46101</v>
+        <v>0.45106</v>
       </c>
       <c r="F106" t="n">
-        <v>0.53716</v>
+        <v>0.531104</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.458217</v>
+        <v>0.465966</v>
       </c>
       <c r="C107" t="n">
-        <v>0.528085</v>
+        <v>0.530733</v>
       </c>
       <c r="D107" t="n">
-        <v>0.490711</v>
+        <v>0.48537</v>
       </c>
       <c r="E107" t="n">
-        <v>0.459298</v>
+        <v>0.458631</v>
       </c>
       <c r="F107" t="n">
-        <v>0.545855</v>
+        <v>0.541585</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.463403</v>
+        <v>0.456562</v>
       </c>
       <c r="C108" t="n">
-        <v>0.534224</v>
+        <v>0.5379350000000001</v>
       </c>
       <c r="D108" t="n">
-        <v>0.501279</v>
+        <v>0.493606</v>
       </c>
       <c r="E108" t="n">
-        <v>0.5334410000000001</v>
+        <v>0.519265</v>
       </c>
       <c r="F108" t="n">
-        <v>0.587266</v>
+        <v>0.624939</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.459994</v>
+        <v>0.466091</v>
       </c>
       <c r="C109" t="n">
-        <v>0.581613</v>
+        <v>0.547787</v>
       </c>
       <c r="D109" t="n">
-        <v>0.544522</v>
+        <v>0.509262</v>
       </c>
       <c r="E109" t="n">
-        <v>0.5283409999999999</v>
+        <v>0.540243</v>
       </c>
       <c r="F109" t="n">
-        <v>0.587275</v>
+        <v>0.593176</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.545143</v>
+        <v>0.555215</v>
       </c>
       <c r="C110" t="n">
-        <v>0.598054</v>
+        <v>0.594234</v>
       </c>
       <c r="D110" t="n">
-        <v>0.524603</v>
+        <v>0.519447</v>
       </c>
       <c r="E110" t="n">
-        <v>0.547481</v>
+        <v>0.528478</v>
       </c>
       <c r="F110" t="n">
-        <v>0.587185</v>
+        <v>0.593749</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.548902</v>
+        <v>0.552532</v>
       </c>
       <c r="C111" t="n">
-        <v>0.601553</v>
+        <v>0.613722</v>
       </c>
       <c r="D111" t="n">
-        <v>0.541666</v>
+        <v>0.531563</v>
       </c>
       <c r="E111" t="n">
-        <v>0.5330819999999999</v>
+        <v>0.5246960000000001</v>
       </c>
       <c r="F111" t="n">
-        <v>0.592328</v>
+        <v>0.586037</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.556455</v>
+        <v>0.547005</v>
       </c>
       <c r="C112" t="n">
-        <v>0.59787</v>
+        <v>0.602448</v>
       </c>
       <c r="D112" t="n">
-        <v>0.541982</v>
+        <v>0.542456</v>
       </c>
       <c r="E112" t="n">
-        <v>0.538231</v>
+        <v>0.531438</v>
       </c>
       <c r="F112" t="n">
-        <v>0.606775</v>
+        <v>0.594866</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.547239</v>
+        <v>0.549642</v>
       </c>
       <c r="C113" t="n">
-        <v>0.593845</v>
+        <v>0.603866</v>
       </c>
       <c r="D113" t="n">
-        <v>0.563623</v>
+        <v>0.558007</v>
       </c>
       <c r="E113" t="n">
-        <v>0.53366</v>
+        <v>0.536043</v>
       </c>
       <c r="F113" t="n">
-        <v>0.599962</v>
+        <v>0.613222</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.548055</v>
+        <v>0.550095</v>
       </c>
       <c r="C114" t="n">
-        <v>0.623371</v>
+        <v>0.616971</v>
       </c>
       <c r="D114" t="n">
-        <v>0.567895</v>
+        <v>0.575209</v>
       </c>
       <c r="E114" t="n">
-        <v>0.528556</v>
+        <v>0.525469</v>
       </c>
       <c r="F114" t="n">
-        <v>0.607783</v>
+        <v>0.61766</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.552889</v>
+        <v>0.565026</v>
       </c>
       <c r="C115" t="n">
-        <v>0.603559</v>
+        <v>0.609507</v>
       </c>
       <c r="D115" t="n">
-        <v>0.582559</v>
+        <v>0.5893119999999999</v>
       </c>
       <c r="E115" t="n">
-        <v>0.535822</v>
+        <v>0.5569190000000001</v>
       </c>
       <c r="F115" t="n">
-        <v>0.594889</v>
+        <v>0.602733</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.555453</v>
+        <v>0.550733</v>
       </c>
       <c r="C116" t="n">
-        <v>0.61805</v>
+        <v>0.600043</v>
       </c>
       <c r="D116" t="n">
-        <v>0.588706</v>
+        <v>0.589074</v>
       </c>
       <c r="E116" t="n">
-        <v>0.532977</v>
+        <v>0.527459</v>
       </c>
       <c r="F116" t="n">
-        <v>0.599743</v>
+        <v>0.609537</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.553211</v>
+        <v>0.543577</v>
       </c>
       <c r="C117" t="n">
-        <v>0.599357</v>
+        <v>0.612857</v>
       </c>
       <c r="D117" t="n">
-        <v>0.616255</v>
+        <v>0.605079</v>
       </c>
       <c r="E117" t="n">
-        <v>0.532309</v>
+        <v>0.534816</v>
       </c>
       <c r="F117" t="n">
-        <v>0.6221370000000001</v>
+        <v>0.605445</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.562425</v>
+        <v>0.549354</v>
       </c>
       <c r="C118" t="n">
-        <v>0.602285</v>
+        <v>0.615166</v>
       </c>
       <c r="D118" t="n">
-        <v>0.612058</v>
+        <v>0.6200870000000001</v>
       </c>
       <c r="E118" t="n">
-        <v>0.544513</v>
+        <v>0.550054</v>
       </c>
       <c r="F118" t="n">
-        <v>0.611822</v>
+        <v>0.620227</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.54504</v>
+        <v>0.558074</v>
       </c>
       <c r="C119" t="n">
-        <v>0.622776</v>
+        <v>0.6204499999999999</v>
       </c>
       <c r="D119" t="n">
-        <v>0.624192</v>
+        <v>0.631775</v>
       </c>
       <c r="E119" t="n">
-        <v>0.53936</v>
+        <v>0.562074</v>
       </c>
       <c r="F119" t="n">
-        <v>0.613433</v>
+        <v>0.624055</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.557066</v>
+        <v>0.551726</v>
       </c>
       <c r="C120" t="n">
-        <v>0.624242</v>
+        <v>0.615416</v>
       </c>
       <c r="D120" t="n">
-        <v>0.659118</v>
+        <v>0.667928</v>
       </c>
       <c r="E120" t="n">
-        <v>0.536322</v>
+        <v>0.5394099999999999</v>
       </c>
       <c r="F120" t="n">
-        <v>0.620823</v>
+        <v>0.626799</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.553382</v>
+        <v>0.555392</v>
       </c>
       <c r="C121" t="n">
-        <v>0.6138400000000001</v>
+        <v>0.624325</v>
       </c>
       <c r="D121" t="n">
-        <v>0.598447</v>
+        <v>0.567997</v>
       </c>
       <c r="E121" t="n">
-        <v>0.542743</v>
+        <v>0.5576719999999999</v>
       </c>
       <c r="F121" t="n">
-        <v>0.625636</v>
+        <v>0.630547</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.566949</v>
+        <v>0.562196</v>
       </c>
       <c r="C122" t="n">
-        <v>0.6349</v>
+        <v>0.634574</v>
       </c>
       <c r="D122" t="n">
-        <v>0.57641</v>
+        <v>0.572229</v>
       </c>
       <c r="E122" t="n">
-        <v>0.549411</v>
+        <v>0.546076</v>
       </c>
       <c r="F122" t="n">
-        <v>0.646377</v>
+        <v>0.646409</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.623328</v>
+        <v>0.605278</v>
       </c>
       <c r="C123" t="n">
-        <v>0.636758</v>
+        <v>0.636082</v>
       </c>
       <c r="D123" t="n">
-        <v>0.609271</v>
+        <v>0.585565</v>
       </c>
       <c r="E123" t="n">
-        <v>0.661067</v>
+        <v>0.647146</v>
       </c>
       <c r="F123" t="n">
-        <v>0.668822</v>
+        <v>0.661397</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.834133</v>
+        <v>0.710421</v>
       </c>
       <c r="C124" t="n">
-        <v>0.723826</v>
+        <v>0.714089</v>
       </c>
       <c r="D124" t="n">
-        <v>0.596943</v>
+        <v>0.597669</v>
       </c>
       <c r="E124" t="n">
-        <v>0.6480320000000001</v>
+        <v>0.648715</v>
       </c>
       <c r="F124" t="n">
-        <v>0.710972</v>
+        <v>0.656258</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.724042</v>
+        <v>0.717628</v>
       </c>
       <c r="C125" t="n">
-        <v>0.720166</v>
+        <v>0.722108</v>
       </c>
       <c r="D125" t="n">
-        <v>0.615495</v>
+        <v>0.621834</v>
       </c>
       <c r="E125" t="n">
-        <v>0.655549</v>
+        <v>0.664129</v>
       </c>
       <c r="F125" t="n">
-        <v>0.679494</v>
+        <v>0.672414</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.712477</v>
+        <v>0.715767</v>
       </c>
       <c r="C126" t="n">
-        <v>0.719359</v>
+        <v>0.720697</v>
       </c>
       <c r="D126" t="n">
-        <v>0.6346349999999999</v>
+        <v>0.626394</v>
       </c>
       <c r="E126" t="n">
-        <v>0.652888</v>
+        <v>0.6551129999999999</v>
       </c>
       <c r="F126" t="n">
-        <v>0.6704</v>
+        <v>0.663007</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.70951</v>
+        <v>0.73151</v>
       </c>
       <c r="C127" t="n">
-        <v>0.725988</v>
+        <v>0.720724</v>
       </c>
       <c r="D127" t="n">
-        <v>0.63552</v>
+        <v>0.633161</v>
       </c>
       <c r="E127" t="n">
-        <v>0.646906</v>
+        <v>0.647365</v>
       </c>
       <c r="F127" t="n">
-        <v>0.674831</v>
+        <v>0.67916</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.707987</v>
+        <v>0.708017</v>
       </c>
       <c r="C128" t="n">
-        <v>0.748677</v>
+        <v>0.717431</v>
       </c>
       <c r="D128" t="n">
-        <v>0.6520629999999999</v>
+        <v>0.644263</v>
       </c>
       <c r="E128" t="n">
-        <v>0.679559</v>
+        <v>0.659677</v>
       </c>
       <c r="F128" t="n">
-        <v>0.713444</v>
+        <v>0.66478</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.717235</v>
+        <v>0.7510829999999999</v>
       </c>
       <c r="C129" t="n">
-        <v>0.720866</v>
+        <v>0.723279</v>
       </c>
       <c r="D129" t="n">
-        <v>0.654383</v>
+        <v>0.658361</v>
       </c>
       <c r="E129" t="n">
-        <v>0.660245</v>
+        <v>0.654853</v>
       </c>
       <c r="F129" t="n">
-        <v>0.675004</v>
+        <v>0.672916</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.709896</v>
+        <v>0.788172</v>
       </c>
       <c r="C130" t="n">
-        <v>0.753976</v>
+        <v>0.7278790000000001</v>
       </c>
       <c r="D130" t="n">
-        <v>0.665341</v>
+        <v>0.671566</v>
       </c>
       <c r="E130" t="n">
-        <v>0.665364</v>
+        <v>0.668125</v>
       </c>
       <c r="F130" t="n">
-        <v>0.681296</v>
+        <v>0.685025</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.711782</v>
+        <v>0.7088370000000001</v>
       </c>
       <c r="C131" t="n">
-        <v>0.736161</v>
+        <v>0.728779</v>
       </c>
       <c r="D131" t="n">
-        <v>0.681698</v>
+        <v>0.688142</v>
       </c>
       <c r="E131" t="n">
-        <v>0.664818</v>
+        <v>0.6531670000000001</v>
       </c>
       <c r="F131" t="n">
-        <v>0.682355</v>
+        <v>0.684275</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.712286</v>
+        <v>0.7198870000000001</v>
       </c>
       <c r="C132" t="n">
-        <v>0.736282</v>
+        <v>0.726282</v>
       </c>
       <c r="D132" t="n">
-        <v>0.699229</v>
+        <v>0.702623</v>
       </c>
       <c r="E132" t="n">
-        <v>0.6591360000000001</v>
+        <v>0.676524</v>
       </c>
       <c r="F132" t="n">
-        <v>0.702495</v>
+        <v>0.753398</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.734949</v>
+        <v>0.713333</v>
       </c>
       <c r="C133" t="n">
-        <v>0.7403419999999999</v>
+        <v>0.740106</v>
       </c>
       <c r="D133" t="n">
-        <v>0.70796</v>
+        <v>0.7142539999999999</v>
       </c>
       <c r="E133" t="n">
-        <v>0.661937</v>
+        <v>0.681301</v>
       </c>
       <c r="F133" t="n">
-        <v>0.7103159999999999</v>
+        <v>0.690208</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.7099259999999999</v>
+        <v>0.730805</v>
       </c>
       <c r="C134" t="n">
-        <v>0.7712599999999999</v>
+        <v>0.741598</v>
       </c>
       <c r="D134" t="n">
-        <v>0.734568</v>
+        <v>0.734958</v>
       </c>
       <c r="E134" t="n">
-        <v>0.684447</v>
+        <v>0.663229</v>
       </c>
       <c r="F134" t="n">
-        <v>0.71596</v>
+        <v>0.693277</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.720808</v>
+        <v>0.720688</v>
       </c>
       <c r="C135" t="n">
-        <v>0.755564</v>
+        <v>0.740158</v>
       </c>
       <c r="D135" t="n">
-        <v>0.693165</v>
+        <v>0.673095</v>
       </c>
       <c r="E135" t="n">
-        <v>0.673951</v>
+        <v>0.675056</v>
       </c>
       <c r="F135" t="n">
-        <v>0.706532</v>
+        <v>0.702129</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.715077</v>
+        <v>0.733421</v>
       </c>
       <c r="C136" t="n">
-        <v>0.748406</v>
+        <v>0.777842</v>
       </c>
       <c r="D136" t="n">
-        <v>0.68658</v>
+        <v>0.688174</v>
       </c>
       <c r="E136" t="n">
-        <v>0.68973</v>
+        <v>0.690698</v>
       </c>
       <c r="F136" t="n">
-        <v>0.716724</v>
+        <v>0.765282</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.721193</v>
+        <v>0.723563</v>
       </c>
       <c r="C137" t="n">
-        <v>0.769512</v>
+        <v>0.811322</v>
       </c>
       <c r="D137" t="n">
-        <v>0.6952469999999999</v>
+        <v>0.692883</v>
       </c>
       <c r="E137" t="n">
-        <v>0.829757</v>
+        <v>0.839346</v>
       </c>
       <c r="F137" t="n">
-        <v>0.7865220000000001</v>
+        <v>0.770374</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.914818</v>
+        <v>0.904466</v>
       </c>
       <c r="C138" t="n">
-        <v>0.837527</v>
+        <v>0.836561</v>
       </c>
       <c r="D138" t="n">
-        <v>0.708803</v>
+        <v>0.708403</v>
       </c>
       <c r="E138" t="n">
-        <v>0.829864</v>
+        <v>0.824291</v>
       </c>
       <c r="F138" t="n">
-        <v>0.787668</v>
+        <v>0.769876</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.922276</v>
+        <v>0.910359</v>
       </c>
       <c r="C139" t="n">
-        <v>0.841426</v>
+        <v>0.826132</v>
       </c>
       <c r="D139" t="n">
-        <v>0.715386</v>
+        <v>0.732857</v>
       </c>
       <c r="E139" t="n">
-        <v>0.853106</v>
+        <v>0.825466</v>
       </c>
       <c r="F139" t="n">
-        <v>0.809657</v>
+        <v>0.754409</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.922831</v>
+        <v>0.916744</v>
       </c>
       <c r="C140" t="n">
-        <v>0.837666</v>
+        <v>0.832029</v>
       </c>
       <c r="D140" t="n">
-        <v>0.734649</v>
+        <v>0.7248599999999999</v>
       </c>
       <c r="E140" t="n">
-        <v>0.8178569999999999</v>
+        <v>0.826924</v>
       </c>
       <c r="F140" t="n">
-        <v>0.785529</v>
+        <v>0.766604</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.914058</v>
+        <v>0.969002</v>
       </c>
       <c r="C141" t="n">
-        <v>0.84766</v>
+        <v>0.8506899999999999</v>
       </c>
       <c r="D141" t="n">
-        <v>0.745572</v>
+        <v>0.74701</v>
       </c>
       <c r="E141" t="n">
-        <v>0.819396</v>
+        <v>0.834408</v>
       </c>
       <c r="F141" t="n">
-        <v>0.796197</v>
+        <v>0.769428</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.906294</v>
+        <v>0.916596</v>
       </c>
       <c r="C142" t="n">
-        <v>0.837704</v>
+        <v>0.834663</v>
       </c>
       <c r="D142" t="n">
-        <v>0.763135</v>
+        <v>0.762232</v>
       </c>
       <c r="E142" t="n">
-        <v>0.82728</v>
+        <v>0.810199</v>
       </c>
       <c r="F142" t="n">
-        <v>0.792834</v>
+        <v>0.76464</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.910297</v>
+        <v>0.939754</v>
       </c>
       <c r="C143" t="n">
-        <v>0.843205</v>
+        <v>0.8255940000000001</v>
       </c>
       <c r="D143" t="n">
-        <v>0.77729</v>
+        <v>0.7767810000000001</v>
       </c>
       <c r="E143" t="n">
-        <v>0.813231</v>
+        <v>0.825933</v>
       </c>
       <c r="F143" t="n">
-        <v>0.793544</v>
+        <v>0.794964</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0649762</v>
+        <v>0.0630623</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0712523</v>
+        <v>0.0674613</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09915889999999999</v>
+        <v>0.0958203</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0567134</v>
+        <v>0.0547527</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06309339999999999</v>
+        <v>0.0624625</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.06682299999999999</v>
+        <v>0.0660695</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0706538</v>
+        <v>0.0732565</v>
       </c>
       <c r="D3" t="n">
-        <v>0.103365</v>
+        <v>0.110073</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0561183</v>
+        <v>0.0572902</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06423470000000001</v>
+        <v>0.0640458</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0670538</v>
+        <v>0.0657171</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07182470000000001</v>
+        <v>0.06928670000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.106904</v>
+        <v>0.107803</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0572129</v>
+        <v>0.0573961</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0655187</v>
+        <v>0.0642021</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.06644269999999999</v>
+        <v>0.0662563</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0740649</v>
+        <v>0.0699077</v>
       </c>
       <c r="D5" t="n">
-        <v>0.113735</v>
+        <v>0.111767</v>
       </c>
       <c r="E5" t="n">
-        <v>0.058378</v>
+        <v>0.0570855</v>
       </c>
       <c r="F5" t="n">
-        <v>0.066339</v>
+        <v>0.0648252</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.06644609999999999</v>
+        <v>0.06782299999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.077348</v>
+        <v>0.0726383</v>
       </c>
       <c r="D6" t="n">
-        <v>0.111813</v>
+        <v>0.114869</v>
       </c>
       <c r="E6" t="n">
-        <v>0.056666</v>
+        <v>0.0591787</v>
       </c>
       <c r="F6" t="n">
-        <v>0.063337</v>
+        <v>0.0658055</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0707134</v>
+        <v>0.06795039999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0747734</v>
+        <v>0.0718401</v>
       </c>
       <c r="D7" t="n">
-        <v>0.09100129999999999</v>
+        <v>0.0896499</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0629</v>
+        <v>0.0614531</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06934510000000001</v>
+        <v>0.0702209</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0680887</v>
+        <v>0.0687786</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0735876</v>
+        <v>0.0725339</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0937233</v>
+        <v>0.09130439999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0676543</v>
+        <v>0.0644482</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0692128</v>
+        <v>0.0676817</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0691625</v>
+        <v>0.069837</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0740883</v>
+        <v>0.0753364</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0901255</v>
+        <v>0.0944136</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0578803</v>
+        <v>0.0604301</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0683787</v>
+        <v>0.0697927</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0738858</v>
+        <v>0.07569919999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0792254</v>
+        <v>0.08175250000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0957527</v>
+        <v>0.0961188</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0576328</v>
+        <v>0.0584913</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0682014</v>
+        <v>0.0678199</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0735176</v>
+        <v>0.07460890000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0855339</v>
+        <v>0.08002289999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.09354700000000001</v>
+        <v>0.09790939999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0578755</v>
+        <v>0.0579693</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0681392</v>
+        <v>0.068609</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.07453510000000001</v>
+        <v>0.0745899</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0813735</v>
+        <v>0.0792707</v>
       </c>
       <c r="D12" t="n">
-        <v>0.09773229999999999</v>
+        <v>0.100199</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0595164</v>
+        <v>0.0583005</v>
       </c>
       <c r="F12" t="n">
-        <v>0.06727080000000001</v>
+        <v>0.06812849999999999</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0774524</v>
+        <v>0.0746136</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0775691</v>
+        <v>0.0801761</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0953032</v>
+        <v>0.103062</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0573652</v>
+        <v>0.0592013</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0663422</v>
+        <v>0.0705214</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0717613</v>
+        <v>0.0749157</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0765373</v>
+        <v>0.0802442</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0985935</v>
+        <v>0.103965</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0568291</v>
+        <v>0.0581808</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0664599</v>
+        <v>0.068643</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.071133</v>
+        <v>0.0727865</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0758378</v>
+        <v>0.07776420000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>0.101476</v>
+        <v>0.106228</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0579954</v>
+        <v>0.0581409</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0671151</v>
+        <v>0.0667923</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.07265530000000001</v>
+        <v>0.0717854</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0765522</v>
+        <v>0.07618709999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>0.106271</v>
+        <v>0.107758</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0580764</v>
+        <v>0.0571109</v>
       </c>
       <c r="F16" t="n">
-        <v>0.06728969999999999</v>
+        <v>0.0668875</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0725619</v>
+        <v>0.0717343</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07881630000000001</v>
+        <v>0.07612380000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>0.111836</v>
+        <v>0.112104</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0599079</v>
+        <v>0.0589417</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0687355</v>
+        <v>0.06855410000000001</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0733316</v>
+        <v>0.072353</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0784538</v>
+        <v>0.07700369999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>0.114297</v>
+        <v>0.114512</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0587404</v>
+        <v>0.0591844</v>
       </c>
       <c r="F18" t="n">
-        <v>0.06746199999999999</v>
+        <v>0.0692458</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.07256609999999999</v>
+        <v>0.0753059</v>
       </c>
       <c r="C19" t="n">
-        <v>0.07719819999999999</v>
+        <v>0.07749880000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>0.114028</v>
+        <v>0.117948</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0593527</v>
+        <v>0.0604399</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0678662</v>
+        <v>0.0688889</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.07347620000000001</v>
+        <v>0.072658</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0779049</v>
+        <v>0.07916620000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.116232</v>
+        <v>0.120723</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0609217</v>
+        <v>0.0619148</v>
       </c>
       <c r="F20" t="n">
-        <v>0.07004920000000001</v>
+        <v>0.07031750000000001</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07306799999999999</v>
+        <v>0.07372040000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0820255</v>
+        <v>0.07925310000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0888067</v>
+        <v>0.0916071</v>
       </c>
       <c r="E21" t="n">
-        <v>0.06378209999999999</v>
+        <v>0.0644396</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07214</v>
+        <v>0.0731227</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.07479230000000001</v>
+        <v>0.0746276</v>
       </c>
       <c r="C22" t="n">
-        <v>0.07876180000000001</v>
+        <v>0.0835457</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0905721</v>
+        <v>0.0957639</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0686214</v>
+        <v>0.0685809</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0758127</v>
+        <v>0.0769345</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.076348</v>
+        <v>0.07601330000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0823981</v>
+        <v>0.0826113</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0928619</v>
+        <v>0.0959223</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0625293</v>
+        <v>0.0611159</v>
       </c>
       <c r="F23" t="n">
-        <v>0.07295939999999999</v>
+        <v>0.0722888</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0789145</v>
+        <v>0.0787026</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0853158</v>
+        <v>0.08599900000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0949513</v>
+        <v>0.0979455</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0618628</v>
+        <v>0.0615247</v>
       </c>
       <c r="F24" t="n">
-        <v>0.07214669999999999</v>
+        <v>0.0741885</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0784407</v>
+        <v>0.0815809</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0866639</v>
+        <v>0.08783150000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0989389</v>
+        <v>0.101565</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0622724</v>
+        <v>0.0626477</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0739944</v>
+        <v>0.0740359</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.08269020000000001</v>
+        <v>0.078403</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0933143</v>
+        <v>0.0872516</v>
       </c>
       <c r="D26" t="n">
-        <v>0.100635</v>
+        <v>0.104238</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0620429</v>
+        <v>0.0620201</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0730324</v>
+        <v>0.073381</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.07909529999999999</v>
+        <v>0.07796350000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0874943</v>
+        <v>0.0867797</v>
       </c>
       <c r="D27" t="n">
-        <v>0.105885</v>
+        <v>0.106553</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0634579</v>
+        <v>0.0617799</v>
       </c>
       <c r="F27" t="n">
-        <v>0.07412199999999999</v>
+        <v>0.07337150000000001</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.07768559999999999</v>
+        <v>0.0781198</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0866017</v>
+        <v>0.08639620000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>0.108865</v>
+        <v>0.110991</v>
       </c>
       <c r="E28" t="n">
-        <v>0.06494229999999999</v>
+        <v>0.06277729999999999</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0748268</v>
+        <v>0.0755049</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0795332</v>
+        <v>0.0789895</v>
       </c>
       <c r="C29" t="n">
-        <v>0.087075</v>
+        <v>0.0866451</v>
       </c>
       <c r="D29" t="n">
-        <v>0.115633</v>
+        <v>0.116084</v>
       </c>
       <c r="E29" t="n">
-        <v>0.06289690000000001</v>
+        <v>0.062379</v>
       </c>
       <c r="F29" t="n">
-        <v>0.07514</v>
+        <v>0.0742501</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0814841</v>
+        <v>0.07885449999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0887836</v>
+        <v>0.0874518</v>
       </c>
       <c r="D30" t="n">
-        <v>0.117181</v>
+        <v>0.118946</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0636332</v>
+        <v>0.0632264</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0761944</v>
+        <v>0.07656250000000001</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.07888920000000001</v>
+        <v>0.0794238</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0869202</v>
+        <v>0.08851439999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>0.120293</v>
+        <v>0.122162</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0644175</v>
+        <v>0.06537080000000001</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07528</v>
+        <v>0.0755692</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0782709</v>
+        <v>0.0787093</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0908896</v>
+        <v>0.0874983</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1235</v>
+        <v>0.125105</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0648348</v>
+        <v>0.0641236</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0779503</v>
+        <v>0.0774271</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0807254</v>
+        <v>0.0798199</v>
       </c>
       <c r="C33" t="n">
-        <v>0.08918329999999999</v>
+        <v>0.08964519999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>0.125646</v>
+        <v>0.133085</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0657982</v>
+        <v>0.0656646</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0786236</v>
+        <v>0.07865750000000001</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.08017349999999999</v>
+        <v>0.0798093</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0891783</v>
+        <v>0.0896067</v>
       </c>
       <c r="D34" t="n">
-        <v>0.130637</v>
+        <v>0.135741</v>
       </c>
       <c r="E34" t="n">
-        <v>0.06654590000000001</v>
+        <v>0.06673469999999999</v>
       </c>
       <c r="F34" t="n">
-        <v>0.082231</v>
+        <v>0.079913</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.08075649999999999</v>
+        <v>0.08107</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0919489</v>
+        <v>0.0929581</v>
       </c>
       <c r="D35" t="n">
-        <v>0.112685</v>
+        <v>0.112004</v>
       </c>
       <c r="E35" t="n">
-        <v>0.07027890000000001</v>
+        <v>0.0700703</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0832193</v>
+        <v>0.0820597</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0874472</v>
+        <v>0.08179259999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0901561</v>
+        <v>0.09200800000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>0.111763</v>
+        <v>0.112101</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0723187</v>
+        <v>0.0732435</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0853351</v>
+        <v>0.0860947</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0837562</v>
+        <v>0.0844917</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0939695</v>
+        <v>0.09348670000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>0.115434</v>
+        <v>0.115236</v>
       </c>
       <c r="E37" t="n">
-        <v>0.06788710000000001</v>
+        <v>0.06825580000000001</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0796405</v>
+        <v>0.0814096</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0980361</v>
+        <v>0.0960154</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0980326</v>
+        <v>0.09727429999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>0.118216</v>
+        <v>0.12464</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0692729</v>
+        <v>0.0683163</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0818222</v>
+        <v>0.0804528</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0987396</v>
+        <v>0.09545339999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0963855</v>
+        <v>0.0971096</v>
       </c>
       <c r="D39" t="n">
-        <v>0.126348</v>
+        <v>0.127876</v>
       </c>
       <c r="E39" t="n">
-        <v>0.06843680000000001</v>
+        <v>0.06848120000000001</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0808775</v>
+        <v>0.0833494</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0960193</v>
+        <v>0.0960124</v>
       </c>
       <c r="C40" t="n">
-        <v>0.098121</v>
+        <v>0.0969322</v>
       </c>
       <c r="D40" t="n">
-        <v>0.130025</v>
+        <v>0.129875</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0686229</v>
+        <v>0.0690436</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0827695</v>
+        <v>0.0815926</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.09836739999999999</v>
+        <v>0.100037</v>
       </c>
       <c r="C41" t="n">
-        <v>0.099027</v>
+        <v>0.0985718</v>
       </c>
       <c r="D41" t="n">
-        <v>0.132678</v>
+        <v>0.136335</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0693756</v>
+        <v>0.0697624</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0854205</v>
+        <v>0.0835094</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0986197</v>
+        <v>0.09616039999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>0.10326</v>
+        <v>0.09877519999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>0.139043</v>
+        <v>0.140309</v>
       </c>
       <c r="E42" t="n">
-        <v>0.06969590000000001</v>
+        <v>0.06938610000000001</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0828979</v>
+        <v>0.0849439</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.09590410000000001</v>
+        <v>0.0960169</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0991192</v>
+        <v>0.09891519999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>0.141976</v>
+        <v>0.144501</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0701985</v>
+        <v>0.06956030000000001</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0860495</v>
+        <v>0.08426309999999999</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.09726509999999999</v>
+        <v>0.0962977</v>
       </c>
       <c r="C44" t="n">
-        <v>0.09998310000000001</v>
+        <v>0.102153</v>
       </c>
       <c r="D44" t="n">
-        <v>0.147831</v>
+        <v>0.151343</v>
       </c>
       <c r="E44" t="n">
-        <v>0.070755</v>
+        <v>0.0705363</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08620650000000001</v>
+        <v>0.08531030000000001</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.100022</v>
+        <v>0.0959829</v>
       </c>
       <c r="C45" t="n">
-        <v>0.100722</v>
+        <v>0.101772</v>
       </c>
       <c r="D45" t="n">
-        <v>0.1537</v>
+        <v>0.157834</v>
       </c>
       <c r="E45" t="n">
-        <v>0.07277599999999999</v>
+        <v>0.07084989999999999</v>
       </c>
       <c r="F45" t="n">
-        <v>0.08753759999999999</v>
+        <v>0.0879596</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0976472</v>
+        <v>0.09788719999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>0.102162</v>
+        <v>0.104351</v>
       </c>
       <c r="D46" t="n">
-        <v>0.156981</v>
+        <v>0.16224</v>
       </c>
       <c r="E46" t="n">
-        <v>0.07671119999999999</v>
+        <v>0.071538</v>
       </c>
       <c r="F46" t="n">
-        <v>0.09378930000000001</v>
+        <v>0.08918760000000001</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.104928</v>
+        <v>0.0971031</v>
       </c>
       <c r="C47" t="n">
-        <v>0.106259</v>
+        <v>0.103263</v>
       </c>
       <c r="D47" t="n">
-        <v>0.165853</v>
+        <v>0.170032</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0754673</v>
+        <v>0.0726571</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0894117</v>
+        <v>0.0899237</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.09996289999999999</v>
+        <v>0.0975946</v>
       </c>
       <c r="C48" t="n">
-        <v>0.106214</v>
+        <v>0.102747</v>
       </c>
       <c r="D48" t="n">
-        <v>0.170298</v>
+        <v>0.174894</v>
       </c>
       <c r="E48" t="n">
-        <v>0.07383240000000001</v>
+        <v>0.0739566</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0961497</v>
+        <v>0.0937418</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.099284</v>
+        <v>0.100303</v>
       </c>
       <c r="C49" t="n">
-        <v>0.109071</v>
+        <v>0.111007</v>
       </c>
       <c r="D49" t="n">
-        <v>0.179926</v>
+        <v>0.180623</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0768952</v>
+        <v>0.0783591</v>
       </c>
       <c r="F49" t="n">
-        <v>0.097901</v>
+        <v>0.102053</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.10474</v>
+        <v>0.100843</v>
       </c>
       <c r="C50" t="n">
-        <v>0.116315</v>
+        <v>0.114225</v>
       </c>
       <c r="D50" t="n">
-        <v>0.167615</v>
+        <v>0.173691</v>
       </c>
       <c r="E50" t="n">
-        <v>0.07904029999999999</v>
+        <v>0.0802456</v>
       </c>
       <c r="F50" t="n">
-        <v>0.102627</v>
+        <v>0.111173</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.102188</v>
+        <v>0.101623</v>
       </c>
       <c r="C51" t="n">
-        <v>0.116215</v>
+        <v>0.121907</v>
       </c>
       <c r="D51" t="n">
-        <v>0.172166</v>
+        <v>0.179737</v>
       </c>
       <c r="E51" t="n">
-        <v>0.158015</v>
+        <v>0.157521</v>
       </c>
       <c r="F51" t="n">
-        <v>0.121326</v>
+        <v>0.133736</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.106361</v>
+        <v>0.108258</v>
       </c>
       <c r="C52" t="n">
-        <v>0.121259</v>
+        <v>0.128685</v>
       </c>
       <c r="D52" t="n">
-        <v>0.176593</v>
+        <v>0.184322</v>
       </c>
       <c r="E52" t="n">
-        <v>0.156144</v>
+        <v>0.15587</v>
       </c>
       <c r="F52" t="n">
-        <v>0.122874</v>
+        <v>0.13659</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.17302</v>
+        <v>0.173412</v>
       </c>
       <c r="C53" t="n">
-        <v>0.156852</v>
+        <v>0.15262</v>
       </c>
       <c r="D53" t="n">
-        <v>0.183475</v>
+        <v>0.186086</v>
       </c>
       <c r="E53" t="n">
-        <v>0.15722</v>
+        <v>0.1568</v>
       </c>
       <c r="F53" t="n">
-        <v>0.128684</v>
+        <v>0.131584</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.175427</v>
+        <v>0.180754</v>
       </c>
       <c r="C54" t="n">
-        <v>0.155695</v>
+        <v>0.180033</v>
       </c>
       <c r="D54" t="n">
-        <v>0.194266</v>
+        <v>0.197903</v>
       </c>
       <c r="E54" t="n">
-        <v>0.15771</v>
+        <v>0.15926</v>
       </c>
       <c r="F54" t="n">
-        <v>0.128824</v>
+        <v>0.144741</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.174758</v>
+        <v>0.176006</v>
       </c>
       <c r="C55" t="n">
-        <v>0.159455</v>
+        <v>0.177575</v>
       </c>
       <c r="D55" t="n">
-        <v>0.197951</v>
+        <v>0.198118</v>
       </c>
       <c r="E55" t="n">
-        <v>0.158412</v>
+        <v>0.157088</v>
       </c>
       <c r="F55" t="n">
-        <v>0.132339</v>
+        <v>0.147074</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.18104</v>
+        <v>0.1757</v>
       </c>
       <c r="C56" t="n">
-        <v>0.169594</v>
+        <v>0.185161</v>
       </c>
       <c r="D56" t="n">
-        <v>0.207323</v>
+        <v>0.215393</v>
       </c>
       <c r="E56" t="n">
-        <v>0.15614</v>
+        <v>0.15772</v>
       </c>
       <c r="F56" t="n">
-        <v>0.136146</v>
+        <v>0.154012</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.170633</v>
+        <v>0.175877</v>
       </c>
       <c r="C57" t="n">
-        <v>0.162202</v>
+        <v>0.189286</v>
       </c>
       <c r="D57" t="n">
-        <v>0.213628</v>
+        <v>0.221785</v>
       </c>
       <c r="E57" t="n">
-        <v>0.160606</v>
+        <v>0.158313</v>
       </c>
       <c r="F57" t="n">
-        <v>0.14095</v>
+        <v>0.161392</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.174263</v>
+        <v>0.175799</v>
       </c>
       <c r="C58" t="n">
-        <v>0.166901</v>
+        <v>0.193611</v>
       </c>
       <c r="D58" t="n">
-        <v>0.219593</v>
+        <v>0.232111</v>
       </c>
       <c r="E58" t="n">
-        <v>0.157619</v>
+        <v>0.159073</v>
       </c>
       <c r="F58" t="n">
-        <v>0.148271</v>
+        <v>0.161237</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.176688</v>
+        <v>0.178022</v>
       </c>
       <c r="C59" t="n">
-        <v>0.17332</v>
+        <v>0.194922</v>
       </c>
       <c r="D59" t="n">
-        <v>0.230534</v>
+        <v>0.24205</v>
       </c>
       <c r="E59" t="n">
-        <v>0.160585</v>
+        <v>0.160099</v>
       </c>
       <c r="F59" t="n">
-        <v>0.147605</v>
+        <v>0.167409</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.175212</v>
+        <v>0.176959</v>
       </c>
       <c r="C60" t="n">
-        <v>0.172601</v>
+        <v>0.199803</v>
       </c>
       <c r="D60" t="n">
-        <v>0.236348</v>
+        <v>0.247196</v>
       </c>
       <c r="E60" t="n">
-        <v>0.160029</v>
+        <v>0.158838</v>
       </c>
       <c r="F60" t="n">
-        <v>0.151508</v>
+        <v>0.167892</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.175295</v>
+        <v>0.179072</v>
       </c>
       <c r="C61" t="n">
-        <v>0.17657</v>
+        <v>0.202398</v>
       </c>
       <c r="D61" t="n">
-        <v>0.249685</v>
+        <v>0.262687</v>
       </c>
       <c r="E61" t="n">
-        <v>0.16369</v>
+        <v>0.161604</v>
       </c>
       <c r="F61" t="n">
-        <v>0.155616</v>
+        <v>0.154075</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.174823</v>
+        <v>0.177564</v>
       </c>
       <c r="C62" t="n">
-        <v>0.178846</v>
+        <v>0.208602</v>
       </c>
       <c r="D62" t="n">
-        <v>0.256827</v>
+        <v>0.27357</v>
       </c>
       <c r="E62" t="n">
-        <v>0.164944</v>
+        <v>0.163127</v>
       </c>
       <c r="F62" t="n">
-        <v>0.162471</v>
+        <v>0.1742</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.175314</v>
+        <v>0.180975</v>
       </c>
       <c r="C63" t="n">
-        <v>0.185804</v>
+        <v>0.181151</v>
       </c>
       <c r="D63" t="n">
-        <v>0.267438</v>
+        <v>0.283866</v>
       </c>
       <c r="E63" t="n">
-        <v>0.164999</v>
+        <v>0.164785</v>
       </c>
       <c r="F63" t="n">
-        <v>0.163787</v>
+        <v>0.162207</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.178209</v>
+        <v>0.179427</v>
       </c>
       <c r="C64" t="n">
-        <v>0.187153</v>
+        <v>0.188335</v>
       </c>
       <c r="D64" t="n">
-        <v>0.26723</v>
+        <v>0.288382</v>
       </c>
       <c r="E64" t="n">
-        <v>0.168209</v>
+        <v>0.166221</v>
       </c>
       <c r="F64" t="n">
-        <v>0.17151</v>
+        <v>0.178107</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.18232</v>
+        <v>0.184486</v>
       </c>
       <c r="C65" t="n">
-        <v>0.194176</v>
+        <v>0.191096</v>
       </c>
       <c r="D65" t="n">
-        <v>0.280416</v>
+        <v>0.281216</v>
       </c>
       <c r="E65" t="n">
-        <v>0.174536</v>
+        <v>0.171174</v>
       </c>
       <c r="F65" t="n">
-        <v>0.179587</v>
+        <v>0.178168</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.189845</v>
+        <v>0.182771</v>
       </c>
       <c r="C66" t="n">
-        <v>0.199732</v>
+        <v>0.198949</v>
       </c>
       <c r="D66" t="n">
-        <v>0.281169</v>
+        <v>0.283629</v>
       </c>
       <c r="E66" t="n">
-        <v>0.239114</v>
+        <v>0.243917</v>
       </c>
       <c r="F66" t="n">
-        <v>0.254208</v>
+        <v>0.252957</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.271819</v>
+        <v>0.264343</v>
       </c>
       <c r="C67" t="n">
-        <v>0.279928</v>
+        <v>0.278875</v>
       </c>
       <c r="D67" t="n">
-        <v>0.290462</v>
+        <v>0.292339</v>
       </c>
       <c r="E67" t="n">
-        <v>0.247997</v>
+        <v>0.244041</v>
       </c>
       <c r="F67" t="n">
-        <v>0.253994</v>
+        <v>0.255993</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.274579</v>
+        <v>0.268442</v>
       </c>
       <c r="C68" t="n">
-        <v>0.27955</v>
+        <v>0.281621</v>
       </c>
       <c r="D68" t="n">
-        <v>0.299173</v>
+        <v>0.299053</v>
       </c>
       <c r="E68" t="n">
-        <v>0.242837</v>
+        <v>0.250446</v>
       </c>
       <c r="F68" t="n">
-        <v>0.256272</v>
+        <v>0.278472</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.266411</v>
+        <v>0.283512</v>
       </c>
       <c r="C69" t="n">
-        <v>0.280198</v>
+        <v>0.317991</v>
       </c>
       <c r="D69" t="n">
-        <v>0.307112</v>
+        <v>0.329168</v>
       </c>
       <c r="E69" t="n">
-        <v>0.248054</v>
+        <v>0.247402</v>
       </c>
       <c r="F69" t="n">
-        <v>0.253669</v>
+        <v>0.274288</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.2712</v>
+        <v>0.304068</v>
       </c>
       <c r="C70" t="n">
-        <v>0.294288</v>
+        <v>0.281702</v>
       </c>
       <c r="D70" t="n">
-        <v>0.318177</v>
+        <v>0.334332</v>
       </c>
       <c r="E70" t="n">
-        <v>0.257433</v>
+        <v>0.250893</v>
       </c>
       <c r="F70" t="n">
-        <v>0.300337</v>
+        <v>0.258531</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.276126</v>
+        <v>0.288964</v>
       </c>
       <c r="C71" t="n">
-        <v>0.28317</v>
+        <v>0.282743</v>
       </c>
       <c r="D71" t="n">
-        <v>0.332665</v>
+        <v>0.333851</v>
       </c>
       <c r="E71" t="n">
-        <v>0.250575</v>
+        <v>0.247918</v>
       </c>
       <c r="F71" t="n">
-        <v>0.260291</v>
+        <v>0.259557</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.272586</v>
+        <v>0.276525</v>
       </c>
       <c r="C72" t="n">
-        <v>0.286758</v>
+        <v>0.286037</v>
       </c>
       <c r="D72" t="n">
-        <v>0.335208</v>
+        <v>0.334465</v>
       </c>
       <c r="E72" t="n">
-        <v>0.249558</v>
+        <v>0.249889</v>
       </c>
       <c r="F72" t="n">
-        <v>0.266011</v>
+        <v>0.283814</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.271555</v>
+        <v>0.273134</v>
       </c>
       <c r="C73" t="n">
-        <v>0.288317</v>
+        <v>0.322503</v>
       </c>
       <c r="D73" t="n">
-        <v>0.345551</v>
+        <v>0.344931</v>
       </c>
       <c r="E73" t="n">
-        <v>0.252321</v>
+        <v>0.250524</v>
       </c>
       <c r="F73" t="n">
-        <v>0.262961</v>
+        <v>0.278044</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.269704</v>
+        <v>0.2724</v>
       </c>
       <c r="C74" t="n">
-        <v>0.28531</v>
+        <v>0.324809</v>
       </c>
       <c r="D74" t="n">
-        <v>0.351129</v>
+        <v>0.377138</v>
       </c>
       <c r="E74" t="n">
-        <v>0.251182</v>
+        <v>0.255984</v>
       </c>
       <c r="F74" t="n">
-        <v>0.263764</v>
+        <v>0.286833</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.283613</v>
+        <v>0.278024</v>
       </c>
       <c r="C75" t="n">
-        <v>0.285352</v>
+        <v>0.287406</v>
       </c>
       <c r="D75" t="n">
-        <v>0.365057</v>
+        <v>0.385585</v>
       </c>
       <c r="E75" t="n">
-        <v>0.26024</v>
+        <v>0.260002</v>
       </c>
       <c r="F75" t="n">
-        <v>0.291388</v>
+        <v>0.283643</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.278585</v>
+        <v>0.286344</v>
       </c>
       <c r="C76" t="n">
-        <v>0.294532</v>
+        <v>0.290163</v>
       </c>
       <c r="D76" t="n">
-        <v>0.395247</v>
+        <v>0.40082</v>
       </c>
       <c r="E76" t="n">
-        <v>0.265014</v>
+        <v>0.257196</v>
       </c>
       <c r="F76" t="n">
-        <v>0.283333</v>
+        <v>0.276365</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.282739</v>
+        <v>0.29048</v>
       </c>
       <c r="C77" t="n">
-        <v>0.307771</v>
+        <v>0.292949</v>
       </c>
       <c r="D77" t="n">
-        <v>0.411607</v>
+        <v>0.410558</v>
       </c>
       <c r="E77" t="n">
-        <v>0.262861</v>
+        <v>0.258548</v>
       </c>
       <c r="F77" t="n">
-        <v>0.294938</v>
+        <v>0.293966</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.281616</v>
+        <v>0.286293</v>
       </c>
       <c r="C78" t="n">
-        <v>0.30924</v>
+        <v>0.295946</v>
       </c>
       <c r="D78" t="n">
-        <v>0.363044</v>
+        <v>0.361942</v>
       </c>
       <c r="E78" t="n">
-        <v>0.264989</v>
+        <v>0.26009</v>
       </c>
       <c r="F78" t="n">
-        <v>0.27666</v>
+        <v>0.304957</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.287361</v>
+        <v>0.292658</v>
       </c>
       <c r="C79" t="n">
-        <v>0.306887</v>
+        <v>0.296742</v>
       </c>
       <c r="D79" t="n">
-        <v>0.36523</v>
+        <v>0.366539</v>
       </c>
       <c r="E79" t="n">
-        <v>0.262048</v>
+        <v>0.263709</v>
       </c>
       <c r="F79" t="n">
-        <v>0.287761</v>
+        <v>0.28689</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.286954</v>
+        <v>0.292432</v>
       </c>
       <c r="C80" t="n">
-        <v>0.304636</v>
+        <v>0.303681</v>
       </c>
       <c r="D80" t="n">
-        <v>0.384424</v>
+        <v>0.373056</v>
       </c>
       <c r="E80" t="n">
-        <v>0.345016</v>
+        <v>0.349739</v>
       </c>
       <c r="F80" t="n">
-        <v>0.394162</v>
+        <v>0.395715</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.36615</v>
+        <v>0.362664</v>
       </c>
       <c r="C81" t="n">
-        <v>0.400621</v>
+        <v>0.399769</v>
       </c>
       <c r="D81" t="n">
-        <v>0.386717</v>
+        <v>0.383709</v>
       </c>
       <c r="E81" t="n">
-        <v>0.353436</v>
+        <v>0.351293</v>
       </c>
       <c r="F81" t="n">
-        <v>0.404458</v>
+        <v>0.4011</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.376728</v>
+        <v>0.366256</v>
       </c>
       <c r="C82" t="n">
-        <v>0.420203</v>
+        <v>0.402382</v>
       </c>
       <c r="D82" t="n">
-        <v>0.402469</v>
+        <v>0.396358</v>
       </c>
       <c r="E82" t="n">
-        <v>0.365134</v>
+        <v>0.351366</v>
       </c>
       <c r="F82" t="n">
-        <v>0.414032</v>
+        <v>0.398613</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.364376</v>
+        <v>0.366014</v>
       </c>
       <c r="C83" t="n">
-        <v>0.414488</v>
+        <v>0.402442</v>
       </c>
       <c r="D83" t="n">
-        <v>0.399873</v>
+        <v>0.399223</v>
       </c>
       <c r="E83" t="n">
-        <v>0.347286</v>
+        <v>0.346615</v>
       </c>
       <c r="F83" t="n">
-        <v>0.402977</v>
+        <v>0.398772</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.365742</v>
+        <v>0.362863</v>
       </c>
       <c r="C84" t="n">
-        <v>0.406445</v>
+        <v>0.403676</v>
       </c>
       <c r="D84" t="n">
-        <v>0.405591</v>
+        <v>0.408528</v>
       </c>
       <c r="E84" t="n">
-        <v>0.350451</v>
+        <v>0.346774</v>
       </c>
       <c r="F84" t="n">
-        <v>0.404662</v>
+        <v>0.410919</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.367122</v>
+        <v>0.362635</v>
       </c>
       <c r="C85" t="n">
-        <v>0.410169</v>
+        <v>0.404622</v>
       </c>
       <c r="D85" t="n">
-        <v>0.423028</v>
+        <v>0.417386</v>
       </c>
       <c r="E85" t="n">
-        <v>0.356851</v>
+        <v>0.353622</v>
       </c>
       <c r="F85" t="n">
-        <v>0.401761</v>
+        <v>0.41632</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.368149</v>
+        <v>0.367089</v>
       </c>
       <c r="C86" t="n">
-        <v>0.410434</v>
+        <v>0.408707</v>
       </c>
       <c r="D86" t="n">
-        <v>0.424594</v>
+        <v>0.430499</v>
       </c>
       <c r="E86" t="n">
-        <v>0.348326</v>
+        <v>0.354505</v>
       </c>
       <c r="F86" t="n">
-        <v>0.40881</v>
+        <v>0.406805</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.370426</v>
+        <v>0.367227</v>
       </c>
       <c r="C87" t="n">
-        <v>0.416382</v>
+        <v>0.409637</v>
       </c>
       <c r="D87" t="n">
-        <v>0.441083</v>
+        <v>0.439873</v>
       </c>
       <c r="E87" t="n">
-        <v>0.358378</v>
+        <v>0.351108</v>
       </c>
       <c r="F87" t="n">
-        <v>0.405707</v>
+        <v>0.409898</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.36864</v>
+        <v>0.369241</v>
       </c>
       <c r="C88" t="n">
-        <v>0.412375</v>
+        <v>0.413668</v>
       </c>
       <c r="D88" t="n">
-        <v>0.449984</v>
+        <v>0.452173</v>
       </c>
       <c r="E88" t="n">
-        <v>0.353609</v>
+        <v>0.35936</v>
       </c>
       <c r="F88" t="n">
-        <v>0.417608</v>
+        <v>0.411469</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.370041</v>
+        <v>0.37169</v>
       </c>
       <c r="C89" t="n">
-        <v>0.42083</v>
+        <v>0.414846</v>
       </c>
       <c r="D89" t="n">
-        <v>0.463138</v>
+        <v>0.463552</v>
       </c>
       <c r="E89" t="n">
-        <v>0.361144</v>
+        <v>0.358566</v>
       </c>
       <c r="F89" t="n">
-        <v>0.415917</v>
+        <v>0.413687</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.369388</v>
+        <v>0.367765</v>
       </c>
       <c r="C90" t="n">
-        <v>0.413397</v>
+        <v>0.433307</v>
       </c>
       <c r="D90" t="n">
-        <v>0.467936</v>
+        <v>0.485345</v>
       </c>
       <c r="E90" t="n">
-        <v>0.354794</v>
+        <v>0.359259</v>
       </c>
       <c r="F90" t="n">
-        <v>0.418676</v>
+        <v>0.434782</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.372367</v>
+        <v>0.370829</v>
       </c>
       <c r="C91" t="n">
-        <v>0.419773</v>
+        <v>0.420091</v>
       </c>
       <c r="D91" t="n">
-        <v>0.5145380000000001</v>
+        <v>0.491466</v>
       </c>
       <c r="E91" t="n">
-        <v>0.358262</v>
+        <v>0.355757</v>
       </c>
       <c r="F91" t="n">
-        <v>0.420366</v>
+        <v>0.420795</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.371791</v>
+        <v>0.372094</v>
       </c>
       <c r="C92" t="n">
-        <v>0.426702</v>
+        <v>0.436878</v>
       </c>
       <c r="D92" t="n">
-        <v>0.42798</v>
+        <v>0.429363</v>
       </c>
       <c r="E92" t="n">
-        <v>0.374001</v>
+        <v>0.364271</v>
       </c>
       <c r="F92" t="n">
-        <v>0.423088</v>
+        <v>0.423906</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.381331</v>
+        <v>0.373211</v>
       </c>
       <c r="C93" t="n">
-        <v>0.456392</v>
+        <v>0.430289</v>
       </c>
       <c r="D93" t="n">
-        <v>0.433928</v>
+        <v>0.433905</v>
       </c>
       <c r="E93" t="n">
-        <v>0.363332</v>
+        <v>0.362278</v>
       </c>
       <c r="F93" t="n">
-        <v>0.433002</v>
+        <v>0.43557</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.380155</v>
+        <v>0.375525</v>
       </c>
       <c r="C94" t="n">
-        <v>0.439285</v>
+        <v>0.446644</v>
       </c>
       <c r="D94" t="n">
-        <v>0.440269</v>
+        <v>0.45793</v>
       </c>
       <c r="E94" t="n">
-        <v>0.440356</v>
+        <v>0.443433</v>
       </c>
       <c r="F94" t="n">
-        <v>0.502391</v>
+        <v>0.504529</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.451814</v>
+        <v>0.450068</v>
       </c>
       <c r="C95" t="n">
-        <v>0.499804</v>
+        <v>0.501562</v>
       </c>
       <c r="D95" t="n">
-        <v>0.449908</v>
+        <v>0.46546</v>
       </c>
       <c r="E95" t="n">
-        <v>0.437971</v>
+        <v>0.449972</v>
       </c>
       <c r="F95" t="n">
-        <v>0.50734</v>
+        <v>0.50679</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.451678</v>
+        <v>0.447272</v>
       </c>
       <c r="C96" t="n">
-        <v>0.503407</v>
+        <v>0.50326</v>
       </c>
       <c r="D96" t="n">
-        <v>0.467819</v>
+        <v>0.480079</v>
       </c>
       <c r="E96" t="n">
-        <v>0.445728</v>
+        <v>0.450828</v>
       </c>
       <c r="F96" t="n">
-        <v>0.510984</v>
+        <v>0.510988</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.450348</v>
+        <v>0.446314</v>
       </c>
       <c r="C97" t="n">
-        <v>0.552235</v>
+        <v>0.5147929999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>0.47717</v>
+        <v>0.492686</v>
       </c>
       <c r="E97" t="n">
-        <v>0.451817</v>
+        <v>0.464268</v>
       </c>
       <c r="F97" t="n">
-        <v>0.520334</v>
+        <v>0.516536</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.46254</v>
+        <v>0.464058</v>
       </c>
       <c r="C98" t="n">
-        <v>0.503022</v>
+        <v>0.510548</v>
       </c>
       <c r="D98" t="n">
-        <v>0.473946</v>
+        <v>0.483635</v>
       </c>
       <c r="E98" t="n">
-        <v>0.444849</v>
+        <v>0.442272</v>
       </c>
       <c r="F98" t="n">
-        <v>0.507361</v>
+        <v>0.509291</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.44818</v>
+        <v>0.446948</v>
       </c>
       <c r="C99" t="n">
-        <v>0.501903</v>
+        <v>0.503731</v>
       </c>
       <c r="D99" t="n">
-        <v>0.484823</v>
+        <v>0.500544</v>
       </c>
       <c r="E99" t="n">
-        <v>0.451115</v>
+        <v>0.442941</v>
       </c>
       <c r="F99" t="n">
-        <v>0.526993</v>
+        <v>0.512298</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.453658</v>
+        <v>0.442835</v>
       </c>
       <c r="C100" t="n">
-        <v>0.512997</v>
+        <v>0.503252</v>
       </c>
       <c r="D100" t="n">
-        <v>0.501726</v>
+        <v>0.50057</v>
       </c>
       <c r="E100" t="n">
-        <v>0.451703</v>
+        <v>0.441978</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5240320000000001</v>
+        <v>0.512547</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.446723</v>
+        <v>0.461555</v>
       </c>
       <c r="C101" t="n">
-        <v>0.504782</v>
+        <v>0.504659</v>
       </c>
       <c r="D101" t="n">
-        <v>0.5081599999999999</v>
+        <v>0.5116039999999999</v>
       </c>
       <c r="E101" t="n">
-        <v>0.446838</v>
+        <v>0.446332</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5184029999999999</v>
+        <v>0.5227000000000001</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.448327</v>
+        <v>0.453803</v>
       </c>
       <c r="C102" t="n">
-        <v>0.507987</v>
+        <v>0.506749</v>
       </c>
       <c r="D102" t="n">
-        <v>0.533505</v>
+        <v>0.526305</v>
       </c>
       <c r="E102" t="n">
-        <v>0.451688</v>
+        <v>0.445677</v>
       </c>
       <c r="F102" t="n">
-        <v>0.518198</v>
+        <v>0.517241</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.446311</v>
+        <v>0.445625</v>
       </c>
       <c r="C103" t="n">
-        <v>0.512611</v>
+        <v>0.510347</v>
       </c>
       <c r="D103" t="n">
-        <v>0.537923</v>
+        <v>0.533087</v>
       </c>
       <c r="E103" t="n">
-        <v>0.454781</v>
+        <v>0.44841</v>
       </c>
       <c r="F103" t="n">
-        <v>0.537457</v>
+        <v>0.524389</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.452516</v>
+        <v>0.447554</v>
       </c>
       <c r="C104" t="n">
-        <v>0.516093</v>
+        <v>0.512277</v>
       </c>
       <c r="D104" t="n">
-        <v>0.550241</v>
+        <v>0.548623</v>
       </c>
       <c r="E104" t="n">
-        <v>0.454169</v>
+        <v>0.45888</v>
       </c>
       <c r="F104" t="n">
-        <v>0.563847</v>
+        <v>0.5283910000000001</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.454291</v>
+        <v>0.449652</v>
       </c>
       <c r="C105" t="n">
-        <v>0.520106</v>
+        <v>0.5163720000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>0.565426</v>
+        <v>0.5622509999999999</v>
       </c>
       <c r="E105" t="n">
-        <v>0.460942</v>
+        <v>0.450517</v>
       </c>
       <c r="F105" t="n">
-        <v>0.542291</v>
+        <v>0.528624</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.460254</v>
+        <v>0.44919</v>
       </c>
       <c r="C106" t="n">
-        <v>0.548234</v>
+        <v>0.5209819999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>0.571486</v>
+        <v>0.576829</v>
       </c>
       <c r="E106" t="n">
-        <v>0.45106</v>
+        <v>0.457112</v>
       </c>
       <c r="F106" t="n">
-        <v>0.531104</v>
+        <v>0.538339</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.465966</v>
+        <v>0.466363</v>
       </c>
       <c r="C107" t="n">
-        <v>0.530733</v>
+        <v>0.524472</v>
       </c>
       <c r="D107" t="n">
-        <v>0.48537</v>
+        <v>0.486098</v>
       </c>
       <c r="E107" t="n">
-        <v>0.458631</v>
+        <v>0.483933</v>
       </c>
       <c r="F107" t="n">
-        <v>0.541585</v>
+        <v>0.545388</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.456562</v>
+        <v>0.453788</v>
       </c>
       <c r="C108" t="n">
-        <v>0.5379350000000001</v>
+        <v>0.533121</v>
       </c>
       <c r="D108" t="n">
-        <v>0.493606</v>
+        <v>0.501455</v>
       </c>
       <c r="E108" t="n">
-        <v>0.519265</v>
+        <v>0.531689</v>
       </c>
       <c r="F108" t="n">
-        <v>0.624939</v>
+        <v>0.5880570000000001</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.466091</v>
+        <v>0.464912</v>
       </c>
       <c r="C109" t="n">
-        <v>0.547787</v>
+        <v>0.565316</v>
       </c>
       <c r="D109" t="n">
-        <v>0.509262</v>
+        <v>0.52817</v>
       </c>
       <c r="E109" t="n">
-        <v>0.540243</v>
+        <v>0.521392</v>
       </c>
       <c r="F109" t="n">
-        <v>0.593176</v>
+        <v>0.581351</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.555215</v>
+        <v>0.542784</v>
       </c>
       <c r="C110" t="n">
-        <v>0.594234</v>
+        <v>0.59473</v>
       </c>
       <c r="D110" t="n">
-        <v>0.519447</v>
+        <v>0.5280049999999999</v>
       </c>
       <c r="E110" t="n">
-        <v>0.528478</v>
+        <v>0.527898</v>
       </c>
       <c r="F110" t="n">
-        <v>0.593749</v>
+        <v>0.586305</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.552532</v>
+        <v>0.549041</v>
       </c>
       <c r="C111" t="n">
-        <v>0.613722</v>
+        <v>0.589229</v>
       </c>
       <c r="D111" t="n">
-        <v>0.531563</v>
+        <v>0.530644</v>
       </c>
       <c r="E111" t="n">
-        <v>0.5246960000000001</v>
+        <v>0.522143</v>
       </c>
       <c r="F111" t="n">
-        <v>0.586037</v>
+        <v>0.585747</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.547005</v>
+        <v>0.542821</v>
       </c>
       <c r="C112" t="n">
-        <v>0.602448</v>
+        <v>0.598133</v>
       </c>
       <c r="D112" t="n">
-        <v>0.542456</v>
+        <v>0.544415</v>
       </c>
       <c r="E112" t="n">
-        <v>0.531438</v>
+        <v>0.557499</v>
       </c>
       <c r="F112" t="n">
-        <v>0.594866</v>
+        <v>0.58955</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.549642</v>
+        <v>0.546562</v>
       </c>
       <c r="C113" t="n">
-        <v>0.603866</v>
+        <v>0.599437</v>
       </c>
       <c r="D113" t="n">
-        <v>0.558007</v>
+        <v>0.581105</v>
       </c>
       <c r="E113" t="n">
-        <v>0.536043</v>
+        <v>0.530788</v>
       </c>
       <c r="F113" t="n">
-        <v>0.613222</v>
+        <v>0.613854</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.550095</v>
+        <v>0.55793</v>
       </c>
       <c r="C114" t="n">
-        <v>0.616971</v>
+        <v>0.616286</v>
       </c>
       <c r="D114" t="n">
-        <v>0.575209</v>
+        <v>0.59413</v>
       </c>
       <c r="E114" t="n">
-        <v>0.525469</v>
+        <v>0.537139</v>
       </c>
       <c r="F114" t="n">
-        <v>0.61766</v>
+        <v>0.604166</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.565026</v>
+        <v>0.546331</v>
       </c>
       <c r="C115" t="n">
-        <v>0.609507</v>
+        <v>0.592831</v>
       </c>
       <c r="D115" t="n">
-        <v>0.5893119999999999</v>
+        <v>0.577583</v>
       </c>
       <c r="E115" t="n">
-        <v>0.5569190000000001</v>
+        <v>0.527792</v>
       </c>
       <c r="F115" t="n">
-        <v>0.602733</v>
+        <v>0.594085</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.550733</v>
+        <v>0.545417</v>
       </c>
       <c r="C116" t="n">
-        <v>0.600043</v>
+        <v>0.608038</v>
       </c>
       <c r="D116" t="n">
-        <v>0.589074</v>
+        <v>0.5887289999999999</v>
       </c>
       <c r="E116" t="n">
-        <v>0.527459</v>
+        <v>0.539494</v>
       </c>
       <c r="F116" t="n">
-        <v>0.609537</v>
+        <v>0.608726</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.543577</v>
+        <v>0.553277</v>
       </c>
       <c r="C117" t="n">
-        <v>0.612857</v>
+        <v>0.607476</v>
       </c>
       <c r="D117" t="n">
-        <v>0.605079</v>
+        <v>0.607654</v>
       </c>
       <c r="E117" t="n">
-        <v>0.534816</v>
+        <v>0.529569</v>
       </c>
       <c r="F117" t="n">
-        <v>0.605445</v>
+        <v>0.602023</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.549354</v>
+        <v>0.546628</v>
       </c>
       <c r="C118" t="n">
-        <v>0.615166</v>
+        <v>0.600479</v>
       </c>
       <c r="D118" t="n">
-        <v>0.6200870000000001</v>
+        <v>0.612504</v>
       </c>
       <c r="E118" t="n">
-        <v>0.550054</v>
+        <v>0.528401</v>
       </c>
       <c r="F118" t="n">
-        <v>0.620227</v>
+        <v>0.606867</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.558074</v>
+        <v>0.55097</v>
       </c>
       <c r="C119" t="n">
-        <v>0.6204499999999999</v>
+        <v>0.6150640000000001</v>
       </c>
       <c r="D119" t="n">
-        <v>0.631775</v>
+        <v>0.66539</v>
       </c>
       <c r="E119" t="n">
-        <v>0.562074</v>
+        <v>0.539347</v>
       </c>
       <c r="F119" t="n">
-        <v>0.624055</v>
+        <v>0.624839</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.551726</v>
+        <v>0.555358</v>
       </c>
       <c r="C120" t="n">
-        <v>0.615416</v>
+        <v>0.613742</v>
       </c>
       <c r="D120" t="n">
-        <v>0.667928</v>
+        <v>0.638406</v>
       </c>
       <c r="E120" t="n">
-        <v>0.5394099999999999</v>
+        <v>0.534689</v>
       </c>
       <c r="F120" t="n">
-        <v>0.626799</v>
+        <v>0.622437</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.555392</v>
+        <v>0.547318</v>
       </c>
       <c r="C121" t="n">
-        <v>0.624325</v>
+        <v>0.620138</v>
       </c>
       <c r="D121" t="n">
-        <v>0.567997</v>
+        <v>0.558029</v>
       </c>
       <c r="E121" t="n">
-        <v>0.5576719999999999</v>
+        <v>0.539032</v>
       </c>
       <c r="F121" t="n">
-        <v>0.630547</v>
+        <v>0.62898</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.562196</v>
+        <v>0.560504</v>
       </c>
       <c r="C122" t="n">
-        <v>0.634574</v>
+        <v>0.636876</v>
       </c>
       <c r="D122" t="n">
-        <v>0.572229</v>
+        <v>0.568935</v>
       </c>
       <c r="E122" t="n">
-        <v>0.546076</v>
+        <v>0.5718529999999999</v>
       </c>
       <c r="F122" t="n">
-        <v>0.646409</v>
+        <v>0.642853</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.605278</v>
+        <v>0.566097</v>
       </c>
       <c r="C123" t="n">
-        <v>0.636082</v>
+        <v>0.634254</v>
       </c>
       <c r="D123" t="n">
-        <v>0.585565</v>
+        <v>0.583492</v>
       </c>
       <c r="E123" t="n">
-        <v>0.647146</v>
+        <v>0.643868</v>
       </c>
       <c r="F123" t="n">
-        <v>0.661397</v>
+        <v>0.683514</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.710421</v>
+        <v>0.702744</v>
       </c>
       <c r="C124" t="n">
-        <v>0.714089</v>
+        <v>0.711495</v>
       </c>
       <c r="D124" t="n">
-        <v>0.597669</v>
+        <v>0.599932</v>
       </c>
       <c r="E124" t="n">
-        <v>0.648715</v>
+        <v>0.6541979999999999</v>
       </c>
       <c r="F124" t="n">
-        <v>0.656258</v>
+        <v>0.671789</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.717628</v>
+        <v>0.705971</v>
       </c>
       <c r="C125" t="n">
-        <v>0.722108</v>
+        <v>0.717344</v>
       </c>
       <c r="D125" t="n">
-        <v>0.621834</v>
+        <v>0.610897</v>
       </c>
       <c r="E125" t="n">
-        <v>0.664129</v>
+        <v>0.648167</v>
       </c>
       <c r="F125" t="n">
-        <v>0.672414</v>
+        <v>0.680503</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.715767</v>
+        <v>0.72693</v>
       </c>
       <c r="C126" t="n">
-        <v>0.720697</v>
+        <v>0.716963</v>
       </c>
       <c r="D126" t="n">
-        <v>0.626394</v>
+        <v>0.621296</v>
       </c>
       <c r="E126" t="n">
-        <v>0.6551129999999999</v>
+        <v>0.647495</v>
       </c>
       <c r="F126" t="n">
-        <v>0.663007</v>
+        <v>0.664179</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.73151</v>
+        <v>0.714693</v>
       </c>
       <c r="C127" t="n">
-        <v>0.720724</v>
+        <v>0.717853</v>
       </c>
       <c r="D127" t="n">
-        <v>0.633161</v>
+        <v>0.630975</v>
       </c>
       <c r="E127" t="n">
-        <v>0.647365</v>
+        <v>0.677309</v>
       </c>
       <c r="F127" t="n">
-        <v>0.67916</v>
+        <v>0.671699</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.708017</v>
+        <v>0.705581</v>
       </c>
       <c r="C128" t="n">
-        <v>0.717431</v>
+        <v>0.715322</v>
       </c>
       <c r="D128" t="n">
-        <v>0.644263</v>
+        <v>0.663376</v>
       </c>
       <c r="E128" t="n">
-        <v>0.659677</v>
+        <v>0.658724</v>
       </c>
       <c r="F128" t="n">
-        <v>0.66478</v>
+        <v>0.6856680000000001</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.7510829999999999</v>
+        <v>0.736475</v>
       </c>
       <c r="C129" t="n">
-        <v>0.723279</v>
+        <v>0.7253579999999999</v>
       </c>
       <c r="D129" t="n">
-        <v>0.658361</v>
+        <v>0.661372</v>
       </c>
       <c r="E129" t="n">
-        <v>0.654853</v>
+        <v>0.658343</v>
       </c>
       <c r="F129" t="n">
-        <v>0.672916</v>
+        <v>0.6873899999999999</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.788172</v>
+        <v>0.708291</v>
       </c>
       <c r="C130" t="n">
-        <v>0.7278790000000001</v>
+        <v>0.740178</v>
       </c>
       <c r="D130" t="n">
-        <v>0.671566</v>
+        <v>0.673688</v>
       </c>
       <c r="E130" t="n">
-        <v>0.668125</v>
+        <v>0.676112</v>
       </c>
       <c r="F130" t="n">
-        <v>0.685025</v>
+        <v>0.701689</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.7088370000000001</v>
+        <v>0.713154</v>
       </c>
       <c r="C131" t="n">
-        <v>0.728779</v>
+        <v>0.720345</v>
       </c>
       <c r="D131" t="n">
-        <v>0.688142</v>
+        <v>0.681696</v>
       </c>
       <c r="E131" t="n">
-        <v>0.6531670000000001</v>
+        <v>0.661241</v>
       </c>
       <c r="F131" t="n">
-        <v>0.684275</v>
+        <v>0.685998</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.7198870000000001</v>
+        <v>0.7145319999999999</v>
       </c>
       <c r="C132" t="n">
-        <v>0.726282</v>
+        <v>0.735131</v>
       </c>
       <c r="D132" t="n">
-        <v>0.702623</v>
+        <v>0.694277</v>
       </c>
       <c r="E132" t="n">
-        <v>0.676524</v>
+        <v>0.656172</v>
       </c>
       <c r="F132" t="n">
-        <v>0.753398</v>
+        <v>0.685428</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.713333</v>
+        <v>0.745522</v>
       </c>
       <c r="C133" t="n">
-        <v>0.740106</v>
+        <v>0.736851</v>
       </c>
       <c r="D133" t="n">
-        <v>0.7142539999999999</v>
+        <v>0.717263</v>
       </c>
       <c r="E133" t="n">
-        <v>0.681301</v>
+        <v>0.664637</v>
       </c>
       <c r="F133" t="n">
-        <v>0.690208</v>
+        <v>0.707939</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.730805</v>
+        <v>0.721803</v>
       </c>
       <c r="C134" t="n">
-        <v>0.741598</v>
+        <v>0.733945</v>
       </c>
       <c r="D134" t="n">
-        <v>0.734958</v>
+        <v>0.7341800000000001</v>
       </c>
       <c r="E134" t="n">
-        <v>0.663229</v>
+        <v>0.6767</v>
       </c>
       <c r="F134" t="n">
-        <v>0.693277</v>
+        <v>0.70233</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.720688</v>
+        <v>0.710907</v>
       </c>
       <c r="C135" t="n">
-        <v>0.740158</v>
+        <v>0.742777</v>
       </c>
       <c r="D135" t="n">
-        <v>0.673095</v>
+        <v>0.6727340000000001</v>
       </c>
       <c r="E135" t="n">
-        <v>0.675056</v>
+        <v>0.6701009999999999</v>
       </c>
       <c r="F135" t="n">
-        <v>0.702129</v>
+        <v>0.753559</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.733421</v>
+        <v>0.725936</v>
       </c>
       <c r="C136" t="n">
-        <v>0.777842</v>
+        <v>0.755012</v>
       </c>
       <c r="D136" t="n">
-        <v>0.688174</v>
+        <v>0.67844</v>
       </c>
       <c r="E136" t="n">
-        <v>0.690698</v>
+        <v>0.682747</v>
       </c>
       <c r="F136" t="n">
-        <v>0.765282</v>
+        <v>0.734151</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.723563</v>
+        <v>0.728613</v>
       </c>
       <c r="C137" t="n">
-        <v>0.811322</v>
+        <v>0.76708</v>
       </c>
       <c r="D137" t="n">
-        <v>0.692883</v>
+        <v>0.693881</v>
       </c>
       <c r="E137" t="n">
-        <v>0.839346</v>
+        <v>0.8222120000000001</v>
       </c>
       <c r="F137" t="n">
-        <v>0.770374</v>
+        <v>0.758374</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.904466</v>
+        <v>0.910198</v>
       </c>
       <c r="C138" t="n">
-        <v>0.836561</v>
+        <v>0.832352</v>
       </c>
       <c r="D138" t="n">
-        <v>0.708403</v>
+        <v>0.700229</v>
       </c>
       <c r="E138" t="n">
-        <v>0.824291</v>
+        <v>0.814634</v>
       </c>
       <c r="F138" t="n">
-        <v>0.769876</v>
+        <v>0.756735</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.910359</v>
+        <v>0.904932</v>
       </c>
       <c r="C139" t="n">
-        <v>0.826132</v>
+        <v>0.834759</v>
       </c>
       <c r="D139" t="n">
-        <v>0.732857</v>
+        <v>0.719271</v>
       </c>
       <c r="E139" t="n">
-        <v>0.825466</v>
+        <v>0.8256</v>
       </c>
       <c r="F139" t="n">
-        <v>0.754409</v>
+        <v>0.788226</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.916744</v>
+        <v>0.967986</v>
       </c>
       <c r="C140" t="n">
-        <v>0.832029</v>
+        <v>0.842729</v>
       </c>
       <c r="D140" t="n">
-        <v>0.7248599999999999</v>
+        <v>0.751611</v>
       </c>
       <c r="E140" t="n">
-        <v>0.826924</v>
+        <v>0.840518</v>
       </c>
       <c r="F140" t="n">
-        <v>0.766604</v>
+        <v>0.831032</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.969002</v>
+        <v>0.953273</v>
       </c>
       <c r="C141" t="n">
-        <v>0.8506899999999999</v>
+        <v>0.842659</v>
       </c>
       <c r="D141" t="n">
-        <v>0.74701</v>
+        <v>0.781336</v>
       </c>
       <c r="E141" t="n">
-        <v>0.834408</v>
+        <v>0.847944</v>
       </c>
       <c r="F141" t="n">
-        <v>0.769428</v>
+        <v>0.796311</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.916596</v>
+        <v>0.95426</v>
       </c>
       <c r="C142" t="n">
-        <v>0.834663</v>
+        <v>0.8555430000000001</v>
       </c>
       <c r="D142" t="n">
-        <v>0.762232</v>
+        <v>0.77444</v>
       </c>
       <c r="E142" t="n">
-        <v>0.810199</v>
+        <v>0.851555</v>
       </c>
       <c r="F142" t="n">
-        <v>0.76464</v>
+        <v>0.809416</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.939754</v>
+        <v>0.938405</v>
       </c>
       <c r="C143" t="n">
-        <v>0.8255940000000001</v>
+        <v>0.853433</v>
       </c>
       <c r="D143" t="n">
-        <v>0.7767810000000001</v>
+        <v>0.793506</v>
       </c>
       <c r="E143" t="n">
-        <v>0.825933</v>
+        <v>0.856023</v>
       </c>
       <c r="F143" t="n">
-        <v>0.794964</v>
+        <v>0.810676</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0637916</v>
+        <v>0.0636602</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0672991</v>
+        <v>0.0677278</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0946837</v>
+        <v>0.09518020000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0548281</v>
+        <v>0.0567524</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0650525</v>
+        <v>0.06338969999999999</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0641902</v>
+        <v>0.0666723</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0674377</v>
+        <v>0.0706778</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09861300000000001</v>
+        <v>0.102355</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0542892</v>
+        <v>0.0562804</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0610984</v>
+        <v>0.0629118</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0674421</v>
+        <v>0.06716660000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0670837</v>
+        <v>0.07042809999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.100818</v>
+        <v>0.105895</v>
       </c>
       <c r="E4" t="n">
-        <v>0.054488</v>
+        <v>0.0570457</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0616355</v>
+        <v>0.06377049999999999</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0638417</v>
+        <v>0.07719090000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0717043</v>
+        <v>0.0708834</v>
       </c>
       <c r="D5" t="n">
-        <v>0.105437</v>
+        <v>0.110428</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0554691</v>
+        <v>0.0597074</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0631627</v>
+        <v>0.06777610000000001</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.06567000000000001</v>
+        <v>0.0685118</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0690339</v>
+        <v>0.07277989999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.108427</v>
+        <v>0.112666</v>
       </c>
       <c r="E6" t="n">
-        <v>0.056088</v>
+        <v>0.0624467</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0622346</v>
+        <v>0.0672915</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0651544</v>
+        <v>0.0741042</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0688793</v>
+        <v>0.07117809999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08313429999999999</v>
+        <v>0.0861914</v>
       </c>
       <c r="E7" t="n">
-        <v>0.060062</v>
+        <v>0.0583795</v>
       </c>
       <c r="F7" t="n">
-        <v>0.063471</v>
+        <v>0.068956</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0667338</v>
+        <v>0.0679189</v>
       </c>
       <c r="C8" t="n">
-        <v>0.069664</v>
+        <v>0.072088</v>
       </c>
       <c r="D8" t="n">
-        <v>0.08567279999999999</v>
+        <v>0.0849644</v>
       </c>
       <c r="E8" t="n">
-        <v>0.06487030000000001</v>
+        <v>0.0568066</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06649140000000001</v>
+        <v>0.0670854</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0666224</v>
+        <v>0.0719877</v>
       </c>
       <c r="C9" t="n">
-        <v>0.070773</v>
+        <v>0.07301149999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>0.08961860000000001</v>
+        <v>0.0904832</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0558839</v>
+        <v>0.0582931</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0660087</v>
+        <v>0.0672881</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0722979</v>
+        <v>0.07476190000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>0.079819</v>
+        <v>0.07913100000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.08881029999999999</v>
+        <v>0.09277539999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0562253</v>
+        <v>0.0579036</v>
       </c>
       <c r="F10" t="n">
-        <v>0.066596</v>
+        <v>0.0689102</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.07316640000000001</v>
+        <v>0.0746259</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0789034</v>
+        <v>0.0789332</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0918486</v>
+        <v>0.09388680000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0597676</v>
+        <v>0.0577492</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0674382</v>
+        <v>0.0668395</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0724038</v>
+        <v>0.0737665</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07653890000000001</v>
+        <v>0.0788432</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0934902</v>
+        <v>0.09745620000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0562116</v>
+        <v>0.0583407</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0657133</v>
+        <v>0.0679408</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.07125819999999999</v>
+        <v>0.0744138</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07635980000000001</v>
+        <v>0.0826964</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0979805</v>
+        <v>0.103814</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0565094</v>
+        <v>0.0586412</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0659991</v>
+        <v>0.06881660000000001</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0759667</v>
+        <v>0.0747694</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0769268</v>
+        <v>0.08349380000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0997194</v>
+        <v>0.09977270000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0572564</v>
+        <v>0.0586912</v>
       </c>
       <c r="F14" t="n">
-        <v>0.06660820000000001</v>
+        <v>0.0656688</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0747437</v>
+        <v>0.0714238</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0788147</v>
+        <v>0.0761599</v>
       </c>
       <c r="D15" t="n">
-        <v>0.102504</v>
+        <v>0.101699</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0582911</v>
+        <v>0.057552</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06886150000000001</v>
+        <v>0.0722729</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0754233</v>
+        <v>0.0723753</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0810728</v>
+        <v>0.08366</v>
       </c>
       <c r="D16" t="n">
-        <v>0.105618</v>
+        <v>0.10763</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0579476</v>
+        <v>0.0586195</v>
       </c>
       <c r="F16" t="n">
-        <v>0.06998409999999999</v>
+        <v>0.0666779</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0728265</v>
+        <v>0.0724813</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0823951</v>
+        <v>0.0772654</v>
       </c>
       <c r="D17" t="n">
-        <v>0.108926</v>
+        <v>0.110275</v>
       </c>
       <c r="E17" t="n">
-        <v>0.058821</v>
+        <v>0.06251660000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>0.06892719999999999</v>
+        <v>0.0704119</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0736059</v>
+        <v>0.0749301</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0796444</v>
+        <v>0.0804406</v>
       </c>
       <c r="D18" t="n">
-        <v>0.113014</v>
+        <v>0.110826</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0591118</v>
+        <v>0.05992</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0693121</v>
+        <v>0.0673337</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0739112</v>
+        <v>0.0725978</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0812491</v>
+        <v>0.0770719</v>
       </c>
       <c r="D19" t="n">
-        <v>0.11596</v>
+        <v>0.113764</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0607308</v>
+        <v>0.0622966</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0713911</v>
+        <v>0.0690552</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.07366979999999999</v>
+        <v>0.07254049999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>0.07762189999999999</v>
+        <v>0.07709000000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.120676</v>
+        <v>0.117128</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0620195</v>
+        <v>0.0659526</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0705973</v>
+        <v>0.07195029999999999</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0747442</v>
+        <v>0.073009</v>
       </c>
       <c r="C21" t="n">
-        <v>0.082061</v>
+        <v>0.0777621</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0907371</v>
+        <v>0.0882415</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0648181</v>
+        <v>0.0598584</v>
       </c>
       <c r="F21" t="n">
-        <v>0.072281</v>
+        <v>0.0704013</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0786314</v>
+        <v>0.0745181</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0831976</v>
+        <v>0.0812855</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0933707</v>
+        <v>0.091353</v>
       </c>
       <c r="E22" t="n">
-        <v>0.06876210000000001</v>
+        <v>0.0619286</v>
       </c>
       <c r="F22" t="n">
-        <v>0.07790080000000001</v>
+        <v>0.0715708</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.07706499999999999</v>
+        <v>0.0764215</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0826146</v>
+        <v>0.0816958</v>
       </c>
       <c r="D23" t="n">
-        <v>0.09383039999999999</v>
+        <v>0.09341049999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>0.06276569999999999</v>
+        <v>0.0613334</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0735851</v>
+        <v>0.0712093</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0794801</v>
+        <v>0.0781057</v>
       </c>
       <c r="C24" t="n">
-        <v>0.08737979999999999</v>
+        <v>0.0864212</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0962105</v>
+        <v>0.09543509999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0619164</v>
+        <v>0.0612637</v>
       </c>
       <c r="F24" t="n">
-        <v>0.07498489999999999</v>
+        <v>0.0716618</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0795077</v>
+        <v>0.0793383</v>
       </c>
       <c r="C25" t="n">
-        <v>0.089958</v>
+        <v>0.0868415</v>
       </c>
       <c r="D25" t="n">
-        <v>0.100162</v>
+        <v>0.09846820000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>0.062472</v>
+        <v>0.0621806</v>
       </c>
       <c r="F25" t="n">
-        <v>0.074583</v>
+        <v>0.0727226</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.08089</v>
+        <v>0.0785824</v>
       </c>
       <c r="C26" t="n">
-        <v>0.08694739999999999</v>
+        <v>0.08707520000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>0.103399</v>
+        <v>0.10089</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0624182</v>
+        <v>0.0629118</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0747242</v>
+        <v>0.07293669999999999</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0792491</v>
+        <v>0.0781242</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0870785</v>
+        <v>0.0863394</v>
       </c>
       <c r="D27" t="n">
-        <v>0.108871</v>
+        <v>0.103904</v>
       </c>
       <c r="E27" t="n">
-        <v>0.06331349999999999</v>
+        <v>0.0624452</v>
       </c>
       <c r="F27" t="n">
-        <v>0.07864110000000001</v>
+        <v>0.0727526</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.07949349999999999</v>
+        <v>0.0783819</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0869378</v>
+        <v>0.08696230000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>0.108169</v>
+        <v>0.106406</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0627337</v>
+        <v>0.0623447</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0744269</v>
+        <v>0.07350370000000001</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0804877</v>
+        <v>0.0848846</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0886554</v>
+        <v>0.08935800000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>0.115952</v>
+        <v>0.114448</v>
       </c>
       <c r="E29" t="n">
-        <v>0.063331</v>
+        <v>0.0657876</v>
       </c>
       <c r="F29" t="n">
-        <v>0.076844</v>
+        <v>0.0748944</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0801724</v>
+        <v>0.0825272</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0926037</v>
+        <v>0.086462</v>
       </c>
       <c r="D30" t="n">
-        <v>0.117773</v>
+        <v>0.11276</v>
       </c>
       <c r="E30" t="n">
-        <v>0.064806</v>
+        <v>0.06350459999999999</v>
       </c>
       <c r="F30" t="n">
-        <v>0.076849</v>
+        <v>0.0763952</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.08002570000000001</v>
+        <v>0.07997559999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0878935</v>
+        <v>0.08842999999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>0.121654</v>
+        <v>0.121276</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0654623</v>
+        <v>0.0646328</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07612430000000001</v>
+        <v>0.07522</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0794764</v>
+        <v>0.0789627</v>
       </c>
       <c r="C32" t="n">
-        <v>0.09082079999999999</v>
+        <v>0.0879838</v>
       </c>
       <c r="D32" t="n">
-        <v>0.123006</v>
+        <v>0.12284</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0651668</v>
+        <v>0.0667074</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0768471</v>
+        <v>0.0785199</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0799903</v>
+        <v>0.0793816</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0897453</v>
+        <v>0.08868139999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>0.129616</v>
+        <v>0.124062</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0663707</v>
+        <v>0.0714583</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0797168</v>
+        <v>0.078568</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.08129690000000001</v>
+        <v>0.0800381</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0908839</v>
+        <v>0.0898719</v>
       </c>
       <c r="D34" t="n">
-        <v>0.132733</v>
+        <v>0.128488</v>
       </c>
       <c r="E34" t="n">
-        <v>0.06771439999999999</v>
+        <v>0.07192900000000001</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0814867</v>
+        <v>0.0833324</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0812068</v>
+        <v>0.0809349</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0905251</v>
+        <v>0.0903495</v>
       </c>
       <c r="D35" t="n">
-        <v>0.108504</v>
+        <v>0.107657</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0695104</v>
+        <v>0.07722759999999999</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08321240000000001</v>
+        <v>0.08943719999999999</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0831083</v>
+        <v>0.08252660000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0925194</v>
+        <v>0.09263059999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>0.115585</v>
+        <v>0.111459</v>
       </c>
       <c r="E36" t="n">
-        <v>0.07432900000000001</v>
+        <v>0.0678612</v>
       </c>
       <c r="F36" t="n">
-        <v>0.08769979999999999</v>
+        <v>0.0786442</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0849892</v>
+        <v>0.08375009999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>0.095899</v>
+        <v>0.09548719999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>0.11518</v>
+        <v>0.114578</v>
       </c>
       <c r="E37" t="n">
-        <v>0.06939770000000001</v>
+        <v>0.06824280000000001</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0819309</v>
+        <v>0.0800632</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0964555</v>
+        <v>0.0964608</v>
       </c>
       <c r="C38" t="n">
-        <v>0.100721</v>
+        <v>0.09827370000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.119797</v>
+        <v>0.119487</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0725705</v>
+        <v>0.06875829999999999</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0822692</v>
+        <v>0.0800527</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0996229</v>
+        <v>0.0963532</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0968016</v>
+        <v>0.098423</v>
       </c>
       <c r="D39" t="n">
-        <v>0.122353</v>
+        <v>0.122103</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0697125</v>
+        <v>0.0688843</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0818402</v>
+        <v>0.0812821</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0961848</v>
+        <v>0.0972271</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0991467</v>
+        <v>0.0992688</v>
       </c>
       <c r="D40" t="n">
-        <v>0.128878</v>
+        <v>0.128538</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0698979</v>
+        <v>0.0694244</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0813758</v>
+        <v>0.08165459999999999</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0966094</v>
+        <v>0.0976022</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0995407</v>
+        <v>0.0985767</v>
       </c>
       <c r="D41" t="n">
-        <v>0.133557</v>
+        <v>0.132419</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0704515</v>
+        <v>0.07000679999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0849936</v>
+        <v>0.0823991</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.104494</v>
+        <v>0.09730560000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>0.100703</v>
+        <v>0.0991189</v>
       </c>
       <c r="D42" t="n">
-        <v>0.139404</v>
+        <v>0.136756</v>
       </c>
       <c r="E42" t="n">
-        <v>0.07122580000000001</v>
+        <v>0.0703358</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08488420000000001</v>
+        <v>0.0832258</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0986394</v>
+        <v>0.09708029999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>0.100085</v>
+        <v>0.100036</v>
       </c>
       <c r="D43" t="n">
-        <v>0.141348</v>
+        <v>0.143063</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0708076</v>
+        <v>0.07076</v>
       </c>
       <c r="F43" t="n">
-        <v>0.084688</v>
+        <v>0.08405020000000001</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.09633709999999999</v>
+        <v>0.100891</v>
       </c>
       <c r="C44" t="n">
-        <v>0.103107</v>
+        <v>0.101534</v>
       </c>
       <c r="D44" t="n">
-        <v>0.147324</v>
+        <v>0.148505</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0714484</v>
+        <v>0.0711412</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0850611</v>
+        <v>0.0851673</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0972413</v>
+        <v>0.0971422</v>
       </c>
       <c r="C45" t="n">
-        <v>0.100791</v>
+        <v>0.0991224</v>
       </c>
       <c r="D45" t="n">
-        <v>0.152976</v>
+        <v>0.15166</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0718565</v>
+        <v>0.07155309999999999</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0872163</v>
+        <v>0.0853841</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0974077</v>
+        <v>0.0969609</v>
       </c>
       <c r="C46" t="n">
-        <v>0.10375</v>
+        <v>0.101993</v>
       </c>
       <c r="D46" t="n">
-        <v>0.160837</v>
+        <v>0.164908</v>
       </c>
       <c r="E46" t="n">
-        <v>0.07382619999999999</v>
+        <v>0.07285899999999999</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0898414</v>
+        <v>0.08976580000000001</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.101027</v>
+        <v>0.0973349</v>
       </c>
       <c r="C47" t="n">
-        <v>0.110148</v>
+        <v>0.106141</v>
       </c>
       <c r="D47" t="n">
-        <v>0.16986</v>
+        <v>0.163951</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0739737</v>
+        <v>0.0756281</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0946531</v>
+        <v>0.0971984</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.100615</v>
+        <v>0.100731</v>
       </c>
       <c r="C48" t="n">
-        <v>0.107126</v>
+        <v>0.107953</v>
       </c>
       <c r="D48" t="n">
-        <v>0.174182</v>
+        <v>0.173394</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0769254</v>
+        <v>0.07933279999999999</v>
       </c>
       <c r="F48" t="n">
-        <v>0.105109</v>
+        <v>0.09880269999999999</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.102276</v>
+        <v>0.09880559999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.109348</v>
+        <v>0.106922</v>
       </c>
       <c r="D49" t="n">
-        <v>0.17898</v>
+        <v>0.180442</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0780676</v>
+        <v>0.0822732</v>
       </c>
       <c r="F49" t="n">
-        <v>0.101104</v>
+        <v>0.103936</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.102089</v>
+        <v>0.0998134</v>
       </c>
       <c r="C50" t="n">
-        <v>0.111947</v>
+        <v>0.108855</v>
       </c>
       <c r="D50" t="n">
-        <v>0.180361</v>
+        <v>0.166654</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0818334</v>
+        <v>0.150405</v>
       </c>
       <c r="F50" t="n">
-        <v>0.111645</v>
+        <v>0.110854</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.103747</v>
+        <v>0.103029</v>
       </c>
       <c r="C51" t="n">
-        <v>0.116889</v>
+        <v>0.115599</v>
       </c>
       <c r="D51" t="n">
-        <v>0.173894</v>
+        <v>0.172529</v>
       </c>
       <c r="E51" t="n">
-        <v>0.160711</v>
+        <v>0.150494</v>
       </c>
       <c r="F51" t="n">
-        <v>0.125285</v>
+        <v>0.111707</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.107815</v>
+        <v>0.106656</v>
       </c>
       <c r="C52" t="n">
-        <v>0.133552</v>
+        <v>0.122684</v>
       </c>
       <c r="D52" t="n">
-        <v>0.179741</v>
+        <v>0.178632</v>
       </c>
       <c r="E52" t="n">
-        <v>0.160483</v>
+        <v>0.15141</v>
       </c>
       <c r="F52" t="n">
-        <v>0.125598</v>
+        <v>0.129108</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.187068</v>
+        <v>0.175266</v>
       </c>
       <c r="C53" t="n">
-        <v>0.1618</v>
+        <v>0.159446</v>
       </c>
       <c r="D53" t="n">
-        <v>0.185749</v>
+        <v>0.18974</v>
       </c>
       <c r="E53" t="n">
-        <v>0.165024</v>
+        <v>0.150705</v>
       </c>
       <c r="F53" t="n">
-        <v>0.134896</v>
+        <v>0.115881</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.194418</v>
+        <v>0.174435</v>
       </c>
       <c r="C54" t="n">
-        <v>0.159616</v>
+        <v>0.155886</v>
       </c>
       <c r="D54" t="n">
-        <v>0.192318</v>
+        <v>0.19553</v>
       </c>
       <c r="E54" t="n">
-        <v>0.160883</v>
+        <v>0.149929</v>
       </c>
       <c r="F54" t="n">
-        <v>0.131555</v>
+        <v>0.119883</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.179216</v>
+        <v>0.174597</v>
       </c>
       <c r="C55" t="n">
-        <v>0.166285</v>
+        <v>0.160444</v>
       </c>
       <c r="D55" t="n">
-        <v>0.198073</v>
+        <v>0.196519</v>
       </c>
       <c r="E55" t="n">
-        <v>0.163198</v>
+        <v>0.15124</v>
       </c>
       <c r="F55" t="n">
-        <v>0.135925</v>
+        <v>0.1243</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.18425</v>
+        <v>0.17956</v>
       </c>
       <c r="C56" t="n">
-        <v>0.174448</v>
+        <v>0.16118</v>
       </c>
       <c r="D56" t="n">
-        <v>0.206541</v>
+        <v>0.20372</v>
       </c>
       <c r="E56" t="n">
-        <v>0.16136</v>
+        <v>0.152683</v>
       </c>
       <c r="F56" t="n">
-        <v>0.137877</v>
+        <v>0.126666</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.177127</v>
+        <v>0.171643</v>
       </c>
       <c r="C57" t="n">
-        <v>0.169989</v>
+        <v>0.163104</v>
       </c>
       <c r="D57" t="n">
-        <v>0.216972</v>
+        <v>0.211847</v>
       </c>
       <c r="E57" t="n">
-        <v>0.157858</v>
+        <v>0.15126</v>
       </c>
       <c r="F57" t="n">
-        <v>0.147239</v>
+        <v>0.131562</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.176973</v>
+        <v>0.171769</v>
       </c>
       <c r="C58" t="n">
-        <v>0.171884</v>
+        <v>0.166314</v>
       </c>
       <c r="D58" t="n">
-        <v>0.22267</v>
+        <v>0.219056</v>
       </c>
       <c r="E58" t="n">
-        <v>0.165643</v>
+        <v>0.151881</v>
       </c>
       <c r="F58" t="n">
-        <v>0.145886</v>
+        <v>0.136722</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.179445</v>
+        <v>0.176629</v>
       </c>
       <c r="C59" t="n">
-        <v>0.172175</v>
+        <v>0.173365</v>
       </c>
       <c r="D59" t="n">
-        <v>0.230165</v>
+        <v>0.23167</v>
       </c>
       <c r="E59" t="n">
-        <v>0.165879</v>
+        <v>0.155667</v>
       </c>
       <c r="F59" t="n">
-        <v>0.152587</v>
+        <v>0.141298</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.179854</v>
+        <v>0.17503</v>
       </c>
       <c r="C60" t="n">
-        <v>0.180011</v>
+        <v>0.173486</v>
       </c>
       <c r="D60" t="n">
-        <v>0.26052</v>
+        <v>0.237652</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1641</v>
+        <v>0.157058</v>
       </c>
       <c r="F60" t="n">
-        <v>0.150933</v>
+        <v>0.147878</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.180432</v>
+        <v>0.182534</v>
       </c>
       <c r="C61" t="n">
-        <v>0.177131</v>
+        <v>0.176695</v>
       </c>
       <c r="D61" t="n">
-        <v>0.248854</v>
+        <v>0.248879</v>
       </c>
       <c r="E61" t="n">
-        <v>0.161994</v>
+        <v>0.155587</v>
       </c>
       <c r="F61" t="n">
-        <v>0.155553</v>
+        <v>0.149176</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.174201</v>
+        <v>0.175283</v>
       </c>
       <c r="C62" t="n">
-        <v>0.178384</v>
+        <v>0.192659</v>
       </c>
       <c r="D62" t="n">
-        <v>0.256236</v>
+        <v>0.256728</v>
       </c>
       <c r="E62" t="n">
-        <v>0.160754</v>
+        <v>0.157802</v>
       </c>
       <c r="F62" t="n">
-        <v>0.158465</v>
+        <v>0.157264</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.17553</v>
+        <v>0.176906</v>
       </c>
       <c r="C63" t="n">
-        <v>0.184998</v>
+        <v>0.184562</v>
       </c>
       <c r="D63" t="n">
-        <v>0.269987</v>
+        <v>0.272701</v>
       </c>
       <c r="E63" t="n">
-        <v>0.164434</v>
+        <v>0.161748</v>
       </c>
       <c r="F63" t="n">
-        <v>0.165764</v>
+        <v>0.161596</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.176306</v>
+        <v>0.17679</v>
       </c>
       <c r="C64" t="n">
-        <v>0.187743</v>
+        <v>0.185502</v>
       </c>
       <c r="D64" t="n">
-        <v>0.273129</v>
+        <v>0.26587</v>
       </c>
       <c r="E64" t="n">
-        <v>0.174397</v>
+        <v>0.230438</v>
       </c>
       <c r="F64" t="n">
-        <v>0.170626</v>
+        <v>0.239324</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.190584</v>
+        <v>0.177818</v>
       </c>
       <c r="C65" t="n">
-        <v>0.191658</v>
+        <v>0.193256</v>
       </c>
       <c r="D65" t="n">
-        <v>0.273347</v>
+        <v>0.274608</v>
       </c>
       <c r="E65" t="n">
-        <v>0.170556</v>
+        <v>0.236258</v>
       </c>
       <c r="F65" t="n">
-        <v>0.179798</v>
+        <v>0.242255</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.188623</v>
+        <v>0.179803</v>
       </c>
       <c r="C66" t="n">
-        <v>0.199244</v>
+        <v>0.198903</v>
       </c>
       <c r="D66" t="n">
-        <v>0.285375</v>
+        <v>0.282559</v>
       </c>
       <c r="E66" t="n">
-        <v>0.243739</v>
+        <v>0.235286</v>
       </c>
       <c r="F66" t="n">
-        <v>0.257884</v>
+        <v>0.247726</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.264696</v>
+        <v>0.267007</v>
       </c>
       <c r="C67" t="n">
-        <v>0.286026</v>
+        <v>0.280916</v>
       </c>
       <c r="D67" t="n">
-        <v>0.289453</v>
+        <v>0.291548</v>
       </c>
       <c r="E67" t="n">
-        <v>0.241306</v>
+        <v>0.237933</v>
       </c>
       <c r="F67" t="n">
-        <v>0.251771</v>
+        <v>0.246778</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.264827</v>
+        <v>0.267407</v>
       </c>
       <c r="C68" t="n">
-        <v>0.291479</v>
+        <v>0.281339</v>
       </c>
       <c r="D68" t="n">
-        <v>0.300219</v>
+        <v>0.298891</v>
       </c>
       <c r="E68" t="n">
-        <v>0.242852</v>
+        <v>0.238295</v>
       </c>
       <c r="F68" t="n">
-        <v>0.254665</v>
+        <v>0.247606</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.263441</v>
+        <v>0.265356</v>
       </c>
       <c r="C69" t="n">
-        <v>0.281022</v>
+        <v>0.279785</v>
       </c>
       <c r="D69" t="n">
-        <v>0.30937</v>
+        <v>0.304674</v>
       </c>
       <c r="E69" t="n">
-        <v>0.244227</v>
+        <v>0.236109</v>
       </c>
       <c r="F69" t="n">
-        <v>0.255669</v>
+        <v>0.247748</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.268688</v>
+        <v>0.266222</v>
       </c>
       <c r="C70" t="n">
-        <v>0.278238</v>
+        <v>0.279295</v>
       </c>
       <c r="D70" t="n">
-        <v>0.316694</v>
+        <v>0.313429</v>
       </c>
       <c r="E70" t="n">
-        <v>0.244578</v>
+        <v>0.236542</v>
       </c>
       <c r="F70" t="n">
-        <v>0.257961</v>
+        <v>0.253057</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.269973</v>
+        <v>0.268501</v>
       </c>
       <c r="C71" t="n">
-        <v>0.285422</v>
+        <v>0.279989</v>
       </c>
       <c r="D71" t="n">
-        <v>0.325758</v>
+        <v>0.323964</v>
       </c>
       <c r="E71" t="n">
-        <v>0.249879</v>
+        <v>0.241041</v>
       </c>
       <c r="F71" t="n">
-        <v>0.261783</v>
+        <v>0.250959</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.275939</v>
+        <v>0.278875</v>
       </c>
       <c r="C72" t="n">
-        <v>0.292518</v>
+        <v>0.288509</v>
       </c>
       <c r="D72" t="n">
-        <v>0.33857</v>
+        <v>0.33717</v>
       </c>
       <c r="E72" t="n">
-        <v>0.25468</v>
+        <v>0.24496</v>
       </c>
       <c r="F72" t="n">
-        <v>0.267958</v>
+        <v>0.255317</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.271671</v>
+        <v>0.277408</v>
       </c>
       <c r="C73" t="n">
-        <v>0.284772</v>
+        <v>0.289868</v>
       </c>
       <c r="D73" t="n">
-        <v>0.34991</v>
+        <v>0.347481</v>
       </c>
       <c r="E73" t="n">
-        <v>0.25584</v>
+        <v>0.247389</v>
       </c>
       <c r="F73" t="n">
-        <v>0.271167</v>
+        <v>0.259953</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.2729</v>
+        <v>0.275581</v>
       </c>
       <c r="C74" t="n">
-        <v>0.300615</v>
+        <v>0.291064</v>
       </c>
       <c r="D74" t="n">
-        <v>0.361022</v>
+        <v>0.358453</v>
       </c>
       <c r="E74" t="n">
-        <v>0.255067</v>
+        <v>0.249602</v>
       </c>
       <c r="F74" t="n">
-        <v>0.265941</v>
+        <v>0.263088</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.270677</v>
+        <v>0.275099</v>
       </c>
       <c r="C75" t="n">
-        <v>0.288678</v>
+        <v>0.285382</v>
       </c>
       <c r="D75" t="n">
-        <v>0.362441</v>
+        <v>0.362916</v>
       </c>
       <c r="E75" t="n">
-        <v>0.258104</v>
+        <v>0.247889</v>
       </c>
       <c r="F75" t="n">
-        <v>0.277408</v>
+        <v>0.26433</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.274831</v>
+        <v>0.275684</v>
       </c>
       <c r="C76" t="n">
-        <v>0.293946</v>
+        <v>0.289344</v>
       </c>
       <c r="D76" t="n">
-        <v>0.380674</v>
+        <v>0.39311</v>
       </c>
       <c r="E76" t="n">
-        <v>0.260009</v>
+        <v>0.262205</v>
       </c>
       <c r="F76" t="n">
-        <v>0.278898</v>
+        <v>0.27426</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.288269</v>
+        <v>0.284234</v>
       </c>
       <c r="C77" t="n">
-        <v>0.296296</v>
+        <v>0.29223</v>
       </c>
       <c r="D77" t="n">
-        <v>0.387777</v>
+        <v>0.390149</v>
       </c>
       <c r="E77" t="n">
-        <v>0.258262</v>
+        <v>0.253876</v>
       </c>
       <c r="F77" t="n">
-        <v>0.272563</v>
+        <v>0.272435</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.293571</v>
+        <v>0.275876</v>
       </c>
       <c r="C78" t="n">
-        <v>0.302719</v>
+        <v>0.297605</v>
       </c>
       <c r="D78" t="n">
-        <v>0.362915</v>
+        <v>0.361499</v>
       </c>
       <c r="E78" t="n">
-        <v>0.265915</v>
+        <v>0.259149</v>
       </c>
       <c r="F78" t="n">
-        <v>0.284531</v>
+        <v>0.280891</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.280454</v>
+        <v>0.277791</v>
       </c>
       <c r="C79" t="n">
-        <v>0.333612</v>
+        <v>0.302622</v>
       </c>
       <c r="D79" t="n">
-        <v>0.3751</v>
+        <v>0.368159</v>
       </c>
       <c r="E79" t="n">
-        <v>0.265886</v>
+        <v>0.3442</v>
       </c>
       <c r="F79" t="n">
-        <v>0.296209</v>
+        <v>0.384337</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.290421</v>
+        <v>0.288884</v>
       </c>
       <c r="C80" t="n">
-        <v>0.311697</v>
+        <v>0.302964</v>
       </c>
       <c r="D80" t="n">
-        <v>0.378093</v>
+        <v>0.377461</v>
       </c>
       <c r="E80" t="n">
-        <v>0.356954</v>
+        <v>0.345709</v>
       </c>
       <c r="F80" t="n">
-        <v>0.389836</v>
+        <v>0.383895</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.377059</v>
+        <v>0.368001</v>
       </c>
       <c r="C81" t="n">
-        <v>0.413314</v>
+        <v>0.408782</v>
       </c>
       <c r="D81" t="n">
-        <v>0.383899</v>
+        <v>0.382715</v>
       </c>
       <c r="E81" t="n">
-        <v>0.357528</v>
+        <v>0.345307</v>
       </c>
       <c r="F81" t="n">
-        <v>0.405388</v>
+        <v>0.386028</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.364561</v>
+        <v>0.366993</v>
       </c>
       <c r="C82" t="n">
-        <v>0.401602</v>
+        <v>0.405002</v>
       </c>
       <c r="D82" t="n">
-        <v>0.393938</v>
+        <v>0.39141</v>
       </c>
       <c r="E82" t="n">
-        <v>0.351687</v>
+        <v>0.35917</v>
       </c>
       <c r="F82" t="n">
-        <v>0.401807</v>
+        <v>0.391293</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.367733</v>
+        <v>0.365556</v>
       </c>
       <c r="C83" t="n">
-        <v>0.405987</v>
+        <v>0.409025</v>
       </c>
       <c r="D83" t="n">
-        <v>0.404435</v>
+        <v>0.400472</v>
       </c>
       <c r="E83" t="n">
-        <v>0.350013</v>
+        <v>0.349319</v>
       </c>
       <c r="F83" t="n">
-        <v>0.399207</v>
+        <v>0.386632</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.364911</v>
+        <v>0.364693</v>
       </c>
       <c r="C84" t="n">
-        <v>0.405943</v>
+        <v>0.402143</v>
       </c>
       <c r="D84" t="n">
-        <v>0.406783</v>
+        <v>0.407129</v>
       </c>
       <c r="E84" t="n">
-        <v>0.356663</v>
+        <v>0.347367</v>
       </c>
       <c r="F84" t="n">
-        <v>0.399411</v>
+        <v>0.391707</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.381612</v>
+        <v>0.368497</v>
       </c>
       <c r="C85" t="n">
-        <v>0.405952</v>
+        <v>0.406294</v>
       </c>
       <c r="D85" t="n">
-        <v>0.417204</v>
+        <v>0.414245</v>
       </c>
       <c r="E85" t="n">
-        <v>0.356332</v>
+        <v>0.348005</v>
       </c>
       <c r="F85" t="n">
-        <v>0.398976</v>
+        <v>0.392025</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.371442</v>
+        <v>0.369873</v>
       </c>
       <c r="C86" t="n">
-        <v>0.408885</v>
+        <v>0.413823</v>
       </c>
       <c r="D86" t="n">
-        <v>0.431033</v>
+        <v>0.431555</v>
       </c>
       <c r="E86" t="n">
-        <v>0.360421</v>
+        <v>0.352563</v>
       </c>
       <c r="F86" t="n">
-        <v>0.407847</v>
+        <v>0.394312</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.369995</v>
+        <v>0.367152</v>
       </c>
       <c r="C87" t="n">
-        <v>0.412546</v>
+        <v>0.411363</v>
       </c>
       <c r="D87" t="n">
-        <v>0.459514</v>
+        <v>0.438376</v>
       </c>
       <c r="E87" t="n">
-        <v>0.358105</v>
+        <v>0.351596</v>
       </c>
       <c r="F87" t="n">
-        <v>0.422433</v>
+        <v>0.399985</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.376515</v>
+        <v>0.369403</v>
       </c>
       <c r="C88" t="n">
-        <v>0.411314</v>
+        <v>0.413709</v>
       </c>
       <c r="D88" t="n">
-        <v>0.45658</v>
+        <v>0.44964</v>
       </c>
       <c r="E88" t="n">
-        <v>0.35953</v>
+        <v>0.354386</v>
       </c>
       <c r="F88" t="n">
-        <v>0.416696</v>
+        <v>0.40113</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.379811</v>
+        <v>0.370263</v>
       </c>
       <c r="C89" t="n">
-        <v>0.418152</v>
+        <v>0.413973</v>
       </c>
       <c r="D89" t="n">
-        <v>0.468443</v>
+        <v>0.459991</v>
       </c>
       <c r="E89" t="n">
-        <v>0.360898</v>
+        <v>0.353228</v>
       </c>
       <c r="F89" t="n">
-        <v>0.419218</v>
+        <v>0.401459</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.365843</v>
+        <v>0.367512</v>
       </c>
       <c r="C90" t="n">
-        <v>0.426158</v>
+        <v>0.416793</v>
       </c>
       <c r="D90" t="n">
-        <v>0.492591</v>
+        <v>0.473515</v>
       </c>
       <c r="E90" t="n">
-        <v>0.357851</v>
+        <v>0.357683</v>
       </c>
       <c r="F90" t="n">
-        <v>0.427813</v>
+        <v>0.41017</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.375844</v>
+        <v>0.372114</v>
       </c>
       <c r="C91" t="n">
-        <v>0.436358</v>
+        <v>0.423138</v>
       </c>
       <c r="D91" t="n">
-        <v>0.482714</v>
+        <v>0.483327</v>
       </c>
       <c r="E91" t="n">
-        <v>0.355287</v>
+        <v>0.359139</v>
       </c>
       <c r="F91" t="n">
-        <v>0.414207</v>
+        <v>0.417851</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.371341</v>
+        <v>0.376303</v>
       </c>
       <c r="C92" t="n">
-        <v>0.438999</v>
+        <v>0.428405</v>
       </c>
       <c r="D92" t="n">
-        <v>0.426624</v>
+        <v>0.428856</v>
       </c>
       <c r="E92" t="n">
-        <v>0.364821</v>
+        <v>0.369311</v>
       </c>
       <c r="F92" t="n">
-        <v>0.421409</v>
+        <v>0.430513</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.377456</v>
+        <v>0.379961</v>
       </c>
       <c r="C93" t="n">
-        <v>0.441677</v>
+        <v>0.433635</v>
       </c>
       <c r="D93" t="n">
-        <v>0.438217</v>
+        <v>0.436511</v>
       </c>
       <c r="E93" t="n">
-        <v>0.37139</v>
+        <v>0.44599</v>
       </c>
       <c r="F93" t="n">
-        <v>0.438457</v>
+        <v>0.504623</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.386915</v>
+        <v>0.380265</v>
       </c>
       <c r="C94" t="n">
-        <v>0.441596</v>
+        <v>0.441205</v>
       </c>
       <c r="D94" t="n">
-        <v>0.439356</v>
+        <v>0.440879</v>
       </c>
       <c r="E94" t="n">
-        <v>0.439028</v>
+        <v>0.436881</v>
       </c>
       <c r="F94" t="n">
-        <v>0.513217</v>
+        <v>0.49787</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.443606</v>
+        <v>0.444961</v>
       </c>
       <c r="C95" t="n">
-        <v>0.508162</v>
+        <v>0.500282</v>
       </c>
       <c r="D95" t="n">
-        <v>0.449574</v>
+        <v>0.452343</v>
       </c>
       <c r="E95" t="n">
-        <v>0.455509</v>
+        <v>0.445567</v>
       </c>
       <c r="F95" t="n">
-        <v>0.52866</v>
+        <v>0.51285</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.444489</v>
+        <v>0.443459</v>
       </c>
       <c r="C96" t="n">
-        <v>0.526111</v>
+        <v>0.498546</v>
       </c>
       <c r="D96" t="n">
-        <v>0.4616</v>
+        <v>0.458662</v>
       </c>
       <c r="E96" t="n">
-        <v>0.448792</v>
+        <v>0.440557</v>
       </c>
       <c r="F96" t="n">
-        <v>0.510964</v>
+        <v>0.503372</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.46209</v>
+        <v>0.446816</v>
       </c>
       <c r="C97" t="n">
-        <v>0.500131</v>
+        <v>0.499288</v>
       </c>
       <c r="D97" t="n">
-        <v>0.465735</v>
+        <v>0.475078</v>
       </c>
       <c r="E97" t="n">
-        <v>0.443273</v>
+        <v>0.45241</v>
       </c>
       <c r="F97" t="n">
-        <v>0.511412</v>
+        <v>0.520723</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.453361</v>
+        <v>0.464475</v>
       </c>
       <c r="C98" t="n">
-        <v>0.518716</v>
+        <v>0.504762</v>
       </c>
       <c r="D98" t="n">
-        <v>0.480935</v>
+        <v>0.483586</v>
       </c>
       <c r="E98" t="n">
-        <v>0.450804</v>
+        <v>0.439787</v>
       </c>
       <c r="F98" t="n">
-        <v>0.508059</v>
+        <v>0.506453</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.446195</v>
+        <v>0.447357</v>
       </c>
       <c r="C99" t="n">
-        <v>0.530996</v>
+        <v>0.506185</v>
       </c>
       <c r="D99" t="n">
-        <v>0.50598</v>
+        <v>0.484808</v>
       </c>
       <c r="E99" t="n">
-        <v>0.452993</v>
+        <v>0.438583</v>
       </c>
       <c r="F99" t="n">
-        <v>0.525345</v>
+        <v>0.5080480000000001</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.467676</v>
+        <v>0.446045</v>
       </c>
       <c r="C100" t="n">
-        <v>0.517692</v>
+        <v>0.502923</v>
       </c>
       <c r="D100" t="n">
-        <v>0.500277</v>
+        <v>0.496591</v>
       </c>
       <c r="E100" t="n">
-        <v>0.455733</v>
+        <v>0.439646</v>
       </c>
       <c r="F100" t="n">
-        <v>0.52177</v>
+        <v>0.5142330000000001</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.445113</v>
+        <v>0.450968</v>
       </c>
       <c r="C101" t="n">
-        <v>0.506603</v>
+        <v>0.520709</v>
       </c>
       <c r="D101" t="n">
-        <v>0.519691</v>
+        <v>0.515674</v>
       </c>
       <c r="E101" t="n">
-        <v>0.445487</v>
+        <v>0.449588</v>
       </c>
       <c r="F101" t="n">
-        <v>0.52278</v>
+        <v>0.526525</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.452398</v>
+        <v>0.454346</v>
       </c>
       <c r="C102" t="n">
-        <v>0.526094</v>
+        <v>0.513276</v>
       </c>
       <c r="D102" t="n">
-        <v>0.5225109999999999</v>
+        <v>0.5236960000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>0.451473</v>
+        <v>0.45192</v>
       </c>
       <c r="F102" t="n">
-        <v>0.51676</v>
+        <v>0.5169049999999999</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.457726</v>
+        <v>0.444189</v>
       </c>
       <c r="C103" t="n">
-        <v>0.537921</v>
+        <v>0.509127</v>
       </c>
       <c r="D103" t="n">
-        <v>0.548121</v>
+        <v>0.530129</v>
       </c>
       <c r="E103" t="n">
-        <v>0.456885</v>
+        <v>0.445655</v>
       </c>
       <c r="F103" t="n">
-        <v>0.529724</v>
+        <v>0.518133</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.457437</v>
+        <v>0.44592</v>
       </c>
       <c r="C104" t="n">
-        <v>0.551484</v>
+        <v>0.510286</v>
       </c>
       <c r="D104" t="n">
-        <v>0.5455989999999999</v>
+        <v>0.544052</v>
       </c>
       <c r="E104" t="n">
-        <v>0.450685</v>
+        <v>0.445411</v>
       </c>
       <c r="F104" t="n">
-        <v>0.532006</v>
+        <v>0.523054</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.455543</v>
+        <v>0.445817</v>
       </c>
       <c r="C105" t="n">
-        <v>0.5171289999999999</v>
+        <v>0.516422</v>
       </c>
       <c r="D105" t="n">
-        <v>0.559639</v>
+        <v>0.565715</v>
       </c>
       <c r="E105" t="n">
-        <v>0.454601</v>
+        <v>0.453017</v>
       </c>
       <c r="F105" t="n">
-        <v>0.525119</v>
+        <v>0.528312</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.477472</v>
+        <v>0.448243</v>
       </c>
       <c r="C106" t="n">
-        <v>0.542681</v>
+        <v>0.522048</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5705</v>
+        <v>0.572482</v>
       </c>
       <c r="E106" t="n">
-        <v>0.46101</v>
+        <v>0.455922</v>
       </c>
       <c r="F106" t="n">
-        <v>0.53716</v>
+        <v>0.543448</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.458217</v>
+        <v>0.456771</v>
       </c>
       <c r="C107" t="n">
-        <v>0.528085</v>
+        <v>0.532731</v>
       </c>
       <c r="D107" t="n">
-        <v>0.490711</v>
+        <v>0.495684</v>
       </c>
       <c r="E107" t="n">
-        <v>0.459298</v>
+        <v>0.527207</v>
       </c>
       <c r="F107" t="n">
-        <v>0.545855</v>
+        <v>0.58023</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.463403</v>
+        <v>0.462178</v>
       </c>
       <c r="C108" t="n">
-        <v>0.534224</v>
+        <v>0.539789</v>
       </c>
       <c r="D108" t="n">
-        <v>0.501279</v>
+        <v>0.5098470000000001</v>
       </c>
       <c r="E108" t="n">
-        <v>0.5334410000000001</v>
+        <v>0.518642</v>
       </c>
       <c r="F108" t="n">
-        <v>0.587266</v>
+        <v>0.579336</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.459994</v>
+        <v>0.471578</v>
       </c>
       <c r="C109" t="n">
-        <v>0.581613</v>
+        <v>0.547143</v>
       </c>
       <c r="D109" t="n">
-        <v>0.544522</v>
+        <v>0.51049</v>
       </c>
       <c r="E109" t="n">
-        <v>0.5283409999999999</v>
+        <v>0.516074</v>
       </c>
       <c r="F109" t="n">
-        <v>0.587275</v>
+        <v>0.578563</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.545143</v>
+        <v>0.547208</v>
       </c>
       <c r="C110" t="n">
-        <v>0.598054</v>
+        <v>0.59835</v>
       </c>
       <c r="D110" t="n">
-        <v>0.524603</v>
+        <v>0.524183</v>
       </c>
       <c r="E110" t="n">
-        <v>0.547481</v>
+        <v>0.525406</v>
       </c>
       <c r="F110" t="n">
-        <v>0.587185</v>
+        <v>0.583322</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.548902</v>
+        <v>0.547437</v>
       </c>
       <c r="C111" t="n">
-        <v>0.601553</v>
+        <v>0.610486</v>
       </c>
       <c r="D111" t="n">
-        <v>0.541666</v>
+        <v>0.5362130000000001</v>
       </c>
       <c r="E111" t="n">
-        <v>0.5330819999999999</v>
+        <v>0.527782</v>
       </c>
       <c r="F111" t="n">
-        <v>0.592328</v>
+        <v>0.59089</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.556455</v>
+        <v>0.550233</v>
       </c>
       <c r="C112" t="n">
-        <v>0.59787</v>
+        <v>0.6034080000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>0.541982</v>
+        <v>0.545407</v>
       </c>
       <c r="E112" t="n">
-        <v>0.538231</v>
+        <v>0.520323</v>
       </c>
       <c r="F112" t="n">
-        <v>0.606775</v>
+        <v>0.589784</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.547239</v>
+        <v>0.548488</v>
       </c>
       <c r="C113" t="n">
-        <v>0.593845</v>
+        <v>0.648066</v>
       </c>
       <c r="D113" t="n">
-        <v>0.563623</v>
+        <v>0.562173</v>
       </c>
       <c r="E113" t="n">
-        <v>0.53366</v>
+        <v>0.5298079999999999</v>
       </c>
       <c r="F113" t="n">
-        <v>0.599962</v>
+        <v>0.593191</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.548055</v>
+        <v>0.582039</v>
       </c>
       <c r="C114" t="n">
-        <v>0.623371</v>
+        <v>0.625133</v>
       </c>
       <c r="D114" t="n">
-        <v>0.567895</v>
+        <v>0.597355</v>
       </c>
       <c r="E114" t="n">
-        <v>0.528556</v>
+        <v>0.532052</v>
       </c>
       <c r="F114" t="n">
-        <v>0.607783</v>
+        <v>0.595556</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.552889</v>
+        <v>0.554576</v>
       </c>
       <c r="C115" t="n">
-        <v>0.603559</v>
+        <v>0.601167</v>
       </c>
       <c r="D115" t="n">
-        <v>0.582559</v>
+        <v>0.599987</v>
       </c>
       <c r="E115" t="n">
-        <v>0.535822</v>
+        <v>0.519294</v>
       </c>
       <c r="F115" t="n">
-        <v>0.594889</v>
+        <v>0.5942190000000001</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.555453</v>
+        <v>0.55099</v>
       </c>
       <c r="C116" t="n">
-        <v>0.61805</v>
+        <v>0.599537</v>
       </c>
       <c r="D116" t="n">
-        <v>0.588706</v>
+        <v>0.617453</v>
       </c>
       <c r="E116" t="n">
-        <v>0.532977</v>
+        <v>0.531339</v>
       </c>
       <c r="F116" t="n">
-        <v>0.599743</v>
+        <v>0.6054079999999999</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.553211</v>
+        <v>0.554268</v>
       </c>
       <c r="C117" t="n">
-        <v>0.599357</v>
+        <v>0.622826</v>
       </c>
       <c r="D117" t="n">
-        <v>0.616255</v>
+        <v>0.601808</v>
       </c>
       <c r="E117" t="n">
-        <v>0.532309</v>
+        <v>0.535721</v>
       </c>
       <c r="F117" t="n">
-        <v>0.6221370000000001</v>
+        <v>0.6135620000000001</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.562425</v>
+        <v>0.54508</v>
       </c>
       <c r="C118" t="n">
-        <v>0.602285</v>
+        <v>0.625254</v>
       </c>
       <c r="D118" t="n">
-        <v>0.612058</v>
+        <v>0.626183</v>
       </c>
       <c r="E118" t="n">
-        <v>0.544513</v>
+        <v>0.5644980000000001</v>
       </c>
       <c r="F118" t="n">
-        <v>0.611822</v>
+        <v>0.62301</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.54504</v>
+        <v>0.587724</v>
       </c>
       <c r="C119" t="n">
-        <v>0.622776</v>
+        <v>0.61591</v>
       </c>
       <c r="D119" t="n">
-        <v>0.624192</v>
+        <v>0.661947</v>
       </c>
       <c r="E119" t="n">
-        <v>0.53936</v>
+        <v>0.543724</v>
       </c>
       <c r="F119" t="n">
-        <v>0.613433</v>
+        <v>0.6182530000000001</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.557066</v>
+        <v>0.5624130000000001</v>
       </c>
       <c r="C120" t="n">
-        <v>0.624242</v>
+        <v>0.617009</v>
       </c>
       <c r="D120" t="n">
-        <v>0.659118</v>
+        <v>0.651034</v>
       </c>
       <c r="E120" t="n">
-        <v>0.536322</v>
+        <v>0.547284</v>
       </c>
       <c r="F120" t="n">
-        <v>0.620823</v>
+        <v>0.664102</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.553382</v>
+        <v>0.55188</v>
       </c>
       <c r="C121" t="n">
-        <v>0.6138400000000001</v>
+        <v>0.623927</v>
       </c>
       <c r="D121" t="n">
-        <v>0.598447</v>
+        <v>0.559692</v>
       </c>
       <c r="E121" t="n">
-        <v>0.542743</v>
+        <v>0.6416849999999999</v>
       </c>
       <c r="F121" t="n">
-        <v>0.625636</v>
+        <v>0.646528</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.566949</v>
+        <v>0.564433</v>
       </c>
       <c r="C122" t="n">
-        <v>0.6349</v>
+        <v>0.627217</v>
       </c>
       <c r="D122" t="n">
-        <v>0.57641</v>
+        <v>0.575995</v>
       </c>
       <c r="E122" t="n">
-        <v>0.549411</v>
+        <v>0.64423</v>
       </c>
       <c r="F122" t="n">
-        <v>0.646377</v>
+        <v>0.645385</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.623328</v>
+        <v>0.564044</v>
       </c>
       <c r="C123" t="n">
-        <v>0.636758</v>
+        <v>0.63959</v>
       </c>
       <c r="D123" t="n">
-        <v>0.609271</v>
+        <v>0.5963270000000001</v>
       </c>
       <c r="E123" t="n">
-        <v>0.661067</v>
+        <v>0.6509239999999999</v>
       </c>
       <c r="F123" t="n">
-        <v>0.668822</v>
+        <v>0.65796</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.834133</v>
+        <v>0.786465</v>
       </c>
       <c r="C124" t="n">
-        <v>0.723826</v>
+        <v>0.714711</v>
       </c>
       <c r="D124" t="n">
-        <v>0.596943</v>
+        <v>0.600738</v>
       </c>
       <c r="E124" t="n">
-        <v>0.6480320000000001</v>
+        <v>0.682261</v>
       </c>
       <c r="F124" t="n">
-        <v>0.710972</v>
+        <v>0.6738</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.724042</v>
+        <v>0.733632</v>
       </c>
       <c r="C125" t="n">
-        <v>0.720166</v>
+        <v>0.720214</v>
       </c>
       <c r="D125" t="n">
-        <v>0.615495</v>
+        <v>0.641343</v>
       </c>
       <c r="E125" t="n">
-        <v>0.655549</v>
+        <v>0.651994</v>
       </c>
       <c r="F125" t="n">
-        <v>0.679494</v>
+        <v>0.663888</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.712477</v>
+        <v>0.739082</v>
       </c>
       <c r="C126" t="n">
-        <v>0.719359</v>
+        <v>0.758874</v>
       </c>
       <c r="D126" t="n">
-        <v>0.6346349999999999</v>
+        <v>0.634417</v>
       </c>
       <c r="E126" t="n">
-        <v>0.652888</v>
+        <v>0.6617499999999999</v>
       </c>
       <c r="F126" t="n">
-        <v>0.6704</v>
+        <v>0.674353</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.70951</v>
+        <v>0.735772</v>
       </c>
       <c r="C127" t="n">
-        <v>0.725988</v>
+        <v>0.732829</v>
       </c>
       <c r="D127" t="n">
-        <v>0.63552</v>
+        <v>0.650674</v>
       </c>
       <c r="E127" t="n">
-        <v>0.646906</v>
+        <v>0.654461</v>
       </c>
       <c r="F127" t="n">
-        <v>0.674831</v>
+        <v>0.684762</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.707987</v>
+        <v>0.71635</v>
       </c>
       <c r="C128" t="n">
-        <v>0.748677</v>
+        <v>0.759128</v>
       </c>
       <c r="D128" t="n">
-        <v>0.6520629999999999</v>
+        <v>0.657921</v>
       </c>
       <c r="E128" t="n">
-        <v>0.679559</v>
+        <v>0.673095</v>
       </c>
       <c r="F128" t="n">
-        <v>0.713444</v>
+        <v>0.680723</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.717235</v>
+        <v>0.720772</v>
       </c>
       <c r="C129" t="n">
-        <v>0.720866</v>
+        <v>0.724661</v>
       </c>
       <c r="D129" t="n">
-        <v>0.654383</v>
+        <v>0.663895</v>
       </c>
       <c r="E129" t="n">
-        <v>0.660245</v>
+        <v>0.657866</v>
       </c>
       <c r="F129" t="n">
-        <v>0.675004</v>
+        <v>0.675684</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.709896</v>
+        <v>0.733683</v>
       </c>
       <c r="C130" t="n">
-        <v>0.753976</v>
+        <v>0.732562</v>
       </c>
       <c r="D130" t="n">
-        <v>0.665341</v>
+        <v>0.67803</v>
       </c>
       <c r="E130" t="n">
-        <v>0.665364</v>
+        <v>0.663308</v>
       </c>
       <c r="F130" t="n">
-        <v>0.681296</v>
+        <v>0.678795</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.711782</v>
+        <v>0.724144</v>
       </c>
       <c r="C131" t="n">
-        <v>0.736161</v>
+        <v>0.736433</v>
       </c>
       <c r="D131" t="n">
-        <v>0.681698</v>
+        <v>0.689657</v>
       </c>
       <c r="E131" t="n">
-        <v>0.664818</v>
+        <v>0.657822</v>
       </c>
       <c r="F131" t="n">
-        <v>0.682355</v>
+        <v>0.670214</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.712286</v>
+        <v>0.7107869999999999</v>
       </c>
       <c r="C132" t="n">
-        <v>0.736282</v>
+        <v>0.737667</v>
       </c>
       <c r="D132" t="n">
-        <v>0.699229</v>
+        <v>0.693674</v>
       </c>
       <c r="E132" t="n">
-        <v>0.6591360000000001</v>
+        <v>0.6618270000000001</v>
       </c>
       <c r="F132" t="n">
-        <v>0.702495</v>
+        <v>0.682413</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.734949</v>
+        <v>0.7168</v>
       </c>
       <c r="C133" t="n">
-        <v>0.7403419999999999</v>
+        <v>0.734674</v>
       </c>
       <c r="D133" t="n">
-        <v>0.70796</v>
+        <v>0.722243</v>
       </c>
       <c r="E133" t="n">
-        <v>0.661937</v>
+        <v>0.65705</v>
       </c>
       <c r="F133" t="n">
-        <v>0.7103159999999999</v>
+        <v>0.709379</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.7099259999999999</v>
+        <v>0.723146</v>
       </c>
       <c r="C134" t="n">
-        <v>0.7712599999999999</v>
+        <v>0.749404</v>
       </c>
       <c r="D134" t="n">
-        <v>0.734568</v>
+        <v>0.736965</v>
       </c>
       <c r="E134" t="n">
-        <v>0.684447</v>
+        <v>0.6807569999999999</v>
       </c>
       <c r="F134" t="n">
-        <v>0.71596</v>
+        <v>0.711491</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.720808</v>
+        <v>0.746841</v>
       </c>
       <c r="C135" t="n">
-        <v>0.755564</v>
+        <v>0.748767</v>
       </c>
       <c r="D135" t="n">
-        <v>0.693165</v>
+        <v>0.686558</v>
       </c>
       <c r="E135" t="n">
-        <v>0.673951</v>
+        <v>0.807406</v>
       </c>
       <c r="F135" t="n">
-        <v>0.706532</v>
+        <v>0.7500329999999999</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.715077</v>
+        <v>0.726216</v>
       </c>
       <c r="C136" t="n">
-        <v>0.748406</v>
+        <v>0.754487</v>
       </c>
       <c r="D136" t="n">
-        <v>0.68658</v>
+        <v>0.685136</v>
       </c>
       <c r="E136" t="n">
-        <v>0.68973</v>
+        <v>0.8337560000000001</v>
       </c>
       <c r="F136" t="n">
-        <v>0.716724</v>
+        <v>0.758213</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.721193</v>
+        <v>0.857769</v>
       </c>
       <c r="C137" t="n">
-        <v>0.769512</v>
+        <v>0.764867</v>
       </c>
       <c r="D137" t="n">
-        <v>0.6952469999999999</v>
+        <v>0.69112</v>
       </c>
       <c r="E137" t="n">
-        <v>0.829757</v>
+        <v>0.8037879999999999</v>
       </c>
       <c r="F137" t="n">
-        <v>0.7865220000000001</v>
+        <v>0.753172</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.914818</v>
+        <v>0.906604</v>
       </c>
       <c r="C138" t="n">
-        <v>0.837527</v>
+        <v>0.841344</v>
       </c>
       <c r="D138" t="n">
-        <v>0.708803</v>
+        <v>0.712796</v>
       </c>
       <c r="E138" t="n">
-        <v>0.829864</v>
+        <v>0.814683</v>
       </c>
       <c r="F138" t="n">
-        <v>0.787668</v>
+        <v>0.763805</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.922276</v>
+        <v>0.9135529999999999</v>
       </c>
       <c r="C139" t="n">
-        <v>0.841426</v>
+        <v>0.825327</v>
       </c>
       <c r="D139" t="n">
-        <v>0.715386</v>
+        <v>0.716962</v>
       </c>
       <c r="E139" t="n">
-        <v>0.853106</v>
+        <v>0.819</v>
       </c>
       <c r="F139" t="n">
-        <v>0.809657</v>
+        <v>0.769176</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.922831</v>
+        <v>0.910424</v>
       </c>
       <c r="C140" t="n">
-        <v>0.837666</v>
+        <v>0.851247</v>
       </c>
       <c r="D140" t="n">
-        <v>0.734649</v>
+        <v>0.737012</v>
       </c>
       <c r="E140" t="n">
-        <v>0.8178569999999999</v>
+        <v>0.797085</v>
       </c>
       <c r="F140" t="n">
-        <v>0.785529</v>
+        <v>0.749736</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.914058</v>
+        <v>0.905349</v>
       </c>
       <c r="C141" t="n">
-        <v>0.84766</v>
+        <v>0.827701</v>
       </c>
       <c r="D141" t="n">
-        <v>0.745572</v>
+        <v>0.73532</v>
       </c>
       <c r="E141" t="n">
-        <v>0.819396</v>
+        <v>0.794665</v>
       </c>
       <c r="F141" t="n">
-        <v>0.796197</v>
+        <v>0.751887</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.906294</v>
+        <v>0.906788</v>
       </c>
       <c r="C142" t="n">
-        <v>0.837704</v>
+        <v>0.82359</v>
       </c>
       <c r="D142" t="n">
-        <v>0.763135</v>
+        <v>0.748738</v>
       </c>
       <c r="E142" t="n">
-        <v>0.82728</v>
+        <v>0.804814</v>
       </c>
       <c r="F142" t="n">
-        <v>0.792834</v>
+        <v>0.7805800000000001</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.910297</v>
+        <v>0.903029</v>
       </c>
       <c r="C143" t="n">
-        <v>0.843205</v>
+        <v>0.828</v>
       </c>
       <c r="D143" t="n">
-        <v>0.77729</v>
+        <v>0.770894</v>
       </c>
       <c r="E143" t="n">
-        <v>0.813231</v>
+        <v>0.806121</v>
       </c>
       <c r="F143" t="n">
-        <v>0.793544</v>
+        <v>0.7683720000000001</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0637916</v>
+        <v>0.0641304</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0672991</v>
+        <v>0.0699232</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0946837</v>
+        <v>0.09497269999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0548281</v>
+        <v>0.0540656</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0650525</v>
+        <v>0.0608033</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0641902</v>
+        <v>0.0641471</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0674377</v>
+        <v>0.0678902</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09861300000000001</v>
+        <v>0.100344</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0542892</v>
+        <v>0.0559607</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0610984</v>
+        <v>0.0616598</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0674421</v>
+        <v>0.0657181</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0670837</v>
+        <v>0.0700991</v>
       </c>
       <c r="D4" t="n">
-        <v>0.100818</v>
+        <v>0.10131</v>
       </c>
       <c r="E4" t="n">
-        <v>0.054488</v>
+        <v>0.0556983</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0616355</v>
+        <v>0.0616536</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0638417</v>
+        <v>0.06442580000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0717043</v>
+        <v>0.067291</v>
       </c>
       <c r="D5" t="n">
-        <v>0.105437</v>
+        <v>0.104173</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0554691</v>
+        <v>0.0553485</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0631627</v>
+        <v>0.0626927</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.06567000000000001</v>
+        <v>0.06533650000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0690339</v>
+        <v>0.0684685</v>
       </c>
       <c r="D6" t="n">
-        <v>0.108427</v>
+        <v>0.108292</v>
       </c>
       <c r="E6" t="n">
-        <v>0.056088</v>
+        <v>0.0613566</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0622346</v>
+        <v>0.06323289999999999</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0651544</v>
+        <v>0.06489060000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0688793</v>
+        <v>0.06958010000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08313429999999999</v>
+        <v>0.0834197</v>
       </c>
       <c r="E7" t="n">
-        <v>0.060062</v>
+        <v>0.0601948</v>
       </c>
       <c r="F7" t="n">
-        <v>0.063471</v>
+        <v>0.0625961</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0667338</v>
+        <v>0.06608509999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.069664</v>
+        <v>0.0705346</v>
       </c>
       <c r="D8" t="n">
-        <v>0.08567279999999999</v>
+        <v>0.084843</v>
       </c>
       <c r="E8" t="n">
-        <v>0.06487030000000001</v>
+        <v>0.0645278</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06649140000000001</v>
+        <v>0.0698983</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0666224</v>
+        <v>0.0682405</v>
       </c>
       <c r="C9" t="n">
-        <v>0.070773</v>
+        <v>0.0706683</v>
       </c>
       <c r="D9" t="n">
-        <v>0.08961860000000001</v>
+        <v>0.08930630000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0558839</v>
+        <v>0.0563779</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0660087</v>
+        <v>0.066806</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0722979</v>
+        <v>0.0717217</v>
       </c>
       <c r="C10" t="n">
-        <v>0.079819</v>
+        <v>0.0769306</v>
       </c>
       <c r="D10" t="n">
-        <v>0.08881029999999999</v>
+        <v>0.0901864</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0562253</v>
+        <v>0.0577636</v>
       </c>
       <c r="F10" t="n">
-        <v>0.066596</v>
+        <v>0.0653046</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.07316640000000001</v>
+        <v>0.0718569</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0789034</v>
+        <v>0.0784965</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0918486</v>
+        <v>0.0928663</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0597676</v>
+        <v>0.0567761</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0674382</v>
+        <v>0.0664735</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0724038</v>
+        <v>0.0725679</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07653890000000001</v>
+        <v>0.07743650000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0934902</v>
+        <v>0.0959516</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0562116</v>
+        <v>0.0567236</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0657133</v>
+        <v>0.069496</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.07125819999999999</v>
+        <v>0.07172240000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07635980000000001</v>
+        <v>0.08020040000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0979805</v>
+        <v>0.09904209999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0565094</v>
+        <v>0.0574518</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0659991</v>
+        <v>0.0673347</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0759667</v>
+        <v>0.0731053</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0769268</v>
+        <v>0.077801</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0997194</v>
+        <v>0.100818</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0572564</v>
+        <v>0.0579077</v>
       </c>
       <c r="F14" t="n">
-        <v>0.06660820000000001</v>
+        <v>0.0676585</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0747437</v>
+        <v>0.0725623</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0788147</v>
+        <v>0.0785189</v>
       </c>
       <c r="D15" t="n">
-        <v>0.102504</v>
+        <v>0.104143</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0582911</v>
+        <v>0.0614158</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06886150000000001</v>
+        <v>0.0680993</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0754233</v>
+        <v>0.0726036</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0810728</v>
+        <v>0.077086</v>
       </c>
       <c r="D16" t="n">
-        <v>0.105618</v>
+        <v>0.107017</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0579476</v>
+        <v>0.0602908</v>
       </c>
       <c r="F16" t="n">
-        <v>0.06998409999999999</v>
+        <v>0.0677736</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0728265</v>
+        <v>0.0728728</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0823951</v>
+        <v>0.077277</v>
       </c>
       <c r="D17" t="n">
-        <v>0.108926</v>
+        <v>0.110054</v>
       </c>
       <c r="E17" t="n">
-        <v>0.058821</v>
+        <v>0.0592767</v>
       </c>
       <c r="F17" t="n">
-        <v>0.06892719999999999</v>
+        <v>0.0681726</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0736059</v>
+        <v>0.07311670000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0796444</v>
+        <v>0.0792079</v>
       </c>
       <c r="D18" t="n">
-        <v>0.113014</v>
+        <v>0.113482</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0591118</v>
+        <v>0.059833</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0693121</v>
+        <v>0.0684884</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0739112</v>
+        <v>0.0725891</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0812491</v>
+        <v>0.0785058</v>
       </c>
       <c r="D19" t="n">
-        <v>0.11596</v>
+        <v>0.117426</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0607308</v>
+        <v>0.0620711</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0713911</v>
+        <v>0.0694734</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.07366979999999999</v>
+        <v>0.0736014</v>
       </c>
       <c r="C20" t="n">
-        <v>0.07762189999999999</v>
+        <v>0.0783532</v>
       </c>
       <c r="D20" t="n">
-        <v>0.120676</v>
+        <v>0.120658</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0620195</v>
+        <v>0.0619945</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0705973</v>
+        <v>0.0724379</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0747442</v>
+        <v>0.0738014</v>
       </c>
       <c r="C21" t="n">
-        <v>0.082061</v>
+        <v>0.07994279999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0907371</v>
+        <v>0.0914668</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0648181</v>
+        <v>0.0660929</v>
       </c>
       <c r="F21" t="n">
-        <v>0.072281</v>
+        <v>0.0724311</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0786314</v>
+        <v>0.0751066</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0831976</v>
+        <v>0.0826234</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0933707</v>
+        <v>0.09451039999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>0.06876210000000001</v>
+        <v>0.07009840000000001</v>
       </c>
       <c r="F22" t="n">
-        <v>0.07790080000000001</v>
+        <v>0.07718990000000001</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.07706499999999999</v>
+        <v>0.0764208</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0826146</v>
+        <v>0.0847875</v>
       </c>
       <c r="D23" t="n">
-        <v>0.09383039999999999</v>
+        <v>0.0959356</v>
       </c>
       <c r="E23" t="n">
-        <v>0.06276569999999999</v>
+        <v>0.0622268</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0735851</v>
+        <v>0.07382469999999999</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0794801</v>
+        <v>0.08305410000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>0.08737979999999999</v>
+        <v>0.0870779</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0962105</v>
+        <v>0.09898029999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0619164</v>
+        <v>0.0641245</v>
       </c>
       <c r="F24" t="n">
-        <v>0.07498489999999999</v>
+        <v>0.07416730000000001</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0795077</v>
+        <v>0.0833498</v>
       </c>
       <c r="C25" t="n">
-        <v>0.089958</v>
+        <v>0.08771180000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>0.100162</v>
+        <v>0.104337</v>
       </c>
       <c r="E25" t="n">
-        <v>0.062472</v>
+        <v>0.0627622</v>
       </c>
       <c r="F25" t="n">
-        <v>0.074583</v>
+        <v>0.0743583</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.08089</v>
+        <v>0.08087220000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>0.08694739999999999</v>
+        <v>0.08912050000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>0.103399</v>
+        <v>0.105001</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0624182</v>
+        <v>0.0631135</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0747242</v>
+        <v>0.0743853</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0792491</v>
+        <v>0.0801682</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0870785</v>
+        <v>0.0901894</v>
       </c>
       <c r="D27" t="n">
-        <v>0.108871</v>
+        <v>0.1075</v>
       </c>
       <c r="E27" t="n">
-        <v>0.06331349999999999</v>
+        <v>0.0634411</v>
       </c>
       <c r="F27" t="n">
-        <v>0.07864110000000001</v>
+        <v>0.0745633</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.07949349999999999</v>
+        <v>0.080507</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0869378</v>
+        <v>0.0882246</v>
       </c>
       <c r="D28" t="n">
-        <v>0.108169</v>
+        <v>0.110391</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0627337</v>
+        <v>0.0644364</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0744269</v>
+        <v>0.0759143</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0804877</v>
+        <v>0.08362169999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0886554</v>
+        <v>0.0895697</v>
       </c>
       <c r="D29" t="n">
-        <v>0.115952</v>
+        <v>0.115978</v>
       </c>
       <c r="E29" t="n">
-        <v>0.063331</v>
+        <v>0.06353930000000001</v>
       </c>
       <c r="F29" t="n">
-        <v>0.076844</v>
+        <v>0.0753849</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0801724</v>
+        <v>0.0803736</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0926037</v>
+        <v>0.0916438</v>
       </c>
       <c r="D30" t="n">
-        <v>0.117773</v>
+        <v>0.117452</v>
       </c>
       <c r="E30" t="n">
-        <v>0.064806</v>
+        <v>0.0643632</v>
       </c>
       <c r="F30" t="n">
-        <v>0.076849</v>
+        <v>0.0770362</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.08002570000000001</v>
+        <v>0.08012850000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0878935</v>
+        <v>0.09325940000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>0.121654</v>
+        <v>0.123104</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0654623</v>
+        <v>0.06646779999999999</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07612430000000001</v>
+        <v>0.0775319</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0794764</v>
+        <v>0.0802059</v>
       </c>
       <c r="C32" t="n">
-        <v>0.09082079999999999</v>
+        <v>0.0884436</v>
       </c>
       <c r="D32" t="n">
-        <v>0.123006</v>
+        <v>0.125153</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0651668</v>
+        <v>0.066052</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0768471</v>
+        <v>0.0802554</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0799903</v>
+        <v>0.0814549</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0897453</v>
+        <v>0.09103840000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>0.129616</v>
+        <v>0.129742</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0663707</v>
+        <v>0.065923</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0797168</v>
+        <v>0.0802156</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.08129690000000001</v>
+        <v>0.08108799999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0908839</v>
+        <v>0.0906938</v>
       </c>
       <c r="D34" t="n">
-        <v>0.132733</v>
+        <v>0.131204</v>
       </c>
       <c r="E34" t="n">
-        <v>0.06771439999999999</v>
+        <v>0.06777469999999999</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0814867</v>
+        <v>0.0791859</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0812068</v>
+        <v>0.07984289999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0905251</v>
+        <v>0.09043610000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>0.108504</v>
+        <v>0.113177</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0695104</v>
+        <v>0.0753707</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08321240000000001</v>
+        <v>0.0834348</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0831083</v>
+        <v>0.08241130000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0925194</v>
+        <v>0.0932905</v>
       </c>
       <c r="D36" t="n">
-        <v>0.115585</v>
+        <v>0.112432</v>
       </c>
       <c r="E36" t="n">
-        <v>0.07432900000000001</v>
+        <v>0.0743521</v>
       </c>
       <c r="F36" t="n">
-        <v>0.08769979999999999</v>
+        <v>0.08877939999999999</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0849892</v>
+        <v>0.0844414</v>
       </c>
       <c r="C37" t="n">
-        <v>0.095899</v>
+        <v>0.0952988</v>
       </c>
       <c r="D37" t="n">
-        <v>0.11518</v>
+        <v>0.120306</v>
       </c>
       <c r="E37" t="n">
-        <v>0.06939770000000001</v>
+        <v>0.07138700000000001</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0819309</v>
+        <v>0.084914</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0964555</v>
+        <v>0.100182</v>
       </c>
       <c r="C38" t="n">
-        <v>0.100721</v>
+        <v>0.100533</v>
       </c>
       <c r="D38" t="n">
-        <v>0.119797</v>
+        <v>0.122364</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0725705</v>
+        <v>0.07149079999999999</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0822692</v>
+        <v>0.0831727</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0996229</v>
+        <v>0.101145</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0968016</v>
+        <v>0.100695</v>
       </c>
       <c r="D39" t="n">
-        <v>0.122353</v>
+        <v>0.127528</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0697125</v>
+        <v>0.0710937</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0818402</v>
+        <v>0.0834886</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0961848</v>
+        <v>0.100056</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0991467</v>
+        <v>0.10013</v>
       </c>
       <c r="D40" t="n">
-        <v>0.128878</v>
+        <v>0.131145</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0698979</v>
+        <v>0.0713685</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0813758</v>
+        <v>0.085297</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0966094</v>
+        <v>0.100231</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0995407</v>
+        <v>0.100447</v>
       </c>
       <c r="D41" t="n">
-        <v>0.133557</v>
+        <v>0.136675</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0704515</v>
+        <v>0.0728264</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0849936</v>
+        <v>0.0861039</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.104494</v>
+        <v>0.101981</v>
       </c>
       <c r="C42" t="n">
-        <v>0.100703</v>
+        <v>0.09994069999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>0.139404</v>
+        <v>0.141482</v>
       </c>
       <c r="E42" t="n">
-        <v>0.07122580000000001</v>
+        <v>0.0709294</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08488420000000001</v>
+        <v>0.0865974</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0986394</v>
+        <v>0.09773229999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>0.100085</v>
+        <v>0.10353</v>
       </c>
       <c r="D43" t="n">
-        <v>0.141348</v>
+        <v>0.146754</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0708076</v>
+        <v>0.07534059999999999</v>
       </c>
       <c r="F43" t="n">
-        <v>0.084688</v>
+        <v>0.0883487</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.09633709999999999</v>
+        <v>0.100143</v>
       </c>
       <c r="C44" t="n">
-        <v>0.103107</v>
+        <v>0.10113</v>
       </c>
       <c r="D44" t="n">
-        <v>0.147324</v>
+        <v>0.152952</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0714484</v>
+        <v>0.0716358</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0850611</v>
+        <v>0.0868091</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0972413</v>
+        <v>0.0985814</v>
       </c>
       <c r="C45" t="n">
-        <v>0.100791</v>
+        <v>0.103361</v>
       </c>
       <c r="D45" t="n">
-        <v>0.152976</v>
+        <v>0.156073</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0718565</v>
+        <v>0.07237499999999999</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0872163</v>
+        <v>0.0878005</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0974077</v>
+        <v>0.09786250000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>0.10375</v>
+        <v>0.102274</v>
       </c>
       <c r="D46" t="n">
-        <v>0.160837</v>
+        <v>0.160526</v>
       </c>
       <c r="E46" t="n">
-        <v>0.07382619999999999</v>
+        <v>0.0738524</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0898414</v>
+        <v>0.0931102</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.101027</v>
+        <v>0.101371</v>
       </c>
       <c r="C47" t="n">
-        <v>0.110148</v>
+        <v>0.105987</v>
       </c>
       <c r="D47" t="n">
-        <v>0.16986</v>
+        <v>0.166248</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0739737</v>
+        <v>0.0751744</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0946531</v>
+        <v>0.0911598</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.100615</v>
+        <v>0.0988101</v>
       </c>
       <c r="C48" t="n">
-        <v>0.107126</v>
+        <v>0.105858</v>
       </c>
       <c r="D48" t="n">
-        <v>0.174182</v>
+        <v>0.171184</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0769254</v>
+        <v>0.07542409999999999</v>
       </c>
       <c r="F48" t="n">
-        <v>0.105109</v>
+        <v>0.0960405</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.102276</v>
+        <v>0.101523</v>
       </c>
       <c r="C49" t="n">
-        <v>0.109348</v>
+        <v>0.112067</v>
       </c>
       <c r="D49" t="n">
-        <v>0.17898</v>
+        <v>0.180218</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0780676</v>
+        <v>0.0782687</v>
       </c>
       <c r="F49" t="n">
-        <v>0.101104</v>
+        <v>0.100435</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.102089</v>
+        <v>0.102961</v>
       </c>
       <c r="C50" t="n">
-        <v>0.111947</v>
+        <v>0.115975</v>
       </c>
       <c r="D50" t="n">
-        <v>0.180361</v>
+        <v>0.171954</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0818334</v>
+        <v>0.0823784</v>
       </c>
       <c r="F50" t="n">
-        <v>0.111645</v>
+        <v>0.105798</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.103747</v>
+        <v>0.104512</v>
       </c>
       <c r="C51" t="n">
-        <v>0.116889</v>
+        <v>0.119452</v>
       </c>
       <c r="D51" t="n">
-        <v>0.173894</v>
+        <v>0.176302</v>
       </c>
       <c r="E51" t="n">
-        <v>0.160711</v>
+        <v>0.158635</v>
       </c>
       <c r="F51" t="n">
-        <v>0.125285</v>
+        <v>0.127277</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.107815</v>
+        <v>0.10846</v>
       </c>
       <c r="C52" t="n">
-        <v>0.133552</v>
+        <v>0.127372</v>
       </c>
       <c r="D52" t="n">
-        <v>0.179741</v>
+        <v>0.181462</v>
       </c>
       <c r="E52" t="n">
-        <v>0.160483</v>
+        <v>0.157802</v>
       </c>
       <c r="F52" t="n">
-        <v>0.125598</v>
+        <v>0.129797</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.187068</v>
+        <v>0.177204</v>
       </c>
       <c r="C53" t="n">
-        <v>0.1618</v>
+        <v>0.15788</v>
       </c>
       <c r="D53" t="n">
-        <v>0.185749</v>
+        <v>0.1893</v>
       </c>
       <c r="E53" t="n">
-        <v>0.165024</v>
+        <v>0.160051</v>
       </c>
       <c r="F53" t="n">
-        <v>0.134896</v>
+        <v>0.130052</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.194418</v>
+        <v>0.180929</v>
       </c>
       <c r="C54" t="n">
-        <v>0.159616</v>
+        <v>0.162966</v>
       </c>
       <c r="D54" t="n">
-        <v>0.192318</v>
+        <v>0.197059</v>
       </c>
       <c r="E54" t="n">
-        <v>0.160883</v>
+        <v>0.1626</v>
       </c>
       <c r="F54" t="n">
-        <v>0.131555</v>
+        <v>0.138711</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.179216</v>
+        <v>0.179234</v>
       </c>
       <c r="C55" t="n">
-        <v>0.166285</v>
+        <v>0.167684</v>
       </c>
       <c r="D55" t="n">
-        <v>0.198073</v>
+        <v>0.202779</v>
       </c>
       <c r="E55" t="n">
-        <v>0.163198</v>
+        <v>0.16049</v>
       </c>
       <c r="F55" t="n">
-        <v>0.135925</v>
+        <v>0.137963</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.18425</v>
+        <v>0.18466</v>
       </c>
       <c r="C56" t="n">
-        <v>0.174448</v>
+        <v>0.16615</v>
       </c>
       <c r="D56" t="n">
-        <v>0.206541</v>
+        <v>0.207507</v>
       </c>
       <c r="E56" t="n">
-        <v>0.16136</v>
+        <v>0.15821</v>
       </c>
       <c r="F56" t="n">
-        <v>0.137877</v>
+        <v>0.135687</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.177127</v>
+        <v>0.174799</v>
       </c>
       <c r="C57" t="n">
-        <v>0.169989</v>
+        <v>0.166351</v>
       </c>
       <c r="D57" t="n">
-        <v>0.216972</v>
+        <v>0.211834</v>
       </c>
       <c r="E57" t="n">
-        <v>0.157858</v>
+        <v>0.159231</v>
       </c>
       <c r="F57" t="n">
-        <v>0.147239</v>
+        <v>0.14445</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.176973</v>
+        <v>0.176737</v>
       </c>
       <c r="C58" t="n">
-        <v>0.171884</v>
+        <v>0.168732</v>
       </c>
       <c r="D58" t="n">
-        <v>0.22267</v>
+        <v>0.235754</v>
       </c>
       <c r="E58" t="n">
-        <v>0.165643</v>
+        <v>0.160151</v>
       </c>
       <c r="F58" t="n">
-        <v>0.145886</v>
+        <v>0.145141</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.179445</v>
+        <v>0.178271</v>
       </c>
       <c r="C59" t="n">
-        <v>0.172175</v>
+        <v>0.173667</v>
       </c>
       <c r="D59" t="n">
-        <v>0.230165</v>
+        <v>0.229966</v>
       </c>
       <c r="E59" t="n">
-        <v>0.165879</v>
+        <v>0.159129</v>
       </c>
       <c r="F59" t="n">
-        <v>0.152587</v>
+        <v>0.14935</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.179854</v>
+        <v>0.181031</v>
       </c>
       <c r="C60" t="n">
-        <v>0.180011</v>
+        <v>0.175422</v>
       </c>
       <c r="D60" t="n">
-        <v>0.26052</v>
+        <v>0.238929</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1641</v>
+        <v>0.164135</v>
       </c>
       <c r="F60" t="n">
-        <v>0.150933</v>
+        <v>0.151052</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.180432</v>
+        <v>0.180821</v>
       </c>
       <c r="C61" t="n">
-        <v>0.177131</v>
+        <v>0.178015</v>
       </c>
       <c r="D61" t="n">
-        <v>0.248854</v>
+        <v>0.258771</v>
       </c>
       <c r="E61" t="n">
-        <v>0.161994</v>
+        <v>0.163401</v>
       </c>
       <c r="F61" t="n">
-        <v>0.155553</v>
+        <v>0.156468</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.174201</v>
+        <v>0.174125</v>
       </c>
       <c r="C62" t="n">
-        <v>0.178384</v>
+        <v>0.181339</v>
       </c>
       <c r="D62" t="n">
-        <v>0.256236</v>
+        <v>0.276453</v>
       </c>
       <c r="E62" t="n">
-        <v>0.160754</v>
+        <v>0.164917</v>
       </c>
       <c r="F62" t="n">
-        <v>0.158465</v>
+        <v>0.163015</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.17553</v>
+        <v>0.178771</v>
       </c>
       <c r="C63" t="n">
-        <v>0.184998</v>
+        <v>0.190212</v>
       </c>
       <c r="D63" t="n">
-        <v>0.269987</v>
+        <v>0.266378</v>
       </c>
       <c r="E63" t="n">
-        <v>0.164434</v>
+        <v>0.166413</v>
       </c>
       <c r="F63" t="n">
-        <v>0.165764</v>
+        <v>0.169184</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.176306</v>
+        <v>0.185477</v>
       </c>
       <c r="C64" t="n">
-        <v>0.187743</v>
+        <v>0.191058</v>
       </c>
       <c r="D64" t="n">
-        <v>0.273129</v>
+        <v>0.278412</v>
       </c>
       <c r="E64" t="n">
-        <v>0.174397</v>
+        <v>0.172336</v>
       </c>
       <c r="F64" t="n">
-        <v>0.170626</v>
+        <v>0.171427</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.190584</v>
+        <v>0.203941</v>
       </c>
       <c r="C65" t="n">
-        <v>0.191658</v>
+        <v>0.193053</v>
       </c>
       <c r="D65" t="n">
-        <v>0.273347</v>
+        <v>0.283993</v>
       </c>
       <c r="E65" t="n">
-        <v>0.170556</v>
+        <v>0.173439</v>
       </c>
       <c r="F65" t="n">
-        <v>0.179798</v>
+        <v>0.184801</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.188623</v>
+        <v>0.186943</v>
       </c>
       <c r="C66" t="n">
-        <v>0.199244</v>
+        <v>0.201674</v>
       </c>
       <c r="D66" t="n">
-        <v>0.285375</v>
+        <v>0.284462</v>
       </c>
       <c r="E66" t="n">
-        <v>0.243739</v>
+        <v>0.247516</v>
       </c>
       <c r="F66" t="n">
-        <v>0.257884</v>
+        <v>0.264062</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.264696</v>
+        <v>0.273518</v>
       </c>
       <c r="C67" t="n">
-        <v>0.286026</v>
+        <v>0.285277</v>
       </c>
       <c r="D67" t="n">
-        <v>0.289453</v>
+        <v>0.292606</v>
       </c>
       <c r="E67" t="n">
-        <v>0.241306</v>
+        <v>0.249777</v>
       </c>
       <c r="F67" t="n">
-        <v>0.251771</v>
+        <v>0.260132</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.264827</v>
+        <v>0.268163</v>
       </c>
       <c r="C68" t="n">
-        <v>0.291479</v>
+        <v>0.28151</v>
       </c>
       <c r="D68" t="n">
-        <v>0.300219</v>
+        <v>0.301439</v>
       </c>
       <c r="E68" t="n">
-        <v>0.242852</v>
+        <v>0.244622</v>
       </c>
       <c r="F68" t="n">
-        <v>0.254665</v>
+        <v>0.265542</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.263441</v>
+        <v>0.265669</v>
       </c>
       <c r="C69" t="n">
-        <v>0.281022</v>
+        <v>0.289306</v>
       </c>
       <c r="D69" t="n">
-        <v>0.30937</v>
+        <v>0.305978</v>
       </c>
       <c r="E69" t="n">
-        <v>0.244227</v>
+        <v>0.247219</v>
       </c>
       <c r="F69" t="n">
-        <v>0.255669</v>
+        <v>0.261202</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.268688</v>
+        <v>0.271534</v>
       </c>
       <c r="C70" t="n">
-        <v>0.278238</v>
+        <v>0.289011</v>
       </c>
       <c r="D70" t="n">
-        <v>0.316694</v>
+        <v>0.319658</v>
       </c>
       <c r="E70" t="n">
-        <v>0.244578</v>
+        <v>0.250365</v>
       </c>
       <c r="F70" t="n">
-        <v>0.257961</v>
+        <v>0.26244</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.269973</v>
+        <v>0.271323</v>
       </c>
       <c r="C71" t="n">
-        <v>0.285422</v>
+        <v>0.296006</v>
       </c>
       <c r="D71" t="n">
-        <v>0.325758</v>
+        <v>0.326501</v>
       </c>
       <c r="E71" t="n">
-        <v>0.249879</v>
+        <v>0.250644</v>
       </c>
       <c r="F71" t="n">
-        <v>0.261783</v>
+        <v>0.259292</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.275939</v>
+        <v>0.273694</v>
       </c>
       <c r="C72" t="n">
-        <v>0.292518</v>
+        <v>0.289276</v>
       </c>
       <c r="D72" t="n">
-        <v>0.33857</v>
+        <v>0.335733</v>
       </c>
       <c r="E72" t="n">
-        <v>0.25468</v>
+        <v>0.254153</v>
       </c>
       <c r="F72" t="n">
-        <v>0.267958</v>
+        <v>0.271214</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.271671</v>
+        <v>0.274218</v>
       </c>
       <c r="C73" t="n">
-        <v>0.284772</v>
+        <v>0.296385</v>
       </c>
       <c r="D73" t="n">
-        <v>0.34991</v>
+        <v>0.347767</v>
       </c>
       <c r="E73" t="n">
-        <v>0.25584</v>
+        <v>0.272502</v>
       </c>
       <c r="F73" t="n">
-        <v>0.271167</v>
+        <v>0.267762</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.2729</v>
+        <v>0.285003</v>
       </c>
       <c r="C74" t="n">
-        <v>0.300615</v>
+        <v>0.287999</v>
       </c>
       <c r="D74" t="n">
-        <v>0.361022</v>
+        <v>0.355553</v>
       </c>
       <c r="E74" t="n">
-        <v>0.255067</v>
+        <v>0.262916</v>
       </c>
       <c r="F74" t="n">
-        <v>0.265941</v>
+        <v>0.276206</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.270677</v>
+        <v>0.277115</v>
       </c>
       <c r="C75" t="n">
-        <v>0.288678</v>
+        <v>0.293994</v>
       </c>
       <c r="D75" t="n">
-        <v>0.362441</v>
+        <v>0.369576</v>
       </c>
       <c r="E75" t="n">
-        <v>0.258104</v>
+        <v>0.255504</v>
       </c>
       <c r="F75" t="n">
-        <v>0.277408</v>
+        <v>0.26927</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.274831</v>
+        <v>0.276908</v>
       </c>
       <c r="C76" t="n">
-        <v>0.293946</v>
+        <v>0.295397</v>
       </c>
       <c r="D76" t="n">
-        <v>0.380674</v>
+        <v>0.379955</v>
       </c>
       <c r="E76" t="n">
-        <v>0.260009</v>
+        <v>0.261549</v>
       </c>
       <c r="F76" t="n">
-        <v>0.278898</v>
+        <v>0.274529</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.288269</v>
+        <v>0.285989</v>
       </c>
       <c r="C77" t="n">
-        <v>0.296296</v>
+        <v>0.298489</v>
       </c>
       <c r="D77" t="n">
-        <v>0.387777</v>
+        <v>0.387181</v>
       </c>
       <c r="E77" t="n">
-        <v>0.258262</v>
+        <v>0.261387</v>
       </c>
       <c r="F77" t="n">
-        <v>0.272563</v>
+        <v>0.277884</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.293571</v>
+        <v>0.287954</v>
       </c>
       <c r="C78" t="n">
-        <v>0.302719</v>
+        <v>0.302048</v>
       </c>
       <c r="D78" t="n">
-        <v>0.362915</v>
+        <v>0.364821</v>
       </c>
       <c r="E78" t="n">
-        <v>0.265915</v>
+        <v>0.265075</v>
       </c>
       <c r="F78" t="n">
-        <v>0.284531</v>
+        <v>0.286099</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.280454</v>
+        <v>0.28859</v>
       </c>
       <c r="C79" t="n">
-        <v>0.333612</v>
+        <v>0.302552</v>
       </c>
       <c r="D79" t="n">
-        <v>0.3751</v>
+        <v>0.374029</v>
       </c>
       <c r="E79" t="n">
-        <v>0.265886</v>
+        <v>0.270604</v>
       </c>
       <c r="F79" t="n">
-        <v>0.296209</v>
+        <v>0.291867</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.290421</v>
+        <v>0.293139</v>
       </c>
       <c r="C80" t="n">
-        <v>0.311697</v>
+        <v>0.309081</v>
       </c>
       <c r="D80" t="n">
-        <v>0.378093</v>
+        <v>0.376015</v>
       </c>
       <c r="E80" t="n">
-        <v>0.356954</v>
+        <v>0.348608</v>
       </c>
       <c r="F80" t="n">
-        <v>0.389836</v>
+        <v>0.393576</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.377059</v>
+        <v>0.364285</v>
       </c>
       <c r="C81" t="n">
-        <v>0.413314</v>
+        <v>0.408676</v>
       </c>
       <c r="D81" t="n">
-        <v>0.383899</v>
+        <v>0.385507</v>
       </c>
       <c r="E81" t="n">
-        <v>0.357528</v>
+        <v>0.347386</v>
       </c>
       <c r="F81" t="n">
-        <v>0.405388</v>
+        <v>0.392495</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.364561</v>
+        <v>0.366576</v>
       </c>
       <c r="C82" t="n">
-        <v>0.401602</v>
+        <v>0.409339</v>
       </c>
       <c r="D82" t="n">
-        <v>0.393938</v>
+        <v>0.390933</v>
       </c>
       <c r="E82" t="n">
-        <v>0.351687</v>
+        <v>0.345459</v>
       </c>
       <c r="F82" t="n">
-        <v>0.401807</v>
+        <v>0.396339</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.367733</v>
+        <v>0.367647</v>
       </c>
       <c r="C83" t="n">
-        <v>0.405987</v>
+        <v>0.406471</v>
       </c>
       <c r="D83" t="n">
-        <v>0.404435</v>
+        <v>0.398541</v>
       </c>
       <c r="E83" t="n">
-        <v>0.350013</v>
+        <v>0.371899</v>
       </c>
       <c r="F83" t="n">
-        <v>0.399207</v>
+        <v>0.400471</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.364911</v>
+        <v>0.370094</v>
       </c>
       <c r="C84" t="n">
-        <v>0.405943</v>
+        <v>0.412261</v>
       </c>
       <c r="D84" t="n">
-        <v>0.406783</v>
+        <v>0.421694</v>
       </c>
       <c r="E84" t="n">
-        <v>0.356663</v>
+        <v>0.363303</v>
       </c>
       <c r="F84" t="n">
-        <v>0.399411</v>
+        <v>0.399057</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.381612</v>
+        <v>0.375294</v>
       </c>
       <c r="C85" t="n">
-        <v>0.405952</v>
+        <v>0.41057</v>
       </c>
       <c r="D85" t="n">
-        <v>0.417204</v>
+        <v>0.425094</v>
       </c>
       <c r="E85" t="n">
-        <v>0.356332</v>
+        <v>0.352992</v>
       </c>
       <c r="F85" t="n">
-        <v>0.398976</v>
+        <v>0.406938</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.371442</v>
+        <v>0.378812</v>
       </c>
       <c r="C86" t="n">
-        <v>0.408885</v>
+        <v>0.42431</v>
       </c>
       <c r="D86" t="n">
-        <v>0.431033</v>
+        <v>0.426834</v>
       </c>
       <c r="E86" t="n">
-        <v>0.360421</v>
+        <v>0.35764</v>
       </c>
       <c r="F86" t="n">
-        <v>0.407847</v>
+        <v>0.407154</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.369995</v>
+        <v>0.373401</v>
       </c>
       <c r="C87" t="n">
-        <v>0.412546</v>
+        <v>0.420469</v>
       </c>
       <c r="D87" t="n">
-        <v>0.459514</v>
+        <v>0.435932</v>
       </c>
       <c r="E87" t="n">
-        <v>0.358105</v>
+        <v>0.355943</v>
       </c>
       <c r="F87" t="n">
-        <v>0.422433</v>
+        <v>0.436442</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.376515</v>
+        <v>0.387388</v>
       </c>
       <c r="C88" t="n">
-        <v>0.411314</v>
+        <v>0.43286</v>
       </c>
       <c r="D88" t="n">
-        <v>0.45658</v>
+        <v>0.45216</v>
       </c>
       <c r="E88" t="n">
-        <v>0.35953</v>
+        <v>0.37923</v>
       </c>
       <c r="F88" t="n">
-        <v>0.416696</v>
+        <v>0.423852</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.379811</v>
+        <v>0.37266</v>
       </c>
       <c r="C89" t="n">
-        <v>0.418152</v>
+        <v>0.420927</v>
       </c>
       <c r="D89" t="n">
-        <v>0.468443</v>
+        <v>0.464129</v>
       </c>
       <c r="E89" t="n">
-        <v>0.360898</v>
+        <v>0.3628</v>
       </c>
       <c r="F89" t="n">
-        <v>0.419218</v>
+        <v>0.419549</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.365843</v>
+        <v>0.375752</v>
       </c>
       <c r="C90" t="n">
-        <v>0.426158</v>
+        <v>0.419608</v>
       </c>
       <c r="D90" t="n">
-        <v>0.492591</v>
+        <v>0.472435</v>
       </c>
       <c r="E90" t="n">
-        <v>0.357851</v>
+        <v>0.358477</v>
       </c>
       <c r="F90" t="n">
-        <v>0.427813</v>
+        <v>0.413282</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.375844</v>
+        <v>0.37274</v>
       </c>
       <c r="C91" t="n">
-        <v>0.436358</v>
+        <v>0.426276</v>
       </c>
       <c r="D91" t="n">
-        <v>0.482714</v>
+        <v>0.483442</v>
       </c>
       <c r="E91" t="n">
-        <v>0.355287</v>
+        <v>0.359862</v>
       </c>
       <c r="F91" t="n">
-        <v>0.414207</v>
+        <v>0.420371</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.371341</v>
+        <v>0.377425</v>
       </c>
       <c r="C92" t="n">
-        <v>0.438999</v>
+        <v>0.429833</v>
       </c>
       <c r="D92" t="n">
-        <v>0.426624</v>
+        <v>0.430665</v>
       </c>
       <c r="E92" t="n">
-        <v>0.364821</v>
+        <v>0.369217</v>
       </c>
       <c r="F92" t="n">
-        <v>0.421409</v>
+        <v>0.421439</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.377456</v>
+        <v>0.384026</v>
       </c>
       <c r="C93" t="n">
-        <v>0.441677</v>
+        <v>0.433888</v>
       </c>
       <c r="D93" t="n">
-        <v>0.438217</v>
+        <v>0.452778</v>
       </c>
       <c r="E93" t="n">
-        <v>0.37139</v>
+        <v>0.367262</v>
       </c>
       <c r="F93" t="n">
-        <v>0.438457</v>
+        <v>0.441602</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.386915</v>
+        <v>0.381189</v>
       </c>
       <c r="C94" t="n">
-        <v>0.441596</v>
+        <v>0.439813</v>
       </c>
       <c r="D94" t="n">
-        <v>0.439356</v>
+        <v>0.441766</v>
       </c>
       <c r="E94" t="n">
-        <v>0.439028</v>
+        <v>0.443481</v>
       </c>
       <c r="F94" t="n">
-        <v>0.513217</v>
+        <v>0.509471</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.443606</v>
+        <v>0.450363</v>
       </c>
       <c r="C95" t="n">
-        <v>0.508162</v>
+        <v>0.522139</v>
       </c>
       <c r="D95" t="n">
-        <v>0.449574</v>
+        <v>0.455665</v>
       </c>
       <c r="E95" t="n">
-        <v>0.455509</v>
+        <v>0.443332</v>
       </c>
       <c r="F95" t="n">
-        <v>0.52866</v>
+        <v>0.507383</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.444489</v>
+        <v>0.46056</v>
       </c>
       <c r="C96" t="n">
-        <v>0.526111</v>
+        <v>0.509005</v>
       </c>
       <c r="D96" t="n">
-        <v>0.4616</v>
+        <v>0.46135</v>
       </c>
       <c r="E96" t="n">
-        <v>0.448792</v>
+        <v>0.449084</v>
       </c>
       <c r="F96" t="n">
-        <v>0.510964</v>
+        <v>0.507135</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.46209</v>
+        <v>0.450243</v>
       </c>
       <c r="C97" t="n">
-        <v>0.500131</v>
+        <v>0.508306</v>
       </c>
       <c r="D97" t="n">
-        <v>0.465735</v>
+        <v>0.471034</v>
       </c>
       <c r="E97" t="n">
-        <v>0.443273</v>
+        <v>0.450504</v>
       </c>
       <c r="F97" t="n">
-        <v>0.511412</v>
+        <v>0.509256</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.453361</v>
+        <v>0.453283</v>
       </c>
       <c r="C98" t="n">
-        <v>0.518716</v>
+        <v>0.499635</v>
       </c>
       <c r="D98" t="n">
-        <v>0.480935</v>
+        <v>0.474645</v>
       </c>
       <c r="E98" t="n">
-        <v>0.450804</v>
+        <v>0.44785</v>
       </c>
       <c r="F98" t="n">
-        <v>0.508059</v>
+        <v>0.509169</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.446195</v>
+        <v>0.458603</v>
       </c>
       <c r="C99" t="n">
-        <v>0.530996</v>
+        <v>0.505448</v>
       </c>
       <c r="D99" t="n">
-        <v>0.50598</v>
+        <v>0.486872</v>
       </c>
       <c r="E99" t="n">
-        <v>0.452993</v>
+        <v>0.448609</v>
       </c>
       <c r="F99" t="n">
-        <v>0.525345</v>
+        <v>0.5115</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.467676</v>
+        <v>0.478633</v>
       </c>
       <c r="C100" t="n">
-        <v>0.517692</v>
+        <v>0.5142679999999999</v>
       </c>
       <c r="D100" t="n">
-        <v>0.500277</v>
+        <v>0.498473</v>
       </c>
       <c r="E100" t="n">
-        <v>0.455733</v>
+        <v>0.447411</v>
       </c>
       <c r="F100" t="n">
-        <v>0.52177</v>
+        <v>0.512474</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.445113</v>
+        <v>0.478</v>
       </c>
       <c r="C101" t="n">
-        <v>0.506603</v>
+        <v>0.508127</v>
       </c>
       <c r="D101" t="n">
-        <v>0.519691</v>
+        <v>0.514494</v>
       </c>
       <c r="E101" t="n">
-        <v>0.445487</v>
+        <v>0.451578</v>
       </c>
       <c r="F101" t="n">
-        <v>0.52278</v>
+        <v>0.5295570000000001</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.452398</v>
+        <v>0.454753</v>
       </c>
       <c r="C102" t="n">
-        <v>0.526094</v>
+        <v>0.511999</v>
       </c>
       <c r="D102" t="n">
-        <v>0.5225109999999999</v>
+        <v>0.526938</v>
       </c>
       <c r="E102" t="n">
-        <v>0.451473</v>
+        <v>0.448535</v>
       </c>
       <c r="F102" t="n">
-        <v>0.51676</v>
+        <v>0.519898</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.457726</v>
+        <v>0.463062</v>
       </c>
       <c r="C103" t="n">
-        <v>0.537921</v>
+        <v>0.521479</v>
       </c>
       <c r="D103" t="n">
-        <v>0.548121</v>
+        <v>0.539762</v>
       </c>
       <c r="E103" t="n">
-        <v>0.456885</v>
+        <v>0.451919</v>
       </c>
       <c r="F103" t="n">
-        <v>0.529724</v>
+        <v>0.52762</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.457437</v>
+        <v>0.451613</v>
       </c>
       <c r="C104" t="n">
-        <v>0.551484</v>
+        <v>0.512635</v>
       </c>
       <c r="D104" t="n">
-        <v>0.5455989999999999</v>
+        <v>0.555916</v>
       </c>
       <c r="E104" t="n">
-        <v>0.450685</v>
+        <v>0.454385</v>
       </c>
       <c r="F104" t="n">
-        <v>0.532006</v>
+        <v>0.535308</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.455543</v>
+        <v>0.456764</v>
       </c>
       <c r="C105" t="n">
-        <v>0.5171289999999999</v>
+        <v>0.512705</v>
       </c>
       <c r="D105" t="n">
-        <v>0.559639</v>
+        <v>0.558831</v>
       </c>
       <c r="E105" t="n">
-        <v>0.454601</v>
+        <v>0.449202</v>
       </c>
       <c r="F105" t="n">
-        <v>0.525119</v>
+        <v>0.532214</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.477472</v>
+        <v>0.467683</v>
       </c>
       <c r="C106" t="n">
-        <v>0.542681</v>
+        <v>0.523998</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5705</v>
+        <v>0.5710809999999999</v>
       </c>
       <c r="E106" t="n">
-        <v>0.46101</v>
+        <v>0.452816</v>
       </c>
       <c r="F106" t="n">
-        <v>0.53716</v>
+        <v>0.537144</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.458217</v>
+        <v>0.471594</v>
       </c>
       <c r="C107" t="n">
-        <v>0.528085</v>
+        <v>0.525688</v>
       </c>
       <c r="D107" t="n">
-        <v>0.490711</v>
+        <v>0.490514</v>
       </c>
       <c r="E107" t="n">
-        <v>0.459298</v>
+        <v>0.456628</v>
       </c>
       <c r="F107" t="n">
-        <v>0.545855</v>
+        <v>0.548107</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.463403</v>
+        <v>0.456513</v>
       </c>
       <c r="C108" t="n">
-        <v>0.534224</v>
+        <v>0.548403</v>
       </c>
       <c r="D108" t="n">
-        <v>0.501279</v>
+        <v>0.501924</v>
       </c>
       <c r="E108" t="n">
-        <v>0.5334410000000001</v>
+        <v>0.525515</v>
       </c>
       <c r="F108" t="n">
-        <v>0.587266</v>
+        <v>0.591903</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.459994</v>
+        <v>0.476843</v>
       </c>
       <c r="C109" t="n">
-        <v>0.581613</v>
+        <v>0.562873</v>
       </c>
       <c r="D109" t="n">
-        <v>0.544522</v>
+        <v>0.550881</v>
       </c>
       <c r="E109" t="n">
-        <v>0.5283409999999999</v>
+        <v>0.526993</v>
       </c>
       <c r="F109" t="n">
-        <v>0.587275</v>
+        <v>0.581778</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.545143</v>
+        <v>0.562258</v>
       </c>
       <c r="C110" t="n">
-        <v>0.598054</v>
+        <v>0.599787</v>
       </c>
       <c r="D110" t="n">
-        <v>0.524603</v>
+        <v>0.523845</v>
       </c>
       <c r="E110" t="n">
-        <v>0.547481</v>
+        <v>0.531091</v>
       </c>
       <c r="F110" t="n">
-        <v>0.587185</v>
+        <v>0.604594</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.548902</v>
+        <v>0.554322</v>
       </c>
       <c r="C111" t="n">
-        <v>0.601553</v>
+        <v>0.608062</v>
       </c>
       <c r="D111" t="n">
-        <v>0.541666</v>
+        <v>0.536741</v>
       </c>
       <c r="E111" t="n">
-        <v>0.5330819999999999</v>
+        <v>0.531747</v>
       </c>
       <c r="F111" t="n">
-        <v>0.592328</v>
+        <v>0.58643</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.556455</v>
+        <v>0.599853</v>
       </c>
       <c r="C112" t="n">
-        <v>0.59787</v>
+        <v>0.597541</v>
       </c>
       <c r="D112" t="n">
-        <v>0.541982</v>
+        <v>0.552365</v>
       </c>
       <c r="E112" t="n">
-        <v>0.538231</v>
+        <v>0.542115</v>
       </c>
       <c r="F112" t="n">
-        <v>0.606775</v>
+        <v>0.590645</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.547239</v>
+        <v>0.544508</v>
       </c>
       <c r="C113" t="n">
-        <v>0.593845</v>
+        <v>0.594949</v>
       </c>
       <c r="D113" t="n">
-        <v>0.563623</v>
+        <v>0.56138</v>
       </c>
       <c r="E113" t="n">
-        <v>0.53366</v>
+        <v>0.540322</v>
       </c>
       <c r="F113" t="n">
-        <v>0.599962</v>
+        <v>0.613134</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.548055</v>
+        <v>0.564977</v>
       </c>
       <c r="C114" t="n">
-        <v>0.623371</v>
+        <v>0.60171</v>
       </c>
       <c r="D114" t="n">
-        <v>0.567895</v>
+        <v>0.56958</v>
       </c>
       <c r="E114" t="n">
-        <v>0.528556</v>
+        <v>0.536581</v>
       </c>
       <c r="F114" t="n">
-        <v>0.607783</v>
+        <v>0.621999</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.552889</v>
+        <v>0.551642</v>
       </c>
       <c r="C115" t="n">
-        <v>0.603559</v>
+        <v>0.600388</v>
       </c>
       <c r="D115" t="n">
-        <v>0.582559</v>
+        <v>0.581693</v>
       </c>
       <c r="E115" t="n">
-        <v>0.535822</v>
+        <v>0.54003</v>
       </c>
       <c r="F115" t="n">
-        <v>0.594889</v>
+        <v>0.605096</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.555453</v>
+        <v>0.553715</v>
       </c>
       <c r="C116" t="n">
-        <v>0.61805</v>
+        <v>0.604223</v>
       </c>
       <c r="D116" t="n">
-        <v>0.588706</v>
+        <v>0.594453</v>
       </c>
       <c r="E116" t="n">
-        <v>0.532977</v>
+        <v>0.5276690000000001</v>
       </c>
       <c r="F116" t="n">
-        <v>0.599743</v>
+        <v>0.613926</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.553211</v>
+        <v>0.559011</v>
       </c>
       <c r="C117" t="n">
-        <v>0.599357</v>
+        <v>0.606816</v>
       </c>
       <c r="D117" t="n">
-        <v>0.616255</v>
+        <v>0.642637</v>
       </c>
       <c r="E117" t="n">
-        <v>0.532309</v>
+        <v>0.54434</v>
       </c>
       <c r="F117" t="n">
-        <v>0.6221370000000001</v>
+        <v>0.616183</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.562425</v>
+        <v>0.557188</v>
       </c>
       <c r="C118" t="n">
-        <v>0.602285</v>
+        <v>0.615641</v>
       </c>
       <c r="D118" t="n">
-        <v>0.612058</v>
+        <v>0.615961</v>
       </c>
       <c r="E118" t="n">
-        <v>0.544513</v>
+        <v>0.538184</v>
       </c>
       <c r="F118" t="n">
-        <v>0.611822</v>
+        <v>0.626445</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.54504</v>
+        <v>0.571223</v>
       </c>
       <c r="C119" t="n">
-        <v>0.622776</v>
+        <v>0.625333</v>
       </c>
       <c r="D119" t="n">
-        <v>0.624192</v>
+        <v>0.639574</v>
       </c>
       <c r="E119" t="n">
-        <v>0.53936</v>
+        <v>0.550516</v>
       </c>
       <c r="F119" t="n">
-        <v>0.613433</v>
+        <v>0.622439</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.557066</v>
+        <v>0.556501</v>
       </c>
       <c r="C120" t="n">
-        <v>0.624242</v>
+        <v>0.617865</v>
       </c>
       <c r="D120" t="n">
-        <v>0.659118</v>
+        <v>0.65257</v>
       </c>
       <c r="E120" t="n">
-        <v>0.536322</v>
+        <v>0.563044</v>
       </c>
       <c r="F120" t="n">
-        <v>0.620823</v>
+        <v>0.635121</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.553382</v>
+        <v>0.571976</v>
       </c>
       <c r="C121" t="n">
-        <v>0.6138400000000001</v>
+        <v>0.625147</v>
       </c>
       <c r="D121" t="n">
-        <v>0.598447</v>
+        <v>0.571286</v>
       </c>
       <c r="E121" t="n">
-        <v>0.542743</v>
+        <v>0.5593900000000001</v>
       </c>
       <c r="F121" t="n">
-        <v>0.625636</v>
+        <v>0.641437</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.566949</v>
+        <v>0.565207</v>
       </c>
       <c r="C122" t="n">
-        <v>0.6349</v>
+        <v>0.644409</v>
       </c>
       <c r="D122" t="n">
-        <v>0.57641</v>
+        <v>0.590464</v>
       </c>
       <c r="E122" t="n">
-        <v>0.549411</v>
+        <v>0.553657</v>
       </c>
       <c r="F122" t="n">
-        <v>0.646377</v>
+        <v>0.6453449999999999</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.623328</v>
+        <v>0.564212</v>
       </c>
       <c r="C123" t="n">
-        <v>0.636758</v>
+        <v>0.65469</v>
       </c>
       <c r="D123" t="n">
-        <v>0.609271</v>
+        <v>0.593581</v>
       </c>
       <c r="E123" t="n">
-        <v>0.661067</v>
+        <v>0.652706</v>
       </c>
       <c r="F123" t="n">
-        <v>0.668822</v>
+        <v>0.667779</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.834133</v>
+        <v>0.72654</v>
       </c>
       <c r="C124" t="n">
-        <v>0.723826</v>
+        <v>0.724285</v>
       </c>
       <c r="D124" t="n">
-        <v>0.596943</v>
+        <v>0.600662</v>
       </c>
       <c r="E124" t="n">
-        <v>0.6480320000000001</v>
+        <v>0.684823</v>
       </c>
       <c r="F124" t="n">
-        <v>0.710972</v>
+        <v>0.662123</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.724042</v>
+        <v>0.7269640000000001</v>
       </c>
       <c r="C125" t="n">
-        <v>0.720166</v>
+        <v>0.73208</v>
       </c>
       <c r="D125" t="n">
-        <v>0.615495</v>
+        <v>0.618691</v>
       </c>
       <c r="E125" t="n">
-        <v>0.655549</v>
+        <v>0.654288</v>
       </c>
       <c r="F125" t="n">
-        <v>0.679494</v>
+        <v>0.657268</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.712477</v>
+        <v>0.709713</v>
       </c>
       <c r="C126" t="n">
-        <v>0.719359</v>
+        <v>0.720009</v>
       </c>
       <c r="D126" t="n">
-        <v>0.6346349999999999</v>
+        <v>0.627039</v>
       </c>
       <c r="E126" t="n">
-        <v>0.652888</v>
+        <v>0.659394</v>
       </c>
       <c r="F126" t="n">
-        <v>0.6704</v>
+        <v>0.70319</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.70951</v>
+        <v>0.706236</v>
       </c>
       <c r="C127" t="n">
-        <v>0.725988</v>
+        <v>0.717607</v>
       </c>
       <c r="D127" t="n">
-        <v>0.63552</v>
+        <v>0.651791</v>
       </c>
       <c r="E127" t="n">
-        <v>0.646906</v>
+        <v>0.655775</v>
       </c>
       <c r="F127" t="n">
-        <v>0.674831</v>
+        <v>0.666732</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.707987</v>
+        <v>0.717664</v>
       </c>
       <c r="C128" t="n">
-        <v>0.748677</v>
+        <v>0.739611</v>
       </c>
       <c r="D128" t="n">
-        <v>0.6520629999999999</v>
+        <v>0.641923</v>
       </c>
       <c r="E128" t="n">
-        <v>0.679559</v>
+        <v>0.657913</v>
       </c>
       <c r="F128" t="n">
-        <v>0.713444</v>
+        <v>0.671957</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.717235</v>
+        <v>0.736294</v>
       </c>
       <c r="C129" t="n">
-        <v>0.720866</v>
+        <v>0.74455</v>
       </c>
       <c r="D129" t="n">
-        <v>0.654383</v>
+        <v>0.696694</v>
       </c>
       <c r="E129" t="n">
-        <v>0.660245</v>
+        <v>0.663317</v>
       </c>
       <c r="F129" t="n">
-        <v>0.675004</v>
+        <v>0.681915</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.709896</v>
+        <v>0.856638</v>
       </c>
       <c r="C130" t="n">
-        <v>0.753976</v>
+        <v>0.73209</v>
       </c>
       <c r="D130" t="n">
-        <v>0.665341</v>
+        <v>0.699753</v>
       </c>
       <c r="E130" t="n">
-        <v>0.665364</v>
+        <v>0.663797</v>
       </c>
       <c r="F130" t="n">
-        <v>0.681296</v>
+        <v>0.681428</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.711782</v>
+        <v>0.717947</v>
       </c>
       <c r="C131" t="n">
-        <v>0.736161</v>
+        <v>0.734026</v>
       </c>
       <c r="D131" t="n">
-        <v>0.681698</v>
+        <v>0.688948</v>
       </c>
       <c r="E131" t="n">
-        <v>0.664818</v>
+        <v>0.685094</v>
       </c>
       <c r="F131" t="n">
-        <v>0.682355</v>
+        <v>0.7186</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.712286</v>
+        <v>0.831961</v>
       </c>
       <c r="C132" t="n">
-        <v>0.736282</v>
+        <v>0.76723</v>
       </c>
       <c r="D132" t="n">
-        <v>0.699229</v>
+        <v>0.710144</v>
       </c>
       <c r="E132" t="n">
-        <v>0.6591360000000001</v>
+        <v>0.66766</v>
       </c>
       <c r="F132" t="n">
-        <v>0.702495</v>
+        <v>0.727826</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.734949</v>
+        <v>0.7367629999999999</v>
       </c>
       <c r="C133" t="n">
-        <v>0.7403419999999999</v>
+        <v>0.734647</v>
       </c>
       <c r="D133" t="n">
-        <v>0.70796</v>
+        <v>0.721992</v>
       </c>
       <c r="E133" t="n">
-        <v>0.661937</v>
+        <v>0.667421</v>
       </c>
       <c r="F133" t="n">
-        <v>0.7103159999999999</v>
+        <v>0.700062</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.7099259999999999</v>
+        <v>0.71297</v>
       </c>
       <c r="C134" t="n">
-        <v>0.7712599999999999</v>
+        <v>0.741532</v>
       </c>
       <c r="D134" t="n">
-        <v>0.734568</v>
+        <v>0.736177</v>
       </c>
       <c r="E134" t="n">
-        <v>0.684447</v>
+        <v>0.684427</v>
       </c>
       <c r="F134" t="n">
-        <v>0.71596</v>
+        <v>0.714565</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.720808</v>
+        <v>0.722754</v>
       </c>
       <c r="C135" t="n">
-        <v>0.755564</v>
+        <v>0.759122</v>
       </c>
       <c r="D135" t="n">
-        <v>0.693165</v>
+        <v>0.697652</v>
       </c>
       <c r="E135" t="n">
-        <v>0.673951</v>
+        <v>0.6751200000000001</v>
       </c>
       <c r="F135" t="n">
-        <v>0.706532</v>
+        <v>0.72539</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.715077</v>
+        <v>0.716108</v>
       </c>
       <c r="C136" t="n">
-        <v>0.748406</v>
+        <v>0.767406</v>
       </c>
       <c r="D136" t="n">
-        <v>0.68658</v>
+        <v>0.680755</v>
       </c>
       <c r="E136" t="n">
-        <v>0.68973</v>
+        <v>0.680601</v>
       </c>
       <c r="F136" t="n">
-        <v>0.716724</v>
+        <v>0.736276</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.721193</v>
+        <v>0.730893</v>
       </c>
       <c r="C137" t="n">
-        <v>0.769512</v>
+        <v>0.776324</v>
       </c>
       <c r="D137" t="n">
-        <v>0.6952469999999999</v>
+        <v>0.696887</v>
       </c>
       <c r="E137" t="n">
-        <v>0.829757</v>
+        <v>0.822855</v>
       </c>
       <c r="F137" t="n">
-        <v>0.7865220000000001</v>
+        <v>0.8002590000000001</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.914818</v>
+        <v>0.9195449999999999</v>
       </c>
       <c r="C138" t="n">
-        <v>0.837527</v>
+        <v>0.836881</v>
       </c>
       <c r="D138" t="n">
-        <v>0.708803</v>
+        <v>0.71062</v>
       </c>
       <c r="E138" t="n">
-        <v>0.829864</v>
+        <v>0.825719</v>
       </c>
       <c r="F138" t="n">
-        <v>0.787668</v>
+        <v>0.772104</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.922276</v>
+        <v>0.933526</v>
       </c>
       <c r="C139" t="n">
-        <v>0.841426</v>
+        <v>0.844092</v>
       </c>
       <c r="D139" t="n">
-        <v>0.715386</v>
+        <v>0.7317399999999999</v>
       </c>
       <c r="E139" t="n">
-        <v>0.853106</v>
+        <v>0.828784</v>
       </c>
       <c r="F139" t="n">
-        <v>0.809657</v>
+        <v>0.773569</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.922831</v>
+        <v>0.991681</v>
       </c>
       <c r="C140" t="n">
-        <v>0.837666</v>
+        <v>0.832078</v>
       </c>
       <c r="D140" t="n">
-        <v>0.734649</v>
+        <v>0.742807</v>
       </c>
       <c r="E140" t="n">
-        <v>0.8178569999999999</v>
+        <v>0.8185480000000001</v>
       </c>
       <c r="F140" t="n">
-        <v>0.785529</v>
+        <v>0.774224</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.914058</v>
+        <v>0.925812</v>
       </c>
       <c r="C141" t="n">
-        <v>0.84766</v>
+        <v>0.834998</v>
       </c>
       <c r="D141" t="n">
-        <v>0.745572</v>
+        <v>0.746224</v>
       </c>
       <c r="E141" t="n">
-        <v>0.819396</v>
+        <v>0.834497</v>
       </c>
       <c r="F141" t="n">
-        <v>0.796197</v>
+        <v>0.786724</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.906294</v>
+        <v>0.921282</v>
       </c>
       <c r="C142" t="n">
-        <v>0.837704</v>
+        <v>0.854382</v>
       </c>
       <c r="D142" t="n">
-        <v>0.763135</v>
+        <v>0.769933</v>
       </c>
       <c r="E142" t="n">
-        <v>0.82728</v>
+        <v>0.827264</v>
       </c>
       <c r="F142" t="n">
-        <v>0.792834</v>
+        <v>0.790878</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.910297</v>
+        <v>0.918986</v>
       </c>
       <c r="C143" t="n">
-        <v>0.843205</v>
+        <v>0.836828</v>
       </c>
       <c r="D143" t="n">
-        <v>0.77729</v>
+        <v>0.776653</v>
       </c>
       <c r="E143" t="n">
-        <v>0.813231</v>
+        <v>0.823083</v>
       </c>
       <c r="F143" t="n">
-        <v>0.793544</v>
+        <v>0.774326</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0641304</v>
+        <v>0.0658381</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0699232</v>
+        <v>0.06772830000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09497269999999999</v>
+        <v>0.0955392</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0540656</v>
+        <v>0.0585666</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0608033</v>
+        <v>0.0624689</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0641471</v>
+        <v>0.0635671</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0678902</v>
+        <v>0.06747980000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.100344</v>
+        <v>0.09877320000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0559607</v>
+        <v>0.0564104</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0616598</v>
+        <v>0.0621734</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0657181</v>
+        <v>0.0637393</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0700991</v>
+        <v>0.0669855</v>
       </c>
       <c r="D4" t="n">
-        <v>0.10131</v>
+        <v>0.100208</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0556983</v>
+        <v>0.0567532</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0616536</v>
+        <v>0.0622406</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.06442580000000001</v>
+        <v>0.0640192</v>
       </c>
       <c r="C5" t="n">
-        <v>0.067291</v>
+        <v>0.06747</v>
       </c>
       <c r="D5" t="n">
-        <v>0.104173</v>
+        <v>0.103234</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0553485</v>
+        <v>0.057467</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0626927</v>
+        <v>0.0635418</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.06533650000000001</v>
+        <v>0.0651544</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0684685</v>
+        <v>0.0682125</v>
       </c>
       <c r="D6" t="n">
-        <v>0.108292</v>
+        <v>0.107541</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0613566</v>
+        <v>0.0585108</v>
       </c>
       <c r="F6" t="n">
-        <v>0.06323289999999999</v>
+        <v>0.0633092</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06489060000000001</v>
+        <v>0.0648498</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06958010000000001</v>
+        <v>0.06816469999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0834197</v>
+        <v>0.0812802</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0601948</v>
+        <v>0.0608985</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0625961</v>
+        <v>0.06417009999999999</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.06608509999999999</v>
+        <v>0.0654927</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0705346</v>
+        <v>0.0684173</v>
       </c>
       <c r="D8" t="n">
-        <v>0.084843</v>
+        <v>0.0835127</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0645278</v>
+        <v>0.0675154</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0698983</v>
+        <v>0.0694381</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0682405</v>
+        <v>0.0678383</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0706683</v>
+        <v>0.07052120000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>0.08930630000000001</v>
+        <v>0.08561299999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0563779</v>
+        <v>0.0579155</v>
       </c>
       <c r="F9" t="n">
-        <v>0.066806</v>
+        <v>0.06612759999999999</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0717217</v>
+        <v>0.0708558</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0769306</v>
+        <v>0.076006</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0901864</v>
+        <v>0.08849310000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0577636</v>
+        <v>0.0598168</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0653046</v>
+        <v>0.0679469</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0718569</v>
+        <v>0.0727643</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0784965</v>
+        <v>0.07633180000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0928663</v>
+        <v>0.0907437</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0567761</v>
+        <v>0.0586317</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0664735</v>
+        <v>0.0680187</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0725679</v>
+        <v>0.0721623</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07743650000000001</v>
+        <v>0.077124</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0959516</v>
+        <v>0.09420729999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0567236</v>
+        <v>0.0590167</v>
       </c>
       <c r="F12" t="n">
-        <v>0.069496</v>
+        <v>0.0682744</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.07172240000000001</v>
+        <v>0.0727846</v>
       </c>
       <c r="C13" t="n">
-        <v>0.08020040000000001</v>
+        <v>0.0778131</v>
       </c>
       <c r="D13" t="n">
-        <v>0.09904209999999999</v>
+        <v>0.0971988</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0574518</v>
+        <v>0.0595711</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0673347</v>
+        <v>0.0682494</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0731053</v>
+        <v>0.0728248</v>
       </c>
       <c r="C14" t="n">
-        <v>0.077801</v>
+        <v>0.0784473</v>
       </c>
       <c r="D14" t="n">
-        <v>0.100818</v>
+        <v>0.100018</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0579077</v>
+        <v>0.0618642</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0676585</v>
+        <v>0.0700065</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0725623</v>
+        <v>0.0742618</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0785189</v>
+        <v>0.0791031</v>
       </c>
       <c r="D15" t="n">
-        <v>0.104143</v>
+        <v>0.104077</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0614158</v>
+        <v>0.0608129</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0680993</v>
+        <v>0.0689051</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0726036</v>
+        <v>0.0729392</v>
       </c>
       <c r="C16" t="n">
-        <v>0.077086</v>
+        <v>0.07812470000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>0.107017</v>
+        <v>0.106057</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0602908</v>
+        <v>0.0607971</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0677736</v>
+        <v>0.07046289999999999</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0728728</v>
+        <v>0.0756573</v>
       </c>
       <c r="C17" t="n">
-        <v>0.077277</v>
+        <v>0.0774802</v>
       </c>
       <c r="D17" t="n">
-        <v>0.110054</v>
+        <v>0.108926</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0592767</v>
+        <v>0.061312</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0681726</v>
+        <v>0.069934</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.07311670000000001</v>
+        <v>0.0731416</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0792079</v>
+        <v>0.07907640000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.113482</v>
+        <v>0.113294</v>
       </c>
       <c r="E18" t="n">
-        <v>0.059833</v>
+        <v>0.062119</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0684884</v>
+        <v>0.0729789</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0725891</v>
+        <v>0.0743679</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0785058</v>
+        <v>0.07876180000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>0.117426</v>
+        <v>0.115633</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0620711</v>
+        <v>0.06346250000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0694734</v>
+        <v>0.0703298</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0736014</v>
+        <v>0.07348929999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0783532</v>
+        <v>0.0782487</v>
       </c>
       <c r="D20" t="n">
-        <v>0.120658</v>
+        <v>0.118055</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0619945</v>
+        <v>0.0639812</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0724379</v>
+        <v>0.0730237</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0738014</v>
+        <v>0.0743067</v>
       </c>
       <c r="C21" t="n">
-        <v>0.07994279999999999</v>
+        <v>0.0799484</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0914668</v>
+        <v>0.0902377</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0660929</v>
+        <v>0.067445</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0724311</v>
+        <v>0.0741221</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0751066</v>
+        <v>0.0745422</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0826234</v>
+        <v>0.0797658</v>
       </c>
       <c r="D22" t="n">
-        <v>0.09451039999999999</v>
+        <v>0.09446499999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>0.07009840000000001</v>
+        <v>0.0709912</v>
       </c>
       <c r="F22" t="n">
-        <v>0.07718990000000001</v>
+        <v>0.07867209999999999</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0764208</v>
+        <v>0.0770677</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0847875</v>
+        <v>0.0825386</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0959356</v>
+        <v>0.09517730000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0622268</v>
+        <v>0.064982</v>
       </c>
       <c r="F23" t="n">
-        <v>0.07382469999999999</v>
+        <v>0.07504039999999999</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.08305410000000001</v>
+        <v>0.0791113</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0870779</v>
+        <v>0.0873828</v>
       </c>
       <c r="D24" t="n">
-        <v>0.09898029999999999</v>
+        <v>0.09708360000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0641245</v>
+        <v>0.0643874</v>
       </c>
       <c r="F24" t="n">
-        <v>0.07416730000000001</v>
+        <v>0.0760414</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0833498</v>
+        <v>0.0804343</v>
       </c>
       <c r="C25" t="n">
-        <v>0.08771180000000001</v>
+        <v>0.0890957</v>
       </c>
       <c r="D25" t="n">
-        <v>0.104337</v>
+        <v>0.09986879999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0627622</v>
+        <v>0.0654257</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0743583</v>
+        <v>0.07675360000000001</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.08087220000000001</v>
+        <v>0.0794477</v>
       </c>
       <c r="C26" t="n">
-        <v>0.08912050000000001</v>
+        <v>0.0885687</v>
       </c>
       <c r="D26" t="n">
-        <v>0.105001</v>
+        <v>0.102968</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0631135</v>
+        <v>0.0657499</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0743853</v>
+        <v>0.0768648</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0801682</v>
+        <v>0.0803633</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0901894</v>
+        <v>0.0882884</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1075</v>
+        <v>0.106116</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0634411</v>
+        <v>0.0659497</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0745633</v>
+        <v>0.0776506</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.080507</v>
+        <v>0.079932</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0882246</v>
+        <v>0.08925420000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>0.110391</v>
+        <v>0.109178</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0644364</v>
+        <v>0.06596920000000001</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0759143</v>
+        <v>0.0777886</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.08362169999999999</v>
+        <v>0.0789492</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0895697</v>
+        <v>0.090408</v>
       </c>
       <c r="D29" t="n">
-        <v>0.115978</v>
+        <v>0.112145</v>
       </c>
       <c r="E29" t="n">
-        <v>0.06353930000000001</v>
+        <v>0.0660785</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0753849</v>
+        <v>0.07736609999999999</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0803736</v>
+        <v>0.07941719999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0916438</v>
+        <v>0.0934159</v>
       </c>
       <c r="D30" t="n">
-        <v>0.117452</v>
+        <v>0.116264</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0643632</v>
+        <v>0.0668319</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0770362</v>
+        <v>0.0797152</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.08012850000000001</v>
+        <v>0.08088380000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>0.09325940000000001</v>
+        <v>0.0876873</v>
       </c>
       <c r="D31" t="n">
-        <v>0.123104</v>
+        <v>0.120771</v>
       </c>
       <c r="E31" t="n">
-        <v>0.06646779999999999</v>
+        <v>0.06759560000000001</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0775319</v>
+        <v>0.0787741</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0802059</v>
+        <v>0.0792438</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0884436</v>
+        <v>0.0886576</v>
       </c>
       <c r="D32" t="n">
-        <v>0.125153</v>
+        <v>0.12494</v>
       </c>
       <c r="E32" t="n">
-        <v>0.066052</v>
+        <v>0.06776980000000001</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0802554</v>
+        <v>0.0808217</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0814549</v>
+        <v>0.080637</v>
       </c>
       <c r="C33" t="n">
-        <v>0.09103840000000001</v>
+        <v>0.08870889999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>0.129742</v>
+        <v>0.12863</v>
       </c>
       <c r="E33" t="n">
-        <v>0.065923</v>
+        <v>0.06843249999999999</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0802156</v>
+        <v>0.0794932</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.08108799999999999</v>
+        <v>0.0800778</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0906938</v>
+        <v>0.08906650000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.131204</v>
+        <v>0.130844</v>
       </c>
       <c r="E34" t="n">
-        <v>0.06777469999999999</v>
+        <v>0.0688327</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0791859</v>
+        <v>0.0830615</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.07984289999999999</v>
+        <v>0.08062759999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.09043610000000001</v>
+        <v>0.0899914</v>
       </c>
       <c r="D35" t="n">
-        <v>0.113177</v>
+        <v>0.10826</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0753707</v>
+        <v>0.0708434</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0834348</v>
+        <v>0.0829355</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.08241130000000001</v>
+        <v>0.08119659999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0932905</v>
+        <v>0.0916211</v>
       </c>
       <c r="D36" t="n">
-        <v>0.112432</v>
+        <v>0.112945</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0743521</v>
+        <v>0.0757328</v>
       </c>
       <c r="F36" t="n">
-        <v>0.08877939999999999</v>
+        <v>0.0874658</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0844414</v>
+        <v>0.0848971</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0952988</v>
+        <v>0.09637999999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>0.120306</v>
+        <v>0.116382</v>
       </c>
       <c r="E37" t="n">
-        <v>0.07138700000000001</v>
+        <v>0.0733521</v>
       </c>
       <c r="F37" t="n">
-        <v>0.084914</v>
+        <v>0.08413710000000001</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.100182</v>
+        <v>0.0987542</v>
       </c>
       <c r="C38" t="n">
-        <v>0.100533</v>
+        <v>0.0982421</v>
       </c>
       <c r="D38" t="n">
-        <v>0.122364</v>
+        <v>0.120993</v>
       </c>
       <c r="E38" t="n">
-        <v>0.07149079999999999</v>
+        <v>0.0726589</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0831727</v>
+        <v>0.0840617</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.101145</v>
+        <v>0.0991842</v>
       </c>
       <c r="C39" t="n">
-        <v>0.100695</v>
+        <v>0.0995033</v>
       </c>
       <c r="D39" t="n">
-        <v>0.127528</v>
+        <v>0.12549</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0710937</v>
+        <v>0.0725169</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0834886</v>
+        <v>0.08409419999999999</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.100056</v>
+        <v>0.0984835</v>
       </c>
       <c r="C40" t="n">
-        <v>0.10013</v>
+        <v>0.101179</v>
       </c>
       <c r="D40" t="n">
-        <v>0.131145</v>
+        <v>0.130819</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0713685</v>
+        <v>0.07420359999999999</v>
       </c>
       <c r="F40" t="n">
-        <v>0.085297</v>
+        <v>0.08740630000000001</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.100231</v>
+        <v>0.102032</v>
       </c>
       <c r="C41" t="n">
-        <v>0.100447</v>
+        <v>0.101982</v>
       </c>
       <c r="D41" t="n">
-        <v>0.136675</v>
+        <v>0.134785</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0728264</v>
+        <v>0.0743024</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0861039</v>
+        <v>0.0850423</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.101981</v>
+        <v>0.0977087</v>
       </c>
       <c r="C42" t="n">
-        <v>0.09994069999999999</v>
+        <v>0.103428</v>
       </c>
       <c r="D42" t="n">
-        <v>0.141482</v>
+        <v>0.140585</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0709294</v>
+        <v>0.07325230000000001</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0865974</v>
+        <v>0.08704190000000001</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.09773229999999999</v>
+        <v>0.09857929999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>0.10353</v>
+        <v>0.100214</v>
       </c>
       <c r="D43" t="n">
-        <v>0.146754</v>
+        <v>0.144341</v>
       </c>
       <c r="E43" t="n">
-        <v>0.07534059999999999</v>
+        <v>0.0740239</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0883487</v>
+        <v>0.0883173</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.100143</v>
+        <v>0.0987647</v>
       </c>
       <c r="C44" t="n">
-        <v>0.10113</v>
+        <v>0.102152</v>
       </c>
       <c r="D44" t="n">
-        <v>0.152952</v>
+        <v>0.14907</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0716358</v>
+        <v>0.0741009</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0868091</v>
+        <v>0.0893187</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0985814</v>
+        <v>0.09868209999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>0.103361</v>
+        <v>0.104075</v>
       </c>
       <c r="D45" t="n">
-        <v>0.156073</v>
+        <v>0.154949</v>
       </c>
       <c r="E45" t="n">
-        <v>0.07237499999999999</v>
+        <v>0.07535509999999999</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0878005</v>
+        <v>0.096862</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.09786250000000001</v>
+        <v>0.0985174</v>
       </c>
       <c r="C46" t="n">
-        <v>0.102274</v>
+        <v>0.107995</v>
       </c>
       <c r="D46" t="n">
-        <v>0.160526</v>
+        <v>0.161079</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0738524</v>
+        <v>0.0750714</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0931102</v>
+        <v>0.0979008</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.101371</v>
+        <v>0.0988488</v>
       </c>
       <c r="C47" t="n">
-        <v>0.105987</v>
+        <v>0.107053</v>
       </c>
       <c r="D47" t="n">
-        <v>0.166248</v>
+        <v>0.166335</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0751744</v>
+        <v>0.0760569</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0911598</v>
+        <v>0.0943362</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0988101</v>
+        <v>0.100754</v>
       </c>
       <c r="C48" t="n">
-        <v>0.105858</v>
+        <v>0.116002</v>
       </c>
       <c r="D48" t="n">
-        <v>0.171184</v>
+        <v>0.178575</v>
       </c>
       <c r="E48" t="n">
-        <v>0.07542409999999999</v>
+        <v>0.0771956</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0960405</v>
+        <v>0.103197</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.101523</v>
+        <v>0.100744</v>
       </c>
       <c r="C49" t="n">
-        <v>0.112067</v>
+        <v>0.118118</v>
       </c>
       <c r="D49" t="n">
-        <v>0.180218</v>
+        <v>0.177795</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0782687</v>
+        <v>0.0793295</v>
       </c>
       <c r="F49" t="n">
-        <v>0.100435</v>
+        <v>0.102749</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.102961</v>
+        <v>0.100213</v>
       </c>
       <c r="C50" t="n">
-        <v>0.115975</v>
+        <v>0.119865</v>
       </c>
       <c r="D50" t="n">
-        <v>0.171954</v>
+        <v>0.172298</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0823784</v>
+        <v>0.0831561</v>
       </c>
       <c r="F50" t="n">
-        <v>0.105798</v>
+        <v>0.110345</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.104512</v>
+        <v>0.102756</v>
       </c>
       <c r="C51" t="n">
-        <v>0.119452</v>
+        <v>0.12305</v>
       </c>
       <c r="D51" t="n">
-        <v>0.176302</v>
+        <v>0.178842</v>
       </c>
       <c r="E51" t="n">
-        <v>0.158635</v>
+        <v>0.157152</v>
       </c>
       <c r="F51" t="n">
-        <v>0.127277</v>
+        <v>0.127698</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.10846</v>
+        <v>0.10712</v>
       </c>
       <c r="C52" t="n">
-        <v>0.127372</v>
+        <v>0.133463</v>
       </c>
       <c r="D52" t="n">
-        <v>0.181462</v>
+        <v>0.181422</v>
       </c>
       <c r="E52" t="n">
-        <v>0.157802</v>
+        <v>0.160313</v>
       </c>
       <c r="F52" t="n">
-        <v>0.129797</v>
+        <v>0.129681</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.177204</v>
+        <v>0.178073</v>
       </c>
       <c r="C53" t="n">
-        <v>0.15788</v>
+        <v>0.182711</v>
       </c>
       <c r="D53" t="n">
-        <v>0.1893</v>
+        <v>0.189812</v>
       </c>
       <c r="E53" t="n">
-        <v>0.160051</v>
+        <v>0.158299</v>
       </c>
       <c r="F53" t="n">
-        <v>0.130052</v>
+        <v>0.144588</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.180929</v>
+        <v>0.178527</v>
       </c>
       <c r="C54" t="n">
-        <v>0.162966</v>
+        <v>0.160408</v>
       </c>
       <c r="D54" t="n">
-        <v>0.197059</v>
+        <v>0.194648</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1626</v>
+        <v>0.16173</v>
       </c>
       <c r="F54" t="n">
-        <v>0.138711</v>
+        <v>0.135392</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.179234</v>
+        <v>0.178745</v>
       </c>
       <c r="C55" t="n">
-        <v>0.167684</v>
+        <v>0.163318</v>
       </c>
       <c r="D55" t="n">
-        <v>0.202779</v>
+        <v>0.206649</v>
       </c>
       <c r="E55" t="n">
-        <v>0.16049</v>
+        <v>0.162544</v>
       </c>
       <c r="F55" t="n">
-        <v>0.137963</v>
+        <v>0.149216</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.18466</v>
+        <v>0.192285</v>
       </c>
       <c r="C56" t="n">
-        <v>0.16615</v>
+        <v>0.166313</v>
       </c>
       <c r="D56" t="n">
-        <v>0.207507</v>
+        <v>0.216093</v>
       </c>
       <c r="E56" t="n">
-        <v>0.15821</v>
+        <v>0.162781</v>
       </c>
       <c r="F56" t="n">
-        <v>0.135687</v>
+        <v>0.140794</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.174799</v>
+        <v>0.17944</v>
       </c>
       <c r="C57" t="n">
-        <v>0.166351</v>
+        <v>0.191979</v>
       </c>
       <c r="D57" t="n">
-        <v>0.211834</v>
+        <v>0.215676</v>
       </c>
       <c r="E57" t="n">
-        <v>0.159231</v>
+        <v>0.160863</v>
       </c>
       <c r="F57" t="n">
-        <v>0.14445</v>
+        <v>0.146075</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.176737</v>
+        <v>0.175691</v>
       </c>
       <c r="C58" t="n">
-        <v>0.168732</v>
+        <v>0.170479</v>
       </c>
       <c r="D58" t="n">
-        <v>0.235754</v>
+        <v>0.221787</v>
       </c>
       <c r="E58" t="n">
-        <v>0.160151</v>
+        <v>0.164574</v>
       </c>
       <c r="F58" t="n">
-        <v>0.145141</v>
+        <v>0.144782</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.178271</v>
+        <v>0.177517</v>
       </c>
       <c r="C59" t="n">
-        <v>0.173667</v>
+        <v>0.178647</v>
       </c>
       <c r="D59" t="n">
-        <v>0.229966</v>
+        <v>0.238884</v>
       </c>
       <c r="E59" t="n">
-        <v>0.159129</v>
+        <v>0.159525</v>
       </c>
       <c r="F59" t="n">
-        <v>0.14935</v>
+        <v>0.153345</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.181031</v>
+        <v>0.177709</v>
       </c>
       <c r="C60" t="n">
-        <v>0.175422</v>
+        <v>0.176221</v>
       </c>
       <c r="D60" t="n">
-        <v>0.238929</v>
+        <v>0.250661</v>
       </c>
       <c r="E60" t="n">
-        <v>0.164135</v>
+        <v>0.163547</v>
       </c>
       <c r="F60" t="n">
-        <v>0.151052</v>
+        <v>0.154181</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.180821</v>
+        <v>0.174294</v>
       </c>
       <c r="C61" t="n">
-        <v>0.178015</v>
+        <v>0.175421</v>
       </c>
       <c r="D61" t="n">
-        <v>0.258771</v>
+        <v>0.245182</v>
       </c>
       <c r="E61" t="n">
-        <v>0.163401</v>
+        <v>0.161253</v>
       </c>
       <c r="F61" t="n">
-        <v>0.156468</v>
+        <v>0.156915</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.174125</v>
+        <v>0.179736</v>
       </c>
       <c r="C62" t="n">
-        <v>0.181339</v>
+        <v>0.182376</v>
       </c>
       <c r="D62" t="n">
-        <v>0.276453</v>
+        <v>0.257279</v>
       </c>
       <c r="E62" t="n">
-        <v>0.164917</v>
+        <v>0.161969</v>
       </c>
       <c r="F62" t="n">
-        <v>0.163015</v>
+        <v>0.160468</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.178771</v>
+        <v>0.179522</v>
       </c>
       <c r="C63" t="n">
-        <v>0.190212</v>
+        <v>0.18628</v>
       </c>
       <c r="D63" t="n">
-        <v>0.266378</v>
+        <v>0.267159</v>
       </c>
       <c r="E63" t="n">
-        <v>0.166413</v>
+        <v>0.164134</v>
       </c>
       <c r="F63" t="n">
-        <v>0.169184</v>
+        <v>0.167815</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.185477</v>
+        <v>0.183983</v>
       </c>
       <c r="C64" t="n">
-        <v>0.191058</v>
+        <v>0.189598</v>
       </c>
       <c r="D64" t="n">
-        <v>0.278412</v>
+        <v>0.270254</v>
       </c>
       <c r="E64" t="n">
-        <v>0.172336</v>
+        <v>0.167903</v>
       </c>
       <c r="F64" t="n">
-        <v>0.171427</v>
+        <v>0.173852</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.203941</v>
+        <v>0.190723</v>
       </c>
       <c r="C65" t="n">
-        <v>0.193053</v>
+        <v>0.194824</v>
       </c>
       <c r="D65" t="n">
-        <v>0.283993</v>
+        <v>0.279245</v>
       </c>
       <c r="E65" t="n">
-        <v>0.173439</v>
+        <v>0.177587</v>
       </c>
       <c r="F65" t="n">
-        <v>0.184801</v>
+        <v>0.179855</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.186943</v>
+        <v>0.184156</v>
       </c>
       <c r="C66" t="n">
-        <v>0.201674</v>
+        <v>0.20639</v>
       </c>
       <c r="D66" t="n">
-        <v>0.284462</v>
+        <v>0.290306</v>
       </c>
       <c r="E66" t="n">
-        <v>0.247516</v>
+        <v>0.241883</v>
       </c>
       <c r="F66" t="n">
-        <v>0.264062</v>
+        <v>0.255732</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.273518</v>
+        <v>0.269203</v>
       </c>
       <c r="C67" t="n">
-        <v>0.285277</v>
+        <v>0.283837</v>
       </c>
       <c r="D67" t="n">
-        <v>0.292606</v>
+        <v>0.295349</v>
       </c>
       <c r="E67" t="n">
-        <v>0.249777</v>
+        <v>0.260914</v>
       </c>
       <c r="F67" t="n">
-        <v>0.260132</v>
+        <v>0.258987</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.268163</v>
+        <v>0.287849</v>
       </c>
       <c r="C68" t="n">
-        <v>0.28151</v>
+        <v>0.284933</v>
       </c>
       <c r="D68" t="n">
-        <v>0.301439</v>
+        <v>0.302465</v>
       </c>
       <c r="E68" t="n">
-        <v>0.244622</v>
+        <v>0.248882</v>
       </c>
       <c r="F68" t="n">
-        <v>0.265542</v>
+        <v>0.259117</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.265669</v>
+        <v>0.284164</v>
       </c>
       <c r="C69" t="n">
-        <v>0.289306</v>
+        <v>0.279045</v>
       </c>
       <c r="D69" t="n">
-        <v>0.305978</v>
+        <v>0.303744</v>
       </c>
       <c r="E69" t="n">
-        <v>0.247219</v>
+        <v>0.244318</v>
       </c>
       <c r="F69" t="n">
-        <v>0.261202</v>
+        <v>0.25459</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.271534</v>
+        <v>0.266685</v>
       </c>
       <c r="C70" t="n">
-        <v>0.289011</v>
+        <v>0.28409</v>
       </c>
       <c r="D70" t="n">
-        <v>0.319658</v>
+        <v>0.314852</v>
       </c>
       <c r="E70" t="n">
-        <v>0.250365</v>
+        <v>0.246036</v>
       </c>
       <c r="F70" t="n">
-        <v>0.26244</v>
+        <v>0.256148</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.271323</v>
+        <v>0.266512</v>
       </c>
       <c r="C71" t="n">
-        <v>0.296006</v>
+        <v>0.282477</v>
       </c>
       <c r="D71" t="n">
-        <v>0.326501</v>
+        <v>0.322861</v>
       </c>
       <c r="E71" t="n">
-        <v>0.250644</v>
+        <v>0.248461</v>
       </c>
       <c r="F71" t="n">
-        <v>0.259292</v>
+        <v>0.260748</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.273694</v>
+        <v>0.278068</v>
       </c>
       <c r="C72" t="n">
-        <v>0.289276</v>
+        <v>0.298061</v>
       </c>
       <c r="D72" t="n">
-        <v>0.335733</v>
+        <v>0.33291</v>
       </c>
       <c r="E72" t="n">
-        <v>0.254153</v>
+        <v>0.253145</v>
       </c>
       <c r="F72" t="n">
-        <v>0.271214</v>
+        <v>0.26426</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.274218</v>
+        <v>0.272803</v>
       </c>
       <c r="C73" t="n">
-        <v>0.296385</v>
+        <v>0.293478</v>
       </c>
       <c r="D73" t="n">
-        <v>0.347767</v>
+        <v>0.342711</v>
       </c>
       <c r="E73" t="n">
-        <v>0.272502</v>
+        <v>0.249865</v>
       </c>
       <c r="F73" t="n">
-        <v>0.267762</v>
+        <v>0.271573</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.285003</v>
+        <v>0.279567</v>
       </c>
       <c r="C74" t="n">
-        <v>0.287999</v>
+        <v>0.291624</v>
       </c>
       <c r="D74" t="n">
-        <v>0.355553</v>
+        <v>0.355275</v>
       </c>
       <c r="E74" t="n">
-        <v>0.262916</v>
+        <v>0.256103</v>
       </c>
       <c r="F74" t="n">
-        <v>0.276206</v>
+        <v>0.268719</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.277115</v>
+        <v>0.271015</v>
       </c>
       <c r="C75" t="n">
-        <v>0.293994</v>
+        <v>0.291278</v>
       </c>
       <c r="D75" t="n">
-        <v>0.369576</v>
+        <v>0.36576</v>
       </c>
       <c r="E75" t="n">
-        <v>0.255504</v>
+        <v>0.258393</v>
       </c>
       <c r="F75" t="n">
-        <v>0.26927</v>
+        <v>0.269028</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.276908</v>
+        <v>0.274841</v>
       </c>
       <c r="C76" t="n">
-        <v>0.295397</v>
+        <v>0.292031</v>
       </c>
       <c r="D76" t="n">
-        <v>0.379955</v>
+        <v>0.377768</v>
       </c>
       <c r="E76" t="n">
-        <v>0.261549</v>
+        <v>0.256253</v>
       </c>
       <c r="F76" t="n">
-        <v>0.274529</v>
+        <v>0.267359</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.285989</v>
+        <v>0.27554</v>
       </c>
       <c r="C77" t="n">
-        <v>0.298489</v>
+        <v>0.291623</v>
       </c>
       <c r="D77" t="n">
-        <v>0.387181</v>
+        <v>0.385701</v>
       </c>
       <c r="E77" t="n">
-        <v>0.261387</v>
+        <v>0.260956</v>
       </c>
       <c r="F77" t="n">
-        <v>0.277884</v>
+        <v>0.271189</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.287954</v>
+        <v>0.277219</v>
       </c>
       <c r="C78" t="n">
-        <v>0.302048</v>
+        <v>0.29637</v>
       </c>
       <c r="D78" t="n">
-        <v>0.364821</v>
+        <v>0.362918</v>
       </c>
       <c r="E78" t="n">
-        <v>0.265075</v>
+        <v>0.267085</v>
       </c>
       <c r="F78" t="n">
-        <v>0.286099</v>
+        <v>0.279029</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.28859</v>
+        <v>0.282792</v>
       </c>
       <c r="C79" t="n">
-        <v>0.302552</v>
+        <v>0.294726</v>
       </c>
       <c r="D79" t="n">
-        <v>0.374029</v>
+        <v>0.365833</v>
       </c>
       <c r="E79" t="n">
-        <v>0.270604</v>
+        <v>0.268343</v>
       </c>
       <c r="F79" t="n">
-        <v>0.291867</v>
+        <v>0.281877</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.293139</v>
+        <v>0.28748</v>
       </c>
       <c r="C80" t="n">
-        <v>0.309081</v>
+        <v>0.30796</v>
       </c>
       <c r="D80" t="n">
-        <v>0.376015</v>
+        <v>0.385055</v>
       </c>
       <c r="E80" t="n">
-        <v>0.348608</v>
+        <v>0.353988</v>
       </c>
       <c r="F80" t="n">
-        <v>0.393576</v>
+        <v>0.389622</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.364285</v>
+        <v>0.361173</v>
       </c>
       <c r="C81" t="n">
-        <v>0.408676</v>
+        <v>0.400966</v>
       </c>
       <c r="D81" t="n">
-        <v>0.385507</v>
+        <v>0.38421</v>
       </c>
       <c r="E81" t="n">
-        <v>0.347386</v>
+        <v>0.344725</v>
       </c>
       <c r="F81" t="n">
-        <v>0.392495</v>
+        <v>0.391815</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.366576</v>
+        <v>0.387619</v>
       </c>
       <c r="C82" t="n">
-        <v>0.409339</v>
+        <v>0.397962</v>
       </c>
       <c r="D82" t="n">
-        <v>0.390933</v>
+        <v>0.390335</v>
       </c>
       <c r="E82" t="n">
-        <v>0.345459</v>
+        <v>0.345884</v>
       </c>
       <c r="F82" t="n">
-        <v>0.396339</v>
+        <v>0.389152</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.367647</v>
+        <v>0.358503</v>
       </c>
       <c r="C83" t="n">
-        <v>0.406471</v>
+        <v>0.401987</v>
       </c>
       <c r="D83" t="n">
-        <v>0.398541</v>
+        <v>0.414353</v>
       </c>
       <c r="E83" t="n">
-        <v>0.371899</v>
+        <v>0.360348</v>
       </c>
       <c r="F83" t="n">
-        <v>0.400471</v>
+        <v>0.399801</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.370094</v>
+        <v>0.363731</v>
       </c>
       <c r="C84" t="n">
-        <v>0.412261</v>
+        <v>0.411077</v>
       </c>
       <c r="D84" t="n">
-        <v>0.421694</v>
+        <v>0.408018</v>
       </c>
       <c r="E84" t="n">
-        <v>0.363303</v>
+        <v>0.346017</v>
       </c>
       <c r="F84" t="n">
-        <v>0.399057</v>
+        <v>0.409637</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.375294</v>
+        <v>0.375491</v>
       </c>
       <c r="C85" t="n">
-        <v>0.41057</v>
+        <v>0.423136</v>
       </c>
       <c r="D85" t="n">
-        <v>0.425094</v>
+        <v>0.436732</v>
       </c>
       <c r="E85" t="n">
-        <v>0.352992</v>
+        <v>0.347665</v>
       </c>
       <c r="F85" t="n">
-        <v>0.406938</v>
+        <v>0.395646</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.378812</v>
+        <v>0.367799</v>
       </c>
       <c r="C86" t="n">
-        <v>0.42431</v>
+        <v>0.407972</v>
       </c>
       <c r="D86" t="n">
-        <v>0.426834</v>
+        <v>0.43681</v>
       </c>
       <c r="E86" t="n">
-        <v>0.35764</v>
+        <v>0.366186</v>
       </c>
       <c r="F86" t="n">
-        <v>0.407154</v>
+        <v>0.401182</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.373401</v>
+        <v>0.364375</v>
       </c>
       <c r="C87" t="n">
-        <v>0.420469</v>
+        <v>0.40928</v>
       </c>
       <c r="D87" t="n">
-        <v>0.435932</v>
+        <v>0.453908</v>
       </c>
       <c r="E87" t="n">
-        <v>0.355943</v>
+        <v>0.349363</v>
       </c>
       <c r="F87" t="n">
-        <v>0.436442</v>
+        <v>0.410464</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.387388</v>
+        <v>0.370235</v>
       </c>
       <c r="C88" t="n">
-        <v>0.43286</v>
+        <v>0.417298</v>
       </c>
       <c r="D88" t="n">
-        <v>0.45216</v>
+        <v>0.455721</v>
       </c>
       <c r="E88" t="n">
-        <v>0.37923</v>
+        <v>0.350772</v>
       </c>
       <c r="F88" t="n">
-        <v>0.423852</v>
+        <v>0.413722</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.37266</v>
+        <v>0.37476</v>
       </c>
       <c r="C89" t="n">
-        <v>0.420927</v>
+        <v>0.417327</v>
       </c>
       <c r="D89" t="n">
-        <v>0.464129</v>
+        <v>0.466046</v>
       </c>
       <c r="E89" t="n">
-        <v>0.3628</v>
+        <v>0.356702</v>
       </c>
       <c r="F89" t="n">
-        <v>0.419549</v>
+        <v>0.411635</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.375752</v>
+        <v>0.380881</v>
       </c>
       <c r="C90" t="n">
-        <v>0.419608</v>
+        <v>0.417076</v>
       </c>
       <c r="D90" t="n">
-        <v>0.472435</v>
+        <v>0.500982</v>
       </c>
       <c r="E90" t="n">
-        <v>0.358477</v>
+        <v>0.356406</v>
       </c>
       <c r="F90" t="n">
-        <v>0.413282</v>
+        <v>0.409576</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.37274</v>
+        <v>0.370895</v>
       </c>
       <c r="C91" t="n">
-        <v>0.426276</v>
+        <v>0.422683</v>
       </c>
       <c r="D91" t="n">
-        <v>0.483442</v>
+        <v>0.488034</v>
       </c>
       <c r="E91" t="n">
-        <v>0.359862</v>
+        <v>0.361306</v>
       </c>
       <c r="F91" t="n">
-        <v>0.420371</v>
+        <v>0.412534</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.377425</v>
+        <v>0.377083</v>
       </c>
       <c r="C92" t="n">
-        <v>0.429833</v>
+        <v>0.425732</v>
       </c>
       <c r="D92" t="n">
-        <v>0.430665</v>
+        <v>0.430401</v>
       </c>
       <c r="E92" t="n">
-        <v>0.369217</v>
+        <v>0.363803</v>
       </c>
       <c r="F92" t="n">
-        <v>0.421439</v>
+        <v>0.422249</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.384026</v>
+        <v>0.378777</v>
       </c>
       <c r="C93" t="n">
-        <v>0.433888</v>
+        <v>0.434361</v>
       </c>
       <c r="D93" t="n">
-        <v>0.452778</v>
+        <v>0.433551</v>
       </c>
       <c r="E93" t="n">
-        <v>0.367262</v>
+        <v>0.364316</v>
       </c>
       <c r="F93" t="n">
-        <v>0.441602</v>
+        <v>0.426128</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.381189</v>
+        <v>0.383819</v>
       </c>
       <c r="C94" t="n">
-        <v>0.439813</v>
+        <v>0.442354</v>
       </c>
       <c r="D94" t="n">
-        <v>0.441766</v>
+        <v>0.447926</v>
       </c>
       <c r="E94" t="n">
-        <v>0.443481</v>
+        <v>0.441979</v>
       </c>
       <c r="F94" t="n">
-        <v>0.509471</v>
+        <v>0.500835</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.450363</v>
+        <v>0.456246</v>
       </c>
       <c r="C95" t="n">
-        <v>0.522139</v>
+        <v>0.50776</v>
       </c>
       <c r="D95" t="n">
-        <v>0.455665</v>
+        <v>0.451137</v>
       </c>
       <c r="E95" t="n">
-        <v>0.443332</v>
+        <v>0.448577</v>
       </c>
       <c r="F95" t="n">
-        <v>0.507383</v>
+        <v>0.506474</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.46056</v>
+        <v>0.445154</v>
       </c>
       <c r="C96" t="n">
-        <v>0.509005</v>
+        <v>0.5105730000000001</v>
       </c>
       <c r="D96" t="n">
-        <v>0.46135</v>
+        <v>0.453676</v>
       </c>
       <c r="E96" t="n">
-        <v>0.449084</v>
+        <v>0.438843</v>
       </c>
       <c r="F96" t="n">
-        <v>0.507135</v>
+        <v>0.502497</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.450243</v>
+        <v>0.442378</v>
       </c>
       <c r="C97" t="n">
-        <v>0.508306</v>
+        <v>0.501685</v>
       </c>
       <c r="D97" t="n">
-        <v>0.471034</v>
+        <v>0.461881</v>
       </c>
       <c r="E97" t="n">
-        <v>0.450504</v>
+        <v>0.439528</v>
       </c>
       <c r="F97" t="n">
-        <v>0.509256</v>
+        <v>0.504038</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.453283</v>
+        <v>0.451809</v>
       </c>
       <c r="C98" t="n">
-        <v>0.499635</v>
+        <v>0.501502</v>
       </c>
       <c r="D98" t="n">
-        <v>0.474645</v>
+        <v>0.474215</v>
       </c>
       <c r="E98" t="n">
-        <v>0.44785</v>
+        <v>0.449472</v>
       </c>
       <c r="F98" t="n">
-        <v>0.509169</v>
+        <v>0.503468</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.458603</v>
+        <v>0.450842</v>
       </c>
       <c r="C99" t="n">
-        <v>0.505448</v>
+        <v>0.5097120000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>0.486872</v>
+        <v>0.491205</v>
       </c>
       <c r="E99" t="n">
-        <v>0.448609</v>
+        <v>0.449272</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5115</v>
+        <v>0.5164879999999999</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.478633</v>
+        <v>0.452378</v>
       </c>
       <c r="C100" t="n">
-        <v>0.5142679999999999</v>
+        <v>0.509825</v>
       </c>
       <c r="D100" t="n">
-        <v>0.498473</v>
+        <v>0.503593</v>
       </c>
       <c r="E100" t="n">
-        <v>0.447411</v>
+        <v>0.453057</v>
       </c>
       <c r="F100" t="n">
-        <v>0.512474</v>
+        <v>0.519713</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.478</v>
+        <v>0.452259</v>
       </c>
       <c r="C101" t="n">
-        <v>0.508127</v>
+        <v>0.507446</v>
       </c>
       <c r="D101" t="n">
-        <v>0.514494</v>
+        <v>0.508958</v>
       </c>
       <c r="E101" t="n">
-        <v>0.451578</v>
+        <v>0.452673</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5295570000000001</v>
+        <v>0.526397</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.454753</v>
+        <v>0.449445</v>
       </c>
       <c r="C102" t="n">
-        <v>0.511999</v>
+        <v>0.511025</v>
       </c>
       <c r="D102" t="n">
-        <v>0.526938</v>
+        <v>0.522548</v>
       </c>
       <c r="E102" t="n">
-        <v>0.448535</v>
+        <v>0.450376</v>
       </c>
       <c r="F102" t="n">
-        <v>0.519898</v>
+        <v>0.517714</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.463062</v>
+        <v>0.457981</v>
       </c>
       <c r="C103" t="n">
-        <v>0.521479</v>
+        <v>0.534337</v>
       </c>
       <c r="D103" t="n">
-        <v>0.539762</v>
+        <v>0.543863</v>
       </c>
       <c r="E103" t="n">
-        <v>0.451919</v>
+        <v>0.451583</v>
       </c>
       <c r="F103" t="n">
-        <v>0.52762</v>
+        <v>0.518846</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.451613</v>
+        <v>0.468786</v>
       </c>
       <c r="C104" t="n">
-        <v>0.512635</v>
+        <v>0.508263</v>
       </c>
       <c r="D104" t="n">
-        <v>0.555916</v>
+        <v>0.556468</v>
       </c>
       <c r="E104" t="n">
-        <v>0.454385</v>
+        <v>0.460474</v>
       </c>
       <c r="F104" t="n">
-        <v>0.535308</v>
+        <v>0.535789</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.456764</v>
+        <v>0.462531</v>
       </c>
       <c r="C105" t="n">
-        <v>0.512705</v>
+        <v>0.529963</v>
       </c>
       <c r="D105" t="n">
-        <v>0.558831</v>
+        <v>0.559453</v>
       </c>
       <c r="E105" t="n">
-        <v>0.449202</v>
+        <v>0.455331</v>
       </c>
       <c r="F105" t="n">
-        <v>0.532214</v>
+        <v>0.526771</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.467683</v>
+        <v>0.474581</v>
       </c>
       <c r="C106" t="n">
-        <v>0.523998</v>
+        <v>0.527519</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5710809999999999</v>
+        <v>0.574944</v>
       </c>
       <c r="E106" t="n">
-        <v>0.452816</v>
+        <v>0.460392</v>
       </c>
       <c r="F106" t="n">
-        <v>0.537144</v>
+        <v>0.543618</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.471594</v>
+        <v>0.45998</v>
       </c>
       <c r="C107" t="n">
-        <v>0.525688</v>
+        <v>0.534918</v>
       </c>
       <c r="D107" t="n">
-        <v>0.490514</v>
+        <v>0.53054</v>
       </c>
       <c r="E107" t="n">
-        <v>0.456628</v>
+        <v>0.465826</v>
       </c>
       <c r="F107" t="n">
-        <v>0.548107</v>
+        <v>0.549798</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.456513</v>
+        <v>0.479104</v>
       </c>
       <c r="C108" t="n">
-        <v>0.548403</v>
+        <v>0.5509540000000001</v>
       </c>
       <c r="D108" t="n">
-        <v>0.501924</v>
+        <v>0.514465</v>
       </c>
       <c r="E108" t="n">
-        <v>0.525515</v>
+        <v>0.526779</v>
       </c>
       <c r="F108" t="n">
-        <v>0.591903</v>
+        <v>0.582172</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.476843</v>
+        <v>0.457587</v>
       </c>
       <c r="C109" t="n">
-        <v>0.562873</v>
+        <v>0.566057</v>
       </c>
       <c r="D109" t="n">
-        <v>0.550881</v>
+        <v>0.54165</v>
       </c>
       <c r="E109" t="n">
-        <v>0.526993</v>
+        <v>0.519294</v>
       </c>
       <c r="F109" t="n">
-        <v>0.581778</v>
+        <v>0.5758180000000001</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.562258</v>
+        <v>0.5424600000000001</v>
       </c>
       <c r="C110" t="n">
-        <v>0.599787</v>
+        <v>0.588931</v>
       </c>
       <c r="D110" t="n">
-        <v>0.523845</v>
+        <v>0.525065</v>
       </c>
       <c r="E110" t="n">
-        <v>0.531091</v>
+        <v>0.526577</v>
       </c>
       <c r="F110" t="n">
-        <v>0.604594</v>
+        <v>0.587661</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.554322</v>
+        <v>0.575013</v>
       </c>
       <c r="C111" t="n">
-        <v>0.608062</v>
+        <v>0.601158</v>
       </c>
       <c r="D111" t="n">
-        <v>0.536741</v>
+        <v>0.535228</v>
       </c>
       <c r="E111" t="n">
-        <v>0.531747</v>
+        <v>0.5293060000000001</v>
       </c>
       <c r="F111" t="n">
-        <v>0.58643</v>
+        <v>0.602765</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.599853</v>
+        <v>0.557701</v>
       </c>
       <c r="C112" t="n">
-        <v>0.597541</v>
+        <v>0.592896</v>
       </c>
       <c r="D112" t="n">
-        <v>0.552365</v>
+        <v>0.540402</v>
       </c>
       <c r="E112" t="n">
-        <v>0.542115</v>
+        <v>0.520156</v>
       </c>
       <c r="F112" t="n">
-        <v>0.590645</v>
+        <v>0.5846710000000001</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.544508</v>
+        <v>0.5413210000000001</v>
       </c>
       <c r="C113" t="n">
-        <v>0.594949</v>
+        <v>0.601391</v>
       </c>
       <c r="D113" t="n">
-        <v>0.56138</v>
+        <v>0.554955</v>
       </c>
       <c r="E113" t="n">
-        <v>0.540322</v>
+        <v>0.5390160000000001</v>
       </c>
       <c r="F113" t="n">
-        <v>0.613134</v>
+        <v>0.58751</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.564977</v>
+        <v>0.55464</v>
       </c>
       <c r="C114" t="n">
-        <v>0.60171</v>
+        <v>0.615648</v>
       </c>
       <c r="D114" t="n">
-        <v>0.56958</v>
+        <v>0.5977209999999999</v>
       </c>
       <c r="E114" t="n">
-        <v>0.536581</v>
+        <v>0.5283600000000001</v>
       </c>
       <c r="F114" t="n">
-        <v>0.621999</v>
+        <v>0.589343</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.551642</v>
+        <v>0.558231</v>
       </c>
       <c r="C115" t="n">
-        <v>0.600388</v>
+        <v>0.60867</v>
       </c>
       <c r="D115" t="n">
-        <v>0.581693</v>
+        <v>0.588929</v>
       </c>
       <c r="E115" t="n">
-        <v>0.54003</v>
+        <v>0.5366300000000001</v>
       </c>
       <c r="F115" t="n">
-        <v>0.605096</v>
+        <v>0.6074850000000001</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.553715</v>
+        <v>0.564742</v>
       </c>
       <c r="C116" t="n">
-        <v>0.604223</v>
+        <v>0.604271</v>
       </c>
       <c r="D116" t="n">
-        <v>0.594453</v>
+        <v>0.601508</v>
       </c>
       <c r="E116" t="n">
-        <v>0.5276690000000001</v>
+        <v>0.534237</v>
       </c>
       <c r="F116" t="n">
-        <v>0.613926</v>
+        <v>0.603163</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.559011</v>
+        <v>0.554171</v>
       </c>
       <c r="C117" t="n">
-        <v>0.606816</v>
+        <v>0.618962</v>
       </c>
       <c r="D117" t="n">
-        <v>0.642637</v>
+        <v>0.623958</v>
       </c>
       <c r="E117" t="n">
-        <v>0.54434</v>
+        <v>0.532205</v>
       </c>
       <c r="F117" t="n">
-        <v>0.616183</v>
+        <v>0.594531</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.557188</v>
+        <v>0.557956</v>
       </c>
       <c r="C118" t="n">
-        <v>0.615641</v>
+        <v>0.603513</v>
       </c>
       <c r="D118" t="n">
-        <v>0.615961</v>
+        <v>0.649564</v>
       </c>
       <c r="E118" t="n">
-        <v>0.538184</v>
+        <v>0.567582</v>
       </c>
       <c r="F118" t="n">
-        <v>0.626445</v>
+        <v>0.623875</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.571223</v>
+        <v>0.564123</v>
       </c>
       <c r="C119" t="n">
-        <v>0.625333</v>
+        <v>0.620185</v>
       </c>
       <c r="D119" t="n">
-        <v>0.639574</v>
+        <v>0.627117</v>
       </c>
       <c r="E119" t="n">
-        <v>0.550516</v>
+        <v>0.529351</v>
       </c>
       <c r="F119" t="n">
-        <v>0.622439</v>
+        <v>0.607247</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.556501</v>
+        <v>0.546779</v>
       </c>
       <c r="C120" t="n">
-        <v>0.617865</v>
+        <v>0.610781</v>
       </c>
       <c r="D120" t="n">
-        <v>0.65257</v>
+        <v>0.667256</v>
       </c>
       <c r="E120" t="n">
-        <v>0.563044</v>
+        <v>0.532436</v>
       </c>
       <c r="F120" t="n">
-        <v>0.635121</v>
+        <v>0.613472</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.571976</v>
+        <v>0.551098</v>
       </c>
       <c r="C121" t="n">
-        <v>0.625147</v>
+        <v>0.615051</v>
       </c>
       <c r="D121" t="n">
-        <v>0.571286</v>
+        <v>0.558671</v>
       </c>
       <c r="E121" t="n">
-        <v>0.5593900000000001</v>
+        <v>0.557063</v>
       </c>
       <c r="F121" t="n">
-        <v>0.641437</v>
+        <v>0.620034</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.565207</v>
+        <v>0.553127</v>
       </c>
       <c r="C122" t="n">
-        <v>0.644409</v>
+        <v>0.622518</v>
       </c>
       <c r="D122" t="n">
-        <v>0.590464</v>
+        <v>0.623353</v>
       </c>
       <c r="E122" t="n">
-        <v>0.553657</v>
+        <v>0.54253</v>
       </c>
       <c r="F122" t="n">
-        <v>0.6453449999999999</v>
+        <v>0.632216</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.564212</v>
+        <v>0.574542</v>
       </c>
       <c r="C123" t="n">
-        <v>0.65469</v>
+        <v>0.668133</v>
       </c>
       <c r="D123" t="n">
-        <v>0.593581</v>
+        <v>0.593464</v>
       </c>
       <c r="E123" t="n">
-        <v>0.652706</v>
+        <v>0.756835</v>
       </c>
       <c r="F123" t="n">
-        <v>0.667779</v>
+        <v>0.690554</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.72654</v>
+        <v>0.705106</v>
       </c>
       <c r="C124" t="n">
-        <v>0.724285</v>
+        <v>0.716715</v>
       </c>
       <c r="D124" t="n">
-        <v>0.600662</v>
+        <v>0.5975</v>
       </c>
       <c r="E124" t="n">
-        <v>0.684823</v>
+        <v>0.649313</v>
       </c>
       <c r="F124" t="n">
-        <v>0.662123</v>
+        <v>0.650878</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.7269640000000001</v>
+        <v>0.708005</v>
       </c>
       <c r="C125" t="n">
-        <v>0.73208</v>
+        <v>0.714561</v>
       </c>
       <c r="D125" t="n">
-        <v>0.618691</v>
+        <v>0.608368</v>
       </c>
       <c r="E125" t="n">
-        <v>0.654288</v>
+        <v>0.645752</v>
       </c>
       <c r="F125" t="n">
-        <v>0.657268</v>
+        <v>0.666391</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.709713</v>
+        <v>0.708693</v>
       </c>
       <c r="C126" t="n">
-        <v>0.720009</v>
+        <v>0.711219</v>
       </c>
       <c r="D126" t="n">
-        <v>0.627039</v>
+        <v>0.616138</v>
       </c>
       <c r="E126" t="n">
-        <v>0.659394</v>
+        <v>0.677212</v>
       </c>
       <c r="F126" t="n">
-        <v>0.70319</v>
+        <v>0.675805</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.706236</v>
+        <v>0.720726</v>
       </c>
       <c r="C127" t="n">
-        <v>0.717607</v>
+        <v>0.761637</v>
       </c>
       <c r="D127" t="n">
-        <v>0.651791</v>
+        <v>0.645412</v>
       </c>
       <c r="E127" t="n">
-        <v>0.655775</v>
+        <v>0.660501</v>
       </c>
       <c r="F127" t="n">
-        <v>0.666732</v>
+        <v>0.6693440000000001</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.717664</v>
+        <v>0.70757</v>
       </c>
       <c r="C128" t="n">
-        <v>0.739611</v>
+        <v>0.714816</v>
       </c>
       <c r="D128" t="n">
-        <v>0.641923</v>
+        <v>0.679397</v>
       </c>
       <c r="E128" t="n">
-        <v>0.657913</v>
+        <v>0.648567</v>
       </c>
       <c r="F128" t="n">
-        <v>0.671957</v>
+        <v>0.66389</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.736294</v>
+        <v>0.707789</v>
       </c>
       <c r="C129" t="n">
-        <v>0.74455</v>
+        <v>0.715435</v>
       </c>
       <c r="D129" t="n">
-        <v>0.696694</v>
+        <v>0.686661</v>
       </c>
       <c r="E129" t="n">
-        <v>0.663317</v>
+        <v>0.652657</v>
       </c>
       <c r="F129" t="n">
-        <v>0.681915</v>
+        <v>0.6664060000000001</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.856638</v>
+        <v>0.711627</v>
       </c>
       <c r="C130" t="n">
-        <v>0.73209</v>
+        <v>0.741264</v>
       </c>
       <c r="D130" t="n">
-        <v>0.699753</v>
+        <v>0.70867</v>
       </c>
       <c r="E130" t="n">
-        <v>0.663797</v>
+        <v>0.645875</v>
       </c>
       <c r="F130" t="n">
-        <v>0.681428</v>
+        <v>0.68408</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.717947</v>
+        <v>0.8300729999999999</v>
       </c>
       <c r="C131" t="n">
-        <v>0.734026</v>
+        <v>0.723067</v>
       </c>
       <c r="D131" t="n">
-        <v>0.688948</v>
+        <v>0.685204</v>
       </c>
       <c r="E131" t="n">
-        <v>0.685094</v>
+        <v>0.658359</v>
       </c>
       <c r="F131" t="n">
-        <v>0.7186</v>
+        <v>0.688142</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.831961</v>
+        <v>0.782246</v>
       </c>
       <c r="C132" t="n">
-        <v>0.76723</v>
+        <v>0.770963</v>
       </c>
       <c r="D132" t="n">
-        <v>0.710144</v>
+        <v>0.719242</v>
       </c>
       <c r="E132" t="n">
-        <v>0.66766</v>
+        <v>0.670412</v>
       </c>
       <c r="F132" t="n">
-        <v>0.727826</v>
+        <v>0.697694</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.7367629999999999</v>
+        <v>0.709597</v>
       </c>
       <c r="C133" t="n">
-        <v>0.734647</v>
+        <v>0.731942</v>
       </c>
       <c r="D133" t="n">
-        <v>0.721992</v>
+        <v>0.719182</v>
       </c>
       <c r="E133" t="n">
-        <v>0.667421</v>
+        <v>0.665833</v>
       </c>
       <c r="F133" t="n">
-        <v>0.700062</v>
+        <v>0.687083</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.71297</v>
+        <v>0.731652</v>
       </c>
       <c r="C134" t="n">
-        <v>0.741532</v>
+        <v>0.746916</v>
       </c>
       <c r="D134" t="n">
-        <v>0.736177</v>
+        <v>0.733783</v>
       </c>
       <c r="E134" t="n">
-        <v>0.684427</v>
+        <v>0.664761</v>
       </c>
       <c r="F134" t="n">
-        <v>0.714565</v>
+        <v>0.738333</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.722754</v>
+        <v>0.70612</v>
       </c>
       <c r="C135" t="n">
-        <v>0.759122</v>
+        <v>0.746901</v>
       </c>
       <c r="D135" t="n">
-        <v>0.697652</v>
+        <v>0.678499</v>
       </c>
       <c r="E135" t="n">
-        <v>0.6751200000000001</v>
+        <v>0.677721</v>
       </c>
       <c r="F135" t="n">
-        <v>0.72539</v>
+        <v>0.705264</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.716108</v>
+        <v>0.724675</v>
       </c>
       <c r="C136" t="n">
-        <v>0.767406</v>
+        <v>0.757671</v>
       </c>
       <c r="D136" t="n">
-        <v>0.680755</v>
+        <v>0.681378</v>
       </c>
       <c r="E136" t="n">
-        <v>0.680601</v>
+        <v>0.785219</v>
       </c>
       <c r="F136" t="n">
-        <v>0.736276</v>
+        <v>0.719006</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.730893</v>
+        <v>0.843929</v>
       </c>
       <c r="C137" t="n">
-        <v>0.776324</v>
+        <v>0.79423</v>
       </c>
       <c r="D137" t="n">
-        <v>0.696887</v>
+        <v>0.695878</v>
       </c>
       <c r="E137" t="n">
-        <v>0.822855</v>
+        <v>0.802636</v>
       </c>
       <c r="F137" t="n">
-        <v>0.8002590000000001</v>
+        <v>0.776718</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.9195449999999999</v>
+        <v>0.899822</v>
       </c>
       <c r="C138" t="n">
-        <v>0.836881</v>
+        <v>0.884381</v>
       </c>
       <c r="D138" t="n">
-        <v>0.71062</v>
+        <v>0.698111</v>
       </c>
       <c r="E138" t="n">
-        <v>0.825719</v>
+        <v>0.8121429999999999</v>
       </c>
       <c r="F138" t="n">
-        <v>0.772104</v>
+        <v>0.774586</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.933526</v>
+        <v>0.975349</v>
       </c>
       <c r="C139" t="n">
-        <v>0.844092</v>
+        <v>0.8338449999999999</v>
       </c>
       <c r="D139" t="n">
-        <v>0.7317399999999999</v>
+        <v>0.716017</v>
       </c>
       <c r="E139" t="n">
-        <v>0.828784</v>
+        <v>0.804878</v>
       </c>
       <c r="F139" t="n">
-        <v>0.773569</v>
+        <v>0.771231</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.991681</v>
+        <v>0.9083020000000001</v>
       </c>
       <c r="C140" t="n">
-        <v>0.832078</v>
+        <v>0.8203240000000001</v>
       </c>
       <c r="D140" t="n">
-        <v>0.742807</v>
+        <v>0.735695</v>
       </c>
       <c r="E140" t="n">
-        <v>0.8185480000000001</v>
+        <v>0.8211000000000001</v>
       </c>
       <c r="F140" t="n">
-        <v>0.774224</v>
+        <v>0.7958190000000001</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.925812</v>
+        <v>0.915842</v>
       </c>
       <c r="C141" t="n">
-        <v>0.834998</v>
+        <v>0.834273</v>
       </c>
       <c r="D141" t="n">
-        <v>0.746224</v>
+        <v>0.751094</v>
       </c>
       <c r="E141" t="n">
-        <v>0.834497</v>
+        <v>0.820314</v>
       </c>
       <c r="F141" t="n">
-        <v>0.786724</v>
+        <v>0.889601</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.921282</v>
+        <v>0.913472</v>
       </c>
       <c r="C142" t="n">
-        <v>0.854382</v>
+        <v>0.833275</v>
       </c>
       <c r="D142" t="n">
-        <v>0.769933</v>
+        <v>0.764366</v>
       </c>
       <c r="E142" t="n">
-        <v>0.827264</v>
+        <v>0.810283</v>
       </c>
       <c r="F142" t="n">
-        <v>0.790878</v>
+        <v>0.773001</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.918986</v>
+        <v>0.903921</v>
       </c>
       <c r="C143" t="n">
-        <v>0.836828</v>
+        <v>0.829498</v>
       </c>
       <c r="D143" t="n">
-        <v>0.776653</v>
+        <v>0.773922</v>
       </c>
       <c r="E143" t="n">
-        <v>0.823083</v>
+        <v>0.824346</v>
       </c>
       <c r="F143" t="n">
-        <v>0.774326</v>
+        <v>0.793856</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0658381</v>
+        <v>0.0668702</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06772830000000001</v>
+        <v>0.07070890000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0955392</v>
+        <v>0.101226</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0585666</v>
+        <v>0.0552892</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0624689</v>
+        <v>0.0665331</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0635671</v>
+        <v>0.06581670000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06747980000000001</v>
+        <v>0.07295210000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09877320000000001</v>
+        <v>0.102931</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0564104</v>
+        <v>0.0553149</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0621734</v>
+        <v>0.0664578</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0637393</v>
+        <v>0.06734080000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0669855</v>
+        <v>0.0728269</v>
       </c>
       <c r="D4" t="n">
-        <v>0.100208</v>
+        <v>0.104433</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0567532</v>
+        <v>0.0565198</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0622406</v>
+        <v>0.0642157</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0640192</v>
+        <v>0.0753071</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06747</v>
+        <v>0.07012309999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.103234</v>
+        <v>0.109115</v>
       </c>
       <c r="E5" t="n">
-        <v>0.057467</v>
+        <v>0.0570128</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0635418</v>
+        <v>0.0660592</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0651544</v>
+        <v>0.0666513</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0682125</v>
+        <v>0.07052899999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.107541</v>
+        <v>0.111631</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0585108</v>
+        <v>0.0573772</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0633092</v>
+        <v>0.0641452</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0648498</v>
+        <v>0.0668904</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06816469999999999</v>
+        <v>0.0717285</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0812802</v>
+        <v>0.0883015</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0608985</v>
+        <v>0.0618826</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06417009999999999</v>
+        <v>0.065415</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0654927</v>
+        <v>0.0674222</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0684173</v>
+        <v>0.07037980000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0835127</v>
+        <v>0.08649129999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0675154</v>
+        <v>0.06862790000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0694381</v>
+        <v>0.0698003</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0678383</v>
+        <v>0.06983449999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07052120000000001</v>
+        <v>0.0779967</v>
       </c>
       <c r="D9" t="n">
-        <v>0.08561299999999999</v>
+        <v>0.0938411</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0579155</v>
+        <v>0.059839</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06612759999999999</v>
+        <v>0.06835629999999999</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0708558</v>
+        <v>0.0748981</v>
       </c>
       <c r="C10" t="n">
-        <v>0.076006</v>
+        <v>0.0854603</v>
       </c>
       <c r="D10" t="n">
-        <v>0.08849310000000001</v>
+        <v>0.0999385</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0598168</v>
+        <v>0.0592854</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0679469</v>
+        <v>0.0693883</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0727643</v>
+        <v>0.076319</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07633180000000001</v>
+        <v>0.0838916</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0907437</v>
+        <v>0.09804400000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0586317</v>
+        <v>0.0622125</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0680187</v>
+        <v>0.07116459999999999</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0721623</v>
+        <v>0.0773679</v>
       </c>
       <c r="C12" t="n">
-        <v>0.077124</v>
+        <v>0.0846774</v>
       </c>
       <c r="D12" t="n">
-        <v>0.09420729999999999</v>
+        <v>0.0995994</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0590167</v>
+        <v>0.06308850000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0682744</v>
+        <v>0.07476530000000001</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0727846</v>
+        <v>0.0757864</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0778131</v>
+        <v>0.0799853</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0971988</v>
+        <v>0.101188</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0595711</v>
+        <v>0.0599241</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0682494</v>
+        <v>0.07423200000000001</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0728248</v>
+        <v>0.075546</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0784473</v>
+        <v>0.0800905</v>
       </c>
       <c r="D14" t="n">
-        <v>0.100018</v>
+        <v>0.101296</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0618642</v>
+        <v>0.057532</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0700065</v>
+        <v>0.0685513</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0742618</v>
+        <v>0.0749432</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0791031</v>
+        <v>0.0764155</v>
       </c>
       <c r="D15" t="n">
-        <v>0.104077</v>
+        <v>0.104666</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0608129</v>
+        <v>0.0609895</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0689051</v>
+        <v>0.070198</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0729392</v>
+        <v>0.0758938</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07812470000000001</v>
+        <v>0.0784002</v>
       </c>
       <c r="D16" t="n">
-        <v>0.106057</v>
+        <v>0.104994</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0607971</v>
+        <v>0.0654695</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07046289999999999</v>
+        <v>0.067292</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0756573</v>
+        <v>0.0798686</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0774802</v>
+        <v>0.077501</v>
       </c>
       <c r="D17" t="n">
-        <v>0.108926</v>
+        <v>0.107907</v>
       </c>
       <c r="E17" t="n">
-        <v>0.061312</v>
+        <v>0.06377579999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>0.069934</v>
+        <v>0.0713403</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0731416</v>
+        <v>0.07459490000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07907640000000001</v>
+        <v>0.0811373</v>
       </c>
       <c r="D18" t="n">
-        <v>0.113294</v>
+        <v>0.114214</v>
       </c>
       <c r="E18" t="n">
-        <v>0.062119</v>
+        <v>0.0581853</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0729789</v>
+        <v>0.0682012</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0743679</v>
+        <v>0.0729327</v>
       </c>
       <c r="C19" t="n">
-        <v>0.07876180000000001</v>
+        <v>0.0776129</v>
       </c>
       <c r="D19" t="n">
-        <v>0.115633</v>
+        <v>0.114222</v>
       </c>
       <c r="E19" t="n">
-        <v>0.06346250000000001</v>
+        <v>0.0600561</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0703298</v>
+        <v>0.0707805</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.07348929999999999</v>
+        <v>0.07429529999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0782487</v>
+        <v>0.0820222</v>
       </c>
       <c r="D20" t="n">
-        <v>0.118055</v>
+        <v>0.120404</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0639812</v>
+        <v>0.0630974</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0730237</v>
+        <v>0.0724505</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0743067</v>
+        <v>0.0772668</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0799484</v>
+        <v>0.0787442</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0902377</v>
+        <v>0.0883592</v>
       </c>
       <c r="E21" t="n">
-        <v>0.067445</v>
+        <v>0.0646646</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0741221</v>
+        <v>0.0762114</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0745422</v>
+        <v>0.0754819</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0797658</v>
+        <v>0.079462</v>
       </c>
       <c r="D22" t="n">
-        <v>0.09446499999999999</v>
+        <v>0.09062249999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0709912</v>
+        <v>0.0714639</v>
       </c>
       <c r="F22" t="n">
-        <v>0.07867209999999999</v>
+        <v>0.07815519999999999</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0770677</v>
+        <v>0.07771939999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0825386</v>
+        <v>0.0842367</v>
       </c>
       <c r="D23" t="n">
-        <v>0.09517730000000001</v>
+        <v>0.0961552</v>
       </c>
       <c r="E23" t="n">
-        <v>0.064982</v>
+        <v>0.0621712</v>
       </c>
       <c r="F23" t="n">
-        <v>0.07504039999999999</v>
+        <v>0.0754287</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0791113</v>
+        <v>0.07995190000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0873828</v>
+        <v>0.0900581</v>
       </c>
       <c r="D24" t="n">
-        <v>0.09708360000000001</v>
+        <v>0.102766</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0643874</v>
+        <v>0.0617755</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0760414</v>
+        <v>0.0741815</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0804343</v>
+        <v>0.0787678</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0890957</v>
+        <v>0.091561</v>
       </c>
       <c r="D25" t="n">
-        <v>0.09986879999999999</v>
+        <v>0.100496</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0654257</v>
+        <v>0.0620773</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07675360000000001</v>
+        <v>0.07427259999999999</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0794477</v>
+        <v>0.0791106</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0885687</v>
+        <v>0.0880645</v>
       </c>
       <c r="D26" t="n">
-        <v>0.102968</v>
+        <v>0.103233</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0657499</v>
+        <v>0.06284430000000001</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0768648</v>
+        <v>0.07405829999999999</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0803633</v>
+        <v>0.0799521</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0882884</v>
+        <v>0.088408</v>
       </c>
       <c r="D27" t="n">
-        <v>0.106116</v>
+        <v>0.108965</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0659497</v>
+        <v>0.0650763</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0776506</v>
+        <v>0.0742551</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.079932</v>
+        <v>0.07829129999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.08925420000000001</v>
+        <v>0.0922132</v>
       </c>
       <c r="D28" t="n">
-        <v>0.109178</v>
+        <v>0.112784</v>
       </c>
       <c r="E28" t="n">
-        <v>0.06596920000000001</v>
+        <v>0.0620052</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0777886</v>
+        <v>0.0797993</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0789492</v>
+        <v>0.08132590000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>0.090408</v>
+        <v>0.0909459</v>
       </c>
       <c r="D29" t="n">
-        <v>0.112145</v>
+        <v>0.114617</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0660785</v>
+        <v>0.0633572</v>
       </c>
       <c r="F29" t="n">
-        <v>0.07736609999999999</v>
+        <v>0.0784398</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.07941719999999999</v>
+        <v>0.0860506</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0934159</v>
+        <v>0.0944743</v>
       </c>
       <c r="D30" t="n">
-        <v>0.116264</v>
+        <v>0.115406</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0668319</v>
+        <v>0.06543980000000001</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0797152</v>
+        <v>0.0769639</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.08088380000000001</v>
+        <v>0.0823149</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0876873</v>
+        <v>0.09276379999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>0.120771</v>
+        <v>0.118063</v>
       </c>
       <c r="E31" t="n">
-        <v>0.06759560000000001</v>
+        <v>0.0641072</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0787741</v>
+        <v>0.0787178</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0792438</v>
+        <v>0.0805309</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0886576</v>
+        <v>0.0897029</v>
       </c>
       <c r="D32" t="n">
-        <v>0.12494</v>
+        <v>0.123493</v>
       </c>
       <c r="E32" t="n">
-        <v>0.06776980000000001</v>
+        <v>0.0643971</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0808217</v>
+        <v>0.0796289</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.080637</v>
+        <v>0.07944850000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>0.08870889999999999</v>
+        <v>0.0891735</v>
       </c>
       <c r="D33" t="n">
-        <v>0.12863</v>
+        <v>0.127942</v>
       </c>
       <c r="E33" t="n">
-        <v>0.06843249999999999</v>
+        <v>0.06656529999999999</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0794932</v>
+        <v>0.07851370000000001</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0800778</v>
+        <v>0.08034380000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>0.08906650000000001</v>
+        <v>0.0896868</v>
       </c>
       <c r="D34" t="n">
-        <v>0.130844</v>
+        <v>0.131613</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0688327</v>
+        <v>0.0681028</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0830615</v>
+        <v>0.0818468</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.08062759999999999</v>
+        <v>0.0821152</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0899914</v>
+        <v>0.09326189999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>0.10826</v>
+        <v>0.111383</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0708434</v>
+        <v>0.0698643</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0829355</v>
+        <v>0.08336449999999999</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.08119659999999999</v>
+        <v>0.0830505</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0916211</v>
+        <v>0.09230969999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>0.112945</v>
+        <v>0.113243</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0757328</v>
+        <v>0.07711320000000001</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0874658</v>
+        <v>0.08847190000000001</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0848971</v>
+        <v>0.0852936</v>
       </c>
       <c r="C37" t="n">
-        <v>0.09637999999999999</v>
+        <v>0.09542200000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>0.116382</v>
+        <v>0.118295</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0733521</v>
+        <v>0.0700214</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08413710000000001</v>
+        <v>0.0841316</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0987542</v>
+        <v>0.0980052</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0982421</v>
+        <v>0.103275</v>
       </c>
       <c r="D38" t="n">
-        <v>0.120993</v>
+        <v>0.122519</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0726589</v>
+        <v>0.0706002</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0840617</v>
+        <v>0.0828224</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0991842</v>
+        <v>0.100859</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0995033</v>
+        <v>0.100603</v>
       </c>
       <c r="D39" t="n">
-        <v>0.12549</v>
+        <v>0.12533</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0725169</v>
+        <v>0.06990970000000001</v>
       </c>
       <c r="F39" t="n">
-        <v>0.08409419999999999</v>
+        <v>0.0894606</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0984835</v>
+        <v>0.0969498</v>
       </c>
       <c r="C40" t="n">
-        <v>0.101179</v>
+        <v>0.102882</v>
       </c>
       <c r="D40" t="n">
-        <v>0.130819</v>
+        <v>0.130492</v>
       </c>
       <c r="E40" t="n">
-        <v>0.07420359999999999</v>
+        <v>0.0714607</v>
       </c>
       <c r="F40" t="n">
-        <v>0.08740630000000001</v>
+        <v>0.0848159</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.102032</v>
+        <v>0.103413</v>
       </c>
       <c r="C41" t="n">
-        <v>0.101982</v>
+        <v>0.10729</v>
       </c>
       <c r="D41" t="n">
-        <v>0.134785</v>
+        <v>0.138115</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0743024</v>
+        <v>0.07188899999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0850423</v>
+        <v>0.0859331</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0977087</v>
+        <v>0.097263</v>
       </c>
       <c r="C42" t="n">
-        <v>0.103428</v>
+        <v>0.102308</v>
       </c>
       <c r="D42" t="n">
-        <v>0.140585</v>
+        <v>0.140232</v>
       </c>
       <c r="E42" t="n">
-        <v>0.07325230000000001</v>
+        <v>0.0718143</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08704190000000001</v>
+        <v>0.0856856</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.09857929999999999</v>
+        <v>0.0974638</v>
       </c>
       <c r="C43" t="n">
-        <v>0.100214</v>
+        <v>0.104304</v>
       </c>
       <c r="D43" t="n">
-        <v>0.144341</v>
+        <v>0.142848</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0740239</v>
+        <v>0.0730447</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0883173</v>
+        <v>0.0862417</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0987647</v>
+        <v>0.0981913</v>
       </c>
       <c r="C44" t="n">
-        <v>0.102152</v>
+        <v>0.103178</v>
       </c>
       <c r="D44" t="n">
-        <v>0.14907</v>
+        <v>0.14781</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0741009</v>
+        <v>0.07372380000000001</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0893187</v>
+        <v>0.0905724</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.09868209999999999</v>
+        <v>0.101817</v>
       </c>
       <c r="C45" t="n">
-        <v>0.104075</v>
+        <v>0.106235</v>
       </c>
       <c r="D45" t="n">
-        <v>0.154949</v>
+        <v>0.155562</v>
       </c>
       <c r="E45" t="n">
-        <v>0.07535509999999999</v>
+        <v>0.07307569999999999</v>
       </c>
       <c r="F45" t="n">
-        <v>0.096862</v>
+        <v>0.0910593</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0985174</v>
+        <v>0.09930750000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>0.107995</v>
+        <v>0.105002</v>
       </c>
       <c r="D46" t="n">
-        <v>0.161079</v>
+        <v>0.163405</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0750714</v>
+        <v>0.0716016</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0979008</v>
+        <v>0.0912679</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0988488</v>
+        <v>0.103519</v>
       </c>
       <c r="C47" t="n">
-        <v>0.107053</v>
+        <v>0.106595</v>
       </c>
       <c r="D47" t="n">
-        <v>0.166335</v>
+        <v>0.169497</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0760569</v>
+        <v>0.07558090000000001</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0943362</v>
+        <v>0.09255620000000001</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.100754</v>
+        <v>0.100116</v>
       </c>
       <c r="C48" t="n">
-        <v>0.116002</v>
+        <v>0.105769</v>
       </c>
       <c r="D48" t="n">
-        <v>0.178575</v>
+        <v>0.173385</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0771956</v>
+        <v>0.0783471</v>
       </c>
       <c r="F48" t="n">
-        <v>0.103197</v>
+        <v>0.0954941</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.100744</v>
+        <v>0.101432</v>
       </c>
       <c r="C49" t="n">
-        <v>0.118118</v>
+        <v>0.107864</v>
       </c>
       <c r="D49" t="n">
-        <v>0.177795</v>
+        <v>0.184181</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0793295</v>
+        <v>0.0805854</v>
       </c>
       <c r="F49" t="n">
-        <v>0.102749</v>
+        <v>0.09804160000000001</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.100213</v>
+        <v>0.100725</v>
       </c>
       <c r="C50" t="n">
-        <v>0.119865</v>
+        <v>0.111817</v>
       </c>
       <c r="D50" t="n">
-        <v>0.172298</v>
+        <v>0.170655</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0831561</v>
+        <v>0.0799966</v>
       </c>
       <c r="F50" t="n">
-        <v>0.110345</v>
+        <v>0.111755</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.102756</v>
+        <v>0.103302</v>
       </c>
       <c r="C51" t="n">
-        <v>0.12305</v>
+        <v>0.124209</v>
       </c>
       <c r="D51" t="n">
-        <v>0.178842</v>
+        <v>0.180325</v>
       </c>
       <c r="E51" t="n">
-        <v>0.157152</v>
+        <v>0.162677</v>
       </c>
       <c r="F51" t="n">
-        <v>0.127698</v>
+        <v>0.12556</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.10712</v>
+        <v>0.115408</v>
       </c>
       <c r="C52" t="n">
-        <v>0.133463</v>
+        <v>0.129823</v>
       </c>
       <c r="D52" t="n">
-        <v>0.181422</v>
+        <v>0.181595</v>
       </c>
       <c r="E52" t="n">
-        <v>0.160313</v>
+        <v>0.162404</v>
       </c>
       <c r="F52" t="n">
-        <v>0.129681</v>
+        <v>0.128348</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.178073</v>
+        <v>0.186995</v>
       </c>
       <c r="C53" t="n">
-        <v>0.182711</v>
+        <v>0.162077</v>
       </c>
       <c r="D53" t="n">
-        <v>0.189812</v>
+        <v>0.186792</v>
       </c>
       <c r="E53" t="n">
-        <v>0.158299</v>
+        <v>0.159918</v>
       </c>
       <c r="F53" t="n">
-        <v>0.144588</v>
+        <v>0.129956</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.178527</v>
+        <v>0.181408</v>
       </c>
       <c r="C54" t="n">
-        <v>0.160408</v>
+        <v>0.158645</v>
       </c>
       <c r="D54" t="n">
-        <v>0.194648</v>
+        <v>0.194692</v>
       </c>
       <c r="E54" t="n">
-        <v>0.16173</v>
+        <v>0.166112</v>
       </c>
       <c r="F54" t="n">
-        <v>0.135392</v>
+        <v>0.139364</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.178745</v>
+        <v>0.180862</v>
       </c>
       <c r="C55" t="n">
-        <v>0.163318</v>
+        <v>0.167988</v>
       </c>
       <c r="D55" t="n">
-        <v>0.206649</v>
+        <v>0.199756</v>
       </c>
       <c r="E55" t="n">
-        <v>0.162544</v>
+        <v>0.165714</v>
       </c>
       <c r="F55" t="n">
-        <v>0.149216</v>
+        <v>0.135063</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.192285</v>
+        <v>0.184508</v>
       </c>
       <c r="C56" t="n">
-        <v>0.166313</v>
+        <v>0.188983</v>
       </c>
       <c r="D56" t="n">
-        <v>0.216093</v>
+        <v>0.207749</v>
       </c>
       <c r="E56" t="n">
-        <v>0.162781</v>
+        <v>0.160662</v>
       </c>
       <c r="F56" t="n">
-        <v>0.140794</v>
+        <v>0.137665</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.17944</v>
+        <v>0.18604</v>
       </c>
       <c r="C57" t="n">
-        <v>0.191979</v>
+        <v>0.171053</v>
       </c>
       <c r="D57" t="n">
-        <v>0.215676</v>
+        <v>0.227356</v>
       </c>
       <c r="E57" t="n">
-        <v>0.160863</v>
+        <v>0.165933</v>
       </c>
       <c r="F57" t="n">
-        <v>0.146075</v>
+        <v>0.141552</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.175691</v>
+        <v>0.179519</v>
       </c>
       <c r="C58" t="n">
-        <v>0.170479</v>
+        <v>0.169995</v>
       </c>
       <c r="D58" t="n">
-        <v>0.221787</v>
+        <v>0.223095</v>
       </c>
       <c r="E58" t="n">
-        <v>0.164574</v>
+        <v>0.160867</v>
       </c>
       <c r="F58" t="n">
-        <v>0.144782</v>
+        <v>0.150179</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.177517</v>
+        <v>0.188002</v>
       </c>
       <c r="C59" t="n">
-        <v>0.178647</v>
+        <v>0.176105</v>
       </c>
       <c r="D59" t="n">
-        <v>0.238884</v>
+        <v>0.234947</v>
       </c>
       <c r="E59" t="n">
-        <v>0.159525</v>
+        <v>0.162852</v>
       </c>
       <c r="F59" t="n">
-        <v>0.153345</v>
+        <v>0.156956</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.177709</v>
+        <v>0.178391</v>
       </c>
       <c r="C60" t="n">
-        <v>0.176221</v>
+        <v>0.180091</v>
       </c>
       <c r="D60" t="n">
-        <v>0.250661</v>
+        <v>0.2571</v>
       </c>
       <c r="E60" t="n">
-        <v>0.163547</v>
+        <v>0.167996</v>
       </c>
       <c r="F60" t="n">
-        <v>0.154181</v>
+        <v>0.156227</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.174294</v>
+        <v>0.194013</v>
       </c>
       <c r="C61" t="n">
-        <v>0.175421</v>
+        <v>0.186409</v>
       </c>
       <c r="D61" t="n">
-        <v>0.245182</v>
+        <v>0.268644</v>
       </c>
       <c r="E61" t="n">
-        <v>0.161253</v>
+        <v>0.165261</v>
       </c>
       <c r="F61" t="n">
-        <v>0.156915</v>
+        <v>0.16066</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.179736</v>
+        <v>0.181465</v>
       </c>
       <c r="C62" t="n">
-        <v>0.182376</v>
+        <v>0.187121</v>
       </c>
       <c r="D62" t="n">
-        <v>0.257279</v>
+        <v>0.259597</v>
       </c>
       <c r="E62" t="n">
-        <v>0.161969</v>
+        <v>0.169212</v>
       </c>
       <c r="F62" t="n">
-        <v>0.160468</v>
+        <v>0.167958</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.179522</v>
+        <v>0.187149</v>
       </c>
       <c r="C63" t="n">
-        <v>0.18628</v>
+        <v>0.194645</v>
       </c>
       <c r="D63" t="n">
-        <v>0.267159</v>
+        <v>0.274629</v>
       </c>
       <c r="E63" t="n">
-        <v>0.164134</v>
+        <v>0.16798</v>
       </c>
       <c r="F63" t="n">
-        <v>0.167815</v>
+        <v>0.168789</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.183983</v>
+        <v>0.182157</v>
       </c>
       <c r="C64" t="n">
-        <v>0.189598</v>
+        <v>0.18928</v>
       </c>
       <c r="D64" t="n">
-        <v>0.270254</v>
+        <v>0.283655</v>
       </c>
       <c r="E64" t="n">
-        <v>0.167903</v>
+        <v>0.173974</v>
       </c>
       <c r="F64" t="n">
-        <v>0.173852</v>
+        <v>0.180138</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.190723</v>
+        <v>0.186341</v>
       </c>
       <c r="C65" t="n">
-        <v>0.194824</v>
+        <v>0.198119</v>
       </c>
       <c r="D65" t="n">
-        <v>0.279245</v>
+        <v>0.280059</v>
       </c>
       <c r="E65" t="n">
-        <v>0.177587</v>
+        <v>0.172522</v>
       </c>
       <c r="F65" t="n">
-        <v>0.179855</v>
+        <v>0.182679</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.184156</v>
+        <v>0.188955</v>
       </c>
       <c r="C66" t="n">
-        <v>0.20639</v>
+        <v>0.20897</v>
       </c>
       <c r="D66" t="n">
-        <v>0.290306</v>
+        <v>0.287325</v>
       </c>
       <c r="E66" t="n">
-        <v>0.241883</v>
+        <v>0.250236</v>
       </c>
       <c r="F66" t="n">
-        <v>0.255732</v>
+        <v>0.260733</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.269203</v>
+        <v>0.271121</v>
       </c>
       <c r="C67" t="n">
-        <v>0.283837</v>
+        <v>0.280057</v>
       </c>
       <c r="D67" t="n">
-        <v>0.295349</v>
+        <v>0.292811</v>
       </c>
       <c r="E67" t="n">
-        <v>0.260914</v>
+        <v>0.246502</v>
       </c>
       <c r="F67" t="n">
-        <v>0.258987</v>
+        <v>0.258242</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.287849</v>
+        <v>0.27821</v>
       </c>
       <c r="C68" t="n">
-        <v>0.284933</v>
+        <v>0.298245</v>
       </c>
       <c r="D68" t="n">
-        <v>0.302465</v>
+        <v>0.308416</v>
       </c>
       <c r="E68" t="n">
-        <v>0.248882</v>
+        <v>0.248457</v>
       </c>
       <c r="F68" t="n">
-        <v>0.259117</v>
+        <v>0.258572</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.284164</v>
+        <v>0.285371</v>
       </c>
       <c r="C69" t="n">
-        <v>0.279045</v>
+        <v>0.298421</v>
       </c>
       <c r="D69" t="n">
-        <v>0.303744</v>
+        <v>0.313679</v>
       </c>
       <c r="E69" t="n">
-        <v>0.244318</v>
+        <v>0.246894</v>
       </c>
       <c r="F69" t="n">
-        <v>0.25459</v>
+        <v>0.265941</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.266685</v>
+        <v>0.273277</v>
       </c>
       <c r="C70" t="n">
-        <v>0.28409</v>
+        <v>0.298617</v>
       </c>
       <c r="D70" t="n">
-        <v>0.314852</v>
+        <v>0.334962</v>
       </c>
       <c r="E70" t="n">
-        <v>0.246036</v>
+        <v>0.253979</v>
       </c>
       <c r="F70" t="n">
-        <v>0.256148</v>
+        <v>0.263338</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.266512</v>
+        <v>0.27035</v>
       </c>
       <c r="C71" t="n">
-        <v>0.282477</v>
+        <v>0.300329</v>
       </c>
       <c r="D71" t="n">
-        <v>0.322861</v>
+        <v>0.337292</v>
       </c>
       <c r="E71" t="n">
-        <v>0.248461</v>
+        <v>0.256247</v>
       </c>
       <c r="F71" t="n">
-        <v>0.260748</v>
+        <v>0.276238</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.278068</v>
+        <v>0.2747</v>
       </c>
       <c r="C72" t="n">
-        <v>0.298061</v>
+        <v>0.290272</v>
       </c>
       <c r="D72" t="n">
-        <v>0.33291</v>
+        <v>0.345615</v>
       </c>
       <c r="E72" t="n">
-        <v>0.253145</v>
+        <v>0.25434</v>
       </c>
       <c r="F72" t="n">
-        <v>0.26426</v>
+        <v>0.267671</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.272803</v>
+        <v>0.273416</v>
       </c>
       <c r="C73" t="n">
-        <v>0.293478</v>
+        <v>0.290471</v>
       </c>
       <c r="D73" t="n">
-        <v>0.342711</v>
+        <v>0.352052</v>
       </c>
       <c r="E73" t="n">
-        <v>0.249865</v>
+        <v>0.263392</v>
       </c>
       <c r="F73" t="n">
-        <v>0.271573</v>
+        <v>0.267493</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.279567</v>
+        <v>0.285022</v>
       </c>
       <c r="C74" t="n">
-        <v>0.291624</v>
+        <v>0.303594</v>
       </c>
       <c r="D74" t="n">
-        <v>0.355275</v>
+        <v>0.376162</v>
       </c>
       <c r="E74" t="n">
-        <v>0.256103</v>
+        <v>0.253631</v>
       </c>
       <c r="F74" t="n">
-        <v>0.268719</v>
+        <v>0.276355</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.271015</v>
+        <v>0.280534</v>
       </c>
       <c r="C75" t="n">
-        <v>0.291278</v>
+        <v>0.297704</v>
       </c>
       <c r="D75" t="n">
-        <v>0.36576</v>
+        <v>0.367572</v>
       </c>
       <c r="E75" t="n">
-        <v>0.258393</v>
+        <v>0.278248</v>
       </c>
       <c r="F75" t="n">
-        <v>0.269028</v>
+        <v>0.282108</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.274841</v>
+        <v>0.281926</v>
       </c>
       <c r="C76" t="n">
-        <v>0.292031</v>
+        <v>0.297173</v>
       </c>
       <c r="D76" t="n">
-        <v>0.377768</v>
+        <v>0.38423</v>
       </c>
       <c r="E76" t="n">
-        <v>0.256253</v>
+        <v>0.262507</v>
       </c>
       <c r="F76" t="n">
-        <v>0.267359</v>
+        <v>0.288381</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.27554</v>
+        <v>0.285649</v>
       </c>
       <c r="C77" t="n">
-        <v>0.291623</v>
+        <v>0.297011</v>
       </c>
       <c r="D77" t="n">
-        <v>0.385701</v>
+        <v>0.390213</v>
       </c>
       <c r="E77" t="n">
-        <v>0.260956</v>
+        <v>0.272137</v>
       </c>
       <c r="F77" t="n">
-        <v>0.271189</v>
+        <v>0.279242</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.277219</v>
+        <v>0.280227</v>
       </c>
       <c r="C78" t="n">
-        <v>0.29637</v>
+        <v>0.302571</v>
       </c>
       <c r="D78" t="n">
-        <v>0.362918</v>
+        <v>0.365658</v>
       </c>
       <c r="E78" t="n">
-        <v>0.267085</v>
+        <v>0.272044</v>
       </c>
       <c r="F78" t="n">
-        <v>0.279029</v>
+        <v>0.302082</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.282792</v>
+        <v>0.294307</v>
       </c>
       <c r="C79" t="n">
-        <v>0.294726</v>
+        <v>0.316155</v>
       </c>
       <c r="D79" t="n">
-        <v>0.365833</v>
+        <v>0.378769</v>
       </c>
       <c r="E79" t="n">
-        <v>0.268343</v>
+        <v>0.275527</v>
       </c>
       <c r="F79" t="n">
-        <v>0.281877</v>
+        <v>0.297576</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.28748</v>
+        <v>0.301349</v>
       </c>
       <c r="C80" t="n">
-        <v>0.30796</v>
+        <v>0.310046</v>
       </c>
       <c r="D80" t="n">
-        <v>0.385055</v>
+        <v>0.379975</v>
       </c>
       <c r="E80" t="n">
-        <v>0.353988</v>
+        <v>0.354912</v>
       </c>
       <c r="F80" t="n">
-        <v>0.389622</v>
+        <v>0.396448</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.361173</v>
+        <v>0.370712</v>
       </c>
       <c r="C81" t="n">
-        <v>0.400966</v>
+        <v>0.417654</v>
       </c>
       <c r="D81" t="n">
-        <v>0.38421</v>
+        <v>0.391889</v>
       </c>
       <c r="E81" t="n">
-        <v>0.344725</v>
+        <v>0.35947</v>
       </c>
       <c r="F81" t="n">
-        <v>0.391815</v>
+        <v>0.420841</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.387619</v>
+        <v>0.372136</v>
       </c>
       <c r="C82" t="n">
-        <v>0.397962</v>
+        <v>0.431742</v>
       </c>
       <c r="D82" t="n">
-        <v>0.390335</v>
+        <v>0.415986</v>
       </c>
       <c r="E82" t="n">
-        <v>0.345884</v>
+        <v>0.350707</v>
       </c>
       <c r="F82" t="n">
-        <v>0.389152</v>
+        <v>0.406777</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.358503</v>
+        <v>0.365298</v>
       </c>
       <c r="C83" t="n">
-        <v>0.401987</v>
+        <v>0.412274</v>
       </c>
       <c r="D83" t="n">
-        <v>0.414353</v>
+        <v>0.422231</v>
       </c>
       <c r="E83" t="n">
-        <v>0.360348</v>
+        <v>0.36047</v>
       </c>
       <c r="F83" t="n">
-        <v>0.399801</v>
+        <v>0.413151</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.363731</v>
+        <v>0.382574</v>
       </c>
       <c r="C84" t="n">
-        <v>0.411077</v>
+        <v>0.433087</v>
       </c>
       <c r="D84" t="n">
-        <v>0.408018</v>
+        <v>0.417025</v>
       </c>
       <c r="E84" t="n">
-        <v>0.346017</v>
+        <v>0.361641</v>
       </c>
       <c r="F84" t="n">
-        <v>0.409637</v>
+        <v>0.415643</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.375491</v>
+        <v>0.369979</v>
       </c>
       <c r="C85" t="n">
-        <v>0.423136</v>
+        <v>0.424436</v>
       </c>
       <c r="D85" t="n">
-        <v>0.436732</v>
+        <v>0.430351</v>
       </c>
       <c r="E85" t="n">
-        <v>0.347665</v>
+        <v>0.358864</v>
       </c>
       <c r="F85" t="n">
-        <v>0.395646</v>
+        <v>0.411184</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.367799</v>
+        <v>0.379951</v>
       </c>
       <c r="C86" t="n">
-        <v>0.407972</v>
+        <v>0.42626</v>
       </c>
       <c r="D86" t="n">
-        <v>0.43681</v>
+        <v>0.432014</v>
       </c>
       <c r="E86" t="n">
-        <v>0.366186</v>
+        <v>0.365049</v>
       </c>
       <c r="F86" t="n">
-        <v>0.401182</v>
+        <v>0.413451</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.364375</v>
+        <v>0.372897</v>
       </c>
       <c r="C87" t="n">
-        <v>0.40928</v>
+        <v>0.426939</v>
       </c>
       <c r="D87" t="n">
-        <v>0.453908</v>
+        <v>0.445098</v>
       </c>
       <c r="E87" t="n">
-        <v>0.349363</v>
+        <v>0.365004</v>
       </c>
       <c r="F87" t="n">
-        <v>0.410464</v>
+        <v>0.408911</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.370235</v>
+        <v>0.395759</v>
       </c>
       <c r="C88" t="n">
-        <v>0.417298</v>
+        <v>0.429011</v>
       </c>
       <c r="D88" t="n">
-        <v>0.455721</v>
+        <v>0.454376</v>
       </c>
       <c r="E88" t="n">
-        <v>0.350772</v>
+        <v>0.356858</v>
       </c>
       <c r="F88" t="n">
-        <v>0.413722</v>
+        <v>0.424501</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.37476</v>
+        <v>0.397248</v>
       </c>
       <c r="C89" t="n">
-        <v>0.417327</v>
+        <v>0.427613</v>
       </c>
       <c r="D89" t="n">
-        <v>0.466046</v>
+        <v>0.478464</v>
       </c>
       <c r="E89" t="n">
-        <v>0.356702</v>
+        <v>0.355926</v>
       </c>
       <c r="F89" t="n">
-        <v>0.411635</v>
+        <v>0.441896</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.380881</v>
+        <v>0.381711</v>
       </c>
       <c r="C90" t="n">
-        <v>0.417076</v>
+        <v>0.444886</v>
       </c>
       <c r="D90" t="n">
-        <v>0.500982</v>
+        <v>0.498219</v>
       </c>
       <c r="E90" t="n">
-        <v>0.356406</v>
+        <v>0.363644</v>
       </c>
       <c r="F90" t="n">
-        <v>0.409576</v>
+        <v>0.436906</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.370895</v>
+        <v>0.371024</v>
       </c>
       <c r="C91" t="n">
-        <v>0.422683</v>
+        <v>0.430366</v>
       </c>
       <c r="D91" t="n">
-        <v>0.488034</v>
+        <v>0.499275</v>
       </c>
       <c r="E91" t="n">
-        <v>0.361306</v>
+        <v>0.366034</v>
       </c>
       <c r="F91" t="n">
-        <v>0.412534</v>
+        <v>0.421692</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.377083</v>
+        <v>0.383454</v>
       </c>
       <c r="C92" t="n">
-        <v>0.425732</v>
+        <v>0.432222</v>
       </c>
       <c r="D92" t="n">
-        <v>0.430401</v>
+        <v>0.439182</v>
       </c>
       <c r="E92" t="n">
-        <v>0.363803</v>
+        <v>0.371203</v>
       </c>
       <c r="F92" t="n">
-        <v>0.422249</v>
+        <v>0.434482</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.378777</v>
+        <v>0.381182</v>
       </c>
       <c r="C93" t="n">
-        <v>0.434361</v>
+        <v>0.440089</v>
       </c>
       <c r="D93" t="n">
-        <v>0.433551</v>
+        <v>0.454349</v>
       </c>
       <c r="E93" t="n">
-        <v>0.364316</v>
+        <v>0.36664</v>
       </c>
       <c r="F93" t="n">
-        <v>0.426128</v>
+        <v>0.435958</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.383819</v>
+        <v>0.382282</v>
       </c>
       <c r="C94" t="n">
-        <v>0.442354</v>
+        <v>0.458285</v>
       </c>
       <c r="D94" t="n">
-        <v>0.447926</v>
+        <v>0.457697</v>
       </c>
       <c r="E94" t="n">
-        <v>0.441979</v>
+        <v>0.457048</v>
       </c>
       <c r="F94" t="n">
-        <v>0.500835</v>
+        <v>0.51191</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.456246</v>
+        <v>0.469274</v>
       </c>
       <c r="C95" t="n">
-        <v>0.50776</v>
+        <v>0.523935</v>
       </c>
       <c r="D95" t="n">
-        <v>0.451137</v>
+        <v>0.466072</v>
       </c>
       <c r="E95" t="n">
-        <v>0.448577</v>
+        <v>0.449787</v>
       </c>
       <c r="F95" t="n">
-        <v>0.506474</v>
+        <v>0.5176539999999999</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.445154</v>
+        <v>0.472716</v>
       </c>
       <c r="C96" t="n">
-        <v>0.5105730000000001</v>
+        <v>0.512141</v>
       </c>
       <c r="D96" t="n">
-        <v>0.453676</v>
+        <v>0.459894</v>
       </c>
       <c r="E96" t="n">
-        <v>0.438843</v>
+        <v>0.453891</v>
       </c>
       <c r="F96" t="n">
-        <v>0.502497</v>
+        <v>0.5417380000000001</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.442378</v>
+        <v>0.468794</v>
       </c>
       <c r="C97" t="n">
-        <v>0.501685</v>
+        <v>0.51487</v>
       </c>
       <c r="D97" t="n">
-        <v>0.461881</v>
+        <v>0.47823</v>
       </c>
       <c r="E97" t="n">
-        <v>0.439528</v>
+        <v>0.469641</v>
       </c>
       <c r="F97" t="n">
-        <v>0.504038</v>
+        <v>0.5305</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.451809</v>
+        <v>0.464311</v>
       </c>
       <c r="C98" t="n">
-        <v>0.501502</v>
+        <v>0.50975</v>
       </c>
       <c r="D98" t="n">
-        <v>0.474215</v>
+        <v>0.490457</v>
       </c>
       <c r="E98" t="n">
-        <v>0.449472</v>
+        <v>0.470998</v>
       </c>
       <c r="F98" t="n">
-        <v>0.503468</v>
+        <v>0.517601</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.450842</v>
+        <v>0.473302</v>
       </c>
       <c r="C99" t="n">
-        <v>0.5097120000000001</v>
+        <v>0.541075</v>
       </c>
       <c r="D99" t="n">
-        <v>0.491205</v>
+        <v>0.534311</v>
       </c>
       <c r="E99" t="n">
-        <v>0.449272</v>
+        <v>0.486981</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5164879999999999</v>
+        <v>0.529496</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.452378</v>
+        <v>0.45305</v>
       </c>
       <c r="C100" t="n">
-        <v>0.509825</v>
+        <v>0.521193</v>
       </c>
       <c r="D100" t="n">
-        <v>0.503593</v>
+        <v>0.501244</v>
       </c>
       <c r="E100" t="n">
-        <v>0.453057</v>
+        <v>0.460677</v>
       </c>
       <c r="F100" t="n">
-        <v>0.519713</v>
+        <v>0.524499</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.452259</v>
+        <v>0.456382</v>
       </c>
       <c r="C101" t="n">
-        <v>0.507446</v>
+        <v>0.512816</v>
       </c>
       <c r="D101" t="n">
-        <v>0.508958</v>
+        <v>0.526126</v>
       </c>
       <c r="E101" t="n">
-        <v>0.452673</v>
+        <v>0.457518</v>
       </c>
       <c r="F101" t="n">
-        <v>0.526397</v>
+        <v>0.547661</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.449445</v>
+        <v>0.463539</v>
       </c>
       <c r="C102" t="n">
-        <v>0.511025</v>
+        <v>0.52777</v>
       </c>
       <c r="D102" t="n">
-        <v>0.522548</v>
+        <v>0.531289</v>
       </c>
       <c r="E102" t="n">
         <v>0.450376</v>
       </c>
       <c r="F102" t="n">
-        <v>0.517714</v>
+        <v>0.534781</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.457981</v>
+        <v>0.474411</v>
       </c>
       <c r="C103" t="n">
-        <v>0.534337</v>
+        <v>0.550454</v>
       </c>
       <c r="D103" t="n">
-        <v>0.543863</v>
+        <v>0.553962</v>
       </c>
       <c r="E103" t="n">
-        <v>0.451583</v>
+        <v>0.465586</v>
       </c>
       <c r="F103" t="n">
-        <v>0.518846</v>
+        <v>0.542302</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.468786</v>
+        <v>0.476728</v>
       </c>
       <c r="C104" t="n">
-        <v>0.508263</v>
+        <v>0.529797</v>
       </c>
       <c r="D104" t="n">
-        <v>0.556468</v>
+        <v>0.558599</v>
       </c>
       <c r="E104" t="n">
-        <v>0.460474</v>
+        <v>0.466825</v>
       </c>
       <c r="F104" t="n">
-        <v>0.535789</v>
+        <v>0.552379</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.462531</v>
+        <v>0.462464</v>
       </c>
       <c r="C105" t="n">
-        <v>0.529963</v>
+        <v>0.527432</v>
       </c>
       <c r="D105" t="n">
-        <v>0.559453</v>
+        <v>0.572183</v>
       </c>
       <c r="E105" t="n">
-        <v>0.455331</v>
+        <v>0.47361</v>
       </c>
       <c r="F105" t="n">
-        <v>0.526771</v>
+        <v>0.562431</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.474581</v>
+        <v>0.461423</v>
       </c>
       <c r="C106" t="n">
-        <v>0.527519</v>
+        <v>0.574306</v>
       </c>
       <c r="D106" t="n">
-        <v>0.574944</v>
+        <v>0.590548</v>
       </c>
       <c r="E106" t="n">
-        <v>0.460392</v>
+        <v>0.48303</v>
       </c>
       <c r="F106" t="n">
-        <v>0.543618</v>
+        <v>0.55021</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.45998</v>
+        <v>0.489886</v>
       </c>
       <c r="C107" t="n">
-        <v>0.534918</v>
+        <v>0.532866</v>
       </c>
       <c r="D107" t="n">
-        <v>0.53054</v>
+        <v>0.557756</v>
       </c>
       <c r="E107" t="n">
-        <v>0.465826</v>
+        <v>0.475593</v>
       </c>
       <c r="F107" t="n">
-        <v>0.549798</v>
+        <v>0.58423</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.479104</v>
+        <v>0.476421</v>
       </c>
       <c r="C108" t="n">
-        <v>0.5509540000000001</v>
+        <v>0.546627</v>
       </c>
       <c r="D108" t="n">
-        <v>0.514465</v>
+        <v>0.50463</v>
       </c>
       <c r="E108" t="n">
-        <v>0.526779</v>
+        <v>0.55443</v>
       </c>
       <c r="F108" t="n">
-        <v>0.582172</v>
+        <v>0.631929</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.457587</v>
+        <v>0.476195</v>
       </c>
       <c r="C109" t="n">
-        <v>0.566057</v>
+        <v>0.555926</v>
       </c>
       <c r="D109" t="n">
-        <v>0.54165</v>
+        <v>0.553854</v>
       </c>
       <c r="E109" t="n">
-        <v>0.519294</v>
+        <v>0.5493400000000001</v>
       </c>
       <c r="F109" t="n">
-        <v>0.5758180000000001</v>
+        <v>0.592103</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.5424600000000001</v>
+        <v>0.563561</v>
       </c>
       <c r="C110" t="n">
-        <v>0.588931</v>
+        <v>0.615265</v>
       </c>
       <c r="D110" t="n">
-        <v>0.525065</v>
+        <v>0.563704</v>
       </c>
       <c r="E110" t="n">
-        <v>0.526577</v>
+        <v>0.534338</v>
       </c>
       <c r="F110" t="n">
-        <v>0.587661</v>
+        <v>0.6243649999999999</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.575013</v>
+        <v>0.5601429999999999</v>
       </c>
       <c r="C111" t="n">
-        <v>0.601158</v>
+        <v>0.6200639999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>0.535228</v>
+        <v>0.549297</v>
       </c>
       <c r="E111" t="n">
-        <v>0.5293060000000001</v>
+        <v>0.558238</v>
       </c>
       <c r="F111" t="n">
-        <v>0.602765</v>
+        <v>0.602849</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.557701</v>
+        <v>0.564195</v>
       </c>
       <c r="C112" t="n">
-        <v>0.592896</v>
+        <v>0.634748</v>
       </c>
       <c r="D112" t="n">
-        <v>0.540402</v>
+        <v>0.5498960000000001</v>
       </c>
       <c r="E112" t="n">
-        <v>0.520156</v>
+        <v>0.5419349999999999</v>
       </c>
       <c r="F112" t="n">
-        <v>0.5846710000000001</v>
+        <v>0.605243</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.5413210000000001</v>
+        <v>0.559886</v>
       </c>
       <c r="C113" t="n">
-        <v>0.601391</v>
+        <v>0.615654</v>
       </c>
       <c r="D113" t="n">
-        <v>0.554955</v>
+        <v>0.575341</v>
       </c>
       <c r="E113" t="n">
-        <v>0.5390160000000001</v>
+        <v>0.555072</v>
       </c>
       <c r="F113" t="n">
-        <v>0.58751</v>
+        <v>0.630606</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.55464</v>
+        <v>0.562438</v>
       </c>
       <c r="C114" t="n">
-        <v>0.615648</v>
+        <v>0.6075700000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>0.5977209999999999</v>
+        <v>0.578942</v>
       </c>
       <c r="E114" t="n">
-        <v>0.5283600000000001</v>
+        <v>0.557728</v>
       </c>
       <c r="F114" t="n">
-        <v>0.589343</v>
+        <v>0.607241</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.558231</v>
+        <v>0.560766</v>
       </c>
       <c r="C115" t="n">
-        <v>0.60867</v>
+        <v>0.609565</v>
       </c>
       <c r="D115" t="n">
-        <v>0.588929</v>
+        <v>0.588582</v>
       </c>
       <c r="E115" t="n">
-        <v>0.5366300000000001</v>
+        <v>0.5407960000000001</v>
       </c>
       <c r="F115" t="n">
-        <v>0.6074850000000001</v>
+        <v>0.626401</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.564742</v>
+        <v>0.560351</v>
       </c>
       <c r="C116" t="n">
-        <v>0.604271</v>
+        <v>0.630476</v>
       </c>
       <c r="D116" t="n">
-        <v>0.601508</v>
+        <v>0.595576</v>
       </c>
       <c r="E116" t="n">
-        <v>0.534237</v>
+        <v>0.541665</v>
       </c>
       <c r="F116" t="n">
-        <v>0.603163</v>
+        <v>0.615009</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.554171</v>
+        <v>0.578492</v>
       </c>
       <c r="C117" t="n">
-        <v>0.618962</v>
+        <v>0.618115</v>
       </c>
       <c r="D117" t="n">
-        <v>0.623958</v>
+        <v>0.639057</v>
       </c>
       <c r="E117" t="n">
-        <v>0.532205</v>
+        <v>0.550796</v>
       </c>
       <c r="F117" t="n">
-        <v>0.594531</v>
+        <v>0.64354</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.557956</v>
+        <v>0.557671</v>
       </c>
       <c r="C118" t="n">
-        <v>0.603513</v>
+        <v>0.619324</v>
       </c>
       <c r="D118" t="n">
-        <v>0.649564</v>
+        <v>0.627233</v>
       </c>
       <c r="E118" t="n">
-        <v>0.567582</v>
+        <v>0.545223</v>
       </c>
       <c r="F118" t="n">
-        <v>0.623875</v>
+        <v>0.643938</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.564123</v>
+        <v>0.57529</v>
       </c>
       <c r="C119" t="n">
-        <v>0.620185</v>
+        <v>0.623899</v>
       </c>
       <c r="D119" t="n">
-        <v>0.627117</v>
+        <v>0.636235</v>
       </c>
       <c r="E119" t="n">
-        <v>0.529351</v>
+        <v>0.563105</v>
       </c>
       <c r="F119" t="n">
-        <v>0.607247</v>
+        <v>0.621899</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.546779</v>
+        <v>0.572771</v>
       </c>
       <c r="C120" t="n">
-        <v>0.610781</v>
+        <v>0.631776</v>
       </c>
       <c r="D120" t="n">
-        <v>0.667256</v>
+        <v>0.648237</v>
       </c>
       <c r="E120" t="n">
-        <v>0.532436</v>
+        <v>0.545975</v>
       </c>
       <c r="F120" t="n">
-        <v>0.613472</v>
+        <v>0.640997</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.551098</v>
+        <v>0.5673280000000001</v>
       </c>
       <c r="C121" t="n">
-        <v>0.615051</v>
+        <v>0.629985</v>
       </c>
       <c r="D121" t="n">
-        <v>0.558671</v>
+        <v>0.574508</v>
       </c>
       <c r="E121" t="n">
-        <v>0.557063</v>
+        <v>0.547631</v>
       </c>
       <c r="F121" t="n">
-        <v>0.620034</v>
+        <v>0.635035</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.553127</v>
+        <v>0.6013269999999999</v>
       </c>
       <c r="C122" t="n">
-        <v>0.622518</v>
+        <v>0.637273</v>
       </c>
       <c r="D122" t="n">
-        <v>0.623353</v>
+        <v>0.595152</v>
       </c>
       <c r="E122" t="n">
-        <v>0.54253</v>
+        <v>0.597019</v>
       </c>
       <c r="F122" t="n">
-        <v>0.632216</v>
+        <v>0.650017</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.574542</v>
+        <v>0.581752</v>
       </c>
       <c r="C123" t="n">
-        <v>0.668133</v>
+        <v>0.673237</v>
       </c>
       <c r="D123" t="n">
-        <v>0.593464</v>
+        <v>0.606368</v>
       </c>
       <c r="E123" t="n">
-        <v>0.756835</v>
+        <v>0.674729</v>
       </c>
       <c r="F123" t="n">
-        <v>0.690554</v>
+        <v>0.687279</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.705106</v>
+        <v>0.729139</v>
       </c>
       <c r="C124" t="n">
-        <v>0.716715</v>
+        <v>0.747748</v>
       </c>
       <c r="D124" t="n">
-        <v>0.5975</v>
+        <v>0.621641</v>
       </c>
       <c r="E124" t="n">
-        <v>0.649313</v>
+        <v>0.670635</v>
       </c>
       <c r="F124" t="n">
-        <v>0.650878</v>
+        <v>0.679909</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.708005</v>
+        <v>0.731365</v>
       </c>
       <c r="C125" t="n">
-        <v>0.714561</v>
+        <v>0.7285239999999999</v>
       </c>
       <c r="D125" t="n">
-        <v>0.608368</v>
+        <v>0.620625</v>
       </c>
       <c r="E125" t="n">
-        <v>0.645752</v>
+        <v>0.672646</v>
       </c>
       <c r="F125" t="n">
-        <v>0.666391</v>
+        <v>0.694113</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.708693</v>
+        <v>0.726485</v>
       </c>
       <c r="C126" t="n">
-        <v>0.711219</v>
+        <v>0.723985</v>
       </c>
       <c r="D126" t="n">
-        <v>0.616138</v>
+        <v>0.629273</v>
       </c>
       <c r="E126" t="n">
-        <v>0.677212</v>
+        <v>0.665015</v>
       </c>
       <c r="F126" t="n">
-        <v>0.675805</v>
+        <v>0.7071229999999999</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.720726</v>
+        <v>0.7246359999999999</v>
       </c>
       <c r="C127" t="n">
-        <v>0.761637</v>
+        <v>0.769248</v>
       </c>
       <c r="D127" t="n">
-        <v>0.645412</v>
+        <v>0.641456</v>
       </c>
       <c r="E127" t="n">
-        <v>0.660501</v>
+        <v>0.774582</v>
       </c>
       <c r="F127" t="n">
-        <v>0.6693440000000001</v>
+        <v>0.706714</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.70757</v>
+        <v>0.73925</v>
       </c>
       <c r="C128" t="n">
-        <v>0.714816</v>
+        <v>0.736356</v>
       </c>
       <c r="D128" t="n">
-        <v>0.679397</v>
+        <v>0.663793</v>
       </c>
       <c r="E128" t="n">
-        <v>0.648567</v>
+        <v>0.665787</v>
       </c>
       <c r="F128" t="n">
-        <v>0.66389</v>
+        <v>0.692646</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.707789</v>
+        <v>0.735564</v>
       </c>
       <c r="C129" t="n">
-        <v>0.715435</v>
+        <v>0.759576</v>
       </c>
       <c r="D129" t="n">
-        <v>0.686661</v>
+        <v>0.679447</v>
       </c>
       <c r="E129" t="n">
-        <v>0.652657</v>
+        <v>0.697858</v>
       </c>
       <c r="F129" t="n">
-        <v>0.6664060000000001</v>
+        <v>0.682188</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.711627</v>
+        <v>0.731541</v>
       </c>
       <c r="C130" t="n">
-        <v>0.741264</v>
+        <v>0.777046</v>
       </c>
       <c r="D130" t="n">
-        <v>0.70867</v>
+        <v>0.6983279999999999</v>
       </c>
       <c r="E130" t="n">
-        <v>0.645875</v>
+        <v>0.668493</v>
       </c>
       <c r="F130" t="n">
-        <v>0.68408</v>
+        <v>0.6883550000000001</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.8300729999999999</v>
+        <v>0.783382</v>
       </c>
       <c r="C131" t="n">
-        <v>0.723067</v>
+        <v>0.731241</v>
       </c>
       <c r="D131" t="n">
-        <v>0.685204</v>
+        <v>0.715685</v>
       </c>
       <c r="E131" t="n">
-        <v>0.658359</v>
+        <v>0.672404</v>
       </c>
       <c r="F131" t="n">
-        <v>0.688142</v>
+        <v>0.688638</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.782246</v>
+        <v>0.763734</v>
       </c>
       <c r="C132" t="n">
-        <v>0.770963</v>
+        <v>0.74421</v>
       </c>
       <c r="D132" t="n">
-        <v>0.719242</v>
+        <v>0.7217249999999999</v>
       </c>
       <c r="E132" t="n">
-        <v>0.670412</v>
+        <v>0.672808</v>
       </c>
       <c r="F132" t="n">
-        <v>0.697694</v>
+        <v>0.762131</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.709597</v>
+        <v>0.733901</v>
       </c>
       <c r="C133" t="n">
-        <v>0.731942</v>
+        <v>0.747489</v>
       </c>
       <c r="D133" t="n">
-        <v>0.719182</v>
+        <v>0.7370949999999999</v>
       </c>
       <c r="E133" t="n">
-        <v>0.665833</v>
+        <v>0.695604</v>
       </c>
       <c r="F133" t="n">
-        <v>0.687083</v>
+        <v>0.71422</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.731652</v>
+        <v>0.743316</v>
       </c>
       <c r="C134" t="n">
-        <v>0.746916</v>
+        <v>0.765107</v>
       </c>
       <c r="D134" t="n">
-        <v>0.733783</v>
+        <v>0.753003</v>
       </c>
       <c r="E134" t="n">
-        <v>0.664761</v>
+        <v>0.674916</v>
       </c>
       <c r="F134" t="n">
-        <v>0.738333</v>
+        <v>0.7207</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.70612</v>
+        <v>0.750308</v>
       </c>
       <c r="C135" t="n">
-        <v>0.746901</v>
+        <v>0.805096</v>
       </c>
       <c r="D135" t="n">
-        <v>0.678499</v>
+        <v>0.678694</v>
       </c>
       <c r="E135" t="n">
-        <v>0.677721</v>
+        <v>0.696625</v>
       </c>
       <c r="F135" t="n">
-        <v>0.705264</v>
+        <v>0.737563</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.724675</v>
+        <v>0.750097</v>
       </c>
       <c r="C136" t="n">
-        <v>0.757671</v>
+        <v>0.762491</v>
       </c>
       <c r="D136" t="n">
-        <v>0.681378</v>
+        <v>0.701855</v>
       </c>
       <c r="E136" t="n">
-        <v>0.785219</v>
+        <v>0.699053</v>
       </c>
       <c r="F136" t="n">
-        <v>0.719006</v>
+        <v>0.7450560000000001</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.843929</v>
+        <v>0.745942</v>
       </c>
       <c r="C137" t="n">
-        <v>0.79423</v>
+        <v>0.771357</v>
       </c>
       <c r="D137" t="n">
-        <v>0.695878</v>
+        <v>0.706148</v>
       </c>
       <c r="E137" t="n">
-        <v>0.802636</v>
+        <v>0.836775</v>
       </c>
       <c r="F137" t="n">
-        <v>0.776718</v>
+        <v>0.778135</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.899822</v>
+        <v>0.929872</v>
       </c>
       <c r="C138" t="n">
-        <v>0.884381</v>
+        <v>0.844621</v>
       </c>
       <c r="D138" t="n">
-        <v>0.698111</v>
+        <v>0.72055</v>
       </c>
       <c r="E138" t="n">
-        <v>0.8121429999999999</v>
+        <v>0.841245</v>
       </c>
       <c r="F138" t="n">
-        <v>0.774586</v>
+        <v>0.774319</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.975349</v>
+        <v>0.922916</v>
       </c>
       <c r="C139" t="n">
-        <v>0.8338449999999999</v>
+        <v>0.851356</v>
       </c>
       <c r="D139" t="n">
-        <v>0.716017</v>
+        <v>0.736109</v>
       </c>
       <c r="E139" t="n">
-        <v>0.804878</v>
+        <v>0.836093</v>
       </c>
       <c r="F139" t="n">
-        <v>0.771231</v>
+        <v>0.779684</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.9083020000000001</v>
+        <v>0.934998</v>
       </c>
       <c r="C140" t="n">
-        <v>0.8203240000000001</v>
+        <v>0.865442</v>
       </c>
       <c r="D140" t="n">
-        <v>0.735695</v>
+        <v>0.7550519999999999</v>
       </c>
       <c r="E140" t="n">
-        <v>0.8211000000000001</v>
+        <v>0.853426</v>
       </c>
       <c r="F140" t="n">
-        <v>0.7958190000000001</v>
+        <v>0.792821</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.915842</v>
+        <v>0.944901</v>
       </c>
       <c r="C141" t="n">
-        <v>0.834273</v>
+        <v>0.853174</v>
       </c>
       <c r="D141" t="n">
-        <v>0.751094</v>
+        <v>0.757697</v>
       </c>
       <c r="E141" t="n">
-        <v>0.820314</v>
+        <v>0.848608</v>
       </c>
       <c r="F141" t="n">
-        <v>0.889601</v>
+        <v>0.811344</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.913472</v>
+        <v>0.949726</v>
       </c>
       <c r="C142" t="n">
-        <v>0.833275</v>
+        <v>0.852451</v>
       </c>
       <c r="D142" t="n">
-        <v>0.764366</v>
+        <v>0.780011</v>
       </c>
       <c r="E142" t="n">
-        <v>0.810283</v>
+        <v>0.844035</v>
       </c>
       <c r="F142" t="n">
-        <v>0.773001</v>
+        <v>0.785261</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.903921</v>
+        <v>0.947754</v>
       </c>
       <c r="C143" t="n">
-        <v>0.829498</v>
+        <v>0.850322</v>
       </c>
       <c r="D143" t="n">
-        <v>0.773922</v>
+        <v>0.791148</v>
       </c>
       <c r="E143" t="n">
-        <v>0.824346</v>
+        <v>0.842898</v>
       </c>
       <c r="F143" t="n">
-        <v>0.793856</v>
+        <v>0.793996</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0637916</v>
+        <v>0.07213600000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0672991</v>
+        <v>0.0731583</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0946837</v>
+        <v>0.138996</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0548281</v>
+        <v>0.06957389999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0650525</v>
+        <v>0.0720006</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0641902</v>
+        <v>0.0637354</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0674377</v>
+        <v>0.0748289</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09861300000000001</v>
+        <v>0.109752</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0542892</v>
+        <v>0.0631427</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0610984</v>
+        <v>0.0880939</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0674421</v>
+        <v>0.07046860000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0670837</v>
+        <v>0.0675804</v>
       </c>
       <c r="D4" t="n">
-        <v>0.100818</v>
+        <v>0.0814308</v>
       </c>
       <c r="E4" t="n">
-        <v>0.054488</v>
+        <v>0.0648763</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0616355</v>
+        <v>0.0563067</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0638417</v>
+        <v>0.0420158</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0717043</v>
+        <v>0.0604266</v>
       </c>
       <c r="D5" t="n">
-        <v>0.105437</v>
+        <v>0.0992353</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0554691</v>
+        <v>0.0622484</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0631627</v>
+        <v>0.0686614</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.06567000000000001</v>
+        <v>0.0414298</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0690339</v>
+        <v>0.0487049</v>
       </c>
       <c r="D6" t="n">
-        <v>0.108427</v>
+        <v>0.0972988</v>
       </c>
       <c r="E6" t="n">
-        <v>0.056088</v>
+        <v>0.0394405</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0622346</v>
+        <v>0.0428304</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0651544</v>
+        <v>0.0492209</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0688793</v>
+        <v>0.088686</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08313429999999999</v>
+        <v>0.0720951</v>
       </c>
       <c r="E7" t="n">
-        <v>0.060062</v>
+        <v>0.08728370000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>0.063471</v>
+        <v>0.0538884</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0667338</v>
+        <v>0.0703342</v>
       </c>
       <c r="C8" t="n">
-        <v>0.069664</v>
+        <v>0.06727089999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.08567279999999999</v>
+        <v>0.0747158</v>
       </c>
       <c r="E8" t="n">
-        <v>0.06487030000000001</v>
+        <v>0.06629069999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06649140000000001</v>
+        <v>0.0610048</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0666224</v>
+        <v>0.0704553</v>
       </c>
       <c r="C9" t="n">
-        <v>0.070773</v>
+        <v>0.09683559999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>0.08961860000000001</v>
+        <v>0.09522269999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0558839</v>
+        <v>0.0580779</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0660087</v>
+        <v>0.09969020000000001</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0722979</v>
+        <v>0.057509</v>
       </c>
       <c r="C10" t="n">
-        <v>0.079819</v>
+        <v>0.107364</v>
       </c>
       <c r="D10" t="n">
-        <v>0.08881029999999999</v>
+        <v>0.08810270000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0562253</v>
+        <v>0.0508784</v>
       </c>
       <c r="F10" t="n">
-        <v>0.066596</v>
+        <v>0.0564743</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.07316640000000001</v>
+        <v>0.0450637</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0789034</v>
+        <v>0.0520253</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0918486</v>
+        <v>0.0862911</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0597676</v>
+        <v>0.0617257</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0674382</v>
+        <v>0.08061749999999999</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0724038</v>
+        <v>0.0680313</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07653890000000001</v>
+        <v>0.0741436</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0934902</v>
+        <v>0.073838</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0562116</v>
+        <v>0.0785037</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0657133</v>
+        <v>0.06577620000000001</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.07125819999999999</v>
+        <v>0.0491114</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07635980000000001</v>
+        <v>0.07405639999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0979805</v>
+        <v>0.0817792</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0565094</v>
+        <v>0.0477471</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0659991</v>
+        <v>0.0579342</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0759667</v>
+        <v>0.07417</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0769268</v>
+        <v>0.0766062</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0997194</v>
+        <v>0.0780819</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0572564</v>
+        <v>0.0479827</v>
       </c>
       <c r="F14" t="n">
-        <v>0.06660820000000001</v>
+        <v>0.0668982</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0747437</v>
+        <v>0.07580199999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0788147</v>
+        <v>0.0988112</v>
       </c>
       <c r="D15" t="n">
-        <v>0.102504</v>
+        <v>0.136471</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0582911</v>
+        <v>0.0519631</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06886150000000001</v>
+        <v>0.06166</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0754233</v>
+        <v>0.0502637</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0810728</v>
+        <v>0.0531352</v>
       </c>
       <c r="D16" t="n">
-        <v>0.105618</v>
+        <v>0.0878413</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0579476</v>
+        <v>0.0497935</v>
       </c>
       <c r="F16" t="n">
-        <v>0.06998409999999999</v>
+        <v>0.06684470000000001</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0728265</v>
+        <v>0.0616695</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0823951</v>
+        <v>0.09004</v>
       </c>
       <c r="D17" t="n">
-        <v>0.108926</v>
+        <v>0.116368</v>
       </c>
       <c r="E17" t="n">
-        <v>0.058821</v>
+        <v>0.0523158</v>
       </c>
       <c r="F17" t="n">
-        <v>0.06892719999999999</v>
+        <v>0.0521823</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0736059</v>
+        <v>0.0603817</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0796444</v>
+        <v>0.0754026</v>
       </c>
       <c r="D18" t="n">
-        <v>0.113014</v>
+        <v>0.149435</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0591118</v>
+        <v>0.054562</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0693121</v>
+        <v>0.0674708</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0739112</v>
+        <v>0.0573733</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0812491</v>
+        <v>0.112663</v>
       </c>
       <c r="D19" t="n">
-        <v>0.11596</v>
+        <v>0.132301</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0607308</v>
+        <v>0.0783543</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0713911</v>
+        <v>0.08514869999999999</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.07366979999999999</v>
+        <v>0.07378949999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>0.07762189999999999</v>
+        <v>0.08045769999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>0.120676</v>
+        <v>0.184486</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0620195</v>
+        <v>0.0553777</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0705973</v>
+        <v>0.0522694</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0747442</v>
+        <v>0.0446906</v>
       </c>
       <c r="C21" t="n">
-        <v>0.082061</v>
+        <v>0.0801791</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0907371</v>
+        <v>0.159022</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0648181</v>
+        <v>0.06300939999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>0.072281</v>
+        <v>0.0601566</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0786314</v>
+        <v>0.0579511</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0831976</v>
+        <v>0.0564414</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0933707</v>
+        <v>0.0696888</v>
       </c>
       <c r="E22" t="n">
-        <v>0.06876210000000001</v>
+        <v>0.09237330000000001</v>
       </c>
       <c r="F22" t="n">
-        <v>0.07790080000000001</v>
+        <v>0.0920329</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.07706499999999999</v>
+        <v>0.0627834</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0826146</v>
+        <v>0.0504383</v>
       </c>
       <c r="D23" t="n">
-        <v>0.09383039999999999</v>
+        <v>0.08723359999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>0.06276569999999999</v>
+        <v>0.0579805</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0735851</v>
+        <v>0.0604327</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0794801</v>
+        <v>0.0511568</v>
       </c>
       <c r="C24" t="n">
-        <v>0.08737979999999999</v>
+        <v>0.084969</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0962105</v>
+        <v>0.124443</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0619164</v>
+        <v>0.0573649</v>
       </c>
       <c r="F24" t="n">
-        <v>0.07498489999999999</v>
+        <v>0.0774431</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0795077</v>
+        <v>0.0980477</v>
       </c>
       <c r="C25" t="n">
-        <v>0.089958</v>
+        <v>0.0692572</v>
       </c>
       <c r="D25" t="n">
-        <v>0.100162</v>
+        <v>0.0992919</v>
       </c>
       <c r="E25" t="n">
-        <v>0.062472</v>
+        <v>0.0606988</v>
       </c>
       <c r="F25" t="n">
-        <v>0.074583</v>
+        <v>0.0762819</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.08089</v>
+        <v>0.0670211</v>
       </c>
       <c r="C26" t="n">
-        <v>0.08694739999999999</v>
+        <v>0.0772045</v>
       </c>
       <c r="D26" t="n">
-        <v>0.103399</v>
+        <v>0.151271</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0624182</v>
+        <v>0.0602405</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0747242</v>
+        <v>0.0634952</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0792491</v>
+        <v>0.0658589</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0870785</v>
+        <v>0.110243</v>
       </c>
       <c r="D27" t="n">
-        <v>0.108871</v>
+        <v>0.200051</v>
       </c>
       <c r="E27" t="n">
-        <v>0.06331349999999999</v>
+        <v>0.0785067</v>
       </c>
       <c r="F27" t="n">
-        <v>0.07864110000000001</v>
+        <v>0.06976839999999999</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.07949349999999999</v>
+        <v>0.0972633</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0869378</v>
+        <v>0.108654</v>
       </c>
       <c r="D28" t="n">
-        <v>0.108169</v>
+        <v>0.166896</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0627337</v>
+        <v>0.0791867</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0744269</v>
+        <v>0.10785</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0804877</v>
+        <v>0.102474</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0886554</v>
+        <v>0.0839878</v>
       </c>
       <c r="D29" t="n">
-        <v>0.115952</v>
+        <v>0.0909209</v>
       </c>
       <c r="E29" t="n">
-        <v>0.063331</v>
+        <v>0.0847503</v>
       </c>
       <c r="F29" t="n">
-        <v>0.076844</v>
+        <v>0.0844115</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0801724</v>
+        <v>0.0635809</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0926037</v>
+        <v>0.0979231</v>
       </c>
       <c r="D30" t="n">
-        <v>0.117773</v>
+        <v>0.140073</v>
       </c>
       <c r="E30" t="n">
-        <v>0.064806</v>
+        <v>0.06364400000000001</v>
       </c>
       <c r="F30" t="n">
-        <v>0.076849</v>
+        <v>0.0778345</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.08002570000000001</v>
+        <v>0.0801413</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0878935</v>
+        <v>0.1014</v>
       </c>
       <c r="D31" t="n">
-        <v>0.121654</v>
+        <v>0.175384</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0654623</v>
+        <v>0.0646912</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07612430000000001</v>
+        <v>0.0909563</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0794764</v>
+        <v>0.0521647</v>
       </c>
       <c r="C32" t="n">
-        <v>0.09082079999999999</v>
+        <v>0.07737429999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>0.123006</v>
+        <v>0.113592</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0651668</v>
+        <v>0.049192</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0768471</v>
+        <v>0.0813036</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0799903</v>
+        <v>0.07777100000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0897453</v>
+        <v>0.0801163</v>
       </c>
       <c r="D33" t="n">
-        <v>0.129616</v>
+        <v>0.221116</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0663707</v>
+        <v>0.11146</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0797168</v>
+        <v>0.0694534</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.08129690000000001</v>
+        <v>0.0675602</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0908839</v>
+        <v>0.110552</v>
       </c>
       <c r="D34" t="n">
-        <v>0.132733</v>
+        <v>0.10752</v>
       </c>
       <c r="E34" t="n">
-        <v>0.06771439999999999</v>
+        <v>0.0541617</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0814867</v>
+        <v>0.12273</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0812068</v>
+        <v>0.0640206</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0905251</v>
+        <v>0.0887932</v>
       </c>
       <c r="D35" t="n">
-        <v>0.108504</v>
+        <v>0.132381</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0695104</v>
+        <v>0.0735929</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08321240000000001</v>
+        <v>0.0912869</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0831083</v>
+        <v>0.0712439</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0925194</v>
+        <v>0.0838122</v>
       </c>
       <c r="D36" t="n">
-        <v>0.115585</v>
+        <v>0.0820158</v>
       </c>
       <c r="E36" t="n">
-        <v>0.07432900000000001</v>
+        <v>0.0618108</v>
       </c>
       <c r="F36" t="n">
-        <v>0.08769979999999999</v>
+        <v>0.077309</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0849892</v>
+        <v>0.0909201</v>
       </c>
       <c r="C37" t="n">
-        <v>0.095899</v>
+        <v>0.071768</v>
       </c>
       <c r="D37" t="n">
-        <v>0.11518</v>
+        <v>0.109851</v>
       </c>
       <c r="E37" t="n">
-        <v>0.06939770000000001</v>
+        <v>0.0475301</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0819309</v>
+        <v>0.103084</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0964555</v>
+        <v>0.061781</v>
       </c>
       <c r="C38" t="n">
-        <v>0.100721</v>
+        <v>0.07764359999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>0.119797</v>
+        <v>0.122244</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0725705</v>
+        <v>0.0886589</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0822692</v>
+        <v>0.116542</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0996229</v>
+        <v>0.0969802</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0968016</v>
+        <v>0.111963</v>
       </c>
       <c r="D39" t="n">
-        <v>0.122353</v>
+        <v>0.170567</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0697125</v>
+        <v>0.109005</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0818402</v>
+        <v>0.09274449999999999</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0961848</v>
+        <v>0.105269</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0991467</v>
+        <v>0.0774048</v>
       </c>
       <c r="D40" t="n">
-        <v>0.128878</v>
+        <v>0.131202</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0698979</v>
+        <v>0.0583146</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0813758</v>
+        <v>0.07510260000000001</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0966094</v>
+        <v>0.078747</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0995407</v>
+        <v>0.120261</v>
       </c>
       <c r="D41" t="n">
-        <v>0.133557</v>
+        <v>0.102606</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0704515</v>
+        <v>0.058824</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0849936</v>
+        <v>0.0561854</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.104494</v>
+        <v>0.109285</v>
       </c>
       <c r="C42" t="n">
-        <v>0.100703</v>
+        <v>0.102692</v>
       </c>
       <c r="D42" t="n">
-        <v>0.139404</v>
+        <v>0.147574</v>
       </c>
       <c r="E42" t="n">
-        <v>0.07122580000000001</v>
+        <v>0.0659884</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08488420000000001</v>
+        <v>0.0844642</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0986394</v>
+        <v>0.075307</v>
       </c>
       <c r="C43" t="n">
-        <v>0.100085</v>
+        <v>0.09377770000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>0.141348</v>
+        <v>0.180814</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0708076</v>
+        <v>0.0966914</v>
       </c>
       <c r="F43" t="n">
-        <v>0.084688</v>
+        <v>0.0684437</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.09633709999999999</v>
+        <v>0.0930899</v>
       </c>
       <c r="C44" t="n">
-        <v>0.103107</v>
+        <v>0.101047</v>
       </c>
       <c r="D44" t="n">
-        <v>0.147324</v>
+        <v>0.17771</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0714484</v>
+        <v>0.08991</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0850611</v>
+        <v>0.1156</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0972413</v>
+        <v>0.08960940000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>0.100791</v>
+        <v>0.131194</v>
       </c>
       <c r="D45" t="n">
-        <v>0.152976</v>
+        <v>0.216921</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0718565</v>
+        <v>0.0888649</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0872163</v>
+        <v>0.0765583</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0974077</v>
+        <v>0.0962783</v>
       </c>
       <c r="C46" t="n">
-        <v>0.10375</v>
+        <v>0.0852952</v>
       </c>
       <c r="D46" t="n">
-        <v>0.160837</v>
+        <v>0.114221</v>
       </c>
       <c r="E46" t="n">
-        <v>0.07382619999999999</v>
+        <v>0.0923944</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0898414</v>
+        <v>0.112196</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.101027</v>
+        <v>0.11299</v>
       </c>
       <c r="C47" t="n">
-        <v>0.110148</v>
+        <v>0.120907</v>
       </c>
       <c r="D47" t="n">
-        <v>0.16986</v>
+        <v>0.10853</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0739737</v>
+        <v>0.0758456</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0946531</v>
+        <v>0.101577</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.100615</v>
+        <v>0.08881790000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>0.107126</v>
+        <v>0.145548</v>
       </c>
       <c r="D48" t="n">
-        <v>0.174182</v>
+        <v>0.129167</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0769254</v>
+        <v>0.09911880000000001</v>
       </c>
       <c r="F48" t="n">
-        <v>0.105109</v>
+        <v>0.12596</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.102276</v>
+        <v>0.131285</v>
       </c>
       <c r="C49" t="n">
-        <v>0.109348</v>
+        <v>0.110501</v>
       </c>
       <c r="D49" t="n">
-        <v>0.17898</v>
+        <v>0.205524</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0780676</v>
+        <v>0.130781</v>
       </c>
       <c r="F49" t="n">
-        <v>0.101104</v>
+        <v>0.142285</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.102089</v>
+        <v>0.125494</v>
       </c>
       <c r="C50" t="n">
-        <v>0.111947</v>
+        <v>0.144714</v>
       </c>
       <c r="D50" t="n">
-        <v>0.180361</v>
+        <v>0.140134</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0818334</v>
+        <v>0.0776152</v>
       </c>
       <c r="F50" t="n">
-        <v>0.111645</v>
+        <v>0.115392</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.103747</v>
+        <v>0.08108849999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>0.116889</v>
+        <v>0.145926</v>
       </c>
       <c r="D51" t="n">
-        <v>0.173894</v>
+        <v>0.167138</v>
       </c>
       <c r="E51" t="n">
-        <v>0.160711</v>
+        <v>0.0792112</v>
       </c>
       <c r="F51" t="n">
-        <v>0.125285</v>
+        <v>0.122015</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.107815</v>
+        <v>0.102909</v>
       </c>
       <c r="C52" t="n">
-        <v>0.133552</v>
+        <v>0.1107</v>
       </c>
       <c r="D52" t="n">
-        <v>0.179741</v>
+        <v>0.141684</v>
       </c>
       <c r="E52" t="n">
-        <v>0.160483</v>
+        <v>0.0587763</v>
       </c>
       <c r="F52" t="n">
-        <v>0.125598</v>
+        <v>0.0820671</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.187068</v>
+        <v>0.07087830000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>0.1618</v>
+        <v>0.105581</v>
       </c>
       <c r="D53" t="n">
-        <v>0.185749</v>
+        <v>0.0838083</v>
       </c>
       <c r="E53" t="n">
-        <v>0.165024</v>
+        <v>0.0813681</v>
       </c>
       <c r="F53" t="n">
-        <v>0.134896</v>
+        <v>0.122661</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.194418</v>
+        <v>0.12103</v>
       </c>
       <c r="C54" t="n">
-        <v>0.159616</v>
+        <v>0.127419</v>
       </c>
       <c r="D54" t="n">
-        <v>0.192318</v>
+        <v>0.179213</v>
       </c>
       <c r="E54" t="n">
-        <v>0.160883</v>
+        <v>0.110761</v>
       </c>
       <c r="F54" t="n">
-        <v>0.131555</v>
+        <v>0.126075</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.179216</v>
+        <v>0.106506</v>
       </c>
       <c r="C55" t="n">
-        <v>0.166285</v>
+        <v>0.124662</v>
       </c>
       <c r="D55" t="n">
-        <v>0.198073</v>
+        <v>0.164699</v>
       </c>
       <c r="E55" t="n">
-        <v>0.163198</v>
+        <v>0.106593</v>
       </c>
       <c r="F55" t="n">
-        <v>0.135925</v>
+        <v>0.120661</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.18425</v>
+        <v>0.121901</v>
       </c>
       <c r="C56" t="n">
-        <v>0.174448</v>
+        <v>0.134996</v>
       </c>
       <c r="D56" t="n">
-        <v>0.206541</v>
+        <v>0.193038</v>
       </c>
       <c r="E56" t="n">
-        <v>0.16136</v>
+        <v>0.0851315</v>
       </c>
       <c r="F56" t="n">
-        <v>0.137877</v>
+        <v>0.122123</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.177127</v>
+        <v>0.113279</v>
       </c>
       <c r="C57" t="n">
-        <v>0.169989</v>
+        <v>0.0918201</v>
       </c>
       <c r="D57" t="n">
-        <v>0.216972</v>
+        <v>0.153104</v>
       </c>
       <c r="E57" t="n">
-        <v>0.157858</v>
+        <v>0.0643507</v>
       </c>
       <c r="F57" t="n">
-        <v>0.147239</v>
+        <v>0.128616</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.176973</v>
+        <v>0.141528</v>
       </c>
       <c r="C58" t="n">
-        <v>0.171884</v>
+        <v>0.137783</v>
       </c>
       <c r="D58" t="n">
-        <v>0.22267</v>
+        <v>0.17992</v>
       </c>
       <c r="E58" t="n">
-        <v>0.165643</v>
+        <v>0.0740099</v>
       </c>
       <c r="F58" t="n">
-        <v>0.145886</v>
+        <v>0.0888563</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.179445</v>
+        <v>0.149319</v>
       </c>
       <c r="C59" t="n">
-        <v>0.172175</v>
+        <v>0.169236</v>
       </c>
       <c r="D59" t="n">
-        <v>0.230165</v>
+        <v>0.247307</v>
       </c>
       <c r="E59" t="n">
-        <v>0.165879</v>
+        <v>0.122889</v>
       </c>
       <c r="F59" t="n">
-        <v>0.152587</v>
+        <v>0.140881</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.179854</v>
+        <v>0.09178169999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>0.180011</v>
+        <v>0.120032</v>
       </c>
       <c r="D60" t="n">
-        <v>0.26052</v>
+        <v>0.157659</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1641</v>
+        <v>0.10092</v>
       </c>
       <c r="F60" t="n">
-        <v>0.150933</v>
+        <v>0.0578286</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.180432</v>
+        <v>0.0678681</v>
       </c>
       <c r="C61" t="n">
-        <v>0.177131</v>
+        <v>0.111837</v>
       </c>
       <c r="D61" t="n">
-        <v>0.248854</v>
+        <v>0.156821</v>
       </c>
       <c r="E61" t="n">
-        <v>0.161994</v>
+        <v>0.0856382</v>
       </c>
       <c r="F61" t="n">
-        <v>0.155553</v>
+        <v>0.101518</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.174201</v>
+        <v>0.0894331</v>
       </c>
       <c r="C62" t="n">
-        <v>0.178384</v>
+        <v>0.089728</v>
       </c>
       <c r="D62" t="n">
-        <v>0.256236</v>
+        <v>0.186918</v>
       </c>
       <c r="E62" t="n">
-        <v>0.160754</v>
+        <v>0.083013</v>
       </c>
       <c r="F62" t="n">
-        <v>0.158465</v>
+        <v>0.08436920000000001</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.17553</v>
+        <v>0.124534</v>
       </c>
       <c r="C63" t="n">
-        <v>0.184998</v>
+        <v>0.112677</v>
       </c>
       <c r="D63" t="n">
-        <v>0.269987</v>
+        <v>0.215549</v>
       </c>
       <c r="E63" t="n">
-        <v>0.164434</v>
+        <v>0.0680467</v>
       </c>
       <c r="F63" t="n">
-        <v>0.165764</v>
+        <v>0.119107</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.176306</v>
+        <v>0.08252429999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.187743</v>
+        <v>0.0928817</v>
       </c>
       <c r="D64" t="n">
-        <v>0.273129</v>
+        <v>0.153763</v>
       </c>
       <c r="E64" t="n">
-        <v>0.174397</v>
+        <v>0.141981</v>
       </c>
       <c r="F64" t="n">
-        <v>0.170626</v>
+        <v>0.123153</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.190584</v>
+        <v>0.09169819999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>0.191658</v>
+        <v>0.138865</v>
       </c>
       <c r="D65" t="n">
-        <v>0.273347</v>
+        <v>0.144925</v>
       </c>
       <c r="E65" t="n">
-        <v>0.170556</v>
+        <v>0.10524</v>
       </c>
       <c r="F65" t="n">
-        <v>0.179798</v>
+        <v>0.161633</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.188623</v>
+        <v>0.09005639999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>0.199244</v>
+        <v>0.142842</v>
       </c>
       <c r="D66" t="n">
-        <v>0.285375</v>
+        <v>0.139598</v>
       </c>
       <c r="E66" t="n">
-        <v>0.243739</v>
+        <v>0.0867236</v>
       </c>
       <c r="F66" t="n">
-        <v>0.257884</v>
+        <v>0.13794</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.264696</v>
+        <v>0.145326</v>
       </c>
       <c r="C67" t="n">
-        <v>0.286026</v>
+        <v>0.130235</v>
       </c>
       <c r="D67" t="n">
-        <v>0.289453</v>
+        <v>0.190399</v>
       </c>
       <c r="E67" t="n">
-        <v>0.241306</v>
+        <v>0.108558</v>
       </c>
       <c r="F67" t="n">
-        <v>0.251771</v>
+        <v>0.133017</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.264827</v>
+        <v>0.125279</v>
       </c>
       <c r="C68" t="n">
-        <v>0.291479</v>
+        <v>0.129851</v>
       </c>
       <c r="D68" t="n">
-        <v>0.300219</v>
+        <v>0.197879</v>
       </c>
       <c r="E68" t="n">
-        <v>0.242852</v>
+        <v>0.06786880000000001</v>
       </c>
       <c r="F68" t="n">
-        <v>0.254665</v>
+        <v>0.119973</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.263441</v>
+        <v>0.138382</v>
       </c>
       <c r="C69" t="n">
-        <v>0.281022</v>
+        <v>0.0939888</v>
       </c>
       <c r="D69" t="n">
-        <v>0.30937</v>
+        <v>0.179883</v>
       </c>
       <c r="E69" t="n">
-        <v>0.244227</v>
+        <v>0.0643965</v>
       </c>
       <c r="F69" t="n">
-        <v>0.255669</v>
+        <v>0.0828554</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.268688</v>
+        <v>0.117135</v>
       </c>
       <c r="C70" t="n">
-        <v>0.278238</v>
+        <v>0.0978786</v>
       </c>
       <c r="D70" t="n">
-        <v>0.316694</v>
+        <v>0.13309</v>
       </c>
       <c r="E70" t="n">
-        <v>0.244578</v>
+        <v>0.105597</v>
       </c>
       <c r="F70" t="n">
-        <v>0.257961</v>
+        <v>0.0782003</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.269973</v>
+        <v>0.108596</v>
       </c>
       <c r="C71" t="n">
-        <v>0.285422</v>
+        <v>0.121476</v>
       </c>
       <c r="D71" t="n">
-        <v>0.325758</v>
+        <v>0.157369</v>
       </c>
       <c r="E71" t="n">
-        <v>0.249879</v>
+        <v>0.0560408</v>
       </c>
       <c r="F71" t="n">
-        <v>0.261783</v>
+        <v>0.135733</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.275939</v>
+        <v>0.151021</v>
       </c>
       <c r="C72" t="n">
-        <v>0.292518</v>
+        <v>0.0937963</v>
       </c>
       <c r="D72" t="n">
-        <v>0.33857</v>
+        <v>0.11381</v>
       </c>
       <c r="E72" t="n">
-        <v>0.25468</v>
+        <v>0.0800651</v>
       </c>
       <c r="F72" t="n">
-        <v>0.267958</v>
+        <v>0.111764</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.271671</v>
+        <v>0.145377</v>
       </c>
       <c r="C73" t="n">
-        <v>0.284772</v>
+        <v>0.122346</v>
       </c>
       <c r="D73" t="n">
-        <v>0.34991</v>
+        <v>0.132277</v>
       </c>
       <c r="E73" t="n">
-        <v>0.25584</v>
+        <v>0.104336</v>
       </c>
       <c r="F73" t="n">
-        <v>0.271167</v>
+        <v>0.08294749999999999</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.2729</v>
+        <v>0.123779</v>
       </c>
       <c r="C74" t="n">
-        <v>0.300615</v>
+        <v>0.180435</v>
       </c>
       <c r="D74" t="n">
-        <v>0.361022</v>
+        <v>0.119687</v>
       </c>
       <c r="E74" t="n">
-        <v>0.255067</v>
+        <v>0.105761</v>
       </c>
       <c r="F74" t="n">
-        <v>0.265941</v>
+        <v>0.166912</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.270677</v>
+        <v>0.158641</v>
       </c>
       <c r="C75" t="n">
-        <v>0.288678</v>
+        <v>0.214814</v>
       </c>
       <c r="D75" t="n">
-        <v>0.362441</v>
+        <v>0.136682</v>
       </c>
       <c r="E75" t="n">
-        <v>0.258104</v>
+        <v>0.09272370000000001</v>
       </c>
       <c r="F75" t="n">
-        <v>0.277408</v>
+        <v>0.148593</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.274831</v>
+        <v>0.071466</v>
       </c>
       <c r="C76" t="n">
-        <v>0.293946</v>
+        <v>0.183877</v>
       </c>
       <c r="D76" t="n">
-        <v>0.380674</v>
+        <v>0.206229</v>
       </c>
       <c r="E76" t="n">
-        <v>0.260009</v>
+        <v>0.0929456</v>
       </c>
       <c r="F76" t="n">
-        <v>0.278898</v>
+        <v>0.140385</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.288269</v>
+        <v>0.0996213</v>
       </c>
       <c r="C77" t="n">
-        <v>0.296296</v>
+        <v>0.132835</v>
       </c>
       <c r="D77" t="n">
-        <v>0.387777</v>
+        <v>0.152763</v>
       </c>
       <c r="E77" t="n">
-        <v>0.258262</v>
+        <v>0.0759746</v>
       </c>
       <c r="F77" t="n">
-        <v>0.272563</v>
+        <v>0.127458</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.293571</v>
+        <v>0.0957993</v>
       </c>
       <c r="C78" t="n">
-        <v>0.302719</v>
+        <v>0.180642</v>
       </c>
       <c r="D78" t="n">
-        <v>0.362915</v>
+        <v>0.207776</v>
       </c>
       <c r="E78" t="n">
-        <v>0.265915</v>
+        <v>0.146292</v>
       </c>
       <c r="F78" t="n">
-        <v>0.284531</v>
+        <v>0.17947</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.280454</v>
+        <v>0.10989</v>
       </c>
       <c r="C79" t="n">
-        <v>0.333612</v>
+        <v>0.204264</v>
       </c>
       <c r="D79" t="n">
-        <v>0.3751</v>
+        <v>0.243384</v>
       </c>
       <c r="E79" t="n">
-        <v>0.265886</v>
+        <v>0.106513</v>
       </c>
       <c r="F79" t="n">
-        <v>0.296209</v>
+        <v>0.126453</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.290421</v>
+        <v>0.104716</v>
       </c>
       <c r="C80" t="n">
-        <v>0.311697</v>
+        <v>0.159246</v>
       </c>
       <c r="D80" t="n">
-        <v>0.378093</v>
+        <v>0.263728</v>
       </c>
       <c r="E80" t="n">
-        <v>0.356954</v>
+        <v>0.154577</v>
       </c>
       <c r="F80" t="n">
-        <v>0.389836</v>
+        <v>0.158853</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.377059</v>
+        <v>0.242506</v>
       </c>
       <c r="C81" t="n">
-        <v>0.413314</v>
+        <v>0.219898</v>
       </c>
       <c r="D81" t="n">
-        <v>0.383899</v>
+        <v>0.297256</v>
       </c>
       <c r="E81" t="n">
-        <v>0.357528</v>
+        <v>0.197739</v>
       </c>
       <c r="F81" t="n">
-        <v>0.405388</v>
+        <v>0.217655</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.364561</v>
+        <v>0.249061</v>
       </c>
       <c r="C82" t="n">
-        <v>0.401602</v>
+        <v>0.248438</v>
       </c>
       <c r="D82" t="n">
-        <v>0.393938</v>
+        <v>0.287211</v>
       </c>
       <c r="E82" t="n">
-        <v>0.351687</v>
+        <v>0.189308</v>
       </c>
       <c r="F82" t="n">
-        <v>0.401807</v>
+        <v>0.223461</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.367733</v>
+        <v>0.248006</v>
       </c>
       <c r="C83" t="n">
-        <v>0.405987</v>
+        <v>0.222175</v>
       </c>
       <c r="D83" t="n">
-        <v>0.404435</v>
+        <v>0.301464</v>
       </c>
       <c r="E83" t="n">
-        <v>0.350013</v>
+        <v>0.207108</v>
       </c>
       <c r="F83" t="n">
-        <v>0.399207</v>
+        <v>0.215105</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.364911</v>
+        <v>0.242658</v>
       </c>
       <c r="C84" t="n">
-        <v>0.405943</v>
+        <v>0.235117</v>
       </c>
       <c r="D84" t="n">
-        <v>0.406783</v>
+        <v>0.2893</v>
       </c>
       <c r="E84" t="n">
-        <v>0.356663</v>
+        <v>0.199601</v>
       </c>
       <c r="F84" t="n">
-        <v>0.399411</v>
+        <v>0.213836</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.381612</v>
+        <v>0.264343</v>
       </c>
       <c r="C85" t="n">
-        <v>0.405952</v>
+        <v>0.273775</v>
       </c>
       <c r="D85" t="n">
-        <v>0.417204</v>
+        <v>0.307239</v>
       </c>
       <c r="E85" t="n">
-        <v>0.356332</v>
+        <v>0.204145</v>
       </c>
       <c r="F85" t="n">
-        <v>0.398976</v>
+        <v>0.214503</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.371442</v>
+        <v>0.260326</v>
       </c>
       <c r="C86" t="n">
-        <v>0.408885</v>
+        <v>0.242947</v>
       </c>
       <c r="D86" t="n">
-        <v>0.431033</v>
+        <v>0.350659</v>
       </c>
       <c r="E86" t="n">
-        <v>0.360421</v>
+        <v>0.219353</v>
       </c>
       <c r="F86" t="n">
-        <v>0.407847</v>
+        <v>0.210561</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.369995</v>
+        <v>0.234217</v>
       </c>
       <c r="C87" t="n">
-        <v>0.412546</v>
+        <v>0.248542</v>
       </c>
       <c r="D87" t="n">
-        <v>0.459514</v>
+        <v>0.322777</v>
       </c>
       <c r="E87" t="n">
-        <v>0.358105</v>
+        <v>0.189967</v>
       </c>
       <c r="F87" t="n">
-        <v>0.422433</v>
+        <v>0.200351</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.376515</v>
+        <v>0.258518</v>
       </c>
       <c r="C88" t="n">
-        <v>0.411314</v>
+        <v>0.236862</v>
       </c>
       <c r="D88" t="n">
-        <v>0.45658</v>
+        <v>0.335074</v>
       </c>
       <c r="E88" t="n">
-        <v>0.35953</v>
+        <v>0.188404</v>
       </c>
       <c r="F88" t="n">
-        <v>0.416696</v>
+        <v>0.202017</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.379811</v>
+        <v>0.261934</v>
       </c>
       <c r="C89" t="n">
-        <v>0.418152</v>
+        <v>0.262342</v>
       </c>
       <c r="D89" t="n">
-        <v>0.468443</v>
+        <v>0.343245</v>
       </c>
       <c r="E89" t="n">
-        <v>0.360898</v>
+        <v>0.195911</v>
       </c>
       <c r="F89" t="n">
-        <v>0.419218</v>
+        <v>0.203324</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.365843</v>
+        <v>0.248692</v>
       </c>
       <c r="C90" t="n">
-        <v>0.426158</v>
+        <v>0.190219</v>
       </c>
       <c r="D90" t="n">
-        <v>0.492591</v>
+        <v>0.321905</v>
       </c>
       <c r="E90" t="n">
-        <v>0.357851</v>
+        <v>0.174226</v>
       </c>
       <c r="F90" t="n">
-        <v>0.427813</v>
+        <v>0.181785</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.375844</v>
+        <v>0.233377</v>
       </c>
       <c r="C91" t="n">
-        <v>0.436358</v>
+        <v>0.245806</v>
       </c>
       <c r="D91" t="n">
-        <v>0.482714</v>
+        <v>0.40143</v>
       </c>
       <c r="E91" t="n">
-        <v>0.355287</v>
+        <v>0.223723</v>
       </c>
       <c r="F91" t="n">
-        <v>0.414207</v>
+        <v>0.184799</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.371341</v>
+        <v>0.183021</v>
       </c>
       <c r="C92" t="n">
-        <v>0.438999</v>
+        <v>0.269646</v>
       </c>
       <c r="D92" t="n">
-        <v>0.426624</v>
+        <v>0.356286</v>
       </c>
       <c r="E92" t="n">
-        <v>0.364821</v>
+        <v>0.209636</v>
       </c>
       <c r="F92" t="n">
-        <v>0.421409</v>
+        <v>0.222228</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.377456</v>
+        <v>0.259299</v>
       </c>
       <c r="C93" t="n">
-        <v>0.441677</v>
+        <v>0.19614</v>
       </c>
       <c r="D93" t="n">
-        <v>0.438217</v>
+        <v>0.315271</v>
       </c>
       <c r="E93" t="n">
-        <v>0.37139</v>
+        <v>0.211345</v>
       </c>
       <c r="F93" t="n">
-        <v>0.438457</v>
+        <v>0.255408</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.386915</v>
+        <v>0.272243</v>
       </c>
       <c r="C94" t="n">
-        <v>0.441596</v>
+        <v>0.264638</v>
       </c>
       <c r="D94" t="n">
-        <v>0.439356</v>
+        <v>0.386829</v>
       </c>
       <c r="E94" t="n">
-        <v>0.439028</v>
+        <v>0.207712</v>
       </c>
       <c r="F94" t="n">
-        <v>0.513217</v>
+        <v>0.279595</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.443606</v>
+        <v>0.389837</v>
       </c>
       <c r="C95" t="n">
-        <v>0.508162</v>
+        <v>0.31721</v>
       </c>
       <c r="D95" t="n">
-        <v>0.449574</v>
+        <v>0.34024</v>
       </c>
       <c r="E95" t="n">
-        <v>0.455509</v>
+        <v>0.268524</v>
       </c>
       <c r="F95" t="n">
-        <v>0.52866</v>
+        <v>0.321442</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.444489</v>
+        <v>0.406163</v>
       </c>
       <c r="C96" t="n">
-        <v>0.526111</v>
+        <v>0.387824</v>
       </c>
       <c r="D96" t="n">
-        <v>0.4616</v>
+        <v>0.397806</v>
       </c>
       <c r="E96" t="n">
-        <v>0.448792</v>
+        <v>0.20772</v>
       </c>
       <c r="F96" t="n">
-        <v>0.510964</v>
+        <v>0.242867</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.46209</v>
+        <v>0.331014</v>
       </c>
       <c r="C97" t="n">
-        <v>0.500131</v>
+        <v>0.327873</v>
       </c>
       <c r="D97" t="n">
-        <v>0.465735</v>
+        <v>0.418813</v>
       </c>
       <c r="E97" t="n">
-        <v>0.443273</v>
+        <v>0.229706</v>
       </c>
       <c r="F97" t="n">
-        <v>0.511412</v>
+        <v>0.28495</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.453361</v>
+        <v>0.353717</v>
       </c>
       <c r="C98" t="n">
-        <v>0.518716</v>
+        <v>0.404552</v>
       </c>
       <c r="D98" t="n">
-        <v>0.480935</v>
+        <v>0.41033</v>
       </c>
       <c r="E98" t="n">
-        <v>0.450804</v>
+        <v>0.249645</v>
       </c>
       <c r="F98" t="n">
-        <v>0.508059</v>
+        <v>0.303759</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.446195</v>
+        <v>0.339504</v>
       </c>
       <c r="C99" t="n">
-        <v>0.530996</v>
+        <v>0.359917</v>
       </c>
       <c r="D99" t="n">
-        <v>0.50598</v>
+        <v>0.380305</v>
       </c>
       <c r="E99" t="n">
-        <v>0.452993</v>
+        <v>0.2087</v>
       </c>
       <c r="F99" t="n">
-        <v>0.525345</v>
+        <v>0.327974</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.467676</v>
+        <v>0.380402</v>
       </c>
       <c r="C100" t="n">
-        <v>0.517692</v>
+        <v>0.389027</v>
       </c>
       <c r="D100" t="n">
-        <v>0.500277</v>
+        <v>0.433928</v>
       </c>
       <c r="E100" t="n">
-        <v>0.455733</v>
+        <v>0.2395</v>
       </c>
       <c r="F100" t="n">
-        <v>0.52177</v>
+        <v>0.251219</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.445113</v>
+        <v>0.292313</v>
       </c>
       <c r="C101" t="n">
-        <v>0.506603</v>
+        <v>0.370928</v>
       </c>
       <c r="D101" t="n">
-        <v>0.519691</v>
+        <v>0.428582</v>
       </c>
       <c r="E101" t="n">
-        <v>0.445487</v>
+        <v>0.233036</v>
       </c>
       <c r="F101" t="n">
-        <v>0.52278</v>
+        <v>0.26875</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.452398</v>
+        <v>0.392072</v>
       </c>
       <c r="C102" t="n">
-        <v>0.526094</v>
+        <v>0.344847</v>
       </c>
       <c r="D102" t="n">
-        <v>0.5225109999999999</v>
+        <v>0.483765</v>
       </c>
       <c r="E102" t="n">
-        <v>0.451473</v>
+        <v>0.281991</v>
       </c>
       <c r="F102" t="n">
-        <v>0.51676</v>
+        <v>0.311066</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.457726</v>
+        <v>0.323043</v>
       </c>
       <c r="C103" t="n">
-        <v>0.537921</v>
+        <v>0.403288</v>
       </c>
       <c r="D103" t="n">
-        <v>0.548121</v>
+        <v>0.483786</v>
       </c>
       <c r="E103" t="n">
-        <v>0.456885</v>
+        <v>0.228259</v>
       </c>
       <c r="F103" t="n">
-        <v>0.529724</v>
+        <v>0.277079</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.457437</v>
+        <v>0.315188</v>
       </c>
       <c r="C104" t="n">
-        <v>0.551484</v>
+        <v>0.360008</v>
       </c>
       <c r="D104" t="n">
-        <v>0.5455989999999999</v>
+        <v>0.454402</v>
       </c>
       <c r="E104" t="n">
-        <v>0.450685</v>
+        <v>0.263235</v>
       </c>
       <c r="F104" t="n">
-        <v>0.532006</v>
+        <v>0.239438</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.455543</v>
+        <v>0.294206</v>
       </c>
       <c r="C105" t="n">
-        <v>0.5171289999999999</v>
+        <v>0.361175</v>
       </c>
       <c r="D105" t="n">
-        <v>0.559639</v>
+        <v>0.376528</v>
       </c>
       <c r="E105" t="n">
-        <v>0.454601</v>
+        <v>0.229599</v>
       </c>
       <c r="F105" t="n">
-        <v>0.525119</v>
+        <v>0.272952</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.477472</v>
+        <v>0.273549</v>
       </c>
       <c r="C106" t="n">
-        <v>0.542681</v>
+        <v>0.373528</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5705</v>
+        <v>0.43761</v>
       </c>
       <c r="E106" t="n">
-        <v>0.46101</v>
+        <v>0.24414</v>
       </c>
       <c r="F106" t="n">
-        <v>0.53716</v>
+        <v>0.269269</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.458217</v>
+        <v>0.377211</v>
       </c>
       <c r="C107" t="n">
-        <v>0.528085</v>
+        <v>0.374283</v>
       </c>
       <c r="D107" t="n">
-        <v>0.490711</v>
+        <v>0.407229</v>
       </c>
       <c r="E107" t="n">
-        <v>0.459298</v>
+        <v>0.274848</v>
       </c>
       <c r="F107" t="n">
-        <v>0.545855</v>
+        <v>0.338</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.463403</v>
+        <v>0.294813</v>
       </c>
       <c r="C108" t="n">
-        <v>0.534224</v>
+        <v>0.371435</v>
       </c>
       <c r="D108" t="n">
-        <v>0.501279</v>
+        <v>0.427228</v>
       </c>
       <c r="E108" t="n">
-        <v>0.5334410000000001</v>
+        <v>0.327694</v>
       </c>
       <c r="F108" t="n">
-        <v>0.587266</v>
+        <v>0.302439</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.459994</v>
+        <v>0.30961</v>
       </c>
       <c r="C109" t="n">
-        <v>0.581613</v>
+        <v>0.430794</v>
       </c>
       <c r="D109" t="n">
-        <v>0.544522</v>
+        <v>0.37663</v>
       </c>
       <c r="E109" t="n">
-        <v>0.5283409999999999</v>
+        <v>0.29419</v>
       </c>
       <c r="F109" t="n">
-        <v>0.587275</v>
+        <v>0.318383</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.545143</v>
+        <v>0.347845</v>
       </c>
       <c r="C110" t="n">
-        <v>0.598054</v>
+        <v>0.469903</v>
       </c>
       <c r="D110" t="n">
-        <v>0.524603</v>
+        <v>0.357045</v>
       </c>
       <c r="E110" t="n">
-        <v>0.547481</v>
+        <v>0.275809</v>
       </c>
       <c r="F110" t="n">
-        <v>0.587185</v>
+        <v>0.288066</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.548902</v>
+        <v>0.393332</v>
       </c>
       <c r="C111" t="n">
-        <v>0.601553</v>
+        <v>0.436104</v>
       </c>
       <c r="D111" t="n">
-        <v>0.541666</v>
+        <v>0.374343</v>
       </c>
       <c r="E111" t="n">
-        <v>0.5330819999999999</v>
+        <v>0.329959</v>
       </c>
       <c r="F111" t="n">
-        <v>0.592328</v>
+        <v>0.328584</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.556455</v>
+        <v>0.359667</v>
       </c>
       <c r="C112" t="n">
-        <v>0.59787</v>
+        <v>0.48692</v>
       </c>
       <c r="D112" t="n">
-        <v>0.541982</v>
+        <v>0.492809</v>
       </c>
       <c r="E112" t="n">
-        <v>0.538231</v>
+        <v>0.304292</v>
       </c>
       <c r="F112" t="n">
-        <v>0.606775</v>
+        <v>0.334917</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.547239</v>
+        <v>0.325247</v>
       </c>
       <c r="C113" t="n">
-        <v>0.593845</v>
+        <v>0.452953</v>
       </c>
       <c r="D113" t="n">
-        <v>0.563623</v>
+        <v>0.509143</v>
       </c>
       <c r="E113" t="n">
-        <v>0.53366</v>
+        <v>0.296576</v>
       </c>
       <c r="F113" t="n">
-        <v>0.599962</v>
+        <v>0.358534</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.548055</v>
+        <v>0.367366</v>
       </c>
       <c r="C114" t="n">
-        <v>0.623371</v>
+        <v>0.397159</v>
       </c>
       <c r="D114" t="n">
-        <v>0.567895</v>
+        <v>0.383143</v>
       </c>
       <c r="E114" t="n">
-        <v>0.528556</v>
+        <v>0.313742</v>
       </c>
       <c r="F114" t="n">
-        <v>0.607783</v>
+        <v>0.371673</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.552889</v>
+        <v>0.380941</v>
       </c>
       <c r="C115" t="n">
-        <v>0.603559</v>
+        <v>0.451837</v>
       </c>
       <c r="D115" t="n">
-        <v>0.582559</v>
+        <v>0.40926</v>
       </c>
       <c r="E115" t="n">
-        <v>0.535822</v>
+        <v>0.291297</v>
       </c>
       <c r="F115" t="n">
-        <v>0.594889</v>
+        <v>0.313026</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.555453</v>
+        <v>0.374025</v>
       </c>
       <c r="C116" t="n">
-        <v>0.61805</v>
+        <v>0.519606</v>
       </c>
       <c r="D116" t="n">
-        <v>0.588706</v>
+        <v>0.46614</v>
       </c>
       <c r="E116" t="n">
-        <v>0.532977</v>
+        <v>0.33069</v>
       </c>
       <c r="F116" t="n">
-        <v>0.599743</v>
+        <v>0.368715</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.553211</v>
+        <v>0.324615</v>
       </c>
       <c r="C117" t="n">
-        <v>0.599357</v>
+        <v>0.457379</v>
       </c>
       <c r="D117" t="n">
-        <v>0.616255</v>
+        <v>0.545059</v>
       </c>
       <c r="E117" t="n">
-        <v>0.532309</v>
+        <v>0.310235</v>
       </c>
       <c r="F117" t="n">
-        <v>0.6221370000000001</v>
+        <v>0.376573</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.562425</v>
+        <v>0.481397</v>
       </c>
       <c r="C118" t="n">
-        <v>0.602285</v>
+        <v>0.51141</v>
       </c>
       <c r="D118" t="n">
-        <v>0.612058</v>
+        <v>0.4978</v>
       </c>
       <c r="E118" t="n">
-        <v>0.544513</v>
+        <v>0.278663</v>
       </c>
       <c r="F118" t="n">
-        <v>0.611822</v>
+        <v>0.403474</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.54504</v>
+        <v>0.390831</v>
       </c>
       <c r="C119" t="n">
-        <v>0.622776</v>
+        <v>0.384459</v>
       </c>
       <c r="D119" t="n">
-        <v>0.624192</v>
+        <v>0.489168</v>
       </c>
       <c r="E119" t="n">
-        <v>0.53936</v>
+        <v>0.315352</v>
       </c>
       <c r="F119" t="n">
-        <v>0.613433</v>
+        <v>0.377629</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.557066</v>
+        <v>0.422871</v>
       </c>
       <c r="C120" t="n">
-        <v>0.624242</v>
+        <v>0.471917</v>
       </c>
       <c r="D120" t="n">
-        <v>0.659118</v>
+        <v>0.479487</v>
       </c>
       <c r="E120" t="n">
-        <v>0.536322</v>
+        <v>0.335071</v>
       </c>
       <c r="F120" t="n">
-        <v>0.620823</v>
+        <v>0.385993</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.553382</v>
+        <v>0.40436</v>
       </c>
       <c r="C121" t="n">
-        <v>0.6138400000000001</v>
+        <v>0.423636</v>
       </c>
       <c r="D121" t="n">
-        <v>0.598447</v>
+        <v>0.442202</v>
       </c>
       <c r="E121" t="n">
-        <v>0.542743</v>
+        <v>0.276073</v>
       </c>
       <c r="F121" t="n">
-        <v>0.625636</v>
+        <v>0.435697</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.566949</v>
+        <v>0.43589</v>
       </c>
       <c r="C122" t="n">
-        <v>0.6349</v>
+        <v>0.44027</v>
       </c>
       <c r="D122" t="n">
-        <v>0.57641</v>
+        <v>0.453688</v>
       </c>
       <c r="E122" t="n">
-        <v>0.549411</v>
+        <v>0.35887</v>
       </c>
       <c r="F122" t="n">
-        <v>0.646377</v>
+        <v>0.373414</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.623328</v>
+        <v>0.46826</v>
       </c>
       <c r="C123" t="n">
-        <v>0.636758</v>
+        <v>0.487188</v>
       </c>
       <c r="D123" t="n">
-        <v>0.609271</v>
+        <v>0.481674</v>
       </c>
       <c r="E123" t="n">
-        <v>0.661067</v>
+        <v>0.315624</v>
       </c>
       <c r="F123" t="n">
-        <v>0.668822</v>
+        <v>0.352721</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.834133</v>
+        <v>0.451904</v>
       </c>
       <c r="C124" t="n">
-        <v>0.723826</v>
+        <v>0.502027</v>
       </c>
       <c r="D124" t="n">
-        <v>0.596943</v>
+        <v>0.452833</v>
       </c>
       <c r="E124" t="n">
-        <v>0.6480320000000001</v>
+        <v>0.2754</v>
       </c>
       <c r="F124" t="n">
-        <v>0.710972</v>
+        <v>0.366543</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.724042</v>
+        <v>0.526945</v>
       </c>
       <c r="C125" t="n">
-        <v>0.720166</v>
+        <v>0.565379</v>
       </c>
       <c r="D125" t="n">
-        <v>0.615495</v>
+        <v>0.495073</v>
       </c>
       <c r="E125" t="n">
-        <v>0.655549</v>
+        <v>0.383188</v>
       </c>
       <c r="F125" t="n">
-        <v>0.679494</v>
+        <v>0.354858</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.712477</v>
+        <v>0.508537</v>
       </c>
       <c r="C126" t="n">
-        <v>0.719359</v>
+        <v>0.490762</v>
       </c>
       <c r="D126" t="n">
-        <v>0.6346349999999999</v>
+        <v>0.467272</v>
       </c>
       <c r="E126" t="n">
-        <v>0.652888</v>
+        <v>0.277266</v>
       </c>
       <c r="F126" t="n">
-        <v>0.6704</v>
+        <v>0.398608</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.70951</v>
+        <v>0.537254</v>
       </c>
       <c r="C127" t="n">
-        <v>0.725988</v>
+        <v>0.548542</v>
       </c>
       <c r="D127" t="n">
-        <v>0.63552</v>
+        <v>0.545976</v>
       </c>
       <c r="E127" t="n">
-        <v>0.646906</v>
+        <v>0.342409</v>
       </c>
       <c r="F127" t="n">
-        <v>0.674831</v>
+        <v>0.361539</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.707987</v>
+        <v>0.465543</v>
       </c>
       <c r="C128" t="n">
-        <v>0.748677</v>
+        <v>0.550037</v>
       </c>
       <c r="D128" t="n">
-        <v>0.6520629999999999</v>
+        <v>0.457986</v>
       </c>
       <c r="E128" t="n">
-        <v>0.679559</v>
+        <v>0.372937</v>
       </c>
       <c r="F128" t="n">
-        <v>0.713444</v>
+        <v>0.3343</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.717235</v>
+        <v>0.470354</v>
       </c>
       <c r="C129" t="n">
-        <v>0.720866</v>
+        <v>0.510134</v>
       </c>
       <c r="D129" t="n">
-        <v>0.654383</v>
+        <v>0.438927</v>
       </c>
       <c r="E129" t="n">
-        <v>0.660245</v>
+        <v>0.34582</v>
       </c>
       <c r="F129" t="n">
-        <v>0.675004</v>
+        <v>0.382744</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.709896</v>
+        <v>0.484696</v>
       </c>
       <c r="C130" t="n">
-        <v>0.753976</v>
+        <v>0.4961</v>
       </c>
       <c r="D130" t="n">
-        <v>0.665341</v>
+        <v>0.530016</v>
       </c>
       <c r="E130" t="n">
-        <v>0.665364</v>
+        <v>0.371389</v>
       </c>
       <c r="F130" t="n">
-        <v>0.681296</v>
+        <v>0.369352</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.711782</v>
+        <v>0.431156</v>
       </c>
       <c r="C131" t="n">
-        <v>0.736161</v>
+        <v>0.609796</v>
       </c>
       <c r="D131" t="n">
-        <v>0.681698</v>
+        <v>0.5923580000000001</v>
       </c>
       <c r="E131" t="n">
-        <v>0.664818</v>
+        <v>0.390029</v>
       </c>
       <c r="F131" t="n">
-        <v>0.682355</v>
+        <v>0.375193</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.712286</v>
+        <v>0.433209</v>
       </c>
       <c r="C132" t="n">
-        <v>0.736282</v>
+        <v>0.509777</v>
       </c>
       <c r="D132" t="n">
-        <v>0.699229</v>
+        <v>0.616245</v>
       </c>
       <c r="E132" t="n">
-        <v>0.6591360000000001</v>
+        <v>0.374998</v>
       </c>
       <c r="F132" t="n">
-        <v>0.702495</v>
+        <v>0.451415</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.734949</v>
+        <v>0.498264</v>
       </c>
       <c r="C133" t="n">
-        <v>0.7403419999999999</v>
+        <v>0.571066</v>
       </c>
       <c r="D133" t="n">
-        <v>0.70796</v>
+        <v>0.505404</v>
       </c>
       <c r="E133" t="n">
-        <v>0.661937</v>
+        <v>0.405688</v>
       </c>
       <c r="F133" t="n">
-        <v>0.7103159999999999</v>
+        <v>0.393734</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.7099259999999999</v>
+        <v>0.535018</v>
       </c>
       <c r="C134" t="n">
-        <v>0.7712599999999999</v>
+        <v>0.569288</v>
       </c>
       <c r="D134" t="n">
-        <v>0.734568</v>
+        <v>0.496375</v>
       </c>
       <c r="E134" t="n">
-        <v>0.684447</v>
+        <v>0.414664</v>
       </c>
       <c r="F134" t="n">
-        <v>0.71596</v>
+        <v>0.485964</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.720808</v>
+        <v>0.425643</v>
       </c>
       <c r="C135" t="n">
-        <v>0.755564</v>
+        <v>0.487793</v>
       </c>
       <c r="D135" t="n">
-        <v>0.693165</v>
+        <v>0.489382</v>
       </c>
       <c r="E135" t="n">
-        <v>0.673951</v>
+        <v>0.352623</v>
       </c>
       <c r="F135" t="n">
-        <v>0.706532</v>
+        <v>0.40439</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.715077</v>
+        <v>0.491857</v>
       </c>
       <c r="C136" t="n">
-        <v>0.748406</v>
+        <v>0.564192</v>
       </c>
       <c r="D136" t="n">
-        <v>0.68658</v>
+        <v>0.49021</v>
       </c>
       <c r="E136" t="n">
-        <v>0.68973</v>
+        <v>0.39252</v>
       </c>
       <c r="F136" t="n">
-        <v>0.716724</v>
+        <v>0.418114</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.721193</v>
+        <v>0.40391</v>
       </c>
       <c r="C137" t="n">
-        <v>0.769512</v>
+        <v>0.490579</v>
       </c>
       <c r="D137" t="n">
-        <v>0.6952469999999999</v>
+        <v>0.408272</v>
       </c>
       <c r="E137" t="n">
-        <v>0.829757</v>
+        <v>0.411253</v>
       </c>
       <c r="F137" t="n">
-        <v>0.7865220000000001</v>
+        <v>0.429786</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.914818</v>
+        <v>0.536835</v>
       </c>
       <c r="C138" t="n">
-        <v>0.837527</v>
+        <v>0.603357</v>
       </c>
       <c r="D138" t="n">
-        <v>0.708803</v>
+        <v>0.398936</v>
       </c>
       <c r="E138" t="n">
-        <v>0.829864</v>
+        <v>0.372519</v>
       </c>
       <c r="F138" t="n">
-        <v>0.787668</v>
+        <v>0.423327</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.922276</v>
+        <v>0.564967</v>
       </c>
       <c r="C139" t="n">
-        <v>0.841426</v>
+        <v>0.633346</v>
       </c>
       <c r="D139" t="n">
-        <v>0.715386</v>
+        <v>0.438961</v>
       </c>
       <c r="E139" t="n">
-        <v>0.853106</v>
+        <v>0.389363</v>
       </c>
       <c r="F139" t="n">
-        <v>0.809657</v>
+        <v>0.377474</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.922831</v>
+        <v>0.545017</v>
       </c>
       <c r="C140" t="n">
-        <v>0.837666</v>
+        <v>0.614896</v>
       </c>
       <c r="D140" t="n">
-        <v>0.734649</v>
+        <v>0.440234</v>
       </c>
       <c r="E140" t="n">
-        <v>0.8178569999999999</v>
+        <v>0.348443</v>
       </c>
       <c r="F140" t="n">
-        <v>0.785529</v>
+        <v>0.449332</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.914058</v>
+        <v>0.560314</v>
       </c>
       <c r="C141" t="n">
-        <v>0.84766</v>
+        <v>0.5025770000000001</v>
       </c>
       <c r="D141" t="n">
-        <v>0.745572</v>
+        <v>0.440181</v>
       </c>
       <c r="E141" t="n">
-        <v>0.819396</v>
+        <v>0.39312</v>
       </c>
       <c r="F141" t="n">
-        <v>0.796197</v>
+        <v>0.441374</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.906294</v>
+        <v>0.541157</v>
       </c>
       <c r="C142" t="n">
-        <v>0.837704</v>
+        <v>0.574508</v>
       </c>
       <c r="D142" t="n">
-        <v>0.763135</v>
+        <v>0.5608379999999999</v>
       </c>
       <c r="E142" t="n">
-        <v>0.82728</v>
+        <v>0.377575</v>
       </c>
       <c r="F142" t="n">
-        <v>0.792834</v>
+        <v>0.465816</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.910297</v>
+        <v>0.534456</v>
       </c>
       <c r="C143" t="n">
-        <v>0.843205</v>
+        <v>0.592472</v>
       </c>
       <c r="D143" t="n">
-        <v>0.77729</v>
+        <v>0.452281</v>
       </c>
       <c r="E143" t="n">
-        <v>0.813231</v>
+        <v>0.373246</v>
       </c>
       <c r="F143" t="n">
-        <v>0.793544</v>
+        <v>0.428567</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.07213600000000001</v>
+        <v>0.0837209</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0731583</v>
+        <v>0.0968441</v>
       </c>
       <c r="D2" t="n">
-        <v>0.138996</v>
+        <v>0.0650604</v>
       </c>
       <c r="E2" t="n">
-        <v>0.06957389999999999</v>
+        <v>0.0404642</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0720006</v>
+        <v>0.0646602</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0637354</v>
+        <v>0.0500745</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0748289</v>
+        <v>0.07129969999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>0.109752</v>
+        <v>0.118078</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0631427</v>
+        <v>0.0542102</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0880939</v>
+        <v>0.05972</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.07046860000000001</v>
+        <v>0.0841455</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0675804</v>
+        <v>0.113254</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0814308</v>
+        <v>0.091715</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0648763</v>
+        <v>0.0417437</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0563067</v>
+        <v>0.0577824</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0420158</v>
+        <v>0.0539726</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0604266</v>
+        <v>0.0487883</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0992353</v>
+        <v>0.138145</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0622484</v>
+        <v>0.108031</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0686614</v>
+        <v>0.101373</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0414298</v>
+        <v>0.0638006</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0487049</v>
+        <v>0.0719428</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0972988</v>
+        <v>0.101378</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0394405</v>
+        <v>0.0608192</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0428304</v>
+        <v>0.06884179999999999</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0492209</v>
+        <v>0.0473652</v>
       </c>
       <c r="C7" t="n">
-        <v>0.088686</v>
+        <v>0.0569512</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0720951</v>
+        <v>0.0587363</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08728370000000001</v>
+        <v>0.0569736</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0538884</v>
+        <v>0.046486</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0703342</v>
+        <v>0.0584509</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06727089999999999</v>
+        <v>0.119528</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0747158</v>
+        <v>0.0762539</v>
       </c>
       <c r="E8" t="n">
-        <v>0.06629069999999999</v>
+        <v>0.0433067</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0610048</v>
+        <v>0.065543</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0704553</v>
+        <v>0.0527461</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09683559999999999</v>
+        <v>0.0524462</v>
       </c>
       <c r="D9" t="n">
-        <v>0.09522269999999999</v>
+        <v>0.0751696</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0580779</v>
+        <v>0.0590405</v>
       </c>
       <c r="F9" t="n">
-        <v>0.09969020000000001</v>
+        <v>0.0936211</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.057509</v>
+        <v>0.105492</v>
       </c>
       <c r="C10" t="n">
-        <v>0.107364</v>
+        <v>0.100834</v>
       </c>
       <c r="D10" t="n">
-        <v>0.08810270000000001</v>
+        <v>0.08371140000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0508784</v>
+        <v>0.0750395</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0564743</v>
+        <v>0.117902</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0450637</v>
+        <v>0.116104</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0520253</v>
+        <v>0.124321</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0862911</v>
+        <v>0.167421</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0617257</v>
+        <v>0.109498</v>
       </c>
       <c r="F11" t="n">
-        <v>0.08061749999999999</v>
+        <v>0.118826</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0680313</v>
+        <v>0.106676</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0741436</v>
+        <v>0.125948</v>
       </c>
       <c r="D12" t="n">
-        <v>0.073838</v>
+        <v>0.169941</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0785037</v>
+        <v>0.0953614</v>
       </c>
       <c r="F12" t="n">
-        <v>0.06577620000000001</v>
+        <v>0.118141</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0491114</v>
+        <v>0.115907</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07405639999999999</v>
+        <v>0.12448</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0817792</v>
+        <v>0.120429</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0477471</v>
+        <v>0.0474579</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0579342</v>
+        <v>0.07452019999999999</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.07417</v>
+        <v>0.0576589</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0766062</v>
+        <v>0.0606325</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0780819</v>
+        <v>0.110964</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0479827</v>
+        <v>0.0496004</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0668982</v>
+        <v>0.0854024</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.07580199999999999</v>
+        <v>0.0698206</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0988112</v>
+        <v>0.0743596</v>
       </c>
       <c r="D15" t="n">
-        <v>0.136471</v>
+        <v>0.0976181</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0519631</v>
+        <v>0.06915060000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06166</v>
+        <v>0.075031</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0502637</v>
+        <v>0.0677049</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0531352</v>
+        <v>0.0807515</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0878413</v>
+        <v>0.196348</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0497935</v>
+        <v>0.113058</v>
       </c>
       <c r="F16" t="n">
-        <v>0.06684470000000001</v>
+        <v>0.122101</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0616695</v>
+        <v>0.118959</v>
       </c>
       <c r="C17" t="n">
-        <v>0.09004</v>
+        <v>0.130968</v>
       </c>
       <c r="D17" t="n">
-        <v>0.116368</v>
+        <v>0.207969</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0523158</v>
+        <v>0.10779</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0521823</v>
+        <v>0.12303</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0603817</v>
+        <v>0.112616</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0754026</v>
+        <v>0.104147</v>
       </c>
       <c r="D18" t="n">
-        <v>0.149435</v>
+        <v>0.173189</v>
       </c>
       <c r="E18" t="n">
-        <v>0.054562</v>
+        <v>0.0431735</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0674708</v>
+        <v>0.0620515</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0573733</v>
+        <v>0.0722893</v>
       </c>
       <c r="C19" t="n">
-        <v>0.112663</v>
+        <v>0.0553185</v>
       </c>
       <c r="D19" t="n">
-        <v>0.132301</v>
+        <v>0.131495</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0783543</v>
+        <v>0.113845</v>
       </c>
       <c r="F19" t="n">
-        <v>0.08514869999999999</v>
+        <v>0.122385</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.07378949999999999</v>
+        <v>0.0543954</v>
       </c>
       <c r="C20" t="n">
-        <v>0.08045769999999999</v>
+        <v>0.0582649</v>
       </c>
       <c r="D20" t="n">
-        <v>0.184486</v>
+        <v>0.121718</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0553777</v>
+        <v>0.0545765</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0522694</v>
+        <v>0.0752361</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0446906</v>
+        <v>0.0540989</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0801791</v>
+        <v>0.08436299999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.159022</v>
+        <v>0.116235</v>
       </c>
       <c r="E21" t="n">
-        <v>0.06300939999999999</v>
+        <v>0.0609918</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0601566</v>
+        <v>0.0776057</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0579511</v>
+        <v>0.0509684</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0564414</v>
+        <v>0.0718673</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0696888</v>
+        <v>0.142419</v>
       </c>
       <c r="E22" t="n">
-        <v>0.09237330000000001</v>
+        <v>0.0738255</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0920329</v>
+        <v>0.06836059999999999</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0627834</v>
+        <v>0.055032</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0504383</v>
+        <v>0.0860026</v>
       </c>
       <c r="D23" t="n">
-        <v>0.08723359999999999</v>
+        <v>0.0934243</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0579805</v>
+        <v>0.0505966</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0604327</v>
+        <v>0.054384</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0511568</v>
+        <v>0.05005</v>
       </c>
       <c r="C24" t="n">
-        <v>0.084969</v>
+        <v>0.07202509999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>0.124443</v>
+        <v>0.08247110000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0573649</v>
+        <v>0.07148400000000001</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0774431</v>
+        <v>0.0806224</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0980477</v>
+        <v>0.0653735</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0692572</v>
+        <v>0.077128</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0992919</v>
+        <v>0.13448</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0606988</v>
+        <v>0.06648279999999999</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0762819</v>
+        <v>0.0999478</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0670211</v>
+        <v>0.0926748</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0772045</v>
+        <v>0.082772</v>
       </c>
       <c r="D26" t="n">
-        <v>0.151271</v>
+        <v>0.147281</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0602405</v>
+        <v>0.0641582</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0634952</v>
+        <v>0.0866836</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0658589</v>
+        <v>0.0559382</v>
       </c>
       <c r="C27" t="n">
-        <v>0.110243</v>
+        <v>0.118496</v>
       </c>
       <c r="D27" t="n">
-        <v>0.200051</v>
+        <v>0.138887</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0785067</v>
+        <v>0.079295</v>
       </c>
       <c r="F27" t="n">
-        <v>0.06976839999999999</v>
+        <v>0.0794723</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0972633</v>
+        <v>0.0567036</v>
       </c>
       <c r="C28" t="n">
-        <v>0.108654</v>
+        <v>0.112402</v>
       </c>
       <c r="D28" t="n">
-        <v>0.166896</v>
+        <v>0.202217</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0791867</v>
+        <v>0.102028</v>
       </c>
       <c r="F28" t="n">
-        <v>0.10785</v>
+        <v>0.12868</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.102474</v>
+        <v>0.118163</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0839878</v>
+        <v>0.139231</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0909209</v>
+        <v>0.218908</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0847503</v>
+        <v>0.115723</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0844115</v>
+        <v>0.128516</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0635809</v>
+        <v>0.126403</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0979231</v>
+        <v>0.138835</v>
       </c>
       <c r="D30" t="n">
-        <v>0.140073</v>
+        <v>0.18423</v>
       </c>
       <c r="E30" t="n">
-        <v>0.06364400000000001</v>
+        <v>0.0554086</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0778345</v>
+        <v>0.0626492</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0801413</v>
+        <v>0.0591332</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1014</v>
+        <v>0.12152</v>
       </c>
       <c r="D31" t="n">
-        <v>0.175384</v>
+        <v>0.221672</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0646912</v>
+        <v>0.072266</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0909563</v>
+        <v>0.06360789999999999</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0521647</v>
+        <v>0.0804361</v>
       </c>
       <c r="C32" t="n">
-        <v>0.07737429999999999</v>
+        <v>0.137144</v>
       </c>
       <c r="D32" t="n">
-        <v>0.113592</v>
+        <v>0.231032</v>
       </c>
       <c r="E32" t="n">
-        <v>0.049192</v>
+        <v>0.114286</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0813036</v>
+        <v>0.128604</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.07777100000000001</v>
+        <v>0.123548</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0801163</v>
+        <v>0.140913</v>
       </c>
       <c r="D33" t="n">
-        <v>0.221116</v>
+        <v>0.238375</v>
       </c>
       <c r="E33" t="n">
-        <v>0.11146</v>
+        <v>0.109873</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0694534</v>
+        <v>0.128872</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0675602</v>
+        <v>0.125461</v>
       </c>
       <c r="C34" t="n">
-        <v>0.110552</v>
+        <v>0.139661</v>
       </c>
       <c r="D34" t="n">
-        <v>0.10752</v>
+        <v>0.111231</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0541617</v>
+        <v>0.08161889999999999</v>
       </c>
       <c r="F34" t="n">
-        <v>0.12273</v>
+        <v>0.072274</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0640206</v>
+        <v>0.0896739</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0887932</v>
+        <v>0.0634604</v>
       </c>
       <c r="D35" t="n">
-        <v>0.132381</v>
+        <v>0.125025</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0735929</v>
+        <v>0.119289</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0912869</v>
+        <v>0.137645</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0712439</v>
+        <v>0.131673</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0838122</v>
+        <v>0.123685</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0820158</v>
+        <v>0.179692</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0618108</v>
+        <v>0.135979</v>
       </c>
       <c r="F36" t="n">
-        <v>0.077309</v>
+        <v>0.0742391</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0909201</v>
+        <v>0.058797</v>
       </c>
       <c r="C37" t="n">
-        <v>0.071768</v>
+        <v>0.07057339999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>0.109851</v>
+        <v>0.108985</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0475301</v>
+        <v>0.0858907</v>
       </c>
       <c r="F37" t="n">
-        <v>0.103084</v>
+        <v>0.108669</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.061781</v>
+        <v>0.0680408</v>
       </c>
       <c r="C38" t="n">
-        <v>0.07764359999999999</v>
+        <v>0.138291</v>
       </c>
       <c r="D38" t="n">
-        <v>0.122244</v>
+        <v>0.179945</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0886589</v>
+        <v>0.0611255</v>
       </c>
       <c r="F38" t="n">
-        <v>0.116542</v>
+        <v>0.07241640000000001</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0969802</v>
+        <v>0.0928789</v>
       </c>
       <c r="C39" t="n">
-        <v>0.111963</v>
+        <v>0.09688670000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>0.170567</v>
+        <v>0.149663</v>
       </c>
       <c r="E39" t="n">
-        <v>0.109005</v>
+        <v>0.116788</v>
       </c>
       <c r="F39" t="n">
-        <v>0.09274449999999999</v>
+        <v>0.129306</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.105269</v>
+        <v>0.119526</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0774048</v>
+        <v>0.0703811</v>
       </c>
       <c r="D40" t="n">
-        <v>0.131202</v>
+        <v>0.1955</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0583146</v>
+        <v>0.101311</v>
       </c>
       <c r="F40" t="n">
-        <v>0.07510260000000001</v>
+        <v>0.123762</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.078747</v>
+        <v>0.0930492</v>
       </c>
       <c r="C41" t="n">
-        <v>0.120261</v>
+        <v>0.127496</v>
       </c>
       <c r="D41" t="n">
-        <v>0.102606</v>
+        <v>0.155179</v>
       </c>
       <c r="E41" t="n">
-        <v>0.058824</v>
+        <v>0.0787471</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0561854</v>
+        <v>0.07876850000000001</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.109285</v>
+        <v>0.0625759</v>
       </c>
       <c r="C42" t="n">
-        <v>0.102692</v>
+        <v>0.108103</v>
       </c>
       <c r="D42" t="n">
-        <v>0.147574</v>
+        <v>0.153085</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0659884</v>
+        <v>0.0702598</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0844642</v>
+        <v>0.100311</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.075307</v>
+        <v>0.0973663</v>
       </c>
       <c r="C43" t="n">
-        <v>0.09377770000000001</v>
+        <v>0.117683</v>
       </c>
       <c r="D43" t="n">
-        <v>0.180814</v>
+        <v>0.193742</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0966914</v>
+        <v>0.0671402</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0684437</v>
+        <v>0.0603132</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0930899</v>
+        <v>0.0801992</v>
       </c>
       <c r="C44" t="n">
-        <v>0.101047</v>
+        <v>0.0880903</v>
       </c>
       <c r="D44" t="n">
-        <v>0.17771</v>
+        <v>0.121373</v>
       </c>
       <c r="E44" t="n">
-        <v>0.08991</v>
+        <v>0.0579128</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1156</v>
+        <v>0.0981692</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.08960940000000001</v>
+        <v>0.0902597</v>
       </c>
       <c r="C45" t="n">
-        <v>0.131194</v>
+        <v>0.106274</v>
       </c>
       <c r="D45" t="n">
-        <v>0.216921</v>
+        <v>0.15563</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0888649</v>
+        <v>0.0555219</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0765583</v>
+        <v>0.08321539999999999</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0962783</v>
+        <v>0.07685889999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0852952</v>
+        <v>0.102448</v>
       </c>
       <c r="D46" t="n">
-        <v>0.114221</v>
+        <v>0.14392</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0923944</v>
+        <v>0.076955</v>
       </c>
       <c r="F46" t="n">
-        <v>0.112196</v>
+        <v>0.109295</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.11299</v>
+        <v>0.0837915</v>
       </c>
       <c r="C47" t="n">
-        <v>0.120907</v>
+        <v>0.0746864</v>
       </c>
       <c r="D47" t="n">
-        <v>0.10853</v>
+        <v>0.15549</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0758456</v>
+        <v>0.0841044</v>
       </c>
       <c r="F47" t="n">
-        <v>0.101577</v>
+        <v>0.0688723</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.08881790000000001</v>
+        <v>0.0645703</v>
       </c>
       <c r="C48" t="n">
-        <v>0.145548</v>
+        <v>0.0861128</v>
       </c>
       <c r="D48" t="n">
-        <v>0.129167</v>
+        <v>0.14829</v>
       </c>
       <c r="E48" t="n">
-        <v>0.09911880000000001</v>
+        <v>0.117618</v>
       </c>
       <c r="F48" t="n">
-        <v>0.12596</v>
+        <v>0.129671</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.131285</v>
+        <v>0.125728</v>
       </c>
       <c r="C49" t="n">
-        <v>0.110501</v>
+        <v>0.111475</v>
       </c>
       <c r="D49" t="n">
-        <v>0.205524</v>
+        <v>0.226049</v>
       </c>
       <c r="E49" t="n">
-        <v>0.130781</v>
+        <v>0.10547</v>
       </c>
       <c r="F49" t="n">
-        <v>0.142285</v>
+        <v>0.137959</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.125494</v>
+        <v>0.108388</v>
       </c>
       <c r="C50" t="n">
-        <v>0.144714</v>
+        <v>0.140032</v>
       </c>
       <c r="D50" t="n">
-        <v>0.140134</v>
+        <v>0.1653</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0776152</v>
+        <v>0.134401</v>
       </c>
       <c r="F50" t="n">
-        <v>0.115392</v>
+        <v>0.135423</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.08108849999999999</v>
+        <v>0.128067</v>
       </c>
       <c r="C51" t="n">
-        <v>0.145926</v>
+        <v>0.122307</v>
       </c>
       <c r="D51" t="n">
-        <v>0.167138</v>
+        <v>0.167823</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0792112</v>
+        <v>0.097049</v>
       </c>
       <c r="F51" t="n">
-        <v>0.122015</v>
+        <v>0.117105</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.102909</v>
+        <v>0.139454</v>
       </c>
       <c r="C52" t="n">
-        <v>0.1107</v>
+        <v>0.159587</v>
       </c>
       <c r="D52" t="n">
-        <v>0.141684</v>
+        <v>0.157217</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0587763</v>
+        <v>0.110306</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0820671</v>
+        <v>0.118349</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.07087830000000001</v>
+        <v>0.0966751</v>
       </c>
       <c r="C53" t="n">
-        <v>0.105581</v>
+        <v>0.140971</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0838083</v>
+        <v>0.180032</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0813681</v>
+        <v>0.0817066</v>
       </c>
       <c r="F53" t="n">
-        <v>0.122661</v>
+        <v>0.107926</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.12103</v>
+        <v>0.114287</v>
       </c>
       <c r="C54" t="n">
-        <v>0.127419</v>
+        <v>0.0893687</v>
       </c>
       <c r="D54" t="n">
-        <v>0.179213</v>
+        <v>0.12236</v>
       </c>
       <c r="E54" t="n">
-        <v>0.110761</v>
+        <v>0.102325</v>
       </c>
       <c r="F54" t="n">
-        <v>0.126075</v>
+        <v>0.107549</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.106506</v>
+        <v>0.0969096</v>
       </c>
       <c r="C55" t="n">
-        <v>0.124662</v>
+        <v>0.092041</v>
       </c>
       <c r="D55" t="n">
-        <v>0.164699</v>
+        <v>0.108778</v>
       </c>
       <c r="E55" t="n">
-        <v>0.106593</v>
+        <v>0.0697972</v>
       </c>
       <c r="F55" t="n">
-        <v>0.120661</v>
+        <v>0.084879</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.121901</v>
+        <v>0.100668</v>
       </c>
       <c r="C56" t="n">
-        <v>0.134996</v>
+        <v>0.093016</v>
       </c>
       <c r="D56" t="n">
-        <v>0.193038</v>
+        <v>0.112178</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0851315</v>
+        <v>0.0646021</v>
       </c>
       <c r="F56" t="n">
-        <v>0.122123</v>
+        <v>0.0860812</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.113279</v>
+        <v>0.10074</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0918201</v>
+        <v>0.122394</v>
       </c>
       <c r="D57" t="n">
-        <v>0.153104</v>
+        <v>0.109441</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0643507</v>
+        <v>0.0808618</v>
       </c>
       <c r="F57" t="n">
-        <v>0.128616</v>
+        <v>0.061299</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.141528</v>
+        <v>0.0781592</v>
       </c>
       <c r="C58" t="n">
-        <v>0.137783</v>
+        <v>0.0896834</v>
       </c>
       <c r="D58" t="n">
-        <v>0.17992</v>
+        <v>0.11974</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0740099</v>
+        <v>0.0651326</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0888563</v>
+        <v>0.0822502</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.149319</v>
+        <v>0.0714346</v>
       </c>
       <c r="C59" t="n">
-        <v>0.169236</v>
+        <v>0.100337</v>
       </c>
       <c r="D59" t="n">
-        <v>0.247307</v>
+        <v>0.135068</v>
       </c>
       <c r="E59" t="n">
-        <v>0.122889</v>
+        <v>0.101506</v>
       </c>
       <c r="F59" t="n">
-        <v>0.140881</v>
+        <v>0.0720283</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.09178169999999999</v>
+        <v>0.0764787</v>
       </c>
       <c r="C60" t="n">
-        <v>0.120032</v>
+        <v>0.108973</v>
       </c>
       <c r="D60" t="n">
-        <v>0.157659</v>
+        <v>0.12481</v>
       </c>
       <c r="E60" t="n">
-        <v>0.10092</v>
+        <v>0.110759</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0578286</v>
+        <v>0.08896469999999999</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0678681</v>
+        <v>0.06302389999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>0.111837</v>
+        <v>0.0820988</v>
       </c>
       <c r="D61" t="n">
-        <v>0.156821</v>
+        <v>0.163129</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0856382</v>
+        <v>0.101151</v>
       </c>
       <c r="F61" t="n">
-        <v>0.101518</v>
+        <v>0.118345</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0894331</v>
+        <v>0.0790975</v>
       </c>
       <c r="C62" t="n">
-        <v>0.089728</v>
+        <v>0.122349</v>
       </c>
       <c r="D62" t="n">
-        <v>0.186918</v>
+        <v>0.15429</v>
       </c>
       <c r="E62" t="n">
-        <v>0.083013</v>
+        <v>0.08495469999999999</v>
       </c>
       <c r="F62" t="n">
-        <v>0.08436920000000001</v>
+        <v>0.132647</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.124534</v>
+        <v>0.122561</v>
       </c>
       <c r="C63" t="n">
-        <v>0.112677</v>
+        <v>0.145211</v>
       </c>
       <c r="D63" t="n">
-        <v>0.215549</v>
+        <v>0.254568</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0680467</v>
+        <v>0.130283</v>
       </c>
       <c r="F63" t="n">
-        <v>0.119107</v>
+        <v>0.149041</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.08252429999999999</v>
+        <v>0.118992</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0928817</v>
+        <v>0.150557</v>
       </c>
       <c r="D64" t="n">
-        <v>0.153763</v>
+        <v>0.173949</v>
       </c>
       <c r="E64" t="n">
-        <v>0.141981</v>
+        <v>0.119099</v>
       </c>
       <c r="F64" t="n">
-        <v>0.123153</v>
+        <v>0.150021</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.09169819999999999</v>
+        <v>0.14153</v>
       </c>
       <c r="C65" t="n">
-        <v>0.138865</v>
+        <v>0.162439</v>
       </c>
       <c r="D65" t="n">
-        <v>0.144925</v>
+        <v>0.178471</v>
       </c>
       <c r="E65" t="n">
-        <v>0.10524</v>
+        <v>0.16046</v>
       </c>
       <c r="F65" t="n">
-        <v>0.161633</v>
+        <v>0.137738</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.09005639999999999</v>
+        <v>0.155901</v>
       </c>
       <c r="C66" t="n">
-        <v>0.142842</v>
+        <v>0.106643</v>
       </c>
       <c r="D66" t="n">
-        <v>0.139598</v>
+        <v>0.146976</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0867236</v>
+        <v>0.122332</v>
       </c>
       <c r="F66" t="n">
-        <v>0.13794</v>
+        <v>0.12408</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.145326</v>
+        <v>0.119822</v>
       </c>
       <c r="C67" t="n">
-        <v>0.130235</v>
+        <v>0.129757</v>
       </c>
       <c r="D67" t="n">
-        <v>0.190399</v>
+        <v>0.17118</v>
       </c>
       <c r="E67" t="n">
-        <v>0.108558</v>
+        <v>0.12632</v>
       </c>
       <c r="F67" t="n">
-        <v>0.133017</v>
+        <v>0.09058380000000001</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.125279</v>
+        <v>0.138409</v>
       </c>
       <c r="C68" t="n">
-        <v>0.129851</v>
+        <v>0.152814</v>
       </c>
       <c r="D68" t="n">
-        <v>0.197879</v>
+        <v>0.192682</v>
       </c>
       <c r="E68" t="n">
-        <v>0.06786880000000001</v>
+        <v>0.07325570000000001</v>
       </c>
       <c r="F68" t="n">
-        <v>0.119973</v>
+        <v>0.129044</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.138382</v>
+        <v>0.147781</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0939888</v>
+        <v>0.160777</v>
       </c>
       <c r="D69" t="n">
-        <v>0.179883</v>
+        <v>0.218208</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0643965</v>
+        <v>0.113279</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0828554</v>
+        <v>0.141566</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.117135</v>
+        <v>0.121159</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0978786</v>
+        <v>0.112716</v>
       </c>
       <c r="D70" t="n">
-        <v>0.13309</v>
+        <v>0.16211</v>
       </c>
       <c r="E70" t="n">
-        <v>0.105597</v>
+        <v>0.0633483</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0782003</v>
+        <v>0.0977507</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.108596</v>
+        <v>0.0955442</v>
       </c>
       <c r="C71" t="n">
-        <v>0.121476</v>
+        <v>0.0973434</v>
       </c>
       <c r="D71" t="n">
-        <v>0.157369</v>
+        <v>0.193507</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0560408</v>
+        <v>0.104597</v>
       </c>
       <c r="F71" t="n">
-        <v>0.135733</v>
+        <v>0.106698</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.151021</v>
+        <v>0.14686</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0937963</v>
+        <v>0.167313</v>
       </c>
       <c r="D72" t="n">
-        <v>0.11381</v>
+        <v>0.22596</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0800651</v>
+        <v>0.10388</v>
       </c>
       <c r="F72" t="n">
-        <v>0.111764</v>
+        <v>0.09785969999999999</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.145377</v>
+        <v>0.129682</v>
       </c>
       <c r="C73" t="n">
-        <v>0.122346</v>
+        <v>0.139246</v>
       </c>
       <c r="D73" t="n">
-        <v>0.132277</v>
+        <v>0.147854</v>
       </c>
       <c r="E73" t="n">
-        <v>0.104336</v>
+        <v>0.0925211</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08294749999999999</v>
+        <v>0.162291</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.123779</v>
+        <v>0.132817</v>
       </c>
       <c r="C74" t="n">
-        <v>0.180435</v>
+        <v>0.114806</v>
       </c>
       <c r="D74" t="n">
-        <v>0.119687</v>
+        <v>0.187686</v>
       </c>
       <c r="E74" t="n">
-        <v>0.105761</v>
+        <v>0.106783</v>
       </c>
       <c r="F74" t="n">
-        <v>0.166912</v>
+        <v>0.123221</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.158641</v>
+        <v>0.0773628</v>
       </c>
       <c r="C75" t="n">
-        <v>0.214814</v>
+        <v>0.212549</v>
       </c>
       <c r="D75" t="n">
-        <v>0.136682</v>
+        <v>0.217562</v>
       </c>
       <c r="E75" t="n">
-        <v>0.09272370000000001</v>
+        <v>0.105955</v>
       </c>
       <c r="F75" t="n">
-        <v>0.148593</v>
+        <v>0.162442</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.071466</v>
+        <v>0.131668</v>
       </c>
       <c r="C76" t="n">
-        <v>0.183877</v>
+        <v>0.20288</v>
       </c>
       <c r="D76" t="n">
-        <v>0.206229</v>
+        <v>0.266394</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0929456</v>
+        <v>0.125474</v>
       </c>
       <c r="F76" t="n">
-        <v>0.140385</v>
+        <v>0.174678</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0996213</v>
+        <v>0.145396</v>
       </c>
       <c r="C77" t="n">
-        <v>0.132835</v>
+        <v>0.210773</v>
       </c>
       <c r="D77" t="n">
-        <v>0.152763</v>
+        <v>0.242454</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0759746</v>
+        <v>0.123235</v>
       </c>
       <c r="F77" t="n">
-        <v>0.127458</v>
+        <v>0.175911</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0957993</v>
+        <v>0.15014</v>
       </c>
       <c r="C78" t="n">
-        <v>0.180642</v>
+        <v>0.189019</v>
       </c>
       <c r="D78" t="n">
-        <v>0.207776</v>
+        <v>0.207427</v>
       </c>
       <c r="E78" t="n">
-        <v>0.146292</v>
+        <v>0.111457</v>
       </c>
       <c r="F78" t="n">
-        <v>0.17947</v>
+        <v>0.195131</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.10989</v>
+        <v>0.136524</v>
       </c>
       <c r="C79" t="n">
-        <v>0.204264</v>
+        <v>0.177543</v>
       </c>
       <c r="D79" t="n">
-        <v>0.243384</v>
+        <v>0.188583</v>
       </c>
       <c r="E79" t="n">
-        <v>0.106513</v>
+        <v>0.0852139</v>
       </c>
       <c r="F79" t="n">
-        <v>0.126453</v>
+        <v>0.143918</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.104716</v>
+        <v>0.09032999999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>0.159246</v>
+        <v>0.17259</v>
       </c>
       <c r="D80" t="n">
-        <v>0.263728</v>
+        <v>0.228757</v>
       </c>
       <c r="E80" t="n">
-        <v>0.154577</v>
+        <v>0.113252</v>
       </c>
       <c r="F80" t="n">
-        <v>0.158853</v>
+        <v>0.160072</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.242506</v>
+        <v>0.257346</v>
       </c>
       <c r="C81" t="n">
-        <v>0.219898</v>
+        <v>0.194945</v>
       </c>
       <c r="D81" t="n">
-        <v>0.297256</v>
+        <v>0.240823</v>
       </c>
       <c r="E81" t="n">
-        <v>0.197739</v>
+        <v>0.100623</v>
       </c>
       <c r="F81" t="n">
-        <v>0.217655</v>
+        <v>0.162256</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.249061</v>
+        <v>0.27284</v>
       </c>
       <c r="C82" t="n">
-        <v>0.248438</v>
+        <v>0.233433</v>
       </c>
       <c r="D82" t="n">
-        <v>0.287211</v>
+        <v>0.28384</v>
       </c>
       <c r="E82" t="n">
-        <v>0.189308</v>
+        <v>0.118616</v>
       </c>
       <c r="F82" t="n">
-        <v>0.223461</v>
+        <v>0.141336</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.248006</v>
+        <v>0.249524</v>
       </c>
       <c r="C83" t="n">
-        <v>0.222175</v>
+        <v>0.222539</v>
       </c>
       <c r="D83" t="n">
-        <v>0.301464</v>
+        <v>0.283463</v>
       </c>
       <c r="E83" t="n">
-        <v>0.207108</v>
+        <v>0.103409</v>
       </c>
       <c r="F83" t="n">
-        <v>0.215105</v>
+        <v>0.161593</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.242658</v>
+        <v>0.258297</v>
       </c>
       <c r="C84" t="n">
-        <v>0.235117</v>
+        <v>0.25275</v>
       </c>
       <c r="D84" t="n">
-        <v>0.2893</v>
+        <v>0.301163</v>
       </c>
       <c r="E84" t="n">
-        <v>0.199601</v>
+        <v>0.112072</v>
       </c>
       <c r="F84" t="n">
-        <v>0.213836</v>
+        <v>0.17308</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.264343</v>
+        <v>0.249234</v>
       </c>
       <c r="C85" t="n">
-        <v>0.273775</v>
+        <v>0.268949</v>
       </c>
       <c r="D85" t="n">
-        <v>0.307239</v>
+        <v>0.331031</v>
       </c>
       <c r="E85" t="n">
-        <v>0.204145</v>
+        <v>0.120459</v>
       </c>
       <c r="F85" t="n">
-        <v>0.214503</v>
+        <v>0.156726</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.260326</v>
+        <v>0.194525</v>
       </c>
       <c r="C86" t="n">
-        <v>0.242947</v>
+        <v>0.261388</v>
       </c>
       <c r="D86" t="n">
-        <v>0.350659</v>
+        <v>0.30695</v>
       </c>
       <c r="E86" t="n">
-        <v>0.219353</v>
+        <v>0.151999</v>
       </c>
       <c r="F86" t="n">
-        <v>0.210561</v>
+        <v>0.193679</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.234217</v>
+        <v>0.231312</v>
       </c>
       <c r="C87" t="n">
-        <v>0.248542</v>
+        <v>0.2572</v>
       </c>
       <c r="D87" t="n">
-        <v>0.322777</v>
+        <v>0.357488</v>
       </c>
       <c r="E87" t="n">
-        <v>0.189967</v>
+        <v>0.152234</v>
       </c>
       <c r="F87" t="n">
-        <v>0.200351</v>
+        <v>0.201419</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.258518</v>
+        <v>0.26905</v>
       </c>
       <c r="C88" t="n">
-        <v>0.236862</v>
+        <v>0.247446</v>
       </c>
       <c r="D88" t="n">
-        <v>0.335074</v>
+        <v>0.322191</v>
       </c>
       <c r="E88" t="n">
-        <v>0.188404</v>
+        <v>0.153479</v>
       </c>
       <c r="F88" t="n">
-        <v>0.202017</v>
+        <v>0.159532</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.261934</v>
+        <v>0.221189</v>
       </c>
       <c r="C89" t="n">
-        <v>0.262342</v>
+        <v>0.224121</v>
       </c>
       <c r="D89" t="n">
-        <v>0.343245</v>
+        <v>0.342882</v>
       </c>
       <c r="E89" t="n">
-        <v>0.195911</v>
+        <v>0.15035</v>
       </c>
       <c r="F89" t="n">
-        <v>0.203324</v>
+        <v>0.153817</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.248692</v>
+        <v>0.204977</v>
       </c>
       <c r="C90" t="n">
-        <v>0.190219</v>
+        <v>0.251578</v>
       </c>
       <c r="D90" t="n">
-        <v>0.321905</v>
+        <v>0.406218</v>
       </c>
       <c r="E90" t="n">
-        <v>0.174226</v>
+        <v>0.166164</v>
       </c>
       <c r="F90" t="n">
-        <v>0.181785</v>
+        <v>0.161915</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.233377</v>
+        <v>0.192629</v>
       </c>
       <c r="C91" t="n">
-        <v>0.245806</v>
+        <v>0.232416</v>
       </c>
       <c r="D91" t="n">
-        <v>0.40143</v>
+        <v>0.305828</v>
       </c>
       <c r="E91" t="n">
-        <v>0.223723</v>
+        <v>0.160942</v>
       </c>
       <c r="F91" t="n">
-        <v>0.184799</v>
+        <v>0.190111</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.183021</v>
+        <v>0.273102</v>
       </c>
       <c r="C92" t="n">
-        <v>0.269646</v>
+        <v>0.236601</v>
       </c>
       <c r="D92" t="n">
-        <v>0.356286</v>
+        <v>0.356959</v>
       </c>
       <c r="E92" t="n">
-        <v>0.209636</v>
+        <v>0.152893</v>
       </c>
       <c r="F92" t="n">
-        <v>0.222228</v>
+        <v>0.191024</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.259299</v>
+        <v>0.259646</v>
       </c>
       <c r="C93" t="n">
-        <v>0.19614</v>
+        <v>0.294265</v>
       </c>
       <c r="D93" t="n">
-        <v>0.315271</v>
+        <v>0.376238</v>
       </c>
       <c r="E93" t="n">
-        <v>0.211345</v>
+        <v>0.110111</v>
       </c>
       <c r="F93" t="n">
-        <v>0.255408</v>
+        <v>0.239034</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.272243</v>
+        <v>0.244393</v>
       </c>
       <c r="C94" t="n">
-        <v>0.264638</v>
+        <v>0.198126</v>
       </c>
       <c r="D94" t="n">
-        <v>0.386829</v>
+        <v>0.376131</v>
       </c>
       <c r="E94" t="n">
-        <v>0.207712</v>
+        <v>0.225404</v>
       </c>
       <c r="F94" t="n">
-        <v>0.279595</v>
+        <v>0.308105</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.389837</v>
+        <v>0.378547</v>
       </c>
       <c r="C95" t="n">
-        <v>0.31721</v>
+        <v>0.380693</v>
       </c>
       <c r="D95" t="n">
-        <v>0.34024</v>
+        <v>0.400445</v>
       </c>
       <c r="E95" t="n">
-        <v>0.268524</v>
+        <v>0.210153</v>
       </c>
       <c r="F95" t="n">
-        <v>0.321442</v>
+        <v>0.275327</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.406163</v>
+        <v>0.369127</v>
       </c>
       <c r="C96" t="n">
-        <v>0.387824</v>
+        <v>0.364712</v>
       </c>
       <c r="D96" t="n">
-        <v>0.397806</v>
+        <v>0.413035</v>
       </c>
       <c r="E96" t="n">
-        <v>0.20772</v>
+        <v>0.200839</v>
       </c>
       <c r="F96" t="n">
-        <v>0.242867</v>
+        <v>0.29687</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.331014</v>
+        <v>0.347566</v>
       </c>
       <c r="C97" t="n">
-        <v>0.327873</v>
+        <v>0.358131</v>
       </c>
       <c r="D97" t="n">
-        <v>0.418813</v>
+        <v>0.426697</v>
       </c>
       <c r="E97" t="n">
-        <v>0.229706</v>
+        <v>0.249286</v>
       </c>
       <c r="F97" t="n">
-        <v>0.28495</v>
+        <v>0.299959</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.353717</v>
+        <v>0.371699</v>
       </c>
       <c r="C98" t="n">
-        <v>0.404552</v>
+        <v>0.332924</v>
       </c>
       <c r="D98" t="n">
-        <v>0.41033</v>
+        <v>0.413764</v>
       </c>
       <c r="E98" t="n">
-        <v>0.249645</v>
+        <v>0.223343</v>
       </c>
       <c r="F98" t="n">
-        <v>0.303759</v>
+        <v>0.297095</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.339504</v>
+        <v>0.314212</v>
       </c>
       <c r="C99" t="n">
-        <v>0.359917</v>
+        <v>0.364388</v>
       </c>
       <c r="D99" t="n">
-        <v>0.380305</v>
+        <v>0.439806</v>
       </c>
       <c r="E99" t="n">
-        <v>0.2087</v>
+        <v>0.262275</v>
       </c>
       <c r="F99" t="n">
-        <v>0.327974</v>
+        <v>0.31519</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.380402</v>
+        <v>0.305075</v>
       </c>
       <c r="C100" t="n">
-        <v>0.389027</v>
+        <v>0.31694</v>
       </c>
       <c r="D100" t="n">
-        <v>0.433928</v>
+        <v>0.457329</v>
       </c>
       <c r="E100" t="n">
-        <v>0.2395</v>
+        <v>0.220081</v>
       </c>
       <c r="F100" t="n">
-        <v>0.251219</v>
+        <v>0.27321</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.292313</v>
+        <v>0.304168</v>
       </c>
       <c r="C101" t="n">
-        <v>0.370928</v>
+        <v>0.386253</v>
       </c>
       <c r="D101" t="n">
-        <v>0.428582</v>
+        <v>0.377806</v>
       </c>
       <c r="E101" t="n">
-        <v>0.233036</v>
+        <v>0.231549</v>
       </c>
       <c r="F101" t="n">
-        <v>0.26875</v>
+        <v>0.264133</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.392072</v>
+        <v>0.344435</v>
       </c>
       <c r="C102" t="n">
-        <v>0.344847</v>
+        <v>0.384334</v>
       </c>
       <c r="D102" t="n">
-        <v>0.483765</v>
+        <v>0.488082</v>
       </c>
       <c r="E102" t="n">
-        <v>0.281991</v>
+        <v>0.235687</v>
       </c>
       <c r="F102" t="n">
-        <v>0.311066</v>
+        <v>0.254604</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.323043</v>
+        <v>0.327161</v>
       </c>
       <c r="C103" t="n">
-        <v>0.403288</v>
+        <v>0.359774</v>
       </c>
       <c r="D103" t="n">
-        <v>0.483786</v>
+        <v>0.412926</v>
       </c>
       <c r="E103" t="n">
-        <v>0.228259</v>
+        <v>0.236987</v>
       </c>
       <c r="F103" t="n">
-        <v>0.277079</v>
+        <v>0.318116</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.315188</v>
+        <v>0.350405</v>
       </c>
       <c r="C104" t="n">
-        <v>0.360008</v>
+        <v>0.344394</v>
       </c>
       <c r="D104" t="n">
-        <v>0.454402</v>
+        <v>0.430338</v>
       </c>
       <c r="E104" t="n">
-        <v>0.263235</v>
+        <v>0.211519</v>
       </c>
       <c r="F104" t="n">
-        <v>0.239438</v>
+        <v>0.277808</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.294206</v>
+        <v>0.340817</v>
       </c>
       <c r="C105" t="n">
-        <v>0.361175</v>
+        <v>0.343409</v>
       </c>
       <c r="D105" t="n">
-        <v>0.376528</v>
+        <v>0.442057</v>
       </c>
       <c r="E105" t="n">
-        <v>0.229599</v>
+        <v>0.230722</v>
       </c>
       <c r="F105" t="n">
-        <v>0.272952</v>
+        <v>0.272736</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.273549</v>
+        <v>0.30674</v>
       </c>
       <c r="C106" t="n">
-        <v>0.373528</v>
+        <v>0.326648</v>
       </c>
       <c r="D106" t="n">
-        <v>0.43761</v>
+        <v>0.408006</v>
       </c>
       <c r="E106" t="n">
-        <v>0.24414</v>
+        <v>0.210524</v>
       </c>
       <c r="F106" t="n">
-        <v>0.269269</v>
+        <v>0.224305</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.377211</v>
+        <v>0.282818</v>
       </c>
       <c r="C107" t="n">
-        <v>0.374283</v>
+        <v>0.465743</v>
       </c>
       <c r="D107" t="n">
-        <v>0.407229</v>
+        <v>0.40994</v>
       </c>
       <c r="E107" t="n">
-        <v>0.274848</v>
+        <v>0.286359</v>
       </c>
       <c r="F107" t="n">
-        <v>0.338</v>
+        <v>0.328124</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.294813</v>
+        <v>0.334082</v>
       </c>
       <c r="C108" t="n">
-        <v>0.371435</v>
+        <v>0.412975</v>
       </c>
       <c r="D108" t="n">
-        <v>0.427228</v>
+        <v>0.461253</v>
       </c>
       <c r="E108" t="n">
-        <v>0.327694</v>
+        <v>0.29358</v>
       </c>
       <c r="F108" t="n">
-        <v>0.302439</v>
+        <v>0.335271</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.30961</v>
+        <v>0.393366</v>
       </c>
       <c r="C109" t="n">
-        <v>0.430794</v>
+        <v>0.34669</v>
       </c>
       <c r="D109" t="n">
-        <v>0.37663</v>
+        <v>0.420157</v>
       </c>
       <c r="E109" t="n">
-        <v>0.29419</v>
+        <v>0.273664</v>
       </c>
       <c r="F109" t="n">
-        <v>0.318383</v>
+        <v>0.31341</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.347845</v>
+        <v>0.361963</v>
       </c>
       <c r="C110" t="n">
-        <v>0.469903</v>
+        <v>0.446903</v>
       </c>
       <c r="D110" t="n">
-        <v>0.357045</v>
+        <v>0.44826</v>
       </c>
       <c r="E110" t="n">
-        <v>0.275809</v>
+        <v>0.304474</v>
       </c>
       <c r="F110" t="n">
-        <v>0.288066</v>
+        <v>0.337434</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.393332</v>
+        <v>0.39177</v>
       </c>
       <c r="C111" t="n">
-        <v>0.436104</v>
+        <v>0.443763</v>
       </c>
       <c r="D111" t="n">
-        <v>0.374343</v>
+        <v>0.491758</v>
       </c>
       <c r="E111" t="n">
-        <v>0.329959</v>
+        <v>0.337073</v>
       </c>
       <c r="F111" t="n">
-        <v>0.328584</v>
+        <v>0.358594</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.359667</v>
+        <v>0.35516</v>
       </c>
       <c r="C112" t="n">
-        <v>0.48692</v>
+        <v>0.497685</v>
       </c>
       <c r="D112" t="n">
-        <v>0.492809</v>
+        <v>0.458373</v>
       </c>
       <c r="E112" t="n">
-        <v>0.304292</v>
+        <v>0.324345</v>
       </c>
       <c r="F112" t="n">
-        <v>0.334917</v>
+        <v>0.355434</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.325247</v>
+        <v>0.441725</v>
       </c>
       <c r="C113" t="n">
-        <v>0.452953</v>
+        <v>0.505589</v>
       </c>
       <c r="D113" t="n">
-        <v>0.509143</v>
+        <v>0.465269</v>
       </c>
       <c r="E113" t="n">
-        <v>0.296576</v>
+        <v>0.31415</v>
       </c>
       <c r="F113" t="n">
-        <v>0.358534</v>
+        <v>0.400848</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.367366</v>
+        <v>0.393681</v>
       </c>
       <c r="C114" t="n">
-        <v>0.397159</v>
+        <v>0.449464</v>
       </c>
       <c r="D114" t="n">
-        <v>0.383143</v>
+        <v>0.439173</v>
       </c>
       <c r="E114" t="n">
-        <v>0.313742</v>
+        <v>0.299802</v>
       </c>
       <c r="F114" t="n">
-        <v>0.371673</v>
+        <v>0.294654</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.380941</v>
+        <v>0.375142</v>
       </c>
       <c r="C115" t="n">
-        <v>0.451837</v>
+        <v>0.462218</v>
       </c>
       <c r="D115" t="n">
-        <v>0.40926</v>
+        <v>0.472303</v>
       </c>
       <c r="E115" t="n">
-        <v>0.291297</v>
+        <v>0.34692</v>
       </c>
       <c r="F115" t="n">
-        <v>0.313026</v>
+        <v>0.317641</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.374025</v>
+        <v>0.384392</v>
       </c>
       <c r="C116" t="n">
-        <v>0.519606</v>
+        <v>0.477146</v>
       </c>
       <c r="D116" t="n">
-        <v>0.46614</v>
+        <v>0.494179</v>
       </c>
       <c r="E116" t="n">
-        <v>0.33069</v>
+        <v>0.294659</v>
       </c>
       <c r="F116" t="n">
-        <v>0.368715</v>
+        <v>0.334288</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.324615</v>
+        <v>0.411694</v>
       </c>
       <c r="C117" t="n">
-        <v>0.457379</v>
+        <v>0.381851</v>
       </c>
       <c r="D117" t="n">
-        <v>0.545059</v>
+        <v>0.445288</v>
       </c>
       <c r="E117" t="n">
-        <v>0.310235</v>
+        <v>0.344024</v>
       </c>
       <c r="F117" t="n">
-        <v>0.376573</v>
+        <v>0.358502</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.481397</v>
+        <v>0.385094</v>
       </c>
       <c r="C118" t="n">
-        <v>0.51141</v>
+        <v>0.420959</v>
       </c>
       <c r="D118" t="n">
-        <v>0.4978</v>
+        <v>0.497814</v>
       </c>
       <c r="E118" t="n">
-        <v>0.278663</v>
+        <v>0.305246</v>
       </c>
       <c r="F118" t="n">
-        <v>0.403474</v>
+        <v>0.404183</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.390831</v>
+        <v>0.39987</v>
       </c>
       <c r="C119" t="n">
-        <v>0.384459</v>
+        <v>0.412147</v>
       </c>
       <c r="D119" t="n">
-        <v>0.489168</v>
+        <v>0.568705</v>
       </c>
       <c r="E119" t="n">
-        <v>0.315352</v>
+        <v>0.31146</v>
       </c>
       <c r="F119" t="n">
-        <v>0.377629</v>
+        <v>0.319301</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.422871</v>
+        <v>0.347628</v>
       </c>
       <c r="C120" t="n">
-        <v>0.471917</v>
+        <v>0.526578</v>
       </c>
       <c r="D120" t="n">
-        <v>0.479487</v>
+        <v>0.590189</v>
       </c>
       <c r="E120" t="n">
-        <v>0.335071</v>
+        <v>0.339886</v>
       </c>
       <c r="F120" t="n">
-        <v>0.385993</v>
+        <v>0.37741</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.40436</v>
+        <v>0.372305</v>
       </c>
       <c r="C121" t="n">
-        <v>0.423636</v>
+        <v>0.4765</v>
       </c>
       <c r="D121" t="n">
-        <v>0.442202</v>
+        <v>0.427028</v>
       </c>
       <c r="E121" t="n">
-        <v>0.276073</v>
+        <v>0.319677</v>
       </c>
       <c r="F121" t="n">
-        <v>0.435697</v>
+        <v>0.313049</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.43589</v>
+        <v>0.321761</v>
       </c>
       <c r="C122" t="n">
-        <v>0.44027</v>
+        <v>0.441618</v>
       </c>
       <c r="D122" t="n">
-        <v>0.453688</v>
+        <v>0.376931</v>
       </c>
       <c r="E122" t="n">
-        <v>0.35887</v>
+        <v>0.37045</v>
       </c>
       <c r="F122" t="n">
-        <v>0.373414</v>
+        <v>0.404357</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.46826</v>
+        <v>0.373047</v>
       </c>
       <c r="C123" t="n">
-        <v>0.487188</v>
+        <v>0.427415</v>
       </c>
       <c r="D123" t="n">
-        <v>0.481674</v>
+        <v>0.562231</v>
       </c>
       <c r="E123" t="n">
-        <v>0.315624</v>
+        <v>0.339535</v>
       </c>
       <c r="F123" t="n">
-        <v>0.352721</v>
+        <v>0.400483</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.451904</v>
+        <v>0.456105</v>
       </c>
       <c r="C124" t="n">
-        <v>0.502027</v>
+        <v>0.53909</v>
       </c>
       <c r="D124" t="n">
-        <v>0.452833</v>
+        <v>0.5496220000000001</v>
       </c>
       <c r="E124" t="n">
-        <v>0.2754</v>
+        <v>0.30261</v>
       </c>
       <c r="F124" t="n">
-        <v>0.366543</v>
+        <v>0.381429</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.526945</v>
+        <v>0.463455</v>
       </c>
       <c r="C125" t="n">
-        <v>0.565379</v>
+        <v>0.531505</v>
       </c>
       <c r="D125" t="n">
-        <v>0.495073</v>
+        <v>0.421667</v>
       </c>
       <c r="E125" t="n">
-        <v>0.383188</v>
+        <v>0.313371</v>
       </c>
       <c r="F125" t="n">
-        <v>0.354858</v>
+        <v>0.443695</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.508537</v>
+        <v>0.467265</v>
       </c>
       <c r="C126" t="n">
-        <v>0.490762</v>
+        <v>0.572896</v>
       </c>
       <c r="D126" t="n">
-        <v>0.467272</v>
+        <v>0.517105</v>
       </c>
       <c r="E126" t="n">
-        <v>0.277266</v>
+        <v>0.340132</v>
       </c>
       <c r="F126" t="n">
-        <v>0.398608</v>
+        <v>0.39911</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.537254</v>
+        <v>0.495</v>
       </c>
       <c r="C127" t="n">
-        <v>0.548542</v>
+        <v>0.533053</v>
       </c>
       <c r="D127" t="n">
-        <v>0.545976</v>
+        <v>0.47366</v>
       </c>
       <c r="E127" t="n">
-        <v>0.342409</v>
+        <v>0.341943</v>
       </c>
       <c r="F127" t="n">
-        <v>0.361539</v>
+        <v>0.384905</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.465543</v>
+        <v>0.455743</v>
       </c>
       <c r="C128" t="n">
-        <v>0.550037</v>
+        <v>0.471517</v>
       </c>
       <c r="D128" t="n">
-        <v>0.457986</v>
+        <v>0.435388</v>
       </c>
       <c r="E128" t="n">
-        <v>0.372937</v>
+        <v>0.350973</v>
       </c>
       <c r="F128" t="n">
-        <v>0.3343</v>
+        <v>0.358303</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.470354</v>
+        <v>0.472829</v>
       </c>
       <c r="C129" t="n">
-        <v>0.510134</v>
+        <v>0.458475</v>
       </c>
       <c r="D129" t="n">
-        <v>0.438927</v>
+        <v>0.463461</v>
       </c>
       <c r="E129" t="n">
-        <v>0.34582</v>
+        <v>0.380152</v>
       </c>
       <c r="F129" t="n">
-        <v>0.382744</v>
+        <v>0.396305</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.484696</v>
+        <v>0.491065</v>
       </c>
       <c r="C130" t="n">
-        <v>0.4961</v>
+        <v>0.544167</v>
       </c>
       <c r="D130" t="n">
-        <v>0.530016</v>
+        <v>0.44226</v>
       </c>
       <c r="E130" t="n">
-        <v>0.371389</v>
+        <v>0.353612</v>
       </c>
       <c r="F130" t="n">
-        <v>0.369352</v>
+        <v>0.385475</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.431156</v>
+        <v>0.481038</v>
       </c>
       <c r="C131" t="n">
-        <v>0.609796</v>
+        <v>0.431572</v>
       </c>
       <c r="D131" t="n">
-        <v>0.5923580000000001</v>
+        <v>0.515362</v>
       </c>
       <c r="E131" t="n">
-        <v>0.390029</v>
+        <v>0.371997</v>
       </c>
       <c r="F131" t="n">
-        <v>0.375193</v>
+        <v>0.44664</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.433209</v>
+        <v>0.420418</v>
       </c>
       <c r="C132" t="n">
-        <v>0.509777</v>
+        <v>0.5692120000000001</v>
       </c>
       <c r="D132" t="n">
-        <v>0.616245</v>
+        <v>0.486902</v>
       </c>
       <c r="E132" t="n">
-        <v>0.374998</v>
+        <v>0.391851</v>
       </c>
       <c r="F132" t="n">
-        <v>0.451415</v>
+        <v>0.399601</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.498264</v>
+        <v>0.462321</v>
       </c>
       <c r="C133" t="n">
-        <v>0.571066</v>
+        <v>0.550576</v